--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\questions_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-SCHOOL\1-Prog\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85FBE2-942F-4AB1-B984-3F4C2731B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A597D74-E5BE-4BA3-A938-980817C46E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="1305" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -4690,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22397,7 +22397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C172" sqref="C172:C201"/>
     </sheetView>
   </sheetViews>
@@ -24707,15 +24707,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -24861,6 +24852,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -24878,14 +24878,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24901,4 +24893,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-SCHOOL\1-Prog\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A597D74-E5BE-4BA3-A938-980817C46E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC6F7BF-3A59-4782-886E-68CA25089B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -4688,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N191" sqref="N191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,7 +4704,7 @@
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4746,8 +4746,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>146</v>
@@ -4767,8 +4767,11 @@
       <c r="J2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4778,8 +4781,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>151</v>
@@ -4799,8 +4802,11 @@
       <c r="J3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4810,8 +4816,8 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>156</v>
@@ -4831,8 +4837,11 @@
       <c r="J4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4842,8 +4851,8 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>160</v>
@@ -4863,8 +4872,11 @@
       <c r="J5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4874,8 +4886,8 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>165</v>
@@ -4895,8 +4907,11 @@
       <c r="J6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4906,8 +4921,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>176</v>
@@ -4927,8 +4942,11 @@
       <c r="J7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4938,8 +4956,8 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
@@ -4959,8 +4977,11 @@
       <c r="J8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4970,8 +4991,8 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>115</v>
@@ -4991,8 +5012,11 @@
       <c r="J9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5002,8 +5026,8 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>120</v>
@@ -5023,8 +5047,11 @@
       <c r="J10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5034,8 +5061,8 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>181</v>
@@ -5055,8 +5082,11 @@
       <c r="J11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5066,8 +5096,8 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>190</v>
@@ -5087,8 +5117,11 @@
       <c r="J12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5098,8 +5131,8 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>194</v>
@@ -5119,8 +5152,11 @@
       <c r="J13" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5130,8 +5166,8 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>199</v>
@@ -5151,8 +5187,11 @@
       <c r="J14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5162,8 +5201,8 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>0</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>130</v>
@@ -5183,8 +5222,11 @@
       <c r="J15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5194,8 +5236,8 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>0</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>205</v>
@@ -5215,8 +5257,11 @@
       <c r="J16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5226,8 +5271,8 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>208</v>
@@ -5247,8 +5292,11 @@
       <c r="J17" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5258,8 +5306,8 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>0</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>210</v>
@@ -5279,8 +5327,11 @@
       <c r="J18" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5290,8 +5341,8 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>0</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>211</v>
@@ -5311,8 +5362,11 @@
       <c r="J19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5322,8 +5376,8 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>0</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>212</v>
@@ -5343,8 +5397,11 @@
       <c r="J20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5354,8 +5411,8 @@
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>213</v>
@@ -5375,8 +5432,11 @@
       <c r="J21" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5386,8 +5446,8 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>0</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>214</v>
@@ -5407,8 +5467,11 @@
       <c r="J22" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5418,8 +5481,8 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>215</v>
@@ -5439,8 +5502,11 @@
       <c r="J23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5450,8 +5516,8 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>216</v>
@@ -5471,8 +5537,11 @@
       <c r="J24" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5482,8 +5551,8 @@
       <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="s">
-        <v>0</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>221</v>
@@ -5503,8 +5572,11 @@
       <c r="J25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5514,8 +5586,8 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>0</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -5535,8 +5607,11 @@
       <c r="J26" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5546,8 +5621,8 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>0</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>229</v>
@@ -5567,8 +5642,11 @@
       <c r="J27" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5578,8 +5656,8 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>0</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>233</v>
@@ -5599,8 +5677,11 @@
       <c r="J28" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5610,8 +5691,8 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
-        <v>0</v>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>548</v>
@@ -5631,8 +5712,11 @@
       <c r="J29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5642,8 +5726,8 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>0</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>238</v>
@@ -5663,8 +5747,11 @@
       <c r="J30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5674,8 +5761,8 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>0</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>244</v>
@@ -5695,8 +5782,11 @@
       <c r="J31" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5706,8 +5796,8 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>0</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>248</v>
@@ -5727,8 +5817,11 @@
       <c r="J32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5738,8 +5831,8 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>0</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>253</v>
@@ -5759,8 +5852,11 @@
       <c r="J33" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5770,8 +5866,8 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>0</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>258</v>
@@ -5791,8 +5887,11 @@
       <c r="J34" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5802,8 +5901,8 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
-        <v>0</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>261</v>
@@ -5823,8 +5922,11 @@
       <c r="J35" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5834,8 +5936,8 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
-        <v>1</v>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>266</v>
@@ -5855,8 +5957,11 @@
       <c r="J36" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5866,8 +5971,8 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
-        <v>1</v>
+      <c r="D37">
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>271</v>
@@ -5887,8 +5992,11 @@
       <c r="J37" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5898,8 +6006,8 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>1</v>
+      <c r="D38">
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>276</v>
@@ -5919,8 +6027,11 @@
       <c r="J38" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5930,8 +6041,8 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>1</v>
+      <c r="D39">
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>280</v>
@@ -5951,8 +6062,11 @@
       <c r="J39" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5962,8 +6076,8 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
-        <v>1</v>
+      <c r="D40">
+        <v>2</v>
       </c>
       <c r="E40" t="s">
         <v>285</v>
@@ -5983,8 +6097,11 @@
       <c r="J40" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5994,8 +6111,8 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
-        <v>1</v>
+      <c r="D41">
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>289</v>
@@ -6015,8 +6132,11 @@
       <c r="J41" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6026,8 +6146,8 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" t="s">
-        <v>1</v>
+      <c r="D42">
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>293</v>
@@ -6047,8 +6167,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6058,8 +6181,8 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
+      <c r="D43">
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>296</v>
@@ -6079,8 +6202,11 @@
       <c r="J43" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6090,8 +6216,8 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
+      <c r="D44">
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>301</v>
@@ -6111,8 +6237,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6122,8 +6251,8 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
-        <v>1</v>
+      <c r="D45">
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>35</v>
@@ -6143,8 +6272,11 @@
       <c r="J45" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6154,8 +6286,8 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
-        <v>1</v>
+      <c r="D46">
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>303</v>
@@ -6175,8 +6307,11 @@
       <c r="J46" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6186,8 +6321,8 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
-        <v>1</v>
+      <c r="D47">
+        <v>2</v>
       </c>
       <c r="E47" t="s">
         <v>307</v>
@@ -6207,8 +6342,11 @@
       <c r="J47" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6218,8 +6356,8 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>1</v>
+      <c r="D48">
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>312</v>
@@ -6239,8 +6377,11 @@
       <c r="J48" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6250,8 +6391,8 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>1</v>
+      <c r="D49">
+        <v>2</v>
       </c>
       <c r="E49" t="s">
         <v>317</v>
@@ -6271,8 +6412,11 @@
       <c r="J49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6282,8 +6426,8 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
+      <c r="D50">
+        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>318</v>
@@ -6303,8 +6447,11 @@
       <c r="J50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6314,8 +6461,8 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>1</v>
+      <c r="D51">
+        <v>2</v>
       </c>
       <c r="E51" t="s">
         <v>319</v>
@@ -6335,8 +6482,11 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6346,8 +6496,8 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>1</v>
+      <c r="D52">
+        <v>2</v>
       </c>
       <c r="E52" t="s">
         <v>323</v>
@@ -6367,8 +6517,11 @@
       <c r="J52" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6378,8 +6531,8 @@
       <c r="C53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>1</v>
+      <c r="D53">
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>39</v>
@@ -6399,8 +6552,11 @@
       <c r="J53" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6410,8 +6566,8 @@
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
-        <v>1</v>
+      <c r="D54">
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>61</v>
@@ -6431,8 +6587,11 @@
       <c r="J54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6442,8 +6601,8 @@
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>1</v>
+      <c r="D55">
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>328</v>
@@ -6463,8 +6622,11 @@
       <c r="J55" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6474,8 +6636,8 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" t="s">
-        <v>1</v>
+      <c r="D56">
+        <v>2</v>
       </c>
       <c r="E56" t="s">
         <v>332</v>
@@ -6495,8 +6657,11 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6506,8 +6671,8 @@
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" t="s">
-        <v>1</v>
+      <c r="D57">
+        <v>2</v>
       </c>
       <c r="E57" t="s">
         <v>338</v>
@@ -6527,8 +6692,11 @@
       <c r="J57" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6538,8 +6706,8 @@
       <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58" t="s">
         <v>343</v>
@@ -6559,8 +6727,11 @@
       <c r="J58" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6570,8 +6741,8 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
-        <v>1</v>
+      <c r="D59">
+        <v>2</v>
       </c>
       <c r="E59" t="s">
         <v>348</v>
@@ -6591,8 +6762,11 @@
       <c r="J59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6602,8 +6776,8 @@
       <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>1</v>
+      <c r="D60">
+        <v>2</v>
       </c>
       <c r="E60" t="s">
         <v>105</v>
@@ -6623,8 +6797,11 @@
       <c r="J60" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6634,8 +6811,8 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
-        <v>1</v>
+      <c r="D61">
+        <v>2</v>
       </c>
       <c r="E61" t="s">
         <v>349</v>
@@ -6655,8 +6832,11 @@
       <c r="J61" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6666,8 +6846,8 @@
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
-        <v>1</v>
+      <c r="D62">
+        <v>2</v>
       </c>
       <c r="E62" t="s">
         <v>353</v>
@@ -6687,8 +6867,11 @@
       <c r="J62" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6698,8 +6881,8 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
+      <c r="D63">
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>368</v>
@@ -6719,8 +6902,11 @@
       <c r="J63" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6730,8 +6916,8 @@
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>1</v>
+      <c r="D64">
+        <v>2</v>
       </c>
       <c r="E64" t="s">
         <v>370</v>
@@ -6751,8 +6937,11 @@
       <c r="J64" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6762,8 +6951,8 @@
       <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
-        <v>1</v>
+      <c r="D65">
+        <v>2</v>
       </c>
       <c r="E65" t="s">
         <v>377</v>
@@ -6783,8 +6972,11 @@
       <c r="J65" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6794,8 +6986,8 @@
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
-        <v>1</v>
+      <c r="D66">
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>382</v>
@@ -6815,8 +7007,11 @@
       <c r="J66" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6826,8 +7021,8 @@
       <c r="C67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="s">
-        <v>1</v>
+      <c r="D67">
+        <v>2</v>
       </c>
       <c r="E67" t="s">
         <v>388</v>
@@ -6847,8 +7042,11 @@
       <c r="J67" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6858,8 +7056,8 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" t="s">
-        <v>1</v>
+      <c r="D68">
+        <v>2</v>
       </c>
       <c r="E68" t="s">
         <v>393</v>
@@ -6879,8 +7077,11 @@
       <c r="J68" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6890,8 +7091,8 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" t="s">
-        <v>1</v>
+      <c r="D69">
+        <v>2</v>
       </c>
       <c r="E69" t="s">
         <v>394</v>
@@ -6908,8 +7109,11 @@
       <c r="I69" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6919,8 +7123,8 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>2</v>
+      <c r="D70">
+        <v>3</v>
       </c>
       <c r="E70" t="s">
         <v>400</v>
@@ -6940,8 +7144,11 @@
       <c r="J70" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6951,8 +7158,8 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
-        <v>2</v>
+      <c r="D71">
+        <v>3</v>
       </c>
       <c r="E71" t="s">
         <v>405</v>
@@ -6972,8 +7179,11 @@
       <c r="J71" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6983,8 +7193,8 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>2</v>
+      <c r="D72">
+        <v>3</v>
       </c>
       <c r="E72" t="s">
         <v>407</v>
@@ -7004,8 +7214,11 @@
       <c r="J72" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7015,8 +7228,8 @@
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
-        <v>2</v>
+      <c r="D73">
+        <v>3</v>
       </c>
       <c r="E73" t="s">
         <v>409</v>
@@ -7036,8 +7249,11 @@
       <c r="J73" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7047,8 +7263,8 @@
       <c r="C74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" t="s">
-        <v>2</v>
+      <c r="D74">
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>411</v>
@@ -7068,8 +7284,11 @@
       <c r="J74" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7079,8 +7298,8 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
-        <v>2</v>
+      <c r="D75">
+        <v>3</v>
       </c>
       <c r="E75" t="s">
         <v>416</v>
@@ -7100,8 +7319,11 @@
       <c r="J75" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7111,8 +7333,8 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
-        <v>2</v>
+      <c r="D76">
+        <v>3</v>
       </c>
       <c r="E76" t="s">
         <v>421</v>
@@ -7132,8 +7354,11 @@
       <c r="J76" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7143,8 +7368,8 @@
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" t="s">
-        <v>2</v>
+      <c r="D77">
+        <v>3</v>
       </c>
       <c r="E77" t="s">
         <v>56</v>
@@ -7164,8 +7389,11 @@
       <c r="J77" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7175,8 +7403,8 @@
       <c r="C78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" t="s">
-        <v>2</v>
+      <c r="D78">
+        <v>3</v>
       </c>
       <c r="E78" t="s">
         <v>437</v>
@@ -7196,8 +7424,11 @@
       <c r="J78" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7207,8 +7438,8 @@
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
-        <v>2</v>
+      <c r="D79">
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>442</v>
@@ -7228,8 +7459,11 @@
       <c r="J79" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7239,8 +7473,8 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
-        <v>2</v>
+      <c r="D80">
+        <v>3</v>
       </c>
       <c r="E80" t="s">
         <v>443</v>
@@ -7260,8 +7494,11 @@
       <c r="J80" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7271,8 +7508,8 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="s">
-        <v>2</v>
+      <c r="D81">
+        <v>3</v>
       </c>
       <c r="E81" t="s">
         <v>448</v>
@@ -7292,8 +7529,11 @@
       <c r="J81" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7303,8 +7543,8 @@
       <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" t="s">
-        <v>2</v>
+      <c r="D82">
+        <v>3</v>
       </c>
       <c r="E82" t="s">
         <v>453</v>
@@ -7324,8 +7564,11 @@
       <c r="J82" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7335,8 +7578,8 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" t="s">
-        <v>2</v>
+      <c r="D83">
+        <v>3</v>
       </c>
       <c r="E83" t="s">
         <v>458</v>
@@ -7356,8 +7599,11 @@
       <c r="J83" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7367,8 +7613,8 @@
       <c r="C84" t="s">
         <v>7</v>
       </c>
-      <c r="D84" t="s">
-        <v>0</v>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>85</v>
@@ -7388,8 +7634,11 @@
       <c r="J84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7399,8 +7648,8 @@
       <c r="C85" t="s">
         <v>7</v>
       </c>
-      <c r="D85" t="s">
-        <v>0</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>478</v>
@@ -7420,8 +7669,11 @@
       <c r="J85" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7431,8 +7683,8 @@
       <c r="C86" t="s">
         <v>7</v>
       </c>
-      <c r="D86" t="s">
-        <v>0</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>170</v>
@@ -7452,8 +7704,11 @@
       <c r="J86" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7463,8 +7718,8 @@
       <c r="C87" t="s">
         <v>7</v>
       </c>
-      <c r="D87" t="s">
-        <v>0</v>
+      <c r="D87">
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>483</v>
@@ -7484,8 +7739,11 @@
       <c r="J87" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7495,8 +7753,8 @@
       <c r="C88" t="s">
         <v>7</v>
       </c>
-      <c r="D88" t="s">
-        <v>0</v>
+      <c r="D88">
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>488</v>
@@ -7516,8 +7774,11 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7527,8 +7788,8 @@
       <c r="C89" t="s">
         <v>7</v>
       </c>
-      <c r="D89" t="s">
-        <v>0</v>
+      <c r="D89">
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>491</v>
@@ -7548,8 +7809,11 @@
       <c r="J89" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7559,8 +7823,8 @@
       <c r="C90" t="s">
         <v>7</v>
       </c>
-      <c r="D90" t="s">
-        <v>0</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>495</v>
@@ -7580,8 +7844,11 @@
       <c r="J90" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7591,8 +7858,8 @@
       <c r="C91" t="s">
         <v>7</v>
       </c>
-      <c r="D91" t="s">
-        <v>0</v>
+      <c r="D91">
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>186</v>
@@ -7612,8 +7879,11 @@
       <c r="J91" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7623,8 +7893,8 @@
       <c r="C92" t="s">
         <v>7</v>
       </c>
-      <c r="D92" t="s">
-        <v>0</v>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>125</v>
@@ -7644,8 +7914,11 @@
       <c r="J92" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7655,8 +7928,8 @@
       <c r="C93" t="s">
         <v>7</v>
       </c>
-      <c r="D93" t="s">
-        <v>0</v>
+      <c r="D93">
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>90</v>
@@ -7676,8 +7949,11 @@
       <c r="J93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7687,8 +7963,8 @@
       <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="D94" t="s">
-        <v>0</v>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>550</v>
@@ -7708,8 +7984,11 @@
       <c r="J94" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7719,8 +7998,8 @@
       <c r="C95" t="s">
         <v>7</v>
       </c>
-      <c r="D95" t="s">
-        <v>0</v>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>553</v>
@@ -7740,8 +8019,11 @@
       <c r="J95" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7751,8 +8033,8 @@
       <c r="C96" t="s">
         <v>7</v>
       </c>
-      <c r="D96" t="s">
-        <v>0</v>
+      <c r="D96">
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>554</v>
@@ -7772,8 +8054,11 @@
       <c r="J96" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7783,8 +8068,8 @@
       <c r="C97" t="s">
         <v>7</v>
       </c>
-      <c r="D97" t="s">
-        <v>0</v>
+      <c r="D97">
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>558</v>
@@ -7804,8 +8089,11 @@
       <c r="J97" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7815,8 +8103,8 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="D98" t="s">
-        <v>0</v>
+      <c r="D98">
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>563</v>
@@ -7836,8 +8124,11 @@
       <c r="J98" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7847,8 +8138,8 @@
       <c r="C99" t="s">
         <v>7</v>
       </c>
-      <c r="D99" t="s">
-        <v>0</v>
+      <c r="D99">
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>568</v>
@@ -7868,8 +8159,11 @@
       <c r="J99" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7879,8 +8173,8 @@
       <c r="C100" t="s">
         <v>7</v>
       </c>
-      <c r="D100" t="s">
-        <v>0</v>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>569</v>
@@ -7900,8 +8194,11 @@
       <c r="J100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7911,8 +8208,8 @@
       <c r="C101" t="s">
         <v>7</v>
       </c>
-      <c r="D101" t="s">
-        <v>0</v>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>570</v>
@@ -7932,8 +8229,11 @@
       <c r="J101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7943,8 +8243,8 @@
       <c r="C102" t="s">
         <v>7</v>
       </c>
-      <c r="D102" t="s">
-        <v>0</v>
+      <c r="D102">
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>571</v>
@@ -7964,8 +8264,11 @@
       <c r="J102" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7975,8 +8278,8 @@
       <c r="C103" t="s">
         <v>7</v>
       </c>
-      <c r="D103" t="s">
-        <v>0</v>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>499</v>
@@ -7996,8 +8299,11 @@
       <c r="J103" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8007,8 +8313,8 @@
       <c r="C104" t="s">
         <v>7</v>
       </c>
-      <c r="D104" t="s">
-        <v>0</v>
+      <c r="D104">
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>239</v>
@@ -8028,8 +8334,11 @@
       <c r="J104" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8039,8 +8348,8 @@
       <c r="C105" t="s">
         <v>7</v>
       </c>
-      <c r="D105" t="s">
-        <v>0</v>
+      <c r="D105">
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>574</v>
@@ -8060,8 +8369,11 @@
       <c r="J105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8071,8 +8383,8 @@
       <c r="C106" t="s">
         <v>7</v>
       </c>
-      <c r="D106" t="s">
-        <v>0</v>
+      <c r="D106">
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>575</v>
@@ -8092,8 +8404,11 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8103,8 +8418,8 @@
       <c r="C107" t="s">
         <v>7</v>
       </c>
-      <c r="D107" t="s">
-        <v>0</v>
+      <c r="D107">
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>577</v>
@@ -8124,8 +8439,11 @@
       <c r="J107" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8135,8 +8453,8 @@
       <c r="C108" t="s">
         <v>7</v>
       </c>
-      <c r="D108" t="s">
-        <v>1</v>
+      <c r="D108">
+        <v>2</v>
       </c>
       <c r="E108" t="s">
         <v>504</v>
@@ -8156,8 +8474,11 @@
       <c r="J108" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8167,8 +8488,8 @@
       <c r="C109" t="s">
         <v>7</v>
       </c>
-      <c r="D109" t="s">
-        <v>1</v>
+      <c r="D109">
+        <v>2</v>
       </c>
       <c r="E109" t="s">
         <v>508</v>
@@ -8188,8 +8509,11 @@
       <c r="J109" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8199,8 +8523,8 @@
       <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D110" t="s">
-        <v>1</v>
+      <c r="D110">
+        <v>2</v>
       </c>
       <c r="E110" t="s">
         <v>513</v>
@@ -8220,8 +8544,11 @@
       <c r="J110" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8231,8 +8558,8 @@
       <c r="C111" t="s">
         <v>7</v>
       </c>
-      <c r="D111" t="s">
-        <v>1</v>
+      <c r="D111">
+        <v>2</v>
       </c>
       <c r="E111" t="s">
         <v>517</v>
@@ -8252,8 +8579,11 @@
       <c r="J111" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8263,8 +8593,8 @@
       <c r="C112" t="s">
         <v>7</v>
       </c>
-      <c r="D112" t="s">
-        <v>1</v>
+      <c r="D112">
+        <v>2</v>
       </c>
       <c r="E112" t="s">
         <v>43</v>
@@ -8284,8 +8614,11 @@
       <c r="J112" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8295,8 +8628,8 @@
       <c r="C113" t="s">
         <v>7</v>
       </c>
-      <c r="D113" t="s">
-        <v>1</v>
+      <c r="D113">
+        <v>2</v>
       </c>
       <c r="E113" t="s">
         <v>527</v>
@@ -8316,8 +8649,11 @@
       <c r="J113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8327,8 +8663,8 @@
       <c r="C114" t="s">
         <v>7</v>
       </c>
-      <c r="D114" t="s">
-        <v>1</v>
+      <c r="D114">
+        <v>2</v>
       </c>
       <c r="E114" t="s">
         <v>578</v>
@@ -8348,8 +8684,11 @@
       <c r="J114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8359,8 +8698,8 @@
       <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="D115" t="s">
-        <v>1</v>
+      <c r="D115">
+        <v>2</v>
       </c>
       <c r="E115" t="s">
         <v>579</v>
@@ -8380,8 +8719,11 @@
       <c r="J115" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8391,8 +8733,8 @@
       <c r="C116" t="s">
         <v>7</v>
       </c>
-      <c r="D116" t="s">
-        <v>1</v>
+      <c r="D116">
+        <v>2</v>
       </c>
       <c r="E116" t="s">
         <v>584</v>
@@ -8412,8 +8754,11 @@
       <c r="J116" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8423,8 +8768,8 @@
       <c r="C117" t="s">
         <v>7</v>
       </c>
-      <c r="D117" t="s">
-        <v>1</v>
+      <c r="D117">
+        <v>2</v>
       </c>
       <c r="E117" t="s">
         <v>100</v>
@@ -8444,8 +8789,11 @@
       <c r="J117" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8455,8 +8803,8 @@
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118" t="s">
-        <v>1</v>
+      <c r="D118">
+        <v>2</v>
       </c>
       <c r="E118" t="s">
         <v>528</v>
@@ -8476,8 +8824,11 @@
       <c r="J118" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8487,8 +8838,8 @@
       <c r="C119" t="s">
         <v>7</v>
       </c>
-      <c r="D119" t="s">
-        <v>1</v>
+      <c r="D119">
+        <v>2</v>
       </c>
       <c r="E119" t="s">
         <v>533</v>
@@ -8508,8 +8859,11 @@
       <c r="J119" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8519,8 +8873,8 @@
       <c r="C120" t="s">
         <v>7</v>
       </c>
-      <c r="D120" t="s">
-        <v>1</v>
+      <c r="D120">
+        <v>2</v>
       </c>
       <c r="E120" t="s">
         <v>537</v>
@@ -8540,8 +8894,11 @@
       <c r="J120" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8551,8 +8908,8 @@
       <c r="C121" t="s">
         <v>7</v>
       </c>
-      <c r="D121" t="s">
-        <v>1</v>
+      <c r="D121">
+        <v>2</v>
       </c>
       <c r="E121" t="s">
         <v>66</v>
@@ -8572,8 +8929,11 @@
       <c r="J121" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8583,8 +8943,8 @@
       <c r="C122" t="s">
         <v>7</v>
       </c>
-      <c r="D122" t="s">
-        <v>1</v>
+      <c r="D122">
+        <v>2</v>
       </c>
       <c r="E122" t="s">
         <v>71</v>
@@ -8604,8 +8964,11 @@
       <c r="J122" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8615,8 +8978,8 @@
       <c r="C123" t="s">
         <v>7</v>
       </c>
-      <c r="D123" t="s">
-        <v>1</v>
+      <c r="D123">
+        <v>2</v>
       </c>
       <c r="E123" t="s">
         <v>542</v>
@@ -8636,8 +8999,11 @@
       <c r="J123" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8647,8 +9013,8 @@
       <c r="C124" t="s">
         <v>7</v>
       </c>
-      <c r="D124" t="s">
-        <v>1</v>
+      <c r="D124">
+        <v>2</v>
       </c>
       <c r="E124" t="s">
         <v>358</v>
@@ -8668,8 +9034,11 @@
       <c r="J124" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8679,8 +9048,8 @@
       <c r="C125" t="s">
         <v>7</v>
       </c>
-      <c r="D125" t="s">
-        <v>1</v>
+      <c r="D125">
+        <v>2</v>
       </c>
       <c r="E125" t="s">
         <v>372</v>
@@ -8700,8 +9069,11 @@
       <c r="J125" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8711,8 +9083,8 @@
       <c r="C126" t="s">
         <v>7</v>
       </c>
-      <c r="D126" t="s">
-        <v>1</v>
+      <c r="D126">
+        <v>2</v>
       </c>
       <c r="E126" t="s">
         <v>396</v>
@@ -8732,8 +9104,11 @@
       <c r="J126" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8743,8 +9118,8 @@
       <c r="C127" t="s">
         <v>7</v>
       </c>
-      <c r="D127" t="s">
-        <v>1</v>
+      <c r="D127">
+        <v>2</v>
       </c>
       <c r="E127" t="s">
         <v>589</v>
@@ -8764,8 +9139,11 @@
       <c r="J127">
         <v>75</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8775,8 +9153,8 @@
       <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="D128" t="s">
-        <v>1</v>
+      <c r="D128">
+        <v>2</v>
       </c>
       <c r="E128" t="s">
         <v>590</v>
@@ -8796,8 +9174,11 @@
       <c r="J128" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8807,8 +9188,8 @@
       <c r="C129" t="s">
         <v>7</v>
       </c>
-      <c r="D129" t="s">
-        <v>1</v>
+      <c r="D129">
+        <v>2</v>
       </c>
       <c r="E129" t="s">
         <v>594</v>
@@ -8828,8 +9209,11 @@
       <c r="J129" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8839,8 +9223,8 @@
       <c r="C130" t="s">
         <v>7</v>
       </c>
-      <c r="D130" t="s">
-        <v>1</v>
+      <c r="D130">
+        <v>2</v>
       </c>
       <c r="E130" t="s">
         <v>599</v>
@@ -8860,8 +9244,11 @@
       <c r="J130" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8871,8 +9258,8 @@
       <c r="C131" t="s">
         <v>7</v>
       </c>
-      <c r="D131" t="s">
-        <v>1</v>
+      <c r="D131">
+        <v>2</v>
       </c>
       <c r="E131" t="s">
         <v>604</v>
@@ -8892,8 +9279,11 @@
       <c r="J131" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8903,8 +9293,8 @@
       <c r="C132" t="s">
         <v>7</v>
       </c>
-      <c r="D132" t="s">
-        <v>2</v>
+      <c r="D132">
+        <v>3</v>
       </c>
       <c r="E132" t="s">
         <v>424</v>
@@ -8924,8 +9314,11 @@
       <c r="J132" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8935,8 +9328,8 @@
       <c r="C133" t="s">
         <v>7</v>
       </c>
-      <c r="D133" t="s">
-        <v>2</v>
+      <c r="D133">
+        <v>3</v>
       </c>
       <c r="E133" t="s">
         <v>427</v>
@@ -8956,8 +9349,11 @@
       <c r="J133" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8967,8 +9363,8 @@
       <c r="C134" t="s">
         <v>7</v>
       </c>
-      <c r="D134" t="s">
-        <v>2</v>
+      <c r="D134">
+        <v>3</v>
       </c>
       <c r="E134" t="s">
         <v>432</v>
@@ -8988,8 +9384,11 @@
       <c r="J134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8999,8 +9398,8 @@
       <c r="C135" t="s">
         <v>7</v>
       </c>
-      <c r="D135" t="s">
-        <v>2</v>
+      <c r="D135">
+        <v>3</v>
       </c>
       <c r="E135" t="s">
         <v>608</v>
@@ -9020,8 +9419,11 @@
       <c r="J135" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9031,8 +9433,8 @@
       <c r="C136" t="s">
         <v>7</v>
       </c>
-      <c r="D136" t="s">
-        <v>2</v>
+      <c r="D136">
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>612</v>
@@ -9052,8 +9454,11 @@
       <c r="J136" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9063,8 +9468,8 @@
       <c r="C137" t="s">
         <v>7</v>
       </c>
-      <c r="D137" t="s">
-        <v>2</v>
+      <c r="D137">
+        <v>3</v>
       </c>
       <c r="E137" t="s">
         <v>617</v>
@@ -9084,8 +9489,11 @@
       <c r="J137" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9095,8 +9503,8 @@
       <c r="C138" t="s">
         <v>7</v>
       </c>
-      <c r="D138" t="s">
-        <v>2</v>
+      <c r="D138">
+        <v>3</v>
       </c>
       <c r="E138" t="s">
         <v>622</v>
@@ -9116,8 +9524,11 @@
       <c r="J138" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9127,8 +9538,8 @@
       <c r="C139" t="s">
         <v>7</v>
       </c>
-      <c r="D139" t="s">
-        <v>2</v>
+      <c r="D139">
+        <v>3</v>
       </c>
       <c r="E139" t="s">
         <v>468</v>
@@ -9148,8 +9559,11 @@
       <c r="J139" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9159,8 +9573,8 @@
       <c r="C140" t="s">
         <v>7</v>
       </c>
-      <c r="D140" t="s">
-        <v>2</v>
+      <c r="D140">
+        <v>3</v>
       </c>
       <c r="E140" t="s">
         <v>473</v>
@@ -9180,8 +9594,11 @@
       <c r="J140" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9191,8 +9608,8 @@
       <c r="C141" t="s">
         <v>7</v>
       </c>
-      <c r="D141" t="s">
-        <v>2</v>
+      <c r="D141">
+        <v>3</v>
       </c>
       <c r="E141" t="s">
         <v>463</v>
@@ -9212,8 +9629,11 @@
       <c r="J141" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9223,8 +9643,8 @@
       <c r="C142" t="s">
         <v>7</v>
       </c>
-      <c r="D142" t="s">
-        <v>2</v>
+      <c r="D142">
+        <v>3</v>
       </c>
       <c r="E142" t="s">
         <v>627</v>
@@ -9244,8 +9664,11 @@
       <c r="J142" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9255,8 +9678,8 @@
       <c r="C143" t="s">
         <v>7</v>
       </c>
-      <c r="D143" t="s">
-        <v>2</v>
+      <c r="D143">
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>632</v>
@@ -9276,8 +9699,11 @@
       <c r="J143" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9287,8 +9713,8 @@
       <c r="C144" t="s">
         <v>7</v>
       </c>
-      <c r="D144" t="s">
-        <v>2</v>
+      <c r="D144">
+        <v>3</v>
       </c>
       <c r="E144" t="s">
         <v>637</v>
@@ -9308,8 +9734,11 @@
       <c r="J144" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9319,8 +9748,8 @@
       <c r="C145" t="s">
         <v>7</v>
       </c>
-      <c r="D145" t="s">
-        <v>2</v>
+      <c r="D145">
+        <v>3</v>
       </c>
       <c r="E145" t="s">
         <v>642</v>
@@ -9340,8 +9769,11 @@
       <c r="J145" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9351,8 +9783,8 @@
       <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="D146" t="s">
-        <v>0</v>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146" t="s">
         <v>80</v>
@@ -9372,8 +9804,11 @@
       <c r="J146" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9383,8 +9818,8 @@
       <c r="C147" t="s">
         <v>8</v>
       </c>
-      <c r="D147" t="s">
-        <v>0</v>
+      <c r="D147">
+        <v>1</v>
       </c>
       <c r="E147" t="s">
         <v>646</v>
@@ -9404,8 +9839,11 @@
       <c r="J147" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9415,8 +9853,8 @@
       <c r="C148" t="s">
         <v>8</v>
       </c>
-      <c r="D148" t="s">
-        <v>0</v>
+      <c r="D148">
+        <v>1</v>
       </c>
       <c r="E148" t="s">
         <v>651</v>
@@ -9436,8 +9874,11 @@
       <c r="J148" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9447,8 +9888,8 @@
       <c r="C149" t="s">
         <v>8</v>
       </c>
-      <c r="D149" t="s">
-        <v>0</v>
+      <c r="D149">
+        <v>1</v>
       </c>
       <c r="E149" t="s">
         <v>655</v>
@@ -9468,8 +9909,11 @@
       <c r="J149" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9479,8 +9923,8 @@
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D150" t="s">
-        <v>0</v>
+      <c r="D150">
+        <v>1</v>
       </c>
       <c r="E150" t="s">
         <v>658</v>
@@ -9500,8 +9944,11 @@
       <c r="J150" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9511,8 +9958,8 @@
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151" t="s">
-        <v>0</v>
+      <c r="D151">
+        <v>1</v>
       </c>
       <c r="E151" t="s">
         <v>663</v>
@@ -9532,8 +9979,11 @@
       <c r="J151" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9543,8 +9993,8 @@
       <c r="C152" t="s">
         <v>8</v>
       </c>
-      <c r="D152" t="s">
-        <v>0</v>
+      <c r="D152">
+        <v>1</v>
       </c>
       <c r="E152" t="s">
         <v>665</v>
@@ -9564,8 +10014,11 @@
       <c r="J152" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9575,8 +10028,8 @@
       <c r="C153" t="s">
         <v>8</v>
       </c>
-      <c r="D153" t="s">
-        <v>0</v>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>669</v>
@@ -9596,8 +10049,11 @@
       <c r="J153" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9607,8 +10063,8 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154" t="s">
-        <v>0</v>
+      <c r="D154">
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>75</v>
@@ -9628,8 +10084,11 @@
       <c r="J154" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9639,8 +10098,8 @@
       <c r="C155" t="s">
         <v>8</v>
       </c>
-      <c r="D155" t="s">
-        <v>0</v>
+      <c r="D155">
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>673</v>
@@ -9660,8 +10119,11 @@
       <c r="J155" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9671,8 +10133,8 @@
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156" t="s">
-        <v>0</v>
+      <c r="D156">
+        <v>1</v>
       </c>
       <c r="E156" t="s">
         <v>674</v>
@@ -9692,8 +10154,11 @@
       <c r="J156">
         <v>66</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9703,8 +10168,8 @@
       <c r="C157" t="s">
         <v>8</v>
       </c>
-      <c r="D157" t="s">
-        <v>0</v>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>675</v>
@@ -9724,8 +10189,11 @@
       <c r="J157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9735,8 +10203,8 @@
       <c r="C158" t="s">
         <v>8</v>
       </c>
-      <c r="D158" t="s">
-        <v>0</v>
+      <c r="D158">
+        <v>1</v>
       </c>
       <c r="E158" t="s">
         <v>676</v>
@@ -9756,8 +10224,11 @@
       <c r="J158" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9767,8 +10238,8 @@
       <c r="C159" t="s">
         <v>8</v>
       </c>
-      <c r="D159" t="s">
-        <v>0</v>
+      <c r="D159">
+        <v>1</v>
       </c>
       <c r="E159" t="s">
         <v>681</v>
@@ -9788,8 +10259,11 @@
       <c r="J159" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9799,8 +10273,8 @@
       <c r="C160" t="s">
         <v>8</v>
       </c>
-      <c r="D160" t="s">
-        <v>0</v>
+      <c r="D160">
+        <v>1</v>
       </c>
       <c r="E160" t="s">
         <v>686</v>
@@ -9820,8 +10294,11 @@
       <c r="J160" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9831,8 +10308,8 @@
       <c r="C161" t="s">
         <v>8</v>
       </c>
-      <c r="D161" t="s">
-        <v>0</v>
+      <c r="D161">
+        <v>1</v>
       </c>
       <c r="E161" t="s">
         <v>687</v>
@@ -9852,8 +10329,11 @@
       <c r="J161" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9863,8 +10343,8 @@
       <c r="C162" t="s">
         <v>8</v>
       </c>
-      <c r="D162" t="s">
-        <v>0</v>
+      <c r="D162">
+        <v>1</v>
       </c>
       <c r="E162" t="s">
         <v>691</v>
@@ -9884,8 +10364,11 @@
       <c r="J162" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9895,8 +10378,8 @@
       <c r="C163" t="s">
         <v>8</v>
       </c>
-      <c r="D163" t="s">
-        <v>0</v>
+      <c r="D163">
+        <v>1</v>
       </c>
       <c r="E163" t="s">
         <v>693</v>
@@ -9916,8 +10399,11 @@
       <c r="J163" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9927,8 +10413,8 @@
       <c r="C164" t="s">
         <v>8</v>
       </c>
-      <c r="D164" t="s">
-        <v>0</v>
+      <c r="D164">
+        <v>1</v>
       </c>
       <c r="E164" t="s">
         <v>697</v>
@@ -9948,8 +10434,11 @@
       <c r="J164" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9959,8 +10448,8 @@
       <c r="C165" t="s">
         <v>8</v>
       </c>
-      <c r="D165" t="s">
-        <v>0</v>
+      <c r="D165">
+        <v>1</v>
       </c>
       <c r="E165" t="s">
         <v>701</v>
@@ -9980,8 +10469,11 @@
       <c r="J165" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9991,8 +10483,8 @@
       <c r="C166" t="s">
         <v>8</v>
       </c>
-      <c r="D166" t="s">
-        <v>0</v>
+      <c r="D166">
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>706</v>
@@ -10012,8 +10504,11 @@
       <c r="J166" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10023,8 +10518,8 @@
       <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D167" t="s">
-        <v>0</v>
+      <c r="D167">
+        <v>1</v>
       </c>
       <c r="E167" t="s">
         <v>709</v>
@@ -10044,8 +10539,11 @@
       <c r="J167" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10055,8 +10553,8 @@
       <c r="C168" t="s">
         <v>8</v>
       </c>
-      <c r="D168" t="s">
-        <v>0</v>
+      <c r="D168">
+        <v>1</v>
       </c>
       <c r="E168" t="s">
         <v>710</v>
@@ -10076,8 +10574,11 @@
       <c r="J168" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10087,8 +10588,8 @@
       <c r="C169" t="s">
         <v>8</v>
       </c>
-      <c r="D169" t="s">
-        <v>0</v>
+      <c r="D169">
+        <v>1</v>
       </c>
       <c r="E169" t="s">
         <v>715</v>
@@ -10108,8 +10609,11 @@
       <c r="J169" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10119,8 +10623,8 @@
       <c r="C170" t="s">
         <v>8</v>
       </c>
-      <c r="D170" t="s">
-        <v>1</v>
+      <c r="D170">
+        <v>2</v>
       </c>
       <c r="E170" t="s">
         <v>522</v>
@@ -10140,8 +10644,11 @@
       <c r="J170" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10151,8 +10658,8 @@
       <c r="C171" t="s">
         <v>8</v>
       </c>
-      <c r="D171" t="s">
-        <v>1</v>
+      <c r="D171">
+        <v>2</v>
       </c>
       <c r="E171" t="s">
         <v>717</v>
@@ -10172,8 +10679,11 @@
       <c r="J171">
         <v>30</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10183,8 +10693,8 @@
       <c r="C172" t="s">
         <v>8</v>
       </c>
-      <c r="D172" t="s">
-        <v>1</v>
+      <c r="D172">
+        <v>2</v>
       </c>
       <c r="E172" t="s">
         <v>718</v>
@@ -10204,8 +10714,11 @@
       <c r="J172" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10215,8 +10728,8 @@
       <c r="C173" t="s">
         <v>8</v>
       </c>
-      <c r="D173" t="s">
-        <v>1</v>
+      <c r="D173">
+        <v>2</v>
       </c>
       <c r="E173" t="s">
         <v>47</v>
@@ -10236,8 +10749,11 @@
       <c r="J173" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10247,8 +10763,8 @@
       <c r="C174" t="s">
         <v>8</v>
       </c>
-      <c r="D174" t="s">
-        <v>1</v>
+      <c r="D174">
+        <v>2</v>
       </c>
       <c r="E174" t="s">
         <v>723</v>
@@ -10268,8 +10784,11 @@
       <c r="J174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10279,8 +10798,8 @@
       <c r="C175" t="s">
         <v>8</v>
       </c>
-      <c r="D175" t="s">
-        <v>1</v>
+      <c r="D175">
+        <v>2</v>
       </c>
       <c r="E175" t="s">
         <v>724</v>
@@ -10300,8 +10819,11 @@
       <c r="J175" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10311,8 +10833,8 @@
       <c r="C176" t="s">
         <v>8</v>
       </c>
-      <c r="D176" t="s">
-        <v>1</v>
+      <c r="D176">
+        <v>2</v>
       </c>
       <c r="E176" t="s">
         <v>728</v>
@@ -10332,8 +10854,11 @@
       <c r="J176" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10343,8 +10868,8 @@
       <c r="C177" t="s">
         <v>8</v>
       </c>
-      <c r="D177" t="s">
-        <v>1</v>
+      <c r="D177">
+        <v>2</v>
       </c>
       <c r="E177" t="s">
         <v>732</v>
@@ -10364,8 +10889,11 @@
       <c r="J177" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10375,8 +10903,8 @@
       <c r="C178" t="s">
         <v>8</v>
       </c>
-      <c r="D178" t="s">
-        <v>1</v>
+      <c r="D178">
+        <v>2</v>
       </c>
       <c r="E178" t="s">
         <v>735</v>
@@ -10396,8 +10924,11 @@
       <c r="J178" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10407,8 +10938,8 @@
       <c r="C179" t="s">
         <v>8</v>
       </c>
-      <c r="D179" t="s">
-        <v>1</v>
+      <c r="D179">
+        <v>2</v>
       </c>
       <c r="E179" t="s">
         <v>333</v>
@@ -10428,8 +10959,11 @@
       <c r="J179" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10439,8 +10973,8 @@
       <c r="C180" t="s">
         <v>8</v>
       </c>
-      <c r="D180" t="s">
-        <v>1</v>
+      <c r="D180">
+        <v>2</v>
       </c>
       <c r="E180" t="s">
         <v>95</v>
@@ -10460,8 +10994,11 @@
       <c r="J180" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10471,8 +11008,8 @@
       <c r="C181" t="s">
         <v>8</v>
       </c>
-      <c r="D181" t="s">
-        <v>1</v>
+      <c r="D181">
+        <v>2</v>
       </c>
       <c r="E181" t="s">
         <v>739</v>
@@ -10492,8 +11029,11 @@
       <c r="J181" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10503,8 +11043,8 @@
       <c r="C182" t="s">
         <v>8</v>
       </c>
-      <c r="D182" t="s">
-        <v>1</v>
+      <c r="D182">
+        <v>2</v>
       </c>
       <c r="E182" t="s">
         <v>744</v>
@@ -10524,8 +11064,11 @@
       <c r="J182" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10535,8 +11078,8 @@
       <c r="C183" t="s">
         <v>8</v>
       </c>
-      <c r="D183" t="s">
-        <v>1</v>
+      <c r="D183">
+        <v>2</v>
       </c>
       <c r="E183" t="s">
         <v>745</v>
@@ -10556,8 +11099,11 @@
       <c r="J183" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10567,8 +11113,8 @@
       <c r="C184" t="s">
         <v>8</v>
       </c>
-      <c r="D184" t="s">
-        <v>1</v>
+      <c r="D184">
+        <v>2</v>
       </c>
       <c r="E184" t="s">
         <v>363</v>
@@ -10588,8 +11134,11 @@
       <c r="J184" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10599,8 +11148,8 @@
       <c r="C185" t="s">
         <v>8</v>
       </c>
-      <c r="D185" t="s">
-        <v>1</v>
+      <c r="D185">
+        <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>749</v>
@@ -10620,8 +11169,11 @@
       <c r="J185" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10631,8 +11183,8 @@
       <c r="C186" t="s">
         <v>8</v>
       </c>
-      <c r="D186" t="s">
-        <v>1</v>
+      <c r="D186">
+        <v>2</v>
       </c>
       <c r="E186" t="s">
         <v>753</v>
@@ -10652,8 +11204,11 @@
       <c r="J186" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10663,8 +11218,8 @@
       <c r="C187" t="s">
         <v>8</v>
       </c>
-      <c r="D187" t="s">
-        <v>1</v>
+      <c r="D187">
+        <v>2</v>
       </c>
       <c r="E187" t="s">
         <v>754</v>
@@ -10684,8 +11239,11 @@
       <c r="J187" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10695,8 +11253,8 @@
       <c r="C188" t="s">
         <v>8</v>
       </c>
-      <c r="D188" t="s">
-        <v>1</v>
+      <c r="D188">
+        <v>2</v>
       </c>
       <c r="E188" t="s">
         <v>755</v>
@@ -10716,8 +11274,11 @@
       <c r="J188" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R188" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10727,8 +11288,8 @@
       <c r="C189" t="s">
         <v>8</v>
       </c>
-      <c r="D189" t="s">
-        <v>1</v>
+      <c r="D189">
+        <v>2</v>
       </c>
       <c r="E189" t="s">
         <v>758</v>
@@ -10748,8 +11309,11 @@
       <c r="J189" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10759,8 +11323,8 @@
       <c r="C190" t="s">
         <v>8</v>
       </c>
-      <c r="D190" t="s">
-        <v>1</v>
+      <c r="D190">
+        <v>2</v>
       </c>
       <c r="E190" t="s">
         <v>762</v>
@@ -10780,8 +11344,11 @@
       <c r="J190" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10791,8 +11358,8 @@
       <c r="C191" t="s">
         <v>8</v>
       </c>
-      <c r="D191" t="s">
-        <v>1</v>
+      <c r="D191">
+        <v>2</v>
       </c>
       <c r="E191" t="s">
         <v>767</v>
@@ -10812,8 +11379,11 @@
       <c r="J191" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10823,8 +11393,8 @@
       <c r="C192" t="s">
         <v>8</v>
       </c>
-      <c r="D192" t="s">
-        <v>1</v>
+      <c r="D192">
+        <v>2</v>
       </c>
       <c r="E192" t="s">
         <v>772</v>
@@ -10844,8 +11414,11 @@
       <c r="J192" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10855,8 +11428,8 @@
       <c r="C193" t="s">
         <v>8</v>
       </c>
-      <c r="D193" t="s">
-        <v>1</v>
+      <c r="D193">
+        <v>2</v>
       </c>
       <c r="E193" t="s">
         <v>775</v>
@@ -10876,8 +11449,11 @@
       <c r="J193" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R193" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10887,8 +11463,8 @@
       <c r="C194" t="s">
         <v>8</v>
       </c>
-      <c r="D194" t="s">
-        <v>2</v>
+      <c r="D194">
+        <v>3</v>
       </c>
       <c r="E194" t="s">
         <v>780</v>
@@ -10908,8 +11484,11 @@
       <c r="J194" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10919,8 +11498,8 @@
       <c r="C195" t="s">
         <v>8</v>
       </c>
-      <c r="D195" t="s">
-        <v>2</v>
+      <c r="D195">
+        <v>3</v>
       </c>
       <c r="E195" t="s">
         <v>785</v>
@@ -10940,8 +11519,11 @@
       <c r="J195" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10951,8 +11533,8 @@
       <c r="C196" t="s">
         <v>8</v>
       </c>
-      <c r="D196" t="s">
-        <v>2</v>
+      <c r="D196">
+        <v>3</v>
       </c>
       <c r="E196" t="s">
         <v>789</v>
@@ -10972,8 +11554,11 @@
       <c r="J196" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="R196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10983,8 +11568,8 @@
       <c r="C197" t="s">
         <v>8</v>
       </c>
-      <c r="D197" t="s">
-        <v>2</v>
+      <c r="D197">
+        <v>3</v>
       </c>
       <c r="E197" t="s">
         <v>793</v>
@@ -11003,6 +11588,9 @@
       </c>
       <c r="J197" t="s">
         <v>795</v>
+      </c>
+      <c r="R197" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24707,6 +25295,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -24852,15 +25449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -24878,6 +25466,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24893,12 +25489,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-SCHOOL\1-Prog\CodexLearning\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC6F7BF-3A59-4782-886E-68CA25089B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD6C2D-633D-4F7B-B238-6FE6577A20B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -4336,6 +4336,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4371,9 +4374,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4690,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N191" sqref="N191"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8182,7 +8186,7 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>3</v>
       </c>
       <c r="H100">
@@ -8191,7 +8195,7 @@
       <c r="I100" t="s">
         <v>511</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="2">
         <v>3</v>
       </c>
       <c r="R100" t="s">
@@ -8217,7 +8221,7 @@
       <c r="F101">
         <v>3</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>2</v>
       </c>
       <c r="H101">
@@ -8226,7 +8230,7 @@
       <c r="I101" t="s">
         <v>511</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>2</v>
       </c>
       <c r="R101" t="s">
@@ -25295,15 +25299,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -25449,6 +25444,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -25466,14 +25470,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25489,4 +25485,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\questions_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C85FBE2-942F-4AB1-B984-3F4C2731B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E6CCA-1BAC-40B0-9E4F-0EC3550B66F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="1305" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="3885" yWindow="690" windowWidth="12765" windowHeight="12630" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
     <sheet name="MiniGames" sheetId="5" r:id="rId2"/>
     <sheet name="AnswerPool" sheetId="6" r:id="rId3"/>
+    <sheet name="Response" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="1217">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4330,6 +4331,66 @@
   </si>
   <si>
     <t>3x</t>
+  </si>
+  <si>
+    <t>Response ID</t>
+  </si>
+  <si>
+    <t>Response Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Engaged</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>Type 4</t>
+  </si>
+  <si>
+    <t>Type 5</t>
+  </si>
+  <si>
+    <t>Type 6</t>
+  </si>
+  <si>
+    <t>Type 7</t>
+  </si>
+  <si>
+    <t>Type 8</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Bored</t>
+  </si>
+  <si>
+    <t>Confused</t>
+  </si>
+  <si>
+    <t>Frustrated</t>
   </si>
 </sst>
 </file>
@@ -22397,7 +22458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C172" sqref="C172:C201"/>
     </sheetView>
   </sheetViews>
@@ -24700,13 +24761,2022 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867B8AA1-7FC6-40F7-BCAA-62354C17D638}">
+  <dimension ref="A1:E176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C79" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C80" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24715,7 +26785,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -24861,23 +26931,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -24885,7 +26945,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24901,4 +26961,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E6CCA-1BAC-40B0-9E4F-0EC3550B66F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069FBA6-A999-4C60-BE05-660E9B61ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="690" windowWidth="12765" windowHeight="12630" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="735" yWindow="675" windowWidth="12765" windowHeight="12630" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -4397,6 +4397,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4432,9 +4435,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4751,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="F85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7949,7 +7953,7 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>3</v>
       </c>
       <c r="H100">
@@ -7958,7 +7962,7 @@
       <c r="I100" t="s">
         <v>511</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="2">
         <v>3</v>
       </c>
     </row>
@@ -7981,7 +7985,7 @@
       <c r="F101">
         <v>3</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>2</v>
       </c>
       <c r="H101">
@@ -7990,7 +7994,7 @@
       <c r="I101" t="s">
         <v>511</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>2</v>
       </c>
     </row>
@@ -24765,7 +24769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867B8AA1-7FC6-40F7-BCAA-62354C17D638}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+    <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A176"/>
     </sheetView>
   </sheetViews>
@@ -26777,12 +26781,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26932,15 +26933,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26964,17 +26976,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-SCHOOL\1-Prog\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD6C2D-633D-4F7B-B238-6FE6577A20B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8430AAEF-F062-49CA-ACA6-954970802CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1197">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4694,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11609,7 +11609,7 @@
   <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+      <selection activeCell="E554" sqref="E554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11641,8 +11641,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>138</v>
@@ -11706,8 +11706,8 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>138</v>
@@ -11777,8 +11777,8 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>138</v>
@@ -11980,8 +11980,8 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>138</v>
@@ -12105,8 +12105,8 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>138</v>
@@ -12333,8 +12333,8 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>0</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>138</v>
@@ -12470,7 +12470,7 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
@@ -12722,8 +12722,8 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>1</v>
+      <c r="D52">
+        <v>2</v>
       </c>
       <c r="E52" t="s">
         <v>138</v>
@@ -12866,8 +12866,8 @@
       <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
+      <c r="D58">
+        <v>2</v>
       </c>
       <c r="E58" t="s">
         <v>138</v>
@@ -12995,8 +12995,8 @@
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>1</v>
+      <c r="D64">
+        <v>2</v>
       </c>
       <c r="E64" t="s">
         <v>138</v>
@@ -13164,8 +13164,8 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>1</v>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72" t="s">
         <v>138</v>
@@ -13318,8 +13318,8 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
-        <v>1</v>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>138</v>
@@ -13435,8 +13435,8 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" t="s">
-        <v>2</v>
+      <c r="D86">
+        <v>3</v>
       </c>
       <c r="E86" t="s">
         <v>138</v>
@@ -13554,8 +13554,8 @@
       <c r="C93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" t="s">
-        <v>2</v>
+      <c r="D93">
+        <v>3</v>
       </c>
       <c r="E93" t="s">
         <v>138</v>
@@ -13690,8 +13690,8 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
-      <c r="D101" t="s">
-        <v>2</v>
+      <c r="D101">
+        <v>3</v>
       </c>
       <c r="E101" t="s">
         <v>138</v>
@@ -13868,8 +13868,8 @@
       <c r="C112" t="s">
         <v>6</v>
       </c>
-      <c r="D112" t="s">
-        <v>2</v>
+      <c r="D112">
+        <v>3</v>
       </c>
       <c r="E112" t="s">
         <v>138</v>
@@ -14018,8 +14018,8 @@
       <c r="C121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" t="s">
-        <v>2</v>
+      <c r="D121">
+        <v>3</v>
       </c>
       <c r="E121" t="s">
         <v>138</v>
@@ -14184,8 +14184,8 @@
       <c r="C129" t="s">
         <v>6</v>
       </c>
-      <c r="D129" t="s">
-        <v>2</v>
+      <c r="D129">
+        <v>3</v>
       </c>
       <c r="E129" t="s">
         <v>138</v>
@@ -14405,8 +14405,8 @@
       <c r="C139" t="s">
         <v>7</v>
       </c>
-      <c r="D139" t="s">
-        <v>0</v>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="E139" t="s">
         <v>138</v>
@@ -14563,8 +14563,8 @@
       <c r="C146" t="s">
         <v>7</v>
       </c>
-      <c r="D146" t="s">
-        <v>0</v>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146" t="s">
         <v>138</v>
@@ -14743,8 +14743,8 @@
       <c r="C155" t="s">
         <v>7</v>
       </c>
-      <c r="D155" t="s">
-        <v>0</v>
+      <c r="D155">
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>138</v>
@@ -14944,8 +14944,8 @@
       <c r="C164" t="s">
         <v>7</v>
       </c>
-      <c r="D164" t="s">
-        <v>0</v>
+      <c r="D164">
+        <v>1</v>
       </c>
       <c r="E164" t="s">
         <v>138</v>
@@ -15104,8 +15104,8 @@
       <c r="C172" t="s">
         <v>7</v>
       </c>
-      <c r="D172" t="s">
-        <v>0</v>
+      <c r="D172">
+        <v>1</v>
       </c>
       <c r="E172" t="s">
         <v>138</v>
@@ -15380,8 +15380,8 @@
       <c r="C184" t="s">
         <v>7</v>
       </c>
-      <c r="D184" t="s">
-        <v>0</v>
+      <c r="D184">
+        <v>1</v>
       </c>
       <c r="E184" t="s">
         <v>138</v>
@@ -15561,8 +15561,8 @@
       <c r="C192" t="s">
         <v>7</v>
       </c>
-      <c r="D192" t="s">
-        <v>1</v>
+      <c r="D192">
+        <v>2</v>
       </c>
       <c r="E192" t="s">
         <v>138</v>
@@ -15772,8 +15772,8 @@
       <c r="C200" t="s">
         <v>7</v>
       </c>
-      <c r="D200" t="s">
-        <v>1</v>
+      <c r="D200">
+        <v>2</v>
       </c>
       <c r="E200" t="s">
         <v>138</v>
@@ -16007,8 +16007,8 @@
       <c r="C211" t="s">
         <v>7</v>
       </c>
-      <c r="D211" t="s">
-        <v>1</v>
+      <c r="D211">
+        <v>2</v>
       </c>
       <c r="E211" t="s">
         <v>138</v>
@@ -16288,8 +16288,8 @@
       <c r="C224" t="s">
         <v>7</v>
       </c>
-      <c r="D224" t="s">
-        <v>1</v>
+      <c r="D224">
+        <v>2</v>
       </c>
       <c r="E224" t="s">
         <v>138</v>
@@ -16510,8 +16510,8 @@
       <c r="C233" t="s">
         <v>7</v>
       </c>
-      <c r="D233" t="s">
-        <v>1</v>
+      <c r="D233">
+        <v>2</v>
       </c>
       <c r="E233" t="s">
         <v>138</v>
@@ -16768,8 +16768,8 @@
       <c r="C242" t="s">
         <v>7</v>
       </c>
-      <c r="D242" t="s">
-        <v>1</v>
+      <c r="D242">
+        <v>2</v>
       </c>
       <c r="E242" t="s">
         <v>138</v>
@@ -17066,8 +17066,8 @@
       <c r="C253" t="s">
         <v>7</v>
       </c>
-      <c r="D253" t="s">
-        <v>2</v>
+      <c r="D253">
+        <v>3</v>
       </c>
       <c r="E253" t="s">
         <v>138</v>
@@ -17319,8 +17319,8 @@
       <c r="C267" t="s">
         <v>7</v>
       </c>
-      <c r="D267" t="s">
-        <v>2</v>
+      <c r="D267">
+        <v>3</v>
       </c>
       <c r="E267" t="s">
         <v>138</v>
@@ -17434,8 +17434,8 @@
       <c r="C275" t="s">
         <v>7</v>
       </c>
-      <c r="D275" t="s">
-        <v>2</v>
+      <c r="D275">
+        <v>3</v>
       </c>
       <c r="E275" t="s">
         <v>138</v>
@@ -17567,8 +17567,8 @@
       <c r="C283" t="s">
         <v>7</v>
       </c>
-      <c r="D283" t="s">
-        <v>2</v>
+      <c r="D283">
+        <v>3</v>
       </c>
       <c r="E283" t="s">
         <v>138</v>
@@ -17724,8 +17724,8 @@
       <c r="C291" t="s">
         <v>7</v>
       </c>
-      <c r="D291" t="s">
-        <v>2</v>
+      <c r="D291">
+        <v>3</v>
       </c>
       <c r="E291" t="s">
         <v>138</v>
@@ -18044,8 +18044,8 @@
       <c r="C304" t="s">
         <v>7</v>
       </c>
-      <c r="D304" t="s">
-        <v>2</v>
+      <c r="D304">
+        <v>3</v>
       </c>
       <c r="E304" t="s">
         <v>138</v>
@@ -18237,8 +18237,8 @@
       <c r="C315" t="s">
         <v>8</v>
       </c>
-      <c r="D315" t="s">
-        <v>0</v>
+      <c r="D315">
+        <v>1</v>
       </c>
       <c r="E315" t="s">
         <v>138</v>
@@ -18431,8 +18431,8 @@
       <c r="C325" t="s">
         <v>8</v>
       </c>
-      <c r="D325" t="s">
-        <v>0</v>
+      <c r="D325">
+        <v>1</v>
       </c>
       <c r="E325" t="s">
         <v>138</v>
@@ -18856,8 +18856,8 @@
       <c r="C338" t="s">
         <v>8</v>
       </c>
-      <c r="D338" t="s">
-        <v>0</v>
+      <c r="D338">
+        <v>1</v>
       </c>
       <c r="E338" t="s">
         <v>138</v>
@@ -19013,8 +19013,8 @@
       <c r="C346" t="s">
         <v>8</v>
       </c>
-      <c r="D346" t="s">
-        <v>0</v>
+      <c r="D346">
+        <v>1</v>
       </c>
       <c r="E346" t="s">
         <v>138</v>
@@ -19193,8 +19193,8 @@
       <c r="C355" t="s">
         <v>8</v>
       </c>
-      <c r="D355" t="s">
-        <v>0</v>
+      <c r="D355">
+        <v>1</v>
       </c>
       <c r="E355" t="s">
         <v>138</v>
@@ -19392,8 +19392,8 @@
       <c r="C363" t="s">
         <v>8</v>
       </c>
-      <c r="D363" t="s">
-        <v>0</v>
+      <c r="D363">
+        <v>1</v>
       </c>
       <c r="E363" t="s">
         <v>138</v>
@@ -19679,8 +19679,8 @@
       <c r="C373" t="s">
         <v>8</v>
       </c>
-      <c r="D373" t="s">
-        <v>1</v>
+      <c r="D373">
+        <v>2</v>
       </c>
       <c r="E373" t="s">
         <v>138</v>
@@ -19909,8 +19909,8 @@
       <c r="C383" t="s">
         <v>8</v>
       </c>
-      <c r="D383" t="s">
-        <v>1</v>
+      <c r="D383">
+        <v>2</v>
       </c>
       <c r="E383" t="s">
         <v>138</v>
@@ -20104,8 +20104,8 @@
       <c r="C392" t="s">
         <v>8</v>
       </c>
-      <c r="D392" t="s">
-        <v>1</v>
+      <c r="D392">
+        <v>2</v>
       </c>
       <c r="E392" t="s">
         <v>138</v>
@@ -20447,8 +20447,8 @@
       <c r="C406" t="s">
         <v>8</v>
       </c>
-      <c r="D406" t="s">
-        <v>1</v>
+      <c r="D406">
+        <v>2</v>
       </c>
       <c r="E406" t="s">
         <v>138</v>
@@ -20629,8 +20629,8 @@
       <c r="C413" t="s">
         <v>8</v>
       </c>
-      <c r="D413" t="s">
-        <v>1</v>
+      <c r="D413">
+        <v>2</v>
       </c>
       <c r="E413" t="s">
         <v>138</v>
@@ -20895,8 +20895,8 @@
       <c r="C423" t="s">
         <v>8</v>
       </c>
-      <c r="D423" t="s">
-        <v>1</v>
+      <c r="D423">
+        <v>2</v>
       </c>
       <c r="E423" t="s">
         <v>138</v>
@@ -21245,8 +21245,8 @@
       <c r="C436" t="s">
         <v>8</v>
       </c>
-      <c r="D436" t="s">
-        <v>2</v>
+      <c r="D436">
+        <v>3</v>
       </c>
       <c r="E436" t="s">
         <v>138</v>
@@ -21495,8 +21495,8 @@
       <c r="C450" t="s">
         <v>8</v>
       </c>
-      <c r="D450" t="s">
-        <v>2</v>
+      <c r="D450">
+        <v>3</v>
       </c>
       <c r="E450" t="s">
         <v>138</v>
@@ -21695,8 +21695,8 @@
       <c r="C463" t="s">
         <v>8</v>
       </c>
-      <c r="D463" t="s">
-        <v>2</v>
+      <c r="D463">
+        <v>3</v>
       </c>
       <c r="E463" t="s">
         <v>138</v>
@@ -22000,8 +22000,8 @@
       <c r="C479" t="s">
         <v>8</v>
       </c>
-      <c r="D479" t="s">
-        <v>2</v>
+      <c r="D479">
+        <v>3</v>
       </c>
       <c r="E479" t="s">
         <v>138</v>
@@ -22240,8 +22240,8 @@
       <c r="C491" t="s">
         <v>8</v>
       </c>
-      <c r="D491" t="s">
-        <v>2</v>
+      <c r="D491">
+        <v>3</v>
       </c>
       <c r="E491" t="s">
         <v>138</v>
@@ -22621,8 +22621,8 @@
       <c r="C512" t="s">
         <v>8</v>
       </c>
-      <c r="D512" t="s">
-        <v>2</v>
+      <c r="D512">
+        <v>3</v>
       </c>
       <c r="E512" t="s">
         <v>138</v>
@@ -22989,8 +22989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C172" sqref="C172:C201"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23021,8 +23021,8 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>1018</v>
@@ -23035,8 +23035,8 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>1180</v>
@@ -23049,8 +23049,8 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>876</v>
@@ -23063,8 +23063,8 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>1181</v>
@@ -23077,8 +23077,8 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>1182</v>
@@ -23091,8 +23091,8 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>1073</v>
@@ -23105,8 +23105,8 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>1183</v>
@@ -23119,8 +23119,8 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>1184</v>
@@ -23133,8 +23133,8 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>938</v>
@@ -23147,8 +23147,8 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
+      <c r="C11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23158,8 +23158,8 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>0</v>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -23169,8 +23169,8 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>0</v>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -23180,8 +23180,8 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23191,8 +23191,8 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23202,8 +23202,8 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
+      <c r="C16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -23213,8 +23213,8 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>1185</v>
@@ -23227,8 +23227,8 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>1186</v>
@@ -23241,8 +23241,8 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>1187</v>
@@ -23255,8 +23255,8 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>0</v>
+      <c r="C20">
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>1188</v>
@@ -23269,8 +23269,8 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
-        <v>0</v>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>1189</v>
@@ -23283,8 +23283,8 @@
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>0</v>
+      <c r="C22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23294,8 +23294,8 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
-        <v>0</v>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23305,8 +23305,8 @@
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>0</v>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23316,8 +23316,8 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
+      <c r="C25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23327,8 +23327,8 @@
       <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
-        <v>0</v>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23338,8 +23338,8 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
+      <c r="C27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23349,8 +23349,8 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
-        <v>0</v>
+      <c r="C28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23360,8 +23360,8 @@
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
-        <v>0</v>
+      <c r="C29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23371,8 +23371,8 @@
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
+      <c r="C30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23382,8 +23382,8 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>0</v>
+      <c r="C31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -23393,8 +23393,8 @@
       <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
-        <v>0</v>
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -23404,8 +23404,8 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" t="s">
-        <v>0</v>
+      <c r="C33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23415,8 +23415,8 @@
       <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s">
-        <v>0</v>
+      <c r="C34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23426,8 +23426,8 @@
       <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
-        <v>0</v>
+      <c r="C35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23437,8 +23437,8 @@
       <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s">
-        <v>0</v>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -23448,8 +23448,8 @@
       <c r="B37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
-        <v>0</v>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>189</v>
@@ -23462,8 +23462,8 @@
       <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C38" t="s">
-        <v>0</v>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>1190</v>
@@ -23476,8 +23476,8 @@
       <c r="B39" t="s">
         <v>19</v>
       </c>
-      <c r="C39" t="s">
-        <v>0</v>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>1191</v>
@@ -23490,8 +23490,8 @@
       <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
-        <v>0</v>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>1192</v>
@@ -23504,8 +23504,8 @@
       <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
-        <v>0</v>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>92</v>
@@ -23518,8 +23518,8 @@
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42" t="s">
-        <v>0</v>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>1193</v>
@@ -23532,8 +23532,8 @@
       <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
-        <v>0</v>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>1194</v>
@@ -23546,8 +23546,8 @@
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" t="s">
-        <v>0</v>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>1195</v>
@@ -23560,8 +23560,8 @@
       <c r="B45" t="s">
         <v>19</v>
       </c>
-      <c r="C45" t="s">
-        <v>0</v>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>1196</v>
@@ -23574,8 +23574,8 @@
       <c r="B46" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
-        <v>0</v>
+      <c r="C46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -23585,8 +23585,8 @@
       <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" t="s">
-        <v>0</v>
+      <c r="C47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23596,8 +23596,8 @@
       <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48" t="s">
-        <v>0</v>
+      <c r="C48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -23607,8 +23607,8 @@
       <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" t="s">
-        <v>0</v>
+      <c r="C49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -23618,8 +23618,8 @@
       <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C50" t="s">
-        <v>0</v>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -23629,8 +23629,8 @@
       <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" t="s">
-        <v>0</v>
+      <c r="C51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -23640,8 +23640,8 @@
       <c r="B52" t="s">
         <v>20</v>
       </c>
-      <c r="C52" t="s">
-        <v>0</v>
+      <c r="C52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -23651,8 +23651,8 @@
       <c r="B53" t="s">
         <v>20</v>
       </c>
-      <c r="C53" t="s">
-        <v>0</v>
+      <c r="C53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -23662,8 +23662,8 @@
       <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54" t="s">
-        <v>0</v>
+      <c r="C54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -23673,8 +23673,8 @@
       <c r="B55" t="s">
         <v>20</v>
       </c>
-      <c r="C55" t="s">
-        <v>0</v>
+      <c r="C55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -23684,8 +23684,8 @@
       <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" t="s">
-        <v>0</v>
+      <c r="C56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -23695,8 +23695,8 @@
       <c r="B57" t="s">
         <v>20</v>
       </c>
-      <c r="C57" t="s">
-        <v>0</v>
+      <c r="C57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -23706,8 +23706,8 @@
       <c r="B58" t="s">
         <v>20</v>
       </c>
-      <c r="C58" t="s">
-        <v>0</v>
+      <c r="C58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -23717,8 +23717,8 @@
       <c r="B59" t="s">
         <v>20</v>
       </c>
-      <c r="C59" t="s">
-        <v>0</v>
+      <c r="C59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -23728,8 +23728,8 @@
       <c r="B60" t="s">
         <v>20</v>
       </c>
-      <c r="C60" t="s">
-        <v>0</v>
+      <c r="C60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -23739,8 +23739,8 @@
       <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" t="s">
-        <v>0</v>
+      <c r="C61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -23750,8 +23750,8 @@
       <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="C62" t="s">
-        <v>0</v>
+      <c r="C62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -23761,8 +23761,8 @@
       <c r="B63" t="s">
         <v>20</v>
       </c>
-      <c r="C63" t="s">
-        <v>0</v>
+      <c r="C63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -23772,8 +23772,8 @@
       <c r="B64" t="s">
         <v>20</v>
       </c>
-      <c r="C64" t="s">
-        <v>0</v>
+      <c r="C64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -23783,8 +23783,8 @@
       <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C65" t="s">
-        <v>0</v>
+      <c r="C65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -23794,8 +23794,8 @@
       <c r="B66" t="s">
         <v>20</v>
       </c>
-      <c r="C66" t="s">
-        <v>0</v>
+      <c r="C66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -23805,8 +23805,8 @@
       <c r="B67" t="s">
         <v>21</v>
       </c>
-      <c r="C67" t="s">
-        <v>0</v>
+      <c r="C67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -23816,8 +23816,8 @@
       <c r="B68" t="s">
         <v>21</v>
       </c>
-      <c r="C68" t="s">
-        <v>0</v>
+      <c r="C68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -23827,8 +23827,8 @@
       <c r="B69" t="s">
         <v>21</v>
       </c>
-      <c r="C69" t="s">
-        <v>0</v>
+      <c r="C69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -23838,8 +23838,8 @@
       <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
-        <v>0</v>
+      <c r="C70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -23849,8 +23849,8 @@
       <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71" t="s">
-        <v>0</v>
+      <c r="C71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -23860,8 +23860,8 @@
       <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C72" t="s">
-        <v>0</v>
+      <c r="C72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -23871,8 +23871,8 @@
       <c r="B73" t="s">
         <v>21</v>
       </c>
-      <c r="C73" t="s">
-        <v>0</v>
+      <c r="C73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -23882,8 +23882,8 @@
       <c r="B74" t="s">
         <v>21</v>
       </c>
-      <c r="C74" t="s">
-        <v>0</v>
+      <c r="C74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -23893,8 +23893,8 @@
       <c r="B75" t="s">
         <v>21</v>
       </c>
-      <c r="C75" t="s">
-        <v>0</v>
+      <c r="C75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -23904,8 +23904,8 @@
       <c r="B76" t="s">
         <v>21</v>
       </c>
-      <c r="C76" t="s">
-        <v>0</v>
+      <c r="C76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -23915,8 +23915,8 @@
       <c r="B77" t="s">
         <v>21</v>
       </c>
-      <c r="C77" t="s">
-        <v>0</v>
+      <c r="C77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -23926,8 +23926,8 @@
       <c r="B78" t="s">
         <v>21</v>
       </c>
-      <c r="C78" t="s">
-        <v>0</v>
+      <c r="C78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -23937,8 +23937,8 @@
       <c r="B79" t="s">
         <v>21</v>
       </c>
-      <c r="C79" t="s">
-        <v>0</v>
+      <c r="C79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -23948,8 +23948,8 @@
       <c r="B80" t="s">
         <v>21</v>
       </c>
-      <c r="C80" t="s">
-        <v>0</v>
+      <c r="C80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -23959,8 +23959,8 @@
       <c r="B81" t="s">
         <v>21</v>
       </c>
-      <c r="C81" t="s">
-        <v>0</v>
+      <c r="C81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -23970,8 +23970,8 @@
       <c r="B82" t="s">
         <v>22</v>
       </c>
-      <c r="C82" t="s">
-        <v>1</v>
+      <c r="C82">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -23981,8 +23981,8 @@
       <c r="B83" t="s">
         <v>22</v>
       </c>
-      <c r="C83" t="s">
-        <v>1</v>
+      <c r="C83">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -23992,8 +23992,8 @@
       <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="C84" t="s">
-        <v>1</v>
+      <c r="C84">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -24003,8 +24003,8 @@
       <c r="B85" t="s">
         <v>22</v>
       </c>
-      <c r="C85" t="s">
-        <v>1</v>
+      <c r="C85">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -24014,8 +24014,8 @@
       <c r="B86" t="s">
         <v>22</v>
       </c>
-      <c r="C86" t="s">
-        <v>1</v>
+      <c r="C86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -24025,8 +24025,8 @@
       <c r="B87" t="s">
         <v>22</v>
       </c>
-      <c r="C87" t="s">
-        <v>1</v>
+      <c r="C87">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -24036,8 +24036,8 @@
       <c r="B88" t="s">
         <v>22</v>
       </c>
-      <c r="C88" t="s">
-        <v>1</v>
+      <c r="C88">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -24047,8 +24047,8 @@
       <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" t="s">
-        <v>1</v>
+      <c r="C89">
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -24058,8 +24058,8 @@
       <c r="B90" t="s">
         <v>22</v>
       </c>
-      <c r="C90" t="s">
-        <v>1</v>
+      <c r="C90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -24069,8 +24069,8 @@
       <c r="B91" t="s">
         <v>22</v>
       </c>
-      <c r="C91" t="s">
-        <v>1</v>
+      <c r="C91">
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -24080,8 +24080,8 @@
       <c r="B92" t="s">
         <v>22</v>
       </c>
-      <c r="C92" t="s">
-        <v>1</v>
+      <c r="C92">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -24091,8 +24091,8 @@
       <c r="B93" t="s">
         <v>22</v>
       </c>
-      <c r="C93" t="s">
-        <v>1</v>
+      <c r="C93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -24102,8 +24102,8 @@
       <c r="B94" t="s">
         <v>22</v>
       </c>
-      <c r="C94" t="s">
-        <v>1</v>
+      <c r="C94">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -24113,8 +24113,8 @@
       <c r="B95" t="s">
         <v>22</v>
       </c>
-      <c r="C95" t="s">
-        <v>1</v>
+      <c r="C95">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -24124,8 +24124,8 @@
       <c r="B96" t="s">
         <v>22</v>
       </c>
-      <c r="C96" t="s">
-        <v>1</v>
+      <c r="C96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24135,8 +24135,8 @@
       <c r="B97" t="s">
         <v>331</v>
       </c>
-      <c r="C97" t="s">
-        <v>1</v>
+      <c r="C97">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -24146,8 +24146,8 @@
       <c r="B98" t="s">
         <v>331</v>
       </c>
-      <c r="C98" t="s">
-        <v>1</v>
+      <c r="C98">
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24157,8 +24157,8 @@
       <c r="B99" t="s">
         <v>331</v>
       </c>
-      <c r="C99" t="s">
-        <v>1</v>
+      <c r="C99">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24168,8 +24168,8 @@
       <c r="B100" t="s">
         <v>331</v>
       </c>
-      <c r="C100" t="s">
-        <v>1</v>
+      <c r="C100">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24179,8 +24179,8 @@
       <c r="B101" t="s">
         <v>331</v>
       </c>
-      <c r="C101" t="s">
-        <v>1</v>
+      <c r="C101">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24190,8 +24190,8 @@
       <c r="B102" t="s">
         <v>331</v>
       </c>
-      <c r="C102" t="s">
-        <v>1</v>
+      <c r="C102">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24201,8 +24201,8 @@
       <c r="B103" t="s">
         <v>331</v>
       </c>
-      <c r="C103" t="s">
-        <v>1</v>
+      <c r="C103">
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24212,8 +24212,8 @@
       <c r="B104" t="s">
         <v>331</v>
       </c>
-      <c r="C104" t="s">
-        <v>1</v>
+      <c r="C104">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -24223,8 +24223,8 @@
       <c r="B105" t="s">
         <v>331</v>
       </c>
-      <c r="C105" t="s">
-        <v>1</v>
+      <c r="C105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -24234,8 +24234,8 @@
       <c r="B106" t="s">
         <v>331</v>
       </c>
-      <c r="C106" t="s">
-        <v>1</v>
+      <c r="C106">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -24245,8 +24245,8 @@
       <c r="B107" t="s">
         <v>331</v>
       </c>
-      <c r="C107" t="s">
-        <v>1</v>
+      <c r="C107">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -24256,8 +24256,8 @@
       <c r="B108" t="s">
         <v>331</v>
       </c>
-      <c r="C108" t="s">
-        <v>1</v>
+      <c r="C108">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -24267,8 +24267,8 @@
       <c r="B109" t="s">
         <v>331</v>
       </c>
-      <c r="C109" t="s">
-        <v>1</v>
+      <c r="C109">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -24278,8 +24278,8 @@
       <c r="B110" t="s">
         <v>331</v>
       </c>
-      <c r="C110" t="s">
-        <v>1</v>
+      <c r="C110">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -24289,8 +24289,8 @@
       <c r="B111" t="s">
         <v>331</v>
       </c>
-      <c r="C111" t="s">
-        <v>1</v>
+      <c r="C111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -24300,8 +24300,8 @@
       <c r="B112" t="s">
         <v>24</v>
       </c>
-      <c r="C112" t="s">
-        <v>1</v>
+      <c r="C112">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -24311,8 +24311,8 @@
       <c r="B113" t="s">
         <v>24</v>
       </c>
-      <c r="C113" t="s">
-        <v>1</v>
+      <c r="C113">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -24322,8 +24322,8 @@
       <c r="B114" t="s">
         <v>24</v>
       </c>
-      <c r="C114" t="s">
-        <v>1</v>
+      <c r="C114">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -24333,8 +24333,8 @@
       <c r="B115" t="s">
         <v>24</v>
       </c>
-      <c r="C115" t="s">
-        <v>1</v>
+      <c r="C115">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -24344,8 +24344,8 @@
       <c r="B116" t="s">
         <v>24</v>
       </c>
-      <c r="C116" t="s">
-        <v>1</v>
+      <c r="C116">
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -24355,8 +24355,8 @@
       <c r="B117" t="s">
         <v>24</v>
       </c>
-      <c r="C117" t="s">
-        <v>1</v>
+      <c r="C117">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -24366,8 +24366,8 @@
       <c r="B118" t="s">
         <v>24</v>
       </c>
-      <c r="C118" t="s">
-        <v>1</v>
+      <c r="C118">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -24377,8 +24377,8 @@
       <c r="B119" t="s">
         <v>24</v>
       </c>
-      <c r="C119" t="s">
-        <v>1</v>
+      <c r="C119">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -24388,8 +24388,8 @@
       <c r="B120" t="s">
         <v>24</v>
       </c>
-      <c r="C120" t="s">
-        <v>1</v>
+      <c r="C120">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -24399,8 +24399,8 @@
       <c r="B121" t="s">
         <v>24</v>
       </c>
-      <c r="C121" t="s">
-        <v>1</v>
+      <c r="C121">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -24410,8 +24410,8 @@
       <c r="B122" t="s">
         <v>24</v>
       </c>
-      <c r="C122" t="s">
-        <v>1</v>
+      <c r="C122">
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -24421,8 +24421,8 @@
       <c r="B123" t="s">
         <v>24</v>
       </c>
-      <c r="C123" t="s">
-        <v>1</v>
+      <c r="C123">
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -24432,8 +24432,8 @@
       <c r="B124" t="s">
         <v>24</v>
       </c>
-      <c r="C124" t="s">
-        <v>1</v>
+      <c r="C124">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -24443,8 +24443,8 @@
       <c r="B125" t="s">
         <v>24</v>
       </c>
-      <c r="C125" t="s">
-        <v>1</v>
+      <c r="C125">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -24454,8 +24454,8 @@
       <c r="B126" t="s">
         <v>24</v>
       </c>
-      <c r="C126" t="s">
-        <v>1</v>
+      <c r="C126">
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -24465,8 +24465,8 @@
       <c r="B127" t="s">
         <v>25</v>
       </c>
-      <c r="C127" t="s">
-        <v>1</v>
+      <c r="C127">
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -24476,8 +24476,8 @@
       <c r="B128" t="s">
         <v>25</v>
       </c>
-      <c r="C128" t="s">
-        <v>1</v>
+      <c r="C128">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -24487,8 +24487,8 @@
       <c r="B129" t="s">
         <v>25</v>
       </c>
-      <c r="C129" t="s">
-        <v>1</v>
+      <c r="C129">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -24498,8 +24498,8 @@
       <c r="B130" t="s">
         <v>25</v>
       </c>
-      <c r="C130" t="s">
-        <v>1</v>
+      <c r="C130">
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -24509,8 +24509,8 @@
       <c r="B131" t="s">
         <v>25</v>
       </c>
-      <c r="C131" t="s">
-        <v>1</v>
+      <c r="C131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -24520,8 +24520,8 @@
       <c r="B132" t="s">
         <v>25</v>
       </c>
-      <c r="C132" t="s">
-        <v>1</v>
+      <c r="C132">
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -24531,8 +24531,8 @@
       <c r="B133" t="s">
         <v>25</v>
       </c>
-      <c r="C133" t="s">
-        <v>1</v>
+      <c r="C133">
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -24542,8 +24542,8 @@
       <c r="B134" t="s">
         <v>25</v>
       </c>
-      <c r="C134" t="s">
-        <v>1</v>
+      <c r="C134">
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -24553,8 +24553,8 @@
       <c r="B135" t="s">
         <v>25</v>
       </c>
-      <c r="C135" t="s">
-        <v>1</v>
+      <c r="C135">
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -24564,8 +24564,8 @@
       <c r="B136" t="s">
         <v>25</v>
       </c>
-      <c r="C136" t="s">
-        <v>1</v>
+      <c r="C136">
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -24575,8 +24575,8 @@
       <c r="B137" t="s">
         <v>25</v>
       </c>
-      <c r="C137" t="s">
-        <v>1</v>
+      <c r="C137">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -24586,8 +24586,8 @@
       <c r="B138" t="s">
         <v>25</v>
       </c>
-      <c r="C138" t="s">
-        <v>1</v>
+      <c r="C138">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -24597,8 +24597,8 @@
       <c r="B139" t="s">
         <v>25</v>
       </c>
-      <c r="C139" t="s">
-        <v>1</v>
+      <c r="C139">
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -24608,8 +24608,8 @@
       <c r="B140" t="s">
         <v>25</v>
       </c>
-      <c r="C140" t="s">
-        <v>1</v>
+      <c r="C140">
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -24619,8 +24619,8 @@
       <c r="B141" t="s">
         <v>25</v>
       </c>
-      <c r="C141" t="s">
-        <v>1</v>
+      <c r="C141">
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -24630,8 +24630,8 @@
       <c r="B142" t="s">
         <v>26</v>
       </c>
-      <c r="C142" t="s">
-        <v>1</v>
+      <c r="C142">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -24641,8 +24641,8 @@
       <c r="B143" t="s">
         <v>26</v>
       </c>
-      <c r="C143" t="s">
-        <v>1</v>
+      <c r="C143">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -24652,8 +24652,8 @@
       <c r="B144" t="s">
         <v>26</v>
       </c>
-      <c r="C144" t="s">
-        <v>1</v>
+      <c r="C144">
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24663,8 +24663,8 @@
       <c r="B145" t="s">
         <v>26</v>
       </c>
-      <c r="C145" t="s">
-        <v>1</v>
+      <c r="C145">
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24674,8 +24674,8 @@
       <c r="B146" t="s">
         <v>26</v>
       </c>
-      <c r="C146" t="s">
-        <v>1</v>
+      <c r="C146">
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24685,8 +24685,8 @@
       <c r="B147" t="s">
         <v>26</v>
       </c>
-      <c r="C147" t="s">
-        <v>1</v>
+      <c r="C147">
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24696,8 +24696,8 @@
       <c r="B148" t="s">
         <v>26</v>
       </c>
-      <c r="C148" t="s">
-        <v>1</v>
+      <c r="C148">
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24707,8 +24707,8 @@
       <c r="B149" t="s">
         <v>26</v>
       </c>
-      <c r="C149" t="s">
-        <v>1</v>
+      <c r="C149">
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24718,8 +24718,8 @@
       <c r="B150" t="s">
         <v>26</v>
       </c>
-      <c r="C150" t="s">
-        <v>1</v>
+      <c r="C150">
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24729,8 +24729,8 @@
       <c r="B151" t="s">
         <v>26</v>
       </c>
-      <c r="C151" t="s">
-        <v>1</v>
+      <c r="C151">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24740,8 +24740,8 @@
       <c r="B152" t="s">
         <v>26</v>
       </c>
-      <c r="C152" t="s">
-        <v>1</v>
+      <c r="C152">
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -24751,8 +24751,8 @@
       <c r="B153" t="s">
         <v>26</v>
       </c>
-      <c r="C153" t="s">
-        <v>1</v>
+      <c r="C153">
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -24762,8 +24762,8 @@
       <c r="B154" t="s">
         <v>26</v>
       </c>
-      <c r="C154" t="s">
-        <v>1</v>
+      <c r="C154">
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -24773,8 +24773,8 @@
       <c r="B155" t="s">
         <v>26</v>
       </c>
-      <c r="C155" t="s">
-        <v>1</v>
+      <c r="C155">
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -24784,8 +24784,8 @@
       <c r="B156" t="s">
         <v>26</v>
       </c>
-      <c r="C156" t="s">
-        <v>1</v>
+      <c r="C156">
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -24795,8 +24795,8 @@
       <c r="B157" t="s">
         <v>1178</v>
       </c>
-      <c r="C157" t="s">
-        <v>1</v>
+      <c r="C157">
+        <v>2</v>
       </c>
       <c r="D157" t="s">
         <v>1177</v>
@@ -24809,8 +24809,8 @@
       <c r="B158" t="s">
         <v>1178</v>
       </c>
-      <c r="C158" t="s">
-        <v>1</v>
+      <c r="C158">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -24820,8 +24820,8 @@
       <c r="B159" t="s">
         <v>1178</v>
       </c>
-      <c r="C159" t="s">
-        <v>1</v>
+      <c r="C159">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -24831,8 +24831,8 @@
       <c r="B160" t="s">
         <v>1178</v>
       </c>
-      <c r="C160" t="s">
-        <v>1</v>
+      <c r="C160">
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -24842,8 +24842,8 @@
       <c r="B161" t="s">
         <v>1178</v>
       </c>
-      <c r="C161" t="s">
-        <v>1</v>
+      <c r="C161">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -24853,8 +24853,8 @@
       <c r="B162" t="s">
         <v>1178</v>
       </c>
-      <c r="C162" t="s">
-        <v>1</v>
+      <c r="C162">
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -24864,8 +24864,8 @@
       <c r="B163" t="s">
         <v>1178</v>
       </c>
-      <c r="C163" t="s">
-        <v>1</v>
+      <c r="C163">
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -24875,8 +24875,8 @@
       <c r="B164" t="s">
         <v>1178</v>
       </c>
-      <c r="C164" t="s">
-        <v>1</v>
+      <c r="C164">
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -24886,8 +24886,8 @@
       <c r="B165" t="s">
         <v>1178</v>
       </c>
-      <c r="C165" t="s">
-        <v>1</v>
+      <c r="C165">
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -24897,8 +24897,8 @@
       <c r="B166" t="s">
         <v>1178</v>
       </c>
-      <c r="C166" t="s">
-        <v>1</v>
+      <c r="C166">
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -24908,8 +24908,8 @@
       <c r="B167" t="s">
         <v>1178</v>
       </c>
-      <c r="C167" t="s">
-        <v>1</v>
+      <c r="C167">
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -24919,8 +24919,8 @@
       <c r="B168" t="s">
         <v>1178</v>
       </c>
-      <c r="C168" t="s">
-        <v>1</v>
+      <c r="C168">
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -24930,8 +24930,8 @@
       <c r="B169" t="s">
         <v>1178</v>
       </c>
-      <c r="C169" t="s">
-        <v>1</v>
+      <c r="C169">
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -24941,8 +24941,8 @@
       <c r="B170" t="s">
         <v>1178</v>
       </c>
-      <c r="C170" t="s">
-        <v>1</v>
+      <c r="C170">
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -24952,8 +24952,8 @@
       <c r="B171" t="s">
         <v>1178</v>
       </c>
-      <c r="C171" t="s">
-        <v>1</v>
+      <c r="C171">
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -24963,8 +24963,8 @@
       <c r="B172" t="s">
         <v>27</v>
       </c>
-      <c r="C172" t="s">
-        <v>2</v>
+      <c r="C172">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -24974,8 +24974,8 @@
       <c r="B173" t="s">
         <v>27</v>
       </c>
-      <c r="C173" t="s">
-        <v>2</v>
+      <c r="C173">
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -24985,8 +24985,8 @@
       <c r="B174" t="s">
         <v>27</v>
       </c>
-      <c r="C174" t="s">
-        <v>2</v>
+      <c r="C174">
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -24996,8 +24996,8 @@
       <c r="B175" t="s">
         <v>27</v>
       </c>
-      <c r="C175" t="s">
-        <v>2</v>
+      <c r="C175">
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -25007,8 +25007,8 @@
       <c r="B176" t="s">
         <v>27</v>
       </c>
-      <c r="C176" t="s">
-        <v>2</v>
+      <c r="C176">
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -25018,8 +25018,8 @@
       <c r="B177" t="s">
         <v>27</v>
       </c>
-      <c r="C177" t="s">
-        <v>2</v>
+      <c r="C177">
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -25029,8 +25029,8 @@
       <c r="B178" t="s">
         <v>27</v>
       </c>
-      <c r="C178" t="s">
-        <v>2</v>
+      <c r="C178">
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -25040,8 +25040,8 @@
       <c r="B179" t="s">
         <v>27</v>
       </c>
-      <c r="C179" t="s">
-        <v>2</v>
+      <c r="C179">
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -25051,8 +25051,8 @@
       <c r="B180" t="s">
         <v>27</v>
       </c>
-      <c r="C180" t="s">
-        <v>2</v>
+      <c r="C180">
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -25062,8 +25062,8 @@
       <c r="B181" t="s">
         <v>27</v>
       </c>
-      <c r="C181" t="s">
-        <v>2</v>
+      <c r="C181">
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -25073,8 +25073,8 @@
       <c r="B182" t="s">
         <v>27</v>
       </c>
-      <c r="C182" t="s">
-        <v>2</v>
+      <c r="C182">
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -25084,8 +25084,8 @@
       <c r="B183" t="s">
         <v>27</v>
       </c>
-      <c r="C183" t="s">
-        <v>2</v>
+      <c r="C183">
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -25095,8 +25095,8 @@
       <c r="B184" t="s">
         <v>27</v>
       </c>
-      <c r="C184" t="s">
-        <v>2</v>
+      <c r="C184">
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -25106,8 +25106,8 @@
       <c r="B185" t="s">
         <v>27</v>
       </c>
-      <c r="C185" t="s">
-        <v>2</v>
+      <c r="C185">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -25117,8 +25117,8 @@
       <c r="B186" t="s">
         <v>27</v>
       </c>
-      <c r="C186" t="s">
-        <v>2</v>
+      <c r="C186">
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -25128,8 +25128,8 @@
       <c r="B187" t="s">
         <v>28</v>
       </c>
-      <c r="C187" t="s">
-        <v>2</v>
+      <c r="C187">
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -25139,8 +25139,8 @@
       <c r="B188" t="s">
         <v>28</v>
       </c>
-      <c r="C188" t="s">
-        <v>2</v>
+      <c r="C188">
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -25150,8 +25150,8 @@
       <c r="B189" t="s">
         <v>28</v>
       </c>
-      <c r="C189" t="s">
-        <v>2</v>
+      <c r="C189">
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -25161,8 +25161,8 @@
       <c r="B190" t="s">
         <v>28</v>
       </c>
-      <c r="C190" t="s">
-        <v>2</v>
+      <c r="C190">
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -25172,8 +25172,8 @@
       <c r="B191" t="s">
         <v>28</v>
       </c>
-      <c r="C191" t="s">
-        <v>2</v>
+      <c r="C191">
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -25183,8 +25183,8 @@
       <c r="B192" t="s">
         <v>28</v>
       </c>
-      <c r="C192" t="s">
-        <v>2</v>
+      <c r="C192">
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -25194,8 +25194,8 @@
       <c r="B193" t="s">
         <v>28</v>
       </c>
-      <c r="C193" t="s">
-        <v>2</v>
+      <c r="C193">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -25205,8 +25205,8 @@
       <c r="B194" t="s">
         <v>28</v>
       </c>
-      <c r="C194" t="s">
-        <v>2</v>
+      <c r="C194">
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -25216,8 +25216,8 @@
       <c r="B195" t="s">
         <v>28</v>
       </c>
-      <c r="C195" t="s">
-        <v>2</v>
+      <c r="C195">
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -25227,8 +25227,8 @@
       <c r="B196" t="s">
         <v>28</v>
       </c>
-      <c r="C196" t="s">
-        <v>2</v>
+      <c r="C196">
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -25238,8 +25238,8 @@
       <c r="B197" t="s">
         <v>28</v>
       </c>
-      <c r="C197" t="s">
-        <v>2</v>
+      <c r="C197">
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -25249,8 +25249,8 @@
       <c r="B198" t="s">
         <v>28</v>
       </c>
-      <c r="C198" t="s">
-        <v>2</v>
+      <c r="C198">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -25260,8 +25260,8 @@
       <c r="B199" t="s">
         <v>28</v>
       </c>
-      <c r="C199" t="s">
-        <v>2</v>
+      <c r="C199">
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -25271,8 +25271,8 @@
       <c r="B200" t="s">
         <v>28</v>
       </c>
-      <c r="C200" t="s">
-        <v>2</v>
+      <c r="C200">
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -25282,8 +25282,8 @@
       <c r="B201" t="s">
         <v>28</v>
       </c>
-      <c r="C201" t="s">
-        <v>2</v>
+      <c r="C201">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -25299,6 +25299,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -25444,15 +25453,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -25470,6 +25470,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25485,12 +25493,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-SCHOOL\1-Prog\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8430AAEF-F062-49CA-ACA6-954970802CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF20FF8-1B46-4B66-9A89-BEFA64FBEF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -4694,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22989,7 +22989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A134" workbookViewId="0">
       <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>

--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-SCHOOL\1-Prog\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF20FF8-1B46-4B66-9A89-BEFA64FBEF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29B3E95-EC5E-43D7-90D9-EB6C2F977D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -4695,7 +4695,7 @@
   <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25299,15 +25299,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -25453,6 +25444,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -25470,14 +25470,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25493,4 +25485,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1570E920-0143-4713-ACB6-E3027CA35A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D44A92-0C95-49C7-8B74-87EBB2335FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6615" yWindow="510" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5051" uniqueCount="1365">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4801,6 +4801,39 @@
   </si>
   <si>
     <t>call()</t>
+  </si>
+  <si>
+    <t>this()</t>
+  </si>
+  <si>
+    <t>aFunction()</t>
+  </si>
+  <si>
+    <t>whatIs(this)</t>
+  </si>
+  <si>
+    <t>minus(num - mun)</t>
+  </si>
+  <si>
+    <t>plus(num + num)</t>
+  </si>
+  <si>
+    <t>times()</t>
+  </si>
+  <si>
+    <t>dividedBy()</t>
+  </si>
+  <si>
+    <t>modulo()</t>
+  </si>
+  <si>
+    <t>thisFunction()</t>
+  </si>
+  <si>
+    <t>callFunction()</t>
+  </si>
+  <si>
+    <t>ClassObject()</t>
   </si>
 </sst>
 </file>
@@ -5169,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -22828,8 +22861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24657,6 +24690,9 @@
       <c r="C131">
         <v>2</v>
       </c>
+      <c r="D131" t="s">
+        <v>1354</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -24668,6 +24704,9 @@
       <c r="C132">
         <v>2</v>
       </c>
+      <c r="D132" t="s">
+        <v>1355</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -24679,6 +24718,9 @@
       <c r="C133">
         <v>2</v>
       </c>
+      <c r="D133" t="s">
+        <v>1356</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -24690,6 +24732,9 @@
       <c r="C134">
         <v>2</v>
       </c>
+      <c r="D134" t="s">
+        <v>1357</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -24701,6 +24746,9 @@
       <c r="C135">
         <v>2</v>
       </c>
+      <c r="D135" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -24712,6 +24760,9 @@
       <c r="C136">
         <v>2</v>
       </c>
+      <c r="D136" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -24723,6 +24774,9 @@
       <c r="C137">
         <v>2</v>
       </c>
+      <c r="D137" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -24734,6 +24788,9 @@
       <c r="C138">
         <v>2</v>
       </c>
+      <c r="D138" t="s">
+        <v>1361</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -24745,6 +24802,9 @@
       <c r="C139">
         <v>2</v>
       </c>
+      <c r="D139" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -24756,6 +24816,9 @@
       <c r="C140">
         <v>2</v>
       </c>
+      <c r="D140" t="s">
+        <v>1363</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -24766,6 +24829,9 @@
       </c>
       <c r="C141">
         <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -25459,15 +25525,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -25613,6 +25670,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -25630,14 +25696,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25653,4 +25711,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D44A92-0C95-49C7-8B74-87EBB2335FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104852B7-E979-4282-9B51-30415202D665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="510" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="15915" yWindow="735" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5051" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="1374">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4835,6 +4835,33 @@
   <si>
     <t>ClassObject()</t>
   </si>
+  <si>
+    <t>/*/</t>
+  </si>
+  <si>
+    <t>\**\</t>
+  </si>
+  <si>
+    <t>\/</t>
+  </si>
+  <si>
+    <t>\\\</t>
+  </si>
+  <si>
+    <t>/\</t>
+  </si>
+  <si>
+    <t>\\ this is a comment</t>
+  </si>
+  <si>
+    <t>\* this is for blocks *\</t>
+  </si>
+  <si>
+    <t>'' documentation '''</t>
+  </si>
+  <si>
+    <t>// this comment</t>
+  </si>
 </sst>
 </file>
 
@@ -4843,7 +4870,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4853,6 +4880,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4875,10 +4910,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4886,8 +4922,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22859,10 +22897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23171,13 +23209,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1255</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23185,13 +23223,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23199,13 +23237,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1257</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23213,13 +23251,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>1260</v>
+      <c r="D25" s="7" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23227,13 +23265,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1258</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23241,13 +23279,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1259</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23255,13 +23293,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1261</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23269,13 +23307,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1262</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23283,13 +23321,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>1312</v>
+      <c r="D30" s="3" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23297,13 +23335,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1313</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -23317,7 +23355,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1314</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -23330,6 +23368,9 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -23341,6 +23382,9 @@
       <c r="C34">
         <v>1</v>
       </c>
+      <c r="D34" t="s">
+        <v>1257</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -23352,6 +23396,9 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35" t="s">
+        <v>1260</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -23363,19 +23410,22 @@
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="D36" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23383,13 +23433,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1159</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23397,13 +23447,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1160</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23411,13 +23461,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1161</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23425,13 +23475,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23439,13 +23489,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1162</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23453,13 +23503,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23467,13 +23514,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23481,13 +23525,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23495,13 +23536,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>1</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -23515,7 +23553,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1316</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23529,7 +23567,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1317</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -23543,7 +23581,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1318</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -23557,7 +23595,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1319</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -23571,7 +23609,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1320</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -23579,13 +23617,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1263</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -23593,13 +23631,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1321</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -23607,13 +23645,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1322</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -23621,13 +23659,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1323</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -23635,13 +23673,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>1324</v>
+      <c r="D56" s="6" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -23649,13 +23687,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -23663,13 +23701,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -23677,13 +23715,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -23691,13 +23729,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -23705,13 +23743,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1152</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -23725,7 +23763,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1329</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -23739,7 +23777,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -23753,7 +23791,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -23767,7 +23805,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -23781,7 +23819,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -23789,13 +23827,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>1264</v>
+      <c r="D67" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -23803,13 +23841,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>1265</v>
+      <c r="D68" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -23817,13 +23855,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>1266</v>
+      <c r="D69" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -23831,13 +23869,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>1267</v>
+      <c r="D70" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -23845,13 +23883,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1268</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -23859,13 +23897,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>1269</v>
+      <c r="D72" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -23873,13 +23911,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1283</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -23887,13 +23925,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1284</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -23901,13 +23939,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1285</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -23915,13 +23953,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>1286</v>
+      <c r="D76" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -23935,7 +23973,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1287</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -23949,7 +23987,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>742</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -23963,7 +24001,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1288</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -23976,8 +24014,8 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" t="s">
-        <v>1289</v>
+      <c r="D80" s="3" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -23991,7 +24029,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1290</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -23999,13 +24037,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1277</v>
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -24013,13 +24051,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -24027,13 +24065,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -24041,13 +24079,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -24055,13 +24093,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1281</v>
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -24069,13 +24107,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1282</v>
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -24083,13 +24121,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1274</v>
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -24097,13 +24135,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1275</v>
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -24111,13 +24149,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -24125,13 +24163,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>1273</v>
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -24144,8 +24182,8 @@
       <c r="C92">
         <v>2</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>1272</v>
+      <c r="D92" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -24158,8 +24196,8 @@
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>1270</v>
+      <c r="D93" t="s">
+        <v>1278</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -24172,8 +24210,8 @@
       <c r="C94">
         <v>2</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>1271</v>
+      <c r="D94" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -24187,7 +24225,7 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -24201,7 +24239,7 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -24209,13 +24247,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -24223,13 +24261,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -24237,13 +24275,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -24251,13 +24289,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -24265,13 +24303,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1295</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -24279,13 +24317,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1296</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -24293,13 +24331,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -24307,13 +24345,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1298</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -24321,13 +24359,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>1299</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -24335,13 +24373,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>1300</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -24355,7 +24393,7 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -24369,7 +24407,7 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -24383,7 +24421,7 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -24397,7 +24435,7 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -24410,8 +24448,8 @@
       <c r="C111">
         <v>2</v>
       </c>
-      <c r="D111" t="s">
-        <v>1304</v>
+      <c r="D111" s="3" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -24419,13 +24457,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
-      <c r="D112" t="s">
-        <v>1334</v>
+      <c r="D112" s="3" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -24433,13 +24471,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
-      <c r="D113" t="s">
-        <v>1335</v>
+      <c r="D113" s="3" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -24447,13 +24485,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
-      <c r="D114" t="s">
-        <v>1328</v>
+      <c r="D114" s="3" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -24461,13 +24499,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>1336</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -24475,13 +24513,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>1337</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -24489,13 +24527,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>1338</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -24503,13 +24541,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>1329</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -24517,13 +24555,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>1152</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -24531,13 +24569,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -24545,13 +24583,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>1339</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -24565,7 +24603,7 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -24579,7 +24617,7 @@
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -24593,7 +24631,7 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -24607,7 +24645,7 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -24621,7 +24659,7 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -24629,13 +24667,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -24643,13 +24681,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>1351</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -24657,13 +24695,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>1352</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -24671,13 +24709,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>1353</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -24685,13 +24723,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -24699,13 +24737,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -24713,13 +24751,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -24727,13 +24765,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -24741,13 +24779,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -24755,13 +24793,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -24775,7 +24813,7 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -24789,7 +24827,7 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -24803,7 +24841,7 @@
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -24817,7 +24855,7 @@
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -24831,7 +24869,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -24839,13 +24877,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>1345</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -24853,13 +24891,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>1346</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -24867,13 +24905,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C144">
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>1347</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24881,13 +24919,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24895,13 +24933,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>1349</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24909,10 +24947,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C147">
         <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24920,10 +24961,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C148">
         <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24931,10 +24975,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C149">
         <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24942,10 +24989,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C150">
         <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24953,10 +25003,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C151">
         <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24969,6 +25022,9 @@
       <c r="C152">
         <v>2</v>
       </c>
+      <c r="D152" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -24980,6 +25036,9 @@
       <c r="C153">
         <v>2</v>
       </c>
+      <c r="D153" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -24991,6 +25050,9 @@
       <c r="C154">
         <v>2</v>
       </c>
+      <c r="D154" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -25002,6 +25064,9 @@
       <c r="C155">
         <v>2</v>
       </c>
+      <c r="D155" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -25013,19 +25078,19 @@
       <c r="C156">
         <v>2</v>
       </c>
+      <c r="D156" t="s">
+        <v>1349</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C157">
         <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -25033,7 +25098,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -25044,7 +25109,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -25055,79 +25120,79 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1147</v>
+        <v>26</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -25137,8 +25202,11 @@
       <c r="C167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -25149,7 +25217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -25160,7 +25228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -25171,7 +25239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -25182,59 +25250,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -25242,10 +25310,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -25253,10 +25321,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -25264,10 +25332,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -25275,10 +25343,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -25286,10 +25354,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>1147</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -25352,7 +25420,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -25363,7 +25431,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -25374,7 +25442,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -25385,7 +25453,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -25396,7 +25464,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C191">
         <v>3</v>
@@ -25407,7 +25475,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -25418,7 +25486,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C193">
         <v>3</v>
@@ -25429,7 +25497,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -25440,7 +25508,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -25451,7 +25519,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C196">
         <v>3</v>
@@ -25509,6 +25577,116 @@
         <v>28</v>
       </c>
       <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211">
         <v>3</v>
       </c>
     </row>
@@ -25519,12 +25697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -25670,7 +25842,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -25679,23 +25851,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25713,10 +25875,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ryoshu\Documents\GitHub\CodexLearning2\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104852B7-E979-4282-9B51-30415202D665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D410A8B9-28AA-4A2C-82D5-8F96A20D2362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="735" windowWidth="12765" windowHeight="12630" activeTab="2" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -12154,8 +12154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26312E56-B338-43B4-8651-D7A8BA424BFB}">
   <dimension ref="A1:X529"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="U517" sqref="U517"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12163,7 +12163,7 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>547</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>912</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>796</v>
       </c>
@@ -12237,12 +12237,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>912</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>796</v>
       </c>
@@ -12302,12 +12302,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>912</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>796</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>796</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>796</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>796</v>
       </c>
@@ -12423,26 +12423,26 @@
       <c r="G15" t="s">
         <v>1173</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>1174</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>1172</v>
       </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>805</v>
       </c>
       <c r="M15" t="s">
-        <v>805</v>
-      </c>
-      <c r="N15" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>139</v>
       </c>
@@ -22899,7 +22899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -25843,18 +25843,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25876,14 +25876,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -25897,4 +25889,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A87347-2876-4D83-9B03-ED7ECC0B1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF1EF7-9E46-4521-840B-807EADED9D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="195" windowWidth="15825" windowHeight="9855" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
     <sheet name="MiniGames" sheetId="5" r:id="rId2"/>
     <sheet name="AnswerPool" sheetId="6" r:id="rId3"/>
+    <sheet name="Minigame" sheetId="7" r:id="rId4"/>
+    <sheet name="AnswerPool2" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5163" uniqueCount="1200">
   <si>
     <t>Stage 1</t>
   </si>
@@ -3408,15 +3410,9 @@
     <t>"Sum = "</t>
   </si>
   <si>
-    <t>static void</t>
-  </si>
-  <si>
     <t>myMethod</t>
   </si>
   <si>
-    <t>" Refsnes"</t>
-  </si>
-  <si>
     <t>"Liam"</t>
   </si>
   <si>
@@ -3429,9 +3425,6 @@
     <t>"Anja"</t>
   </si>
   <si>
-    <t>static int</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -3609,15 +3602,9 @@
     <t>count++</t>
   </si>
   <si>
-    <t>(String[] srt)</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
-    <t>c1.count</t>
-  </si>
-  <si>
     <t>", "</t>
   </si>
   <si>
@@ -4330,6 +4317,30 @@
   </si>
   <si>
     <t>float num = 2.81f;</t>
+  </si>
+  <si>
+    <t>"My name is "</t>
+  </si>
+  <si>
+    <t>c1.count()</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   . </t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>println</t>
+  </si>
+  <si>
+    <t>("Hello World")</t>
+  </si>
+  <si>
+    <t>(2 + 5)</t>
   </si>
 </sst>
 </file>
@@ -4693,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -5045,10 +5056,10 @@
         <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="J10" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="R10" t="s">
         <v>0</v>
@@ -11608,7 +11619,7 @@
   <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E554" sqref="E554"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,7 +11660,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F3" t="s">
         <v>142</v>
@@ -11714,7 +11725,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F7" t="s">
         <v>142</v>
@@ -11785,7 +11796,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -11988,7 +11999,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F18" t="s">
         <v>142</v>
@@ -12113,7 +12124,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -12142,7 +12153,7 @@
         <v>240</v>
       </c>
       <c r="H26" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I26" t="s">
         <v>796</v>
@@ -12191,7 +12202,7 @@
         <v>240</v>
       </c>
       <c r="H28" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I28" t="s">
         <v>157</v>
@@ -12231,7 +12242,7 @@
         <v>240</v>
       </c>
       <c r="H30" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I30" t="s">
         <v>157</v>
@@ -12341,7 +12352,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F34" t="s">
         <v>142</v>
@@ -12387,7 +12398,7 @@
         <v>796</v>
       </c>
       <c r="G36" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H36" t="s">
         <v>264</v>
@@ -13107,7 +13118,7 @@
         <v>885</v>
       </c>
       <c r="F69" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G69" t="s">
         <v>844</v>
@@ -13172,10 +13183,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
+        <v>997</v>
+      </c>
+      <c r="F73" t="s">
         <v>889</v>
-      </c>
-      <c r="F73" t="s">
-        <v>890</v>
       </c>
       <c r="G73" t="s">
         <v>796</v>
@@ -13204,13 +13215,13 @@
         <v>796</v>
       </c>
       <c r="G74" t="s">
-        <v>829</v>
+        <v>1192</v>
       </c>
       <c r="H74" t="s">
         <v>264</v>
       </c>
       <c r="I74" t="s">
-        <v>891</v>
+        <v>829</v>
       </c>
       <c r="J74" t="s">
         <v>144</v>
@@ -13244,16 +13255,16 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F76" t="s">
         <v>796</v>
       </c>
       <c r="G76" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H76" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I76" t="s">
         <v>157</v>
@@ -13264,16 +13275,16 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F77" t="s">
         <v>796</v>
       </c>
       <c r="G77" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H77" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I77" t="s">
         <v>157</v>
@@ -13284,22 +13295,22 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F78" t="s">
         <v>796</v>
       </c>
       <c r="G78" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H78" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I78" t="s">
         <v>157</v>
       </c>
       <c r="J78" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K78" t="s">
         <v>797</v>
@@ -13326,10 +13337,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c r="F81" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G81" t="s">
         <v>796</v>
@@ -13338,7 +13349,7 @@
         <v>191</v>
       </c>
       <c r="I81" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="J81" t="s">
         <v>144</v>
@@ -13361,7 +13372,7 @@
         <v>264</v>
       </c>
       <c r="H82" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I82" t="s">
         <v>157</v>
@@ -13398,7 +13409,7 @@
         <v>796</v>
       </c>
       <c r="G84" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H84" t="s">
         <v>796</v>
@@ -13443,10 +13454,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F87" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G87" t="s">
         <v>802</v>
@@ -13460,7 +13471,7 @@
         <v>191</v>
       </c>
       <c r="F88" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G88" t="s">
         <v>240</v>
@@ -13494,10 +13505,10 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F90" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G90" t="s">
         <v>240</v>
@@ -13506,7 +13517,7 @@
         <v>712</v>
       </c>
       <c r="I90" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J90" t="s">
         <v>157</v>
@@ -13523,7 +13534,7 @@
         <v>796</v>
       </c>
       <c r="G91" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H91" t="s">
         <v>144</v>
@@ -13562,10 +13573,10 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F94" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G94" t="s">
         <v>802</v>
@@ -13579,7 +13590,7 @@
         <v>191</v>
       </c>
       <c r="F95" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G95" t="s">
         <v>240</v>
@@ -13613,10 +13624,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F97" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="G97" t="s">
         <v>240</v>
@@ -13625,7 +13636,7 @@
         <v>712</v>
       </c>
       <c r="I97" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J97" t="s">
         <v>157</v>
@@ -13636,7 +13647,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F98" t="s">
         <v>240</v>
@@ -13659,7 +13670,7 @@
         <v>796</v>
       </c>
       <c r="G99" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H99" t="s">
         <v>144</v>
@@ -13701,7 +13712,7 @@
         <v>140</v>
       </c>
       <c r="F102" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G102" t="s">
         <v>802</v>
@@ -13715,7 +13726,7 @@
         <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G103" t="s">
         <v>157</v>
@@ -13729,7 +13740,7 @@
         <v>143</v>
       </c>
       <c r="F104" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G104" t="s">
         <v>157</v>
@@ -13746,7 +13757,7 @@
         <v>140</v>
       </c>
       <c r="F105" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G105" t="s">
         <v>802</v>
@@ -13774,10 +13785,10 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F107" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G107" t="s">
         <v>240</v>
@@ -13786,7 +13797,7 @@
         <v>712</v>
       </c>
       <c r="I107" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J107" t="s">
         <v>157</v>
@@ -13797,21 +13808,21 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F108" t="s">
         <v>240</v>
       </c>
       <c r="G108" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F109" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="G109" t="s">
         <v>157</v>
@@ -13825,19 +13836,19 @@
         <v>796</v>
       </c>
       <c r="G110" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H110" t="s">
         <v>264</v>
       </c>
       <c r="I110" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J110" t="s">
         <v>264</v>
       </c>
       <c r="K110" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="L110" t="s">
         <v>144</v>
@@ -13876,10 +13887,10 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F113" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G113" t="s">
         <v>802</v>
@@ -13893,7 +13904,7 @@
         <v>191</v>
       </c>
       <c r="F114" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G114" t="s">
         <v>240</v>
@@ -13910,7 +13921,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F115" t="s">
         <v>802</v>
@@ -13921,7 +13932,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F116" t="s">
         <v>157</v>
@@ -13941,7 +13952,7 @@
         <v>800</v>
       </c>
       <c r="G117" t="s">
-        <v>956</v>
+        <v>801</v>
       </c>
       <c r="H117" t="s">
         <v>802</v>
@@ -13952,10 +13963,10 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F118" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G118" t="s">
         <v>240</v>
@@ -13964,7 +13975,7 @@
         <v>712</v>
       </c>
       <c r="I118" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J118" t="s">
         <v>157</v>
@@ -13981,13 +13992,13 @@
         <v>796</v>
       </c>
       <c r="G119" t="s">
-        <v>958</v>
+        <v>1193</v>
       </c>
       <c r="H119" t="s">
         <v>264</v>
       </c>
       <c r="I119" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="J119" t="s">
         <v>144</v>
@@ -14029,7 +14040,7 @@
         <v>140</v>
       </c>
       <c r="F122" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G122" t="s">
         <v>802</v>
@@ -14046,7 +14057,7 @@
         <v>143</v>
       </c>
       <c r="G123" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H123" t="s">
         <v>157</v>
@@ -14060,7 +14071,7 @@
         <v>139</v>
       </c>
       <c r="F124" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G124" t="s">
         <v>796</v>
@@ -14078,7 +14089,7 @@
         <v>802</v>
       </c>
       <c r="L124" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="M124" t="s">
         <v>240</v>
@@ -14101,7 +14112,7 @@
         <v>143</v>
       </c>
       <c r="G125" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="H125" t="s">
         <v>802</v>
@@ -14110,7 +14121,7 @@
         <v>303</v>
       </c>
       <c r="J125" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K125" t="s">
         <v>157</v>
@@ -14130,7 +14141,7 @@
         <v>796</v>
       </c>
       <c r="G126" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="H126" t="s">
         <v>144</v>
@@ -14153,7 +14164,7 @@
         <v>796</v>
       </c>
       <c r="G127" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H127" t="s">
         <v>144</v>
@@ -14195,7 +14206,7 @@
         <v>140</v>
       </c>
       <c r="F130" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G130" t="s">
         <v>802</v>
@@ -14209,7 +14220,7 @@
         <v>142</v>
       </c>
       <c r="F131" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G131" t="s">
         <v>191</v>
@@ -14232,7 +14243,7 @@
         <v>191</v>
       </c>
       <c r="F132" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G132" t="s">
         <v>240</v>
@@ -14293,13 +14304,13 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F134" t="s">
         <v>240</v>
       </c>
       <c r="G134" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="H134" t="s">
         <v>259</v>
@@ -14325,13 +14336,13 @@
         <v>796</v>
       </c>
       <c r="G135" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="H135" t="s">
         <v>264</v>
       </c>
       <c r="I135" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="J135" t="s">
         <v>144</v>
@@ -14368,7 +14379,7 @@
         <v>712</v>
       </c>
       <c r="F137" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G137">
         <v>5</v>
@@ -14646,7 +14657,7 @@
         <v>837</v>
       </c>
       <c r="I150" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="J150" t="s">
         <v>144</v>
@@ -15829,7 +15840,7 @@
         <v>796</v>
       </c>
       <c r="G203" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H203" t="s">
         <v>144</v>
@@ -15846,13 +15857,13 @@
         <v>227</v>
       </c>
       <c r="F204" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G204" t="s">
         <v>240</v>
       </c>
       <c r="H204" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I204" t="s">
         <v>157</v>
@@ -15869,7 +15880,7 @@
         <v>796</v>
       </c>
       <c r="G205" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H205" t="s">
         <v>144</v>
@@ -15886,13 +15897,13 @@
         <v>227</v>
       </c>
       <c r="F206" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G206" t="s">
         <v>240</v>
       </c>
       <c r="H206" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I206" t="s">
         <v>157</v>
@@ -15909,25 +15920,25 @@
         <v>796</v>
       </c>
       <c r="G207" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H207" t="s">
         <v>264</v>
       </c>
       <c r="I207" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J207" t="s">
         <v>796</v>
       </c>
       <c r="K207" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="L207" t="s">
         <v>263</v>
       </c>
       <c r="M207" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="N207" t="s">
         <v>144</v>
@@ -15947,13 +15958,13 @@
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F208" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G208" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H208" t="s">
         <v>802</v>
@@ -15967,19 +15978,19 @@
         <v>303</v>
       </c>
       <c r="F209" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="G209" t="s">
         <v>796</v>
       </c>
       <c r="H209" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I209" t="s">
         <v>263</v>
       </c>
       <c r="J209" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="K209" t="s">
         <v>144</v>
@@ -16064,7 +16075,7 @@
         <v>796</v>
       </c>
       <c r="G214" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H214" t="s">
         <v>144</v>
@@ -16081,13 +16092,13 @@
         <v>227</v>
       </c>
       <c r="F215" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G215" t="s">
         <v>240</v>
       </c>
       <c r="H215" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I215" t="s">
         <v>157</v>
@@ -16104,7 +16115,7 @@
         <v>796</v>
       </c>
       <c r="G216" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H216" t="s">
         <v>144</v>
@@ -16121,13 +16132,13 @@
         <v>227</v>
       </c>
       <c r="F217" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G217" t="s">
         <v>240</v>
       </c>
       <c r="H217" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I217" t="s">
         <v>157</v>
@@ -16144,7 +16155,7 @@
         <v>796</v>
       </c>
       <c r="G218" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="H218" t="s">
         <v>144</v>
@@ -16161,13 +16172,13 @@
         <v>227</v>
       </c>
       <c r="F219" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G219" t="s">
         <v>240</v>
       </c>
       <c r="H219" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="I219" t="s">
         <v>157</v>
@@ -16184,31 +16195,31 @@
         <v>796</v>
       </c>
       <c r="G220" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="H220" t="s">
         <v>264</v>
       </c>
       <c r="I220" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="J220" t="s">
         <v>796</v>
       </c>
       <c r="K220" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="L220" t="s">
         <v>263</v>
       </c>
       <c r="M220" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="N220" t="s">
         <v>263</v>
       </c>
       <c r="O220" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="P220" t="s">
         <v>144</v>
@@ -16219,13 +16230,13 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F221" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G221" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="H221" t="s">
         <v>802</v>
@@ -16242,19 +16253,19 @@
         <v>796</v>
       </c>
       <c r="G222" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H222" t="s">
         <v>264</v>
       </c>
       <c r="I222" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J222" t="s">
         <v>264</v>
       </c>
       <c r="K222" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="L222" t="s">
         <v>144</v>
@@ -16313,10 +16324,10 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F226" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G226" t="s">
         <v>240</v>
@@ -16325,7 +16336,7 @@
         <v>712</v>
       </c>
       <c r="I226" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="J226" t="s">
         <v>802</v>
@@ -16410,7 +16421,7 @@
         <v>820</v>
       </c>
       <c r="N228" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="O228" t="s">
         <v>157</v>
@@ -16450,7 +16461,7 @@
         <v>227</v>
       </c>
       <c r="F230" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G230" t="s">
         <v>240</v>
@@ -16462,7 +16473,7 @@
         <v>805</v>
       </c>
       <c r="J230" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="K230" t="s">
         <v>157</v>
@@ -16479,13 +16490,13 @@
         <v>796</v>
       </c>
       <c r="G231" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="H231" t="s">
         <v>264</v>
       </c>
       <c r="I231" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="J231" t="s">
         <v>144</v>
@@ -16535,10 +16546,10 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F235" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G235" t="s">
         <v>240</v>
@@ -16591,16 +16602,16 @@
         <v>796</v>
       </c>
       <c r="G236" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="H236" t="s">
         <v>264</v>
       </c>
       <c r="I236" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="J236" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="K236" t="s">
         <v>144</v>
@@ -16620,7 +16631,7 @@
         <v>191</v>
       </c>
       <c r="F237" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G237" t="s">
         <v>240</v>
@@ -16652,7 +16663,7 @@
         <v>264</v>
       </c>
       <c r="J238" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="K238" t="s">
         <v>157</v>
@@ -16664,7 +16675,7 @@
         <v>820</v>
       </c>
       <c r="N238" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="O238" t="s">
         <v>806</v>
@@ -16690,13 +16701,13 @@
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F239" t="s">
         <v>240</v>
       </c>
       <c r="G239" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="H239" t="s">
         <v>844</v>
@@ -16728,16 +16739,16 @@
         <v>796</v>
       </c>
       <c r="G240" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="H240" t="s">
         <v>264</v>
       </c>
       <c r="I240" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="J240" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="K240" t="s">
         <v>144</v>
@@ -16793,10 +16804,10 @@
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F244" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G244" t="s">
         <v>240</v>
@@ -16852,7 +16863,7 @@
         <v>191</v>
       </c>
       <c r="F245" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G245" t="s">
         <v>240</v>
@@ -16872,7 +16883,7 @@
         <v>191</v>
       </c>
       <c r="F246" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="G246" t="s">
         <v>240</v>
@@ -16895,16 +16906,16 @@
         <v>796</v>
       </c>
       <c r="G247" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="H247" t="s">
         <v>264</v>
       </c>
       <c r="I247" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="J247" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="K247" t="s">
         <v>144</v>
@@ -16936,7 +16947,7 @@
         <v>240</v>
       </c>
       <c r="J248" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="K248" t="s">
         <v>806</v>
@@ -16954,13 +16965,13 @@
         <v>158</v>
       </c>
       <c r="P248" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="Q248" t="s">
         <v>157</v>
       </c>
       <c r="R248" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="S248" t="s">
         <v>144</v>
@@ -16974,13 +16985,13 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F249" t="s">
         <v>240</v>
       </c>
       <c r="G249" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="H249" t="s">
         <v>844</v>
@@ -17006,13 +17017,13 @@
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="F250" t="s">
         <v>240</v>
       </c>
       <c r="G250" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="H250" t="s">
         <v>157</v>
@@ -17029,13 +17040,13 @@
         <v>796</v>
       </c>
       <c r="G251" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H251" t="s">
         <v>264</v>
       </c>
       <c r="I251" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="J251" t="s">
         <v>144</v>
@@ -17077,7 +17088,7 @@
         <v>140</v>
       </c>
       <c r="F254" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G254" t="s">
         <v>802</v>
@@ -17091,7 +17102,7 @@
         <v>191</v>
       </c>
       <c r="F255" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G255" t="s">
         <v>157</v>
@@ -17105,7 +17116,7 @@
         <v>143</v>
       </c>
       <c r="F256" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G256" t="s">
         <v>157</v>
@@ -17119,10 +17130,10 @@
         <v>142</v>
       </c>
       <c r="F257" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="G257" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="H257" t="s">
         <v>802</v>
@@ -17133,13 +17144,13 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="F258" t="s">
         <v>240</v>
       </c>
       <c r="G258" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="H258" t="s">
         <v>157</v>
@@ -17150,7 +17161,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F259" t="s">
         <v>240</v>
@@ -17170,7 +17181,7 @@
         <v>142</v>
       </c>
       <c r="F260" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G260" t="s">
         <v>802</v>
@@ -17182,19 +17193,19 @@
         <v>796</v>
       </c>
       <c r="J260" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="K260" t="s">
         <v>264</v>
       </c>
       <c r="L260" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="M260" t="s">
         <v>264</v>
       </c>
       <c r="N260" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="O260" t="s">
         <v>144</v>
@@ -17217,7 +17228,7 @@
         <v>140</v>
       </c>
       <c r="F261" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="G261" t="s">
         <v>802</v>
@@ -17245,10 +17256,10 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F263" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G263" t="s">
         <v>240</v>
@@ -17257,7 +17268,7 @@
         <v>712</v>
       </c>
       <c r="I263" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J263" t="s">
         <v>157</v>
@@ -17268,7 +17279,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="F264">
         <v>111</v>
@@ -17277,7 +17288,7 @@
         <v>263</v>
       </c>
       <c r="H264" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="I264" t="s">
         <v>144</v>
@@ -17291,7 +17302,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="F265" t="s">
         <v>157</v>
@@ -17327,10 +17338,10 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F268" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G268" t="s">
         <v>802</v>
@@ -17341,10 +17352,10 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F269" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G269" t="s">
         <v>240</v>
@@ -17361,10 +17372,10 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F270" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G270" t="s">
         <v>802</v>
@@ -17375,7 +17386,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="F271" t="s">
         <v>157</v>
@@ -17389,10 +17400,10 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F272" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G272" t="s">
         <v>802</v>
@@ -17406,7 +17417,7 @@
         <v>303</v>
       </c>
       <c r="F273" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G273" t="s">
         <v>263</v>
@@ -17442,10 +17453,10 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F276" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G276" t="s">
         <v>802</v>
@@ -17476,13 +17487,13 @@
         <v>143</v>
       </c>
       <c r="F278" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="G278" t="s">
         <v>240</v>
       </c>
       <c r="H278" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="I278" t="s">
         <v>157</v>
@@ -17496,13 +17507,13 @@
         <v>143</v>
       </c>
       <c r="F279" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G279" t="s">
         <v>240</v>
       </c>
       <c r="H279" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="I279" t="s">
         <v>157</v>
@@ -17513,10 +17524,10 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F280" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G280" t="s">
         <v>144</v>
@@ -17536,7 +17547,7 @@
         <v>796</v>
       </c>
       <c r="G281" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H281" t="s">
         <v>144</v>
@@ -17575,10 +17586,10 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F284" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G284" t="s">
         <v>802</v>
@@ -17592,10 +17603,10 @@
         <v>139</v>
       </c>
       <c r="F285" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G285" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H285" t="s">
         <v>802</v>
@@ -17612,13 +17623,13 @@
         <v>796</v>
       </c>
       <c r="G286" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H286" t="s">
         <v>264</v>
       </c>
       <c r="I286" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J286" t="s">
         <v>144</v>
@@ -17652,10 +17663,10 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F288" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="G288" t="s">
         <v>240</v>
@@ -17664,10 +17675,10 @@
         <v>712</v>
       </c>
       <c r="I288" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="J288" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="K288" t="s">
         <v>144</v>
@@ -17681,7 +17692,7 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F289" t="s">
         <v>240</v>
@@ -17690,10 +17701,10 @@
         <v>712</v>
       </c>
       <c r="H289" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="I289" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="J289" t="s">
         <v>144</v>
@@ -17732,13 +17743,13 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="F292" t="s">
         <v>140</v>
       </c>
       <c r="G292" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H292" t="s">
         <v>802</v>
@@ -17766,10 +17777,10 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F294" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G294" t="s">
         <v>240</v>
@@ -17778,7 +17789,7 @@
         <v>712</v>
       </c>
       <c r="I294" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="J294">
         <v>1</v>
@@ -17787,7 +17798,7 @@
         <v>263</v>
       </c>
       <c r="L294" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="M294" t="s">
         <v>144</v>
@@ -17801,24 +17812,24 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F295" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="G295" t="s">
         <v>240</v>
       </c>
       <c r="H295" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F296" t="s">
         <v>1019</v>
-      </c>
-      <c r="F296" t="s">
-        <v>1024</v>
       </c>
       <c r="G296" t="s">
         <v>240</v>
@@ -17829,10 +17840,10 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F297" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="G297" t="s">
         <v>240</v>
@@ -17841,7 +17852,7 @@
         <v>712</v>
       </c>
       <c r="I297" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="J297">
         <v>2</v>
@@ -17850,7 +17861,7 @@
         <v>263</v>
       </c>
       <c r="L297" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="M297" t="s">
         <v>144</v>
@@ -17864,10 +17875,10 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="F298" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="G298" t="s">
         <v>240</v>
@@ -17876,7 +17887,7 @@
         <v>712</v>
       </c>
       <c r="I298" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="J298">
         <v>2</v>
@@ -17885,7 +17896,7 @@
         <v>263</v>
       </c>
       <c r="L298" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="M298" t="s">
         <v>144</v>
@@ -17905,16 +17916,16 @@
         <v>796</v>
       </c>
       <c r="G299" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="H299" t="s">
         <v>264</v>
       </c>
       <c r="I299" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="J299" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="K299" t="s">
         <v>144</v>
@@ -17937,16 +17948,16 @@
         <v>796</v>
       </c>
       <c r="G300" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="H300" t="s">
         <v>264</v>
       </c>
       <c r="I300" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="J300" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="K300" t="s">
         <v>144</v>
@@ -17969,16 +17980,16 @@
         <v>796</v>
       </c>
       <c r="G301" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="H301" t="s">
         <v>264</v>
       </c>
       <c r="I301" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="J301" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="K301" t="s">
         <v>144</v>
@@ -18001,16 +18012,16 @@
         <v>796</v>
       </c>
       <c r="G302" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="H302" t="s">
         <v>264</v>
       </c>
       <c r="I302" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="J302" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="K302" t="s">
         <v>144</v>
@@ -18052,10 +18063,10 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F305" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G305" t="s">
         <v>802</v>
@@ -18066,10 +18077,10 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F306" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G306" t="s">
         <v>157</v>
@@ -18080,10 +18091,10 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F307" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="G307" t="s">
         <v>157</v>
@@ -18097,10 +18108,10 @@
         <v>139</v>
       </c>
       <c r="F308" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G308" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H308" t="s">
         <v>802</v>
@@ -18111,13 +18122,13 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="F309" t="s">
         <v>240</v>
       </c>
       <c r="G309" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H309" t="s">
         <v>157</v>
@@ -18128,13 +18139,13 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F310" t="s">
         <v>240</v>
       </c>
       <c r="G310" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="H310" t="s">
         <v>157</v>
@@ -18154,7 +18165,7 @@
         <v>800</v>
       </c>
       <c r="G311" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H311" t="s">
         <v>802</v>
@@ -18165,10 +18176,10 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F312" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G312" t="s">
         <v>240</v>
@@ -18177,7 +18188,7 @@
         <v>712</v>
       </c>
       <c r="I312" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="J312">
         <v>1</v>
@@ -18186,7 +18197,7 @@
         <v>263</v>
       </c>
       <c r="L312" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="M312" t="s">
         <v>144</v>
@@ -18206,7 +18217,7 @@
         <v>796</v>
       </c>
       <c r="G313" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="H313" t="s">
         <v>144</v>
@@ -18884,7 +18895,7 @@
         <v>226</v>
       </c>
       <c r="F340" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G340" t="s">
         <v>240</v>
@@ -18904,7 +18915,7 @@
         <v>548</v>
       </c>
       <c r="F341" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="G341" t="s">
         <v>240</v>
@@ -18924,7 +18935,7 @@
         <v>227</v>
       </c>
       <c r="F342" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G342" t="s">
         <v>240</v>
@@ -18944,7 +18955,7 @@
         <v>227</v>
       </c>
       <c r="F343" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="G343" t="s">
         <v>240</v>
@@ -18953,19 +18964,19 @@
         <v>796</v>
       </c>
       <c r="I343" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="J343" t="s">
         <v>264</v>
       </c>
       <c r="K343" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="L343" t="s">
         <v>264</v>
       </c>
       <c r="M343" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="N343" t="s">
         <v>144</v>
@@ -18985,7 +18996,7 @@
         <v>796</v>
       </c>
       <c r="G344" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="H344" t="s">
         <v>144</v>
@@ -19041,7 +19052,7 @@
         <v>227</v>
       </c>
       <c r="F348" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G348" t="s">
         <v>240</v>
@@ -19061,13 +19072,13 @@
         <v>227</v>
       </c>
       <c r="F349" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G349" t="s">
         <v>240</v>
       </c>
       <c r="H349" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="I349" t="s">
         <v>242</v>
@@ -19087,19 +19098,19 @@
         <v>227</v>
       </c>
       <c r="F350" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G350" t="s">
         <v>240</v>
       </c>
       <c r="H350" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="I350" t="s">
         <v>806</v>
       </c>
       <c r="J350" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="K350" t="s">
         <v>157</v>
@@ -19116,13 +19127,13 @@
         <v>796</v>
       </c>
       <c r="G351" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="H351" t="s">
         <v>264</v>
       </c>
       <c r="I351" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J351" t="s">
         <v>144</v>
@@ -19139,13 +19150,13 @@
         <v>796</v>
       </c>
       <c r="G352" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H352" t="s">
         <v>264</v>
       </c>
       <c r="I352" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J352" t="s">
         <v>144</v>
@@ -19162,13 +19173,13 @@
         <v>796</v>
       </c>
       <c r="G353" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H353" t="s">
         <v>264</v>
       </c>
       <c r="I353" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J353" t="s">
         <v>144</v>
@@ -19250,7 +19261,7 @@
         <v>796</v>
       </c>
       <c r="G358" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H358" t="s">
         <v>144</v>
@@ -19267,13 +19278,13 @@
         <v>227</v>
       </c>
       <c r="F359" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G359" t="s">
         <v>240</v>
       </c>
       <c r="H359" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="I359" t="s">
         <v>157</v>
@@ -19287,7 +19298,7 @@
         <v>227</v>
       </c>
       <c r="F360" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G360" t="s">
         <v>240</v>
@@ -19308,7 +19319,7 @@
         <v>796</v>
       </c>
       <c r="M360" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="N360" t="s">
         <v>806</v>
@@ -19346,25 +19357,25 @@
         <v>796</v>
       </c>
       <c r="G361" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="H361" t="s">
         <v>264</v>
       </c>
       <c r="I361" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J361" t="s">
         <v>264</v>
       </c>
       <c r="K361" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="L361" t="s">
         <v>264</v>
       </c>
       <c r="M361" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="N361" t="s">
         <v>144</v>
@@ -19420,7 +19431,7 @@
         <v>227</v>
       </c>
       <c r="F365" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G365" t="s">
         <v>240</v>
@@ -19481,7 +19492,7 @@
         <v>796</v>
       </c>
       <c r="G367" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="H367" t="s">
         <v>144</v>
@@ -19498,13 +19509,13 @@
         <v>227</v>
       </c>
       <c r="F368" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G368" t="s">
         <v>240</v>
       </c>
       <c r="H368" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="I368" t="s">
         <v>157</v>
@@ -19518,7 +19529,7 @@
         <v>226</v>
       </c>
       <c r="F369" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G369" t="s">
         <v>240</v>
@@ -19536,13 +19547,13 @@
         <v>796</v>
       </c>
       <c r="L369" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="M369" t="s">
         <v>805</v>
       </c>
       <c r="N369" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="O369" t="s">
         <v>144</v>
@@ -19556,7 +19567,7 @@
         <v>191</v>
       </c>
       <c r="F370" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G370" t="s">
         <v>240</v>
@@ -19574,7 +19585,7 @@
         <v>796</v>
       </c>
       <c r="L370" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="M370" t="s">
         <v>805</v>
@@ -19621,37 +19632,37 @@
         <v>144</v>
       </c>
       <c r="J371" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="K371" t="s">
         <v>264</v>
       </c>
       <c r="L371" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="M371" t="s">
         <v>264</v>
       </c>
       <c r="N371" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="O371" t="s">
         <v>264</v>
       </c>
       <c r="P371" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="Q371" t="s">
         <v>264</v>
       </c>
       <c r="R371" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="S371" t="s">
         <v>264</v>
       </c>
       <c r="T371" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="U371" t="s">
         <v>144</v>
@@ -19937,13 +19948,13 @@
         <v>143</v>
       </c>
       <c r="F385" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G385" t="s">
         <v>240</v>
       </c>
       <c r="H385" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="I385" t="s">
         <v>157</v>
@@ -19960,13 +19971,13 @@
         <v>796</v>
       </c>
       <c r="G386" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="H386" t="s">
         <v>264</v>
       </c>
       <c r="I386" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="J386" t="s">
         <v>144</v>
@@ -19983,13 +19994,13 @@
         <v>191</v>
       </c>
       <c r="F387" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="G387" t="s">
         <v>240</v>
       </c>
       <c r="H387" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="I387">
         <v>0</v>
@@ -20009,13 +20020,13 @@
         <v>191</v>
       </c>
       <c r="F388" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="G388" t="s">
         <v>240</v>
       </c>
       <c r="H388" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="I388">
         <v>10</v>
@@ -20038,16 +20049,16 @@
         <v>796</v>
       </c>
       <c r="G389" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H389" t="s">
         <v>264</v>
       </c>
       <c r="I389" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="J389" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="K389" t="s">
         <v>144</v>
@@ -20067,16 +20078,16 @@
         <v>796</v>
       </c>
       <c r="G390" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="H390" t="s">
         <v>264</v>
       </c>
       <c r="I390" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="J390" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="K390" t="s">
         <v>144</v>
@@ -20161,7 +20172,7 @@
         <v>796</v>
       </c>
       <c r="G395" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="H395" t="s">
         <v>144</v>
@@ -20178,13 +20189,13 @@
         <v>143</v>
       </c>
       <c r="F396" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G396" t="s">
         <v>240</v>
       </c>
       <c r="H396" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="I396" t="s">
         <v>157</v>
@@ -20201,16 +20212,16 @@
         <v>796</v>
       </c>
       <c r="G397" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="H397" t="s">
         <v>264</v>
       </c>
       <c r="I397" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="J397" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="K397" t="s">
         <v>144</v>
@@ -20230,13 +20241,13 @@
     </row>
     <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F398" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="G398" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="H398" t="s">
         <v>802</v>
@@ -20250,7 +20261,7 @@
         <v>191</v>
       </c>
       <c r="F399" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G399" t="s">
         <v>240</v>
@@ -20279,10 +20290,10 @@
         <v>796</v>
       </c>
       <c r="I400" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="J400" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="K400">
         <v>0</v>
@@ -20317,13 +20328,13 @@
     </row>
     <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F401" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="G401" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="H401" t="s">
         <v>806</v>
@@ -20358,7 +20369,7 @@
         <v>796</v>
       </c>
       <c r="G402" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="H402" t="s">
         <v>844</v>
@@ -20376,7 +20387,7 @@
         <v>802</v>
       </c>
       <c r="N402" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="O402" t="s">
         <v>157</v>
@@ -20393,13 +20404,13 @@
         <v>804</v>
       </c>
       <c r="F403" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G403" t="s">
         <v>240</v>
       </c>
       <c r="H403" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="I403" t="s">
         <v>264</v>
@@ -20422,7 +20433,7 @@
         <v>303</v>
       </c>
       <c r="F404" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G404" t="s">
         <v>157</v>
@@ -20472,10 +20483,10 @@
     </row>
     <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F408" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="G408" t="s">
         <v>240</v>
@@ -20540,16 +20551,16 @@
         <v>796</v>
       </c>
       <c r="G409" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="H409" t="s">
         <v>264</v>
       </c>
       <c r="I409" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="J409" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="K409" t="s">
         <v>144</v>
@@ -20566,10 +20577,10 @@
     </row>
     <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F410" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="G410" t="s">
         <v>144</v>
@@ -20589,16 +20600,16 @@
         <v>796</v>
       </c>
       <c r="G411" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="H411" t="s">
         <v>264</v>
       </c>
       <c r="I411" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="J411" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="K411" t="s">
         <v>144</v>
@@ -20657,7 +20668,7 @@
         <v>191</v>
       </c>
       <c r="F415" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="G415" t="s">
         <v>240</v>
@@ -20674,10 +20685,10 @@
     </row>
     <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="F416" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G416" t="s">
         <v>240</v>
@@ -20686,7 +20697,7 @@
         <v>712</v>
       </c>
       <c r="I416" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="J416" t="s">
         <v>802</v>
@@ -20739,13 +20750,13 @@
         <v>191</v>
       </c>
       <c r="F417" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="G417" t="s">
         <v>240</v>
       </c>
       <c r="H417" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I417" t="s">
         <v>259</v>
@@ -20757,7 +20768,7 @@
         <v>796</v>
       </c>
       <c r="L417" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="M417" t="s">
         <v>264</v>
@@ -20789,7 +20800,7 @@
         <v>191</v>
       </c>
       <c r="F418" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="G418" t="s">
         <v>240</v>
@@ -20818,10 +20829,10 @@
         <v>844</v>
       </c>
       <c r="I419" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="J419" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="K419" t="s">
         <v>144</v>
@@ -20835,10 +20846,10 @@
     </row>
     <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F420" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G420" t="s">
         <v>844</v>
@@ -20861,13 +20872,13 @@
         <v>796</v>
       </c>
       <c r="G421" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="H421" t="s">
         <v>806</v>
       </c>
       <c r="I421" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="J421" t="s">
         <v>144</v>
@@ -20920,10 +20931,10 @@
     </row>
     <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F425" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="G425" t="s">
         <v>240</v>
@@ -20932,25 +20943,25 @@
         <v>802</v>
       </c>
       <c r="I425" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="J425" t="s">
         <v>263</v>
       </c>
       <c r="K425" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="L425" t="s">
         <v>263</v>
       </c>
       <c r="M425" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="N425" t="s">
         <v>263</v>
       </c>
       <c r="O425" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="P425" t="s">
         <v>804</v>
@@ -20964,22 +20975,22 @@
     </row>
     <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F426" t="s">
         <v>796</v>
       </c>
       <c r="G426" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="H426" t="s">
         <v>264</v>
       </c>
       <c r="I426" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="J426" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="K426" t="s">
         <v>144</v>
@@ -20999,16 +21010,16 @@
         <v>143</v>
       </c>
       <c r="F427" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="G427" t="s">
         <v>240</v>
       </c>
       <c r="H427" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I427" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="J427" t="s">
         <v>144</v>
@@ -21022,19 +21033,19 @@
     </row>
     <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F428" t="s">
         <v>796</v>
       </c>
       <c r="G428" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="H428" t="s">
         <v>264</v>
       </c>
       <c r="I428" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="J428" t="s">
         <v>144</v>
@@ -21051,13 +21062,13 @@
     </row>
     <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="F429" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G429" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="H429" t="s">
         <v>802</v>
@@ -21071,13 +21082,13 @@
         <v>191</v>
       </c>
       <c r="F430" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G430" t="s">
         <v>240</v>
       </c>
       <c r="H430" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I430">
         <v>0</v>
@@ -21127,7 +21138,7 @@
         <v>820</v>
       </c>
       <c r="N431" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="O431" t="s">
         <v>157</v>
@@ -21139,7 +21150,7 @@
         <v>263</v>
       </c>
       <c r="R431" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="S431" t="s">
         <v>144</v>
@@ -21156,7 +21167,7 @@
         <v>796</v>
       </c>
       <c r="G432" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H432" t="s">
         <v>844</v>
@@ -21165,7 +21176,7 @@
         <v>875</v>
       </c>
       <c r="J432" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="K432">
         <v>0</v>
@@ -21177,7 +21188,7 @@
         <v>879</v>
       </c>
       <c r="N432" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="O432" t="s">
         <v>144</v>
@@ -21191,7 +21202,7 @@
         <v>303</v>
       </c>
       <c r="F433" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="G433" t="s">
         <v>796</v>
@@ -21203,7 +21214,7 @@
         <v>144</v>
       </c>
       <c r="J433" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="K433" t="s">
         <v>144</v>
@@ -21220,7 +21231,7 @@
         <v>303</v>
       </c>
       <c r="F434" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="G434" t="s">
         <v>157</v>
@@ -21256,7 +21267,7 @@
         <v>140</v>
       </c>
       <c r="F437" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G437" t="s">
         <v>802</v>
@@ -21284,7 +21295,7 @@
         <v>191</v>
       </c>
       <c r="F439" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="G439" t="s">
         <v>157</v>
@@ -21298,10 +21309,10 @@
         <v>142</v>
       </c>
       <c r="F440" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G440" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="H440" t="s">
         <v>802</v>
@@ -21329,13 +21340,13 @@
     </row>
     <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F442" t="s">
         <v>240</v>
       </c>
       <c r="G442" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="H442" t="s">
         <v>157</v>
@@ -21352,7 +21363,7 @@
         <v>142</v>
       </c>
       <c r="F443" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="G443" t="s">
         <v>802</v>
@@ -21370,7 +21381,7 @@
         <v>259</v>
       </c>
       <c r="L443" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="M443" t="s">
         <v>144</v>
@@ -21393,7 +21404,7 @@
         <v>140</v>
       </c>
       <c r="F444" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="G444" t="s">
         <v>802</v>
@@ -21421,10 +21432,10 @@
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="F446" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="G446" t="s">
         <v>240</v>
@@ -21433,7 +21444,7 @@
         <v>712</v>
       </c>
       <c r="I446" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="J446" t="s">
         <v>157</v>
@@ -21444,7 +21455,7 @@
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F447">
         <v>11</v>
@@ -21467,7 +21478,7 @@
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="F448" t="s">
         <v>157</v>
@@ -21503,10 +21514,10 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F451" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="G451" t="s">
         <v>802</v>
@@ -21517,10 +21528,10 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="F452" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G452" t="s">
         <v>157</v>
@@ -21531,10 +21542,10 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="F453" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="G453" t="s">
         <v>157</v>
@@ -21545,10 +21556,10 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F454" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G454" t="s">
         <v>802</v>
@@ -21562,7 +21573,7 @@
         <v>303</v>
       </c>
       <c r="F455" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G455" t="s">
         <v>157</v>
@@ -21576,13 +21587,13 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F456" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="G456" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="H456" t="s">
         <v>802</v>
@@ -21593,13 +21604,13 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="F457" t="s">
         <v>240</v>
       </c>
       <c r="G457" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H457" t="s">
         <v>157</v>
@@ -21613,10 +21624,10 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="F458" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="G458" t="s">
         <v>802</v>
@@ -21630,7 +21641,7 @@
         <v>303</v>
       </c>
       <c r="F459" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="G459" t="s">
         <v>157</v>
@@ -21644,13 +21655,13 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="F460" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="G460" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="H460" t="s">
         <v>802</v>
@@ -21661,13 +21672,13 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="F461" t="s">
         <v>240</v>
       </c>
       <c r="G461" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="H461" t="s">
         <v>157</v>
@@ -21706,7 +21717,7 @@
         <v>140</v>
       </c>
       <c r="F464" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="G464" t="s">
         <v>802</v>
@@ -21720,7 +21731,7 @@
         <v>191</v>
       </c>
       <c r="F465" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G465" t="s">
         <v>157</v>
@@ -21734,7 +21745,7 @@
         <v>143</v>
       </c>
       <c r="F466" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G466" t="s">
         <v>157</v>
@@ -21748,7 +21759,7 @@
         <v>206</v>
       </c>
       <c r="F467" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="G467" t="s">
         <v>157</v>
@@ -21762,10 +21773,10 @@
         <v>142</v>
       </c>
       <c r="F468" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G468" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="H468" t="s">
         <v>802</v>
@@ -21776,7 +21787,7 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E469" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F469" t="s">
         <v>240</v>
@@ -21793,7 +21804,7 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E470" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F470" t="s">
         <v>240</v>
@@ -21810,13 +21821,13 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E471" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="F471" t="s">
         <v>240</v>
       </c>
       <c r="G471" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="H471" t="s">
         <v>157</v>
@@ -21830,7 +21841,7 @@
         <v>142</v>
       </c>
       <c r="F472" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="G472" t="s">
         <v>802</v>
@@ -21842,31 +21853,31 @@
         <v>796</v>
       </c>
       <c r="J472" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K472" t="s">
         <v>264</v>
       </c>
       <c r="L472" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="M472" t="s">
         <v>264</v>
       </c>
       <c r="N472" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="O472" t="s">
         <v>264</v>
       </c>
       <c r="P472" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="Q472" t="s">
         <v>264</v>
       </c>
       <c r="R472" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="S472" t="s">
         <v>144</v>
@@ -21892,7 +21903,7 @@
         <v>140</v>
       </c>
       <c r="G473" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="H473" t="s">
         <v>802</v>
@@ -21920,10 +21931,10 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E475" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F475" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="G475" t="s">
         <v>240</v>
@@ -21932,7 +21943,7 @@
         <v>712</v>
       </c>
       <c r="I475" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="J475" t="s">
         <v>157</v>
@@ -21943,7 +21954,7 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E476" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F476">
         <v>100</v>
@@ -21952,7 +21963,7 @@
         <v>263</v>
       </c>
       <c r="H476" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="I476" t="s">
         <v>263</v>
@@ -21972,7 +21983,7 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E477" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="F477" t="s">
         <v>157</v>
@@ -22008,16 +22019,16 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E480" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F480" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="G480" t="s">
         <v>263</v>
       </c>
       <c r="H480" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="I480" t="s">
         <v>157</v>
@@ -22028,13 +22039,13 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E481" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="F481" t="s">
         <v>712</v>
       </c>
       <c r="G481" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H481" t="s">
         <v>157</v>
@@ -22045,13 +22056,13 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E482" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="F482" t="s">
         <v>712</v>
       </c>
       <c r="G482" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="H482" t="s">
         <v>157</v>
@@ -22071,7 +22082,7 @@
         <v>191</v>
       </c>
       <c r="H483" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="I483" t="s">
         <v>240</v>
@@ -22083,7 +22094,7 @@
         <v>157</v>
       </c>
       <c r="L483" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="M483" t="s">
         <v>820</v>
@@ -22095,7 +22106,7 @@
         <v>157</v>
       </c>
       <c r="P483" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="Q483" t="s">
         <v>144</v>
@@ -22115,7 +22126,7 @@
         <v>796</v>
       </c>
       <c r="G484" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="H484" t="s">
         <v>820</v>
@@ -22132,7 +22143,7 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E485" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F485" t="s">
         <v>157</v>
@@ -22151,7 +22162,7 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E487" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="F487" t="s">
         <v>157</v>
@@ -22171,19 +22182,19 @@
         <v>796</v>
       </c>
       <c r="G488" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="H488" t="s">
         <v>264</v>
       </c>
       <c r="I488" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="J488" t="s">
         <v>264</v>
       </c>
       <c r="K488" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="L488" t="s">
         <v>144</v>
@@ -22203,19 +22214,19 @@
         <v>796</v>
       </c>
       <c r="G489" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="H489" t="s">
         <v>264</v>
       </c>
       <c r="I489" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="J489" t="s">
         <v>264</v>
       </c>
       <c r="K489" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="L489" t="s">
         <v>144</v>
@@ -22251,7 +22262,7 @@
         <v>140</v>
       </c>
       <c r="F492" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="G492" t="s">
         <v>802</v>
@@ -22265,7 +22276,7 @@
         <v>191</v>
       </c>
       <c r="F493" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="G493" t="s">
         <v>157</v>
@@ -22279,7 +22290,7 @@
         <v>143</v>
       </c>
       <c r="F494" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="G494" t="s">
         <v>157</v>
@@ -22293,7 +22304,7 @@
         <v>206</v>
       </c>
       <c r="F495" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="G495" t="s">
         <v>157</v>
@@ -22307,10 +22318,10 @@
         <v>142</v>
       </c>
       <c r="F496" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="G496" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="H496" t="s">
         <v>802</v>
@@ -22321,13 +22332,13 @@
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E497" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F497" t="s">
         <v>240</v>
       </c>
       <c r="G497" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="H497" t="s">
         <v>157</v>
@@ -22338,7 +22349,7 @@
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E498" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F498" t="s">
         <v>240</v>
@@ -22355,13 +22366,13 @@
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E499" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F499" t="s">
         <v>240</v>
       </c>
       <c r="G499" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="H499" t="s">
         <v>157</v>
@@ -22378,10 +22389,10 @@
         <v>142</v>
       </c>
       <c r="F500" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="G500" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="H500" t="s">
         <v>802</v>
@@ -22392,19 +22403,19 @@
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E501" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F501" t="s">
         <v>240</v>
       </c>
       <c r="G501" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="H501" t="s">
         <v>264</v>
       </c>
       <c r="I501" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="J501" t="s">
         <v>157</v>
@@ -22421,13 +22432,13 @@
         <v>796</v>
       </c>
       <c r="G502" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="H502" t="s">
         <v>264</v>
       </c>
       <c r="I502" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="J502" t="s">
         <v>144</v>
@@ -22447,7 +22458,7 @@
         <v>142</v>
       </c>
       <c r="F503" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="G503" t="s">
         <v>802</v>
@@ -22459,13 +22470,13 @@
         <v>796</v>
       </c>
       <c r="J503" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="K503" t="s">
         <v>264</v>
       </c>
       <c r="L503" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="M503" t="s">
         <v>144</v>
@@ -22485,7 +22496,7 @@
         <v>140</v>
       </c>
       <c r="F504" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G504" t="s">
         <v>802</v>
@@ -22513,10 +22524,10 @@
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="F506" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G506" t="s">
         <v>240</v>
@@ -22525,7 +22536,7 @@
         <v>712</v>
       </c>
       <c r="I506" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="J506" t="s">
         <v>157</v>
@@ -22536,7 +22547,7 @@
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E507" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="F507">
         <v>832345</v>
@@ -22545,7 +22556,7 @@
         <v>263</v>
       </c>
       <c r="H507" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="I507" t="s">
         <v>263</v>
@@ -22565,7 +22576,7 @@
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E508" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="F508" t="s">
         <v>157</v>
@@ -22576,7 +22587,7 @@
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E509" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="F509" t="s">
         <v>157</v>
@@ -22587,7 +22598,7 @@
     </row>
     <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E510" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="F510">
         <v>4000</v>
@@ -22632,7 +22643,7 @@
         <v>140</v>
       </c>
       <c r="F513" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="G513" t="s">
         <v>802</v>
@@ -22660,10 +22671,10 @@
     </row>
     <row r="515" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E515" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="F515" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="G515" t="s">
         <v>240</v>
@@ -22672,16 +22683,16 @@
         <v>712</v>
       </c>
       <c r="I515" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="J515" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="K515" t="s">
         <v>263</v>
       </c>
       <c r="L515" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="M515" t="s">
         <v>263</v>
@@ -22701,7 +22712,7 @@
     </row>
     <row r="516" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E516" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="F516" t="s">
         <v>240</v>
@@ -22718,7 +22729,7 @@
     </row>
     <row r="517" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E517" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="F517" t="s">
         <v>240</v>
@@ -22741,37 +22752,37 @@
         <v>796</v>
       </c>
       <c r="G518" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="H518" t="s">
         <v>264</v>
       </c>
       <c r="I518" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="J518" t="s">
         <v>264</v>
       </c>
       <c r="K518" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="L518" t="s">
         <v>264</v>
       </c>
       <c r="M518" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="N518" t="s">
         <v>264</v>
       </c>
       <c r="O518" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="P518" t="s">
         <v>264</v>
       </c>
       <c r="Q518" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="R518" t="s">
         <v>144</v>
@@ -22794,7 +22805,7 @@
         <v>140</v>
       </c>
       <c r="F519" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G519" t="s">
         <v>802</v>
@@ -22805,13 +22816,13 @@
     </row>
     <row r="520" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E520" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="F520" t="s">
         <v>143</v>
       </c>
       <c r="G520" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="H520" t="s">
         <v>263</v>
@@ -22820,7 +22831,7 @@
         <v>143</v>
       </c>
       <c r="J520" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="K520" t="s">
         <v>263</v>
@@ -22829,7 +22840,7 @@
         <v>191</v>
       </c>
       <c r="M520" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="N520" t="s">
         <v>144</v>
@@ -22843,13 +22854,13 @@
     </row>
     <row r="521" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E521" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="F521" t="s">
         <v>240</v>
       </c>
       <c r="G521" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="H521" t="s">
         <v>157</v>
@@ -22860,13 +22871,13 @@
     </row>
     <row r="522" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E522" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="F522" t="s">
         <v>240</v>
       </c>
       <c r="G522" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="H522" t="s">
         <v>157</v>
@@ -22877,13 +22888,13 @@
     </row>
     <row r="523" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E523" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="F523" t="s">
         <v>240</v>
       </c>
       <c r="G523" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="H523" t="s">
         <v>157</v>
@@ -22897,7 +22908,7 @@
         <v>143</v>
       </c>
       <c r="F524" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="G524" t="s">
         <v>157</v>
@@ -22911,7 +22922,7 @@
         <v>143</v>
       </c>
       <c r="F525" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="G525" t="s">
         <v>157</v>
@@ -22925,7 +22936,7 @@
         <v>191</v>
       </c>
       <c r="F526" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="G526" t="s">
         <v>157</v>
@@ -22939,7 +22950,7 @@
         <v>227</v>
       </c>
       <c r="F527" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="G527" t="s">
         <v>157</v>
@@ -22953,7 +22964,7 @@
         <v>190</v>
       </c>
       <c r="F528" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="G528" t="s">
         <v>157</v>
@@ -22988,8 +22999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23001,7 +23012,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -23010,7 +23021,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -23024,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -23038,7 +23049,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -23066,7 +23077,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -23080,7 +23091,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -23094,7 +23105,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -23108,7 +23119,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23122,7 +23133,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23136,7 +23147,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23216,7 +23227,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -23230,7 +23241,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -23244,7 +23255,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23258,7 +23269,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -23272,7 +23283,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -23465,7 +23476,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23479,7 +23490,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23493,7 +23504,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23521,7 +23532,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23535,7 +23546,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23549,7 +23560,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23563,7 +23574,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -24792,13 +24803,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24806,7 +24817,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -24817,7 +24828,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -24828,7 +24839,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -24839,7 +24850,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -24850,7 +24861,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -24861,7 +24872,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -24872,7 +24883,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -24883,7 +24894,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -24894,7 +24905,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -24905,7 +24916,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -24916,7 +24927,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -24927,7 +24938,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -24938,7 +24949,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -24949,7 +24960,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C171">
         <v>2</v>
@@ -25287,6 +25298,404 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>800</v>
+      </c>
+      <c r="I3" t="s">
+        <v>801</v>
+      </c>
+      <c r="J3" t="s">
+        <v>802</v>
+      </c>
+      <c r="K3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" t="s">
+        <v>804</v>
+      </c>
+      <c r="M4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>800</v>
+      </c>
+      <c r="I7" t="s">
+        <v>801</v>
+      </c>
+      <c r="J7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" t="s">
+        <v>804</v>
+      </c>
+      <c r="M8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25298,15 +25707,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2E62695FE58D640AF8E92EA86808B07" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c5c749c9797d09654032a6edcbf8287">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="915c154c-1470-46a8-b038-1496da6ff25f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af1527dc3e50601e83d1345c236a4602" ns3:_="">
     <xsd:import namespace="915c154c-1470-46a8-b038-1496da6ff25f"/>
@@ -25452,6 +25852,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
@@ -25469,14 +25878,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85056FB0-2F52-4A75-80BF-C38F7C8CF209}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25492,4 +25893,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF1EF7-9E46-4521-840B-807EADED9D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D71C9F-4293-4E31-A349-5F073D4B6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5163" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6359" uniqueCount="1201">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4328,9 +4328,6 @@
     <t>System</t>
   </si>
   <si>
-    <t xml:space="preserve">   . </t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
@@ -4341,6 +4338,12 @@
   </si>
   <si>
     <t>(2 + 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. </t>
+  </si>
+  <si>
+    <t>const</t>
   </si>
 </sst>
 </file>
@@ -11619,7 +11622,7 @@
   <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23000,7 +23003,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25304,15 +25307,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:Q217"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>546</v>
       </c>
@@ -25326,7 +25333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25343,7 +25350,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>139</v>
       </c>
@@ -25366,24 +25373,24 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1194</v>
       </c>
       <c r="F4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G4" t="s">
         <v>1195</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I4" t="s">
         <v>1196</v>
       </c>
-      <c r="H4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>1197</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1198</v>
       </c>
       <c r="K4" t="s">
         <v>157</v>
@@ -25395,17 +25402,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -25417,7 +25424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>139</v>
       </c>
@@ -25440,37 +25447,3759 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>1194</v>
       </c>
       <c r="F8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G8" t="s">
         <v>1195</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I8" t="s">
         <v>1196</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>796</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>264</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>800</v>
+      </c>
+      <c r="I11" t="s">
+        <v>801</v>
+      </c>
+      <c r="J11" t="s">
+        <v>802</v>
+      </c>
+      <c r="K11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G12" t="s">
         <v>1195</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H12" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J12" t="s">
         <v>1197</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s">
+        <v>804</v>
+      </c>
+      <c r="M12" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
+        <v>800</v>
+      </c>
+      <c r="I15" t="s">
+        <v>801</v>
+      </c>
+      <c r="J15" t="s">
+        <v>802</v>
+      </c>
+      <c r="K15" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F16" t="s">
         <v>1199</v>
       </c>
-      <c r="K8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="G16" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
         <v>804</v>
       </c>
-      <c r="M8" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="M16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s">
+        <v>800</v>
+      </c>
+      <c r="I19" t="s">
+        <v>801</v>
+      </c>
+      <c r="J19" t="s">
+        <v>802</v>
+      </c>
+      <c r="K19" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>804</v>
+      </c>
+      <c r="M20" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" t="s">
+        <v>800</v>
+      </c>
+      <c r="I23" t="s">
+        <v>801</v>
+      </c>
+      <c r="J23" t="s">
+        <v>802</v>
+      </c>
+      <c r="K23" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" t="s">
+        <v>804</v>
+      </c>
+      <c r="M24" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s">
+        <v>800</v>
+      </c>
+      <c r="I27" t="s">
+        <v>801</v>
+      </c>
+      <c r="J27" t="s">
+        <v>802</v>
+      </c>
+      <c r="K27" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" t="s">
+        <v>804</v>
+      </c>
+      <c r="M28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" t="s">
+        <v>800</v>
+      </c>
+      <c r="I31" t="s">
+        <v>801</v>
+      </c>
+      <c r="J31" t="s">
+        <v>802</v>
+      </c>
+      <c r="K31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K32" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s">
+        <v>804</v>
+      </c>
+      <c r="M32" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
+        <v>800</v>
+      </c>
+      <c r="I35" t="s">
+        <v>801</v>
+      </c>
+      <c r="J35" t="s">
+        <v>802</v>
+      </c>
+      <c r="K35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s">
+        <v>804</v>
+      </c>
+      <c r="M36" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" t="s">
+        <v>800</v>
+      </c>
+      <c r="I39" t="s">
+        <v>801</v>
+      </c>
+      <c r="J39" t="s">
+        <v>802</v>
+      </c>
+      <c r="K39" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K40" t="s">
+        <v>157</v>
+      </c>
+      <c r="L40" t="s">
+        <v>804</v>
+      </c>
+      <c r="M40" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" t="s">
+        <v>800</v>
+      </c>
+      <c r="I43" t="s">
+        <v>801</v>
+      </c>
+      <c r="J43" t="s">
+        <v>802</v>
+      </c>
+      <c r="K43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L44" t="s">
+        <v>804</v>
+      </c>
+      <c r="M44" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
+        <v>800</v>
+      </c>
+      <c r="I47" t="s">
+        <v>801</v>
+      </c>
+      <c r="J47" t="s">
+        <v>802</v>
+      </c>
+      <c r="K47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48" t="s">
+        <v>804</v>
+      </c>
+      <c r="M48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" t="s">
+        <v>800</v>
+      </c>
+      <c r="I51" t="s">
+        <v>801</v>
+      </c>
+      <c r="J51" t="s">
+        <v>802</v>
+      </c>
+      <c r="K51" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K52" t="s">
+        <v>157</v>
+      </c>
+      <c r="L52" t="s">
+        <v>804</v>
+      </c>
+      <c r="M52" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" t="s">
+        <v>800</v>
+      </c>
+      <c r="I55" t="s">
+        <v>801</v>
+      </c>
+      <c r="J55" t="s">
+        <v>802</v>
+      </c>
+      <c r="K55" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K56" t="s">
+        <v>157</v>
+      </c>
+      <c r="L56" t="s">
+        <v>804</v>
+      </c>
+      <c r="M56" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" t="s">
+        <v>800</v>
+      </c>
+      <c r="I59" t="s">
+        <v>801</v>
+      </c>
+      <c r="J59" t="s">
+        <v>802</v>
+      </c>
+      <c r="K59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K60" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60" t="s">
+        <v>804</v>
+      </c>
+      <c r="M60" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" t="s">
+        <v>800</v>
+      </c>
+      <c r="I63" t="s">
+        <v>801</v>
+      </c>
+      <c r="J63" t="s">
+        <v>802</v>
+      </c>
+      <c r="K63" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K64" t="s">
+        <v>157</v>
+      </c>
+      <c r="L64" t="s">
+        <v>804</v>
+      </c>
+      <c r="M64" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" t="s">
+        <v>800</v>
+      </c>
+      <c r="I67" t="s">
+        <v>801</v>
+      </c>
+      <c r="J67" t="s">
+        <v>802</v>
+      </c>
+      <c r="K67" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K68" t="s">
+        <v>157</v>
+      </c>
+      <c r="L68" t="s">
+        <v>804</v>
+      </c>
+      <c r="M68" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" t="s">
+        <v>800</v>
+      </c>
+      <c r="I71" t="s">
+        <v>801</v>
+      </c>
+      <c r="J71" t="s">
+        <v>802</v>
+      </c>
+      <c r="K71" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K72" t="s">
+        <v>157</v>
+      </c>
+      <c r="L72" t="s">
+        <v>804</v>
+      </c>
+      <c r="M72" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" t="s">
+        <v>800</v>
+      </c>
+      <c r="I75" t="s">
+        <v>801</v>
+      </c>
+      <c r="J75" t="s">
+        <v>802</v>
+      </c>
+      <c r="K75" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K76" t="s">
+        <v>157</v>
+      </c>
+      <c r="L76" t="s">
+        <v>804</v>
+      </c>
+      <c r="M76" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79" t="s">
+        <v>800</v>
+      </c>
+      <c r="I79" t="s">
+        <v>801</v>
+      </c>
+      <c r="J79" t="s">
+        <v>802</v>
+      </c>
+      <c r="K79" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K80" t="s">
+        <v>157</v>
+      </c>
+      <c r="L80" t="s">
+        <v>804</v>
+      </c>
+      <c r="M80" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" t="s">
+        <v>142</v>
+      </c>
+      <c r="H83" t="s">
+        <v>800</v>
+      </c>
+      <c r="I83" t="s">
+        <v>801</v>
+      </c>
+      <c r="J83" t="s">
+        <v>802</v>
+      </c>
+      <c r="K83" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K84" t="s">
+        <v>157</v>
+      </c>
+      <c r="L84" t="s">
+        <v>804</v>
+      </c>
+      <c r="M84" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>22</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" t="s">
+        <v>800</v>
+      </c>
+      <c r="I87" t="s">
+        <v>801</v>
+      </c>
+      <c r="J87" t="s">
+        <v>802</v>
+      </c>
+      <c r="K87" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K88" t="s">
+        <v>157</v>
+      </c>
+      <c r="L88" t="s">
+        <v>804</v>
+      </c>
+      <c r="M88" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H91" t="s">
+        <v>800</v>
+      </c>
+      <c r="I91" t="s">
+        <v>801</v>
+      </c>
+      <c r="J91" t="s">
+        <v>802</v>
+      </c>
+      <c r="K91" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K92" t="s">
+        <v>157</v>
+      </c>
+      <c r="L92" t="s">
+        <v>804</v>
+      </c>
+      <c r="M92" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" t="s">
+        <v>141</v>
+      </c>
+      <c r="G95" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" t="s">
+        <v>800</v>
+      </c>
+      <c r="I95" t="s">
+        <v>801</v>
+      </c>
+      <c r="J95" t="s">
+        <v>802</v>
+      </c>
+      <c r="K95" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K96" t="s">
+        <v>157</v>
+      </c>
+      <c r="L96" t="s">
+        <v>804</v>
+      </c>
+      <c r="M96" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" t="s">
+        <v>800</v>
+      </c>
+      <c r="I99" t="s">
+        <v>801</v>
+      </c>
+      <c r="J99" t="s">
+        <v>802</v>
+      </c>
+      <c r="K99" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K100" t="s">
+        <v>157</v>
+      </c>
+      <c r="L100" t="s">
+        <v>804</v>
+      </c>
+      <c r="M100" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>141</v>
+      </c>
+      <c r="G103" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" t="s">
+        <v>800</v>
+      </c>
+      <c r="I103" t="s">
+        <v>801</v>
+      </c>
+      <c r="J103" t="s">
+        <v>802</v>
+      </c>
+      <c r="K103" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K104" t="s">
+        <v>157</v>
+      </c>
+      <c r="L104" t="s">
+        <v>804</v>
+      </c>
+      <c r="M104" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
+        <v>141</v>
+      </c>
+      <c r="G107" t="s">
+        <v>142</v>
+      </c>
+      <c r="H107" t="s">
+        <v>800</v>
+      </c>
+      <c r="I107" t="s">
+        <v>801</v>
+      </c>
+      <c r="J107" t="s">
+        <v>802</v>
+      </c>
+      <c r="K107" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K108" t="s">
+        <v>157</v>
+      </c>
+      <c r="L108" t="s">
+        <v>804</v>
+      </c>
+      <c r="M108" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" t="s">
+        <v>141</v>
+      </c>
+      <c r="G111" t="s">
+        <v>142</v>
+      </c>
+      <c r="H111" t="s">
+        <v>800</v>
+      </c>
+      <c r="I111" t="s">
+        <v>801</v>
+      </c>
+      <c r="J111" t="s">
+        <v>802</v>
+      </c>
+      <c r="K111" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K112" t="s">
+        <v>157</v>
+      </c>
+      <c r="L112" t="s">
+        <v>804</v>
+      </c>
+      <c r="M112" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115" t="s">
+        <v>141</v>
+      </c>
+      <c r="G115" t="s">
+        <v>142</v>
+      </c>
+      <c r="H115" t="s">
+        <v>800</v>
+      </c>
+      <c r="I115" t="s">
+        <v>801</v>
+      </c>
+      <c r="J115" t="s">
+        <v>802</v>
+      </c>
+      <c r="K115" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K116" t="s">
+        <v>157</v>
+      </c>
+      <c r="L116" t="s">
+        <v>804</v>
+      </c>
+      <c r="M116" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" t="s">
+        <v>142</v>
+      </c>
+      <c r="H119" t="s">
+        <v>800</v>
+      </c>
+      <c r="I119" t="s">
+        <v>801</v>
+      </c>
+      <c r="J119" t="s">
+        <v>802</v>
+      </c>
+      <c r="K119" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K120" t="s">
+        <v>157</v>
+      </c>
+      <c r="L120" t="s">
+        <v>804</v>
+      </c>
+      <c r="M120" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
+        <v>141</v>
+      </c>
+      <c r="G123" t="s">
+        <v>142</v>
+      </c>
+      <c r="H123" t="s">
+        <v>800</v>
+      </c>
+      <c r="I123" t="s">
+        <v>801</v>
+      </c>
+      <c r="J123" t="s">
+        <v>802</v>
+      </c>
+      <c r="K123" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K124" t="s">
+        <v>157</v>
+      </c>
+      <c r="L124" t="s">
+        <v>804</v>
+      </c>
+      <c r="M124" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>32</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" t="s">
+        <v>142</v>
+      </c>
+      <c r="H127" t="s">
+        <v>800</v>
+      </c>
+      <c r="I127" t="s">
+        <v>801</v>
+      </c>
+      <c r="J127" t="s">
+        <v>802</v>
+      </c>
+      <c r="K127" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K128" t="s">
+        <v>157</v>
+      </c>
+      <c r="L128" t="s">
+        <v>804</v>
+      </c>
+      <c r="M128" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>139</v>
+      </c>
+      <c r="F131" t="s">
+        <v>141</v>
+      </c>
+      <c r="G131" t="s">
+        <v>142</v>
+      </c>
+      <c r="H131" t="s">
+        <v>800</v>
+      </c>
+      <c r="I131" t="s">
+        <v>801</v>
+      </c>
+      <c r="J131" t="s">
+        <v>802</v>
+      </c>
+      <c r="K131" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K132" t="s">
+        <v>157</v>
+      </c>
+      <c r="L132" t="s">
+        <v>804</v>
+      </c>
+      <c r="M132" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" t="s">
+        <v>141</v>
+      </c>
+      <c r="G135" t="s">
+        <v>142</v>
+      </c>
+      <c r="H135" t="s">
+        <v>800</v>
+      </c>
+      <c r="I135" t="s">
+        <v>801</v>
+      </c>
+      <c r="J135" t="s">
+        <v>802</v>
+      </c>
+      <c r="K135" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K136" t="s">
+        <v>157</v>
+      </c>
+      <c r="L136" t="s">
+        <v>804</v>
+      </c>
+      <c r="M136" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H139" t="s">
+        <v>800</v>
+      </c>
+      <c r="I139" t="s">
+        <v>801</v>
+      </c>
+      <c r="J139" t="s">
+        <v>802</v>
+      </c>
+      <c r="K139" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K140" t="s">
+        <v>157</v>
+      </c>
+      <c r="L140" t="s">
+        <v>804</v>
+      </c>
+      <c r="M140" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>139</v>
+      </c>
+      <c r="F143" t="s">
+        <v>141</v>
+      </c>
+      <c r="G143" t="s">
+        <v>142</v>
+      </c>
+      <c r="H143" t="s">
+        <v>800</v>
+      </c>
+      <c r="I143" t="s">
+        <v>801</v>
+      </c>
+      <c r="J143" t="s">
+        <v>802</v>
+      </c>
+      <c r="K143" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K144" t="s">
+        <v>157</v>
+      </c>
+      <c r="L144" t="s">
+        <v>804</v>
+      </c>
+      <c r="M144" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>139</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" t="s">
+        <v>142</v>
+      </c>
+      <c r="H147" t="s">
+        <v>800</v>
+      </c>
+      <c r="I147" t="s">
+        <v>801</v>
+      </c>
+      <c r="J147" t="s">
+        <v>802</v>
+      </c>
+      <c r="K147" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K148" t="s">
+        <v>157</v>
+      </c>
+      <c r="L148" t="s">
+        <v>804</v>
+      </c>
+      <c r="M148" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>139</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+      <c r="G151" t="s">
+        <v>142</v>
+      </c>
+      <c r="H151" t="s">
+        <v>800</v>
+      </c>
+      <c r="I151" t="s">
+        <v>801</v>
+      </c>
+      <c r="J151" t="s">
+        <v>802</v>
+      </c>
+      <c r="K151" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K152" t="s">
+        <v>157</v>
+      </c>
+      <c r="L152" t="s">
+        <v>804</v>
+      </c>
+      <c r="M152" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>39</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" t="s">
+        <v>141</v>
+      </c>
+      <c r="G155" t="s">
+        <v>142</v>
+      </c>
+      <c r="H155" t="s">
+        <v>800</v>
+      </c>
+      <c r="I155" t="s">
+        <v>801</v>
+      </c>
+      <c r="J155" t="s">
+        <v>802</v>
+      </c>
+      <c r="K155" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K156" t="s">
+        <v>157</v>
+      </c>
+      <c r="L156" t="s">
+        <v>804</v>
+      </c>
+      <c r="M156" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>40</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>139</v>
+      </c>
+      <c r="F159" t="s">
+        <v>141</v>
+      </c>
+      <c r="G159" t="s">
+        <v>142</v>
+      </c>
+      <c r="H159" t="s">
+        <v>800</v>
+      </c>
+      <c r="I159" t="s">
+        <v>801</v>
+      </c>
+      <c r="J159" t="s">
+        <v>802</v>
+      </c>
+      <c r="K159" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K160" t="s">
+        <v>157</v>
+      </c>
+      <c r="L160" t="s">
+        <v>804</v>
+      </c>
+      <c r="M160" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>41</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" t="s">
+        <v>141</v>
+      </c>
+      <c r="G163" t="s">
+        <v>142</v>
+      </c>
+      <c r="H163" t="s">
+        <v>800</v>
+      </c>
+      <c r="I163" t="s">
+        <v>801</v>
+      </c>
+      <c r="J163" t="s">
+        <v>802</v>
+      </c>
+      <c r="K163" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K164" t="s">
+        <v>157</v>
+      </c>
+      <c r="L164" t="s">
+        <v>804</v>
+      </c>
+      <c r="M164" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>42</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" t="s">
+        <v>141</v>
+      </c>
+      <c r="G167" t="s">
+        <v>142</v>
+      </c>
+      <c r="H167" t="s">
+        <v>800</v>
+      </c>
+      <c r="I167" t="s">
+        <v>801</v>
+      </c>
+      <c r="J167" t="s">
+        <v>802</v>
+      </c>
+      <c r="K167" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K168" t="s">
+        <v>157</v>
+      </c>
+      <c r="L168" t="s">
+        <v>804</v>
+      </c>
+      <c r="M168" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>43</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>139</v>
+      </c>
+      <c r="F171" t="s">
+        <v>141</v>
+      </c>
+      <c r="G171" t="s">
+        <v>142</v>
+      </c>
+      <c r="H171" t="s">
+        <v>800</v>
+      </c>
+      <c r="I171" t="s">
+        <v>801</v>
+      </c>
+      <c r="J171" t="s">
+        <v>802</v>
+      </c>
+      <c r="K171" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K172" t="s">
+        <v>157</v>
+      </c>
+      <c r="L172" t="s">
+        <v>804</v>
+      </c>
+      <c r="M172" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>44</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>139</v>
+      </c>
+      <c r="F175" t="s">
+        <v>141</v>
+      </c>
+      <c r="G175" t="s">
+        <v>142</v>
+      </c>
+      <c r="H175" t="s">
+        <v>800</v>
+      </c>
+      <c r="I175" t="s">
+        <v>801</v>
+      </c>
+      <c r="J175" t="s">
+        <v>802</v>
+      </c>
+      <c r="K175" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F176" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K176" t="s">
+        <v>157</v>
+      </c>
+      <c r="L176" t="s">
+        <v>804</v>
+      </c>
+      <c r="M176" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>45</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>139</v>
+      </c>
+      <c r="F179" t="s">
+        <v>141</v>
+      </c>
+      <c r="G179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H179" t="s">
+        <v>800</v>
+      </c>
+      <c r="I179" t="s">
+        <v>801</v>
+      </c>
+      <c r="J179" t="s">
+        <v>802</v>
+      </c>
+      <c r="K179" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K180" t="s">
+        <v>157</v>
+      </c>
+      <c r="L180" t="s">
+        <v>804</v>
+      </c>
+      <c r="M180" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>46</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>139</v>
+      </c>
+      <c r="F183" t="s">
+        <v>141</v>
+      </c>
+      <c r="G183" t="s">
+        <v>142</v>
+      </c>
+      <c r="H183" t="s">
+        <v>800</v>
+      </c>
+      <c r="I183" t="s">
+        <v>801</v>
+      </c>
+      <c r="J183" t="s">
+        <v>802</v>
+      </c>
+      <c r="K183" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K184" t="s">
+        <v>157</v>
+      </c>
+      <c r="L184" t="s">
+        <v>804</v>
+      </c>
+      <c r="M184" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>47</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>139</v>
+      </c>
+      <c r="F187" t="s">
+        <v>141</v>
+      </c>
+      <c r="G187" t="s">
+        <v>142</v>
+      </c>
+      <c r="H187" t="s">
+        <v>800</v>
+      </c>
+      <c r="I187" t="s">
+        <v>801</v>
+      </c>
+      <c r="J187" t="s">
+        <v>802</v>
+      </c>
+      <c r="K187" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K188" t="s">
+        <v>157</v>
+      </c>
+      <c r="L188" t="s">
+        <v>804</v>
+      </c>
+      <c r="M188" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>48</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>139</v>
+      </c>
+      <c r="F191" t="s">
+        <v>141</v>
+      </c>
+      <c r="G191" t="s">
+        <v>142</v>
+      </c>
+      <c r="H191" t="s">
+        <v>800</v>
+      </c>
+      <c r="I191" t="s">
+        <v>801</v>
+      </c>
+      <c r="J191" t="s">
+        <v>802</v>
+      </c>
+      <c r="K191" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K192" t="s">
+        <v>157</v>
+      </c>
+      <c r="L192" t="s">
+        <v>804</v>
+      </c>
+      <c r="M192" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>49</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>139</v>
+      </c>
+      <c r="F195" t="s">
+        <v>141</v>
+      </c>
+      <c r="G195" t="s">
+        <v>142</v>
+      </c>
+      <c r="H195" t="s">
+        <v>800</v>
+      </c>
+      <c r="I195" t="s">
+        <v>801</v>
+      </c>
+      <c r="J195" t="s">
+        <v>802</v>
+      </c>
+      <c r="K195" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K196" t="s">
+        <v>157</v>
+      </c>
+      <c r="L196" t="s">
+        <v>804</v>
+      </c>
+      <c r="M196" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>50</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>139</v>
+      </c>
+      <c r="F199" t="s">
+        <v>141</v>
+      </c>
+      <c r="G199" t="s">
+        <v>142</v>
+      </c>
+      <c r="H199" t="s">
+        <v>800</v>
+      </c>
+      <c r="I199" t="s">
+        <v>801</v>
+      </c>
+      <c r="J199" t="s">
+        <v>802</v>
+      </c>
+      <c r="K199" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K200" t="s">
+        <v>157</v>
+      </c>
+      <c r="L200" t="s">
+        <v>804</v>
+      </c>
+      <c r="M200" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>51</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>139</v>
+      </c>
+      <c r="F203" t="s">
+        <v>141</v>
+      </c>
+      <c r="G203" t="s">
+        <v>142</v>
+      </c>
+      <c r="H203" t="s">
+        <v>800</v>
+      </c>
+      <c r="I203" t="s">
+        <v>801</v>
+      </c>
+      <c r="J203" t="s">
+        <v>802</v>
+      </c>
+      <c r="K203" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K204" t="s">
+        <v>157</v>
+      </c>
+      <c r="L204" t="s">
+        <v>804</v>
+      </c>
+      <c r="M204" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>52</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+      <c r="E206" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>139</v>
+      </c>
+      <c r="F207" t="s">
+        <v>141</v>
+      </c>
+      <c r="G207" t="s">
+        <v>142</v>
+      </c>
+      <c r="H207" t="s">
+        <v>800</v>
+      </c>
+      <c r="I207" t="s">
+        <v>801</v>
+      </c>
+      <c r="J207" t="s">
+        <v>802</v>
+      </c>
+      <c r="K207" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K208" t="s">
+        <v>157</v>
+      </c>
+      <c r="L208" t="s">
+        <v>804</v>
+      </c>
+      <c r="M208" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>53</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>139</v>
+      </c>
+      <c r="F211" t="s">
+        <v>141</v>
+      </c>
+      <c r="G211" t="s">
+        <v>142</v>
+      </c>
+      <c r="H211" t="s">
+        <v>800</v>
+      </c>
+      <c r="I211" t="s">
+        <v>801</v>
+      </c>
+      <c r="J211" t="s">
+        <v>802</v>
+      </c>
+      <c r="K211" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K212" t="s">
+        <v>157</v>
+      </c>
+      <c r="L212" t="s">
+        <v>804</v>
+      </c>
+      <c r="M212" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>54</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>139</v>
+      </c>
+      <c r="F215" t="s">
+        <v>141</v>
+      </c>
+      <c r="G215" t="s">
+        <v>142</v>
+      </c>
+      <c r="H215" t="s">
+        <v>800</v>
+      </c>
+      <c r="I215" t="s">
+        <v>801</v>
+      </c>
+      <c r="J215" t="s">
+        <v>802</v>
+      </c>
+      <c r="K215" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K216" t="s">
+        <v>157</v>
+      </c>
+      <c r="L216" t="s">
+        <v>804</v>
+      </c>
+      <c r="M216" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
         <v>138</v>
       </c>
     </row>
@@ -25481,10 +29210,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25514,7 +29243,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1012</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25528,7 +29257,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1174</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -25542,7 +29271,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>875</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -25556,7 +29285,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1175</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -25570,7 +29299,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1176</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25584,7 +29313,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1067</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -25598,7 +29327,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1177</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -25612,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1178</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -25626,7 +29355,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>934</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -25639,6 +29368,9 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -25650,6 +29382,9 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -25661,6 +29396,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -25672,6 +29410,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -25683,6 +29424,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -25693,6 +29437,2089 @@
       </c>
       <c r="C16">
         <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>330</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>330</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>330</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>28</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>28</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -25701,9 +31528,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25853,26 +31683,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25896,9 +31715,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D71C9F-4293-4E31-A349-5F073D4B6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DF1EF7-9E46-4521-840B-807EADED9D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6359" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5163" uniqueCount="1200">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4328,6 +4328,9 @@
     <t>System</t>
   </si>
   <si>
+    <t xml:space="preserve">   . </t>
+  </si>
+  <si>
     <t>out</t>
   </si>
   <si>
@@ -4338,12 +4341,6 @@
   </si>
   <si>
     <t>(2 + 5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">. </t>
-  </si>
-  <si>
-    <t>const</t>
   </si>
 </sst>
 </file>
@@ -11622,7 +11619,7 @@
   <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23003,7 +23000,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25307,19 +25304,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:Q217"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>546</v>
       </c>
@@ -25333,7 +25326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25350,7 +25343,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>139</v>
       </c>
@@ -25373,24 +25366,24 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1194</v>
       </c>
       <c r="F4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H4" t="s">
         <v>1195</v>
       </c>
-      <c r="H4" t="s">
-        <v>1199</v>
-      </c>
       <c r="I4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="J4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="K4" t="s">
         <v>157</v>
@@ -25402,17 +25395,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -25424,7 +25417,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>139</v>
       </c>
@@ -25447,3759 +25440,37 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>1194</v>
       </c>
       <c r="F8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J8" t="s">
         <v>1199</v>
       </c>
-      <c r="G8" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J8" t="s">
-        <v>796</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
+      <c r="K8" t="s">
+        <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>264</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" t="s">
         <v>804</v>
       </c>
-      <c r="Q8" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" t="s">
-        <v>800</v>
-      </c>
-      <c r="I11" t="s">
-        <v>801</v>
-      </c>
-      <c r="J11" t="s">
-        <v>802</v>
-      </c>
-      <c r="K11" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" t="s">
-        <v>804</v>
-      </c>
-      <c r="M12" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" t="s">
-        <v>800</v>
-      </c>
-      <c r="I15" t="s">
-        <v>801</v>
-      </c>
-      <c r="J15" t="s">
-        <v>802</v>
-      </c>
-      <c r="K15" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" t="s">
-        <v>804</v>
-      </c>
-      <c r="M16" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" t="s">
-        <v>800</v>
-      </c>
-      <c r="I19" t="s">
-        <v>801</v>
-      </c>
-      <c r="J19" t="s">
-        <v>802</v>
-      </c>
-      <c r="K19" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K20" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" t="s">
-        <v>804</v>
-      </c>
-      <c r="M20" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" t="s">
-        <v>800</v>
-      </c>
-      <c r="I23" t="s">
-        <v>801</v>
-      </c>
-      <c r="J23" t="s">
-        <v>802</v>
-      </c>
-      <c r="K23" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K24" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" t="s">
-        <v>804</v>
-      </c>
-      <c r="M24" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" t="s">
-        <v>800</v>
-      </c>
-      <c r="I27" t="s">
-        <v>801</v>
-      </c>
-      <c r="J27" t="s">
-        <v>802</v>
-      </c>
-      <c r="K27" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K28" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" t="s">
-        <v>804</v>
-      </c>
-      <c r="M28" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" t="s">
-        <v>800</v>
-      </c>
-      <c r="I31" t="s">
-        <v>801</v>
-      </c>
-      <c r="J31" t="s">
-        <v>802</v>
-      </c>
-      <c r="K31" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K32" t="s">
-        <v>157</v>
-      </c>
-      <c r="L32" t="s">
-        <v>804</v>
-      </c>
-      <c r="M32" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" t="s">
-        <v>800</v>
-      </c>
-      <c r="I35" t="s">
-        <v>801</v>
-      </c>
-      <c r="J35" t="s">
-        <v>802</v>
-      </c>
-      <c r="K35" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K36" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" t="s">
-        <v>804</v>
-      </c>
-      <c r="M36" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" t="s">
-        <v>800</v>
-      </c>
-      <c r="I39" t="s">
-        <v>801</v>
-      </c>
-      <c r="J39" t="s">
-        <v>802</v>
-      </c>
-      <c r="K39" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K40" t="s">
-        <v>157</v>
-      </c>
-      <c r="L40" t="s">
-        <v>804</v>
-      </c>
-      <c r="M40" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" t="s">
-        <v>800</v>
-      </c>
-      <c r="I43" t="s">
-        <v>801</v>
-      </c>
-      <c r="J43" t="s">
-        <v>802</v>
-      </c>
-      <c r="K43" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K44" t="s">
-        <v>157</v>
-      </c>
-      <c r="L44" t="s">
-        <v>804</v>
-      </c>
-      <c r="M44" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" t="s">
-        <v>800</v>
-      </c>
-      <c r="I47" t="s">
-        <v>801</v>
-      </c>
-      <c r="J47" t="s">
-        <v>802</v>
-      </c>
-      <c r="K47" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K48" t="s">
-        <v>157</v>
-      </c>
-      <c r="L48" t="s">
-        <v>804</v>
-      </c>
-      <c r="M48" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51" t="s">
-        <v>800</v>
-      </c>
-      <c r="I51" t="s">
-        <v>801</v>
-      </c>
-      <c r="J51" t="s">
-        <v>802</v>
-      </c>
-      <c r="K51" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I52" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J52" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K52" t="s">
-        <v>157</v>
-      </c>
-      <c r="L52" t="s">
-        <v>804</v>
-      </c>
-      <c r="M52" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" t="s">
-        <v>142</v>
-      </c>
-      <c r="H55" t="s">
-        <v>800</v>
-      </c>
-      <c r="I55" t="s">
-        <v>801</v>
-      </c>
-      <c r="J55" t="s">
-        <v>802</v>
-      </c>
-      <c r="K55" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K56" t="s">
-        <v>157</v>
-      </c>
-      <c r="L56" t="s">
-        <v>804</v>
-      </c>
-      <c r="M56" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" t="s">
-        <v>800</v>
-      </c>
-      <c r="I59" t="s">
-        <v>801</v>
-      </c>
-      <c r="J59" t="s">
-        <v>802</v>
-      </c>
-      <c r="K59" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K60" t="s">
-        <v>157</v>
-      </c>
-      <c r="L60" t="s">
-        <v>804</v>
-      </c>
-      <c r="M60" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" t="s">
-        <v>141</v>
-      </c>
-      <c r="G63" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" t="s">
-        <v>800</v>
-      </c>
-      <c r="I63" t="s">
-        <v>801</v>
-      </c>
-      <c r="J63" t="s">
-        <v>802</v>
-      </c>
-      <c r="K63" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K64" t="s">
-        <v>157</v>
-      </c>
-      <c r="L64" t="s">
-        <v>804</v>
-      </c>
-      <c r="M64" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" t="s">
-        <v>141</v>
-      </c>
-      <c r="G67" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" t="s">
-        <v>800</v>
-      </c>
-      <c r="I67" t="s">
-        <v>801</v>
-      </c>
-      <c r="J67" t="s">
-        <v>802</v>
-      </c>
-      <c r="K67" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I68" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J68" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K68" t="s">
-        <v>157</v>
-      </c>
-      <c r="L68" t="s">
-        <v>804</v>
-      </c>
-      <c r="M68" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>141</v>
-      </c>
-      <c r="G71" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" t="s">
-        <v>800</v>
-      </c>
-      <c r="I71" t="s">
-        <v>801</v>
-      </c>
-      <c r="J71" t="s">
-        <v>802</v>
-      </c>
-      <c r="K71" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K72" t="s">
-        <v>157</v>
-      </c>
-      <c r="L72" t="s">
-        <v>804</v>
-      </c>
-      <c r="M72" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>19</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" t="s">
-        <v>800</v>
-      </c>
-      <c r="I75" t="s">
-        <v>801</v>
-      </c>
-      <c r="J75" t="s">
-        <v>802</v>
-      </c>
-      <c r="K75" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K76" t="s">
-        <v>157</v>
-      </c>
-      <c r="L76" t="s">
-        <v>804</v>
-      </c>
-      <c r="M76" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" t="s">
-        <v>142</v>
-      </c>
-      <c r="H79" t="s">
-        <v>800</v>
-      </c>
-      <c r="I79" t="s">
-        <v>801</v>
-      </c>
-      <c r="J79" t="s">
-        <v>802</v>
-      </c>
-      <c r="K79" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L80" t="s">
-        <v>804</v>
-      </c>
-      <c r="M80" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>21</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" t="s">
-        <v>800</v>
-      </c>
-      <c r="I83" t="s">
-        <v>801</v>
-      </c>
-      <c r="J83" t="s">
-        <v>802</v>
-      </c>
-      <c r="K83" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K84" t="s">
-        <v>157</v>
-      </c>
-      <c r="L84" t="s">
-        <v>804</v>
-      </c>
-      <c r="M84" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" t="s">
-        <v>142</v>
-      </c>
-      <c r="H87" t="s">
-        <v>800</v>
-      </c>
-      <c r="I87" t="s">
-        <v>801</v>
-      </c>
-      <c r="J87" t="s">
-        <v>802</v>
-      </c>
-      <c r="K87" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I88" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K88" t="s">
-        <v>157</v>
-      </c>
-      <c r="L88" t="s">
-        <v>804</v>
-      </c>
-      <c r="M88" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>23</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" t="s">
-        <v>141</v>
-      </c>
-      <c r="G91" t="s">
-        <v>142</v>
-      </c>
-      <c r="H91" t="s">
-        <v>800</v>
-      </c>
-      <c r="I91" t="s">
-        <v>801</v>
-      </c>
-      <c r="J91" t="s">
-        <v>802</v>
-      </c>
-      <c r="K91" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K92" t="s">
-        <v>157</v>
-      </c>
-      <c r="L92" t="s">
-        <v>804</v>
-      </c>
-      <c r="M92" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
-        <v>139</v>
-      </c>
-      <c r="F95" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" t="s">
-        <v>142</v>
-      </c>
-      <c r="H95" t="s">
-        <v>800</v>
-      </c>
-      <c r="I95" t="s">
-        <v>801</v>
-      </c>
-      <c r="J95" t="s">
-        <v>802</v>
-      </c>
-      <c r="K95" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I96" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K96" t="s">
-        <v>157</v>
-      </c>
-      <c r="L96" t="s">
-        <v>804</v>
-      </c>
-      <c r="M96" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>25</v>
-      </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E99" t="s">
-        <v>139</v>
-      </c>
-      <c r="F99" t="s">
-        <v>141</v>
-      </c>
-      <c r="G99" t="s">
-        <v>142</v>
-      </c>
-      <c r="H99" t="s">
-        <v>800</v>
-      </c>
-      <c r="I99" t="s">
-        <v>801</v>
-      </c>
-      <c r="J99" t="s">
-        <v>802</v>
-      </c>
-      <c r="K99" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H100" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I100" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K100" t="s">
-        <v>157</v>
-      </c>
-      <c r="L100" t="s">
-        <v>804</v>
-      </c>
-      <c r="M100" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>26</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E103" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" t="s">
-        <v>141</v>
-      </c>
-      <c r="G103" t="s">
-        <v>142</v>
-      </c>
-      <c r="H103" t="s">
-        <v>800</v>
-      </c>
-      <c r="I103" t="s">
-        <v>801</v>
-      </c>
-      <c r="J103" t="s">
-        <v>802</v>
-      </c>
-      <c r="K103" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G104" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H104" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I104" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K104" t="s">
-        <v>157</v>
-      </c>
-      <c r="L104" t="s">
-        <v>804</v>
-      </c>
-      <c r="M104" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>27</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" t="s">
-        <v>141</v>
-      </c>
-      <c r="G107" t="s">
-        <v>142</v>
-      </c>
-      <c r="H107" t="s">
-        <v>800</v>
-      </c>
-      <c r="I107" t="s">
-        <v>801</v>
-      </c>
-      <c r="J107" t="s">
-        <v>802</v>
-      </c>
-      <c r="K107" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E108" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H108" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I108" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K108" t="s">
-        <v>157</v>
-      </c>
-      <c r="L108" t="s">
-        <v>804</v>
-      </c>
-      <c r="M108" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>28</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E111" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" t="s">
-        <v>141</v>
-      </c>
-      <c r="G111" t="s">
-        <v>142</v>
-      </c>
-      <c r="H111" t="s">
-        <v>800</v>
-      </c>
-      <c r="I111" t="s">
-        <v>801</v>
-      </c>
-      <c r="J111" t="s">
-        <v>802</v>
-      </c>
-      <c r="K111" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E112" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G112" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H112" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I112" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J112" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K112" t="s">
-        <v>157</v>
-      </c>
-      <c r="L112" t="s">
-        <v>804</v>
-      </c>
-      <c r="M112" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>29</v>
-      </c>
-      <c r="C114" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
-        <v>139</v>
-      </c>
-      <c r="F115" t="s">
-        <v>141</v>
-      </c>
-      <c r="G115" t="s">
-        <v>142</v>
-      </c>
-      <c r="H115" t="s">
-        <v>800</v>
-      </c>
-      <c r="I115" t="s">
-        <v>801</v>
-      </c>
-      <c r="J115" t="s">
-        <v>802</v>
-      </c>
-      <c r="K115" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K116" t="s">
-        <v>157</v>
-      </c>
-      <c r="L116" t="s">
-        <v>804</v>
-      </c>
-      <c r="M116" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>30</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
-      <c r="H119" t="s">
-        <v>800</v>
-      </c>
-      <c r="I119" t="s">
-        <v>801</v>
-      </c>
-      <c r="J119" t="s">
-        <v>802</v>
-      </c>
-      <c r="K119" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E120" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G120" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H120" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K120" t="s">
-        <v>157</v>
-      </c>
-      <c r="L120" t="s">
-        <v>804</v>
-      </c>
-      <c r="M120" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>31</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E123" t="s">
-        <v>139</v>
-      </c>
-      <c r="F123" t="s">
-        <v>141</v>
-      </c>
-      <c r="G123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H123" t="s">
-        <v>800</v>
-      </c>
-      <c r="I123" t="s">
-        <v>801</v>
-      </c>
-      <c r="J123" t="s">
-        <v>802</v>
-      </c>
-      <c r="K123" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G124" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I124" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K124" t="s">
-        <v>157</v>
-      </c>
-      <c r="L124" t="s">
-        <v>804</v>
-      </c>
-      <c r="M124" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>32</v>
-      </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" t="s">
-        <v>142</v>
-      </c>
-      <c r="H127" t="s">
-        <v>800</v>
-      </c>
-      <c r="I127" t="s">
-        <v>801</v>
-      </c>
-      <c r="J127" t="s">
-        <v>802</v>
-      </c>
-      <c r="K127" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J128" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K128" t="s">
-        <v>157</v>
-      </c>
-      <c r="L128" t="s">
-        <v>804</v>
-      </c>
-      <c r="M128" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E129" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>33</v>
-      </c>
-      <c r="C130" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
-        <v>139</v>
-      </c>
-      <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s">
-        <v>142</v>
-      </c>
-      <c r="H131" t="s">
-        <v>800</v>
-      </c>
-      <c r="I131" t="s">
-        <v>801</v>
-      </c>
-      <c r="J131" t="s">
-        <v>802</v>
-      </c>
-      <c r="K131" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K132" t="s">
-        <v>157</v>
-      </c>
-      <c r="L132" t="s">
-        <v>804</v>
-      </c>
-      <c r="M132" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>34</v>
-      </c>
-      <c r="C134" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
-        <v>139</v>
-      </c>
-      <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s">
-        <v>142</v>
-      </c>
-      <c r="H135" t="s">
-        <v>800</v>
-      </c>
-      <c r="I135" t="s">
-        <v>801</v>
-      </c>
-      <c r="J135" t="s">
-        <v>802</v>
-      </c>
-      <c r="K135" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I136" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K136" t="s">
-        <v>157</v>
-      </c>
-      <c r="L136" t="s">
-        <v>804</v>
-      </c>
-      <c r="M136" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>35</v>
-      </c>
-      <c r="C138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" t="s">
-        <v>142</v>
-      </c>
-      <c r="H139" t="s">
-        <v>800</v>
-      </c>
-      <c r="I139" t="s">
-        <v>801</v>
-      </c>
-      <c r="J139" t="s">
-        <v>802</v>
-      </c>
-      <c r="K139" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H140" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I140" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K140" t="s">
-        <v>157</v>
-      </c>
-      <c r="L140" t="s">
-        <v>804</v>
-      </c>
-      <c r="M140" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>36</v>
-      </c>
-      <c r="C142" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142">
-        <v>3</v>
-      </c>
-      <c r="E142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G143" t="s">
-        <v>142</v>
-      </c>
-      <c r="H143" t="s">
-        <v>800</v>
-      </c>
-      <c r="I143" t="s">
-        <v>801</v>
-      </c>
-      <c r="J143" t="s">
-        <v>802</v>
-      </c>
-      <c r="K143" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H144" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J144" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K144" t="s">
-        <v>157</v>
-      </c>
-      <c r="L144" t="s">
-        <v>804</v>
-      </c>
-      <c r="M144" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>37</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>139</v>
-      </c>
-      <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="G147" t="s">
-        <v>142</v>
-      </c>
-      <c r="H147" t="s">
-        <v>800</v>
-      </c>
-      <c r="I147" t="s">
-        <v>801</v>
-      </c>
-      <c r="J147" t="s">
-        <v>802</v>
-      </c>
-      <c r="K147" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G148" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H148" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K148" t="s">
-        <v>157</v>
-      </c>
-      <c r="L148" t="s">
-        <v>804</v>
-      </c>
-      <c r="M148" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>38</v>
-      </c>
-      <c r="C150" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>139</v>
-      </c>
-      <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="G151" t="s">
-        <v>142</v>
-      </c>
-      <c r="H151" t="s">
-        <v>800</v>
-      </c>
-      <c r="I151" t="s">
-        <v>801</v>
-      </c>
-      <c r="J151" t="s">
-        <v>802</v>
-      </c>
-      <c r="K151" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H152" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I152" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K152" t="s">
-        <v>157</v>
-      </c>
-      <c r="L152" t="s">
-        <v>804</v>
-      </c>
-      <c r="M152" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>39</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>139</v>
-      </c>
-      <c r="F155" t="s">
-        <v>141</v>
-      </c>
-      <c r="G155" t="s">
-        <v>142</v>
-      </c>
-      <c r="H155" t="s">
-        <v>800</v>
-      </c>
-      <c r="I155" t="s">
-        <v>801</v>
-      </c>
-      <c r="J155" t="s">
-        <v>802</v>
-      </c>
-      <c r="K155" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E156" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G156" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H156" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J156" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K156" t="s">
-        <v>157</v>
-      </c>
-      <c r="L156" t="s">
-        <v>804</v>
-      </c>
-      <c r="M156" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>40</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E159" t="s">
-        <v>139</v>
-      </c>
-      <c r="F159" t="s">
-        <v>141</v>
-      </c>
-      <c r="G159" t="s">
-        <v>142</v>
-      </c>
-      <c r="H159" t="s">
-        <v>800</v>
-      </c>
-      <c r="I159" t="s">
-        <v>801</v>
-      </c>
-      <c r="J159" t="s">
-        <v>802</v>
-      </c>
-      <c r="K159" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E160" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G160" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J160" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K160" t="s">
-        <v>157</v>
-      </c>
-      <c r="L160" t="s">
-        <v>804</v>
-      </c>
-      <c r="M160" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>41</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
-        <v>139</v>
-      </c>
-      <c r="F163" t="s">
-        <v>141</v>
-      </c>
-      <c r="G163" t="s">
-        <v>142</v>
-      </c>
-      <c r="H163" t="s">
-        <v>800</v>
-      </c>
-      <c r="I163" t="s">
-        <v>801</v>
-      </c>
-      <c r="J163" t="s">
-        <v>802</v>
-      </c>
-      <c r="K163" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E164" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G164" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H164" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I164" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J164" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K164" t="s">
-        <v>157</v>
-      </c>
-      <c r="L164" t="s">
-        <v>804</v>
-      </c>
-      <c r="M164" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>42</v>
-      </c>
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>139</v>
-      </c>
-      <c r="F167" t="s">
-        <v>141</v>
-      </c>
-      <c r="G167" t="s">
-        <v>142</v>
-      </c>
-      <c r="H167" t="s">
-        <v>800</v>
-      </c>
-      <c r="I167" t="s">
-        <v>801</v>
-      </c>
-      <c r="J167" t="s">
-        <v>802</v>
-      </c>
-      <c r="K167" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G168" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H168" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I168" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J168" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K168" t="s">
-        <v>157</v>
-      </c>
-      <c r="L168" t="s">
-        <v>804</v>
-      </c>
-      <c r="M168" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E169" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>43</v>
-      </c>
-      <c r="C170" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E171" t="s">
-        <v>139</v>
-      </c>
-      <c r="F171" t="s">
-        <v>141</v>
-      </c>
-      <c r="G171" t="s">
-        <v>142</v>
-      </c>
-      <c r="H171" t="s">
-        <v>800</v>
-      </c>
-      <c r="I171" t="s">
-        <v>801</v>
-      </c>
-      <c r="J171" t="s">
-        <v>802</v>
-      </c>
-      <c r="K171" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E172" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F172" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G172" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H172" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K172" t="s">
-        <v>157</v>
-      </c>
-      <c r="L172" t="s">
-        <v>804</v>
-      </c>
-      <c r="M172" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E173" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>44</v>
-      </c>
-      <c r="C174" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>139</v>
-      </c>
-      <c r="F175" t="s">
-        <v>141</v>
-      </c>
-      <c r="G175" t="s">
-        <v>142</v>
-      </c>
-      <c r="H175" t="s">
-        <v>800</v>
-      </c>
-      <c r="I175" t="s">
-        <v>801</v>
-      </c>
-      <c r="J175" t="s">
-        <v>802</v>
-      </c>
-      <c r="K175" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E176" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F176" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G176" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H176" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I176" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K176" t="s">
-        <v>157</v>
-      </c>
-      <c r="L176" t="s">
-        <v>804</v>
-      </c>
-      <c r="M176" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E177" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>45</v>
-      </c>
-      <c r="C178" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E179" t="s">
-        <v>139</v>
-      </c>
-      <c r="F179" t="s">
-        <v>141</v>
-      </c>
-      <c r="G179" t="s">
-        <v>142</v>
-      </c>
-      <c r="H179" t="s">
-        <v>800</v>
-      </c>
-      <c r="I179" t="s">
-        <v>801</v>
-      </c>
-      <c r="J179" t="s">
-        <v>802</v>
-      </c>
-      <c r="K179" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E180" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F180" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G180" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I180" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K180" t="s">
-        <v>157</v>
-      </c>
-      <c r="L180" t="s">
-        <v>804</v>
-      </c>
-      <c r="M180" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E181" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>46</v>
-      </c>
-      <c r="C182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E183" t="s">
-        <v>139</v>
-      </c>
-      <c r="F183" t="s">
-        <v>141</v>
-      </c>
-      <c r="G183" t="s">
-        <v>142</v>
-      </c>
-      <c r="H183" t="s">
-        <v>800</v>
-      </c>
-      <c r="I183" t="s">
-        <v>801</v>
-      </c>
-      <c r="J183" t="s">
-        <v>802</v>
-      </c>
-      <c r="K183" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I184" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K184" t="s">
-        <v>157</v>
-      </c>
-      <c r="L184" t="s">
-        <v>804</v>
-      </c>
-      <c r="M184" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>47</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
-        <v>139</v>
-      </c>
-      <c r="F187" t="s">
-        <v>141</v>
-      </c>
-      <c r="G187" t="s">
-        <v>142</v>
-      </c>
-      <c r="H187" t="s">
-        <v>800</v>
-      </c>
-      <c r="I187" t="s">
-        <v>801</v>
-      </c>
-      <c r="J187" t="s">
-        <v>802</v>
-      </c>
-      <c r="K187" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E188" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K188" t="s">
-        <v>157</v>
-      </c>
-      <c r="L188" t="s">
-        <v>804</v>
-      </c>
-      <c r="M188" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E189" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>48</v>
-      </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190">
-        <v>2</v>
-      </c>
-      <c r="E190" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E191" t="s">
-        <v>139</v>
-      </c>
-      <c r="F191" t="s">
-        <v>141</v>
-      </c>
-      <c r="G191" t="s">
-        <v>142</v>
-      </c>
-      <c r="H191" t="s">
-        <v>800</v>
-      </c>
-      <c r="I191" t="s">
-        <v>801</v>
-      </c>
-      <c r="J191" t="s">
-        <v>802</v>
-      </c>
-      <c r="K191" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E192" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G192" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K192" t="s">
-        <v>157</v>
-      </c>
-      <c r="L192" t="s">
-        <v>804</v>
-      </c>
-      <c r="M192" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E193" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>49</v>
-      </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="E194" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E195" t="s">
-        <v>139</v>
-      </c>
-      <c r="F195" t="s">
-        <v>141</v>
-      </c>
-      <c r="G195" t="s">
-        <v>142</v>
-      </c>
-      <c r="H195" t="s">
-        <v>800</v>
-      </c>
-      <c r="I195" t="s">
-        <v>801</v>
-      </c>
-      <c r="J195" t="s">
-        <v>802</v>
-      </c>
-      <c r="K195" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I196" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K196" t="s">
-        <v>157</v>
-      </c>
-      <c r="L196" t="s">
-        <v>804</v>
-      </c>
-      <c r="M196" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E197" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>50</v>
-      </c>
-      <c r="C198" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198">
-        <v>3</v>
-      </c>
-      <c r="E198" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>139</v>
-      </c>
-      <c r="F199" t="s">
-        <v>141</v>
-      </c>
-      <c r="G199" t="s">
-        <v>142</v>
-      </c>
-      <c r="H199" t="s">
-        <v>800</v>
-      </c>
-      <c r="I199" t="s">
-        <v>801</v>
-      </c>
-      <c r="J199" t="s">
-        <v>802</v>
-      </c>
-      <c r="K199" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F200" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H200" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I200" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K200" t="s">
-        <v>157</v>
-      </c>
-      <c r="L200" t="s">
-        <v>804</v>
-      </c>
-      <c r="M200" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E201" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>51</v>
-      </c>
-      <c r="C202" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202">
-        <v>3</v>
-      </c>
-      <c r="E202" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E203" t="s">
-        <v>139</v>
-      </c>
-      <c r="F203" t="s">
-        <v>141</v>
-      </c>
-      <c r="G203" t="s">
-        <v>142</v>
-      </c>
-      <c r="H203" t="s">
-        <v>800</v>
-      </c>
-      <c r="I203" t="s">
-        <v>801</v>
-      </c>
-      <c r="J203" t="s">
-        <v>802</v>
-      </c>
-      <c r="K203" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E204" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F204" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G204" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H204" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I204" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K204" t="s">
-        <v>157</v>
-      </c>
-      <c r="L204" t="s">
-        <v>804</v>
-      </c>
-      <c r="M204" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E205" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>52</v>
-      </c>
-      <c r="C206" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206">
-        <v>3</v>
-      </c>
-      <c r="E206" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E207" t="s">
-        <v>139</v>
-      </c>
-      <c r="F207" t="s">
-        <v>141</v>
-      </c>
-      <c r="G207" t="s">
-        <v>142</v>
-      </c>
-      <c r="H207" t="s">
-        <v>800</v>
-      </c>
-      <c r="I207" t="s">
-        <v>801</v>
-      </c>
-      <c r="J207" t="s">
-        <v>802</v>
-      </c>
-      <c r="K207" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E208" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F208" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G208" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H208" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I208" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J208" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K208" t="s">
-        <v>157</v>
-      </c>
-      <c r="L208" t="s">
-        <v>804</v>
-      </c>
-      <c r="M208" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E209" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>53</v>
-      </c>
-      <c r="C210" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210">
-        <v>3</v>
-      </c>
-      <c r="E210" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E211" t="s">
-        <v>139</v>
-      </c>
-      <c r="F211" t="s">
-        <v>141</v>
-      </c>
-      <c r="G211" t="s">
-        <v>142</v>
-      </c>
-      <c r="H211" t="s">
-        <v>800</v>
-      </c>
-      <c r="I211" t="s">
-        <v>801</v>
-      </c>
-      <c r="J211" t="s">
-        <v>802</v>
-      </c>
-      <c r="K211" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E212" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G212" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I212" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J212" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K212" t="s">
-        <v>157</v>
-      </c>
-      <c r="L212" t="s">
-        <v>804</v>
-      </c>
-      <c r="M212" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E213" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>54</v>
-      </c>
-      <c r="C214" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214">
-        <v>3</v>
-      </c>
-      <c r="E214" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E215" t="s">
-        <v>139</v>
-      </c>
-      <c r="F215" t="s">
-        <v>141</v>
-      </c>
-      <c r="G215" t="s">
-        <v>142</v>
-      </c>
-      <c r="H215" t="s">
-        <v>800</v>
-      </c>
-      <c r="I215" t="s">
-        <v>801</v>
-      </c>
-      <c r="J215" t="s">
-        <v>802</v>
-      </c>
-      <c r="K215" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E216" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G216" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I216" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K216" t="s">
-        <v>157</v>
-      </c>
-      <c r="L216" t="s">
-        <v>804</v>
-      </c>
-      <c r="M216" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E217" t="s">
         <v>138</v>
       </c>
     </row>
@@ -29210,10 +25481,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29243,7 +25514,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -29257,7 +25528,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -29271,7 +25542,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -29285,7 +25556,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -29299,7 +25570,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1200</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -29313,7 +25584,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -29327,7 +25598,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -29341,7 +25612,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>800</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -29355,7 +25626,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1068</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -29368,9 +25639,6 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>1177</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -29382,9 +25650,6 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -29396,9 +25661,6 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>817</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -29410,9 +25672,6 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>796</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -29424,9 +25683,6 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -29437,2089 +25693,6 @@
       </c>
       <c r="C16">
         <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>330</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>330</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>330</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>330</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>330</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>330</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>330</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>330</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>330</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>330</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>330</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>330</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>330</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>330</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>26</v>
-      </c>
-      <c r="C142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>26</v>
-      </c>
-      <c r="C143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>26</v>
-      </c>
-      <c r="C146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>26</v>
-      </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>26</v>
-      </c>
-      <c r="C149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>26</v>
-      </c>
-      <c r="C150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>26</v>
-      </c>
-      <c r="C151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>26</v>
-      </c>
-      <c r="C153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>26</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>26</v>
-      </c>
-      <c r="C155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>27</v>
-      </c>
-      <c r="C173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>27</v>
-      </c>
-      <c r="C174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>27</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>27</v>
-      </c>
-      <c r="C176">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>27</v>
-      </c>
-      <c r="C177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>27</v>
-      </c>
-      <c r="C178">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>27</v>
-      </c>
-      <c r="C179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>27</v>
-      </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>27</v>
-      </c>
-      <c r="C181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>27</v>
-      </c>
-      <c r="C182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>27</v>
-      </c>
-      <c r="C183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>27</v>
-      </c>
-      <c r="C184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>27</v>
-      </c>
-      <c r="C185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>27</v>
-      </c>
-      <c r="C186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>28</v>
-      </c>
-      <c r="C187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>28</v>
-      </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>28</v>
-      </c>
-      <c r="C189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>28</v>
-      </c>
-      <c r="C190">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>28</v>
-      </c>
-      <c r="C191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>28</v>
-      </c>
-      <c r="C192">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>28</v>
-      </c>
-      <c r="C193">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>28</v>
-      </c>
-      <c r="C194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>28</v>
-      </c>
-      <c r="C195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>28</v>
-      </c>
-      <c r="C196">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>28</v>
-      </c>
-      <c r="C197">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>28</v>
-      </c>
-      <c r="C198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>28</v>
-      </c>
-      <c r="C199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>28</v>
-      </c>
-      <c r="C200">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>28</v>
-      </c>
-      <c r="C201">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -31528,12 +25701,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31683,15 +25853,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31715,17 +25896,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D71C9F-4293-4E31-A349-5F073D4B6DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DB7EB-773A-4DDF-A2A8-F7C15B7524B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6359" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="1201">
   <si>
     <t>Stage 1</t>
   </si>
@@ -25309,7 +25309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
   <dimension ref="A1:Q217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -29212,8 +29212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29243,7 +29243,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -29257,7 +29257,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -29271,7 +29271,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -29285,7 +29285,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -29299,7 +29299,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -29313,7 +29313,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -29327,7 +29327,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -29341,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -29355,7 +29355,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1068</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -29369,7 +29369,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -29383,7 +29383,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -29397,7 +29397,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -29411,7 +29411,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -29424,9 +29424,6 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -29438,11 +29435,8 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -29452,11 +29446,8 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -29466,11 +29457,8 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -29480,11 +29468,8 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -29494,11 +29479,8 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -29508,11 +29490,8 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -29523,7 +29502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -29534,7 +29513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -29545,7 +29524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -29556,7 +29535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -29567,7 +29546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -29578,7 +29557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -29589,7 +29568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -29600,7 +29579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -29611,7 +29590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -29622,7 +29601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -31528,12 +31507,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31683,15 +31659,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31715,17 +31702,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DB7EB-773A-4DDF-A2A8-F7C15B7524B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD0685-3E14-4CE4-BFE7-FD5D29A1943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Minigame" sheetId="7" r:id="rId4"/>
     <sheet name="AnswerPool2" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6352" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="1361">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4334,9 +4338,6 @@
     <t>println</t>
   </si>
   <si>
-    <t>("Hello World")</t>
-  </si>
-  <si>
     <t>(2 + 5)</t>
   </si>
   <si>
@@ -4344,6 +4345,489 @@
   </si>
   <si>
     <t>const</t>
+  </si>
+  <si>
+    <t>("Hello World!")</t>
+  </si>
+  <si>
+    <t>("Hello World! 123")</t>
+  </si>
+  <si>
+    <t>("Hello World "</t>
+  </si>
+  <si>
+    <t>(2+5))</t>
+  </si>
+  <si>
+    <t>"123")</t>
+  </si>
+  <si>
+    <t>"2+5")</t>
+  </si>
+  <si>
+    <t>("Hello World 123"</t>
+  </si>
+  <si>
+    <t>(2+2))</t>
+  </si>
+  <si>
+    <t>"Hello World"</t>
+  </si>
+  <si>
+    <t>"321")</t>
+  </si>
+  <si>
+    <t>("123"</t>
+  </si>
+  <si>
+    <t>"Hello World123")</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>;;</t>
+  </si>
+  <si>
+    <t>}}</t>
+  </si>
+  <si>
+    <t>PUBLIC</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>main()</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>/*/</t>
+  </si>
+  <si>
+    <t>\**\</t>
+  </si>
+  <si>
+    <t>\\\</t>
+  </si>
+  <si>
+    <t>\/</t>
+  </si>
+  <si>
+    <t>/\</t>
+  </si>
+  <si>
+    <t>\\ this is a comment</t>
+  </si>
+  <si>
+    <t>\* this is for blocks *\</t>
+  </si>
+  <si>
+    <t>'' documentation '''</t>
+  </si>
+  <si>
+    <t>// this comment</t>
+  </si>
+  <si>
+    <t>NUM1</t>
+  </si>
+  <si>
+    <t>number3</t>
+  </si>
+  <si>
+    <t>strin2</t>
+  </si>
+  <si>
+    <t>AREA2</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>nu5</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>numb</t>
+  </si>
+  <si>
+    <t>input1</t>
+  </si>
+  <si>
+    <t>INP</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Unsigned</t>
+  </si>
+  <si>
+    <t>BYTE</t>
+  </si>
+  <si>
+    <t>(INTEGER)</t>
+  </si>
+  <si>
+    <t>(FLOAT)</t>
+  </si>
+  <si>
+    <t>(DOUBLE)</t>
+  </si>
+  <si>
+    <t>(STRING)</t>
+  </si>
+  <si>
+    <t>(LONG</t>
+  </si>
+  <si>
+    <t>(int</t>
+  </si>
+  <si>
+    <t>(byte</t>
+  </si>
+  <si>
+    <t>String)</t>
+  </si>
+  <si>
+    <t>int()</t>
+  </si>
+  <si>
+    <t>float()</t>
+  </si>
+  <si>
+    <t>double()</t>
+  </si>
+  <si>
+    <t>(bool)</t>
+  </si>
+  <si>
+    <t>boolean()</t>
+  </si>
+  <si>
+    <t>(true)</t>
+  </si>
+  <si>
+    <t>=+</t>
+  </si>
+  <si>
+    <t>=-</t>
+  </si>
+  <si>
+    <t>=*</t>
+  </si>
+  <si>
+    <t>=/</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>sum3 + sum1</t>
+  </si>
+  <si>
+    <t>sum4 - num1</t>
+  </si>
+  <si>
+    <t>-+</t>
+  </si>
+  <si>
+    <t>=%</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>num3+num4</t>
+  </si>
+  <si>
+    <t>numnum-num</t>
+  </si>
+  <si>
+    <t>ifelse</t>
+  </si>
+  <si>
+    <t>if()</t>
+  </si>
+  <si>
+    <t>else()</t>
+  </si>
+  <si>
+    <t>then()</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>switch()</t>
+  </si>
+  <si>
+    <t>!!</t>
+  </si>
+  <si>
+    <t>!&amp;</t>
+  </si>
+  <si>
+    <t>!|</t>
+  </si>
+  <si>
+    <t>=!</t>
+  </si>
+  <si>
+    <t>===</t>
+  </si>
+  <si>
+    <t>=&lt;</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>for()</t>
+  </si>
+  <si>
+    <t>while()</t>
+  </si>
+  <si>
+    <t>dowhile()</t>
+  </si>
+  <si>
+    <t>int i != 0</t>
+  </si>
+  <si>
+    <t>+i+</t>
+  </si>
+  <si>
+    <t>-i-</t>
+  </si>
+  <si>
+    <t>+j+</t>
+  </si>
+  <si>
+    <t>-j-</t>
+  </si>
+  <si>
+    <t>int i = j</t>
+  </si>
+  <si>
+    <t>do()</t>
+  </si>
+  <si>
+    <t>whiledo()</t>
+  </si>
+  <si>
+    <t>foreach(</t>
+  </si>
+  <si>
+    <t>foreach()</t>
+  </si>
+  <si>
+    <t>y++</t>
+  </si>
+  <si>
+    <t>x++</t>
+  </si>
+  <si>
+    <t>String()()</t>
+  </si>
+  <si>
+    <t>String{}{}</t>
+  </si>
+  <si>
+    <t>int()()</t>
+  </si>
+  <si>
+    <t>String[0]</t>
+  </si>
+  <si>
+    <t>float()()</t>
+  </si>
+  <si>
+    <t>double()()</t>
+  </si>
+  <si>
+    <t>char()</t>
+  </si>
+  <si>
+    <t>char[0]</t>
+  </si>
+  <si>
+    <t>char[x]</t>
+  </si>
+  <si>
+    <t>String[m]</t>
+  </si>
+  <si>
+    <t>new int()</t>
+  </si>
+  <si>
+    <t>additional()</t>
+  </si>
+  <si>
+    <t>sub()</t>
+  </si>
+  <si>
+    <t>randomNumber()</t>
+  </si>
+  <si>
+    <t>call()</t>
+  </si>
+  <si>
+    <t>this()</t>
+  </si>
+  <si>
+    <t>aFunction()</t>
+  </si>
+  <si>
+    <t>whatIs(this)</t>
+  </si>
+  <si>
+    <t>minus(num - mun)</t>
+  </si>
+  <si>
+    <t>plus(num + num)</t>
+  </si>
+  <si>
+    <t>times()</t>
+  </si>
+  <si>
+    <t>dividedBy()</t>
+  </si>
+  <si>
+    <t>modulo()</t>
+  </si>
+  <si>
+    <t>thisFunction()</t>
+  </si>
+  <si>
+    <t>callFunction()</t>
+  </si>
+  <si>
+    <t>ClassObject()</t>
+  </si>
+  <si>
+    <t>string x</t>
+  </si>
+  <si>
+    <t>INT num</t>
+  </si>
+  <si>
+    <t>character c</t>
+  </si>
+  <si>
+    <t>floating num1</t>
+  </si>
+  <si>
+    <t>double str</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>multi-line</t>
+  </si>
+  <si>
+    <t>single-line</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>/* */</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>used.</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>(3+6))</t>
+  </si>
+  <si>
+    <t>"3+6")</t>
+  </si>
+  <si>
+    <t>("Hello World 321"</t>
+  </si>
+  <si>
+    <t>0)</t>
+  </si>
+  <si>
+    <t>("321"</t>
+  </si>
+  <si>
+    <t>"Hello World321")</t>
+  </si>
+  <si>
+    <t>"Jedisaur"</t>
+  </si>
+  <si>
+    <t>("My name is "</t>
+  </si>
+  <si>
+    <t>name)</t>
+  </si>
+  <si>
+    <t>"JediGrandpa"</t>
+  </si>
+  <si>
+    <t>("My Grandpa's name is "</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>("I will now be a "</t>
+  </si>
+  <si>
+    <t>"st year student soon.")</t>
+  </si>
+  <si>
+    <t>// Will continue tom</t>
   </si>
 </sst>
 </file>
@@ -4707,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F442EA-7F5D-4748-9754-A2DC9FAD38BA}">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11621,8 +12105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26312E56-B338-43B4-8651-D7A8BA424BFB}">
   <dimension ref="A1:Y529"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23000,10 +23484,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F99139-151D-46A7-9406-2704D1F454D5}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D156" sqref="D149:D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23163,6 +23647,9 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -23174,6 +23661,9 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -23185,6 +23675,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -23196,6 +23689,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -23207,6 +23703,9 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -23218,6 +23717,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16" t="s">
+        <v>1220</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -23294,10 +23796,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23305,10 +23810,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23316,10 +23824,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23327,10 +23838,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23338,10 +23852,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23349,10 +23866,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23360,10 +23880,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23371,10 +23894,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23382,10 +23908,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23393,10 +23922,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -23409,6 +23941,9 @@
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="D32" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -23420,6 +23955,9 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -23431,6 +23969,9 @@
       <c r="C34">
         <v>1</v>
       </c>
+      <c r="D34" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -23442,6 +23983,9 @@
       <c r="C35">
         <v>1</v>
       </c>
+      <c r="D35" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -23453,19 +23997,22 @@
       <c r="C36">
         <v>1</v>
       </c>
+      <c r="D36" t="s">
+        <v>1234</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23473,13 +24020,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1184</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23487,13 +24034,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1185</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23501,13 +24048,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1186</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23515,13 +24062,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23529,13 +24076,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1187</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23543,13 +24090,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43">
         <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23557,13 +24101,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23571,13 +24112,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
         <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23585,7 +24123,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -23601,6 +24139,9 @@
       <c r="C47">
         <v>1</v>
       </c>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -23612,8 +24153,11 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -23623,8 +24167,11 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -23634,8 +24181,11 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -23645,118 +24195,151 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -23766,8 +24349,11 @@
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23777,8 +24363,11 @@
       <c r="C63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23788,8 +24377,11 @@
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23799,8 +24391,11 @@
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -23810,118 +24405,151 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23931,8 +24559,11 @@
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -23942,8 +24573,11 @@
       <c r="C78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -23953,8 +24587,11 @@
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -23964,8 +24601,11 @@
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -23975,118 +24615,151 @@
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -24096,8 +24769,11 @@
       <c r="C92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -24107,8 +24783,11 @@
       <c r="C93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -24118,8 +24797,11 @@
       <c r="C94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -24129,8 +24811,11 @@
       <c r="C95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -24140,118 +24825,151 @@
       <c r="C96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -24261,8 +24979,11 @@
       <c r="C107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -24272,8 +24993,11 @@
       <c r="C108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -24283,8 +25007,11 @@
       <c r="C109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -24294,8 +25021,11 @@
       <c r="C110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -24305,118 +25035,151 @@
       <c r="C111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -24426,8 +25189,11 @@
       <c r="C122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -24437,8 +25203,11 @@
       <c r="C123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -24448,8 +25217,11 @@
       <c r="C124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -24459,8 +25231,11 @@
       <c r="C125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -24470,118 +25245,151 @@
       <c r="C126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -24591,8 +25399,11 @@
       <c r="C137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -24602,8 +25413,11 @@
       <c r="C138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -24613,8 +25427,11 @@
       <c r="C139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -24624,8 +25441,11 @@
       <c r="C140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -24635,38 +25455,50 @@
       <c r="C141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C144">
         <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -24674,10 +25506,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C145">
         <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -24685,10 +25520,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C146">
         <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -24696,10 +25534,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C147">
         <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -24707,10 +25548,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C148">
         <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -24718,10 +25562,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C149">
         <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -24729,10 +25576,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C150">
         <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -24740,10 +25590,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C151">
         <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -24756,6 +25609,9 @@
       <c r="C152">
         <v>2</v>
       </c>
+      <c r="D152" t="s">
+        <v>1328</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -24767,6 +25623,9 @@
       <c r="C153">
         <v>2</v>
       </c>
+      <c r="D153" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -24778,6 +25637,9 @@
       <c r="C154">
         <v>2</v>
       </c>
+      <c r="D154" t="s">
+        <v>1330</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -24789,6 +25651,9 @@
       <c r="C155">
         <v>2</v>
       </c>
+      <c r="D155" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -24800,19 +25665,19 @@
       <c r="C156">
         <v>2</v>
       </c>
+      <c r="D156" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C157">
         <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -24820,7 +25685,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -24831,7 +25696,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -24842,79 +25707,79 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>1172</v>
+        <v>26</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -24924,8 +25789,11 @@
       <c r="C167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -24936,7 +25804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -24947,7 +25815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -24958,7 +25826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -24969,59 +25837,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -25029,10 +25897,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -25040,10 +25908,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -25051,10 +25919,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -25062,10 +25930,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -25073,10 +25941,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>1172</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -25139,7 +26007,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -25150,7 +26018,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -25161,7 +26029,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -25172,7 +26040,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -25183,7 +26051,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C191">
         <v>3</v>
@@ -25194,7 +26062,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -25205,7 +26073,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C193">
         <v>3</v>
@@ -25216,7 +26084,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -25227,7 +26095,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -25238,7 +26106,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C196">
         <v>3</v>
@@ -25296,6 +26164,116 @@
         <v>28</v>
       </c>
       <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211">
         <v>3</v>
       </c>
     </row>
@@ -25307,10 +26285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:Q217"/>
+  <dimension ref="A1:R238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="R93" sqref="R93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25319,7 +26297,7 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>546</v>
       </c>
@@ -25333,7 +26311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25349,8 +26327,11 @@
       <c r="E2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>139</v>
       </c>
@@ -25373,24 +26354,24 @@
         <v>797</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>1194</v>
       </c>
       <c r="F4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G4" t="s">
         <v>1195</v>
       </c>
       <c r="H4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I4" t="s">
         <v>1196</v>
       </c>
       <c r="J4" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="K4" t="s">
         <v>157</v>
@@ -25402,12 +26383,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -25424,7 +26405,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>139</v>
       </c>
@@ -25447,53 +26428,41 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>1194</v>
       </c>
       <c r="F8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G8" t="s">
         <v>1195</v>
       </c>
       <c r="H8" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I8" t="s">
         <v>1196</v>
       </c>
       <c r="J8" t="s">
-        <v>796</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
+        <v>1197</v>
+      </c>
+      <c r="K8" t="s">
+        <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>264</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" t="s">
         <v>804</v>
       </c>
-      <c r="Q8" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -25510,7 +26479,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>139</v>
       </c>
@@ -25533,24 +26502,24 @@
         <v>797</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>1194</v>
       </c>
       <c r="F12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G12" t="s">
         <v>1195</v>
       </c>
       <c r="H12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I12" t="s">
         <v>1196</v>
       </c>
       <c r="J12" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="K12" t="s">
         <v>157</v>
@@ -25562,20 +26531,20 @@
         <v>797</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -25584,7 +26553,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>139</v>
       </c>
@@ -25607,348 +26576,432 @@
         <v>797</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>1194</v>
       </c>
       <c r="F16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G16" t="s">
         <v>1195</v>
       </c>
       <c r="H16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I16" t="s">
         <v>1196</v>
       </c>
       <c r="J16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K16" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F17" t="s">
         <v>1198</v>
       </c>
-      <c r="K16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="G17" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="M17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N17" t="s">
         <v>804</v>
       </c>
-      <c r="M16" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="O17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>800</v>
+      </c>
+      <c r="I20" t="s">
+        <v>801</v>
+      </c>
+      <c r="J20" t="s">
+        <v>802</v>
+      </c>
+      <c r="K20" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>264</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M22" t="s">
+        <v>157</v>
+      </c>
+      <c r="N22" t="s">
+        <v>804</v>
+      </c>
+      <c r="O22" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>6</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
         <v>139</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F25" t="s">
         <v>141</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G25" t="s">
         <v>142</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H25" t="s">
         <v>800</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I25" t="s">
         <v>801</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J25" t="s">
         <v>802</v>
       </c>
-      <c r="K19" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+      <c r="K25" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>1194</v>
       </c>
-      <c r="F20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F26" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G26" t="s">
         <v>1195</v>
       </c>
-      <c r="H20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H26" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I26" t="s">
         <v>1196</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J26" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>264</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M26" t="s">
+        <v>157</v>
+      </c>
+      <c r="N26" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F27" t="s">
         <v>1198</v>
       </c>
-      <c r="K20" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="G27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M27" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" t="s">
         <v>804</v>
       </c>
-      <c r="M20" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+      <c r="O27" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>139</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" t="s">
         <v>141</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G30" t="s">
         <v>142</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H30" t="s">
         <v>800</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I30" t="s">
         <v>801</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J30" t="s">
         <v>802</v>
       </c>
-      <c r="K23" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+      <c r="K30" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>1194</v>
       </c>
-      <c r="F24" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F31" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G31" t="s">
         <v>1195</v>
       </c>
-      <c r="H24" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H31" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I31" t="s">
         <v>1196</v>
       </c>
-      <c r="J24" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K24" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" t="s">
-        <v>804</v>
-      </c>
-      <c r="M24" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" t="s">
-        <v>800</v>
-      </c>
-      <c r="I27" t="s">
-        <v>801</v>
-      </c>
-      <c r="J27" t="s">
-        <v>802</v>
-      </c>
-      <c r="K27" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K28" t="s">
-        <v>157</v>
-      </c>
-      <c r="L28" t="s">
-        <v>804</v>
-      </c>
-      <c r="M28" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" t="s">
-        <v>800</v>
-      </c>
-      <c r="I31" t="s">
-        <v>801</v>
-      </c>
       <c r="J31" t="s">
-        <v>802</v>
+        <v>1206</v>
       </c>
       <c r="K31" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M31" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>1194</v>
       </c>
       <c r="F32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G32" t="s">
         <v>1195</v>
       </c>
       <c r="H32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I32" t="s">
         <v>1196</v>
       </c>
       <c r="J32" t="s">
-        <v>1198</v>
+        <v>1348</v>
       </c>
       <c r="K32" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M32" t="s">
+        <v>157</v>
+      </c>
+      <c r="N32" t="s">
         <v>804</v>
       </c>
-      <c r="M32" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>139</v>
       </c>
@@ -25971,287 +27024,368 @@
         <v>797</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>1194</v>
       </c>
       <c r="F36" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G36" t="s">
         <v>1195</v>
       </c>
       <c r="H36" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I36" t="s">
         <v>1196</v>
       </c>
       <c r="J36" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M36" t="s">
+        <v>264</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1209</v>
+      </c>
+      <c r="O36" t="s">
+        <v>157</v>
+      </c>
+      <c r="P36" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F37" t="s">
         <v>1198</v>
       </c>
-      <c r="K36" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="G37" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M37" t="s">
+        <v>264</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O37" t="s">
+        <v>157</v>
+      </c>
+      <c r="P37" t="s">
         <v>804</v>
       </c>
-      <c r="M36" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+      <c r="Q37" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="R39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" t="s">
+        <v>800</v>
+      </c>
+      <c r="I40" t="s">
+        <v>801</v>
+      </c>
+      <c r="J40" t="s">
+        <v>802</v>
+      </c>
+      <c r="K40" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K41" t="s">
+        <v>264</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M41" t="s">
+        <v>157</v>
+      </c>
+      <c r="N41" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>264</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M42" t="s">
+        <v>157</v>
+      </c>
+      <c r="N42" t="s">
+        <v>804</v>
+      </c>
+      <c r="O42" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+      <c r="R44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
         <v>139</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F45" t="s">
         <v>141</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G45" t="s">
         <v>142</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H45" t="s">
         <v>800</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I45" t="s">
         <v>801</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J45" t="s">
         <v>802</v>
       </c>
-      <c r="K39" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+      <c r="K45" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H46" t="s">
+        <v>905</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J46" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>1194</v>
       </c>
-      <c r="F40" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G47" t="s">
         <v>1195</v>
       </c>
-      <c r="H40" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I47" t="s">
         <v>1196</v>
       </c>
-      <c r="J40" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K40" t="s">
-        <v>157</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="J47" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K47" t="s">
+        <v>157</v>
+      </c>
+      <c r="L47" t="s">
         <v>804</v>
       </c>
-      <c r="M40" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+      <c r="M47" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>11</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
         <v>139</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F50" t="s">
         <v>141</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G50" t="s">
         <v>142</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H50" t="s">
         <v>800</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I50" t="s">
         <v>801</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J50" t="s">
         <v>802</v>
       </c>
-      <c r="K43" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K44" t="s">
-        <v>157</v>
-      </c>
-      <c r="L44" t="s">
-        <v>804</v>
-      </c>
-      <c r="M44" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" t="s">
-        <v>800</v>
-      </c>
-      <c r="I47" t="s">
-        <v>801</v>
-      </c>
-      <c r="J47" t="s">
-        <v>802</v>
-      </c>
-      <c r="K47" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K48" t="s">
-        <v>157</v>
-      </c>
-      <c r="L48" t="s">
-        <v>804</v>
-      </c>
-      <c r="M48" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>137</v>
+      <c r="K50" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>139</v>
+        <v>1334</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>1213</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>1214</v>
       </c>
       <c r="H51" t="s">
-        <v>800</v>
+        <v>905</v>
       </c>
       <c r="I51" t="s">
-        <v>801</v>
+        <v>1335</v>
       </c>
       <c r="J51" t="s">
-        <v>802</v>
+        <v>173</v>
       </c>
       <c r="K51" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L51" t="s">
         <v>797</v>
       </c>
     </row>
@@ -26260,19 +27394,19 @@
         <v>1194</v>
       </c>
       <c r="F52" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G52" t="s">
         <v>1195</v>
       </c>
       <c r="H52" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I52" t="s">
         <v>1196</v>
       </c>
       <c r="J52" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="K52" t="s">
         <v>157</v>
@@ -26291,13 +27425,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>137</v>
@@ -26328,143 +27465,158 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>1194</v>
+        <v>1212</v>
       </c>
       <c r="F56" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
       <c r="G56" t="s">
-        <v>1195</v>
+        <v>240</v>
       </c>
       <c r="H56" t="s">
-        <v>1199</v>
+        <v>1336</v>
       </c>
       <c r="I56" t="s">
-        <v>1196</v>
+        <v>173</v>
       </c>
       <c r="J56" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K56" t="s">
-        <v>157</v>
-      </c>
-      <c r="L56" t="s">
-        <v>804</v>
-      </c>
-      <c r="M56" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>138</v>
+        <v>1212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G57" t="s">
+        <v>240</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I57" t="s">
+        <v>173</v>
+      </c>
+      <c r="J57" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>15</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K58" t="s">
+        <v>157</v>
+      </c>
+      <c r="L58" t="s">
+        <v>804</v>
+      </c>
+      <c r="M58" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" t="s">
-        <v>800</v>
-      </c>
-      <c r="I59" t="s">
-        <v>801</v>
-      </c>
-      <c r="J59" t="s">
-        <v>802</v>
-      </c>
-      <c r="K59" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
       <c r="E60" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K60" t="s">
-        <v>157</v>
-      </c>
-      <c r="L60" t="s">
-        <v>804</v>
-      </c>
-      <c r="M60" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" t="s">
+        <v>800</v>
+      </c>
+      <c r="I61" t="s">
+        <v>801</v>
+      </c>
+      <c r="J61" t="s">
+        <v>802</v>
+      </c>
+      <c r="K61" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>1334</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G62" t="s">
+        <v>240</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I62" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K62" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>139</v>
+        <v>1212</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>1338</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="H63" t="s">
-        <v>800</v>
+        <v>1335</v>
       </c>
       <c r="I63" t="s">
-        <v>801</v>
+        <v>173</v>
       </c>
       <c r="J63" t="s">
-        <v>802</v>
-      </c>
-      <c r="K63" t="s">
         <v>797</v>
       </c>
     </row>
@@ -26473,19 +27625,19 @@
         <v>1194</v>
       </c>
       <c r="F64" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G64" t="s">
         <v>1195</v>
       </c>
       <c r="H64" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I64" t="s">
         <v>1196</v>
       </c>
       <c r="J64" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="K64" t="s">
         <v>157</v>
@@ -26497,26 +27649,29 @@
         <v>797</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>139</v>
       </c>
@@ -26539,413 +27694,455 @@
         <v>797</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G68" t="s">
+        <v>407</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J68" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G69" t="s">
+        <v>905</v>
+      </c>
+      <c r="H69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J69" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F70" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J70" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
         <v>1194</v>
       </c>
-      <c r="F68" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F71" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G71" t="s">
         <v>1195</v>
       </c>
-      <c r="H68" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H71" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I71" t="s">
         <v>1196</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J71" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K71" t="s">
+        <v>157</v>
+      </c>
+      <c r="L71" t="s">
+        <v>804</v>
+      </c>
+      <c r="M71" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G74" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" t="s">
+        <v>800</v>
+      </c>
+      <c r="I74" t="s">
+        <v>801</v>
+      </c>
+      <c r="J74" t="s">
+        <v>802</v>
+      </c>
+      <c r="K74" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G75" t="s">
+        <v>407</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J75" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H76" t="s">
+        <v>905</v>
+      </c>
+      <c r="I76" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K76" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J77" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F78" t="s">
         <v>1198</v>
       </c>
-      <c r="K68" t="s">
-        <v>157</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="G78" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K78" t="s">
+        <v>157</v>
+      </c>
+      <c r="L78" t="s">
         <v>804</v>
       </c>
-      <c r="M68" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
+      <c r="M78" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="R80" t="s">
         <v>18</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" t="s">
+        <v>800</v>
+      </c>
+      <c r="I81" t="s">
+        <v>801</v>
+      </c>
+      <c r="J81" t="s">
+        <v>802</v>
+      </c>
+      <c r="K81" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="s">
+        <v>940</v>
+      </c>
+      <c r="G82" t="s">
+        <v>240</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I82" t="s">
+        <v>157</v>
+      </c>
+      <c r="J82" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K83" t="s">
+        <v>264</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M83" t="s">
+        <v>157</v>
+      </c>
+      <c r="N83" t="s">
+        <v>804</v>
+      </c>
+      <c r="O83" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D70">
+      <c r="D85">
         <v>3</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E85" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
         <v>139</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F86" t="s">
         <v>141</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G86" t="s">
         <v>142</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H86" t="s">
         <v>800</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I86" t="s">
         <v>801</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J86" t="s">
         <v>802</v>
       </c>
-      <c r="K71" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I72" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J72" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K72" t="s">
-        <v>157</v>
-      </c>
-      <c r="L72" t="s">
-        <v>804</v>
-      </c>
-      <c r="M72" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>19</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" t="s">
-        <v>800</v>
-      </c>
-      <c r="I75" t="s">
-        <v>801</v>
-      </c>
-      <c r="J75" t="s">
-        <v>802</v>
-      </c>
-      <c r="K75" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I76" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K76" t="s">
-        <v>157</v>
-      </c>
-      <c r="L76" t="s">
-        <v>804</v>
-      </c>
-      <c r="M76" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F79" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" t="s">
-        <v>142</v>
-      </c>
-      <c r="H79" t="s">
-        <v>800</v>
-      </c>
-      <c r="I79" t="s">
-        <v>801</v>
-      </c>
-      <c r="J79" t="s">
-        <v>802</v>
-      </c>
-      <c r="K79" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I80" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K80" t="s">
-        <v>157</v>
-      </c>
-      <c r="L80" t="s">
-        <v>804</v>
-      </c>
-      <c r="M80" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>21</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" t="s">
-        <v>800</v>
-      </c>
-      <c r="I83" t="s">
-        <v>801</v>
-      </c>
-      <c r="J83" t="s">
-        <v>802</v>
-      </c>
-      <c r="K83" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I84" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K84" t="s">
-        <v>157</v>
-      </c>
-      <c r="L84" t="s">
-        <v>804</v>
-      </c>
-      <c r="M84" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F87" t="s">
-        <v>141</v>
+        <v>940</v>
       </c>
       <c r="G87" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="H87" t="s">
-        <v>800</v>
+        <v>1355</v>
       </c>
       <c r="I87" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J87" t="s">
-        <v>802</v>
-      </c>
-      <c r="K87" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>1194</v>
       </c>
       <c r="F88" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G88" t="s">
         <v>1195</v>
       </c>
       <c r="H88" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I88" t="s">
         <v>1196</v>
       </c>
       <c r="J88" t="s">
-        <v>1198</v>
+        <v>1356</v>
       </c>
       <c r="K88" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="L88" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M88" t="s">
+        <v>157</v>
+      </c>
+      <c r="N88" t="s">
         <v>804</v>
       </c>
-      <c r="M88" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>139</v>
       </c>
@@ -26968,2238 +28165,2628 @@
         <v>797</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G92" t="s">
+        <v>240</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>157</v>
+      </c>
+      <c r="J92" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
         <v>1194</v>
       </c>
-      <c r="F92" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F93" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G93" t="s">
         <v>1195</v>
       </c>
-      <c r="H92" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="H93" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I93" t="s">
         <v>1196</v>
       </c>
-      <c r="J92" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K92" t="s">
-        <v>157</v>
-      </c>
-      <c r="L92" t="s">
+      <c r="J93" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K93" t="s">
+        <v>264</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M93" t="s">
+        <v>264</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O93" t="s">
+        <v>157</v>
+      </c>
+      <c r="P93" t="s">
         <v>804</v>
       </c>
-      <c r="M92" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
+      <c r="Q93" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>24</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>19</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
         <v>7</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
         <v>139</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>141</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>142</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>800</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>801</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J96" t="s">
         <v>802</v>
       </c>
-      <c r="K95" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1199</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I96" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1198</v>
-      </c>
       <c r="K96" t="s">
-        <v>157</v>
-      </c>
-      <c r="L96" t="s">
-        <v>804</v>
-      </c>
-      <c r="M96" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K97" t="s">
+        <v>157</v>
+      </c>
+      <c r="L97" t="s">
+        <v>804</v>
+      </c>
+      <c r="M97" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>25</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
         <v>7</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E99" t="s">
-        <v>139</v>
-      </c>
-      <c r="F99" t="s">
-        <v>141</v>
-      </c>
-      <c r="G99" t="s">
-        <v>142</v>
-      </c>
-      <c r="H99" t="s">
-        <v>800</v>
-      </c>
-      <c r="I99" t="s">
-        <v>801</v>
-      </c>
-      <c r="J99" t="s">
-        <v>802</v>
-      </c>
-      <c r="K99" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F100" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G100" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H100" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I100" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J100" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K100" t="s">
-        <v>157</v>
-      </c>
-      <c r="L100" t="s">
-        <v>804</v>
-      </c>
-      <c r="M100" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K101" t="s">
+        <v>157</v>
+      </c>
+      <c r="L101" t="s">
+        <v>804</v>
+      </c>
+      <c r="M101" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>26</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
         <v>7</v>
       </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E103" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" t="s">
-        <v>141</v>
-      </c>
-      <c r="G103" t="s">
-        <v>142</v>
-      </c>
-      <c r="H103" t="s">
-        <v>800</v>
-      </c>
-      <c r="I103" t="s">
-        <v>801</v>
-      </c>
-      <c r="J103" t="s">
-        <v>802</v>
-      </c>
-      <c r="K103" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F104" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G104" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H104" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I104" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J104" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K104" t="s">
-        <v>157</v>
-      </c>
-      <c r="L104" t="s">
-        <v>804</v>
-      </c>
-      <c r="M104" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K105" t="s">
+        <v>157</v>
+      </c>
+      <c r="L105" t="s">
+        <v>804</v>
+      </c>
+      <c r="M105" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>27</v>
-      </c>
-      <c r="C106" t="s">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
         <v>7</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" t="s">
-        <v>141</v>
-      </c>
-      <c r="G107" t="s">
-        <v>142</v>
-      </c>
-      <c r="H107" t="s">
-        <v>800</v>
-      </c>
-      <c r="I107" t="s">
-        <v>801</v>
-      </c>
-      <c r="J107" t="s">
-        <v>802</v>
-      </c>
-      <c r="K107" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F108" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G108" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H108" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I108" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J108" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K108" t="s">
-        <v>157</v>
-      </c>
-      <c r="L108" t="s">
-        <v>804</v>
-      </c>
-      <c r="M108" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K109" t="s">
+        <v>157</v>
+      </c>
+      <c r="L109" t="s">
+        <v>804</v>
+      </c>
+      <c r="M109" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>28</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
         <v>7</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E111" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" t="s">
-        <v>141</v>
-      </c>
-      <c r="G111" t="s">
-        <v>142</v>
-      </c>
-      <c r="H111" t="s">
-        <v>800</v>
-      </c>
-      <c r="I111" t="s">
-        <v>801</v>
-      </c>
-      <c r="J111" t="s">
-        <v>802</v>
-      </c>
-      <c r="K111" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F112" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G112" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H112" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I112" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J112" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K112" t="s">
-        <v>157</v>
-      </c>
-      <c r="L112" t="s">
-        <v>804</v>
-      </c>
-      <c r="M112" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K113" t="s">
+        <v>157</v>
+      </c>
+      <c r="L113" t="s">
+        <v>804</v>
+      </c>
+      <c r="M113" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>29</v>
-      </c>
-      <c r="C114" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
-        <v>139</v>
-      </c>
-      <c r="F115" t="s">
-        <v>141</v>
-      </c>
-      <c r="G115" t="s">
-        <v>142</v>
-      </c>
-      <c r="H115" t="s">
-        <v>800</v>
-      </c>
-      <c r="I115" t="s">
-        <v>801</v>
-      </c>
-      <c r="J115" t="s">
-        <v>802</v>
-      </c>
-      <c r="K115" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F116" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G116" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H116" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I116" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J116" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K116" t="s">
-        <v>157</v>
-      </c>
-      <c r="L116" t="s">
-        <v>804</v>
-      </c>
-      <c r="M116" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K117" t="s">
+        <v>157</v>
+      </c>
+      <c r="L117" t="s">
+        <v>804</v>
+      </c>
+      <c r="M117" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>30</v>
-      </c>
-      <c r="C118" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
         <v>7</v>
       </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
-      <c r="H119" t="s">
-        <v>800</v>
-      </c>
-      <c r="I119" t="s">
-        <v>801</v>
-      </c>
-      <c r="J119" t="s">
-        <v>802</v>
-      </c>
-      <c r="K119" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F120" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G120" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H120" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I120" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J120" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K120" t="s">
-        <v>157</v>
-      </c>
-      <c r="L120" t="s">
-        <v>804</v>
-      </c>
-      <c r="M120" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K121" t="s">
+        <v>157</v>
+      </c>
+      <c r="L121" t="s">
+        <v>804</v>
+      </c>
+      <c r="M121" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>31</v>
-      </c>
-      <c r="C122" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>26</v>
+      </c>
+      <c r="C123" t="s">
         <v>7</v>
       </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E123" t="s">
-        <v>139</v>
-      </c>
-      <c r="F123" t="s">
-        <v>141</v>
-      </c>
-      <c r="G123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H123" t="s">
-        <v>800</v>
-      </c>
-      <c r="I123" t="s">
-        <v>801</v>
-      </c>
-      <c r="J123" t="s">
-        <v>802</v>
-      </c>
-      <c r="K123" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F124" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G124" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H124" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I124" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J124" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K124" t="s">
-        <v>157</v>
-      </c>
-      <c r="L124" t="s">
-        <v>804</v>
-      </c>
-      <c r="M124" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K125" t="s">
+        <v>157</v>
+      </c>
+      <c r="L125" t="s">
+        <v>804</v>
+      </c>
+      <c r="M125" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>32</v>
-      </c>
-      <c r="C126" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>27</v>
+      </c>
+      <c r="C127" t="s">
         <v>7</v>
       </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" t="s">
-        <v>142</v>
-      </c>
-      <c r="H127" t="s">
-        <v>800</v>
-      </c>
-      <c r="I127" t="s">
-        <v>801</v>
-      </c>
-      <c r="J127" t="s">
-        <v>802</v>
-      </c>
-      <c r="K127" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F128" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H128" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I128" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J128" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K128" t="s">
-        <v>157</v>
-      </c>
-      <c r="L128" t="s">
-        <v>804</v>
-      </c>
-      <c r="M128" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K129" t="s">
+        <v>157</v>
+      </c>
+      <c r="L129" t="s">
+        <v>804</v>
+      </c>
+      <c r="M129" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>33</v>
-      </c>
-      <c r="C130" t="s">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
         <v>7</v>
       </c>
-      <c r="D130">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
-        <v>139</v>
-      </c>
-      <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s">
-        <v>142</v>
-      </c>
-      <c r="H131" t="s">
-        <v>800</v>
-      </c>
-      <c r="I131" t="s">
-        <v>801</v>
-      </c>
-      <c r="J131" t="s">
-        <v>802</v>
-      </c>
-      <c r="K131" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F132" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G132" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H132" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I132" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J132" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K132" t="s">
-        <v>157</v>
-      </c>
-      <c r="L132" t="s">
-        <v>804</v>
-      </c>
-      <c r="M132" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K133" t="s">
+        <v>157</v>
+      </c>
+      <c r="L133" t="s">
+        <v>804</v>
+      </c>
+      <c r="M133" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>34</v>
-      </c>
-      <c r="C134" t="s">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>29</v>
+      </c>
+      <c r="C135" t="s">
         <v>7</v>
       </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
-        <v>139</v>
-      </c>
-      <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s">
-        <v>142</v>
-      </c>
-      <c r="H135" t="s">
-        <v>800</v>
-      </c>
-      <c r="I135" t="s">
-        <v>801</v>
-      </c>
-      <c r="J135" t="s">
-        <v>802</v>
-      </c>
-      <c r="K135" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F136" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G136" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H136" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I136" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J136" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K136" t="s">
-        <v>157</v>
-      </c>
-      <c r="L136" t="s">
-        <v>804</v>
-      </c>
-      <c r="M136" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K137" t="s">
+        <v>157</v>
+      </c>
+      <c r="L137" t="s">
+        <v>804</v>
+      </c>
+      <c r="M137" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>35</v>
-      </c>
-      <c r="C138" t="s">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
         <v>7</v>
       </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" t="s">
-        <v>142</v>
-      </c>
-      <c r="H139" t="s">
-        <v>800</v>
-      </c>
-      <c r="I139" t="s">
-        <v>801</v>
-      </c>
-      <c r="J139" t="s">
-        <v>802</v>
-      </c>
-      <c r="K139" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F140" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G140" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H140" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I140" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J140" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K140" t="s">
-        <v>157</v>
-      </c>
-      <c r="L140" t="s">
-        <v>804</v>
-      </c>
-      <c r="M140" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K141" t="s">
+        <v>157</v>
+      </c>
+      <c r="L141" t="s">
+        <v>804</v>
+      </c>
+      <c r="M141" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>36</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
         <v>7</v>
       </c>
-      <c r="D142">
+      <c r="D143">
         <v>3</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E143" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G143" t="s">
-        <v>142</v>
-      </c>
-      <c r="H143" t="s">
-        <v>800</v>
-      </c>
-      <c r="I143" t="s">
-        <v>801</v>
-      </c>
-      <c r="J143" t="s">
-        <v>802</v>
-      </c>
-      <c r="K143" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F144" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G144" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H144" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I144" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J144" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K144" t="s">
-        <v>157</v>
-      </c>
-      <c r="L144" t="s">
-        <v>804</v>
-      </c>
-      <c r="M144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K145" t="s">
+        <v>157</v>
+      </c>
+      <c r="L145" t="s">
+        <v>804</v>
+      </c>
+      <c r="M145" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>37</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>139</v>
-      </c>
-      <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="G147" t="s">
-        <v>142</v>
-      </c>
-      <c r="H147" t="s">
-        <v>800</v>
-      </c>
-      <c r="I147" t="s">
-        <v>801</v>
-      </c>
-      <c r="J147" t="s">
-        <v>802</v>
-      </c>
-      <c r="K147" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F148" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G148" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H148" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I148" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J148" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K148" t="s">
-        <v>157</v>
-      </c>
-      <c r="L148" t="s">
-        <v>804</v>
-      </c>
-      <c r="M148" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K149" t="s">
+        <v>157</v>
+      </c>
+      <c r="L149" t="s">
+        <v>804</v>
+      </c>
+      <c r="M149" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>38</v>
-      </c>
-      <c r="C150" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150" t="s">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>139</v>
-      </c>
-      <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="G151" t="s">
-        <v>142</v>
-      </c>
-      <c r="H151" t="s">
-        <v>800</v>
-      </c>
-      <c r="I151" t="s">
-        <v>801</v>
-      </c>
-      <c r="J151" t="s">
-        <v>802</v>
-      </c>
-      <c r="K151" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F152" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G152" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H152" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I152" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J152" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K152" t="s">
-        <v>157</v>
-      </c>
-      <c r="L152" t="s">
-        <v>804</v>
-      </c>
-      <c r="M152" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K153" t="s">
+        <v>157</v>
+      </c>
+      <c r="L153" t="s">
+        <v>804</v>
+      </c>
+      <c r="M153" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>39</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>34</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>139</v>
-      </c>
-      <c r="F155" t="s">
-        <v>141</v>
-      </c>
-      <c r="G155" t="s">
-        <v>142</v>
-      </c>
-      <c r="H155" t="s">
-        <v>800</v>
-      </c>
-      <c r="I155" t="s">
-        <v>801</v>
-      </c>
-      <c r="J155" t="s">
-        <v>802</v>
-      </c>
-      <c r="K155" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F156" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G156" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H156" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I156" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J156" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K156" t="s">
-        <v>157</v>
-      </c>
-      <c r="L156" t="s">
-        <v>804</v>
-      </c>
-      <c r="M156" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K157" t="s">
+        <v>157</v>
+      </c>
+      <c r="L157" t="s">
+        <v>804</v>
+      </c>
+      <c r="M157" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>40</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158" t="s">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>35</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E159" t="s">
-        <v>139</v>
-      </c>
-      <c r="F159" t="s">
-        <v>141</v>
-      </c>
-      <c r="G159" t="s">
-        <v>142</v>
-      </c>
-      <c r="H159" t="s">
-        <v>800</v>
-      </c>
-      <c r="I159" t="s">
-        <v>801</v>
-      </c>
-      <c r="J159" t="s">
-        <v>802</v>
-      </c>
-      <c r="K159" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F160" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G160" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H160" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I160" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J160" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K160" t="s">
-        <v>157</v>
-      </c>
-      <c r="L160" t="s">
-        <v>804</v>
-      </c>
-      <c r="M160" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K161" t="s">
+        <v>157</v>
+      </c>
+      <c r="L161" t="s">
+        <v>804</v>
+      </c>
+      <c r="M161" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>41</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162" t="s">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>36</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
-        <v>139</v>
-      </c>
-      <c r="F163" t="s">
-        <v>141</v>
-      </c>
-      <c r="G163" t="s">
-        <v>142</v>
-      </c>
-      <c r="H163" t="s">
-        <v>800</v>
-      </c>
-      <c r="I163" t="s">
-        <v>801</v>
-      </c>
-      <c r="J163" t="s">
-        <v>802</v>
-      </c>
-      <c r="K163" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F164" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G164" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H164" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I164" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J164" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K164" t="s">
-        <v>157</v>
-      </c>
-      <c r="L164" t="s">
-        <v>804</v>
-      </c>
-      <c r="M164" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K165" t="s">
+        <v>157</v>
+      </c>
+      <c r="L165" t="s">
+        <v>804</v>
+      </c>
+      <c r="M165" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>42</v>
-      </c>
-      <c r="C166" t="s">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>37</v>
+      </c>
+      <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E167" t="s">
-        <v>139</v>
-      </c>
-      <c r="F167" t="s">
-        <v>141</v>
-      </c>
-      <c r="G167" t="s">
-        <v>142</v>
-      </c>
-      <c r="H167" t="s">
-        <v>800</v>
-      </c>
-      <c r="I167" t="s">
-        <v>801</v>
-      </c>
-      <c r="J167" t="s">
-        <v>802</v>
-      </c>
-      <c r="K167" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F168" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G168" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H168" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I168" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J168" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K168" t="s">
-        <v>157</v>
-      </c>
-      <c r="L168" t="s">
-        <v>804</v>
-      </c>
-      <c r="M168" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K169" t="s">
+        <v>157</v>
+      </c>
+      <c r="L169" t="s">
+        <v>804</v>
+      </c>
+      <c r="M169" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>43</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>38</v>
+      </c>
+      <c r="C171" t="s">
         <v>8</v>
       </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E171" t="s">
-        <v>139</v>
-      </c>
-      <c r="F171" t="s">
-        <v>141</v>
-      </c>
-      <c r="G171" t="s">
-        <v>142</v>
-      </c>
-      <c r="H171" t="s">
-        <v>800</v>
-      </c>
-      <c r="I171" t="s">
-        <v>801</v>
-      </c>
-      <c r="J171" t="s">
-        <v>802</v>
-      </c>
-      <c r="K171" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F172" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G172" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H172" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I172" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J172" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K172" t="s">
-        <v>157</v>
-      </c>
-      <c r="L172" t="s">
-        <v>804</v>
-      </c>
-      <c r="M172" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K173" t="s">
+        <v>157</v>
+      </c>
+      <c r="L173" t="s">
+        <v>804</v>
+      </c>
+      <c r="M173" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>44</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>39</v>
+      </c>
+      <c r="C175" t="s">
         <v>8</v>
       </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>139</v>
-      </c>
-      <c r="F175" t="s">
-        <v>141</v>
-      </c>
-      <c r="G175" t="s">
-        <v>142</v>
-      </c>
-      <c r="H175" t="s">
-        <v>800</v>
-      </c>
-      <c r="I175" t="s">
-        <v>801</v>
-      </c>
-      <c r="J175" t="s">
-        <v>802</v>
-      </c>
-      <c r="K175" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F176" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G176" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H176" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I176" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J176" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K176" t="s">
-        <v>157</v>
-      </c>
-      <c r="L176" t="s">
-        <v>804</v>
-      </c>
-      <c r="M176" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K177" t="s">
+        <v>157</v>
+      </c>
+      <c r="L177" t="s">
+        <v>804</v>
+      </c>
+      <c r="M177" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>45</v>
-      </c>
-      <c r="C178" t="s">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>40</v>
+      </c>
+      <c r="C179" t="s">
         <v>8</v>
       </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E179" t="s">
-        <v>139</v>
-      </c>
-      <c r="F179" t="s">
-        <v>141</v>
-      </c>
-      <c r="G179" t="s">
-        <v>142</v>
-      </c>
-      <c r="H179" t="s">
-        <v>800</v>
-      </c>
-      <c r="I179" t="s">
-        <v>801</v>
-      </c>
-      <c r="J179" t="s">
-        <v>802</v>
-      </c>
-      <c r="K179" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F180" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G180" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H180" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I180" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J180" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K180" t="s">
-        <v>157</v>
-      </c>
-      <c r="L180" t="s">
-        <v>804</v>
-      </c>
-      <c r="M180" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K181" t="s">
+        <v>157</v>
+      </c>
+      <c r="L181" t="s">
+        <v>804</v>
+      </c>
+      <c r="M181" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>46</v>
-      </c>
-      <c r="C182" t="s">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>41</v>
+      </c>
+      <c r="C183" t="s">
         <v>8</v>
       </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E183" t="s">
-        <v>139</v>
-      </c>
-      <c r="F183" t="s">
-        <v>141</v>
-      </c>
-      <c r="G183" t="s">
-        <v>142</v>
-      </c>
-      <c r="H183" t="s">
-        <v>800</v>
-      </c>
-      <c r="I183" t="s">
-        <v>801</v>
-      </c>
-      <c r="J183" t="s">
-        <v>802</v>
-      </c>
-      <c r="K183" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F184" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G184" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H184" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I184" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J184" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K184" t="s">
-        <v>157</v>
-      </c>
-      <c r="L184" t="s">
-        <v>804</v>
-      </c>
-      <c r="M184" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K185" t="s">
+        <v>157</v>
+      </c>
+      <c r="L185" t="s">
+        <v>804</v>
+      </c>
+      <c r="M185" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>47</v>
-      </c>
-      <c r="C186" t="s">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>42</v>
+      </c>
+      <c r="C187" t="s">
         <v>8</v>
       </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
-        <v>139</v>
-      </c>
-      <c r="F187" t="s">
-        <v>141</v>
-      </c>
-      <c r="G187" t="s">
-        <v>142</v>
-      </c>
-      <c r="H187" t="s">
-        <v>800</v>
-      </c>
-      <c r="I187" t="s">
-        <v>801</v>
-      </c>
-      <c r="J187" t="s">
-        <v>802</v>
-      </c>
-      <c r="K187" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F188" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G188" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H188" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I188" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J188" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K188" t="s">
-        <v>157</v>
-      </c>
-      <c r="L188" t="s">
-        <v>804</v>
-      </c>
-      <c r="M188" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K189" t="s">
+        <v>157</v>
+      </c>
+      <c r="L189" t="s">
+        <v>804</v>
+      </c>
+      <c r="M189" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>48</v>
-      </c>
-      <c r="C190" t="s">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>43</v>
+      </c>
+      <c r="C191" t="s">
         <v>8</v>
       </c>
-      <c r="D190">
-        <v>2</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E191" t="s">
-        <v>139</v>
-      </c>
-      <c r="F191" t="s">
-        <v>141</v>
-      </c>
-      <c r="G191" t="s">
-        <v>142</v>
-      </c>
-      <c r="H191" t="s">
-        <v>800</v>
-      </c>
-      <c r="I191" t="s">
-        <v>801</v>
-      </c>
-      <c r="J191" t="s">
-        <v>802</v>
-      </c>
-      <c r="K191" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F192" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G192" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H192" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I192" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J192" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K192" t="s">
-        <v>157</v>
-      </c>
-      <c r="L192" t="s">
-        <v>804</v>
-      </c>
-      <c r="M192" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K193" t="s">
+        <v>157</v>
+      </c>
+      <c r="L193" t="s">
+        <v>804</v>
+      </c>
+      <c r="M193" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>49</v>
-      </c>
-      <c r="C194" t="s">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>44</v>
+      </c>
+      <c r="C195" t="s">
         <v>8</v>
       </c>
-      <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E195" t="s">
-        <v>139</v>
-      </c>
-      <c r="F195" t="s">
-        <v>141</v>
-      </c>
-      <c r="G195" t="s">
-        <v>142</v>
-      </c>
-      <c r="H195" t="s">
-        <v>800</v>
-      </c>
-      <c r="I195" t="s">
-        <v>801</v>
-      </c>
-      <c r="J195" t="s">
-        <v>802</v>
-      </c>
-      <c r="K195" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F196" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G196" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H196" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I196" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J196" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K196" t="s">
-        <v>157</v>
-      </c>
-      <c r="L196" t="s">
-        <v>804</v>
-      </c>
-      <c r="M196" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K197" t="s">
+        <v>157</v>
+      </c>
+      <c r="L197" t="s">
+        <v>804</v>
+      </c>
+      <c r="M197" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>50</v>
-      </c>
-      <c r="C198" t="s">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>45</v>
+      </c>
+      <c r="C199" t="s">
         <v>8</v>
       </c>
-      <c r="D198">
-        <v>3</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>139</v>
-      </c>
-      <c r="F199" t="s">
-        <v>141</v>
-      </c>
-      <c r="G199" t="s">
-        <v>142</v>
-      </c>
-      <c r="H199" t="s">
-        <v>800</v>
-      </c>
-      <c r="I199" t="s">
-        <v>801</v>
-      </c>
-      <c r="J199" t="s">
-        <v>802</v>
-      </c>
-      <c r="K199" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F200" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G200" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H200" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I200" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J200" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K200" t="s">
-        <v>157</v>
-      </c>
-      <c r="L200" t="s">
-        <v>804</v>
-      </c>
-      <c r="M200" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K201" t="s">
+        <v>157</v>
+      </c>
+      <c r="L201" t="s">
+        <v>804</v>
+      </c>
+      <c r="M201" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>51</v>
-      </c>
-      <c r="C202" t="s">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>46</v>
+      </c>
+      <c r="C203" t="s">
         <v>8</v>
       </c>
-      <c r="D202">
-        <v>3</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E203" t="s">
-        <v>139</v>
-      </c>
-      <c r="F203" t="s">
-        <v>141</v>
-      </c>
-      <c r="G203" t="s">
-        <v>142</v>
-      </c>
-      <c r="H203" t="s">
-        <v>800</v>
-      </c>
-      <c r="I203" t="s">
-        <v>801</v>
-      </c>
-      <c r="J203" t="s">
-        <v>802</v>
-      </c>
-      <c r="K203" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F204" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G204" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H204" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I204" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J204" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K204" t="s">
-        <v>157</v>
-      </c>
-      <c r="L204" t="s">
-        <v>804</v>
-      </c>
-      <c r="M204" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K205" t="s">
+        <v>157</v>
+      </c>
+      <c r="L205" t="s">
+        <v>804</v>
+      </c>
+      <c r="M205" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>52</v>
-      </c>
-      <c r="C206" t="s">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s">
         <v>8</v>
       </c>
-      <c r="D206">
-        <v>3</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E207" t="s">
-        <v>139</v>
-      </c>
-      <c r="F207" t="s">
-        <v>141</v>
-      </c>
-      <c r="G207" t="s">
-        <v>142</v>
-      </c>
-      <c r="H207" t="s">
-        <v>800</v>
-      </c>
-      <c r="I207" t="s">
-        <v>801</v>
-      </c>
-      <c r="J207" t="s">
-        <v>802</v>
-      </c>
-      <c r="K207" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F208" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G208" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H208" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I208" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J208" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K208" t="s">
-        <v>157</v>
-      </c>
-      <c r="L208" t="s">
-        <v>804</v>
-      </c>
-      <c r="M208" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K209" t="s">
+        <v>157</v>
+      </c>
+      <c r="L209" t="s">
+        <v>804</v>
+      </c>
+      <c r="M209" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>53</v>
-      </c>
-      <c r="C210" t="s">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>48</v>
+      </c>
+      <c r="C211" t="s">
         <v>8</v>
       </c>
-      <c r="D210">
-        <v>3</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E211" t="s">
-        <v>139</v>
-      </c>
-      <c r="F211" t="s">
-        <v>141</v>
-      </c>
-      <c r="G211" t="s">
-        <v>142</v>
-      </c>
-      <c r="H211" t="s">
-        <v>800</v>
-      </c>
-      <c r="I211" t="s">
-        <v>801</v>
-      </c>
-      <c r="J211" t="s">
-        <v>802</v>
-      </c>
-      <c r="K211" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F212" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G212" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H212" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I212" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J212" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K212" t="s">
-        <v>157</v>
-      </c>
-      <c r="L212" t="s">
-        <v>804</v>
-      </c>
-      <c r="M212" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K213" t="s">
+        <v>157</v>
+      </c>
+      <c r="L213" t="s">
+        <v>804</v>
+      </c>
+      <c r="M213" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>54</v>
-      </c>
-      <c r="C214" t="s">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>49</v>
+      </c>
+      <c r="C215" t="s">
         <v>8</v>
       </c>
-      <c r="D214">
+      <c r="D215">
         <v>3</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E215" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E215" t="s">
-        <v>139</v>
-      </c>
-      <c r="F215" t="s">
-        <v>141</v>
-      </c>
-      <c r="G215" t="s">
-        <v>142</v>
-      </c>
-      <c r="H215" t="s">
-        <v>800</v>
-      </c>
-      <c r="I215" t="s">
-        <v>801</v>
-      </c>
-      <c r="J215" t="s">
-        <v>802</v>
-      </c>
-      <c r="K215" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F216" t="s">
-        <v>1199</v>
+        <v>141</v>
       </c>
       <c r="G216" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H216" t="s">
-        <v>1199</v>
+        <v>800</v>
       </c>
       <c r="I216" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J216" t="s">
-        <v>1198</v>
+        <v>802</v>
       </c>
       <c r="K216" t="s">
-        <v>157</v>
-      </c>
-      <c r="L216" t="s">
-        <v>804</v>
-      </c>
-      <c r="M216" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K217" t="s">
+        <v>157</v>
+      </c>
+      <c r="L217" t="s">
+        <v>804</v>
+      </c>
+      <c r="M217" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>50</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>139</v>
+      </c>
+      <c r="F220" t="s">
+        <v>141</v>
+      </c>
+      <c r="G220" t="s">
+        <v>142</v>
+      </c>
+      <c r="H220" t="s">
+        <v>800</v>
+      </c>
+      <c r="I220" t="s">
+        <v>801</v>
+      </c>
+      <c r="J220" t="s">
+        <v>802</v>
+      </c>
+      <c r="K220" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J221" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K221" t="s">
+        <v>157</v>
+      </c>
+      <c r="L221" t="s">
+        <v>804</v>
+      </c>
+      <c r="M221" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>51</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="E223" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>139</v>
+      </c>
+      <c r="F224" t="s">
+        <v>141</v>
+      </c>
+      <c r="G224" t="s">
+        <v>142</v>
+      </c>
+      <c r="H224" t="s">
+        <v>800</v>
+      </c>
+      <c r="I224" t="s">
+        <v>801</v>
+      </c>
+      <c r="J224" t="s">
+        <v>802</v>
+      </c>
+      <c r="K224" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K225" t="s">
+        <v>157</v>
+      </c>
+      <c r="L225" t="s">
+        <v>804</v>
+      </c>
+      <c r="M225" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>52</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>139</v>
+      </c>
+      <c r="F228" t="s">
+        <v>141</v>
+      </c>
+      <c r="G228" t="s">
+        <v>142</v>
+      </c>
+      <c r="H228" t="s">
+        <v>800</v>
+      </c>
+      <c r="I228" t="s">
+        <v>801</v>
+      </c>
+      <c r="J228" t="s">
+        <v>802</v>
+      </c>
+      <c r="K228" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J229" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K229" t="s">
+        <v>157</v>
+      </c>
+      <c r="L229" t="s">
+        <v>804</v>
+      </c>
+      <c r="M229" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>53</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>139</v>
+      </c>
+      <c r="F232" t="s">
+        <v>141</v>
+      </c>
+      <c r="G232" t="s">
+        <v>142</v>
+      </c>
+      <c r="H232" t="s">
+        <v>800</v>
+      </c>
+      <c r="I232" t="s">
+        <v>801</v>
+      </c>
+      <c r="J232" t="s">
+        <v>802</v>
+      </c>
+      <c r="K232" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J233" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K233" t="s">
+        <v>157</v>
+      </c>
+      <c r="L233" t="s">
+        <v>804</v>
+      </c>
+      <c r="M233" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>54</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>139</v>
+      </c>
+      <c r="F236" t="s">
+        <v>141</v>
+      </c>
+      <c r="G236" t="s">
+        <v>142</v>
+      </c>
+      <c r="H236" t="s">
+        <v>800</v>
+      </c>
+      <c r="I236" t="s">
+        <v>801</v>
+      </c>
+      <c r="J236" t="s">
+        <v>802</v>
+      </c>
+      <c r="K236" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K237" t="s">
+        <v>157</v>
+      </c>
+      <c r="L237" t="s">
+        <v>804</v>
+      </c>
+      <c r="M237" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
         <v>138</v>
       </c>
     </row>
@@ -29212,7 +30799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -29271,7 +30858,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -31507,9 +33094,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31659,26 +33249,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31702,9 +33281,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD0685-3E14-4CE4-BFE7-FD5D29A1943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607A386-36EE-459B-8B69-2A9BD49E3DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6696" uniqueCount="1363">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4827,7 +4827,13 @@
     <t>"st year student soon.")</t>
   </si>
   <si>
-    <t>// Will continue tom</t>
+    <t>Jedisaur</t>
+  </si>
+  <si>
+    <t>("I am "</t>
+  </si>
+  <si>
+    <t>" years old")</t>
   </si>
 </sst>
 </file>
@@ -26285,10 +26291,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:R238"/>
+  <dimension ref="A1:R241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="R93" sqref="R93"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27945,7 +27951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>139</v>
       </c>
@@ -27968,7 +27974,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>143</v>
       </c>
@@ -27988,7 +27994,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>1194</v>
       </c>
@@ -28023,12 +28029,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17</v>
       </c>
@@ -28042,7 +28048,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>139</v>
       </c>
@@ -28065,7 +28071,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>143</v>
       </c>
@@ -28085,7 +28091,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>1194</v>
       </c>
@@ -28120,12 +28126,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -28138,11 +28144,8 @@
       <c r="E90" t="s">
         <v>137</v>
       </c>
-      <c r="R90" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>139</v>
       </c>
@@ -28165,9 +28168,9 @@
         <v>797</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>1184</v>
+        <v>191</v>
       </c>
       <c r="F92" t="s">
         <v>1357</v>
@@ -28185,7 +28188,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>1194</v>
       </c>
@@ -28226,12 +28229,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
@@ -28248,7 +28251,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>139</v>
       </c>
@@ -28271,2522 +28274,2609 @@
         <v>797</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
+        <v>143</v>
+      </c>
+      <c r="F97" t="s">
+        <v>940</v>
+      </c>
+      <c r="G97" t="s">
+        <v>240</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I97" t="s">
+        <v>157</v>
+      </c>
+      <c r="J97" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G98" t="s">
+        <v>240</v>
+      </c>
+      <c r="H98">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>157</v>
+      </c>
+      <c r="J98" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
         <v>1194</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F99" t="s">
         <v>1198</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G99" t="s">
         <v>1195</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H99" t="s">
         <v>1198</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I99" t="s">
         <v>1196</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J99" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K99" t="s">
+        <v>264</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M99" t="s">
+        <v>157</v>
+      </c>
+      <c r="N99" t="s">
+        <v>804</v>
+      </c>
+      <c r="O99" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K100" t="s">
+        <v>264</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M100" t="s">
+        <v>264</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O100" t="s">
+        <v>157</v>
+      </c>
+      <c r="P100" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>141</v>
+      </c>
+      <c r="G103" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" t="s">
+        <v>800</v>
+      </c>
+      <c r="I103" t="s">
+        <v>801</v>
+      </c>
+      <c r="J103" t="s">
+        <v>802</v>
+      </c>
+      <c r="K103" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J104" t="s">
         <v>1197</v>
       </c>
-      <c r="K97" t="s">
-        <v>157</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="K104" t="s">
+        <v>157</v>
+      </c>
+      <c r="L104" t="s">
         <v>804</v>
       </c>
-      <c r="M97" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E98" t="s">
+      <c r="M104" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>20</v>
-      </c>
-      <c r="C99" t="s">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
         <v>7</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
         <v>139</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F107" t="s">
         <v>141</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G107" t="s">
         <v>142</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H107" t="s">
         <v>800</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I107" t="s">
         <v>801</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J107" t="s">
         <v>802</v>
       </c>
-      <c r="K100" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
+      <c r="K107" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
         <v>1194</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F108" t="s">
         <v>1198</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G108" t="s">
         <v>1195</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H108" t="s">
         <v>1198</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I108" t="s">
         <v>1196</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J108" t="s">
         <v>1197</v>
       </c>
-      <c r="K101" t="s">
-        <v>157</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="K108" t="s">
+        <v>157</v>
+      </c>
+      <c r="L108" t="s">
         <v>804</v>
       </c>
-      <c r="M101" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
+      <c r="M108" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>21</v>
-      </c>
-      <c r="C103" t="s">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
         <v>139</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F111" t="s">
         <v>141</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G111" t="s">
         <v>142</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H111" t="s">
         <v>800</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I111" t="s">
         <v>801</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J111" t="s">
         <v>802</v>
       </c>
-      <c r="K104" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
+      <c r="K111" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
         <v>1194</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F112" t="s">
         <v>1198</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G112" t="s">
         <v>1195</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H112" t="s">
         <v>1198</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I112" t="s">
         <v>1196</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J112" t="s">
         <v>1197</v>
       </c>
-      <c r="K105" t="s">
-        <v>157</v>
-      </c>
-      <c r="L105" t="s">
+      <c r="K112" t="s">
+        <v>157</v>
+      </c>
+      <c r="L112" t="s">
         <v>804</v>
       </c>
-      <c r="M105" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>22</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E108" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" t="s">
-        <v>141</v>
-      </c>
-      <c r="G108" t="s">
-        <v>142</v>
-      </c>
-      <c r="H108" t="s">
-        <v>800</v>
-      </c>
-      <c r="I108" t="s">
-        <v>801</v>
-      </c>
-      <c r="J108" t="s">
-        <v>802</v>
-      </c>
-      <c r="K108" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E109" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G109" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H109" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J109" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K109" t="s">
-        <v>157</v>
-      </c>
-      <c r="L109" t="s">
-        <v>804</v>
-      </c>
-      <c r="M109" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>23</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E112" t="s">
-        <v>139</v>
-      </c>
-      <c r="F112" t="s">
-        <v>141</v>
-      </c>
-      <c r="G112" t="s">
-        <v>142</v>
-      </c>
-      <c r="H112" t="s">
-        <v>800</v>
-      </c>
-      <c r="I112" t="s">
-        <v>801</v>
-      </c>
-      <c r="J112" t="s">
-        <v>802</v>
-      </c>
-      <c r="K112" t="s">
+      <c r="M112" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G113" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H113" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I113" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K113" t="s">
-        <v>157</v>
-      </c>
-      <c r="L113" t="s">
-        <v>804</v>
-      </c>
-      <c r="M113" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
       <c r="E114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>24</v>
-      </c>
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
       <c r="E115" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F115" t="s">
+        <v>141</v>
+      </c>
+      <c r="G115" t="s">
+        <v>142</v>
+      </c>
+      <c r="H115" t="s">
+        <v>800</v>
+      </c>
+      <c r="I115" t="s">
+        <v>801</v>
+      </c>
+      <c r="J115" t="s">
+        <v>802</v>
+      </c>
+      <c r="K115" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G116" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H116" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I116" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J116" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K116" t="s">
+        <v>157</v>
+      </c>
+      <c r="L116" t="s">
+        <v>804</v>
+      </c>
+      <c r="M116" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G117" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H117" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I117" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K117" t="s">
-        <v>157</v>
-      </c>
-      <c r="L117" t="s">
-        <v>804</v>
-      </c>
-      <c r="M117" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
       <c r="E118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>25</v>
-      </c>
-      <c r="C119" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
       <c r="E119" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" t="s">
+        <v>142</v>
+      </c>
+      <c r="H119" t="s">
+        <v>800</v>
+      </c>
+      <c r="I119" t="s">
+        <v>801</v>
+      </c>
+      <c r="J119" t="s">
+        <v>802</v>
+      </c>
+      <c r="K119" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F120" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G120" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H120" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I120" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J120" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K120" t="s">
+        <v>157</v>
+      </c>
+      <c r="L120" t="s">
+        <v>804</v>
+      </c>
+      <c r="M120" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H121" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I121" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K121" t="s">
-        <v>157</v>
-      </c>
-      <c r="L121" t="s">
-        <v>804</v>
-      </c>
-      <c r="M121" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
       <c r="E122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>26</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
       <c r="E123" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
+        <v>141</v>
+      </c>
+      <c r="G123" t="s">
+        <v>142</v>
+      </c>
+      <c r="H123" t="s">
+        <v>800</v>
+      </c>
+      <c r="I123" t="s">
+        <v>801</v>
+      </c>
+      <c r="J123" t="s">
+        <v>802</v>
+      </c>
+      <c r="K123" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G124" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H124" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I124" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J124" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K124" t="s">
+        <v>157</v>
+      </c>
+      <c r="L124" t="s">
+        <v>804</v>
+      </c>
+      <c r="M124" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F125" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G125" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I125" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K125" t="s">
-        <v>157</v>
-      </c>
-      <c r="L125" t="s">
-        <v>804</v>
-      </c>
-      <c r="M125" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
       <c r="E126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>27</v>
-      </c>
-      <c r="C127" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
       <c r="E127" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F127" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" t="s">
+        <v>142</v>
+      </c>
+      <c r="H127" t="s">
+        <v>800</v>
+      </c>
+      <c r="I127" t="s">
+        <v>801</v>
+      </c>
+      <c r="J127" t="s">
+        <v>802</v>
+      </c>
+      <c r="K127" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G128" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H128" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I128" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J128" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K128" t="s">
+        <v>157</v>
+      </c>
+      <c r="L128" t="s">
+        <v>804</v>
+      </c>
+      <c r="M128" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G129" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H129" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I129" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K129" t="s">
-        <v>157</v>
-      </c>
-      <c r="L129" t="s">
-        <v>804</v>
-      </c>
-      <c r="M129" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>27</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
       <c r="E130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>28</v>
-      </c>
-      <c r="C131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
       <c r="E131" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F131" t="s">
+        <v>141</v>
+      </c>
+      <c r="G131" t="s">
+        <v>142</v>
+      </c>
+      <c r="H131" t="s">
+        <v>800</v>
+      </c>
+      <c r="I131" t="s">
+        <v>801</v>
+      </c>
+      <c r="J131" t="s">
+        <v>802</v>
+      </c>
+      <c r="K131" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G132" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H132" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I132" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J132" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K132" t="s">
+        <v>157</v>
+      </c>
+      <c r="L132" t="s">
+        <v>804</v>
+      </c>
+      <c r="M132" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G133" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H133" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I133" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K133" t="s">
-        <v>157</v>
-      </c>
-      <c r="L133" t="s">
-        <v>804</v>
-      </c>
-      <c r="M133" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>28</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
       <c r="E134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>29</v>
-      </c>
-      <c r="C135" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
       <c r="E135" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F135" t="s">
+        <v>141</v>
+      </c>
+      <c r="G135" t="s">
+        <v>142</v>
+      </c>
+      <c r="H135" t="s">
+        <v>800</v>
+      </c>
+      <c r="I135" t="s">
+        <v>801</v>
+      </c>
+      <c r="J135" t="s">
+        <v>802</v>
+      </c>
+      <c r="K135" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F136" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G136" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H136" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I136" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J136" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K136" t="s">
+        <v>157</v>
+      </c>
+      <c r="L136" t="s">
+        <v>804</v>
+      </c>
+      <c r="M136" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I137" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K137" t="s">
-        <v>157</v>
-      </c>
-      <c r="L137" t="s">
-        <v>804</v>
-      </c>
-      <c r="M137" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
       <c r="E138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>30</v>
-      </c>
-      <c r="C139" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
       <c r="E139" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F139" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" t="s">
+        <v>142</v>
+      </c>
+      <c r="H139" t="s">
+        <v>800</v>
+      </c>
+      <c r="I139" t="s">
+        <v>801</v>
+      </c>
+      <c r="J139" t="s">
+        <v>802</v>
+      </c>
+      <c r="K139" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F140" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G140" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H140" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I140" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J140" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K140" t="s">
+        <v>157</v>
+      </c>
+      <c r="L140" t="s">
+        <v>804</v>
+      </c>
+      <c r="M140" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I141" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K141" t="s">
-        <v>157</v>
-      </c>
-      <c r="L141" t="s">
-        <v>804</v>
-      </c>
-      <c r="M141" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
       <c r="E142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>31</v>
-      </c>
-      <c r="C143" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143">
-        <v>3</v>
-      </c>
       <c r="E143" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F143" t="s">
+        <v>141</v>
+      </c>
+      <c r="G143" t="s">
+        <v>142</v>
+      </c>
+      <c r="H143" t="s">
+        <v>800</v>
+      </c>
+      <c r="I143" t="s">
+        <v>801</v>
+      </c>
+      <c r="J143" t="s">
+        <v>802</v>
+      </c>
+      <c r="K143" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F144" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G144" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H144" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I144" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J144" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K144" t="s">
+        <v>157</v>
+      </c>
+      <c r="L144" t="s">
+        <v>804</v>
+      </c>
+      <c r="M144" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I145" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K145" t="s">
-        <v>157</v>
-      </c>
-      <c r="L145" t="s">
-        <v>804</v>
-      </c>
-      <c r="M145" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
       <c r="E146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>32</v>
-      </c>
-      <c r="C147" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147">
-        <v>3</v>
-      </c>
       <c r="E147" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" t="s">
+        <v>142</v>
+      </c>
+      <c r="H147" t="s">
+        <v>800</v>
+      </c>
+      <c r="I147" t="s">
+        <v>801</v>
+      </c>
+      <c r="J147" t="s">
+        <v>802</v>
+      </c>
+      <c r="K147" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F148" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G148" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H148" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I148" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J148" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K148" t="s">
+        <v>157</v>
+      </c>
+      <c r="L148" t="s">
+        <v>804</v>
+      </c>
+      <c r="M148" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H149" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I149" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K149" t="s">
-        <v>157</v>
-      </c>
-      <c r="L149" t="s">
-        <v>804</v>
-      </c>
-      <c r="M149" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>32</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
       <c r="E150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>33</v>
-      </c>
-      <c r="C151" t="s">
-        <v>7</v>
-      </c>
-      <c r="D151">
-        <v>3</v>
-      </c>
       <c r="E151" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+      <c r="G151" t="s">
+        <v>142</v>
+      </c>
+      <c r="H151" t="s">
+        <v>800</v>
+      </c>
+      <c r="I151" t="s">
+        <v>801</v>
+      </c>
+      <c r="J151" t="s">
+        <v>802</v>
+      </c>
+      <c r="K151" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F152" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G152" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H152" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I152" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J152" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K152" t="s">
+        <v>157</v>
+      </c>
+      <c r="L152" t="s">
+        <v>804</v>
+      </c>
+      <c r="M152" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H153" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I153" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K153" t="s">
-        <v>157</v>
-      </c>
-      <c r="L153" t="s">
-        <v>804</v>
-      </c>
-      <c r="M153" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
       <c r="E154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>34</v>
-      </c>
-      <c r="C155" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155">
-        <v>3</v>
-      </c>
       <c r="E155" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F155" t="s">
+        <v>141</v>
+      </c>
+      <c r="G155" t="s">
+        <v>142</v>
+      </c>
+      <c r="H155" t="s">
+        <v>800</v>
+      </c>
+      <c r="I155" t="s">
+        <v>801</v>
+      </c>
+      <c r="J155" t="s">
+        <v>802</v>
+      </c>
+      <c r="K155" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F156" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G156" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H156" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I156" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J156" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K156" t="s">
+        <v>157</v>
+      </c>
+      <c r="L156" t="s">
+        <v>804</v>
+      </c>
+      <c r="M156" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G157" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H157" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I157" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J157" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K157" t="s">
-        <v>157</v>
-      </c>
-      <c r="L157" t="s">
-        <v>804</v>
-      </c>
-      <c r="M157" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>34</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
       <c r="E158" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>35</v>
-      </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159">
-        <v>3</v>
-      </c>
       <c r="E159" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F159" t="s">
+        <v>141</v>
+      </c>
+      <c r="G159" t="s">
+        <v>142</v>
+      </c>
+      <c r="H159" t="s">
+        <v>800</v>
+      </c>
+      <c r="I159" t="s">
+        <v>801</v>
+      </c>
+      <c r="J159" t="s">
+        <v>802</v>
+      </c>
+      <c r="K159" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F160" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G160" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H160" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I160" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J160" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K160" t="s">
+        <v>157</v>
+      </c>
+      <c r="L160" t="s">
+        <v>804</v>
+      </c>
+      <c r="M160" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F161" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G161" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H161" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I161" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J161" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K161" t="s">
-        <v>157</v>
-      </c>
-      <c r="L161" t="s">
-        <v>804</v>
-      </c>
-      <c r="M161" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>35</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
       <c r="E162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>36</v>
-      </c>
-      <c r="C163" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163">
-        <v>3</v>
-      </c>
       <c r="E163" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F163" t="s">
+        <v>141</v>
+      </c>
+      <c r="G163" t="s">
+        <v>142</v>
+      </c>
+      <c r="H163" t="s">
+        <v>800</v>
+      </c>
+      <c r="I163" t="s">
+        <v>801</v>
+      </c>
+      <c r="J163" t="s">
+        <v>802</v>
+      </c>
+      <c r="K163" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F164" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G164" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H164" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I164" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J164" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K164" t="s">
+        <v>157</v>
+      </c>
+      <c r="L164" t="s">
+        <v>804</v>
+      </c>
+      <c r="M164" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F165" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H165" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K165" t="s">
-        <v>157</v>
-      </c>
-      <c r="L165" t="s">
-        <v>804</v>
-      </c>
-      <c r="M165" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>36</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
       <c r="E166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>37</v>
-      </c>
-      <c r="C167" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
       <c r="E167" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F167" t="s">
+        <v>141</v>
+      </c>
+      <c r="G167" t="s">
+        <v>142</v>
+      </c>
+      <c r="H167" t="s">
+        <v>800</v>
+      </c>
+      <c r="I167" t="s">
+        <v>801</v>
+      </c>
+      <c r="J167" t="s">
+        <v>802</v>
+      </c>
+      <c r="K167" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F168" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G168" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H168" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I168" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J168" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K168" t="s">
+        <v>157</v>
+      </c>
+      <c r="L168" t="s">
+        <v>804</v>
+      </c>
+      <c r="M168" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F169" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G169" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H169" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I169" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J169" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K169" t="s">
-        <v>157</v>
-      </c>
-      <c r="L169" t="s">
-        <v>804</v>
-      </c>
-      <c r="M169" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>37</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
       <c r="E170" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>38</v>
-      </c>
-      <c r="C171" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
       <c r="E171" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F171" t="s">
+        <v>141</v>
+      </c>
+      <c r="G171" t="s">
+        <v>142</v>
+      </c>
+      <c r="H171" t="s">
+        <v>800</v>
+      </c>
+      <c r="I171" t="s">
+        <v>801</v>
+      </c>
+      <c r="J171" t="s">
+        <v>802</v>
+      </c>
+      <c r="K171" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F172" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G172" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H172" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I172" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J172" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K172" t="s">
+        <v>157</v>
+      </c>
+      <c r="L172" t="s">
+        <v>804</v>
+      </c>
+      <c r="M172" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G173" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H173" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I173" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K173" t="s">
-        <v>157</v>
-      </c>
-      <c r="L173" t="s">
-        <v>804</v>
-      </c>
-      <c r="M173" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
       <c r="E174" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>39</v>
-      </c>
-      <c r="C175" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
       <c r="E175" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F175" t="s">
+        <v>141</v>
+      </c>
+      <c r="G175" t="s">
+        <v>142</v>
+      </c>
+      <c r="H175" t="s">
+        <v>800</v>
+      </c>
+      <c r="I175" t="s">
+        <v>801</v>
+      </c>
+      <c r="J175" t="s">
+        <v>802</v>
+      </c>
+      <c r="K175" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F176" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G176" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H176" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I176" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J176" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K176" t="s">
+        <v>157</v>
+      </c>
+      <c r="L176" t="s">
+        <v>804</v>
+      </c>
+      <c r="M176" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G177" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I177" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K177" t="s">
-        <v>157</v>
-      </c>
-      <c r="L177" t="s">
-        <v>804</v>
-      </c>
-      <c r="M177" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>39</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
       <c r="E178" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>40</v>
-      </c>
-      <c r="C179" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
       <c r="E179" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F179" t="s">
+        <v>141</v>
+      </c>
+      <c r="G179" t="s">
+        <v>142</v>
+      </c>
+      <c r="H179" t="s">
+        <v>800</v>
+      </c>
+      <c r="I179" t="s">
+        <v>801</v>
+      </c>
+      <c r="J179" t="s">
+        <v>802</v>
+      </c>
+      <c r="K179" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F180" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G180" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H180" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I180" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J180" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K180" t="s">
+        <v>157</v>
+      </c>
+      <c r="L180" t="s">
+        <v>804</v>
+      </c>
+      <c r="M180" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F181" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G181" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I181" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K181" t="s">
-        <v>157</v>
-      </c>
-      <c r="L181" t="s">
-        <v>804</v>
-      </c>
-      <c r="M181" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>40</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
       <c r="E182" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>41</v>
-      </c>
-      <c r="C183" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
       <c r="E183" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F183" t="s">
+        <v>141</v>
+      </c>
+      <c r="G183" t="s">
+        <v>142</v>
+      </c>
+      <c r="H183" t="s">
+        <v>800</v>
+      </c>
+      <c r="I183" t="s">
+        <v>801</v>
+      </c>
+      <c r="J183" t="s">
+        <v>802</v>
+      </c>
+      <c r="K183" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F184" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G184" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H184" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I184" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J184" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K184" t="s">
+        <v>157</v>
+      </c>
+      <c r="L184" t="s">
+        <v>804</v>
+      </c>
+      <c r="M184" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F185" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H185" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I185" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K185" t="s">
-        <v>157</v>
-      </c>
-      <c r="L185" t="s">
-        <v>804</v>
-      </c>
-      <c r="M185" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>41</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
       <c r="E186" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>42</v>
-      </c>
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
       <c r="E187" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F187" t="s">
+        <v>141</v>
+      </c>
+      <c r="G187" t="s">
+        <v>142</v>
+      </c>
+      <c r="H187" t="s">
+        <v>800</v>
+      </c>
+      <c r="I187" t="s">
+        <v>801</v>
+      </c>
+      <c r="J187" t="s">
+        <v>802</v>
+      </c>
+      <c r="K187" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F188" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G188" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H188" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I188" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J188" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K188" t="s">
+        <v>157</v>
+      </c>
+      <c r="L188" t="s">
+        <v>804</v>
+      </c>
+      <c r="M188" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G189" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J189" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K189" t="s">
-        <v>157</v>
-      </c>
-      <c r="L189" t="s">
-        <v>804</v>
-      </c>
-      <c r="M189" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>42</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
       <c r="E190" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>43</v>
-      </c>
-      <c r="C191" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191">
-        <v>2</v>
-      </c>
       <c r="E191" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F191" t="s">
+        <v>141</v>
+      </c>
+      <c r="G191" t="s">
+        <v>142</v>
+      </c>
+      <c r="H191" t="s">
+        <v>800</v>
+      </c>
+      <c r="I191" t="s">
+        <v>801</v>
+      </c>
+      <c r="J191" t="s">
+        <v>802</v>
+      </c>
+      <c r="K191" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F192" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G192" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H192" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I192" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J192" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K192" t="s">
+        <v>157</v>
+      </c>
+      <c r="L192" t="s">
+        <v>804</v>
+      </c>
+      <c r="M192" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G193" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H193" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I193" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K193" t="s">
-        <v>157</v>
-      </c>
-      <c r="L193" t="s">
-        <v>804</v>
-      </c>
-      <c r="M193" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>43</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
       <c r="E194" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>44</v>
-      </c>
-      <c r="C195" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
       <c r="E195" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F195" t="s">
+        <v>141</v>
+      </c>
+      <c r="G195" t="s">
+        <v>142</v>
+      </c>
+      <c r="H195" t="s">
+        <v>800</v>
+      </c>
+      <c r="I195" t="s">
+        <v>801</v>
+      </c>
+      <c r="J195" t="s">
+        <v>802</v>
+      </c>
+      <c r="K195" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F196" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G196" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H196" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I196" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J196" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K196" t="s">
+        <v>157</v>
+      </c>
+      <c r="L196" t="s">
+        <v>804</v>
+      </c>
+      <c r="M196" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I197" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K197" t="s">
-        <v>157</v>
-      </c>
-      <c r="L197" t="s">
-        <v>804</v>
-      </c>
-      <c r="M197" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>44</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
       <c r="E198" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>45</v>
-      </c>
-      <c r="C199" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199">
-        <v>2</v>
-      </c>
       <c r="E199" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F199" t="s">
+        <v>141</v>
+      </c>
+      <c r="G199" t="s">
+        <v>142</v>
+      </c>
+      <c r="H199" t="s">
+        <v>800</v>
+      </c>
+      <c r="I199" t="s">
+        <v>801</v>
+      </c>
+      <c r="J199" t="s">
+        <v>802</v>
+      </c>
+      <c r="K199" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F200" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G200" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H200" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I200" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J200" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K200" t="s">
+        <v>157</v>
+      </c>
+      <c r="L200" t="s">
+        <v>804</v>
+      </c>
+      <c r="M200" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F201" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H201" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I201" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K201" t="s">
-        <v>157</v>
-      </c>
-      <c r="L201" t="s">
-        <v>804</v>
-      </c>
-      <c r="M201" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>45</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
       <c r="E202" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>46</v>
-      </c>
-      <c r="C203" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203">
-        <v>2</v>
-      </c>
       <c r="E203" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F203" t="s">
+        <v>141</v>
+      </c>
+      <c r="G203" t="s">
+        <v>142</v>
+      </c>
+      <c r="H203" t="s">
+        <v>800</v>
+      </c>
+      <c r="I203" t="s">
+        <v>801</v>
+      </c>
+      <c r="J203" t="s">
+        <v>802</v>
+      </c>
+      <c r="K203" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F204" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G204" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H204" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I204" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J204" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K204" t="s">
+        <v>157</v>
+      </c>
+      <c r="L204" t="s">
+        <v>804</v>
+      </c>
+      <c r="M204" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F205" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G205" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I205" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K205" t="s">
-        <v>157</v>
-      </c>
-      <c r="L205" t="s">
-        <v>804</v>
-      </c>
-      <c r="M205" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>46</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
       <c r="E206" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>47</v>
-      </c>
-      <c r="C207" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207">
-        <v>2</v>
-      </c>
       <c r="E207" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F207" t="s">
+        <v>141</v>
+      </c>
+      <c r="G207" t="s">
+        <v>142</v>
+      </c>
+      <c r="H207" t="s">
+        <v>800</v>
+      </c>
+      <c r="I207" t="s">
+        <v>801</v>
+      </c>
+      <c r="J207" t="s">
+        <v>802</v>
+      </c>
+      <c r="K207" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F208" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G208" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H208" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I208" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J208" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K208" t="s">
+        <v>157</v>
+      </c>
+      <c r="L208" t="s">
+        <v>804</v>
+      </c>
+      <c r="M208" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F209" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G209" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H209" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I209" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K209" t="s">
-        <v>157</v>
-      </c>
-      <c r="L209" t="s">
-        <v>804</v>
-      </c>
-      <c r="M209" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
       <c r="E210" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>48</v>
-      </c>
-      <c r="C211" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211">
-        <v>2</v>
-      </c>
       <c r="E211" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F211" t="s">
+        <v>141</v>
+      </c>
+      <c r="G211" t="s">
+        <v>142</v>
+      </c>
+      <c r="H211" t="s">
+        <v>800</v>
+      </c>
+      <c r="I211" t="s">
+        <v>801</v>
+      </c>
+      <c r="J211" t="s">
+        <v>802</v>
+      </c>
+      <c r="K211" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F212" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G212" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H212" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I212" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J212" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K212" t="s">
+        <v>157</v>
+      </c>
+      <c r="L212" t="s">
+        <v>804</v>
+      </c>
+      <c r="M212" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G213" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H213" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K213" t="s">
-        <v>157</v>
-      </c>
-      <c r="L213" t="s">
-        <v>804</v>
-      </c>
-      <c r="M213" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>48</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
       <c r="E214" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>49</v>
-      </c>
-      <c r="C215" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215">
-        <v>3</v>
-      </c>
       <c r="E215" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F215" t="s">
+        <v>141</v>
+      </c>
+      <c r="G215" t="s">
+        <v>142</v>
+      </c>
+      <c r="H215" t="s">
+        <v>800</v>
+      </c>
+      <c r="I215" t="s">
+        <v>801</v>
+      </c>
+      <c r="J215" t="s">
+        <v>802</v>
+      </c>
+      <c r="K215" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F216" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G216" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H216" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I216" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J216" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K216" t="s">
+        <v>157</v>
+      </c>
+      <c r="L216" t="s">
+        <v>804</v>
+      </c>
+      <c r="M216" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F217" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G217" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H217" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I217" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J217" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K217" t="s">
-        <v>157</v>
-      </c>
-      <c r="L217" t="s">
-        <v>804</v>
-      </c>
-      <c r="M217" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>49</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
       <c r="E218" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>50</v>
-      </c>
-      <c r="C219" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219">
-        <v>3</v>
-      </c>
       <c r="E219" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F219" t="s">
+        <v>141</v>
+      </c>
+      <c r="G219" t="s">
+        <v>142</v>
+      </c>
+      <c r="H219" t="s">
+        <v>800</v>
+      </c>
+      <c r="I219" t="s">
+        <v>801</v>
+      </c>
+      <c r="J219" t="s">
+        <v>802</v>
+      </c>
+      <c r="K219" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F220" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G220" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H220" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I220" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J220" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K220" t="s">
+        <v>157</v>
+      </c>
+      <c r="L220" t="s">
+        <v>804</v>
+      </c>
+      <c r="M220" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G221" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H221" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I221" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J221" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K221" t="s">
-        <v>157</v>
-      </c>
-      <c r="L221" t="s">
-        <v>804</v>
-      </c>
-      <c r="M221" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>50</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
       <c r="E222" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>51</v>
-      </c>
-      <c r="C223" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223">
-        <v>3</v>
-      </c>
       <c r="E223" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F223" t="s">
+        <v>141</v>
+      </c>
+      <c r="G223" t="s">
+        <v>142</v>
+      </c>
+      <c r="H223" t="s">
+        <v>800</v>
+      </c>
+      <c r="I223" t="s">
+        <v>801</v>
+      </c>
+      <c r="J223" t="s">
+        <v>802</v>
+      </c>
+      <c r="K223" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F224" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G224" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H224" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I224" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J224" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K224" t="s">
+        <v>157</v>
+      </c>
+      <c r="L224" t="s">
+        <v>804</v>
+      </c>
+      <c r="M224" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G225" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H225" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J225" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K225" t="s">
-        <v>157</v>
-      </c>
-      <c r="L225" t="s">
-        <v>804</v>
-      </c>
-      <c r="M225" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>51</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
       <c r="E226" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>52</v>
-      </c>
-      <c r="C227" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227">
-        <v>3</v>
-      </c>
       <c r="E227" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F227" t="s">
+        <v>141</v>
+      </c>
+      <c r="G227" t="s">
+        <v>142</v>
+      </c>
+      <c r="H227" t="s">
+        <v>800</v>
+      </c>
+      <c r="I227" t="s">
+        <v>801</v>
+      </c>
+      <c r="J227" t="s">
+        <v>802</v>
+      </c>
+      <c r="K227" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F228" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G228" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H228" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I228" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J228" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K228" t="s">
+        <v>157</v>
+      </c>
+      <c r="L228" t="s">
+        <v>804</v>
+      </c>
+      <c r="M228" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G229" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H229" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I229" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J229" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K229" t="s">
-        <v>157</v>
-      </c>
-      <c r="L229" t="s">
-        <v>804</v>
-      </c>
-      <c r="M229" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>52</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
       <c r="E230" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>53</v>
-      </c>
-      <c r="C231" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231">
-        <v>3</v>
-      </c>
       <c r="E231" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F231" t="s">
+        <v>141</v>
+      </c>
+      <c r="G231" t="s">
+        <v>142</v>
+      </c>
+      <c r="H231" t="s">
+        <v>800</v>
+      </c>
+      <c r="I231" t="s">
+        <v>801</v>
+      </c>
+      <c r="J231" t="s">
+        <v>802</v>
+      </c>
+      <c r="K231" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F232" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G232" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H232" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I232" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J232" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K232" t="s">
+        <v>157</v>
+      </c>
+      <c r="L232" t="s">
+        <v>804</v>
+      </c>
+      <c r="M232" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G233" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H233" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I233" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J233" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K233" t="s">
-        <v>157</v>
-      </c>
-      <c r="L233" t="s">
-        <v>804</v>
-      </c>
-      <c r="M233" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>53</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
       <c r="E234" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>54</v>
-      </c>
-      <c r="C235" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235">
-        <v>3</v>
-      </c>
       <c r="E235" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F235" t="s">
+        <v>141</v>
+      </c>
+      <c r="G235" t="s">
+        <v>142</v>
+      </c>
+      <c r="H235" t="s">
+        <v>800</v>
+      </c>
+      <c r="I235" t="s">
+        <v>801</v>
+      </c>
+      <c r="J235" t="s">
+        <v>802</v>
+      </c>
+      <c r="K235" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F236" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G236" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H236" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I236" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J236" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K236" t="s">
+        <v>157</v>
+      </c>
+      <c r="L236" t="s">
+        <v>804</v>
+      </c>
+      <c r="M236" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>54</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>139</v>
+      </c>
+      <c r="F239" t="s">
+        <v>141</v>
+      </c>
+      <c r="G239" t="s">
+        <v>142</v>
+      </c>
+      <c r="H239" t="s">
+        <v>800</v>
+      </c>
+      <c r="I239" t="s">
+        <v>801</v>
+      </c>
+      <c r="J239" t="s">
+        <v>802</v>
+      </c>
+      <c r="K239" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
         <v>1194</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F240" t="s">
         <v>1198</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G240" t="s">
         <v>1195</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H240" t="s">
         <v>1198</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I240" t="s">
         <v>1196</v>
       </c>
-      <c r="J237" t="s">
+      <c r="J240" t="s">
         <v>1197</v>
       </c>
-      <c r="K237" t="s">
-        <v>157</v>
-      </c>
-      <c r="L237" t="s">
+      <c r="K240" t="s">
+        <v>157</v>
+      </c>
+      <c r="L240" t="s">
         <v>804</v>
       </c>
-      <c r="M237" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E238" t="s">
+      <c r="M240" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33094,12 +33184,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33249,15 +33336,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33281,17 +33379,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607A386-36EE-459B-8B69-2A9BD49E3DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC97BE56-98FD-4AAA-B1E6-0D8F9446C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6696" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="1405">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4834,6 +4834,132 @@
   </si>
   <si>
     <t>" years old")</t>
+  </si>
+  <si>
+    <t>("My GrandPa's name is  "</t>
+  </si>
+  <si>
+    <t>myName</t>
+  </si>
+  <si>
+    <t>yourName</t>
+  </si>
+  <si>
+    <t>myName)</t>
+  </si>
+  <si>
+    <t>yourName)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>("I am the only Grandson")</t>
+  </si>
+  <si>
+    <t>(name</t>
+  </si>
+  <si>
+    <t>" is "</t>
+  </si>
+  <si>
+    <t>"years")</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>5.9f</t>
+  </si>
+  <si>
+    <t>("A height of "</t>
+  </si>
+  <si>
+    <t>"ft")</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>A'</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>"Math"</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>("I got "</t>
+  </si>
+  <si>
+    <t>subject)</t>
+  </si>
+  <si>
+    <t>("in "</t>
+  </si>
+  <si>
+    <t>grade)</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>(grade)</t>
+  </si>
+  <si>
+    <t>(subject)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>(number)</t>
+  </si>
+  <si>
+    <t>(height)</t>
+  </si>
+  <si>
+    <t>("This is "</t>
+  </si>
+  <si>
+    <t>bool)</t>
+  </si>
+  <si>
+    <t>("I am a dinosaur")</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>(int)</t>
+  </si>
+  <si>
+    <t>(num)</t>
+  </si>
+  <si>
+    <t>(convert)</t>
+  </si>
+  <si>
+    <t>valueOf</t>
+  </si>
+  <si>
+    <t>// To be continued</t>
+  </si>
+  <si>
+    <t>("My height is "</t>
+  </si>
+  <si>
+    <t>("I have "</t>
+  </si>
+  <si>
+    <t>" subjects")</t>
   </si>
 </sst>
 </file>
@@ -4878,9 +5004,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5198,7 +5326,7 @@
   <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12111,8 +12239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26312E56-B338-43B4-8651-D7A8BA424BFB}">
   <dimension ref="A1:Y529"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26291,10 +26419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:R241"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="M217" sqref="M217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27545,7 +27673,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -27938,11 +28066,14 @@
       <c r="A80">
         <v>16</v>
       </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>137</v>
@@ -28038,11 +28169,14 @@
       <c r="A85">
         <v>17</v>
       </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>137</v>
@@ -28135,11 +28269,14 @@
       <c r="A90">
         <v>18</v>
       </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>137</v>
@@ -28239,7 +28376,7 @@
         <v>19</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -28299,13 +28436,13 @@
         <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
       <c r="G98" t="s">
         <v>240</v>
       </c>
       <c r="H98">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I98" t="s">
         <v>157</v>
@@ -28343,9 +28480,6 @@
         <v>157</v>
       </c>
       <c r="N99" t="s">
-        <v>804</v>
-      </c>
-      <c r="O99" t="s">
         <v>797</v>
       </c>
     </row>
@@ -28372,7 +28506,7 @@
         <v>264</v>
       </c>
       <c r="L100" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
       <c r="M100" t="s">
         <v>264</v>
@@ -28399,6 +28533,9 @@
       <c r="A102">
         <v>20</v>
       </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
@@ -28434,1066 +28571,1396 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>1194</v>
+        <v>143</v>
       </c>
       <c r="F104" t="s">
-        <v>1198</v>
+        <v>1364</v>
       </c>
       <c r="G104" t="s">
-        <v>1195</v>
+        <v>240</v>
       </c>
       <c r="H104" t="s">
-        <v>1198</v>
+        <v>1352</v>
       </c>
       <c r="I104" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J104" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K104" t="s">
-        <v>157</v>
-      </c>
-      <c r="L104" t="s">
-        <v>804</v>
-      </c>
-      <c r="M104" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G105" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I105" t="s">
+        <v>157</v>
+      </c>
+      <c r="J105" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>21</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
       <c r="E106" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K106" t="s">
+        <v>264</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M106" t="s">
+        <v>157</v>
+      </c>
+      <c r="N106" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G107" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H107" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I107" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J107" t="s">
-        <v>802</v>
+        <v>1363</v>
       </c>
       <c r="K107" t="s">
+        <v>264</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M107" t="s">
+        <v>157</v>
+      </c>
+      <c r="N107" t="s">
+        <v>804</v>
+      </c>
+      <c r="O107" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H108" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I108" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K108" t="s">
-        <v>157</v>
-      </c>
-      <c r="L108" t="s">
-        <v>804</v>
-      </c>
-      <c r="M108" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>21</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
       <c r="E109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>22</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
       <c r="E110" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F110" t="s">
+        <v>141</v>
+      </c>
+      <c r="G110" t="s">
+        <v>142</v>
+      </c>
+      <c r="H110" t="s">
+        <v>800</v>
+      </c>
+      <c r="I110" t="s">
+        <v>801</v>
+      </c>
+      <c r="J110" t="s">
+        <v>802</v>
+      </c>
+      <c r="K110" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>1357</v>
       </c>
       <c r="G111" t="s">
-        <v>142</v>
-      </c>
-      <c r="H111" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J111" t="s">
-        <v>802</v>
-      </c>
-      <c r="K111" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
+        <v>191</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G112" t="s">
+        <v>240</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112" t="s">
+        <v>157</v>
+      </c>
+      <c r="J112" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
         <v>1194</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>1198</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>1195</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>1198</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I113" t="s">
         <v>1196</v>
       </c>
-      <c r="J112" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K112" t="s">
-        <v>157</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="J113" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K113" t="s">
+        <v>264</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M113" t="s">
+        <v>264</v>
+      </c>
+      <c r="N113" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O113" t="s">
+        <v>157</v>
+      </c>
+      <c r="P113" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K114" t="s">
+        <v>264</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M114" t="s">
+        <v>264</v>
+      </c>
+      <c r="N114" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O114" t="s">
+        <v>157</v>
+      </c>
+      <c r="P114" t="s">
         <v>804</v>
       </c>
-      <c r="M112" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E113" t="s">
+      <c r="Q114" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>139</v>
+      </c>
+      <c r="F117" t="s">
+        <v>141</v>
+      </c>
+      <c r="G117" t="s">
+        <v>142</v>
+      </c>
+      <c r="H117" t="s">
+        <v>800</v>
+      </c>
+      <c r="I117" t="s">
+        <v>801</v>
+      </c>
+      <c r="J117" t="s">
+        <v>802</v>
+      </c>
+      <c r="K117" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" t="s">
+        <v>940</v>
+      </c>
+      <c r="G118" t="s">
+        <v>240</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I118" t="s">
+        <v>157</v>
+      </c>
+      <c r="J118" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>191</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G119" t="s">
+        <v>240</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+      <c r="J119" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>191</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G120" t="s">
+        <v>240</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120" t="s">
+        <v>157</v>
+      </c>
+      <c r="J120" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K121" t="s">
+        <v>264</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M121" t="s">
+        <v>157</v>
+      </c>
+      <c r="N121" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K122" t="s">
+        <v>264</v>
+      </c>
+      <c r="L122" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M122" t="s">
+        <v>264</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O122" t="s">
+        <v>157</v>
+      </c>
+      <c r="P122" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K123" t="s">
+        <v>264</v>
+      </c>
+      <c r="L123" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M123" t="s">
+        <v>264</v>
+      </c>
+      <c r="N123" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O123" t="s">
+        <v>157</v>
+      </c>
+      <c r="P123" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>23</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>139</v>
+      </c>
+      <c r="F126" t="s">
+        <v>141</v>
+      </c>
+      <c r="G126" t="s">
+        <v>142</v>
+      </c>
+      <c r="H126" t="s">
+        <v>800</v>
+      </c>
+      <c r="I126" t="s">
+        <v>801</v>
+      </c>
+      <c r="J126" t="s">
+        <v>802</v>
+      </c>
+      <c r="K126" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>143</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G127" t="s">
+        <v>240</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+      <c r="J127" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G128" t="s">
+        <v>240</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+      <c r="J128" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K129" t="s">
+        <v>264</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M129" t="s">
+        <v>157</v>
+      </c>
+      <c r="N129" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K130" t="s">
+        <v>264</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M130" t="s">
+        <v>157</v>
+      </c>
+      <c r="N130" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K131" t="s">
+        <v>157</v>
+      </c>
+      <c r="L131" t="s">
+        <v>804</v>
+      </c>
+      <c r="M131" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>24</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>137</v>
+      </c>
+      <c r="R133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>139</v>
+      </c>
+      <c r="F134" t="s">
+        <v>141</v>
+      </c>
+      <c r="G134" t="s">
+        <v>142</v>
+      </c>
+      <c r="H134" t="s">
+        <v>800</v>
+      </c>
+      <c r="I134" t="s">
+        <v>801</v>
+      </c>
+      <c r="J134" t="s">
+        <v>802</v>
+      </c>
+      <c r="K134" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>143</v>
+      </c>
+      <c r="F135" t="s">
+        <v>940</v>
+      </c>
+      <c r="G135" t="s">
+        <v>240</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I135" t="s">
+        <v>157</v>
+      </c>
+      <c r="J135" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G136" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136" t="s">
+        <v>157</v>
+      </c>
+      <c r="J136" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K137" t="s">
+        <v>264</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M137" t="s">
+        <v>157</v>
+      </c>
+      <c r="N137" t="s">
+        <v>804</v>
+      </c>
+      <c r="O137" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K138" t="s">
+        <v>264</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M138" t="s">
+        <v>264</v>
+      </c>
+      <c r="N138" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O138" t="s">
+        <v>157</v>
+      </c>
+      <c r="P138" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K139" t="s">
+        <v>157</v>
+      </c>
+      <c r="L139" t="s">
+        <v>804</v>
+      </c>
+      <c r="M139" t="s">
+        <v>797</v>
+      </c>
+      <c r="N139" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O139" t="s">
+        <v>157</v>
+      </c>
+      <c r="P139" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>25</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>137</v>
+      </c>
+      <c r="R141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>139</v>
+      </c>
+      <c r="F142" t="s">
+        <v>141</v>
+      </c>
+      <c r="G142" t="s">
+        <v>142</v>
+      </c>
+      <c r="H142" t="s">
+        <v>800</v>
+      </c>
+      <c r="I142" t="s">
+        <v>801</v>
+      </c>
+      <c r="J142" t="s">
+        <v>802</v>
+      </c>
+      <c r="K142" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>143</v>
+      </c>
+      <c r="F143" t="s">
+        <v>940</v>
+      </c>
+      <c r="G143" t="s">
+        <v>240</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I143" t="s">
+        <v>157</v>
+      </c>
+      <c r="J143" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>191</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G144" t="s">
+        <v>240</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144" t="s">
+        <v>157</v>
+      </c>
+      <c r="J144" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>206</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G145" t="s">
+        <v>240</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I145" t="s">
+        <v>157</v>
+      </c>
+      <c r="J145" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K146" t="s">
+        <v>264</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M146" t="s">
+        <v>264</v>
+      </c>
+      <c r="N146" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O146" t="s">
+        <v>264</v>
+      </c>
+      <c r="P146" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>157</v>
+      </c>
+      <c r="R146" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K147" t="s">
+        <v>264</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M147" t="s">
+        <v>264</v>
+      </c>
+      <c r="N147" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O147" t="s">
+        <v>157</v>
+      </c>
+      <c r="P147" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>26</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>139</v>
+      </c>
+      <c r="F150" t="s">
+        <v>141</v>
+      </c>
+      <c r="G150" t="s">
+        <v>142</v>
+      </c>
+      <c r="H150" t="s">
+        <v>800</v>
+      </c>
+      <c r="I150" t="s">
+        <v>801</v>
+      </c>
+      <c r="J150" t="s">
+        <v>802</v>
+      </c>
+      <c r="K150" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>191</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G151" t="s">
+        <v>240</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>157</v>
+      </c>
+      <c r="J151" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>192</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G152" t="s">
+        <v>240</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I152" t="s">
+        <v>157</v>
+      </c>
+      <c r="J152" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>143</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G153" t="s">
+        <v>240</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I153" t="s">
+        <v>157</v>
+      </c>
+      <c r="J153" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K154" t="s">
+        <v>264</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M154" t="s">
+        <v>264</v>
+      </c>
+      <c r="N154" t="s">
+        <v>1385</v>
+      </c>
+      <c r="O154" t="s">
+        <v>157</v>
+      </c>
+      <c r="P154" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K155" t="s">
+        <v>264</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M155" t="s">
+        <v>157</v>
+      </c>
+      <c r="N155" t="s">
+        <v>804</v>
+      </c>
+      <c r="O155" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>27</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
         <v>7</v>
       </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
         <v>139</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F158" t="s">
         <v>141</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G158" t="s">
         <v>142</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H158" t="s">
         <v>800</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I158" t="s">
         <v>801</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J158" t="s">
         <v>802</v>
       </c>
-      <c r="K115" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H116" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K116" t="s">
-        <v>157</v>
-      </c>
-      <c r="L116" t="s">
-        <v>804</v>
-      </c>
-      <c r="M116" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>24</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
-      <c r="H119" t="s">
-        <v>800</v>
-      </c>
-      <c r="I119" t="s">
-        <v>801</v>
-      </c>
-      <c r="J119" t="s">
-        <v>802</v>
-      </c>
-      <c r="K119" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E120" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G120" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H120" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I120" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K120" t="s">
-        <v>157</v>
-      </c>
-      <c r="L120" t="s">
-        <v>804</v>
-      </c>
-      <c r="M120" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>25</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E123" t="s">
-        <v>139</v>
-      </c>
-      <c r="F123" t="s">
-        <v>141</v>
-      </c>
-      <c r="G123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H123" t="s">
-        <v>800</v>
-      </c>
-      <c r="I123" t="s">
-        <v>801</v>
-      </c>
-      <c r="J123" t="s">
-        <v>802</v>
-      </c>
-      <c r="K123" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G124" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I124" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K124" t="s">
-        <v>157</v>
-      </c>
-      <c r="L124" t="s">
-        <v>804</v>
-      </c>
-      <c r="M124" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>26</v>
-      </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" t="s">
-        <v>142</v>
-      </c>
-      <c r="H127" t="s">
-        <v>800</v>
-      </c>
-      <c r="I127" t="s">
-        <v>801</v>
-      </c>
-      <c r="J127" t="s">
-        <v>802</v>
-      </c>
-      <c r="K127" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G128" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J128" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K128" t="s">
-        <v>157</v>
-      </c>
-      <c r="L128" t="s">
-        <v>804</v>
-      </c>
-      <c r="M128" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E129" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>27</v>
-      </c>
-      <c r="C130" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
-        <v>139</v>
-      </c>
-      <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s">
-        <v>142</v>
-      </c>
-      <c r="H131" t="s">
-        <v>800</v>
-      </c>
-      <c r="I131" t="s">
-        <v>801</v>
-      </c>
-      <c r="J131" t="s">
-        <v>802</v>
-      </c>
-      <c r="K131" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H132" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K132" t="s">
-        <v>157</v>
-      </c>
-      <c r="L132" t="s">
-        <v>804</v>
-      </c>
-      <c r="M132" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>28</v>
-      </c>
-      <c r="C134" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
-        <v>139</v>
-      </c>
-      <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s">
-        <v>142</v>
-      </c>
-      <c r="H135" t="s">
-        <v>800</v>
-      </c>
-      <c r="I135" t="s">
-        <v>801</v>
-      </c>
-      <c r="J135" t="s">
-        <v>802</v>
-      </c>
-      <c r="K135" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I136" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K136" t="s">
-        <v>157</v>
-      </c>
-      <c r="L136" t="s">
-        <v>804</v>
-      </c>
-      <c r="M136" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>29</v>
-      </c>
-      <c r="C138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" t="s">
-        <v>142</v>
-      </c>
-      <c r="H139" t="s">
-        <v>800</v>
-      </c>
-      <c r="I139" t="s">
-        <v>801</v>
-      </c>
-      <c r="J139" t="s">
-        <v>802</v>
-      </c>
-      <c r="K139" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H140" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I140" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K140" t="s">
-        <v>157</v>
-      </c>
-      <c r="L140" t="s">
-        <v>804</v>
-      </c>
-      <c r="M140" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>30</v>
-      </c>
-      <c r="C142" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
-        <v>139</v>
-      </c>
-      <c r="F143" t="s">
-        <v>141</v>
-      </c>
-      <c r="G143" t="s">
-        <v>142</v>
-      </c>
-      <c r="H143" t="s">
-        <v>800</v>
-      </c>
-      <c r="I143" t="s">
-        <v>801</v>
-      </c>
-      <c r="J143" t="s">
-        <v>802</v>
-      </c>
-      <c r="K143" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H144" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I144" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J144" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K144" t="s">
-        <v>157</v>
-      </c>
-      <c r="L144" t="s">
-        <v>804</v>
-      </c>
-      <c r="M144" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E145" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>31</v>
-      </c>
-      <c r="C146" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146">
-        <v>3</v>
-      </c>
-      <c r="E146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>139</v>
-      </c>
-      <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="G147" t="s">
-        <v>142</v>
-      </c>
-      <c r="H147" t="s">
-        <v>800</v>
-      </c>
-      <c r="I147" t="s">
-        <v>801</v>
-      </c>
-      <c r="J147" t="s">
-        <v>802</v>
-      </c>
-      <c r="K147" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G148" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H148" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I148" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K148" t="s">
-        <v>157</v>
-      </c>
-      <c r="L148" t="s">
-        <v>804</v>
-      </c>
-      <c r="M148" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>32</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150">
-        <v>3</v>
-      </c>
-      <c r="E150" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>139</v>
-      </c>
-      <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="G151" t="s">
-        <v>142</v>
-      </c>
-      <c r="H151" t="s">
-        <v>800</v>
-      </c>
-      <c r="I151" t="s">
-        <v>801</v>
-      </c>
-      <c r="J151" t="s">
-        <v>802</v>
-      </c>
-      <c r="K151" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G152" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H152" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I152" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K152" t="s">
-        <v>157</v>
-      </c>
-      <c r="L152" t="s">
-        <v>804</v>
-      </c>
-      <c r="M152" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>33</v>
-      </c>
-      <c r="C154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
-        <v>139</v>
-      </c>
-      <c r="F155" t="s">
-        <v>141</v>
-      </c>
-      <c r="G155" t="s">
-        <v>142</v>
-      </c>
-      <c r="H155" t="s">
-        <v>800</v>
-      </c>
-      <c r="I155" t="s">
-        <v>801</v>
-      </c>
-      <c r="J155" t="s">
-        <v>802</v>
-      </c>
-      <c r="K155" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E156" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G156" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H156" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I156" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J156" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K156" t="s">
-        <v>157</v>
-      </c>
-      <c r="L156" t="s">
-        <v>804</v>
-      </c>
-      <c r="M156" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>34</v>
-      </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158">
-        <v>3</v>
-      </c>
-      <c r="E158" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K158" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="F159" t="s">
-        <v>141</v>
+        <v>1386</v>
       </c>
       <c r="G159" t="s">
-        <v>142</v>
-      </c>
-      <c r="H159" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>1387</v>
       </c>
       <c r="I159" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J159" t="s">
-        <v>802</v>
-      </c>
-      <c r="K159" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
-        <v>1194</v>
+        <v>192</v>
       </c>
       <c r="F160" t="s">
-        <v>1198</v>
+        <v>1377</v>
       </c>
       <c r="G160" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H160" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>1378</v>
       </c>
       <c r="I160" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J160" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K160" t="s">
-        <v>157</v>
-      </c>
-      <c r="L160" t="s">
-        <v>804</v>
-      </c>
-      <c r="M160" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G161" t="s">
+        <v>240</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I161" t="s">
+        <v>157</v>
+      </c>
+      <c r="J161" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>35</v>
-      </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162">
-        <v>3</v>
-      </c>
       <c r="E162" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K162" t="s">
+        <v>157</v>
+      </c>
+      <c r="L162" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F163" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G163" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H163" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I163" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J163" t="s">
-        <v>802</v>
+        <v>1388</v>
       </c>
       <c r="K163" t="s">
+        <v>157</v>
+      </c>
+      <c r="L163" t="s">
         <v>797</v>
       </c>
     </row>
@@ -29514,7 +29981,7 @@
         <v>1196</v>
       </c>
       <c r="J164" t="s">
-        <v>1197</v>
+        <v>1389</v>
       </c>
       <c r="K164" t="s">
         <v>157</v>
@@ -29533,13 +30000,16 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>137</v>
@@ -29570,72 +30040,87 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
-        <v>1194</v>
+        <v>190</v>
       </c>
       <c r="F168" t="s">
-        <v>1198</v>
+        <v>1386</v>
       </c>
       <c r="G168" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H168" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>1390</v>
       </c>
       <c r="I168" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J168" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K168" t="s">
-        <v>157</v>
-      </c>
-      <c r="L168" t="s">
-        <v>804</v>
-      </c>
-      <c r="M168" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G169" t="s">
+        <v>240</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169" t="s">
+        <v>157</v>
+      </c>
+      <c r="J169" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>37</v>
-      </c>
-      <c r="C170" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
       <c r="E170" t="s">
-        <v>137</v>
+        <v>206</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G170" t="s">
+        <v>240</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I170" t="s">
+        <v>157</v>
+      </c>
+      <c r="J170" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F171" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G171" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H171" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I171" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J171" t="s">
-        <v>802</v>
+        <v>1257</v>
       </c>
       <c r="K171" t="s">
+        <v>157</v>
+      </c>
+      <c r="L171" t="s">
         <v>797</v>
       </c>
     </row>
@@ -29656,345 +30141,447 @@
         <v>1196</v>
       </c>
       <c r="J172" t="s">
-        <v>1197</v>
+        <v>1391</v>
       </c>
       <c r="K172" t="s">
         <v>157</v>
       </c>
       <c r="L172" t="s">
-        <v>804</v>
-      </c>
-      <c r="M172" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K173" t="s">
+        <v>157</v>
+      </c>
+      <c r="L173" t="s">
+        <v>804</v>
+      </c>
+      <c r="M173" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>38</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>29</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
         <v>8</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
-        <v>139</v>
-      </c>
-      <c r="F175" t="s">
-        <v>141</v>
-      </c>
-      <c r="G175" t="s">
-        <v>142</v>
-      </c>
-      <c r="H175" t="s">
-        <v>800</v>
-      </c>
-      <c r="I175" t="s">
-        <v>801</v>
-      </c>
-      <c r="J175" t="s">
-        <v>802</v>
-      </c>
-      <c r="K175" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
+        <v>139</v>
+      </c>
+      <c r="F176" t="s">
+        <v>141</v>
+      </c>
+      <c r="G176" t="s">
+        <v>142</v>
+      </c>
+      <c r="H176" t="s">
+        <v>800</v>
+      </c>
+      <c r="I176" t="s">
+        <v>801</v>
+      </c>
+      <c r="J176" t="s">
+        <v>802</v>
+      </c>
+      <c r="K176" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>190</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G177" t="s">
+        <v>240</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I177" t="s">
+        <v>157</v>
+      </c>
+      <c r="J177" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>143</v>
+      </c>
+      <c r="F178" t="s">
+        <v>940</v>
+      </c>
+      <c r="G178" t="s">
+        <v>240</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I178" t="s">
+        <v>157</v>
+      </c>
+      <c r="J178" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>191</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G179" t="s">
+        <v>240</v>
+      </c>
+      <c r="H179">
+        <v>8</v>
+      </c>
+      <c r="I179" t="s">
+        <v>157</v>
+      </c>
+      <c r="J179" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>206</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G180" t="s">
+        <v>240</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I180" t="s">
+        <v>157</v>
+      </c>
+      <c r="J180" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
         <v>1194</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F181" t="s">
         <v>1198</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G181" t="s">
         <v>1195</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H181" t="s">
         <v>1198</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I181" t="s">
         <v>1196</v>
       </c>
-      <c r="J176" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K176" t="s">
-        <v>157</v>
-      </c>
-      <c r="L176" t="s">
+      <c r="J181" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K181" t="s">
+        <v>264</v>
+      </c>
+      <c r="L181" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M181" t="s">
+        <v>157</v>
+      </c>
+      <c r="N181" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K182" t="s">
+        <v>264</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M182" t="s">
+        <v>264</v>
+      </c>
+      <c r="N182" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O182" t="s">
+        <v>264</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>157</v>
+      </c>
+      <c r="R182" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K183" t="s">
+        <v>264</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M183" t="s">
+        <v>264</v>
+      </c>
+      <c r="N183" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O183" t="s">
+        <v>157</v>
+      </c>
+      <c r="P183" t="s">
         <v>804</v>
       </c>
-      <c r="M176" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E177" t="s">
+      <c r="Q183" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>39</v>
-      </c>
-      <c r="C178" t="s">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>30</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
         <v>8</v>
       </c>
-      <c r="D178">
-        <v>1</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E179" t="s">
+      <c r="R185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
         <v>139</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F186" t="s">
         <v>141</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G186" t="s">
         <v>142</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H186" t="s">
         <v>800</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I186" t="s">
         <v>801</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J186" t="s">
         <v>802</v>
       </c>
-      <c r="K179" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E180" t="s">
+      <c r="K186" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G187" t="s">
+        <v>240</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I187" t="s">
+        <v>157</v>
+      </c>
+      <c r="J187" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>143</v>
+      </c>
+      <c r="F188" t="s">
+        <v>940</v>
+      </c>
+      <c r="G188" t="s">
+        <v>240</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I188" t="s">
+        <v>157</v>
+      </c>
+      <c r="J188" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>191</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G189" t="s">
+        <v>240</v>
+      </c>
+      <c r="H189">
+        <v>8</v>
+      </c>
+      <c r="I189" t="s">
+        <v>157</v>
+      </c>
+      <c r="J189" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>206</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G190" t="s">
+        <v>240</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I190" t="s">
+        <v>157</v>
+      </c>
+      <c r="J190" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
         <v>1194</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F191" t="s">
         <v>1198</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G191" t="s">
         <v>1195</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H191" t="s">
         <v>1198</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I191" t="s">
         <v>1196</v>
       </c>
-      <c r="J180" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K180" t="s">
-        <v>157</v>
-      </c>
-      <c r="L180" t="s">
-        <v>804</v>
-      </c>
-      <c r="M180" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E181" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>40</v>
-      </c>
-      <c r="C182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E183" t="s">
-        <v>139</v>
-      </c>
-      <c r="F183" t="s">
-        <v>141</v>
-      </c>
-      <c r="G183" t="s">
-        <v>142</v>
-      </c>
-      <c r="H183" t="s">
-        <v>800</v>
-      </c>
-      <c r="I183" t="s">
-        <v>801</v>
-      </c>
-      <c r="J183" t="s">
-        <v>802</v>
-      </c>
-      <c r="K183" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I184" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K184" t="s">
-        <v>157</v>
-      </c>
-      <c r="L184" t="s">
-        <v>804</v>
-      </c>
-      <c r="M184" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>41</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E187" t="s">
-        <v>139</v>
-      </c>
-      <c r="F187" t="s">
-        <v>141</v>
-      </c>
-      <c r="G187" t="s">
-        <v>142</v>
-      </c>
-      <c r="H187" t="s">
-        <v>800</v>
-      </c>
-      <c r="I187" t="s">
-        <v>801</v>
-      </c>
-      <c r="J187" t="s">
-        <v>802</v>
-      </c>
-      <c r="K187" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E188" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K188" t="s">
-        <v>157</v>
-      </c>
-      <c r="L188" t="s">
-        <v>804</v>
-      </c>
-      <c r="M188" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E189" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>42</v>
-      </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E191" t="s">
-        <v>139</v>
-      </c>
-      <c r="F191" t="s">
-        <v>141</v>
-      </c>
-      <c r="G191" t="s">
-        <v>142</v>
-      </c>
-      <c r="H191" t="s">
-        <v>800</v>
-      </c>
-      <c r="I191" t="s">
-        <v>801</v>
-      </c>
       <c r="J191" t="s">
-        <v>802</v>
+        <v>1393</v>
       </c>
       <c r="K191" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="L191" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M191" t="s">
+        <v>157</v>
+      </c>
+      <c r="N191" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>1194</v>
       </c>
@@ -30011,132 +30598,192 @@
         <v>1196</v>
       </c>
       <c r="J192" t="s">
-        <v>1197</v>
+        <v>1370</v>
       </c>
       <c r="K192" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="L192" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M192" t="s">
+        <v>264</v>
+      </c>
+      <c r="N192" t="s">
+        <v>1368</v>
+      </c>
+      <c r="O192" t="s">
+        <v>264</v>
+      </c>
+      <c r="P192" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>157</v>
+      </c>
+      <c r="R192" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K193" t="s">
+        <v>264</v>
+      </c>
+      <c r="L193" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M193" t="s">
+        <v>264</v>
+      </c>
+      <c r="N193" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O193" t="s">
+        <v>157</v>
+      </c>
+      <c r="P193" t="s">
         <v>804</v>
       </c>
-      <c r="M192" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E193" t="s">
+      <c r="Q193" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>43</v>
-      </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194" t="s">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>31</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E195" t="s">
+      <c r="R195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
         <v>139</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F196" t="s">
         <v>141</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G196" t="s">
         <v>142</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H196" t="s">
         <v>800</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I196" t="s">
         <v>801</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J196" t="s">
         <v>802</v>
       </c>
-      <c r="K195" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E196" t="s">
+      <c r="K196" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>206</v>
+      </c>
+      <c r="F197" t="s">
+        <v>880</v>
+      </c>
+      <c r="G197" t="s">
+        <v>240</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I197" t="s">
+        <v>157</v>
+      </c>
+      <c r="J197" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>191</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G198" t="s">
+        <v>240</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I198" t="s">
+        <v>880</v>
+      </c>
+      <c r="J198" t="s">
+        <v>157</v>
+      </c>
+      <c r="K198" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
         <v>1194</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F199" t="s">
         <v>1198</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G199" t="s">
         <v>1195</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H199" t="s">
         <v>1198</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I199" t="s">
         <v>1196</v>
       </c>
-      <c r="J196" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K196" t="s">
-        <v>157</v>
-      </c>
-      <c r="L196" t="s">
-        <v>804</v>
-      </c>
-      <c r="M196" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E197" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>44</v>
-      </c>
-      <c r="C198" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="E198" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E199" t="s">
-        <v>139</v>
-      </c>
-      <c r="F199" t="s">
-        <v>141</v>
-      </c>
-      <c r="G199" t="s">
-        <v>142</v>
-      </c>
-      <c r="H199" t="s">
-        <v>800</v>
-      </c>
-      <c r="I199" t="s">
-        <v>801</v>
-      </c>
       <c r="J199" t="s">
-        <v>802</v>
+        <v>1398</v>
       </c>
       <c r="K199" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="L199" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
         <v>1194</v>
       </c>
@@ -30153,7 +30800,7 @@
         <v>1196</v>
       </c>
       <c r="J200" t="s">
-        <v>1197</v>
+        <v>1399</v>
       </c>
       <c r="K200" t="s">
         <v>157</v>
@@ -30165,26 +30812,29 @@
         <v>797</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
         <v>139</v>
       </c>
@@ -30207,676 +30857,1785 @@
         <v>797</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
+        <v>191</v>
+      </c>
+      <c r="F204" t="s">
+        <v>880</v>
+      </c>
+      <c r="G204" t="s">
+        <v>240</v>
+      </c>
+      <c r="H204">
+        <v>3</v>
+      </c>
+      <c r="I204" t="s">
+        <v>157</v>
+      </c>
+      <c r="J204" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>143</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G205" t="s">
+        <v>240</v>
+      </c>
+      <c r="H205" t="s">
+        <v>143</v>
+      </c>
+      <c r="I205" t="s">
+        <v>817</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L205" t="s">
+        <v>157</v>
+      </c>
+      <c r="M205" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
         <v>1194</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F206" t="s">
         <v>1198</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G206" t="s">
         <v>1195</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H206" t="s">
         <v>1198</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I206" t="s">
         <v>1196</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J206" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K206" t="s">
+        <v>157</v>
+      </c>
+      <c r="L206" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K207" t="s">
+        <v>157</v>
+      </c>
+      <c r="L207" t="s">
+        <v>804</v>
+      </c>
+      <c r="M207" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>33</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>139</v>
+      </c>
+      <c r="F210" t="s">
+        <v>141</v>
+      </c>
+      <c r="G210" t="s">
+        <v>142</v>
+      </c>
+      <c r="H210" t="s">
+        <v>800</v>
+      </c>
+      <c r="I210" t="s">
+        <v>801</v>
+      </c>
+      <c r="J210" t="s">
+        <v>802</v>
+      </c>
+      <c r="K210" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>206</v>
+      </c>
+      <c r="F211" t="s">
+        <v>880</v>
+      </c>
+      <c r="G211" t="s">
+        <v>240</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I211" t="s">
+        <v>157</v>
+      </c>
+      <c r="J211" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>191</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G212" t="s">
+        <v>240</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I212" t="s">
+        <v>880</v>
+      </c>
+      <c r="J212" t="s">
+        <v>157</v>
+      </c>
+      <c r="K212" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K213" t="s">
+        <v>264</v>
+      </c>
+      <c r="L213" t="s">
+        <v>880</v>
+      </c>
+      <c r="M213" t="s">
+        <v>264</v>
+      </c>
+      <c r="N213" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O213" t="s">
+        <v>157</v>
+      </c>
+      <c r="P213" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K214" t="s">
+        <v>264</v>
+      </c>
+      <c r="L214" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M214" t="s">
+        <v>264</v>
+      </c>
+      <c r="N214" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O214" t="s">
+        <v>157</v>
+      </c>
+      <c r="P214" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>34</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>137</v>
+      </c>
+      <c r="R216" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>139</v>
+      </c>
+      <c r="F217" t="s">
+        <v>141</v>
+      </c>
+      <c r="G217" t="s">
+        <v>142</v>
+      </c>
+      <c r="H217" t="s">
+        <v>800</v>
+      </c>
+      <c r="I217" t="s">
+        <v>801</v>
+      </c>
+      <c r="J217" t="s">
+        <v>802</v>
+      </c>
+      <c r="K217" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J218" t="s">
         <v>1197</v>
       </c>
-      <c r="K204" t="s">
-        <v>157</v>
-      </c>
-      <c r="L204" t="s">
+      <c r="K218" t="s">
+        <v>157</v>
+      </c>
+      <c r="L218" t="s">
         <v>804</v>
       </c>
-      <c r="M204" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E205" t="s">
+      <c r="M218" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>46</v>
-      </c>
-      <c r="C206" t="s">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>35</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
         <v>8</v>
       </c>
-      <c r="D206">
-        <v>2</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E207" t="s">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
         <v>139</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F221" t="s">
         <v>141</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G221" t="s">
         <v>142</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H221" t="s">
         <v>800</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I221" t="s">
         <v>801</v>
       </c>
-      <c r="J207" t="s">
+      <c r="J221" t="s">
         <v>802</v>
       </c>
-      <c r="K207" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E208" t="s">
+      <c r="K221" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
         <v>1194</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F222" t="s">
         <v>1198</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G222" t="s">
         <v>1195</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H222" t="s">
         <v>1198</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I222" t="s">
         <v>1196</v>
       </c>
-      <c r="J208" t="s">
+      <c r="J222" t="s">
         <v>1197</v>
       </c>
-      <c r="K208" t="s">
-        <v>157</v>
-      </c>
-      <c r="L208" t="s">
+      <c r="K222" t="s">
+        <v>157</v>
+      </c>
+      <c r="L222" t="s">
         <v>804</v>
       </c>
-      <c r="M208" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E209" t="s">
+      <c r="M222" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>47</v>
-      </c>
-      <c r="C210" t="s">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>36</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
         <v>8</v>
       </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E211" t="s">
-        <v>139</v>
-      </c>
-      <c r="F211" t="s">
-        <v>141</v>
-      </c>
-      <c r="G211" t="s">
-        <v>142</v>
-      </c>
-      <c r="H211" t="s">
-        <v>800</v>
-      </c>
-      <c r="I211" t="s">
-        <v>801</v>
-      </c>
-      <c r="J211" t="s">
-        <v>802</v>
-      </c>
-      <c r="K211" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E212" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F212" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G212" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H212" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I212" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J212" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K212" t="s">
-        <v>157</v>
-      </c>
-      <c r="L212" t="s">
-        <v>804</v>
-      </c>
-      <c r="M212" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E213" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>48</v>
-      </c>
-      <c r="C214" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214">
-        <v>2</v>
-      </c>
-      <c r="E214" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E215" t="s">
-        <v>139</v>
-      </c>
-      <c r="F215" t="s">
-        <v>141</v>
-      </c>
-      <c r="G215" t="s">
-        <v>142</v>
-      </c>
-      <c r="H215" t="s">
-        <v>800</v>
-      </c>
-      <c r="I215" t="s">
-        <v>801</v>
-      </c>
-      <c r="J215" t="s">
-        <v>802</v>
-      </c>
-      <c r="K215" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E216" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F216" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G216" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H216" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I216" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J216" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K216" t="s">
-        <v>157</v>
-      </c>
-      <c r="L216" t="s">
-        <v>804</v>
-      </c>
-      <c r="M216" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E217" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>49</v>
-      </c>
-      <c r="C218" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218">
-        <v>3</v>
-      </c>
-      <c r="E218" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E219" t="s">
-        <v>139</v>
-      </c>
-      <c r="F219" t="s">
-        <v>141</v>
-      </c>
-      <c r="G219" t="s">
-        <v>142</v>
-      </c>
-      <c r="H219" t="s">
-        <v>800</v>
-      </c>
-      <c r="I219" t="s">
-        <v>801</v>
-      </c>
-      <c r="J219" t="s">
-        <v>802</v>
-      </c>
-      <c r="K219" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E220" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G220" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H220" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J220" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K220" t="s">
-        <v>157</v>
-      </c>
-      <c r="L220" t="s">
-        <v>804</v>
-      </c>
-      <c r="M220" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E221" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>50</v>
-      </c>
-      <c r="C222" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222">
-        <v>3</v>
-      </c>
-      <c r="E222" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E223" t="s">
-        <v>139</v>
-      </c>
-      <c r="F223" t="s">
-        <v>141</v>
-      </c>
-      <c r="G223" t="s">
-        <v>142</v>
-      </c>
-      <c r="H223" t="s">
-        <v>800</v>
-      </c>
-      <c r="I223" t="s">
-        <v>801</v>
-      </c>
-      <c r="J223" t="s">
-        <v>802</v>
-      </c>
-      <c r="K223" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E224" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G224" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H224" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J224" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K224" t="s">
-        <v>157</v>
-      </c>
-      <c r="L224" t="s">
-        <v>804</v>
-      </c>
-      <c r="M224" t="s">
-        <v>797</v>
+      <c r="R224" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F225" t="s">
+        <v>141</v>
+      </c>
+      <c r="G225" t="s">
+        <v>142</v>
+      </c>
+      <c r="H225" t="s">
+        <v>800</v>
+      </c>
+      <c r="I225" t="s">
+        <v>801</v>
+      </c>
+      <c r="J225" t="s">
+        <v>802</v>
+      </c>
+      <c r="K225" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>51</v>
-      </c>
-      <c r="C226" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226">
-        <v>3</v>
-      </c>
       <c r="E226" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K226" t="s">
+        <v>157</v>
+      </c>
+      <c r="L226" t="s">
+        <v>804</v>
+      </c>
+      <c r="M226" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>139</v>
-      </c>
-      <c r="F227" t="s">
-        <v>141</v>
-      </c>
-      <c r="G227" t="s">
-        <v>142</v>
-      </c>
-      <c r="H227" t="s">
-        <v>800</v>
-      </c>
-      <c r="I227" t="s">
-        <v>801</v>
-      </c>
-      <c r="J227" t="s">
-        <v>802</v>
-      </c>
-      <c r="K227" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>37</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
       <c r="E228" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G228" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H228" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I228" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J228" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K228" t="s">
-        <v>157</v>
-      </c>
-      <c r="L228" t="s">
-        <v>804</v>
-      </c>
-      <c r="M228" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F229" t="s">
+        <v>141</v>
+      </c>
+      <c r="G229" t="s">
+        <v>142</v>
+      </c>
+      <c r="H229" t="s">
+        <v>800</v>
+      </c>
+      <c r="I229" t="s">
+        <v>801</v>
+      </c>
+      <c r="J229" t="s">
+        <v>802</v>
+      </c>
+      <c r="K229" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>52</v>
-      </c>
-      <c r="C230" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230">
-        <v>3</v>
-      </c>
       <c r="E230" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J230" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K230" t="s">
+        <v>157</v>
+      </c>
+      <c r="L230" t="s">
+        <v>804</v>
+      </c>
+      <c r="M230" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>139</v>
-      </c>
-      <c r="F231" t="s">
-        <v>141</v>
-      </c>
-      <c r="G231" t="s">
-        <v>142</v>
-      </c>
-      <c r="H231" t="s">
-        <v>800</v>
-      </c>
-      <c r="I231" t="s">
-        <v>801</v>
-      </c>
-      <c r="J231" t="s">
-        <v>802</v>
-      </c>
-      <c r="K231" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
       <c r="E232" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G232" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H232" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I232" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J232" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K232" t="s">
-        <v>157</v>
-      </c>
-      <c r="L232" t="s">
-        <v>804</v>
-      </c>
-      <c r="M232" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F233" t="s">
+        <v>141</v>
+      </c>
+      <c r="G233" t="s">
+        <v>142</v>
+      </c>
+      <c r="H233" t="s">
+        <v>800</v>
+      </c>
+      <c r="I233" t="s">
+        <v>801</v>
+      </c>
+      <c r="J233" t="s">
+        <v>802</v>
+      </c>
+      <c r="K233" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>53</v>
-      </c>
-      <c r="C234" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234">
-        <v>3</v>
-      </c>
       <c r="E234" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J234" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K234" t="s">
+        <v>157</v>
+      </c>
+      <c r="L234" t="s">
+        <v>804</v>
+      </c>
+      <c r="M234" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>139</v>
-      </c>
-      <c r="F235" t="s">
-        <v>141</v>
-      </c>
-      <c r="G235" t="s">
-        <v>142</v>
-      </c>
-      <c r="H235" t="s">
-        <v>800</v>
-      </c>
-      <c r="I235" t="s">
-        <v>801</v>
-      </c>
-      <c r="J235" t="s">
-        <v>802</v>
-      </c>
-      <c r="K235" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>39</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
       <c r="E236" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H236" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I236" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J236" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K236" t="s">
-        <v>157</v>
-      </c>
-      <c r="L236" t="s">
-        <v>804</v>
-      </c>
-      <c r="M236" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F237" t="s">
+        <v>141</v>
+      </c>
+      <c r="G237" t="s">
+        <v>142</v>
+      </c>
+      <c r="H237" t="s">
+        <v>800</v>
+      </c>
+      <c r="I237" t="s">
+        <v>801</v>
+      </c>
+      <c r="J237" t="s">
+        <v>802</v>
+      </c>
+      <c r="K237" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>54</v>
-      </c>
-      <c r="C238" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238">
-        <v>3</v>
-      </c>
       <c r="E238" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K238" t="s">
+        <v>157</v>
+      </c>
+      <c r="L238" t="s">
+        <v>804</v>
+      </c>
+      <c r="M238" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>40</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
         <v>139</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F241" t="s">
         <v>141</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G241" t="s">
         <v>142</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H241" t="s">
         <v>800</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I241" t="s">
         <v>801</v>
       </c>
-      <c r="J239" t="s">
+      <c r="J241" t="s">
         <v>802</v>
       </c>
-      <c r="K239" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E240" t="s">
+      <c r="K241" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
         <v>1194</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F242" t="s">
         <v>1198</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G242" t="s">
         <v>1195</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H242" t="s">
         <v>1198</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I242" t="s">
         <v>1196</v>
       </c>
-      <c r="J240" t="s">
+      <c r="J242" t="s">
         <v>1197</v>
       </c>
-      <c r="K240" t="s">
-        <v>157</v>
-      </c>
-      <c r="L240" t="s">
+      <c r="K242" t="s">
+        <v>157</v>
+      </c>
+      <c r="L242" t="s">
         <v>804</v>
       </c>
-      <c r="M240" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" t="s">
+      <c r="M242" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>41</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>139</v>
+      </c>
+      <c r="F245" t="s">
+        <v>141</v>
+      </c>
+      <c r="G245" t="s">
+        <v>142</v>
+      </c>
+      <c r="H245" t="s">
+        <v>800</v>
+      </c>
+      <c r="I245" t="s">
+        <v>801</v>
+      </c>
+      <c r="J245" t="s">
+        <v>802</v>
+      </c>
+      <c r="K245" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I246" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J246" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K246" t="s">
+        <v>157</v>
+      </c>
+      <c r="L246" t="s">
+        <v>804</v>
+      </c>
+      <c r="M246" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>42</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>139</v>
+      </c>
+      <c r="F249" t="s">
+        <v>141</v>
+      </c>
+      <c r="G249" t="s">
+        <v>142</v>
+      </c>
+      <c r="H249" t="s">
+        <v>800</v>
+      </c>
+      <c r="I249" t="s">
+        <v>801</v>
+      </c>
+      <c r="J249" t="s">
+        <v>802</v>
+      </c>
+      <c r="K249" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I250" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K250" t="s">
+        <v>157</v>
+      </c>
+      <c r="L250" t="s">
+        <v>804</v>
+      </c>
+      <c r="M250" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>43</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>139</v>
+      </c>
+      <c r="F253" t="s">
+        <v>141</v>
+      </c>
+      <c r="G253" t="s">
+        <v>142</v>
+      </c>
+      <c r="H253" t="s">
+        <v>800</v>
+      </c>
+      <c r="I253" t="s">
+        <v>801</v>
+      </c>
+      <c r="J253" t="s">
+        <v>802</v>
+      </c>
+      <c r="K253" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K254" t="s">
+        <v>157</v>
+      </c>
+      <c r="L254" t="s">
+        <v>804</v>
+      </c>
+      <c r="M254" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>139</v>
+      </c>
+      <c r="F257" t="s">
+        <v>141</v>
+      </c>
+      <c r="G257" t="s">
+        <v>142</v>
+      </c>
+      <c r="H257" t="s">
+        <v>800</v>
+      </c>
+      <c r="I257" t="s">
+        <v>801</v>
+      </c>
+      <c r="J257" t="s">
+        <v>802</v>
+      </c>
+      <c r="K257" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K258" t="s">
+        <v>157</v>
+      </c>
+      <c r="L258" t="s">
+        <v>804</v>
+      </c>
+      <c r="M258" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>45</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>139</v>
+      </c>
+      <c r="F261" t="s">
+        <v>141</v>
+      </c>
+      <c r="G261" t="s">
+        <v>142</v>
+      </c>
+      <c r="H261" t="s">
+        <v>800</v>
+      </c>
+      <c r="I261" t="s">
+        <v>801</v>
+      </c>
+      <c r="J261" t="s">
+        <v>802</v>
+      </c>
+      <c r="K261" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K262" t="s">
+        <v>157</v>
+      </c>
+      <c r="L262" t="s">
+        <v>804</v>
+      </c>
+      <c r="M262" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>46</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>139</v>
+      </c>
+      <c r="F265" t="s">
+        <v>141</v>
+      </c>
+      <c r="G265" t="s">
+        <v>142</v>
+      </c>
+      <c r="H265" t="s">
+        <v>800</v>
+      </c>
+      <c r="I265" t="s">
+        <v>801</v>
+      </c>
+      <c r="J265" t="s">
+        <v>802</v>
+      </c>
+      <c r="K265" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K266" t="s">
+        <v>157</v>
+      </c>
+      <c r="L266" t="s">
+        <v>804</v>
+      </c>
+      <c r="M266" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>47</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>139</v>
+      </c>
+      <c r="F269" t="s">
+        <v>141</v>
+      </c>
+      <c r="G269" t="s">
+        <v>142</v>
+      </c>
+      <c r="H269" t="s">
+        <v>800</v>
+      </c>
+      <c r="I269" t="s">
+        <v>801</v>
+      </c>
+      <c r="J269" t="s">
+        <v>802</v>
+      </c>
+      <c r="K269" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K270" t="s">
+        <v>157</v>
+      </c>
+      <c r="L270" t="s">
+        <v>804</v>
+      </c>
+      <c r="M270" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>48</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>139</v>
+      </c>
+      <c r="F273" t="s">
+        <v>141</v>
+      </c>
+      <c r="G273" t="s">
+        <v>142</v>
+      </c>
+      <c r="H273" t="s">
+        <v>800</v>
+      </c>
+      <c r="I273" t="s">
+        <v>801</v>
+      </c>
+      <c r="J273" t="s">
+        <v>802</v>
+      </c>
+      <c r="K273" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G274" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K274" t="s">
+        <v>157</v>
+      </c>
+      <c r="L274" t="s">
+        <v>804</v>
+      </c>
+      <c r="M274" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>49</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+      <c r="E276" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>139</v>
+      </c>
+      <c r="F277" t="s">
+        <v>141</v>
+      </c>
+      <c r="G277" t="s">
+        <v>142</v>
+      </c>
+      <c r="H277" t="s">
+        <v>800</v>
+      </c>
+      <c r="I277" t="s">
+        <v>801</v>
+      </c>
+      <c r="J277" t="s">
+        <v>802</v>
+      </c>
+      <c r="K277" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K278" t="s">
+        <v>157</v>
+      </c>
+      <c r="L278" t="s">
+        <v>804</v>
+      </c>
+      <c r="M278" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>50</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
+      <c r="E280" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>139</v>
+      </c>
+      <c r="F281" t="s">
+        <v>141</v>
+      </c>
+      <c r="G281" t="s">
+        <v>142</v>
+      </c>
+      <c r="H281" t="s">
+        <v>800</v>
+      </c>
+      <c r="I281" t="s">
+        <v>801</v>
+      </c>
+      <c r="J281" t="s">
+        <v>802</v>
+      </c>
+      <c r="K281" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J282" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K282" t="s">
+        <v>157</v>
+      </c>
+      <c r="L282" t="s">
+        <v>804</v>
+      </c>
+      <c r="M282" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>51</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+      <c r="E284" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>139</v>
+      </c>
+      <c r="F285" t="s">
+        <v>141</v>
+      </c>
+      <c r="G285" t="s">
+        <v>142</v>
+      </c>
+      <c r="H285" t="s">
+        <v>800</v>
+      </c>
+      <c r="I285" t="s">
+        <v>801</v>
+      </c>
+      <c r="J285" t="s">
+        <v>802</v>
+      </c>
+      <c r="K285" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J286" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K286" t="s">
+        <v>157</v>
+      </c>
+      <c r="L286" t="s">
+        <v>804</v>
+      </c>
+      <c r="M286" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>52</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+      <c r="E288" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>139</v>
+      </c>
+      <c r="F289" t="s">
+        <v>141</v>
+      </c>
+      <c r="G289" t="s">
+        <v>142</v>
+      </c>
+      <c r="H289" t="s">
+        <v>800</v>
+      </c>
+      <c r="I289" t="s">
+        <v>801</v>
+      </c>
+      <c r="J289" t="s">
+        <v>802</v>
+      </c>
+      <c r="K289" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J290" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K290" t="s">
+        <v>157</v>
+      </c>
+      <c r="L290" t="s">
+        <v>804</v>
+      </c>
+      <c r="M290" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>53</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>139</v>
+      </c>
+      <c r="F293" t="s">
+        <v>141</v>
+      </c>
+      <c r="G293" t="s">
+        <v>142</v>
+      </c>
+      <c r="H293" t="s">
+        <v>800</v>
+      </c>
+      <c r="I293" t="s">
+        <v>801</v>
+      </c>
+      <c r="J293" t="s">
+        <v>802</v>
+      </c>
+      <c r="K293" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I294" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J294" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K294" t="s">
+        <v>157</v>
+      </c>
+      <c r="L294" t="s">
+        <v>804</v>
+      </c>
+      <c r="M294" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>54</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>139</v>
+      </c>
+      <c r="F297" t="s">
+        <v>141</v>
+      </c>
+      <c r="G297" t="s">
+        <v>142</v>
+      </c>
+      <c r="H297" t="s">
+        <v>800</v>
+      </c>
+      <c r="I297" t="s">
+        <v>801</v>
+      </c>
+      <c r="J297" t="s">
+        <v>802</v>
+      </c>
+      <c r="K297" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I298" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J298" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K298" t="s">
+        <v>157</v>
+      </c>
+      <c r="L298" t="s">
+        <v>804</v>
+      </c>
+      <c r="M298" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
         <v>138</v>
       </c>
     </row>
@@ -33184,9 +34943,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33336,26 +35098,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33379,9 +35130,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC97BE56-98FD-4AAA-B1E6-0D8F9446C05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F05C6C-B23C-40B8-81FA-C7C198FAA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7170" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7205" uniqueCount="1410">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4960,6 +4960,21 @@
   </si>
   <si>
     <t>" subjects")</t>
+  </si>
+  <si>
+    <t>(num</t>
+  </si>
+  <si>
+    <t>" == "</t>
+  </si>
+  <si>
+    <t>num2)</t>
+  </si>
+  <si>
+    <t>" != "</t>
+  </si>
+  <si>
+    <t>convert)</t>
   </si>
 </sst>
 </file>
@@ -12240,7 +12255,7 @@
   <dimension ref="A1:Y529"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P133" sqref="P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26419,10 +26434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:R299"/>
+  <dimension ref="A1:R303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="M217" sqref="M217"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="P220" sqref="P220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31178,75 +31193,108 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>1194</v>
+        <v>191</v>
       </c>
       <c r="F218" t="s">
-        <v>1198</v>
+        <v>880</v>
       </c>
       <c r="G218" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H218">
+        <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J218" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K218" t="s">
-        <v>157</v>
-      </c>
-      <c r="L218" t="s">
-        <v>804</v>
-      </c>
-      <c r="M218" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="F219" t="s">
+        <v>823</v>
+      </c>
+      <c r="G219" t="s">
+        <v>240</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219" t="s">
+        <v>157</v>
+      </c>
+      <c r="J219" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>35</v>
-      </c>
-      <c r="B220">
-        <v>5</v>
-      </c>
-      <c r="C220" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
       <c r="E220" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G220" t="s">
+        <v>240</v>
+      </c>
+      <c r="H220" t="s">
+        <v>143</v>
+      </c>
+      <c r="I220" t="s">
+        <v>817</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L220" t="s">
+        <v>157</v>
+      </c>
+      <c r="M220" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F221" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G221" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H221" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I221" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J221" t="s">
-        <v>802</v>
+        <v>1405</v>
       </c>
       <c r="K221" t="s">
+        <v>264</v>
+      </c>
+      <c r="L221" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M221" t="s">
+        <v>264</v>
+      </c>
+      <c r="N221" t="s">
+        <v>1407</v>
+      </c>
+      <c r="O221" t="s">
+        <v>157</v>
+      </c>
+      <c r="P221" t="s">
         <v>797</v>
       </c>
     </row>
@@ -31267,15 +31315,27 @@
         <v>1196</v>
       </c>
       <c r="J222" t="s">
-        <v>1197</v>
+        <v>1405</v>
       </c>
       <c r="K222" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="L222" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M222" t="s">
+        <v>264</v>
+      </c>
+      <c r="N222" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O222" t="s">
+        <v>157</v>
+      </c>
+      <c r="P222" t="s">
         <v>804</v>
       </c>
-      <c r="M222" t="s">
+      <c r="Q222" t="s">
         <v>797</v>
       </c>
     </row>
@@ -31286,7 +31346,7 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B224">
         <v>5</v>
@@ -31300,11 +31360,8 @@
       <c r="E224" t="s">
         <v>137</v>
       </c>
-      <c r="R224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
         <v>139</v>
       </c>
@@ -31327,7 +31384,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
         <v>1194</v>
       </c>
@@ -31356,17 +31413,20 @@
         <v>797</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -31374,8 +31434,11 @@
       <c r="E228" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R228" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
         <v>139</v>
       </c>
@@ -31398,7 +31461,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
         <v>1194</v>
       </c>
@@ -31427,17 +31490,17 @@
         <v>797</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -31446,7 +31509,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
         <v>139</v>
       </c>
@@ -31469,7 +31532,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
         <v>1194</v>
       </c>
@@ -31498,14 +31561,14 @@
         <v>797</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -31517,7 +31580,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
         <v>139</v>
       </c>
@@ -31540,7 +31603,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
         <v>1194</v>
       </c>
@@ -31569,14 +31632,14 @@
         <v>797</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -31647,7 +31710,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -31718,7 +31781,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
@@ -31789,13 +31852,13 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
         <v>137</v>
@@ -31860,7 +31923,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C256" t="s">
         <v>8</v>
@@ -31931,7 +31994,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -32002,7 +32065,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s">
         <v>8</v>
@@ -32073,7 +32136,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
@@ -32144,7 +32207,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
@@ -32215,13 +32278,13 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
         <v>137</v>
@@ -32286,7 +32349,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C280" t="s">
         <v>8</v>
@@ -32357,7 +32420,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C284" t="s">
         <v>8</v>
@@ -32428,7 +32491,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C288" t="s">
         <v>8</v>
@@ -32499,7 +32562,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -32570,7 +32633,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C296" t="s">
         <v>8</v>
@@ -32636,6 +32699,77 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>54</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>139</v>
+      </c>
+      <c r="F301" t="s">
+        <v>141</v>
+      </c>
+      <c r="G301" t="s">
+        <v>142</v>
+      </c>
+      <c r="H301" t="s">
+        <v>800</v>
+      </c>
+      <c r="I301" t="s">
+        <v>801</v>
+      </c>
+      <c r="J301" t="s">
+        <v>802</v>
+      </c>
+      <c r="K301" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I302" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J302" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K302" t="s">
+        <v>157</v>
+      </c>
+      <c r="L302" t="s">
+        <v>804</v>
+      </c>
+      <c r="M302" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
         <v>138</v>
       </c>
     </row>
@@ -34943,12 +35077,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35098,15 +35229,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35130,17 +35272,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38797460-E9EB-43A9-876D-FBD8EF461986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579FDD5-9079-4621-A01E-C4885597321A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7265" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7350" uniqueCount="1434">
   <si>
     <t>Stage 1</t>
   </si>
@@ -5020,6 +5020,33 @@
   </si>
   <si>
     <t>("Hello World"</t>
+  </si>
+  <si>
+    <t>(num++)</t>
+  </si>
+  <si>
+    <t>(++num)</t>
+  </si>
+  <si>
+    <t>(num--)</t>
+  </si>
+  <si>
+    <t>(--num)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>((++num</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>("True")</t>
+  </si>
+  <si>
+    <t>("False")</t>
   </si>
 </sst>
 </file>
@@ -26479,10 +26506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O336"/>
+  <dimension ref="A1:O357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="K284" sqref="K284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31503,7 +31530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>39</v>
       </c>
@@ -31520,7 +31547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
         <v>139</v>
       </c>
@@ -31543,521 +31570,476 @@
         <v>797</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>1194</v>
+        <v>191</v>
       </c>
       <c r="F259" t="s">
-        <v>1198</v>
+        <v>880</v>
       </c>
       <c r="G259" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H259" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J259" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K259" t="s">
-        <v>157</v>
-      </c>
-      <c r="L259" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>795</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G260" t="s">
+        <v>157</v>
+      </c>
+      <c r="H260" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>795</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G261" t="s">
+        <v>157</v>
+      </c>
+      <c r="H261" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>795</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G262" t="s">
+        <v>157</v>
+      </c>
+      <c r="H262" t="s">
         <v>804</v>
       </c>
-      <c r="M259" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E260" t="s">
+      <c r="I262" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>40</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B264" t="s">
         <v>21</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C264" t="s">
         <v>7</v>
       </c>
-      <c r="D261">
+      <c r="D264">
         <v>3</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E264" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E262" t="s">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
         <v>139</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F265" t="s">
         <v>141</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G265" t="s">
         <v>142</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H265" t="s">
         <v>800</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I265" t="s">
         <v>801</v>
       </c>
-      <c r="J262" t="s">
+      <c r="J265" t="s">
         <v>802</v>
       </c>
-      <c r="K262" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E263" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G263" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H263" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I263" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J263" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K263" t="s">
-        <v>157</v>
-      </c>
-      <c r="L263" t="s">
+      <c r="K265" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>191</v>
+      </c>
+      <c r="F266" t="s">
+        <v>880</v>
+      </c>
+      <c r="G266" t="s">
+        <v>240</v>
+      </c>
+      <c r="H266">
+        <v>5</v>
+      </c>
+      <c r="I266" t="s">
+        <v>157</v>
+      </c>
+      <c r="J266" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>795</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G267" t="s">
+        <v>157</v>
+      </c>
+      <c r="H267" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>795</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G268" t="s">
+        <v>157</v>
+      </c>
+      <c r="H268" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>795</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G269" t="s">
+        <v>157</v>
+      </c>
+      <c r="H269" t="s">
         <v>804</v>
       </c>
-      <c r="M263" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E264" t="s">
+      <c r="I269" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>41</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B271" t="s">
         <v>21</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C271" t="s">
         <v>8</v>
       </c>
-      <c r="D265">
+      <c r="D271">
         <v>3</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E271" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E266" t="s">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
         <v>139</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F272" t="s">
         <v>141</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G272" t="s">
         <v>142</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H272" t="s">
         <v>800</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I272" t="s">
         <v>801</v>
       </c>
-      <c r="J266" t="s">
+      <c r="J272" t="s">
         <v>802</v>
       </c>
-      <c r="K266" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E267" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H267" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I267" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J267" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K267" t="s">
-        <v>157</v>
-      </c>
-      <c r="L267" t="s">
-        <v>804</v>
-      </c>
-      <c r="M267" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E268" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>42</v>
-      </c>
-      <c r="B269" t="s">
-        <v>21</v>
-      </c>
-      <c r="C269" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269">
+      <c r="K272" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>191</v>
+      </c>
+      <c r="F273" t="s">
+        <v>880</v>
+      </c>
+      <c r="G273" t="s">
+        <v>240</v>
+      </c>
+      <c r="H273">
         <v>3</v>
       </c>
-      <c r="E269" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E270" t="s">
-        <v>139</v>
-      </c>
-      <c r="F270" t="s">
-        <v>141</v>
-      </c>
-      <c r="G270" t="s">
-        <v>142</v>
-      </c>
-      <c r="H270" t="s">
-        <v>800</v>
-      </c>
-      <c r="I270" t="s">
-        <v>801</v>
-      </c>
-      <c r="J270" t="s">
-        <v>802</v>
-      </c>
-      <c r="K270" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E271" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G271" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I271" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K271" t="s">
-        <v>157</v>
-      </c>
-      <c r="L271" t="s">
-        <v>804</v>
-      </c>
-      <c r="M271" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E272" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>43</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C273" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273">
-        <v>5</v>
-      </c>
-      <c r="E273" t="s">
-        <v>137</v>
+      <c r="I273" t="s">
+        <v>157</v>
+      </c>
+      <c r="J273" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F274" t="s">
-        <v>141</v>
+        <v>1430</v>
       </c>
       <c r="G274" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="H274" t="s">
-        <v>800</v>
+        <v>1429</v>
       </c>
       <c r="I274" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="J274" t="s">
-        <v>802</v>
+        <v>1431</v>
       </c>
       <c r="K274" t="s">
+        <v>157</v>
+      </c>
+      <c r="L274" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F275" t="s">
-        <v>1198</v>
+        <v>1384</v>
       </c>
       <c r="G275" t="s">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="H275" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I275" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J275" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K275" t="s">
-        <v>157</v>
-      </c>
-      <c r="L275" t="s">
-        <v>804</v>
-      </c>
-      <c r="M275" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>138</v>
+        <v>795</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G276" t="s">
+        <v>157</v>
+      </c>
+      <c r="H276" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>44</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C277" t="s">
-        <v>6</v>
-      </c>
-      <c r="D277">
-        <v>5</v>
-      </c>
       <c r="E277" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G277" t="s">
+        <v>157</v>
+      </c>
+      <c r="H277" t="s">
+        <v>804</v>
+      </c>
+      <c r="I277" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F278" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G278" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H278" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I278" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J278" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K278" t="s">
+        <v>157</v>
+      </c>
+      <c r="L278" t="s">
+        <v>804</v>
+      </c>
+      <c r="M278" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I279" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K279" t="s">
-        <v>157</v>
-      </c>
-      <c r="L279" t="s">
-        <v>804</v>
-      </c>
-      <c r="M279" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>42</v>
+      </c>
+      <c r="B280" t="s">
+        <v>21</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
       <c r="E280" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>45</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C281" t="s">
-        <v>7</v>
-      </c>
-      <c r="D281">
-        <v>5</v>
-      </c>
       <c r="E281" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F281" t="s">
+        <v>141</v>
+      </c>
+      <c r="G281" t="s">
+        <v>142</v>
+      </c>
+      <c r="H281" t="s">
+        <v>800</v>
+      </c>
+      <c r="I281" t="s">
+        <v>801</v>
+      </c>
+      <c r="J281" t="s">
+        <v>802</v>
+      </c>
+      <c r="K281" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F282" t="s">
-        <v>141</v>
+        <v>880</v>
       </c>
       <c r="G282" t="s">
-        <v>142</v>
-      </c>
-      <c r="H282" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H282">
+        <v>3</v>
       </c>
       <c r="I282" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J282" t="s">
-        <v>802</v>
-      </c>
-      <c r="K282" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F283" t="s">
-        <v>1198</v>
+        <v>1430</v>
       </c>
       <c r="G283" t="s">
-        <v>1195</v>
+        <v>259</v>
       </c>
       <c r="H283" t="s">
-        <v>1198</v>
+        <v>1429</v>
       </c>
       <c r="I283" t="s">
-        <v>1196</v>
+        <v>806</v>
       </c>
       <c r="J283" t="s">
-        <v>1197</v>
+        <v>1431</v>
       </c>
       <c r="K283" t="s">
         <v>157</v>
       </c>
       <c r="L283" t="s">
-        <v>804</v>
-      </c>
-      <c r="M283" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>138</v>
+        <v>795</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G284" t="s">
+        <v>157</v>
+      </c>
+      <c r="H284" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>46</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285">
-        <v>5</v>
-      </c>
       <c r="E285" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G285" t="s">
+        <v>157</v>
+      </c>
+      <c r="H285" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F286" t="s">
-        <v>141</v>
+        <v>1384</v>
       </c>
       <c r="G286" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H286" t="s">
-        <v>800</v>
-      </c>
-      <c r="I286" t="s">
-        <v>801</v>
-      </c>
-      <c r="J286" t="s">
-        <v>802</v>
-      </c>
-      <c r="K286" t="s">
         <v>797</v>
       </c>
     </row>
@@ -32097,13 +32079,13 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B289" t="s">
         <v>1402</v>
       </c>
       <c r="C289" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D289">
         <v>5</v>
@@ -32137,849 +32119,1203 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>1194</v>
+        <v>190</v>
       </c>
       <c r="F291" t="s">
-        <v>1198</v>
+        <v>1372</v>
       </c>
       <c r="G291" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H291" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>1373</v>
       </c>
       <c r="I291" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J291" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K291" t="s">
-        <v>157</v>
-      </c>
-      <c r="L291" t="s">
-        <v>804</v>
-      </c>
-      <c r="M291" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>138</v>
+        <v>280</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G292" t="s">
+        <v>802</v>
+      </c>
+      <c r="H292" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>48</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C293" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293">
-        <v>5</v>
-      </c>
       <c r="E293" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G293" t="s">
+        <v>157</v>
+      </c>
+      <c r="H293" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F294" t="s">
-        <v>141</v>
+        <v>825</v>
       </c>
       <c r="G294" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H294" t="s">
-        <v>800</v>
-      </c>
-      <c r="I294" t="s">
-        <v>801</v>
-      </c>
-      <c r="J294" t="s">
-        <v>802</v>
-      </c>
-      <c r="K294" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F295" t="s">
-        <v>1198</v>
+        <v>1433</v>
       </c>
       <c r="G295" t="s">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="H295" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I295" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J295" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K295" t="s">
-        <v>157</v>
-      </c>
-      <c r="L295" t="s">
-        <v>804</v>
-      </c>
-      <c r="M295" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
+        <v>804</v>
+      </c>
+      <c r="F296" t="s">
+        <v>804</v>
+      </c>
+      <c r="G296" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>49</v>
-      </c>
-      <c r="B297" t="s">
-        <v>23</v>
-      </c>
-      <c r="C297" t="s">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>44</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C298" t="s">
         <v>6</v>
       </c>
-      <c r="D297">
-        <v>6</v>
-      </c>
-      <c r="E297" t="s">
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E298" t="s">
-        <v>139</v>
-      </c>
-      <c r="F298" t="s">
-        <v>141</v>
-      </c>
-      <c r="G298" t="s">
-        <v>142</v>
-      </c>
-      <c r="H298" t="s">
-        <v>800</v>
-      </c>
-      <c r="I298" t="s">
-        <v>801</v>
-      </c>
-      <c r="J298" t="s">
-        <v>802</v>
-      </c>
-      <c r="K298" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F299" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G299" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H299" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I299" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J299" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K299" t="s">
-        <v>157</v>
-      </c>
-      <c r="L299" t="s">
-        <v>804</v>
-      </c>
-      <c r="M299" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J300" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K300" t="s">
+        <v>157</v>
+      </c>
+      <c r="L300" t="s">
+        <v>804</v>
+      </c>
+      <c r="M300" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>50</v>
-      </c>
-      <c r="B301" t="s">
-        <v>23</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301">
-        <v>6</v>
-      </c>
-      <c r="E301" t="s">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>45</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C302" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E302" t="s">
-        <v>139</v>
-      </c>
-      <c r="F302" t="s">
-        <v>141</v>
-      </c>
-      <c r="G302" t="s">
-        <v>142</v>
-      </c>
-      <c r="H302" t="s">
-        <v>800</v>
-      </c>
-      <c r="I302" t="s">
-        <v>801</v>
-      </c>
-      <c r="J302" t="s">
-        <v>802</v>
-      </c>
-      <c r="K302" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F303" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G303" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H303" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I303" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J303" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K303" t="s">
-        <v>157</v>
-      </c>
-      <c r="L303" t="s">
-        <v>804</v>
-      </c>
-      <c r="M303" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K304" t="s">
+        <v>157</v>
+      </c>
+      <c r="L304" t="s">
+        <v>804</v>
+      </c>
+      <c r="M304" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>51</v>
-      </c>
-      <c r="B305" t="s">
-        <v>23</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305">
-        <v>6</v>
-      </c>
-      <c r="E305" t="s">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>46</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C306" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306">
+        <v>5</v>
+      </c>
+      <c r="E306" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E306" t="s">
-        <v>139</v>
-      </c>
-      <c r="F306" t="s">
-        <v>141</v>
-      </c>
-      <c r="G306" t="s">
-        <v>142</v>
-      </c>
-      <c r="H306" t="s">
-        <v>800</v>
-      </c>
-      <c r="I306" t="s">
-        <v>801</v>
-      </c>
-      <c r="J306" t="s">
-        <v>802</v>
-      </c>
-      <c r="K306" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F307" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G307" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H307" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I307" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J307" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K307" t="s">
-        <v>157</v>
-      </c>
-      <c r="L307" t="s">
-        <v>804</v>
-      </c>
-      <c r="M307" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I308" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J308" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K308" t="s">
+        <v>157</v>
+      </c>
+      <c r="L308" t="s">
+        <v>804</v>
+      </c>
+      <c r="M308" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>52</v>
-      </c>
-      <c r="B309" t="s">
-        <v>23</v>
-      </c>
-      <c r="C309" t="s">
-        <v>7</v>
-      </c>
-      <c r="D309">
-        <v>6</v>
-      </c>
-      <c r="E309" t="s">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>47</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310">
+        <v>5</v>
+      </c>
+      <c r="E310" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E310" t="s">
-        <v>139</v>
-      </c>
-      <c r="F310" t="s">
-        <v>141</v>
-      </c>
-      <c r="G310" t="s">
-        <v>142</v>
-      </c>
-      <c r="H310" t="s">
-        <v>800</v>
-      </c>
-      <c r="I310" t="s">
-        <v>801</v>
-      </c>
-      <c r="J310" t="s">
-        <v>802</v>
-      </c>
-      <c r="K310" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F311" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G311" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H311" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I311" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J311" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K311" t="s">
-        <v>157</v>
-      </c>
-      <c r="L311" t="s">
-        <v>804</v>
-      </c>
-      <c r="M311" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J312" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K312" t="s">
+        <v>157</v>
+      </c>
+      <c r="L312" t="s">
+        <v>804</v>
+      </c>
+      <c r="M312" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>53</v>
-      </c>
-      <c r="B313" t="s">
-        <v>23</v>
-      </c>
-      <c r="C313" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313">
-        <v>6</v>
-      </c>
-      <c r="E313" t="s">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>48</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E314" t="s">
-        <v>139</v>
-      </c>
-      <c r="F314" t="s">
-        <v>141</v>
-      </c>
-      <c r="G314" t="s">
-        <v>142</v>
-      </c>
-      <c r="H314" t="s">
-        <v>800</v>
-      </c>
-      <c r="I314" t="s">
-        <v>801</v>
-      </c>
-      <c r="J314" t="s">
-        <v>802</v>
-      </c>
-      <c r="K314" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F315" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G315" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H315" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I315" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J315" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K315" t="s">
-        <v>157</v>
-      </c>
-      <c r="L315" t="s">
-        <v>804</v>
-      </c>
-      <c r="M315" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I316" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J316" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K316" t="s">
+        <v>157</v>
+      </c>
+      <c r="L316" t="s">
+        <v>804</v>
+      </c>
+      <c r="M316" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>54</v>
-      </c>
-      <c r="B317" t="s">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>49</v>
+      </c>
+      <c r="B318" t="s">
         <v>23</v>
       </c>
-      <c r="C317" t="s">
-        <v>7</v>
-      </c>
-      <c r="D317">
+      <c r="C318" t="s">
         <v>6</v>
       </c>
-      <c r="E317" t="s">
+      <c r="D318">
+        <v>6</v>
+      </c>
+      <c r="E318" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E318" t="s">
-        <v>139</v>
-      </c>
-      <c r="F318" t="s">
-        <v>141</v>
-      </c>
-      <c r="G318" t="s">
-        <v>142</v>
-      </c>
-      <c r="H318" t="s">
-        <v>800</v>
-      </c>
-      <c r="I318" t="s">
-        <v>801</v>
-      </c>
-      <c r="J318" t="s">
-        <v>802</v>
-      </c>
-      <c r="K318" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F319" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G319" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H319" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I319" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J319" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K319" t="s">
-        <v>157</v>
-      </c>
-      <c r="L319" t="s">
-        <v>804</v>
-      </c>
-      <c r="M319" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K320" t="s">
+        <v>157</v>
+      </c>
+      <c r="L320" t="s">
+        <v>804</v>
+      </c>
+      <c r="M320" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>55</v>
-      </c>
-      <c r="B321" t="s">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>50</v>
+      </c>
+      <c r="B322" t="s">
         <v>23</v>
       </c>
-      <c r="C321" t="s">
-        <v>8</v>
-      </c>
-      <c r="D321">
+      <c r="C322" t="s">
         <v>6</v>
       </c>
-      <c r="E321" t="s">
+      <c r="D322">
+        <v>6</v>
+      </c>
+      <c r="E322" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E322" t="s">
-        <v>139</v>
-      </c>
-      <c r="F322" t="s">
-        <v>141</v>
-      </c>
-      <c r="G322" t="s">
-        <v>142</v>
-      </c>
-      <c r="H322" t="s">
-        <v>800</v>
-      </c>
-      <c r="I322" t="s">
-        <v>801</v>
-      </c>
-      <c r="J322" t="s">
-        <v>802</v>
-      </c>
-      <c r="K322" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F323" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G323" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H323" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I323" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J323" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K323" t="s">
-        <v>157</v>
-      </c>
-      <c r="L323" t="s">
-        <v>804</v>
-      </c>
-      <c r="M323" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J324" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K324" t="s">
+        <v>157</v>
+      </c>
+      <c r="L324" t="s">
+        <v>804</v>
+      </c>
+      <c r="M324" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>56</v>
-      </c>
-      <c r="B325" t="s">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>51</v>
+      </c>
+      <c r="B326" t="s">
         <v>23</v>
       </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325">
+      <c r="C326" t="s">
         <v>6</v>
       </c>
-      <c r="E325" t="s">
+      <c r="D326">
+        <v>6</v>
+      </c>
+      <c r="E326" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E326" t="s">
-        <v>139</v>
-      </c>
-      <c r="F326" t="s">
-        <v>141</v>
-      </c>
-      <c r="G326" t="s">
-        <v>142</v>
-      </c>
-      <c r="H326" t="s">
-        <v>800</v>
-      </c>
-      <c r="I326" t="s">
-        <v>801</v>
-      </c>
-      <c r="J326" t="s">
-        <v>802</v>
-      </c>
-      <c r="K326" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F327" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G327" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H327" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I327" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J327" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K327" t="s">
-        <v>157</v>
-      </c>
-      <c r="L327" t="s">
-        <v>804</v>
-      </c>
-      <c r="M327" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J328" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K328" t="s">
+        <v>157</v>
+      </c>
+      <c r="L328" t="s">
+        <v>804</v>
+      </c>
+      <c r="M328" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>57</v>
-      </c>
-      <c r="B329" t="s">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>52</v>
+      </c>
+      <c r="B330" t="s">
         <v>23</v>
       </c>
-      <c r="C329" t="s">
-        <v>8</v>
-      </c>
-      <c r="D329">
+      <c r="C330" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330">
         <v>6</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E330" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E330" t="s">
-        <v>139</v>
-      </c>
-      <c r="F330" t="s">
-        <v>141</v>
-      </c>
-      <c r="G330" t="s">
-        <v>142</v>
-      </c>
-      <c r="H330" t="s">
-        <v>800</v>
-      </c>
-      <c r="I330" t="s">
-        <v>801</v>
-      </c>
-      <c r="J330" t="s">
-        <v>802</v>
-      </c>
-      <c r="K330" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F331" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G331" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H331" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I331" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J331" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K331" t="s">
-        <v>157</v>
-      </c>
-      <c r="L331" t="s">
-        <v>804</v>
-      </c>
-      <c r="M331" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K332" t="s">
+        <v>157</v>
+      </c>
+      <c r="L332" t="s">
+        <v>804</v>
+      </c>
+      <c r="M332" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>58</v>
-      </c>
-      <c r="B333" t="s">
-        <v>24</v>
-      </c>
-      <c r="C333" t="s">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>53</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334">
         <v>6</v>
       </c>
-      <c r="D333">
-        <v>7</v>
-      </c>
-      <c r="E333" t="s">
+      <c r="E334" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E334" t="s">
-        <v>139</v>
-      </c>
-      <c r="F334" t="s">
-        <v>141</v>
-      </c>
-      <c r="G334" t="s">
-        <v>142</v>
-      </c>
-      <c r="H334" t="s">
-        <v>800</v>
-      </c>
-      <c r="I334" t="s">
-        <v>801</v>
-      </c>
-      <c r="J334" t="s">
-        <v>802</v>
-      </c>
-      <c r="K334" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F335" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G335" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H335" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I335" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J335" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K335" t="s">
-        <v>157</v>
-      </c>
-      <c r="L335" t="s">
-        <v>804</v>
-      </c>
-      <c r="M335" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K336" t="s">
+        <v>157</v>
+      </c>
+      <c r="L336" t="s">
+        <v>804</v>
+      </c>
+      <c r="M336" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>54</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338">
+        <v>6</v>
+      </c>
+      <c r="E338" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>139</v>
+      </c>
+      <c r="F339" t="s">
+        <v>141</v>
+      </c>
+      <c r="G339" t="s">
+        <v>142</v>
+      </c>
+      <c r="H339" t="s">
+        <v>800</v>
+      </c>
+      <c r="I339" t="s">
+        <v>801</v>
+      </c>
+      <c r="J339" t="s">
+        <v>802</v>
+      </c>
+      <c r="K339" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E340" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K340" t="s">
+        <v>157</v>
+      </c>
+      <c r="L340" t="s">
+        <v>804</v>
+      </c>
+      <c r="M340" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>55</v>
+      </c>
+      <c r="B342" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342">
+        <v>6</v>
+      </c>
+      <c r="E342" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>139</v>
+      </c>
+      <c r="F343" t="s">
+        <v>141</v>
+      </c>
+      <c r="G343" t="s">
+        <v>142</v>
+      </c>
+      <c r="H343" t="s">
+        <v>800</v>
+      </c>
+      <c r="I343" t="s">
+        <v>801</v>
+      </c>
+      <c r="J343" t="s">
+        <v>802</v>
+      </c>
+      <c r="K343" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K344" t="s">
+        <v>157</v>
+      </c>
+      <c r="L344" t="s">
+        <v>804</v>
+      </c>
+      <c r="M344" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>56</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346">
+        <v>6</v>
+      </c>
+      <c r="E346" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>139</v>
+      </c>
+      <c r="F347" t="s">
+        <v>141</v>
+      </c>
+      <c r="G347" t="s">
+        <v>142</v>
+      </c>
+      <c r="H347" t="s">
+        <v>800</v>
+      </c>
+      <c r="I347" t="s">
+        <v>801</v>
+      </c>
+      <c r="J347" t="s">
+        <v>802</v>
+      </c>
+      <c r="K347" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K348" t="s">
+        <v>157</v>
+      </c>
+      <c r="L348" t="s">
+        <v>804</v>
+      </c>
+      <c r="M348" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>57</v>
+      </c>
+      <c r="B350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350">
+        <v>6</v>
+      </c>
+      <c r="E350" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>139</v>
+      </c>
+      <c r="F351" t="s">
+        <v>141</v>
+      </c>
+      <c r="G351" t="s">
+        <v>142</v>
+      </c>
+      <c r="H351" t="s">
+        <v>800</v>
+      </c>
+      <c r="I351" t="s">
+        <v>801</v>
+      </c>
+      <c r="J351" t="s">
+        <v>802</v>
+      </c>
+      <c r="K351" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E352" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J352" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K352" t="s">
+        <v>157</v>
+      </c>
+      <c r="L352" t="s">
+        <v>804</v>
+      </c>
+      <c r="M352" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>58</v>
+      </c>
+      <c r="B354" t="s">
+        <v>24</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>7</v>
+      </c>
+      <c r="E354" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>139</v>
+      </c>
+      <c r="F355" t="s">
+        <v>141</v>
+      </c>
+      <c r="G355" t="s">
+        <v>142</v>
+      </c>
+      <c r="H355" t="s">
+        <v>800</v>
+      </c>
+      <c r="I355" t="s">
+        <v>801</v>
+      </c>
+      <c r="J355" t="s">
+        <v>802</v>
+      </c>
+      <c r="K355" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H356" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I356" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J356" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K356" t="s">
+        <v>157</v>
+      </c>
+      <c r="L356" t="s">
+        <v>804</v>
+      </c>
+      <c r="M356" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
         <v>138</v>
       </c>
     </row>
@@ -35287,12 +35623,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35442,15 +35775,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35474,17 +35818,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579FDD5-9079-4621-A01E-C4885597321A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF1ED8-D80C-443C-B7A8-1FE542F895A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7350" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="1458">
   <si>
     <t>Stage 1</t>
   </si>
@@ -5047,6 +5047,78 @@
   </si>
   <si>
     <t>("False")</t>
+  </si>
+  <si>
+    <t>("A is greater")</t>
+  </si>
+  <si>
+    <t>("B is greater")</t>
+  </si>
+  <si>
+    <t>(num1</t>
+  </si>
+  <si>
+    <t>else if</t>
+  </si>
+  <si>
+    <t>("B is lower")</t>
+  </si>
+  <si>
+    <t>(num3</t>
+  </si>
+  <si>
+    <t>num1)</t>
+  </si>
+  <si>
+    <t>("C is lower")</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>(letter)</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>("A Grade")</t>
+  </si>
+  <si>
+    <t>("B Grade")</t>
+  </si>
+  <si>
+    <t>B'</t>
+  </si>
+  <si>
+    <t>("No Grade")</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>"North"</t>
+  </si>
+  <si>
+    <t>("No Direction")</t>
+  </si>
+  <si>
+    <t>"South"</t>
+  </si>
+  <si>
+    <t>("Up")</t>
+  </si>
+  <si>
+    <t>("Down")</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"B"</t>
+  </si>
+  <si>
+    <t>"C"</t>
   </si>
 </sst>
 </file>
@@ -26506,10 +26578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O357"/>
+  <dimension ref="A1:O442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="K284" sqref="K284"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="J419" sqref="J419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32077,7 +32149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>43</v>
       </c>
@@ -32094,7 +32166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
         <v>139</v>
       </c>
@@ -32117,7 +32189,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
         <v>190</v>
       </c>
@@ -32137,7 +32209,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
         <v>280</v>
       </c>
@@ -32151,7 +32223,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>795</v>
       </c>
@@ -32165,7 +32237,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>804</v>
       </c>
@@ -32179,7 +32251,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
         <v>795</v>
       </c>
@@ -32193,7 +32265,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
         <v>804</v>
       </c>
@@ -32204,12 +32276,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>44</v>
       </c>
@@ -32226,7 +32298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
         <v>139</v>
       </c>
@@ -32249,1073 +32321,2245 @@
         <v>797</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>1194</v>
+        <v>190</v>
       </c>
       <c r="F300" t="s">
-        <v>1198</v>
+        <v>1372</v>
       </c>
       <c r="G300" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H300" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>1376</v>
       </c>
       <c r="I300" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J300" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K300" t="s">
-        <v>157</v>
-      </c>
-      <c r="L300" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>280</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G301" t="s">
+        <v>802</v>
+      </c>
+      <c r="H301" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>795</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G302" t="s">
+        <v>157</v>
+      </c>
+      <c r="H302" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
         <v>804</v>
       </c>
-      <c r="M300" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>45</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C302" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302">
-        <v>5</v>
-      </c>
-      <c r="E302" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E303" t="s">
-        <v>139</v>
-      </c>
       <c r="F303" t="s">
-        <v>141</v>
+        <v>825</v>
       </c>
       <c r="G303" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H303" t="s">
-        <v>800</v>
-      </c>
-      <c r="I303" t="s">
-        <v>801</v>
-      </c>
-      <c r="J303" t="s">
-        <v>802</v>
-      </c>
-      <c r="K303" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F304" t="s">
-        <v>1198</v>
+        <v>1433</v>
       </c>
       <c r="G304" t="s">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="H304" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I304" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J304" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K304" t="s">
-        <v>157</v>
-      </c>
-      <c r="L304" t="s">
-        <v>804</v>
-      </c>
-      <c r="M304" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
+        <v>804</v>
+      </c>
+      <c r="F305" t="s">
+        <v>804</v>
+      </c>
+      <c r="G305" t="s">
+        <v>157</v>
+      </c>
+      <c r="K305" t="s">
+        <v>157</v>
+      </c>
+      <c r="L305" t="s">
+        <v>804</v>
+      </c>
+      <c r="M305" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>46</v>
-      </c>
-      <c r="B306" t="s">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>45</v>
+      </c>
+      <c r="B307" t="s">
         <v>1402</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" t="s">
         <v>7</v>
       </c>
-      <c r="D306">
+      <c r="D307">
         <v>5</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E307" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E307" t="s">
-        <v>139</v>
-      </c>
-      <c r="F307" t="s">
-        <v>141</v>
-      </c>
-      <c r="G307" t="s">
-        <v>142</v>
-      </c>
-      <c r="H307" t="s">
-        <v>800</v>
-      </c>
-      <c r="I307" t="s">
-        <v>801</v>
-      </c>
-      <c r="J307" t="s">
-        <v>802</v>
-      </c>
-      <c r="K307" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F308" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G308" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H308" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I308" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J308" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K308" t="s">
-        <v>157</v>
-      </c>
-      <c r="L308" t="s">
-        <v>804</v>
-      </c>
-      <c r="M308" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="F309" t="s">
+        <v>821</v>
+      </c>
+      <c r="G309" t="s">
+        <v>240</v>
+      </c>
+      <c r="H309">
+        <v>5</v>
+      </c>
+      <c r="I309" t="s">
+        <v>157</v>
+      </c>
+      <c r="J309" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>47</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C310" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310">
-        <v>5</v>
-      </c>
       <c r="E310" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F310" t="s">
+        <v>823</v>
+      </c>
+      <c r="G310" t="s">
+        <v>240</v>
+      </c>
+      <c r="H310">
+        <v>3</v>
+      </c>
+      <c r="I310" t="s">
+        <v>157</v>
+      </c>
+      <c r="J310" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="F311" t="s">
-        <v>141</v>
+        <v>1436</v>
       </c>
       <c r="G311" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H311" t="s">
-        <v>800</v>
+        <v>1392</v>
       </c>
       <c r="I311" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J311" t="s">
-        <v>802</v>
-      </c>
-      <c r="K311" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F312" t="s">
-        <v>1198</v>
+        <v>1434</v>
       </c>
       <c r="G312" t="s">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="H312" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
       <c r="I312" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J312" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K312" t="s">
-        <v>157</v>
-      </c>
-      <c r="L312" t="s">
-        <v>804</v>
-      </c>
-      <c r="M312" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>138</v>
+        <v>825</v>
+      </c>
+      <c r="F313" t="s">
+        <v>802</v>
+      </c>
+      <c r="G313" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>48</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C314" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314">
-        <v>5</v>
-      </c>
       <c r="E314" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G314" t="s">
+        <v>157</v>
+      </c>
+      <c r="H314" t="s">
+        <v>804</v>
+      </c>
+      <c r="I314" t="s">
+        <v>804</v>
+      </c>
+      <c r="J314" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>139</v>
-      </c>
-      <c r="F315" t="s">
-        <v>141</v>
-      </c>
-      <c r="G315" t="s">
-        <v>142</v>
-      </c>
-      <c r="H315" t="s">
-        <v>800</v>
-      </c>
-      <c r="I315" t="s">
-        <v>801</v>
-      </c>
-      <c r="J315" t="s">
-        <v>802</v>
-      </c>
-      <c r="K315" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>46</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316">
+        <v>5</v>
+      </c>
       <c r="E316" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F316" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G316" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I316" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J316" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K316" t="s">
-        <v>157</v>
-      </c>
-      <c r="L316" t="s">
-        <v>804</v>
-      </c>
-      <c r="M316" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F317" t="s">
+        <v>141</v>
+      </c>
+      <c r="G317" t="s">
+        <v>142</v>
+      </c>
+      <c r="H317" t="s">
+        <v>800</v>
+      </c>
+      <c r="I317" t="s">
+        <v>801</v>
+      </c>
+      <c r="J317" t="s">
+        <v>802</v>
+      </c>
+      <c r="K317" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>49</v>
-      </c>
-      <c r="B318" t="s">
-        <v>23</v>
-      </c>
-      <c r="C318" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318">
-        <v>6</v>
-      </c>
       <c r="E318" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F318" t="s">
+        <v>821</v>
+      </c>
+      <c r="G318" t="s">
+        <v>240</v>
+      </c>
+      <c r="H318">
+        <v>5</v>
+      </c>
+      <c r="I318" t="s">
+        <v>157</v>
+      </c>
+      <c r="J318" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F319" t="s">
-        <v>141</v>
+        <v>823</v>
       </c>
       <c r="G319" t="s">
-        <v>142</v>
-      </c>
-      <c r="H319" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H319">
+        <v>3</v>
       </c>
       <c r="I319" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J319" t="s">
-        <v>802</v>
-      </c>
-      <c r="K319" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>1194</v>
+        <v>280</v>
       </c>
       <c r="F320" t="s">
-        <v>1198</v>
+        <v>1436</v>
       </c>
       <c r="G320" t="s">
-        <v>1195</v>
+        <v>820</v>
       </c>
       <c r="H320" t="s">
-        <v>1198</v>
+        <v>1392</v>
       </c>
       <c r="I320" t="s">
-        <v>1196</v>
+        <v>802</v>
       </c>
       <c r="J320" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K320" t="s">
-        <v>157</v>
-      </c>
-      <c r="L320" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>795</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G321" t="s">
+        <v>157</v>
+      </c>
+      <c r="H321" t="s">
         <v>804</v>
       </c>
-      <c r="M320" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E321" t="s">
+      <c r="I321" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>825</v>
+      </c>
+      <c r="F322" t="s">
+        <v>802</v>
+      </c>
+      <c r="G322" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>795</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G323" t="s">
+        <v>157</v>
+      </c>
+      <c r="H323" t="s">
+        <v>804</v>
+      </c>
+      <c r="I323" t="s">
+        <v>804</v>
+      </c>
+      <c r="J323" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>50</v>
-      </c>
-      <c r="B322" t="s">
-        <v>23</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D322">
-        <v>6</v>
-      </c>
-      <c r="E322" t="s">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>47</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E323" t="s">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
         <v>139</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F326" t="s">
         <v>141</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G326" t="s">
         <v>142</v>
       </c>
-      <c r="H323" t="s">
+      <c r="H326" t="s">
         <v>800</v>
       </c>
-      <c r="I323" t="s">
+      <c r="I326" t="s">
         <v>801</v>
       </c>
-      <c r="J323" t="s">
+      <c r="J326" t="s">
         <v>802</v>
       </c>
-      <c r="K323" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E324" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F324" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G324" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J324" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K324" t="s">
-        <v>157</v>
-      </c>
-      <c r="L324" t="s">
+      <c r="K326" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>191</v>
+      </c>
+      <c r="F327" t="s">
+        <v>821</v>
+      </c>
+      <c r="G327" t="s">
+        <v>240</v>
+      </c>
+      <c r="H327">
+        <v>5</v>
+      </c>
+      <c r="I327" t="s">
+        <v>157</v>
+      </c>
+      <c r="J327" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>191</v>
+      </c>
+      <c r="F328" t="s">
+        <v>823</v>
+      </c>
+      <c r="G328" t="s">
+        <v>240</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+      <c r="I328" t="s">
+        <v>157</v>
+      </c>
+      <c r="J328" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>191</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G329" t="s">
+        <v>240</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329" t="s">
+        <v>157</v>
+      </c>
+      <c r="J329" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>280</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G330" t="s">
+        <v>158</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I330" t="s">
+        <v>802</v>
+      </c>
+      <c r="J330" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>795</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G331" t="s">
+        <v>157</v>
+      </c>
+      <c r="H331" t="s">
         <v>804</v>
       </c>
-      <c r="M324" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E325" t="s">
+      <c r="I331" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G332" t="s">
+        <v>158</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I332" t="s">
+        <v>802</v>
+      </c>
+      <c r="J332" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>795</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G333" t="s">
+        <v>157</v>
+      </c>
+      <c r="H333" t="s">
+        <v>804</v>
+      </c>
+      <c r="I333" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>825</v>
+      </c>
+      <c r="F334" t="s">
+        <v>802</v>
+      </c>
+      <c r="G334" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>795</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G335" t="s">
+        <v>157</v>
+      </c>
+      <c r="H335" t="s">
+        <v>804</v>
+      </c>
+      <c r="I335" t="s">
+        <v>804</v>
+      </c>
+      <c r="J335" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>51</v>
-      </c>
-      <c r="B326" t="s">
-        <v>23</v>
-      </c>
-      <c r="C326" t="s">
-        <v>6</v>
-      </c>
-      <c r="D326">
-        <v>6</v>
-      </c>
-      <c r="E326" t="s">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>48</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C337" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E327" t="s">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
         <v>139</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F338" t="s">
         <v>141</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G338" t="s">
         <v>142</v>
       </c>
-      <c r="H327" t="s">
+      <c r="H338" t="s">
         <v>800</v>
       </c>
-      <c r="I327" t="s">
+      <c r="I338" t="s">
         <v>801</v>
       </c>
-      <c r="J327" t="s">
+      <c r="J338" t="s">
         <v>802</v>
       </c>
-      <c r="K327" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E328" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F328" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G328" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H328" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J328" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K328" t="s">
-        <v>157</v>
-      </c>
-      <c r="L328" t="s">
-        <v>804</v>
-      </c>
-      <c r="M328" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E329" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>52</v>
-      </c>
-      <c r="B330" t="s">
-        <v>23</v>
-      </c>
-      <c r="C330" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330">
-        <v>6</v>
-      </c>
-      <c r="E330" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E331" t="s">
-        <v>139</v>
-      </c>
-      <c r="F331" t="s">
-        <v>141</v>
-      </c>
-      <c r="G331" t="s">
-        <v>142</v>
-      </c>
-      <c r="H331" t="s">
-        <v>800</v>
-      </c>
-      <c r="I331" t="s">
-        <v>801</v>
-      </c>
-      <c r="J331" t="s">
-        <v>802</v>
-      </c>
-      <c r="K331" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E332" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G332" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I332" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J332" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K332" t="s">
-        <v>157</v>
-      </c>
-      <c r="L332" t="s">
-        <v>804</v>
-      </c>
-      <c r="M332" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E333" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>53</v>
-      </c>
-      <c r="B334" t="s">
-        <v>23</v>
-      </c>
-      <c r="C334" t="s">
-        <v>7</v>
-      </c>
-      <c r="D334">
-        <v>6</v>
-      </c>
-      <c r="E334" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E335" t="s">
-        <v>139</v>
-      </c>
-      <c r="F335" t="s">
-        <v>141</v>
-      </c>
-      <c r="G335" t="s">
-        <v>142</v>
-      </c>
-      <c r="H335" t="s">
-        <v>800</v>
-      </c>
-      <c r="I335" t="s">
-        <v>801</v>
-      </c>
-      <c r="J335" t="s">
-        <v>802</v>
-      </c>
-      <c r="K335" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E336" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F336" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G336" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H336" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J336" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K336" t="s">
-        <v>157</v>
-      </c>
-      <c r="L336" t="s">
-        <v>804</v>
-      </c>
-      <c r="M336" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E337" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>54</v>
-      </c>
-      <c r="B338" t="s">
-        <v>23</v>
-      </c>
-      <c r="C338" t="s">
-        <v>7</v>
-      </c>
-      <c r="D338">
-        <v>6</v>
-      </c>
-      <c r="E338" t="s">
-        <v>137</v>
+      <c r="K338" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F339" t="s">
-        <v>141</v>
+        <v>821</v>
       </c>
       <c r="G339" t="s">
-        <v>142</v>
-      </c>
-      <c r="H339" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H339">
+        <v>5</v>
       </c>
       <c r="I339" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J339" t="s">
-        <v>802</v>
-      </c>
-      <c r="K339" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>1194</v>
+        <v>191</v>
       </c>
       <c r="F340" t="s">
-        <v>1198</v>
+        <v>823</v>
       </c>
       <c r="G340" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H340" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H340">
+        <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J340" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K340" t="s">
-        <v>157</v>
-      </c>
-      <c r="L340" t="s">
-        <v>804</v>
-      </c>
-      <c r="M340" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G341" t="s">
+        <v>240</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
+        <v>157</v>
+      </c>
+      <c r="J341" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>55</v>
-      </c>
-      <c r="B342" t="s">
-        <v>23</v>
-      </c>
-      <c r="C342" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342">
-        <v>6</v>
-      </c>
       <c r="E342" t="s">
-        <v>137</v>
+        <v>280</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G342" t="s">
+        <v>158</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I342" t="s">
+        <v>802</v>
+      </c>
+      <c r="J342" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F343" t="s">
-        <v>141</v>
+        <v>1434</v>
       </c>
       <c r="G343" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H343" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I343" t="s">
-        <v>801</v>
-      </c>
-      <c r="J343" t="s">
-        <v>802</v>
-      </c>
-      <c r="K343" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>1194</v>
+        <v>1437</v>
       </c>
       <c r="F344" t="s">
-        <v>1198</v>
+        <v>1439</v>
       </c>
       <c r="G344" t="s">
-        <v>1195</v>
+        <v>820</v>
       </c>
       <c r="H344" t="s">
-        <v>1198</v>
+        <v>1392</v>
       </c>
       <c r="I344" t="s">
-        <v>1196</v>
+        <v>802</v>
       </c>
       <c r="J344" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K344" t="s">
-        <v>157</v>
-      </c>
-      <c r="L344" t="s">
-        <v>804</v>
-      </c>
-      <c r="M344" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>138</v>
+        <v>795</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G345" t="s">
+        <v>157</v>
+      </c>
+      <c r="H345" t="s">
+        <v>804</v>
+      </c>
+      <c r="I345" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>56</v>
-      </c>
-      <c r="B346" t="s">
-        <v>23</v>
-      </c>
-      <c r="C346" t="s">
-        <v>8</v>
-      </c>
-      <c r="D346">
-        <v>6</v>
-      </c>
       <c r="E346" t="s">
-        <v>137</v>
+        <v>825</v>
+      </c>
+      <c r="F346" t="s">
+        <v>802</v>
+      </c>
+      <c r="G346" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F347" t="s">
-        <v>141</v>
+        <v>1441</v>
       </c>
       <c r="G347" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H347" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I347" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J347" t="s">
-        <v>802</v>
-      </c>
-      <c r="K347" t="s">
+        <v>797</v>
+      </c>
+      <c r="M347" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F348" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G348" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H348" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J348" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K348" t="s">
-        <v>157</v>
-      </c>
-      <c r="L348" t="s">
-        <v>804</v>
-      </c>
-      <c r="M348" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>49</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>5</v>
+      </c>
       <c r="E349" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>57</v>
-      </c>
-      <c r="B350" t="s">
-        <v>23</v>
-      </c>
-      <c r="C350" t="s">
-        <v>8</v>
-      </c>
-      <c r="D350">
-        <v>6</v>
-      </c>
       <c r="E350" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F350" t="s">
+        <v>141</v>
+      </c>
+      <c r="G350" t="s">
+        <v>142</v>
+      </c>
+      <c r="H350" t="s">
+        <v>800</v>
+      </c>
+      <c r="I350" t="s">
+        <v>801</v>
+      </c>
+      <c r="J350" t="s">
+        <v>802</v>
+      </c>
+      <c r="K350" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="F351" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G351" t="s">
-        <v>142</v>
-      </c>
-      <c r="H351" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>1366</v>
       </c>
       <c r="I351" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J351" t="s">
-        <v>802</v>
-      </c>
-      <c r="K351" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
+        <v>285</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G352" t="s">
+        <v>802</v>
+      </c>
+      <c r="H352" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H353" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>795</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G354" t="s">
+        <v>157</v>
+      </c>
+      <c r="H354" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>271</v>
+      </c>
+      <c r="F355" t="s">
+        <v>157</v>
+      </c>
+      <c r="G355" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>272</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G356" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>795</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G357" t="s">
+        <v>157</v>
+      </c>
+      <c r="H357" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E358" t="s">
+        <v>271</v>
+      </c>
+      <c r="F358" t="s">
+        <v>157</v>
+      </c>
+      <c r="G358" t="s">
+        <v>804</v>
+      </c>
+      <c r="H358" t="s">
+        <v>804</v>
+      </c>
+      <c r="I358" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>50</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>139</v>
+      </c>
+      <c r="F361" t="s">
+        <v>141</v>
+      </c>
+      <c r="G361" t="s">
+        <v>142</v>
+      </c>
+      <c r="H361" t="s">
+        <v>800</v>
+      </c>
+      <c r="I361" t="s">
+        <v>801</v>
+      </c>
+      <c r="J361" t="s">
+        <v>802</v>
+      </c>
+      <c r="K361" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>192</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G362" t="s">
+        <v>240</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I362" t="s">
+        <v>157</v>
+      </c>
+      <c r="J362" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>285</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G363" t="s">
+        <v>802</v>
+      </c>
+      <c r="H363" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H364" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>795</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G365" t="s">
+        <v>157</v>
+      </c>
+      <c r="H365" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>271</v>
+      </c>
+      <c r="F366" t="s">
+        <v>157</v>
+      </c>
+      <c r="G366" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>272</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G367" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>795</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G368" t="s">
+        <v>157</v>
+      </c>
+      <c r="H368" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>271</v>
+      </c>
+      <c r="F369" t="s">
+        <v>157</v>
+      </c>
+      <c r="G369" t="s">
+        <v>804</v>
+      </c>
+      <c r="H369" t="s">
+        <v>804</v>
+      </c>
+      <c r="I369" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>51</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C371" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371">
+        <v>5</v>
+      </c>
+      <c r="E371" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>139</v>
+      </c>
+      <c r="F372" t="s">
+        <v>141</v>
+      </c>
+      <c r="G372" t="s">
+        <v>142</v>
+      </c>
+      <c r="H372" t="s">
+        <v>800</v>
+      </c>
+      <c r="I372" t="s">
+        <v>801</v>
+      </c>
+      <c r="J372" t="s">
+        <v>802</v>
+      </c>
+      <c r="K372" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>143</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G373" t="s">
+        <v>240</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I373" t="s">
+        <v>157</v>
+      </c>
+      <c r="J373" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>285</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G374" t="s">
+        <v>802</v>
+      </c>
+      <c r="H374" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H375" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>795</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G376" t="s">
+        <v>157</v>
+      </c>
+      <c r="H376" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>271</v>
+      </c>
+      <c r="F377" t="s">
+        <v>157</v>
+      </c>
+      <c r="G377" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E378" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H378" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>795</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G379" t="s">
+        <v>157</v>
+      </c>
+      <c r="H379" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>271</v>
+      </c>
+      <c r="F380" t="s">
+        <v>157</v>
+      </c>
+      <c r="G380" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>272</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G381" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>795</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G382" t="s">
+        <v>157</v>
+      </c>
+      <c r="H382" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>271</v>
+      </c>
+      <c r="F383" t="s">
+        <v>157</v>
+      </c>
+      <c r="G383" t="s">
+        <v>804</v>
+      </c>
+      <c r="H383" t="s">
+        <v>804</v>
+      </c>
+      <c r="I383" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E384" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>52</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C385" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385">
+        <v>5</v>
+      </c>
+      <c r="E385" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>139</v>
+      </c>
+      <c r="F386" t="s">
+        <v>141</v>
+      </c>
+      <c r="G386" t="s">
+        <v>142</v>
+      </c>
+      <c r="H386" t="s">
+        <v>800</v>
+      </c>
+      <c r="I386" t="s">
+        <v>801</v>
+      </c>
+      <c r="J386" t="s">
+        <v>802</v>
+      </c>
+      <c r="K386" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>143</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G387" t="s">
+        <v>240</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="I387" t="s">
+        <v>157</v>
+      </c>
+      <c r="J387" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E388" t="s">
+        <v>285</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G388" t="s">
+        <v>802</v>
+      </c>
+      <c r="H388" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H389" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>795</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G390" t="s">
+        <v>157</v>
+      </c>
+      <c r="H390" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>271</v>
+      </c>
+      <c r="F391" t="s">
+        <v>157</v>
+      </c>
+      <c r="G391" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H392" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>795</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G393" t="s">
+        <v>157</v>
+      </c>
+      <c r="H393" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>271</v>
+      </c>
+      <c r="F394" t="s">
+        <v>157</v>
+      </c>
+      <c r="G394" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>272</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G395" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E396" t="s">
+        <v>795</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G396" t="s">
+        <v>157</v>
+      </c>
+      <c r="H396" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>271</v>
+      </c>
+      <c r="F397" t="s">
+        <v>157</v>
+      </c>
+      <c r="G397" t="s">
+        <v>804</v>
+      </c>
+      <c r="H397" t="s">
+        <v>804</v>
+      </c>
+      <c r="I397" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E398" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>53</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C399" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399">
+        <v>5</v>
+      </c>
+      <c r="E399" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>139</v>
+      </c>
+      <c r="F400" t="s">
+        <v>141</v>
+      </c>
+      <c r="G400" t="s">
+        <v>142</v>
+      </c>
+      <c r="H400" t="s">
+        <v>800</v>
+      </c>
+      <c r="I400" t="s">
+        <v>801</v>
+      </c>
+      <c r="J400" t="s">
+        <v>802</v>
+      </c>
+      <c r="K400" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>143</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G401" t="s">
+        <v>240</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I401" t="s">
+        <v>157</v>
+      </c>
+      <c r="J401" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>285</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G402" t="s">
+        <v>802</v>
+      </c>
+      <c r="H402" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H403" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E404" t="s">
+        <v>795</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G404" t="s">
+        <v>157</v>
+      </c>
+      <c r="H404" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>271</v>
+      </c>
+      <c r="F405" t="s">
+        <v>157</v>
+      </c>
+      <c r="G405" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E406" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H406" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>795</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G407" t="s">
+        <v>157</v>
+      </c>
+      <c r="H407" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E408" t="s">
+        <v>271</v>
+      </c>
+      <c r="F408" t="s">
+        <v>157</v>
+      </c>
+      <c r="G408" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>272</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G409" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E410" t="s">
+        <v>795</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G410" t="s">
+        <v>157</v>
+      </c>
+      <c r="H410" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>271</v>
+      </c>
+      <c r="F411" t="s">
+        <v>157</v>
+      </c>
+      <c r="G411" t="s">
+        <v>804</v>
+      </c>
+      <c r="H411" t="s">
+        <v>804</v>
+      </c>
+      <c r="I411" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E412" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>54</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C413" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413">
+        <v>5</v>
+      </c>
+      <c r="E413" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>139</v>
+      </c>
+      <c r="F414" t="s">
+        <v>141</v>
+      </c>
+      <c r="G414" t="s">
+        <v>142</v>
+      </c>
+      <c r="H414" t="s">
+        <v>800</v>
+      </c>
+      <c r="I414" t="s">
+        <v>801</v>
+      </c>
+      <c r="J414" t="s">
+        <v>802</v>
+      </c>
+      <c r="K414" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>143</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G415" t="s">
+        <v>240</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I415" t="s">
+        <v>157</v>
+      </c>
+      <c r="J415" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E416" t="s">
+        <v>285</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G416" t="s">
+        <v>802</v>
+      </c>
+      <c r="H416" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H417" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>795</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G418" t="s">
+        <v>157</v>
+      </c>
+      <c r="H418" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>271</v>
+      </c>
+      <c r="F419" t="s">
+        <v>157</v>
+      </c>
+      <c r="G419" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H420" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>795</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G421" t="s">
+        <v>157</v>
+      </c>
+      <c r="H421" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>271</v>
+      </c>
+      <c r="F422" t="s">
+        <v>157</v>
+      </c>
+      <c r="G422" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>272</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G423" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E424" t="s">
+        <v>795</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G424" t="s">
+        <v>157</v>
+      </c>
+      <c r="H424" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>271</v>
+      </c>
+      <c r="F425" t="s">
+        <v>157</v>
+      </c>
+      <c r="G425" t="s">
+        <v>804</v>
+      </c>
+      <c r="H425" t="s">
+        <v>804</v>
+      </c>
+      <c r="I425" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E426" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>55</v>
+      </c>
+      <c r="B427" t="s">
+        <v>23</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427">
+        <v>6</v>
+      </c>
+      <c r="E427" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E428" t="s">
+        <v>139</v>
+      </c>
+      <c r="F428" t="s">
+        <v>141</v>
+      </c>
+      <c r="G428" t="s">
+        <v>142</v>
+      </c>
+      <c r="H428" t="s">
+        <v>800</v>
+      </c>
+      <c r="I428" t="s">
+        <v>801</v>
+      </c>
+      <c r="J428" t="s">
+        <v>802</v>
+      </c>
+      <c r="K428" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
         <v>1194</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F429" t="s">
         <v>1198</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G429" t="s">
         <v>1195</v>
       </c>
-      <c r="H352" t="s">
+      <c r="H429" t="s">
         <v>1198</v>
       </c>
-      <c r="I352" t="s">
+      <c r="I429" t="s">
         <v>1196</v>
       </c>
-      <c r="J352" t="s">
+      <c r="J429" t="s">
         <v>1197</v>
       </c>
-      <c r="K352" t="s">
-        <v>157</v>
-      </c>
-      <c r="L352" t="s">
+      <c r="K429" t="s">
+        <v>157</v>
+      </c>
+      <c r="L429" t="s">
         <v>804</v>
       </c>
-      <c r="M352" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E353" t="s">
+      <c r="M429" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E430" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>56</v>
+      </c>
+      <c r="B431" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" t="s">
+        <v>8</v>
+      </c>
+      <c r="D431">
+        <v>6</v>
+      </c>
+      <c r="E431" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E432" t="s">
+        <v>139</v>
+      </c>
+      <c r="F432" t="s">
+        <v>141</v>
+      </c>
+      <c r="G432" t="s">
+        <v>142</v>
+      </c>
+      <c r="H432" t="s">
+        <v>800</v>
+      </c>
+      <c r="I432" t="s">
+        <v>801</v>
+      </c>
+      <c r="J432" t="s">
+        <v>802</v>
+      </c>
+      <c r="K432" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E433" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F433" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G433" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H433" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I433" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J433" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K433" t="s">
+        <v>157</v>
+      </c>
+      <c r="L433" t="s">
+        <v>804</v>
+      </c>
+      <c r="M433" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E434" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>57</v>
+      </c>
+      <c r="B435" t="s">
+        <v>23</v>
+      </c>
+      <c r="C435" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435">
+        <v>6</v>
+      </c>
+      <c r="E435" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E436" t="s">
+        <v>139</v>
+      </c>
+      <c r="F436" t="s">
+        <v>141</v>
+      </c>
+      <c r="G436" t="s">
+        <v>142</v>
+      </c>
+      <c r="H436" t="s">
+        <v>800</v>
+      </c>
+      <c r="I436" t="s">
+        <v>801</v>
+      </c>
+      <c r="J436" t="s">
+        <v>802</v>
+      </c>
+      <c r="K436" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G437" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H437" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I437" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J437" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K437" t="s">
+        <v>157</v>
+      </c>
+      <c r="L437" t="s">
+        <v>804</v>
+      </c>
+      <c r="M437" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439">
         <v>58</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B439" t="s">
         <v>24</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C439" t="s">
         <v>6</v>
       </c>
-      <c r="D354">
+      <c r="D439">
         <v>7</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E439" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E355" t="s">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E440" t="s">
         <v>139</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F440" t="s">
         <v>141</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G440" t="s">
         <v>142</v>
       </c>
-      <c r="H355" t="s">
+      <c r="H440" t="s">
         <v>800</v>
       </c>
-      <c r="I355" t="s">
+      <c r="I440" t="s">
         <v>801</v>
       </c>
-      <c r="J355" t="s">
+      <c r="J440" t="s">
         <v>802</v>
       </c>
-      <c r="K355" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E356" t="s">
+      <c r="K440" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
         <v>1194</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F441" t="s">
         <v>1198</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G441" t="s">
         <v>1195</v>
       </c>
-      <c r="H356" t="s">
+      <c r="H441" t="s">
         <v>1198</v>
       </c>
-      <c r="I356" t="s">
+      <c r="I441" t="s">
         <v>1196</v>
       </c>
-      <c r="J356" t="s">
+      <c r="J441" t="s">
         <v>1197</v>
       </c>
-      <c r="K356" t="s">
-        <v>157</v>
-      </c>
-      <c r="L356" t="s">
+      <c r="K441" t="s">
+        <v>157</v>
+      </c>
+      <c r="L441" t="s">
         <v>804</v>
       </c>
-      <c r="M356" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E357" t="s">
+      <c r="M441" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
         <v>138</v>
       </c>
     </row>
@@ -35623,9 +36867,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35775,26 +37022,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35818,9 +37054,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF1ED8-D80C-443C-B7A8-1FE542F895A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0570562-4F5D-4358-A30A-DFAE82C623F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="1110" yWindow="405" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="1474">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4953,9 +4953,6 @@
     <t>("JediLand"</t>
   </si>
   <si>
-    <t>Conditional Statement</t>
-  </si>
-  <si>
     <t>((1 + 1)</t>
   </si>
   <si>
@@ -5119,6 +5116,57 @@
   </si>
   <si>
     <t>"C"</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>i&lt;5</t>
+  </si>
+  <si>
+    <t>i++)</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>(i&lt;5)</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t>(i==2)</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>"is"</t>
+  </si>
+  <si>
+    <t>"in"</t>
+  </si>
+  <si>
+    <t>"Jediland"</t>
+  </si>
+  <si>
+    <t>i&lt;</t>
+  </si>
+  <si>
+    <t>(array[i])</t>
+  </si>
+  <si>
+    <t>"going"</t>
+  </si>
+  <si>
+    <t>"to"</t>
+  </si>
+  <si>
+    <t>"Jedischool"</t>
   </si>
 </sst>
 </file>
@@ -26578,10 +26626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O442"/>
+  <dimension ref="A1:O522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="J419" sqref="J419"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27107,7 +27155,7 @@
         <v>1196</v>
       </c>
       <c r="J26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K26" t="s">
         <v>264</v>
@@ -28354,7 +28402,7 @@
         <v>795</v>
       </c>
       <c r="F87" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G87" t="s">
         <v>264</v>
@@ -28442,7 +28490,7 @@
         <v>795</v>
       </c>
       <c r="F92" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G92" t="s">
         <v>264</v>
@@ -28530,7 +28578,7 @@
         <v>795</v>
       </c>
       <c r="F97" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G97" t="s">
         <v>264</v>
@@ -28644,7 +28692,7 @@
         <v>795</v>
       </c>
       <c r="F103" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G103" t="s">
         <v>264</v>
@@ -28664,7 +28712,7 @@
         <v>795</v>
       </c>
       <c r="F104" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G104" t="s">
         <v>264</v>
@@ -28676,7 +28724,7 @@
         <v>264</v>
       </c>
       <c r="J104" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K104" t="s">
         <v>157</v>
@@ -28778,7 +28826,7 @@
         <v>795</v>
       </c>
       <c r="F110" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G110" t="s">
         <v>264</v>
@@ -28798,7 +28846,7 @@
         <v>795</v>
       </c>
       <c r="F111" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G111" t="s">
         <v>264</v>
@@ -28906,7 +28954,7 @@
         <v>795</v>
       </c>
       <c r="F117" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G117" t="s">
         <v>264</v>
@@ -28932,7 +28980,7 @@
         <v>795</v>
       </c>
       <c r="F118" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G118" t="s">
         <v>264</v>
@@ -28944,7 +28992,7 @@
         <v>264</v>
       </c>
       <c r="J118" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K118" t="s">
         <v>157</v>
@@ -29066,7 +29114,7 @@
         <v>795</v>
       </c>
       <c r="F125" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G125" t="s">
         <v>264</v>
@@ -29086,7 +29134,7 @@
         <v>795</v>
       </c>
       <c r="F126" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G126" t="s">
         <v>264</v>
@@ -29112,7 +29160,7 @@
         <v>795</v>
       </c>
       <c r="F127" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G127" t="s">
         <v>264</v>
@@ -29124,7 +29172,7 @@
         <v>264</v>
       </c>
       <c r="J127" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K127" t="s">
         <v>157</v>
@@ -29226,7 +29274,7 @@
         <v>795</v>
       </c>
       <c r="F133" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G133" t="s">
         <v>264</v>
@@ -29246,7 +29294,7 @@
         <v>795</v>
       </c>
       <c r="F134" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G134" t="s">
         <v>264</v>
@@ -29368,7 +29416,7 @@
         <v>795</v>
       </c>
       <c r="F141" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G141" t="s">
         <v>264</v>
@@ -29391,7 +29439,7 @@
         <v>795</v>
       </c>
       <c r="F142" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G142" t="s">
         <v>264</v>
@@ -29403,7 +29451,7 @@
         <v>264</v>
       </c>
       <c r="J142" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K142" t="s">
         <v>157</v>
@@ -29571,7 +29619,7 @@
         <v>795</v>
       </c>
       <c r="F151" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G151" t="s">
         <v>264</v>
@@ -29705,7 +29753,7 @@
         <v>795</v>
       </c>
       <c r="F158" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G158" t="s">
         <v>264</v>
@@ -29731,7 +29779,7 @@
         <v>795</v>
       </c>
       <c r="F159" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G159" t="s">
         <v>264</v>
@@ -31093,7 +31141,7 @@
         <v>240</v>
       </c>
       <c r="H231" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I231" t="s">
         <v>157</v>
@@ -31130,7 +31178,7 @@
         <v>191</v>
       </c>
       <c r="F233" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G233" t="s">
         <v>240</v>
@@ -31156,7 +31204,7 @@
         <v>264</v>
       </c>
       <c r="H234" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I234" t="s">
         <v>264</v>
@@ -31182,7 +31230,7 @@
         <v>264</v>
       </c>
       <c r="H235" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I235" t="s">
         <v>264</v>
@@ -31208,7 +31256,7 @@
         <v>264</v>
       </c>
       <c r="H236" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I236" t="s">
         <v>264</v>
@@ -31296,7 +31344,7 @@
         <v>190</v>
       </c>
       <c r="F241" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G241" t="s">
         <v>240</v>
@@ -31345,19 +31393,19 @@
         <v>795</v>
       </c>
       <c r="F243" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G243" t="s">
         <v>264</v>
       </c>
       <c r="H243" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I243" t="s">
         <v>264</v>
       </c>
       <c r="J243" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="K243" t="s">
         <v>157</v>
@@ -31371,19 +31419,19 @@
         <v>795</v>
       </c>
       <c r="F244" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G244" t="s">
         <v>264</v>
       </c>
       <c r="H244" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I244" t="s">
         <v>264</v>
       </c>
       <c r="J244" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="K244" t="s">
         <v>157</v>
@@ -31397,13 +31445,13 @@
         <v>795</v>
       </c>
       <c r="F245" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G245" t="s">
         <v>264</v>
       </c>
       <c r="H245" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I245" t="s">
         <v>264</v>
@@ -31471,13 +31519,13 @@
         <v>795</v>
       </c>
       <c r="F249" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G249" t="s">
         <v>264</v>
       </c>
       <c r="H249" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I249" t="s">
         <v>157</v>
@@ -31491,13 +31539,13 @@
         <v>795</v>
       </c>
       <c r="F250" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G250" t="s">
         <v>264</v>
       </c>
       <c r="H250" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I250" t="s">
         <v>157</v>
@@ -31559,13 +31607,13 @@
         <v>795</v>
       </c>
       <c r="F254" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G254" t="s">
         <v>264</v>
       </c>
       <c r="H254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I254" t="s">
         <v>157</v>
@@ -31579,13 +31627,13 @@
         <v>795</v>
       </c>
       <c r="F255" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G255" t="s">
         <v>264</v>
       </c>
       <c r="H255" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I255" t="s">
         <v>157</v>
@@ -31667,7 +31715,7 @@
         <v>795</v>
       </c>
       <c r="F260" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G260" t="s">
         <v>157</v>
@@ -31695,7 +31743,7 @@
         <v>795</v>
       </c>
       <c r="F262" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G262" t="s">
         <v>157</v>
@@ -31777,7 +31825,7 @@
         <v>795</v>
       </c>
       <c r="F267" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G267" t="s">
         <v>157</v>
@@ -31805,7 +31853,7 @@
         <v>795</v>
       </c>
       <c r="F269" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G269" t="s">
         <v>157</v>
@@ -31887,19 +31935,19 @@
         <v>795</v>
       </c>
       <c r="F274" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G274" t="s">
         <v>264</v>
       </c>
       <c r="H274" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I274" t="s">
         <v>806</v>
       </c>
       <c r="J274" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K274" t="s">
         <v>157</v>
@@ -31927,7 +31975,7 @@
         <v>795</v>
       </c>
       <c r="F276" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G276" t="s">
         <v>157</v>
@@ -32052,19 +32100,19 @@
         <v>795</v>
       </c>
       <c r="F283" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G283" t="s">
         <v>259</v>
       </c>
       <c r="H283" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I283" t="s">
         <v>806</v>
       </c>
       <c r="J283" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K283" t="s">
         <v>157</v>
@@ -32078,7 +32126,7 @@
         <v>795</v>
       </c>
       <c r="F284" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G284" t="s">
         <v>157</v>
@@ -32092,7 +32140,7 @@
         <v>795</v>
       </c>
       <c r="F285" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G285" t="s">
         <v>157</v>
@@ -32154,7 +32202,7 @@
         <v>43</v>
       </c>
       <c r="B289" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -32228,7 +32276,7 @@
         <v>795</v>
       </c>
       <c r="F293" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G293" t="s">
         <v>157</v>
@@ -32256,7 +32304,7 @@
         <v>795</v>
       </c>
       <c r="F295" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G295" t="s">
         <v>157</v>
@@ -32286,7 +32334,7 @@
         <v>44</v>
       </c>
       <c r="B298" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -32360,7 +32408,7 @@
         <v>795</v>
       </c>
       <c r="F302" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G302" t="s">
         <v>157</v>
@@ -32388,7 +32436,7 @@
         <v>795</v>
       </c>
       <c r="F304" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G304" t="s">
         <v>157</v>
@@ -32427,7 +32475,7 @@
         <v>45</v>
       </c>
       <c r="B307" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -32507,7 +32555,7 @@
         <v>280</v>
       </c>
       <c r="F311" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G311" t="s">
         <v>158</v>
@@ -32527,7 +32575,7 @@
         <v>795</v>
       </c>
       <c r="F312" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G312" t="s">
         <v>157</v>
@@ -32555,7 +32603,7 @@
         <v>795</v>
       </c>
       <c r="F314" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G314" t="s">
         <v>157</v>
@@ -32580,7 +32628,7 @@
         <v>46</v>
       </c>
       <c r="B316" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -32660,7 +32708,7 @@
         <v>280</v>
       </c>
       <c r="F320" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G320" t="s">
         <v>820</v>
@@ -32680,7 +32728,7 @@
         <v>795</v>
       </c>
       <c r="F321" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G321" t="s">
         <v>157</v>
@@ -32708,7 +32756,7 @@
         <v>795</v>
       </c>
       <c r="F323" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G323" t="s">
         <v>157</v>
@@ -32733,7 +32781,7 @@
         <v>47</v>
       </c>
       <c r="B325" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C325" t="s">
         <v>8</v>
@@ -32813,7 +32861,7 @@
         <v>191</v>
       </c>
       <c r="F329" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G329" t="s">
         <v>240</v>
@@ -32833,13 +32881,13 @@
         <v>280</v>
       </c>
       <c r="F330" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G330" t="s">
         <v>158</v>
       </c>
       <c r="H330" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I330" t="s">
         <v>802</v>
@@ -32853,7 +32901,7 @@
         <v>795</v>
       </c>
       <c r="F331" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G331" t="s">
         <v>157</v>
@@ -32867,10 +32915,10 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F332" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G332" t="s">
         <v>158</v>
@@ -32890,7 +32938,7 @@
         <v>795</v>
       </c>
       <c r="F333" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G333" t="s">
         <v>157</v>
@@ -32918,7 +32966,7 @@
         <v>795</v>
       </c>
       <c r="F335" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G335" t="s">
         <v>157</v>
@@ -32943,7 +32991,7 @@
         <v>48</v>
       </c>
       <c r="B337" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C337" t="s">
         <v>8</v>
@@ -33023,7 +33071,7 @@
         <v>191</v>
       </c>
       <c r="F341" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G341" t="s">
         <v>240</v>
@@ -33043,13 +33091,13 @@
         <v>280</v>
       </c>
       <c r="F342" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G342" t="s">
         <v>158</v>
       </c>
       <c r="H342" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I342" t="s">
         <v>802</v>
@@ -33063,7 +33111,7 @@
         <v>795</v>
       </c>
       <c r="F343" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G343" t="s">
         <v>157</v>
@@ -33077,10 +33125,10 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F344" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G344" t="s">
         <v>820</v>
@@ -33100,7 +33148,7 @@
         <v>795</v>
       </c>
       <c r="F345" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G345" t="s">
         <v>157</v>
@@ -33128,7 +33176,7 @@
         <v>795</v>
       </c>
       <c r="F347" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G347" t="s">
         <v>157</v>
@@ -33156,7 +33204,7 @@
         <v>49</v>
       </c>
       <c r="B349" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
@@ -33196,7 +33244,7 @@
         <v>192</v>
       </c>
       <c r="F351" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G351" t="s">
         <v>240</v>
@@ -33216,7 +33264,7 @@
         <v>285</v>
       </c>
       <c r="F352" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G352" t="s">
         <v>802</v>
@@ -33227,7 +33275,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>1366</v>
@@ -33244,7 +33292,7 @@
         <v>795</v>
       </c>
       <c r="F354" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G354" t="s">
         <v>157</v>
@@ -33280,7 +33328,7 @@
         <v>795</v>
       </c>
       <c r="F357" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G357" t="s">
         <v>157</v>
@@ -33316,7 +33364,7 @@
         <v>50</v>
       </c>
       <c r="B360" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -33356,13 +33404,13 @@
         <v>192</v>
       </c>
       <c r="F362" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G362" t="s">
         <v>240</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I362" t="s">
         <v>157</v>
@@ -33376,7 +33424,7 @@
         <v>285</v>
       </c>
       <c r="F363" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G363" t="s">
         <v>802</v>
@@ -33387,7 +33435,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>1366</v>
@@ -33404,7 +33452,7 @@
         <v>795</v>
       </c>
       <c r="F365" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G365" t="s">
         <v>157</v>
@@ -33440,7 +33488,7 @@
         <v>795</v>
       </c>
       <c r="F368" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G368" t="s">
         <v>157</v>
@@ -33476,7 +33524,7 @@
         <v>51</v>
       </c>
       <c r="B371" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
@@ -33516,13 +33564,13 @@
         <v>143</v>
       </c>
       <c r="F373" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G373" t="s">
         <v>240</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I373" t="s">
         <v>157</v>
@@ -33536,7 +33584,7 @@
         <v>285</v>
       </c>
       <c r="F374" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G374" t="s">
         <v>802</v>
@@ -33547,10 +33595,10 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G375" t="s">
         <v>1067</v>
@@ -33564,7 +33612,7 @@
         <v>795</v>
       </c>
       <c r="F376" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G376" t="s">
         <v>157</v>
@@ -33586,10 +33634,10 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G378" t="s">
         <v>1067</v>
@@ -33603,7 +33651,7 @@
         <v>795</v>
       </c>
       <c r="F379" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G379" t="s">
         <v>157</v>
@@ -33639,7 +33687,7 @@
         <v>795</v>
       </c>
       <c r="F382" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G382" t="s">
         <v>157</v>
@@ -33675,7 +33723,7 @@
         <v>52</v>
       </c>
       <c r="B385" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -33715,13 +33763,13 @@
         <v>143</v>
       </c>
       <c r="F387" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G387" t="s">
         <v>240</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I387" t="s">
         <v>157</v>
@@ -33735,7 +33783,7 @@
         <v>285</v>
       </c>
       <c r="F388" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G388" t="s">
         <v>802</v>
@@ -33746,10 +33794,10 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G389" t="s">
         <v>1067</v>
@@ -33763,7 +33811,7 @@
         <v>795</v>
       </c>
       <c r="F390" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G390" t="s">
         <v>157</v>
@@ -33785,10 +33833,10 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G392" t="s">
         <v>1067</v>
@@ -33802,7 +33850,7 @@
         <v>795</v>
       </c>
       <c r="F393" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G393" t="s">
         <v>157</v>
@@ -33838,7 +33886,7 @@
         <v>795</v>
       </c>
       <c r="F396" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G396" t="s">
         <v>157</v>
@@ -33874,7 +33922,7 @@
         <v>53</v>
       </c>
       <c r="B399" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C399" t="s">
         <v>8</v>
@@ -33914,13 +33962,13 @@
         <v>143</v>
       </c>
       <c r="F401" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G401" t="s">
         <v>240</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I401" t="s">
         <v>157</v>
@@ -33934,7 +33982,7 @@
         <v>285</v>
       </c>
       <c r="F402" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G402" t="s">
         <v>802</v>
@@ -33945,10 +33993,10 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G403" t="s">
         <v>1067</v>
@@ -33962,7 +34010,7 @@
         <v>795</v>
       </c>
       <c r="F404" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G404" t="s">
         <v>157</v>
@@ -33984,10 +34032,10 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G406" t="s">
         <v>1067</v>
@@ -34001,7 +34049,7 @@
         <v>795</v>
       </c>
       <c r="F407" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G407" t="s">
         <v>157</v>
@@ -34037,7 +34085,7 @@
         <v>795</v>
       </c>
       <c r="F410" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G410" t="s">
         <v>157</v>
@@ -34073,7 +34121,7 @@
         <v>54</v>
       </c>
       <c r="B413" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -34113,13 +34161,13 @@
         <v>143</v>
       </c>
       <c r="F415" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G415" t="s">
         <v>240</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I415" t="s">
         <v>157</v>
@@ -34133,7 +34181,7 @@
         <v>285</v>
       </c>
       <c r="F416" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G416" t="s">
         <v>802</v>
@@ -34144,10 +34192,10 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G417" t="s">
         <v>1067</v>
@@ -34161,7 +34209,7 @@
         <v>795</v>
       </c>
       <c r="F418" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G418" t="s">
         <v>157</v>
@@ -34183,10 +34231,10 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G420" t="s">
         <v>1067</v>
@@ -34200,7 +34248,7 @@
         <v>795</v>
       </c>
       <c r="F421" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G421" t="s">
         <v>157</v>
@@ -34236,7 +34284,7 @@
         <v>795</v>
       </c>
       <c r="F424" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G424" t="s">
         <v>157</v>
@@ -34309,28 +34357,28 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>1194</v>
+        <v>286</v>
       </c>
       <c r="F429" t="s">
-        <v>1198</v>
+        <v>1248</v>
       </c>
       <c r="G429" t="s">
-        <v>1195</v>
+        <v>1457</v>
       </c>
       <c r="H429" t="s">
-        <v>1198</v>
+        <v>157</v>
       </c>
       <c r="I429" t="s">
-        <v>1196</v>
+        <v>1458</v>
       </c>
       <c r="J429" t="s">
-        <v>1197</v>
+        <v>157</v>
       </c>
       <c r="K429" t="s">
-        <v>157</v>
+        <v>1459</v>
       </c>
       <c r="L429" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M429" t="s">
         <v>797</v>
@@ -34338,228 +34386,1435 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>138</v>
+        <v>795</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G430" t="s">
+        <v>157</v>
+      </c>
+      <c r="H430" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>56</v>
-      </c>
-      <c r="B431" t="s">
-        <v>23</v>
-      </c>
-      <c r="C431" t="s">
-        <v>8</v>
-      </c>
-      <c r="D431">
-        <v>6</v>
-      </c>
       <c r="E431" t="s">
-        <v>137</v>
+        <v>804</v>
+      </c>
+      <c r="F431" t="s">
+        <v>804</v>
+      </c>
+      <c r="G431" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>56</v>
+      </c>
+      <c r="B433" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433">
+        <v>6</v>
+      </c>
+      <c r="E433" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E434" t="s">
         <v>139</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F434" t="s">
         <v>141</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G434" t="s">
         <v>142</v>
       </c>
-      <c r="H432" t="s">
+      <c r="H434" t="s">
         <v>800</v>
       </c>
-      <c r="I432" t="s">
+      <c r="I434" t="s">
         <v>801</v>
       </c>
-      <c r="J432" t="s">
+      <c r="J434" t="s">
         <v>802</v>
       </c>
-      <c r="K432" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E433" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F433" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G433" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H433" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I433" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J433" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K433" t="s">
-        <v>157</v>
-      </c>
-      <c r="L433" t="s">
+      <c r="K434" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>191</v>
+      </c>
+      <c r="F435" t="s">
+        <v>844</v>
+      </c>
+      <c r="G435" t="s">
+        <v>240</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435" t="s">
+        <v>157</v>
+      </c>
+      <c r="J435" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E436" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G436" t="s">
+        <v>802</v>
+      </c>
+      <c r="H436" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>795</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G437" t="s">
+        <v>157</v>
+      </c>
+      <c r="H437" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>877</v>
+      </c>
+      <c r="F438" t="s">
+        <v>157</v>
+      </c>
+      <c r="G438" t="s">
         <v>804</v>
       </c>
-      <c r="M433" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E434" t="s">
+      <c r="H438" t="s">
+        <v>804</v>
+      </c>
+      <c r="I438" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E439" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440">
         <v>57</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B440" t="s">
         <v>23</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440">
+        <v>6</v>
+      </c>
+      <c r="E440" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>139</v>
+      </c>
+      <c r="F441" t="s">
+        <v>141</v>
+      </c>
+      <c r="G441" t="s">
+        <v>142</v>
+      </c>
+      <c r="H441" t="s">
+        <v>800</v>
+      </c>
+      <c r="I441" t="s">
+        <v>801</v>
+      </c>
+      <c r="J441" t="s">
+        <v>802</v>
+      </c>
+      <c r="K441" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>191</v>
+      </c>
+      <c r="F442" t="s">
+        <v>844</v>
+      </c>
+      <c r="G442" t="s">
+        <v>240</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442" t="s">
+        <v>157</v>
+      </c>
+      <c r="J442" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F443" t="s">
+        <v>802</v>
+      </c>
+      <c r="G443" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>795</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G444" t="s">
+        <v>157</v>
+      </c>
+      <c r="H444" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>877</v>
+      </c>
+      <c r="F445" t="s">
+        <v>157</v>
+      </c>
+      <c r="G445" t="s">
+        <v>804</v>
+      </c>
+      <c r="H445" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E446" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G446" t="s">
+        <v>157</v>
+      </c>
+      <c r="H446" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>804</v>
+      </c>
+      <c r="F447" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E448" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>58</v>
+      </c>
+      <c r="B449" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449">
+        <v>6</v>
+      </c>
+      <c r="E449" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>139</v>
+      </c>
+      <c r="F450" t="s">
+        <v>141</v>
+      </c>
+      <c r="G450" t="s">
+        <v>142</v>
+      </c>
+      <c r="H450" t="s">
+        <v>800</v>
+      </c>
+      <c r="I450" t="s">
+        <v>801</v>
+      </c>
+      <c r="J450" t="s">
+        <v>802</v>
+      </c>
+      <c r="K450" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>286</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H451" t="s">
+        <v>157</v>
+      </c>
+      <c r="I451" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J451" t="s">
+        <v>157</v>
+      </c>
+      <c r="K451" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L451" t="s">
+        <v>802</v>
+      </c>
+      <c r="M451" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>795</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G452" t="s">
+        <v>157</v>
+      </c>
+      <c r="H452" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>795</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G453" t="s">
+        <v>157</v>
+      </c>
+      <c r="H453" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E454" t="s">
+        <v>804</v>
+      </c>
+      <c r="F454" t="s">
+        <v>804</v>
+      </c>
+      <c r="G454" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>59</v>
+      </c>
+      <c r="B456" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456">
+        <v>6</v>
+      </c>
+      <c r="E456" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>139</v>
+      </c>
+      <c r="F457" t="s">
+        <v>141</v>
+      </c>
+      <c r="G457" t="s">
+        <v>142</v>
+      </c>
+      <c r="H457" t="s">
+        <v>800</v>
+      </c>
+      <c r="I457" t="s">
+        <v>801</v>
+      </c>
+      <c r="J457" t="s">
+        <v>802</v>
+      </c>
+      <c r="K457" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E458" t="s">
+        <v>191</v>
+      </c>
+      <c r="F458" t="s">
+        <v>844</v>
+      </c>
+      <c r="G458" t="s">
+        <v>240</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+      <c r="I458" t="s">
+        <v>157</v>
+      </c>
+      <c r="J458" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G459" t="s">
+        <v>802</v>
+      </c>
+      <c r="H459" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>795</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G460" t="s">
+        <v>157</v>
+      </c>
+      <c r="H460" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>795</v>
+      </c>
+      <c r="F461" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G461" t="s">
+        <v>157</v>
+      </c>
+      <c r="H461" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E462" t="s">
+        <v>877</v>
+      </c>
+      <c r="F462" t="s">
+        <v>157</v>
+      </c>
+      <c r="G462" t="s">
+        <v>804</v>
+      </c>
+      <c r="H462" t="s">
+        <v>804</v>
+      </c>
+      <c r="I462" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>60</v>
+      </c>
+      <c r="B464" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>6</v>
+      </c>
+      <c r="E464" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E465" t="s">
+        <v>139</v>
+      </c>
+      <c r="F465" t="s">
+        <v>141</v>
+      </c>
+      <c r="G465" t="s">
+        <v>142</v>
+      </c>
+      <c r="H465" t="s">
+        <v>800</v>
+      </c>
+      <c r="I465" t="s">
+        <v>801</v>
+      </c>
+      <c r="J465" t="s">
+        <v>802</v>
+      </c>
+      <c r="K465" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E466" t="s">
+        <v>191</v>
+      </c>
+      <c r="F466" t="s">
+        <v>844</v>
+      </c>
+      <c r="G466" t="s">
+        <v>240</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466" t="s">
+        <v>157</v>
+      </c>
+      <c r="J466" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E467" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F467" t="s">
+        <v>802</v>
+      </c>
+      <c r="G467" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E468" t="s">
+        <v>795</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G468" t="s">
+        <v>157</v>
+      </c>
+      <c r="H468" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E469" t="s">
+        <v>795</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G469" t="s">
+        <v>157</v>
+      </c>
+      <c r="H469" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E470" t="s">
+        <v>877</v>
+      </c>
+      <c r="F470" t="s">
+        <v>157</v>
+      </c>
+      <c r="G470" t="s">
+        <v>804</v>
+      </c>
+      <c r="H470" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E471" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G471" t="s">
+        <v>157</v>
+      </c>
+      <c r="H471" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E472" t="s">
+        <v>804</v>
+      </c>
+      <c r="F472" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E473" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>61</v>
+      </c>
+      <c r="B474" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" t="s">
         <v>8</v>
       </c>
-      <c r="D435">
+      <c r="D474">
         <v>6</v>
       </c>
-      <c r="E435" t="s">
+      <c r="E474" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E436" t="s">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E475" t="s">
         <v>139</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F475" t="s">
         <v>141</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G475" t="s">
         <v>142</v>
       </c>
-      <c r="H436" t="s">
+      <c r="H475" t="s">
         <v>800</v>
       </c>
-      <c r="I436" t="s">
+      <c r="I475" t="s">
         <v>801</v>
       </c>
-      <c r="J436" t="s">
+      <c r="J475" t="s">
         <v>802</v>
       </c>
-      <c r="K436" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E437" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H437" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I437" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J437" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K437" t="s">
-        <v>157</v>
-      </c>
-      <c r="L437" t="s">
+      <c r="K475" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E476" t="s">
+        <v>286</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G476" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H476" t="s">
+        <v>157</v>
+      </c>
+      <c r="I476" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J476" t="s">
+        <v>157</v>
+      </c>
+      <c r="K476" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L476" t="s">
+        <v>802</v>
+      </c>
+      <c r="M476" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E477" t="s">
+        <v>795</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G477" t="s">
+        <v>157</v>
+      </c>
+      <c r="H477" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E478" t="s">
+        <v>795</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G478" t="s">
+        <v>157</v>
+      </c>
+      <c r="H478" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E479" t="s">
+        <v>280</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G479" t="s">
+        <v>802</v>
+      </c>
+      <c r="H479" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E480" t="s">
+        <v>271</v>
+      </c>
+      <c r="F480" t="s">
+        <v>157</v>
+      </c>
+      <c r="G480" t="s">
         <v>804</v>
       </c>
-      <c r="M437" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E438" t="s">
+      <c r="H480" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>804</v>
+      </c>
+      <c r="F481" t="s">
+        <v>804</v>
+      </c>
+      <c r="G481" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E482" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>58</v>
-      </c>
-      <c r="B439" t="s">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>62</v>
+      </c>
+      <c r="B483" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" t="s">
+        <v>8</v>
+      </c>
+      <c r="D483">
+        <v>6</v>
+      </c>
+      <c r="E483" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E484" t="s">
+        <v>139</v>
+      </c>
+      <c r="F484" t="s">
+        <v>141</v>
+      </c>
+      <c r="G484" t="s">
+        <v>142</v>
+      </c>
+      <c r="H484" t="s">
+        <v>800</v>
+      </c>
+      <c r="I484" t="s">
+        <v>801</v>
+      </c>
+      <c r="J484" t="s">
+        <v>802</v>
+      </c>
+      <c r="K484" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E485" t="s">
+        <v>191</v>
+      </c>
+      <c r="F485" t="s">
+        <v>844</v>
+      </c>
+      <c r="G485" t="s">
+        <v>240</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485" t="s">
+        <v>157</v>
+      </c>
+      <c r="J485" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G486" t="s">
+        <v>802</v>
+      </c>
+      <c r="H486" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E487" t="s">
+        <v>795</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G487" t="s">
+        <v>157</v>
+      </c>
+      <c r="H487" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E488" t="s">
+        <v>795</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G488" t="s">
+        <v>157</v>
+      </c>
+      <c r="H488" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E489" t="s">
+        <v>280</v>
+      </c>
+      <c r="F489" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G489" t="s">
+        <v>802</v>
+      </c>
+      <c r="H489" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E490" t="s">
+        <v>271</v>
+      </c>
+      <c r="F490" t="s">
+        <v>157</v>
+      </c>
+      <c r="G490" t="s">
+        <v>804</v>
+      </c>
+      <c r="H490" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E491" t="s">
+        <v>877</v>
+      </c>
+      <c r="F491" t="s">
+        <v>157</v>
+      </c>
+      <c r="G491" t="s">
+        <v>804</v>
+      </c>
+      <c r="H491" t="s">
+        <v>804</v>
+      </c>
+      <c r="I491" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E492" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>63</v>
+      </c>
+      <c r="B493" t="s">
+        <v>23</v>
+      </c>
+      <c r="C493" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493">
+        <v>6</v>
+      </c>
+      <c r="E493" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E494" t="s">
+        <v>139</v>
+      </c>
+      <c r="F494" t="s">
+        <v>141</v>
+      </c>
+      <c r="G494" t="s">
+        <v>142</v>
+      </c>
+      <c r="H494" t="s">
+        <v>800</v>
+      </c>
+      <c r="I494" t="s">
+        <v>801</v>
+      </c>
+      <c r="J494" t="s">
+        <v>802</v>
+      </c>
+      <c r="K494" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E495" t="s">
+        <v>191</v>
+      </c>
+      <c r="F495" t="s">
+        <v>844</v>
+      </c>
+      <c r="G495" t="s">
+        <v>240</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495" t="s">
+        <v>157</v>
+      </c>
+      <c r="J495" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E496" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F496" t="s">
+        <v>802</v>
+      </c>
+      <c r="G496" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E497" t="s">
+        <v>795</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G497" t="s">
+        <v>157</v>
+      </c>
+      <c r="H497" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>795</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G498" t="s">
+        <v>157</v>
+      </c>
+      <c r="H498" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E499" t="s">
+        <v>280</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G499" t="s">
+        <v>802</v>
+      </c>
+      <c r="H499" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E500" t="s">
+        <v>271</v>
+      </c>
+      <c r="F500" t="s">
+        <v>157</v>
+      </c>
+      <c r="G500" t="s">
+        <v>804</v>
+      </c>
+      <c r="H500" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>877</v>
+      </c>
+      <c r="F501" t="s">
+        <v>157</v>
+      </c>
+      <c r="G501" t="s">
+        <v>804</v>
+      </c>
+      <c r="H501" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E502" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G502" t="s">
+        <v>157</v>
+      </c>
+      <c r="H502" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E503" t="s">
+        <v>804</v>
+      </c>
+      <c r="F503" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E504" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>64</v>
+      </c>
+      <c r="B505" t="s">
         <v>24</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C505" t="s">
         <v>6</v>
       </c>
-      <c r="D439">
+      <c r="D505">
         <v>7</v>
       </c>
-      <c r="E439" t="s">
+      <c r="E505" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E440" t="s">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E506" t="s">
         <v>139</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F506" t="s">
         <v>141</v>
       </c>
-      <c r="G440" t="s">
+      <c r="G506" t="s">
         <v>142</v>
       </c>
-      <c r="H440" t="s">
+      <c r="H506" t="s">
         <v>800</v>
       </c>
-      <c r="I440" t="s">
+      <c r="I506" t="s">
         <v>801</v>
       </c>
-      <c r="J440" t="s">
+      <c r="J506" t="s">
         <v>802</v>
       </c>
-      <c r="K440" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E441" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F441" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H441" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I441" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J441" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K441" t="s">
-        <v>157</v>
-      </c>
-      <c r="L441" t="s">
+      <c r="K506" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E507" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G507" t="s">
+        <v>240</v>
+      </c>
+      <c r="H507" t="s">
+        <v>802</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J507" t="s">
+        <v>263</v>
+      </c>
+      <c r="K507" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L507" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E508" t="s">
+        <v>263</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G508" t="s">
+        <v>263</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I508" t="s">
         <v>804</v>
       </c>
-      <c r="M441" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E442" t="s">
+      <c r="J508" t="s">
+        <v>157</v>
+      </c>
+      <c r="K508" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E509" t="s">
+        <v>286</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H509" t="s">
+        <v>157</v>
+      </c>
+      <c r="I509" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J509" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K509" t="s">
+        <v>817</v>
+      </c>
+      <c r="L509" t="s">
+        <v>365</v>
+      </c>
+      <c r="M509" t="s">
+        <v>157</v>
+      </c>
+      <c r="N509" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O509" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E510" t="s">
+        <v>802</v>
+      </c>
+      <c r="F510" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E511" t="s">
+        <v>795</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G511" t="s">
+        <v>157</v>
+      </c>
+      <c r="H511" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E512" t="s">
+        <v>804</v>
+      </c>
+      <c r="F512" t="s">
+        <v>804</v>
+      </c>
+      <c r="G512" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E513" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>65</v>
+      </c>
+      <c r="B514" t="s">
+        <v>24</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514">
+        <v>7</v>
+      </c>
+      <c r="E514" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E515" t="s">
+        <v>139</v>
+      </c>
+      <c r="F515" t="s">
+        <v>141</v>
+      </c>
+      <c r="G515" t="s">
+        <v>142</v>
+      </c>
+      <c r="H515" t="s">
+        <v>800</v>
+      </c>
+      <c r="I515" t="s">
+        <v>801</v>
+      </c>
+      <c r="J515" t="s">
+        <v>802</v>
+      </c>
+      <c r="K515" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E516" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G516" t="s">
+        <v>240</v>
+      </c>
+      <c r="H516" t="s">
+        <v>802</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J516" t="s">
+        <v>263</v>
+      </c>
+      <c r="K516" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L516" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E517" t="s">
+        <v>263</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G517" t="s">
+        <v>263</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I517" t="s">
+        <v>263</v>
+      </c>
+      <c r="J517" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K517" t="s">
+        <v>804</v>
+      </c>
+      <c r="L517" t="s">
+        <v>157</v>
+      </c>
+      <c r="M517" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E518" t="s">
+        <v>286</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H518" t="s">
+        <v>157</v>
+      </c>
+      <c r="I518" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K518" t="s">
+        <v>817</v>
+      </c>
+      <c r="L518" t="s">
+        <v>365</v>
+      </c>
+      <c r="M518" t="s">
+        <v>157</v>
+      </c>
+      <c r="N518" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O518" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E519" t="s">
+        <v>802</v>
+      </c>
+      <c r="F519" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E520" t="s">
+        <v>795</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G520" t="s">
+        <v>157</v>
+      </c>
+      <c r="H520" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E521" t="s">
+        <v>804</v>
+      </c>
+      <c r="F521" t="s">
+        <v>804</v>
+      </c>
+      <c r="G521" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E522" t="s">
         <v>138</v>
       </c>
     </row>

--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0570562-4F5D-4358-A30A-DFAE82C623F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AA42F-6006-4F98-B8CC-E4AAE8A284C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="405" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8003" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="1499">
   <si>
     <t>Stage 1</t>
   </si>
@@ -5167,6 +5167,81 @@
   </si>
   <si>
     <t>"Jedischool"</t>
+  </si>
+  <si>
+    <t>(array[0])</t>
+  </si>
+  <si>
+    <t>(array[1])</t>
+  </si>
+  <si>
+    <t>(array[2])</t>
+  </si>
+  <si>
+    <t>(array[3])</t>
+  </si>
+  <si>
+    <t>(array[4])</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>counter++</t>
+  </si>
+  <si>
+    <t>array(counter)</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>greet()</t>
+  </si>
+  <si>
+    <t>("Hello!")</t>
+  </si>
+  <si>
+    <t>("Hi!")</t>
+  </si>
+  <si>
+    <t>(greet()</t>
+  </si>
+  <si>
+    <t>"Hello"</t>
+  </si>
+  <si>
+    <t>"Jedisaur")</t>
+  </si>
+  <si>
+    <t>"Hi"</t>
+  </si>
+  <si>
+    <t>("Hi"</t>
+  </si>
+  <si>
+    <t>(String</t>
+  </si>
+  <si>
+    <t>(greet</t>
+  </si>
+  <si>
+    <t>num)</t>
+  </si>
+  <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t>solve(5)</t>
+  </si>
+  <si>
+    <t>(5</t>
+  </si>
+  <si>
+    <t>(boolean</t>
+  </si>
+  <si>
+    <t>opposite</t>
   </si>
 </sst>
 </file>
@@ -26626,10 +26701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O522"/>
+  <dimension ref="A1:O659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="I659" sqref="I659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35391,7 +35466,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E497" t="s">
         <v>795</v>
       </c>
@@ -35405,7 +35480,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E498" t="s">
         <v>795</v>
       </c>
@@ -35419,7 +35494,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E499" t="s">
         <v>280</v>
       </c>
@@ -35433,7 +35508,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E500" t="s">
         <v>271</v>
       </c>
@@ -35447,7 +35522,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E501" t="s">
         <v>877</v>
       </c>
@@ -35461,7 +35536,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E502" t="s">
         <v>1460</v>
       </c>
@@ -35475,7 +35550,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E503" t="s">
         <v>804</v>
       </c>
@@ -35483,12 +35558,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E504" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>64</v>
       </c>
@@ -35505,7 +35580,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
         <v>139</v>
       </c>
@@ -35528,7 +35603,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E507" t="s">
         <v>1068</v>
       </c>
@@ -35554,7 +35629,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E508" t="s">
         <v>263</v>
       </c>
@@ -35577,55 +35652,40 @@
         <v>797</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E509" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="F509" t="s">
-        <v>1248</v>
+        <v>1474</v>
       </c>
       <c r="G509" t="s">
-        <v>1457</v>
+        <v>157</v>
       </c>
       <c r="H509" t="s">
-        <v>157</v>
-      </c>
-      <c r="I509" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J509" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K509" t="s">
-        <v>817</v>
-      </c>
-      <c r="L509" t="s">
-        <v>365</v>
-      </c>
-      <c r="M509" t="s">
-        <v>157</v>
-      </c>
-      <c r="N509" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O509" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E510" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F510" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1475</v>
+      </c>
+      <c r="G510" t="s">
+        <v>157</v>
+      </c>
+      <c r="H510" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E511" t="s">
         <v>795</v>
       </c>
       <c r="F511" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="G511" t="s">
         <v>157</v>
@@ -35634,14 +35694,20 @@
         <v>797</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E512" t="s">
+        <v>795</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G512" t="s">
+        <v>157</v>
+      </c>
+      <c r="H512" t="s">
         <v>804</v>
       </c>
-      <c r="F512" t="s">
-        <v>804</v>
-      </c>
-      <c r="G512" t="s">
+      <c r="I512" t="s">
         <v>797</v>
       </c>
     </row>
@@ -35747,44 +35813,29 @@
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E518" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="F518" t="s">
-        <v>1248</v>
+        <v>1474</v>
       </c>
       <c r="G518" t="s">
-        <v>1457</v>
+        <v>157</v>
       </c>
       <c r="H518" t="s">
-        <v>157</v>
-      </c>
-      <c r="I518" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J518" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K518" t="s">
-        <v>817</v>
-      </c>
-      <c r="L518" t="s">
-        <v>365</v>
-      </c>
-      <c r="M518" t="s">
-        <v>157</v>
-      </c>
-      <c r="N518" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O518" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E519" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F519" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G519" t="s">
+        <v>157</v>
+      </c>
+      <c r="H519" t="s">
         <v>797</v>
       </c>
     </row>
@@ -35793,7 +35844,7 @@
         <v>795</v>
       </c>
       <c r="F520" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="G520" t="s">
         <v>157</v>
@@ -35804,17 +35855,2352 @@
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E521" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="F521" t="s">
-        <v>804</v>
+        <v>1477</v>
       </c>
       <c r="G521" t="s">
+        <v>157</v>
+      </c>
+      <c r="H521" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E522" t="s">
+        <v>795</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G522" t="s">
+        <v>157</v>
+      </c>
+      <c r="H522" t="s">
+        <v>804</v>
+      </c>
+      <c r="I522" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E523" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>66</v>
+      </c>
+      <c r="B524" t="s">
+        <v>24</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524">
+        <v>7</v>
+      </c>
+      <c r="E524" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E525" t="s">
+        <v>139</v>
+      </c>
+      <c r="F525" t="s">
+        <v>141</v>
+      </c>
+      <c r="G525" t="s">
+        <v>142</v>
+      </c>
+      <c r="H525" t="s">
+        <v>800</v>
+      </c>
+      <c r="I525" t="s">
+        <v>801</v>
+      </c>
+      <c r="J525" t="s">
+        <v>802</v>
+      </c>
+      <c r="K525" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E526" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G526" t="s">
+        <v>240</v>
+      </c>
+      <c r="H526" t="s">
+        <v>802</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J526" t="s">
+        <v>263</v>
+      </c>
+      <c r="K526" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L526" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E527" t="s">
+        <v>263</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G527" t="s">
+        <v>263</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I527" t="s">
+        <v>804</v>
+      </c>
+      <c r="J527" t="s">
+        <v>157</v>
+      </c>
+      <c r="K527" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E528" t="s">
+        <v>286</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H528" t="s">
+        <v>157</v>
+      </c>
+      <c r="I528" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K528" t="s">
+        <v>817</v>
+      </c>
+      <c r="L528" t="s">
+        <v>365</v>
+      </c>
+      <c r="M528" t="s">
+        <v>157</v>
+      </c>
+      <c r="N528" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O528" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E529" t="s">
+        <v>802</v>
+      </c>
+      <c r="F529" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E530" t="s">
+        <v>795</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G530" t="s">
+        <v>157</v>
+      </c>
+      <c r="H530" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E531" t="s">
+        <v>804</v>
+      </c>
+      <c r="F531" t="s">
+        <v>804</v>
+      </c>
+      <c r="G531" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E532" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>67</v>
+      </c>
+      <c r="B533" t="s">
+        <v>24</v>
+      </c>
+      <c r="C533" t="s">
+        <v>7</v>
+      </c>
+      <c r="D533">
+        <v>7</v>
+      </c>
+      <c r="E533" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E534" t="s">
+        <v>139</v>
+      </c>
+      <c r="F534" t="s">
+        <v>141</v>
+      </c>
+      <c r="G534" t="s">
+        <v>142</v>
+      </c>
+      <c r="H534" t="s">
+        <v>800</v>
+      </c>
+      <c r="I534" t="s">
+        <v>801</v>
+      </c>
+      <c r="J534" t="s">
+        <v>802</v>
+      </c>
+      <c r="K534" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E535" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G535" t="s">
+        <v>240</v>
+      </c>
+      <c r="H535" t="s">
+        <v>802</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J535" t="s">
+        <v>263</v>
+      </c>
+      <c r="K535" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L535" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E536" t="s">
+        <v>263</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G536" t="s">
+        <v>263</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I536" t="s">
+        <v>263</v>
+      </c>
+      <c r="J536" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K536" t="s">
+        <v>804</v>
+      </c>
+      <c r="L536" t="s">
+        <v>157</v>
+      </c>
+      <c r="M536" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E537" t="s">
+        <v>286</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H537" t="s">
+        <v>157</v>
+      </c>
+      <c r="I537" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J537" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K537" t="s">
+        <v>817</v>
+      </c>
+      <c r="L537" t="s">
+        <v>365</v>
+      </c>
+      <c r="M537" t="s">
+        <v>157</v>
+      </c>
+      <c r="N537" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O537" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E538" t="s">
+        <v>802</v>
+      </c>
+      <c r="F538" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E539" t="s">
+        <v>795</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G539" t="s">
+        <v>157</v>
+      </c>
+      <c r="H539" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E540" t="s">
+        <v>804</v>
+      </c>
+      <c r="F540" t="s">
+        <v>804</v>
+      </c>
+      <c r="G540" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E541" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>68</v>
+      </c>
+      <c r="B542" t="s">
+        <v>24</v>
+      </c>
+      <c r="C542" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542">
+        <v>7</v>
+      </c>
+      <c r="E542" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E543" t="s">
+        <v>139</v>
+      </c>
+      <c r="F543" t="s">
+        <v>141</v>
+      </c>
+      <c r="G543" t="s">
+        <v>142</v>
+      </c>
+      <c r="H543" t="s">
+        <v>800</v>
+      </c>
+      <c r="I543" t="s">
+        <v>801</v>
+      </c>
+      <c r="J543" t="s">
+        <v>802</v>
+      </c>
+      <c r="K543" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E544" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G544" t="s">
+        <v>240</v>
+      </c>
+      <c r="H544" t="s">
+        <v>802</v>
+      </c>
+      <c r="I544" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J544" t="s">
+        <v>263</v>
+      </c>
+      <c r="K544" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L544" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E545" t="s">
+        <v>263</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G545" t="s">
+        <v>263</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I545" t="s">
+        <v>804</v>
+      </c>
+      <c r="J545" t="s">
+        <v>157</v>
+      </c>
+      <c r="K545" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E546" t="s">
+        <v>191</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G546" t="s">
+        <v>240</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J546" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E547" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F547" t="s">
+        <v>796</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H547" t="s">
+        <v>820</v>
+      </c>
+      <c r="I547" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J547" t="s">
+        <v>817</v>
+      </c>
+      <c r="K547" t="s">
+        <v>365</v>
+      </c>
+      <c r="L547" t="s">
+        <v>144</v>
+      </c>
+      <c r="M547" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E548" t="s">
+        <v>802</v>
+      </c>
+      <c r="F548" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E549" t="s">
+        <v>795</v>
+      </c>
+      <c r="F549" t="s">
+        <v>796</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H549" t="s">
+        <v>144</v>
+      </c>
+      <c r="I549" t="s">
+        <v>157</v>
+      </c>
+      <c r="J549" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E550" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F550" t="s">
+        <v>157</v>
+      </c>
+      <c r="G550" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E551" t="s">
+        <v>804</v>
+      </c>
+      <c r="F551" t="s">
+        <v>804</v>
+      </c>
+      <c r="G551" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E552" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>69</v>
+      </c>
+      <c r="B553" t="s">
+        <v>24</v>
+      </c>
+      <c r="C553" t="s">
+        <v>8</v>
+      </c>
+      <c r="D553">
+        <v>7</v>
+      </c>
+      <c r="E553" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E554" t="s">
+        <v>139</v>
+      </c>
+      <c r="F554" t="s">
+        <v>141</v>
+      </c>
+      <c r="G554" t="s">
+        <v>142</v>
+      </c>
+      <c r="H554" t="s">
+        <v>800</v>
+      </c>
+      <c r="I554" t="s">
+        <v>801</v>
+      </c>
+      <c r="J554" t="s">
+        <v>802</v>
+      </c>
+      <c r="K554" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E555" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G555" t="s">
+        <v>240</v>
+      </c>
+      <c r="H555" t="s">
+        <v>802</v>
+      </c>
+      <c r="I555" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J555" t="s">
+        <v>263</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L555" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E556" t="s">
+        <v>263</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G556" t="s">
+        <v>263</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I556" t="s">
+        <v>804</v>
+      </c>
+      <c r="J556" t="s">
+        <v>157</v>
+      </c>
+      <c r="K556" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E557" t="s">
+        <v>191</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G557" t="s">
+        <v>240</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J557" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E558" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F558" t="s">
+        <v>796</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H558" t="s">
+        <v>820</v>
+      </c>
+      <c r="I558" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J558" t="s">
+        <v>817</v>
+      </c>
+      <c r="K558" t="s">
+        <v>365</v>
+      </c>
+      <c r="L558" t="s">
+        <v>144</v>
+      </c>
+      <c r="M558" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E559" t="s">
+        <v>802</v>
+      </c>
+      <c r="F559" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E560" t="s">
+        <v>795</v>
+      </c>
+      <c r="F560" t="s">
+        <v>796</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H560" t="s">
+        <v>144</v>
+      </c>
+      <c r="I560" t="s">
+        <v>157</v>
+      </c>
+      <c r="J560" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E561" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F561" t="s">
+        <v>157</v>
+      </c>
+      <c r="G561" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E562" t="s">
+        <v>804</v>
+      </c>
+      <c r="F562" t="s">
+        <v>804</v>
+      </c>
+      <c r="G562" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E563" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>70</v>
+      </c>
+      <c r="B564" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564">
+        <v>8</v>
+      </c>
+      <c r="E564" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E565" t="s">
+        <v>139</v>
+      </c>
+      <c r="F565" t="s">
+        <v>142</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H565" t="s">
+        <v>802</v>
+      </c>
+      <c r="I565" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E566" t="s">
+        <v>795</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G566" t="s">
+        <v>157</v>
+      </c>
+      <c r="H566" t="s">
+        <v>804</v>
+      </c>
+      <c r="I566" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E567" t="s">
+        <v>139</v>
+      </c>
+      <c r="F567" t="s">
+        <v>141</v>
+      </c>
+      <c r="G567" t="s">
+        <v>142</v>
+      </c>
+      <c r="H567" t="s">
+        <v>800</v>
+      </c>
+      <c r="I567" t="s">
+        <v>801</v>
+      </c>
+      <c r="J567" t="s">
+        <v>802</v>
+      </c>
+      <c r="K567" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E568" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F568" t="s">
+        <v>157</v>
+      </c>
+      <c r="G568" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E569" t="s">
+        <v>804</v>
+      </c>
+      <c r="F569" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E570" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>71</v>
+      </c>
+      <c r="B571" t="s">
+        <v>25</v>
+      </c>
+      <c r="C571" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571">
+        <v>8</v>
+      </c>
+      <c r="E571" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E572" t="s">
+        <v>139</v>
+      </c>
+      <c r="F572" t="s">
+        <v>142</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H572" t="s">
+        <v>802</v>
+      </c>
+      <c r="I572" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E573" t="s">
+        <v>795</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G573" t="s">
+        <v>157</v>
+      </c>
+      <c r="H573" t="s">
+        <v>804</v>
+      </c>
+      <c r="I573" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E574" t="s">
+        <v>139</v>
+      </c>
+      <c r="F574" t="s">
+        <v>141</v>
+      </c>
+      <c r="G574" t="s">
+        <v>142</v>
+      </c>
+      <c r="H574" t="s">
+        <v>800</v>
+      </c>
+      <c r="I574" t="s">
+        <v>801</v>
+      </c>
+      <c r="J574" t="s">
+        <v>802</v>
+      </c>
+      <c r="K574" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E575" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F575" t="s">
+        <v>157</v>
+      </c>
+      <c r="G575" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E576" t="s">
+        <v>804</v>
+      </c>
+      <c r="F576" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E577" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>72</v>
+      </c>
+      <c r="B578" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" t="s">
+        <v>7</v>
+      </c>
+      <c r="D578">
+        <v>8</v>
+      </c>
+      <c r="E578" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E579" t="s">
+        <v>139</v>
+      </c>
+      <c r="F579" t="s">
+        <v>143</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H579" t="s">
+        <v>802</v>
+      </c>
+      <c r="I579" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E580" t="s">
+        <v>303</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G580" t="s">
+        <v>157</v>
+      </c>
+      <c r="H580" t="s">
+        <v>804</v>
+      </c>
+      <c r="I580" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E581" t="s">
+        <v>139</v>
+      </c>
+      <c r="F581" t="s">
+        <v>141</v>
+      </c>
+      <c r="G581" t="s">
+        <v>142</v>
+      </c>
+      <c r="H581" t="s">
+        <v>800</v>
+      </c>
+      <c r="I581" t="s">
+        <v>801</v>
+      </c>
+      <c r="J581" t="s">
+        <v>802</v>
+      </c>
+      <c r="K581" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E582" t="s">
+        <v>795</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G582" t="s">
+        <v>264</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I582" t="s">
+        <v>157</v>
+      </c>
+      <c r="J582" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>804</v>
+      </c>
+      <c r="F583" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E584" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>73</v>
+      </c>
+      <c r="B585" t="s">
+        <v>25</v>
+      </c>
+      <c r="C585" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585">
+        <v>8</v>
+      </c>
+      <c r="E585" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E586" t="s">
+        <v>139</v>
+      </c>
+      <c r="F586" t="s">
+        <v>143</v>
+      </c>
+      <c r="G586" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H586" t="s">
+        <v>802</v>
+      </c>
+      <c r="I586" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E587" t="s">
+        <v>303</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G587" t="s">
+        <v>157</v>
+      </c>
+      <c r="H587" t="s">
+        <v>804</v>
+      </c>
+      <c r="I587" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E588" t="s">
+        <v>139</v>
+      </c>
+      <c r="F588" t="s">
+        <v>141</v>
+      </c>
+      <c r="G588" t="s">
+        <v>142</v>
+      </c>
+      <c r="H588" t="s">
+        <v>800</v>
+      </c>
+      <c r="I588" t="s">
+        <v>801</v>
+      </c>
+      <c r="J588" t="s">
+        <v>802</v>
+      </c>
+      <c r="K588" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E589" t="s">
+        <v>795</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G589" t="s">
+        <v>264</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I589" t="s">
+        <v>157</v>
+      </c>
+      <c r="J589" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E590" t="s">
+        <v>804</v>
+      </c>
+      <c r="F590" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E591" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>74</v>
+      </c>
+      <c r="B592" t="s">
+        <v>25</v>
+      </c>
+      <c r="C592" t="s">
+        <v>8</v>
+      </c>
+      <c r="D592">
+        <v>8</v>
+      </c>
+      <c r="E592" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E593" t="s">
+        <v>139</v>
+      </c>
+      <c r="F593" t="s">
+        <v>143</v>
+      </c>
+      <c r="G593" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H593" t="s">
+        <v>802</v>
+      </c>
+      <c r="I593" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E594" t="s">
+        <v>303</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G594" t="s">
+        <v>157</v>
+      </c>
+      <c r="H594" t="s">
+        <v>804</v>
+      </c>
+      <c r="I594" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E595" t="s">
+        <v>139</v>
+      </c>
+      <c r="F595" t="s">
+        <v>143</v>
+      </c>
+      <c r="G595" t="s">
+        <v>956</v>
+      </c>
+      <c r="H595" t="s">
+        <v>802</v>
+      </c>
+      <c r="I595" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E596" t="s">
+        <v>303</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G596" t="s">
+        <v>157</v>
+      </c>
+      <c r="H596" t="s">
+        <v>804</v>
+      </c>
+      <c r="I596" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E597" t="s">
+        <v>139</v>
+      </c>
+      <c r="F597" t="s">
+        <v>141</v>
+      </c>
+      <c r="G597" t="s">
+        <v>142</v>
+      </c>
+      <c r="H597" t="s">
+        <v>800</v>
+      </c>
+      <c r="I597" t="s">
+        <v>801</v>
+      </c>
+      <c r="J597" t="s">
+        <v>802</v>
+      </c>
+      <c r="K597" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E598" t="s">
+        <v>795</v>
+      </c>
+      <c r="F598" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G598" t="s">
+        <v>264</v>
+      </c>
+      <c r="H598" t="s">
+        <v>956</v>
+      </c>
+      <c r="I598" t="s">
+        <v>157</v>
+      </c>
+      <c r="J598" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E599" t="s">
+        <v>804</v>
+      </c>
+      <c r="F599" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E600" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>75</v>
+      </c>
+      <c r="B601" t="s">
+        <v>25</v>
+      </c>
+      <c r="C601" t="s">
+        <v>8</v>
+      </c>
+      <c r="D601">
+        <v>8</v>
+      </c>
+      <c r="E601" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E602" t="s">
+        <v>139</v>
+      </c>
+      <c r="F602" t="s">
+        <v>143</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H602" t="s">
+        <v>802</v>
+      </c>
+      <c r="I602" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E603" t="s">
+        <v>303</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G603" t="s">
+        <v>157</v>
+      </c>
+      <c r="H603" t="s">
+        <v>804</v>
+      </c>
+      <c r="I603" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E604" t="s">
+        <v>139</v>
+      </c>
+      <c r="F604" t="s">
+        <v>143</v>
+      </c>
+      <c r="G604" t="s">
+        <v>956</v>
+      </c>
+      <c r="H604" t="s">
+        <v>802</v>
+      </c>
+      <c r="I604" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E605" t="s">
+        <v>303</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G605" t="s">
+        <v>157</v>
+      </c>
+      <c r="H605" t="s">
+        <v>804</v>
+      </c>
+      <c r="I605" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E606" t="s">
+        <v>139</v>
+      </c>
+      <c r="F606" t="s">
+        <v>141</v>
+      </c>
+      <c r="G606" t="s">
+        <v>142</v>
+      </c>
+      <c r="H606" t="s">
+        <v>800</v>
+      </c>
+      <c r="I606" t="s">
+        <v>801</v>
+      </c>
+      <c r="J606" t="s">
+        <v>802</v>
+      </c>
+      <c r="K606" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E607" t="s">
+        <v>795</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G607" t="s">
+        <v>264</v>
+      </c>
+      <c r="H607" t="s">
+        <v>956</v>
+      </c>
+      <c r="I607" t="s">
+        <v>157</v>
+      </c>
+      <c r="J607" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E608" t="s">
+        <v>804</v>
+      </c>
+      <c r="F608" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E609" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>76</v>
+      </c>
+      <c r="B610" t="s">
+        <v>26</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610">
+        <v>8</v>
+      </c>
+      <c r="E610" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E611" t="s">
+        <v>139</v>
+      </c>
+      <c r="F611" t="s">
+        <v>141</v>
+      </c>
+      <c r="G611" t="s">
+        <v>142</v>
+      </c>
+      <c r="H611" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I611" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J611" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K611" t="s">
+        <v>802</v>
+      </c>
+      <c r="L611" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E612" t="s">
+        <v>795</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G612" t="s">
+        <v>264</v>
+      </c>
+      <c r="H612" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I612" t="s">
+        <v>157</v>
+      </c>
+      <c r="J612" t="s">
+        <v>804</v>
+      </c>
+      <c r="K612" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E613" t="s">
+        <v>139</v>
+      </c>
+      <c r="F613" t="s">
+        <v>141</v>
+      </c>
+      <c r="G613" t="s">
+        <v>142</v>
+      </c>
+      <c r="H613" t="s">
+        <v>800</v>
+      </c>
+      <c r="I613" t="s">
+        <v>801</v>
+      </c>
+      <c r="J613" t="s">
+        <v>802</v>
+      </c>
+      <c r="K613" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E614" t="s">
+        <v>795</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G614" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H614" t="s">
+        <v>157</v>
+      </c>
+      <c r="I614" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E615" t="s">
+        <v>804</v>
+      </c>
+      <c r="F615" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E616" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>77</v>
+      </c>
+      <c r="B617" t="s">
+        <v>29</v>
+      </c>
+      <c r="C617" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617">
+        <v>8</v>
+      </c>
+      <c r="E617" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E618" t="s">
+        <v>139</v>
+      </c>
+      <c r="F618" t="s">
+        <v>141</v>
+      </c>
+      <c r="G618" t="s">
+        <v>142</v>
+      </c>
+      <c r="H618" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I618" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K618" t="s">
+        <v>802</v>
+      </c>
+      <c r="L618" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E619" t="s">
+        <v>795</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G619" t="s">
+        <v>264</v>
+      </c>
+      <c r="H619" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I619" t="s">
+        <v>157</v>
+      </c>
+      <c r="J619" t="s">
+        <v>804</v>
+      </c>
+      <c r="K619" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E620" t="s">
+        <v>139</v>
+      </c>
+      <c r="F620" t="s">
+        <v>141</v>
+      </c>
+      <c r="G620" t="s">
+        <v>142</v>
+      </c>
+      <c r="H620" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I620" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J620" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K620" t="s">
+        <v>263</v>
+      </c>
+      <c r="L620" t="s">
+        <v>143</v>
+      </c>
+      <c r="M620" t="s">
+        <v>1347</v>
+      </c>
+      <c r="N620" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E621" t="s">
+        <v>802</v>
+      </c>
+      <c r="F621" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E622" t="s">
+        <v>795</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G622" t="s">
+        <v>264</v>
+      </c>
+      <c r="H622" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I622" t="s">
+        <v>157</v>
+      </c>
+      <c r="J622" t="s">
+        <v>804</v>
+      </c>
+      <c r="K622" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E623" t="s">
+        <v>139</v>
+      </c>
+      <c r="F623" t="s">
+        <v>141</v>
+      </c>
+      <c r="G623" t="s">
+        <v>142</v>
+      </c>
+      <c r="H623" t="s">
+        <v>800</v>
+      </c>
+      <c r="I623" t="s">
+        <v>801</v>
+      </c>
+      <c r="J623" t="s">
+        <v>802</v>
+      </c>
+      <c r="K623" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E624" t="s">
+        <v>795</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G624" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H624" t="s">
+        <v>263</v>
+      </c>
+      <c r="I624" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J624" t="s">
+        <v>157</v>
+      </c>
+      <c r="K624" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E625" t="s">
+        <v>804</v>
+      </c>
+      <c r="F625" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E626" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>78</v>
+      </c>
+      <c r="B627" t="s">
+        <v>26</v>
+      </c>
+      <c r="C627" t="s">
+        <v>7</v>
+      </c>
+      <c r="D627">
+        <v>8</v>
+      </c>
+      <c r="E627" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E628" t="s">
+        <v>139</v>
+      </c>
+      <c r="F628" t="s">
+        <v>141</v>
+      </c>
+      <c r="G628" t="s">
+        <v>191</v>
+      </c>
+      <c r="H628" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I628" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J628" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K628" t="s">
+        <v>802</v>
+      </c>
+      <c r="L628" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E629" t="s">
+        <v>303</v>
+      </c>
+      <c r="F629" t="s">
+        <v>880</v>
+      </c>
+      <c r="G629" t="s">
+        <v>264</v>
+      </c>
+      <c r="H629">
+        <v>5</v>
+      </c>
+      <c r="I629" t="s">
+        <v>157</v>
+      </c>
+      <c r="J629" t="s">
+        <v>804</v>
+      </c>
+      <c r="K629" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E630" t="s">
+        <v>139</v>
+      </c>
+      <c r="F630" t="s">
+        <v>141</v>
+      </c>
+      <c r="G630" t="s">
+        <v>142</v>
+      </c>
+      <c r="H630" t="s">
+        <v>800</v>
+      </c>
+      <c r="I630" t="s">
+        <v>801</v>
+      </c>
+      <c r="J630" t="s">
+        <v>802</v>
+      </c>
+      <c r="K630" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E631" t="s">
+        <v>795</v>
+      </c>
+      <c r="F631" t="s">
+        <v>796</v>
+      </c>
+      <c r="G631" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H631" t="s">
+        <v>144</v>
+      </c>
+      <c r="I631" t="s">
+        <v>157</v>
+      </c>
+      <c r="J631" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E632" t="s">
+        <v>804</v>
+      </c>
+      <c r="F632" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E633" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>79</v>
+      </c>
+      <c r="B634" t="s">
+        <v>29</v>
+      </c>
+      <c r="C634" t="s">
+        <v>7</v>
+      </c>
+      <c r="D634">
+        <v>8</v>
+      </c>
+      <c r="E634" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E635" t="s">
+        <v>139</v>
+      </c>
+      <c r="F635" t="s">
+        <v>141</v>
+      </c>
+      <c r="G635" t="s">
+        <v>191</v>
+      </c>
+      <c r="H635" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I635" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K635" t="s">
+        <v>802</v>
+      </c>
+      <c r="L635" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E636" t="s">
+        <v>303</v>
+      </c>
+      <c r="F636" t="s">
+        <v>880</v>
+      </c>
+      <c r="G636" t="s">
+        <v>264</v>
+      </c>
+      <c r="H636">
+        <v>5</v>
+      </c>
+      <c r="I636" t="s">
+        <v>157</v>
+      </c>
+      <c r="J636" t="s">
+        <v>804</v>
+      </c>
+      <c r="K636" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E637" t="s">
+        <v>139</v>
+      </c>
+      <c r="F637" t="s">
+        <v>141</v>
+      </c>
+      <c r="G637" t="s">
+        <v>191</v>
+      </c>
+      <c r="H637" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I637" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J637" t="s">
+        <v>880</v>
+      </c>
+      <c r="K637" t="s">
+        <v>263</v>
+      </c>
+      <c r="L637" t="s">
+        <v>191</v>
+      </c>
+      <c r="M637" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N637" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E638" t="s">
+        <v>802</v>
+      </c>
+      <c r="F638" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E639" t="s">
+        <v>303</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G639" t="s">
+        <v>264</v>
+      </c>
+      <c r="H639" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I639" t="s">
+        <v>157</v>
+      </c>
+      <c r="J639" t="s">
+        <v>804</v>
+      </c>
+      <c r="K639" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E640" t="s">
+        <v>139</v>
+      </c>
+      <c r="F640" t="s">
+        <v>141</v>
+      </c>
+      <c r="G640" t="s">
+        <v>142</v>
+      </c>
+      <c r="H640" t="s">
+        <v>800</v>
+      </c>
+      <c r="I640" t="s">
+        <v>801</v>
+      </c>
+      <c r="J640" t="s">
+        <v>802</v>
+      </c>
+      <c r="K640" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E641" t="s">
+        <v>795</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G641" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H641" t="s">
+        <v>263</v>
+      </c>
+      <c r="I641" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J641" t="s">
+        <v>157</v>
+      </c>
+      <c r="K641" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E642" t="s">
+        <v>804</v>
+      </c>
+      <c r="F642" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E643" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>80</v>
+      </c>
+      <c r="B644" t="s">
+        <v>26</v>
+      </c>
+      <c r="C644" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644">
+        <v>8</v>
+      </c>
+      <c r="E644" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E645" t="s">
+        <v>139</v>
+      </c>
+      <c r="F645" t="s">
+        <v>141</v>
+      </c>
+      <c r="G645" t="s">
+        <v>190</v>
+      </c>
+      <c r="H645" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I645" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J645" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K645" t="s">
+        <v>802</v>
+      </c>
+      <c r="L645" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E646" t="s">
+        <v>303</v>
+      </c>
+      <c r="F646" t="s">
+        <v>268</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H646" t="s">
+        <v>157</v>
+      </c>
+      <c r="I646" t="s">
+        <v>804</v>
+      </c>
+      <c r="J646" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E647" t="s">
+        <v>139</v>
+      </c>
+      <c r="F647" t="s">
+        <v>141</v>
+      </c>
+      <c r="G647" t="s">
+        <v>142</v>
+      </c>
+      <c r="H647" t="s">
+        <v>800</v>
+      </c>
+      <c r="I647" t="s">
+        <v>801</v>
+      </c>
+      <c r="J647" t="s">
+        <v>802</v>
+      </c>
+      <c r="K647" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E648" t="s">
+        <v>795</v>
+      </c>
+      <c r="F648" t="s">
+        <v>796</v>
+      </c>
+      <c r="G648" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H648" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I648" t="s">
+        <v>144</v>
+      </c>
+      <c r="J648" t="s">
+        <v>157</v>
+      </c>
+      <c r="K648" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E649" t="s">
+        <v>804</v>
+      </c>
+      <c r="F649" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E650" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>81</v>
+      </c>
+      <c r="B651" t="s">
+        <v>29</v>
+      </c>
+      <c r="C651" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651">
+        <v>8</v>
+      </c>
+      <c r="E651" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E652" t="s">
+        <v>139</v>
+      </c>
+      <c r="F652" t="s">
+        <v>141</v>
+      </c>
+      <c r="G652" t="s">
+        <v>190</v>
+      </c>
+      <c r="H652" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I652" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J652" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K652" t="s">
+        <v>802</v>
+      </c>
+      <c r="L652" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E653" t="s">
+        <v>303</v>
+      </c>
+      <c r="F653" t="s">
+        <v>268</v>
+      </c>
+      <c r="G653" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H653" t="s">
+        <v>157</v>
+      </c>
+      <c r="I653" t="s">
+        <v>804</v>
+      </c>
+      <c r="J653" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E654" t="s">
+        <v>139</v>
+      </c>
+      <c r="F654" t="s">
+        <v>141</v>
+      </c>
+      <c r="G654" t="s">
+        <v>191</v>
+      </c>
+      <c r="H654" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I654" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J654" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K654" t="s">
+        <v>802</v>
+      </c>
+      <c r="L654" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E655" t="s">
+        <v>303</v>
+      </c>
+      <c r="F655" t="s">
+        <v>806</v>
+      </c>
+      <c r="G655" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H655" t="s">
+        <v>157</v>
+      </c>
+      <c r="I655" t="s">
+        <v>804</v>
+      </c>
+      <c r="J655" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E656" t="s">
+        <v>139</v>
+      </c>
+      <c r="F656" t="s">
+        <v>141</v>
+      </c>
+      <c r="G656" t="s">
+        <v>142</v>
+      </c>
+      <c r="H656" t="s">
+        <v>800</v>
+      </c>
+      <c r="I656" t="s">
+        <v>801</v>
+      </c>
+      <c r="J656" t="s">
+        <v>802</v>
+      </c>
+      <c r="K656" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="657" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E657" t="s">
+        <v>795</v>
+      </c>
+      <c r="F657" t="s">
+        <v>796</v>
+      </c>
+      <c r="G657" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H657">
+        <v>-1</v>
+      </c>
+      <c r="I657" t="s">
+        <v>144</v>
+      </c>
+      <c r="J657" t="s">
+        <v>157</v>
+      </c>
+      <c r="K657" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="658" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E658" t="s">
+        <v>804</v>
+      </c>
+      <c r="F658" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="659" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E659" t="s">
         <v>138</v>
       </c>
     </row>
@@ -38122,12 +40508,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38277,15 +40660,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38309,17 +40703,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AA42F-6006-4F98-B8CC-E4AAE8A284C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2C5E8-6311-40B8-8C65-623CB83A7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="405" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="1755" yWindow="720" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -26703,8 +26703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
   <dimension ref="A1:O659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="I659" sqref="I659"/>
+    <sheetView topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="E528" sqref="E528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38213,8 +38213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40508,9 +40508,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40660,26 +40663,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40703,9 +40695,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AA42F-6006-4F98-B8CC-E4AAE8A284C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579FDD5-9079-4621-A01E-C4885597321A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="405" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7350" uniqueCount="1434">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4953,6 +4953,9 @@
     <t>("JediLand"</t>
   </si>
   <si>
+    <t>Conditional Statement</t>
+  </si>
+  <si>
     <t>((1 + 1)</t>
   </si>
   <si>
@@ -5044,204 +5047,6 @@
   </si>
   <si>
     <t>("False")</t>
-  </si>
-  <si>
-    <t>("A is greater")</t>
-  </si>
-  <si>
-    <t>("B is greater")</t>
-  </si>
-  <si>
-    <t>(num1</t>
-  </si>
-  <si>
-    <t>else if</t>
-  </si>
-  <si>
-    <t>("B is lower")</t>
-  </si>
-  <si>
-    <t>(num3</t>
-  </si>
-  <si>
-    <t>num1)</t>
-  </si>
-  <si>
-    <t>("C is lower")</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>(letter)</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>("A Grade")</t>
-  </si>
-  <si>
-    <t>("B Grade")</t>
-  </si>
-  <si>
-    <t>B'</t>
-  </si>
-  <si>
-    <t>("No Grade")</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>"North"</t>
-  </si>
-  <si>
-    <t>("No Direction")</t>
-  </si>
-  <si>
-    <t>"South"</t>
-  </si>
-  <si>
-    <t>("Up")</t>
-  </si>
-  <si>
-    <t>("Down")</t>
-  </si>
-  <si>
-    <t>"A"</t>
-  </si>
-  <si>
-    <t>"B"</t>
-  </si>
-  <si>
-    <t>"C"</t>
-  </si>
-  <si>
-    <t>i=0</t>
-  </si>
-  <si>
-    <t>i&lt;5</t>
-  </si>
-  <si>
-    <t>i++)</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>(i&lt;5)</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>(i)</t>
-  </si>
-  <si>
-    <t>(i==2)</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>"is"</t>
-  </si>
-  <si>
-    <t>"in"</t>
-  </si>
-  <si>
-    <t>"Jediland"</t>
-  </si>
-  <si>
-    <t>i&lt;</t>
-  </si>
-  <si>
-    <t>(array[i])</t>
-  </si>
-  <si>
-    <t>"going"</t>
-  </si>
-  <si>
-    <t>"to"</t>
-  </si>
-  <si>
-    <t>"Jedischool"</t>
-  </si>
-  <si>
-    <t>(array[0])</t>
-  </si>
-  <si>
-    <t>(array[1])</t>
-  </si>
-  <si>
-    <t>(array[2])</t>
-  </si>
-  <si>
-    <t>(array[3])</t>
-  </si>
-  <si>
-    <t>(array[4])</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>counter++</t>
-  </si>
-  <si>
-    <t>array(counter)</t>
-  </si>
-  <si>
-    <t>greet</t>
-  </si>
-  <si>
-    <t>greet()</t>
-  </si>
-  <si>
-    <t>("Hello!")</t>
-  </si>
-  <si>
-    <t>("Hi!")</t>
-  </si>
-  <si>
-    <t>(greet()</t>
-  </si>
-  <si>
-    <t>"Hello"</t>
-  </si>
-  <si>
-    <t>"Jedisaur")</t>
-  </si>
-  <si>
-    <t>"Hi"</t>
-  </si>
-  <si>
-    <t>("Hi"</t>
-  </si>
-  <si>
-    <t>(String</t>
-  </si>
-  <si>
-    <t>(greet</t>
-  </si>
-  <si>
-    <t>num)</t>
-  </si>
-  <si>
-    <t>solve</t>
-  </si>
-  <si>
-    <t>solve(5)</t>
-  </si>
-  <si>
-    <t>(5</t>
-  </si>
-  <si>
-    <t>(boolean</t>
-  </si>
-  <si>
-    <t>opposite</t>
   </si>
 </sst>
 </file>
@@ -26701,10 +26506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O659"/>
+  <dimension ref="A1:O357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
-      <selection activeCell="I659" sqref="I659"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="K284" sqref="K284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27230,7 +27035,7 @@
         <v>1196</v>
       </c>
       <c r="J26" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="K26" t="s">
         <v>264</v>
@@ -28477,7 +28282,7 @@
         <v>795</v>
       </c>
       <c r="F87" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G87" t="s">
         <v>264</v>
@@ -28565,7 +28370,7 @@
         <v>795</v>
       </c>
       <c r="F92" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G92" t="s">
         <v>264</v>
@@ -28653,7 +28458,7 @@
         <v>795</v>
       </c>
       <c r="F97" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G97" t="s">
         <v>264</v>
@@ -28767,7 +28572,7 @@
         <v>795</v>
       </c>
       <c r="F103" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G103" t="s">
         <v>264</v>
@@ -28787,7 +28592,7 @@
         <v>795</v>
       </c>
       <c r="F104" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G104" t="s">
         <v>264</v>
@@ -28799,7 +28604,7 @@
         <v>264</v>
       </c>
       <c r="J104" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="K104" t="s">
         <v>157</v>
@@ -28901,7 +28706,7 @@
         <v>795</v>
       </c>
       <c r="F110" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G110" t="s">
         <v>264</v>
@@ -28921,7 +28726,7 @@
         <v>795</v>
       </c>
       <c r="F111" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G111" t="s">
         <v>264</v>
@@ -29029,7 +28834,7 @@
         <v>795</v>
       </c>
       <c r="F117" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G117" t="s">
         <v>264</v>
@@ -29055,7 +28860,7 @@
         <v>795</v>
       </c>
       <c r="F118" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G118" t="s">
         <v>264</v>
@@ -29067,7 +28872,7 @@
         <v>264</v>
       </c>
       <c r="J118" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="K118" t="s">
         <v>157</v>
@@ -29189,7 +28994,7 @@
         <v>795</v>
       </c>
       <c r="F125" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G125" t="s">
         <v>264</v>
@@ -29209,7 +29014,7 @@
         <v>795</v>
       </c>
       <c r="F126" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G126" t="s">
         <v>264</v>
@@ -29235,7 +29040,7 @@
         <v>795</v>
       </c>
       <c r="F127" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G127" t="s">
         <v>264</v>
@@ -29247,7 +29052,7 @@
         <v>264</v>
       </c>
       <c r="J127" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="K127" t="s">
         <v>157</v>
@@ -29349,7 +29154,7 @@
         <v>795</v>
       </c>
       <c r="F133" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G133" t="s">
         <v>264</v>
@@ -29369,7 +29174,7 @@
         <v>795</v>
       </c>
       <c r="F134" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G134" t="s">
         <v>264</v>
@@ -29491,7 +29296,7 @@
         <v>795</v>
       </c>
       <c r="F141" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G141" t="s">
         <v>264</v>
@@ -29514,7 +29319,7 @@
         <v>795</v>
       </c>
       <c r="F142" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="G142" t="s">
         <v>264</v>
@@ -29526,7 +29331,7 @@
         <v>264</v>
       </c>
       <c r="J142" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="K142" t="s">
         <v>157</v>
@@ -29694,7 +29499,7 @@
         <v>795</v>
       </c>
       <c r="F151" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G151" t="s">
         <v>264</v>
@@ -29828,7 +29633,7 @@
         <v>795</v>
       </c>
       <c r="F158" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="G158" t="s">
         <v>264</v>
@@ -29854,7 +29659,7 @@
         <v>795</v>
       </c>
       <c r="F159" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G159" t="s">
         <v>264</v>
@@ -31216,7 +31021,7 @@
         <v>240</v>
       </c>
       <c r="H231" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="I231" t="s">
         <v>157</v>
@@ -31253,7 +31058,7 @@
         <v>191</v>
       </c>
       <c r="F233" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G233" t="s">
         <v>240</v>
@@ -31279,7 +31084,7 @@
         <v>264</v>
       </c>
       <c r="H234" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I234" t="s">
         <v>264</v>
@@ -31305,7 +31110,7 @@
         <v>264</v>
       </c>
       <c r="H235" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I235" t="s">
         <v>264</v>
@@ -31331,7 +31136,7 @@
         <v>264</v>
       </c>
       <c r="H236" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I236" t="s">
         <v>264</v>
@@ -31419,7 +31224,7 @@
         <v>190</v>
       </c>
       <c r="F241" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G241" t="s">
         <v>240</v>
@@ -31468,19 +31273,19 @@
         <v>795</v>
       </c>
       <c r="F243" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G243" t="s">
         <v>264</v>
       </c>
       <c r="H243" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I243" t="s">
         <v>264</v>
       </c>
       <c r="J243" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="K243" t="s">
         <v>157</v>
@@ -31494,19 +31299,19 @@
         <v>795</v>
       </c>
       <c r="F244" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G244" t="s">
         <v>264</v>
       </c>
       <c r="H244" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="I244" t="s">
         <v>264</v>
       </c>
       <c r="J244" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="K244" t="s">
         <v>157</v>
@@ -31520,13 +31325,13 @@
         <v>795</v>
       </c>
       <c r="F245" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G245" t="s">
         <v>264</v>
       </c>
       <c r="H245" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I245" t="s">
         <v>264</v>
@@ -31594,13 +31399,13 @@
         <v>795</v>
       </c>
       <c r="F249" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G249" t="s">
         <v>264</v>
       </c>
       <c r="H249" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="I249" t="s">
         <v>157</v>
@@ -31614,13 +31419,13 @@
         <v>795</v>
       </c>
       <c r="F250" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G250" t="s">
         <v>264</v>
       </c>
       <c r="H250" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="I250" t="s">
         <v>157</v>
@@ -31682,13 +31487,13 @@
         <v>795</v>
       </c>
       <c r="F254" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G254" t="s">
         <v>264</v>
       </c>
       <c r="H254" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="I254" t="s">
         <v>157</v>
@@ -31702,13 +31507,13 @@
         <v>795</v>
       </c>
       <c r="F255" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G255" t="s">
         <v>264</v>
       </c>
       <c r="H255" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="I255" t="s">
         <v>157</v>
@@ -31790,7 +31595,7 @@
         <v>795</v>
       </c>
       <c r="F260" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G260" t="s">
         <v>157</v>
@@ -31818,7 +31623,7 @@
         <v>795</v>
       </c>
       <c r="F262" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G262" t="s">
         <v>157</v>
@@ -31900,7 +31705,7 @@
         <v>795</v>
       </c>
       <c r="F267" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G267" t="s">
         <v>157</v>
@@ -31928,7 +31733,7 @@
         <v>795</v>
       </c>
       <c r="F269" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="G269" t="s">
         <v>157</v>
@@ -32010,19 +31815,19 @@
         <v>795</v>
       </c>
       <c r="F274" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G274" t="s">
         <v>264</v>
       </c>
       <c r="H274" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="I274" t="s">
         <v>806</v>
       </c>
       <c r="J274" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="K274" t="s">
         <v>157</v>
@@ -32050,7 +31855,7 @@
         <v>795</v>
       </c>
       <c r="F276" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G276" t="s">
         <v>157</v>
@@ -32175,19 +31980,19 @@
         <v>795</v>
       </c>
       <c r="F283" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G283" t="s">
         <v>259</v>
       </c>
       <c r="H283" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="I283" t="s">
         <v>806</v>
       </c>
       <c r="J283" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="K283" t="s">
         <v>157</v>
@@ -32201,7 +32006,7 @@
         <v>795</v>
       </c>
       <c r="F284" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="G284" t="s">
         <v>157</v>
@@ -32215,7 +32020,7 @@
         <v>795</v>
       </c>
       <c r="F285" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="G285" t="s">
         <v>157</v>
@@ -32272,12 +32077,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>43</v>
       </c>
       <c r="B289" t="s">
-        <v>22</v>
+        <v>1402</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -32289,7 +32094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
         <v>139</v>
       </c>
@@ -32312,7 +32117,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
         <v>190</v>
       </c>
@@ -32332,7 +32137,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
         <v>280</v>
       </c>
@@ -32346,12 +32151,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>795</v>
       </c>
       <c r="F293" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G293" t="s">
         <v>157</v>
@@ -32360,7 +32165,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>804</v>
       </c>
@@ -32374,12 +32179,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
         <v>795</v>
       </c>
       <c r="F295" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G295" t="s">
         <v>157</v>
@@ -32388,7 +32193,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
         <v>804</v>
       </c>
@@ -32399,17 +32204,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>44</v>
       </c>
       <c r="B298" t="s">
-        <v>22</v>
+        <v>1402</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -32421,7 +32226,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
         <v>139</v>
       </c>
@@ -32444,5763 +32249,1073 @@
         <v>797</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>190</v>
+        <v>1194</v>
       </c>
       <c r="F300" t="s">
-        <v>1372</v>
+        <v>1198</v>
       </c>
       <c r="G300" t="s">
-        <v>240</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>1376</v>
+        <v>1195</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1198</v>
       </c>
       <c r="I300" t="s">
-        <v>157</v>
+        <v>1196</v>
       </c>
       <c r="J300" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+      <c r="K300" t="s">
+        <v>157</v>
+      </c>
+      <c r="L300" t="s">
+        <v>804</v>
+      </c>
+      <c r="M300" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>280</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G301" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>45</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C302" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+      <c r="E302" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>139</v>
+      </c>
+      <c r="F303" t="s">
+        <v>141</v>
+      </c>
+      <c r="G303" t="s">
+        <v>142</v>
+      </c>
+      <c r="H303" t="s">
+        <v>800</v>
+      </c>
+      <c r="I303" t="s">
+        <v>801</v>
+      </c>
+      <c r="J303" t="s">
         <v>802</v>
       </c>
-      <c r="H301" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E302" t="s">
-        <v>795</v>
-      </c>
-      <c r="F302" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G302" t="s">
-        <v>157</v>
-      </c>
-      <c r="H302" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E303" t="s">
+      <c r="K303" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K304" t="s">
+        <v>157</v>
+      </c>
+      <c r="L304" t="s">
         <v>804</v>
       </c>
-      <c r="F303" t="s">
-        <v>825</v>
-      </c>
-      <c r="G303" t="s">
-        <v>802</v>
-      </c>
-      <c r="H303" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E304" t="s">
-        <v>795</v>
-      </c>
-      <c r="F304" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G304" t="s">
-        <v>157</v>
-      </c>
-      <c r="H304" t="s">
+      <c r="M304" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>804</v>
-      </c>
-      <c r="F305" t="s">
-        <v>804</v>
-      </c>
-      <c r="G305" t="s">
-        <v>157</v>
-      </c>
-      <c r="K305" t="s">
-        <v>157</v>
-      </c>
-      <c r="L305" t="s">
-        <v>804</v>
-      </c>
-      <c r="M305" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>46</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C306" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306">
+        <v>5</v>
+      </c>
       <c r="E306" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>45</v>
-      </c>
-      <c r="B307" t="s">
-        <v>22</v>
-      </c>
-      <c r="C307" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307">
-        <v>5</v>
-      </c>
       <c r="E307" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F307" t="s">
+        <v>141</v>
+      </c>
+      <c r="G307" t="s">
+        <v>142</v>
+      </c>
+      <c r="H307" t="s">
+        <v>800</v>
+      </c>
+      <c r="I307" t="s">
+        <v>801</v>
+      </c>
+      <c r="J307" t="s">
+        <v>802</v>
+      </c>
+      <c r="K307" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>139</v>
+        <v>1194</v>
       </c>
       <c r="F308" t="s">
-        <v>141</v>
+        <v>1198</v>
       </c>
       <c r="G308" t="s">
-        <v>142</v>
+        <v>1195</v>
       </c>
       <c r="H308" t="s">
-        <v>800</v>
+        <v>1198</v>
       </c>
       <c r="I308" t="s">
-        <v>801</v>
+        <v>1196</v>
       </c>
       <c r="J308" t="s">
-        <v>802</v>
+        <v>1197</v>
       </c>
       <c r="K308" t="s">
+        <v>157</v>
+      </c>
+      <c r="L308" t="s">
+        <v>804</v>
+      </c>
+      <c r="M308" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>191</v>
-      </c>
-      <c r="F309" t="s">
-        <v>821</v>
-      </c>
-      <c r="G309" t="s">
-        <v>240</v>
-      </c>
-      <c r="H309">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>47</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310">
         <v>5</v>
       </c>
-      <c r="I309" t="s">
-        <v>157</v>
-      </c>
-      <c r="J309" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>191</v>
-      </c>
-      <c r="F310" t="s">
-        <v>823</v>
-      </c>
-      <c r="G310" t="s">
-        <v>240</v>
-      </c>
-      <c r="H310">
-        <v>3</v>
-      </c>
-      <c r="I310" t="s">
-        <v>157</v>
-      </c>
-      <c r="J310" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="F311" t="s">
-        <v>1435</v>
+        <v>141</v>
       </c>
       <c r="G311" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H311" t="s">
-        <v>1392</v>
+        <v>800</v>
       </c>
       <c r="I311" t="s">
+        <v>801</v>
+      </c>
+      <c r="J311" t="s">
         <v>802</v>
       </c>
-      <c r="J311" t="s">
+      <c r="K311" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>795</v>
+        <v>1194</v>
       </c>
       <c r="F312" t="s">
-        <v>1433</v>
+        <v>1198</v>
       </c>
       <c r="G312" t="s">
-        <v>157</v>
+        <v>1195</v>
       </c>
       <c r="H312" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J312" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K312" t="s">
+        <v>157</v>
+      </c>
+      <c r="L312" t="s">
         <v>804</v>
       </c>
-      <c r="I312" t="s">
+      <c r="M312" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>825</v>
-      </c>
-      <c r="F313" t="s">
-        <v>802</v>
-      </c>
-      <c r="G313" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>48</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
       <c r="E314" t="s">
-        <v>795</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G314" t="s">
-        <v>157</v>
-      </c>
-      <c r="H314" t="s">
-        <v>804</v>
-      </c>
-      <c r="I314" t="s">
-        <v>804</v>
-      </c>
-      <c r="J314" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F315" t="s">
+        <v>141</v>
+      </c>
+      <c r="G315" t="s">
+        <v>142</v>
+      </c>
+      <c r="H315" t="s">
+        <v>800</v>
+      </c>
+      <c r="I315" t="s">
+        <v>801</v>
+      </c>
+      <c r="J315" t="s">
+        <v>802</v>
+      </c>
+      <c r="K315" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>46</v>
-      </c>
-      <c r="B316" t="s">
-        <v>22</v>
-      </c>
-      <c r="C316" t="s">
-        <v>7</v>
-      </c>
-      <c r="D316">
-        <v>5</v>
-      </c>
       <c r="E316" t="s">
-        <v>137</v>
+        <v>1194</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I316" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J316" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K316" t="s">
+        <v>157</v>
+      </c>
+      <c r="L316" t="s">
+        <v>804</v>
+      </c>
+      <c r="M316" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>139</v>
-      </c>
-      <c r="F317" t="s">
-        <v>141</v>
-      </c>
-      <c r="G317" t="s">
-        <v>142</v>
-      </c>
-      <c r="H317" t="s">
-        <v>800</v>
-      </c>
-      <c r="I317" t="s">
-        <v>801</v>
-      </c>
-      <c r="J317" t="s">
-        <v>802</v>
-      </c>
-      <c r="K317" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>49</v>
+      </c>
+      <c r="B318" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>6</v>
+      </c>
       <c r="E318" t="s">
-        <v>191</v>
-      </c>
-      <c r="F318" t="s">
-        <v>821</v>
-      </c>
-      <c r="G318" t="s">
-        <v>240</v>
-      </c>
-      <c r="H318">
-        <v>5</v>
-      </c>
-      <c r="I318" t="s">
-        <v>157</v>
-      </c>
-      <c r="J318" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="F319" t="s">
-        <v>823</v>
+        <v>141</v>
       </c>
       <c r="G319" t="s">
-        <v>240</v>
-      </c>
-      <c r="H319">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="H319" t="s">
+        <v>800</v>
       </c>
       <c r="I319" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
       <c r="J319" t="s">
+        <v>802</v>
+      </c>
+      <c r="K319" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>280</v>
+        <v>1194</v>
       </c>
       <c r="F320" t="s">
-        <v>1435</v>
+        <v>1198</v>
       </c>
       <c r="G320" t="s">
-        <v>820</v>
+        <v>1195</v>
       </c>
       <c r="H320" t="s">
-        <v>1392</v>
+        <v>1198</v>
       </c>
       <c r="I320" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K320" t="s">
+        <v>157</v>
+      </c>
+      <c r="L320" t="s">
+        <v>804</v>
+      </c>
+      <c r="M320" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>50</v>
+      </c>
+      <c r="B322" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322">
+        <v>6</v>
+      </c>
+      <c r="E322" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>139</v>
+      </c>
+      <c r="F323" t="s">
+        <v>141</v>
+      </c>
+      <c r="G323" t="s">
+        <v>142</v>
+      </c>
+      <c r="H323" t="s">
+        <v>800</v>
+      </c>
+      <c r="I323" t="s">
+        <v>801</v>
+      </c>
+      <c r="J323" t="s">
         <v>802</v>
       </c>
-      <c r="J320" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E321" t="s">
-        <v>795</v>
-      </c>
-      <c r="F321" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G321" t="s">
-        <v>157</v>
-      </c>
-      <c r="H321" t="s">
+      <c r="K323" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J324" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K324" t="s">
+        <v>157</v>
+      </c>
+      <c r="L324" t="s">
         <v>804</v>
       </c>
-      <c r="I321" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E322" t="s">
-        <v>825</v>
-      </c>
-      <c r="F322" t="s">
+      <c r="M324" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>51</v>
+      </c>
+      <c r="B326" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>6</v>
+      </c>
+      <c r="E326" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>139</v>
+      </c>
+      <c r="F327" t="s">
+        <v>141</v>
+      </c>
+      <c r="G327" t="s">
+        <v>142</v>
+      </c>
+      <c r="H327" t="s">
+        <v>800</v>
+      </c>
+      <c r="I327" t="s">
+        <v>801</v>
+      </c>
+      <c r="J327" t="s">
         <v>802</v>
       </c>
-      <c r="G322" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E323" t="s">
-        <v>795</v>
-      </c>
-      <c r="F323" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G323" t="s">
-        <v>157</v>
-      </c>
-      <c r="H323" t="s">
+      <c r="K327" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J328" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K328" t="s">
+        <v>157</v>
+      </c>
+      <c r="L328" t="s">
         <v>804</v>
       </c>
-      <c r="I323" t="s">
+      <c r="M328" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>52</v>
+      </c>
+      <c r="B330" t="s">
+        <v>23</v>
+      </c>
+      <c r="C330" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330">
+        <v>6</v>
+      </c>
+      <c r="E330" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>139</v>
+      </c>
+      <c r="F331" t="s">
+        <v>141</v>
+      </c>
+      <c r="G331" t="s">
+        <v>142</v>
+      </c>
+      <c r="H331" t="s">
+        <v>800</v>
+      </c>
+      <c r="I331" t="s">
+        <v>801</v>
+      </c>
+      <c r="J331" t="s">
+        <v>802</v>
+      </c>
+      <c r="K331" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K332" t="s">
+        <v>157</v>
+      </c>
+      <c r="L332" t="s">
         <v>804</v>
       </c>
-      <c r="J323" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E324" t="s">
+      <c r="M332" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>47</v>
-      </c>
-      <c r="B325" t="s">
-        <v>22</v>
-      </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325">
-        <v>5</v>
-      </c>
-      <c r="E325" t="s">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>53</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334">
+        <v>6</v>
+      </c>
+      <c r="E334" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E326" t="s">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
         <v>139</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F335" t="s">
         <v>141</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G335" t="s">
         <v>142</v>
       </c>
-      <c r="H326" t="s">
+      <c r="H335" t="s">
         <v>800</v>
       </c>
-      <c r="I326" t="s">
+      <c r="I335" t="s">
         <v>801</v>
       </c>
-      <c r="J326" t="s">
+      <c r="J335" t="s">
         <v>802</v>
       </c>
-      <c r="K326" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E327" t="s">
-        <v>191</v>
-      </c>
-      <c r="F327" t="s">
-        <v>821</v>
-      </c>
-      <c r="G327" t="s">
-        <v>240</v>
-      </c>
-      <c r="H327">
-        <v>5</v>
-      </c>
-      <c r="I327" t="s">
-        <v>157</v>
-      </c>
-      <c r="J327" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E328" t="s">
-        <v>191</v>
-      </c>
-      <c r="F328" t="s">
-        <v>823</v>
-      </c>
-      <c r="G328" t="s">
-        <v>240</v>
-      </c>
-      <c r="H328">
-        <v>3</v>
-      </c>
-      <c r="I328" t="s">
-        <v>157</v>
-      </c>
-      <c r="J328" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E329" t="s">
-        <v>191</v>
-      </c>
-      <c r="F329" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G329" t="s">
-        <v>240</v>
-      </c>
-      <c r="H329">
-        <v>1</v>
-      </c>
-      <c r="I329" t="s">
-        <v>157</v>
-      </c>
-      <c r="J329" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E330" t="s">
-        <v>280</v>
-      </c>
-      <c r="F330" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G330" t="s">
-        <v>158</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1439</v>
-      </c>
-      <c r="I330" t="s">
-        <v>802</v>
-      </c>
-      <c r="J330" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E331" t="s">
-        <v>795</v>
-      </c>
-      <c r="F331" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G331" t="s">
-        <v>157</v>
-      </c>
-      <c r="H331" t="s">
+      <c r="K335" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K336" t="s">
+        <v>157</v>
+      </c>
+      <c r="L336" t="s">
         <v>804</v>
       </c>
-      <c r="I331" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E332" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G332" t="s">
-        <v>158</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I332" t="s">
-        <v>802</v>
-      </c>
-      <c r="J332" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E333" t="s">
-        <v>795</v>
-      </c>
-      <c r="F333" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G333" t="s">
-        <v>157</v>
-      </c>
-      <c r="H333" t="s">
-        <v>804</v>
-      </c>
-      <c r="I333" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E334" t="s">
-        <v>825</v>
-      </c>
-      <c r="F334" t="s">
-        <v>802</v>
-      </c>
-      <c r="G334" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E335" t="s">
-        <v>795</v>
-      </c>
-      <c r="F335" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G335" t="s">
-        <v>157</v>
-      </c>
-      <c r="H335" t="s">
-        <v>804</v>
-      </c>
-      <c r="I335" t="s">
-        <v>804</v>
-      </c>
-      <c r="J335" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E336" t="s">
+      <c r="M336" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>48</v>
-      </c>
-      <c r="B337" t="s">
-        <v>22</v>
-      </c>
-      <c r="C337" t="s">
-        <v>8</v>
-      </c>
-      <c r="D337">
-        <v>5</v>
-      </c>
-      <c r="E337" t="s">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>54</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338">
+        <v>6</v>
+      </c>
+      <c r="E338" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E338" t="s">
-        <v>139</v>
-      </c>
-      <c r="F338" t="s">
-        <v>141</v>
-      </c>
-      <c r="G338" t="s">
-        <v>142</v>
-      </c>
-      <c r="H338" t="s">
-        <v>800</v>
-      </c>
-      <c r="I338" t="s">
-        <v>801</v>
-      </c>
-      <c r="J338" t="s">
-        <v>802</v>
-      </c>
-      <c r="K338" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="F339" t="s">
-        <v>821</v>
+        <v>141</v>
       </c>
       <c r="G339" t="s">
-        <v>240</v>
-      </c>
-      <c r="H339">
-        <v>5</v>
+        <v>142</v>
+      </c>
+      <c r="H339" t="s">
+        <v>800</v>
       </c>
       <c r="I339" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
       <c r="J339" t="s">
+        <v>802</v>
+      </c>
+      <c r="K339" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>191</v>
+        <v>1194</v>
       </c>
       <c r="F340" t="s">
-        <v>823</v>
+        <v>1198</v>
       </c>
       <c r="G340" t="s">
-        <v>240</v>
-      </c>
-      <c r="H340">
-        <v>3</v>
+        <v>1195</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1198</v>
       </c>
       <c r="I340" t="s">
-        <v>157</v>
+        <v>1196</v>
       </c>
       <c r="J340" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K340" t="s">
+        <v>157</v>
+      </c>
+      <c r="L340" t="s">
+        <v>804</v>
+      </c>
+      <c r="M340" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>191</v>
-      </c>
-      <c r="F341" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G341" t="s">
-        <v>240</v>
-      </c>
-      <c r="H341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
-        <v>157</v>
-      </c>
-      <c r="J341" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>55</v>
+      </c>
+      <c r="B342" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342">
+        <v>6</v>
+      </c>
       <c r="E342" t="s">
-        <v>280</v>
-      </c>
-      <c r="F342" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G342" t="s">
-        <v>158</v>
-      </c>
-      <c r="H342" t="s">
-        <v>1439</v>
-      </c>
-      <c r="I342" t="s">
-        <v>802</v>
-      </c>
-      <c r="J342" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>795</v>
+        <v>139</v>
       </c>
       <c r="F343" t="s">
-        <v>1433</v>
+        <v>141</v>
       </c>
       <c r="G343" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H343" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I343" t="s">
+        <v>801</v>
+      </c>
+      <c r="J343" t="s">
+        <v>802</v>
+      </c>
+      <c r="K343" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>1436</v>
+        <v>1194</v>
       </c>
       <c r="F344" t="s">
-        <v>1438</v>
+        <v>1198</v>
       </c>
       <c r="G344" t="s">
-        <v>820</v>
+        <v>1195</v>
       </c>
       <c r="H344" t="s">
-        <v>1392</v>
+        <v>1198</v>
       </c>
       <c r="I344" t="s">
-        <v>802</v>
+        <v>1196</v>
       </c>
       <c r="J344" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K344" t="s">
+        <v>157</v>
+      </c>
+      <c r="L344" t="s">
+        <v>804</v>
+      </c>
+      <c r="M344" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>795</v>
-      </c>
-      <c r="F345" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G345" t="s">
-        <v>157</v>
-      </c>
-      <c r="H345" t="s">
-        <v>804</v>
-      </c>
-      <c r="I345" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>56</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346">
+        <v>6</v>
+      </c>
       <c r="E346" t="s">
-        <v>825</v>
-      </c>
-      <c r="F346" t="s">
-        <v>802</v>
-      </c>
-      <c r="G346" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>795</v>
+        <v>139</v>
       </c>
       <c r="F347" t="s">
-        <v>1440</v>
+        <v>141</v>
       </c>
       <c r="G347" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H347" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I347" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J347" t="s">
-        <v>797</v>
-      </c>
-      <c r="M347" t="s">
+        <v>802</v>
+      </c>
+      <c r="K347" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K348" t="s">
+        <v>157</v>
+      </c>
+      <c r="L348" t="s">
+        <v>804</v>
+      </c>
+      <c r="M348" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>49</v>
-      </c>
-      <c r="B349" t="s">
-        <v>22</v>
-      </c>
-      <c r="C349" t="s">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>57</v>
+      </c>
+      <c r="B350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350">
         <v>6</v>
       </c>
-      <c r="D349">
-        <v>5</v>
-      </c>
-      <c r="E349" t="s">
+      <c r="E350" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E350" t="s">
-        <v>139</v>
-      </c>
-      <c r="F350" t="s">
-        <v>141</v>
-      </c>
-      <c r="G350" t="s">
-        <v>142</v>
-      </c>
-      <c r="H350" t="s">
-        <v>800</v>
-      </c>
-      <c r="I350" t="s">
-        <v>801</v>
-      </c>
-      <c r="J350" t="s">
-        <v>802</v>
-      </c>
-      <c r="K350" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="F351" t="s">
-        <v>1441</v>
+        <v>141</v>
       </c>
       <c r="G351" t="s">
-        <v>240</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>1366</v>
+        <v>142</v>
+      </c>
+      <c r="H351" t="s">
+        <v>800</v>
       </c>
       <c r="I351" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
       <c r="J351" t="s">
+        <v>802</v>
+      </c>
+      <c r="K351" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>285</v>
+        <v>1194</v>
       </c>
       <c r="F352" t="s">
-        <v>1442</v>
+        <v>1198</v>
       </c>
       <c r="G352" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J352" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K352" t="s">
+        <v>157</v>
+      </c>
+      <c r="L352" t="s">
+        <v>804</v>
+      </c>
+      <c r="M352" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>58</v>
+      </c>
+      <c r="B354" t="s">
+        <v>24</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354">
+        <v>7</v>
+      </c>
+      <c r="E354" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>139</v>
+      </c>
+      <c r="F355" t="s">
+        <v>141</v>
+      </c>
+      <c r="G355" t="s">
+        <v>142</v>
+      </c>
+      <c r="H355" t="s">
+        <v>800</v>
+      </c>
+      <c r="I355" t="s">
+        <v>801</v>
+      </c>
+      <c r="J355" t="s">
         <v>802</v>
       </c>
-      <c r="H352" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E353" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G353" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H353" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E354" t="s">
-        <v>795</v>
-      </c>
-      <c r="F354" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G354" t="s">
-        <v>157</v>
-      </c>
-      <c r="H354" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E355" t="s">
-        <v>271</v>
-      </c>
-      <c r="F355" t="s">
-        <v>157</v>
-      </c>
-      <c r="G355" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K355" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>272</v>
+        <v>1194</v>
       </c>
       <c r="F356" t="s">
-        <v>1067</v>
+        <v>1198</v>
       </c>
       <c r="G356" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1195</v>
+      </c>
+      <c r="H356" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I356" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J356" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K356" t="s">
+        <v>157</v>
+      </c>
+      <c r="L356" t="s">
+        <v>804</v>
+      </c>
+      <c r="M356" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>795</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G357" t="s">
-        <v>157</v>
-      </c>
-      <c r="H357" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E358" t="s">
-        <v>271</v>
-      </c>
-      <c r="F358" t="s">
-        <v>157</v>
-      </c>
-      <c r="G358" t="s">
-        <v>804</v>
-      </c>
-      <c r="H358" t="s">
-        <v>804</v>
-      </c>
-      <c r="I358" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E359" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>50</v>
-      </c>
-      <c r="B360" t="s">
-        <v>22</v>
-      </c>
-      <c r="C360" t="s">
-        <v>6</v>
-      </c>
-      <c r="D360">
-        <v>5</v>
-      </c>
-      <c r="E360" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E361" t="s">
-        <v>139</v>
-      </c>
-      <c r="F361" t="s">
-        <v>141</v>
-      </c>
-      <c r="G361" t="s">
-        <v>142</v>
-      </c>
-      <c r="H361" t="s">
-        <v>800</v>
-      </c>
-      <c r="I361" t="s">
-        <v>801</v>
-      </c>
-      <c r="J361" t="s">
-        <v>802</v>
-      </c>
-      <c r="K361" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E362" t="s">
-        <v>192</v>
-      </c>
-      <c r="F362" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G362" t="s">
-        <v>240</v>
-      </c>
-      <c r="H362" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I362" t="s">
-        <v>157</v>
-      </c>
-      <c r="J362" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E363" t="s">
-        <v>285</v>
-      </c>
-      <c r="F363" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G363" t="s">
-        <v>802</v>
-      </c>
-      <c r="H363" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E364" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="G364" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H364" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E365" t="s">
-        <v>795</v>
-      </c>
-      <c r="F365" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G365" t="s">
-        <v>157</v>
-      </c>
-      <c r="H365" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E366" t="s">
-        <v>271</v>
-      </c>
-      <c r="F366" t="s">
-        <v>157</v>
-      </c>
-      <c r="G366" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E367" t="s">
-        <v>272</v>
-      </c>
-      <c r="F367" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G367" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E368" t="s">
-        <v>795</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G368" t="s">
-        <v>157</v>
-      </c>
-      <c r="H368" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E369" t="s">
-        <v>271</v>
-      </c>
-      <c r="F369" t="s">
-        <v>157</v>
-      </c>
-      <c r="G369" t="s">
-        <v>804</v>
-      </c>
-      <c r="H369" t="s">
-        <v>804</v>
-      </c>
-      <c r="I369" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E370" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>51</v>
-      </c>
-      <c r="B371" t="s">
-        <v>22</v>
-      </c>
-      <c r="C371" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371">
-        <v>5</v>
-      </c>
-      <c r="E371" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E372" t="s">
-        <v>139</v>
-      </c>
-      <c r="F372" t="s">
-        <v>141</v>
-      </c>
-      <c r="G372" t="s">
-        <v>142</v>
-      </c>
-      <c r="H372" t="s">
-        <v>800</v>
-      </c>
-      <c r="I372" t="s">
-        <v>801</v>
-      </c>
-      <c r="J372" t="s">
-        <v>802</v>
-      </c>
-      <c r="K372" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E373" t="s">
-        <v>143</v>
-      </c>
-      <c r="F373" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G373" t="s">
-        <v>240</v>
-      </c>
-      <c r="H373" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I373" t="s">
-        <v>157</v>
-      </c>
-      <c r="J373" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E374" t="s">
-        <v>285</v>
-      </c>
-      <c r="F374" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G374" t="s">
-        <v>802</v>
-      </c>
-      <c r="H374" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E375" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G375" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H375" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E376" t="s">
-        <v>795</v>
-      </c>
-      <c r="F376" t="s">
-        <v>1452</v>
-      </c>
-      <c r="G376" t="s">
-        <v>157</v>
-      </c>
-      <c r="H376" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E377" t="s">
-        <v>271</v>
-      </c>
-      <c r="F377" t="s">
-        <v>157</v>
-      </c>
-      <c r="G377" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E378" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G378" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H378" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E379" t="s">
-        <v>795</v>
-      </c>
-      <c r="F379" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G379" t="s">
-        <v>157</v>
-      </c>
-      <c r="H379" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E380" t="s">
-        <v>271</v>
-      </c>
-      <c r="F380" t="s">
-        <v>157</v>
-      </c>
-      <c r="G380" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E381" t="s">
-        <v>272</v>
-      </c>
-      <c r="F381" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G381" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E382" t="s">
-        <v>795</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G382" t="s">
-        <v>157</v>
-      </c>
-      <c r="H382" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E383" t="s">
-        <v>271</v>
-      </c>
-      <c r="F383" t="s">
-        <v>157</v>
-      </c>
-      <c r="G383" t="s">
-        <v>804</v>
-      </c>
-      <c r="H383" t="s">
-        <v>804</v>
-      </c>
-      <c r="I383" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E384" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>52</v>
-      </c>
-      <c r="B385" t="s">
-        <v>22</v>
-      </c>
-      <c r="C385" t="s">
-        <v>7</v>
-      </c>
-      <c r="D385">
-        <v>5</v>
-      </c>
-      <c r="E385" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E386" t="s">
-        <v>139</v>
-      </c>
-      <c r="F386" t="s">
-        <v>141</v>
-      </c>
-      <c r="G386" t="s">
-        <v>142</v>
-      </c>
-      <c r="H386" t="s">
-        <v>800</v>
-      </c>
-      <c r="I386" t="s">
-        <v>801</v>
-      </c>
-      <c r="J386" t="s">
-        <v>802</v>
-      </c>
-      <c r="K386" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E387" t="s">
-        <v>143</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G387" t="s">
-        <v>240</v>
-      </c>
-      <c r="H387" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="I387" t="s">
-        <v>157</v>
-      </c>
-      <c r="J387" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E388" t="s">
-        <v>285</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G388" t="s">
-        <v>802</v>
-      </c>
-      <c r="H388" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E389" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F389" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G389" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H389" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E390" t="s">
-        <v>795</v>
-      </c>
-      <c r="F390" t="s">
-        <v>1452</v>
-      </c>
-      <c r="G390" t="s">
-        <v>157</v>
-      </c>
-      <c r="H390" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E391" t="s">
-        <v>271</v>
-      </c>
-      <c r="F391" t="s">
-        <v>157</v>
-      </c>
-      <c r="G391" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E392" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G392" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H392" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E393" t="s">
-        <v>795</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G393" t="s">
-        <v>157</v>
-      </c>
-      <c r="H393" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E394" t="s">
-        <v>271</v>
-      </c>
-      <c r="F394" t="s">
-        <v>157</v>
-      </c>
-      <c r="G394" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E395" t="s">
-        <v>272</v>
-      </c>
-      <c r="F395" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G395" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E396" t="s">
-        <v>795</v>
-      </c>
-      <c r="F396" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G396" t="s">
-        <v>157</v>
-      </c>
-      <c r="H396" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E397" t="s">
-        <v>271</v>
-      </c>
-      <c r="F397" t="s">
-        <v>157</v>
-      </c>
-      <c r="G397" t="s">
-        <v>804</v>
-      </c>
-      <c r="H397" t="s">
-        <v>804</v>
-      </c>
-      <c r="I397" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E398" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>53</v>
-      </c>
-      <c r="B399" t="s">
-        <v>22</v>
-      </c>
-      <c r="C399" t="s">
-        <v>8</v>
-      </c>
-      <c r="D399">
-        <v>5</v>
-      </c>
-      <c r="E399" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E400" t="s">
-        <v>139</v>
-      </c>
-      <c r="F400" t="s">
-        <v>141</v>
-      </c>
-      <c r="G400" t="s">
-        <v>142</v>
-      </c>
-      <c r="H400" t="s">
-        <v>800</v>
-      </c>
-      <c r="I400" t="s">
-        <v>801</v>
-      </c>
-      <c r="J400" t="s">
-        <v>802</v>
-      </c>
-      <c r="K400" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E401" t="s">
-        <v>143</v>
-      </c>
-      <c r="F401" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G401" t="s">
-        <v>240</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I401" t="s">
-        <v>157</v>
-      </c>
-      <c r="J401" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E402" t="s">
-        <v>285</v>
-      </c>
-      <c r="F402" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G402" t="s">
-        <v>802</v>
-      </c>
-      <c r="H402" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E403" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G403" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H403" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E404" t="s">
-        <v>795</v>
-      </c>
-      <c r="F404" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G404" t="s">
-        <v>157</v>
-      </c>
-      <c r="H404" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E405" t="s">
-        <v>271</v>
-      </c>
-      <c r="F405" t="s">
-        <v>157</v>
-      </c>
-      <c r="G405" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E406" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G406" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H406" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E407" t="s">
-        <v>795</v>
-      </c>
-      <c r="F407" t="s">
-        <v>1445</v>
-      </c>
-      <c r="G407" t="s">
-        <v>157</v>
-      </c>
-      <c r="H407" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E408" t="s">
-        <v>271</v>
-      </c>
-      <c r="F408" t="s">
-        <v>157</v>
-      </c>
-      <c r="G408" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E409" t="s">
-        <v>272</v>
-      </c>
-      <c r="F409" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G409" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E410" t="s">
-        <v>795</v>
-      </c>
-      <c r="F410" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G410" t="s">
-        <v>157</v>
-      </c>
-      <c r="H410" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E411" t="s">
-        <v>271</v>
-      </c>
-      <c r="F411" t="s">
-        <v>157</v>
-      </c>
-      <c r="G411" t="s">
-        <v>804</v>
-      </c>
-      <c r="H411" t="s">
-        <v>804</v>
-      </c>
-      <c r="I411" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E412" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>54</v>
-      </c>
-      <c r="B413" t="s">
-        <v>22</v>
-      </c>
-      <c r="C413" t="s">
-        <v>8</v>
-      </c>
-      <c r="D413">
-        <v>5</v>
-      </c>
-      <c r="E413" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E414" t="s">
-        <v>139</v>
-      </c>
-      <c r="F414" t="s">
-        <v>141</v>
-      </c>
-      <c r="G414" t="s">
-        <v>142</v>
-      </c>
-      <c r="H414" t="s">
-        <v>800</v>
-      </c>
-      <c r="I414" t="s">
-        <v>801</v>
-      </c>
-      <c r="J414" t="s">
-        <v>802</v>
-      </c>
-      <c r="K414" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E415" t="s">
-        <v>143</v>
-      </c>
-      <c r="F415" t="s">
-        <v>1441</v>
-      </c>
-      <c r="G415" t="s">
-        <v>240</v>
-      </c>
-      <c r="H415" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="I415" t="s">
-        <v>157</v>
-      </c>
-      <c r="J415" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E416" t="s">
-        <v>285</v>
-      </c>
-      <c r="F416" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G416" t="s">
-        <v>802</v>
-      </c>
-      <c r="H416" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E417" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G417" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H417" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E418" t="s">
-        <v>795</v>
-      </c>
-      <c r="F418" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G418" t="s">
-        <v>157</v>
-      </c>
-      <c r="H418" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E419" t="s">
-        <v>271</v>
-      </c>
-      <c r="F419" t="s">
-        <v>157</v>
-      </c>
-      <c r="G419" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E420" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F420" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G420" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H420" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E421" t="s">
-        <v>795</v>
-      </c>
-      <c r="F421" t="s">
-        <v>1445</v>
-      </c>
-      <c r="G421" t="s">
-        <v>157</v>
-      </c>
-      <c r="H421" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E422" t="s">
-        <v>271</v>
-      </c>
-      <c r="F422" t="s">
-        <v>157</v>
-      </c>
-      <c r="G422" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E423" t="s">
-        <v>272</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G423" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E424" t="s">
-        <v>795</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G424" t="s">
-        <v>157</v>
-      </c>
-      <c r="H424" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E425" t="s">
-        <v>271</v>
-      </c>
-      <c r="F425" t="s">
-        <v>157</v>
-      </c>
-      <c r="G425" t="s">
-        <v>804</v>
-      </c>
-      <c r="H425" t="s">
-        <v>804</v>
-      </c>
-      <c r="I425" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E426" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>55</v>
-      </c>
-      <c r="B427" t="s">
-        <v>23</v>
-      </c>
-      <c r="C427" t="s">
-        <v>6</v>
-      </c>
-      <c r="D427">
-        <v>6</v>
-      </c>
-      <c r="E427" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E428" t="s">
-        <v>139</v>
-      </c>
-      <c r="F428" t="s">
-        <v>141</v>
-      </c>
-      <c r="G428" t="s">
-        <v>142</v>
-      </c>
-      <c r="H428" t="s">
-        <v>800</v>
-      </c>
-      <c r="I428" t="s">
-        <v>801</v>
-      </c>
-      <c r="J428" t="s">
-        <v>802</v>
-      </c>
-      <c r="K428" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E429" t="s">
-        <v>286</v>
-      </c>
-      <c r="F429" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H429" t="s">
-        <v>157</v>
-      </c>
-      <c r="I429" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J429" t="s">
-        <v>157</v>
-      </c>
-      <c r="K429" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L429" t="s">
-        <v>802</v>
-      </c>
-      <c r="M429" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E430" t="s">
-        <v>795</v>
-      </c>
-      <c r="F430" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G430" t="s">
-        <v>157</v>
-      </c>
-      <c r="H430" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E431" t="s">
-        <v>804</v>
-      </c>
-      <c r="F431" t="s">
-        <v>804</v>
-      </c>
-      <c r="G431" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E432" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>56</v>
-      </c>
-      <c r="B433" t="s">
-        <v>23</v>
-      </c>
-      <c r="C433" t="s">
-        <v>6</v>
-      </c>
-      <c r="D433">
-        <v>6</v>
-      </c>
-      <c r="E433" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E434" t="s">
-        <v>139</v>
-      </c>
-      <c r="F434" t="s">
-        <v>141</v>
-      </c>
-      <c r="G434" t="s">
-        <v>142</v>
-      </c>
-      <c r="H434" t="s">
-        <v>800</v>
-      </c>
-      <c r="I434" t="s">
-        <v>801</v>
-      </c>
-      <c r="J434" t="s">
-        <v>802</v>
-      </c>
-      <c r="K434" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E435" t="s">
-        <v>191</v>
-      </c>
-      <c r="F435" t="s">
-        <v>844</v>
-      </c>
-      <c r="G435" t="s">
-        <v>240</v>
-      </c>
-      <c r="H435">
-        <v>0</v>
-      </c>
-      <c r="I435" t="s">
-        <v>157</v>
-      </c>
-      <c r="J435" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E436" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F436" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G436" t="s">
-        <v>802</v>
-      </c>
-      <c r="H436" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E437" t="s">
-        <v>795</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G437" t="s">
-        <v>157</v>
-      </c>
-      <c r="H437" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E438" t="s">
-        <v>877</v>
-      </c>
-      <c r="F438" t="s">
-        <v>157</v>
-      </c>
-      <c r="G438" t="s">
-        <v>804</v>
-      </c>
-      <c r="H438" t="s">
-        <v>804</v>
-      </c>
-      <c r="I438" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E439" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>57</v>
-      </c>
-      <c r="B440" t="s">
-        <v>23</v>
-      </c>
-      <c r="C440" t="s">
-        <v>6</v>
-      </c>
-      <c r="D440">
-        <v>6</v>
-      </c>
-      <c r="E440" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E441" t="s">
-        <v>139</v>
-      </c>
-      <c r="F441" t="s">
-        <v>141</v>
-      </c>
-      <c r="G441" t="s">
-        <v>142</v>
-      </c>
-      <c r="H441" t="s">
-        <v>800</v>
-      </c>
-      <c r="I441" t="s">
-        <v>801</v>
-      </c>
-      <c r="J441" t="s">
-        <v>802</v>
-      </c>
-      <c r="K441" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E442" t="s">
-        <v>191</v>
-      </c>
-      <c r="F442" t="s">
-        <v>844</v>
-      </c>
-      <c r="G442" t="s">
-        <v>240</v>
-      </c>
-      <c r="H442">
-        <v>0</v>
-      </c>
-      <c r="I442" t="s">
-        <v>157</v>
-      </c>
-      <c r="J442" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E443" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F443" t="s">
-        <v>802</v>
-      </c>
-      <c r="G443" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E444" t="s">
-        <v>795</v>
-      </c>
-      <c r="F444" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G444" t="s">
-        <v>157</v>
-      </c>
-      <c r="H444" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E445" t="s">
-        <v>877</v>
-      </c>
-      <c r="F445" t="s">
-        <v>157</v>
-      </c>
-      <c r="G445" t="s">
-        <v>804</v>
-      </c>
-      <c r="H445" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E446" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F446" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G446" t="s">
-        <v>157</v>
-      </c>
-      <c r="H446" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E447" t="s">
-        <v>804</v>
-      </c>
-      <c r="F447" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E448" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>58</v>
-      </c>
-      <c r="B449" t="s">
-        <v>23</v>
-      </c>
-      <c r="C449" t="s">
-        <v>7</v>
-      </c>
-      <c r="D449">
-        <v>6</v>
-      </c>
-      <c r="E449" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E450" t="s">
-        <v>139</v>
-      </c>
-      <c r="F450" t="s">
-        <v>141</v>
-      </c>
-      <c r="G450" t="s">
-        <v>142</v>
-      </c>
-      <c r="H450" t="s">
-        <v>800</v>
-      </c>
-      <c r="I450" t="s">
-        <v>801</v>
-      </c>
-      <c r="J450" t="s">
-        <v>802</v>
-      </c>
-      <c r="K450" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E451" t="s">
-        <v>286</v>
-      </c>
-      <c r="F451" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G451" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H451" t="s">
-        <v>157</v>
-      </c>
-      <c r="I451" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J451" t="s">
-        <v>157</v>
-      </c>
-      <c r="K451" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L451" t="s">
-        <v>802</v>
-      </c>
-      <c r="M451" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E452" t="s">
-        <v>795</v>
-      </c>
-      <c r="F452" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G452" t="s">
-        <v>157</v>
-      </c>
-      <c r="H452" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E453" t="s">
-        <v>795</v>
-      </c>
-      <c r="F453" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G453" t="s">
-        <v>157</v>
-      </c>
-      <c r="H453" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E454" t="s">
-        <v>804</v>
-      </c>
-      <c r="F454" t="s">
-        <v>804</v>
-      </c>
-      <c r="G454" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E455" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>59</v>
-      </c>
-      <c r="B456" t="s">
-        <v>23</v>
-      </c>
-      <c r="C456" t="s">
-        <v>7</v>
-      </c>
-      <c r="D456">
-        <v>6</v>
-      </c>
-      <c r="E456" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E457" t="s">
-        <v>139</v>
-      </c>
-      <c r="F457" t="s">
-        <v>141</v>
-      </c>
-      <c r="G457" t="s">
-        <v>142</v>
-      </c>
-      <c r="H457" t="s">
-        <v>800</v>
-      </c>
-      <c r="I457" t="s">
-        <v>801</v>
-      </c>
-      <c r="J457" t="s">
-        <v>802</v>
-      </c>
-      <c r="K457" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E458" t="s">
-        <v>191</v>
-      </c>
-      <c r="F458" t="s">
-        <v>844</v>
-      </c>
-      <c r="G458" t="s">
-        <v>240</v>
-      </c>
-      <c r="H458">
-        <v>0</v>
-      </c>
-      <c r="I458" t="s">
-        <v>157</v>
-      </c>
-      <c r="J458" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E459" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F459" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G459" t="s">
-        <v>802</v>
-      </c>
-      <c r="H459" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E460" t="s">
-        <v>795</v>
-      </c>
-      <c r="F460" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G460" t="s">
-        <v>157</v>
-      </c>
-      <c r="H460" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E461" t="s">
-        <v>795</v>
-      </c>
-      <c r="F461" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G461" t="s">
-        <v>157</v>
-      </c>
-      <c r="H461" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E462" t="s">
-        <v>877</v>
-      </c>
-      <c r="F462" t="s">
-        <v>157</v>
-      </c>
-      <c r="G462" t="s">
-        <v>804</v>
-      </c>
-      <c r="H462" t="s">
-        <v>804</v>
-      </c>
-      <c r="I462" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E463" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>60</v>
-      </c>
-      <c r="B464" t="s">
-        <v>23</v>
-      </c>
-      <c r="C464" t="s">
-        <v>7</v>
-      </c>
-      <c r="D464">
-        <v>6</v>
-      </c>
-      <c r="E464" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E465" t="s">
-        <v>139</v>
-      </c>
-      <c r="F465" t="s">
-        <v>141</v>
-      </c>
-      <c r="G465" t="s">
-        <v>142</v>
-      </c>
-      <c r="H465" t="s">
-        <v>800</v>
-      </c>
-      <c r="I465" t="s">
-        <v>801</v>
-      </c>
-      <c r="J465" t="s">
-        <v>802</v>
-      </c>
-      <c r="K465" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E466" t="s">
-        <v>191</v>
-      </c>
-      <c r="F466" t="s">
-        <v>844</v>
-      </c>
-      <c r="G466" t="s">
-        <v>240</v>
-      </c>
-      <c r="H466">
-        <v>0</v>
-      </c>
-      <c r="I466" t="s">
-        <v>157</v>
-      </c>
-      <c r="J466" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E467" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F467" t="s">
-        <v>802</v>
-      </c>
-      <c r="G467" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E468" t="s">
-        <v>795</v>
-      </c>
-      <c r="F468" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G468" t="s">
-        <v>157</v>
-      </c>
-      <c r="H468" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E469" t="s">
-        <v>795</v>
-      </c>
-      <c r="F469" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G469" t="s">
-        <v>157</v>
-      </c>
-      <c r="H469" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E470" t="s">
-        <v>877</v>
-      </c>
-      <c r="F470" t="s">
-        <v>157</v>
-      </c>
-      <c r="G470" t="s">
-        <v>804</v>
-      </c>
-      <c r="H470" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E471" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F471" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G471" t="s">
-        <v>157</v>
-      </c>
-      <c r="H471" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E472" t="s">
-        <v>804</v>
-      </c>
-      <c r="F472" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E473" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>61</v>
-      </c>
-      <c r="B474" t="s">
-        <v>23</v>
-      </c>
-      <c r="C474" t="s">
-        <v>8</v>
-      </c>
-      <c r="D474">
-        <v>6</v>
-      </c>
-      <c r="E474" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E475" t="s">
-        <v>139</v>
-      </c>
-      <c r="F475" t="s">
-        <v>141</v>
-      </c>
-      <c r="G475" t="s">
-        <v>142</v>
-      </c>
-      <c r="H475" t="s">
-        <v>800</v>
-      </c>
-      <c r="I475" t="s">
-        <v>801</v>
-      </c>
-      <c r="J475" t="s">
-        <v>802</v>
-      </c>
-      <c r="K475" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E476" t="s">
-        <v>286</v>
-      </c>
-      <c r="F476" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G476" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H476" t="s">
-        <v>157</v>
-      </c>
-      <c r="I476" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J476" t="s">
-        <v>157</v>
-      </c>
-      <c r="K476" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L476" t="s">
-        <v>802</v>
-      </c>
-      <c r="M476" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E477" t="s">
-        <v>795</v>
-      </c>
-      <c r="F477" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G477" t="s">
-        <v>157</v>
-      </c>
-      <c r="H477" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E478" t="s">
-        <v>795</v>
-      </c>
-      <c r="F478" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G478" t="s">
-        <v>157</v>
-      </c>
-      <c r="H478" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E479" t="s">
-        <v>280</v>
-      </c>
-      <c r="F479" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G479" t="s">
-        <v>802</v>
-      </c>
-      <c r="H479" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E480" t="s">
-        <v>271</v>
-      </c>
-      <c r="F480" t="s">
-        <v>157</v>
-      </c>
-      <c r="G480" t="s">
-        <v>804</v>
-      </c>
-      <c r="H480" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E481" t="s">
-        <v>804</v>
-      </c>
-      <c r="F481" t="s">
-        <v>804</v>
-      </c>
-      <c r="G481" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E482" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>62</v>
-      </c>
-      <c r="B483" t="s">
-        <v>23</v>
-      </c>
-      <c r="C483" t="s">
-        <v>8</v>
-      </c>
-      <c r="D483">
-        <v>6</v>
-      </c>
-      <c r="E483" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E484" t="s">
-        <v>139</v>
-      </c>
-      <c r="F484" t="s">
-        <v>141</v>
-      </c>
-      <c r="G484" t="s">
-        <v>142</v>
-      </c>
-      <c r="H484" t="s">
-        <v>800</v>
-      </c>
-      <c r="I484" t="s">
-        <v>801</v>
-      </c>
-      <c r="J484" t="s">
-        <v>802</v>
-      </c>
-      <c r="K484" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E485" t="s">
-        <v>191</v>
-      </c>
-      <c r="F485" t="s">
-        <v>844</v>
-      </c>
-      <c r="G485" t="s">
-        <v>240</v>
-      </c>
-      <c r="H485">
-        <v>0</v>
-      </c>
-      <c r="I485" t="s">
-        <v>157</v>
-      </c>
-      <c r="J485" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E486" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F486" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G486" t="s">
-        <v>802</v>
-      </c>
-      <c r="H486" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E487" t="s">
-        <v>795</v>
-      </c>
-      <c r="F487" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G487" t="s">
-        <v>157</v>
-      </c>
-      <c r="H487" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E488" t="s">
-        <v>795</v>
-      </c>
-      <c r="F488" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G488" t="s">
-        <v>157</v>
-      </c>
-      <c r="H488" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E489" t="s">
-        <v>280</v>
-      </c>
-      <c r="F489" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G489" t="s">
-        <v>802</v>
-      </c>
-      <c r="H489" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E490" t="s">
-        <v>271</v>
-      </c>
-      <c r="F490" t="s">
-        <v>157</v>
-      </c>
-      <c r="G490" t="s">
-        <v>804</v>
-      </c>
-      <c r="H490" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E491" t="s">
-        <v>877</v>
-      </c>
-      <c r="F491" t="s">
-        <v>157</v>
-      </c>
-      <c r="G491" t="s">
-        <v>804</v>
-      </c>
-      <c r="H491" t="s">
-        <v>804</v>
-      </c>
-      <c r="I491" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E492" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>63</v>
-      </c>
-      <c r="B493" t="s">
-        <v>23</v>
-      </c>
-      <c r="C493" t="s">
-        <v>8</v>
-      </c>
-      <c r="D493">
-        <v>6</v>
-      </c>
-      <c r="E493" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E494" t="s">
-        <v>139</v>
-      </c>
-      <c r="F494" t="s">
-        <v>141</v>
-      </c>
-      <c r="G494" t="s">
-        <v>142</v>
-      </c>
-      <c r="H494" t="s">
-        <v>800</v>
-      </c>
-      <c r="I494" t="s">
-        <v>801</v>
-      </c>
-      <c r="J494" t="s">
-        <v>802</v>
-      </c>
-      <c r="K494" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E495" t="s">
-        <v>191</v>
-      </c>
-      <c r="F495" t="s">
-        <v>844</v>
-      </c>
-      <c r="G495" t="s">
-        <v>240</v>
-      </c>
-      <c r="H495">
-        <v>0</v>
-      </c>
-      <c r="I495" t="s">
-        <v>157</v>
-      </c>
-      <c r="J495" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E496" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F496" t="s">
-        <v>802</v>
-      </c>
-      <c r="G496" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E497" t="s">
-        <v>795</v>
-      </c>
-      <c r="F497" t="s">
-        <v>1463</v>
-      </c>
-      <c r="G497" t="s">
-        <v>157</v>
-      </c>
-      <c r="H497" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E498" t="s">
-        <v>795</v>
-      </c>
-      <c r="F498" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G498" t="s">
-        <v>157</v>
-      </c>
-      <c r="H498" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E499" t="s">
-        <v>280</v>
-      </c>
-      <c r="F499" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G499" t="s">
-        <v>802</v>
-      </c>
-      <c r="H499" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E500" t="s">
-        <v>271</v>
-      </c>
-      <c r="F500" t="s">
-        <v>157</v>
-      </c>
-      <c r="G500" t="s">
-        <v>804</v>
-      </c>
-      <c r="H500" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E501" t="s">
-        <v>877</v>
-      </c>
-      <c r="F501" t="s">
-        <v>157</v>
-      </c>
-      <c r="G501" t="s">
-        <v>804</v>
-      </c>
-      <c r="H501" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E502" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F502" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G502" t="s">
-        <v>157</v>
-      </c>
-      <c r="H502" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E503" t="s">
-        <v>804</v>
-      </c>
-      <c r="F503" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E504" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>64</v>
-      </c>
-      <c r="B505" t="s">
-        <v>24</v>
-      </c>
-      <c r="C505" t="s">
-        <v>6</v>
-      </c>
-      <c r="D505">
-        <v>7</v>
-      </c>
-      <c r="E505" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E506" t="s">
-        <v>139</v>
-      </c>
-      <c r="F506" t="s">
-        <v>141</v>
-      </c>
-      <c r="G506" t="s">
-        <v>142</v>
-      </c>
-      <c r="H506" t="s">
-        <v>800</v>
-      </c>
-      <c r="I506" t="s">
-        <v>801</v>
-      </c>
-      <c r="J506" t="s">
-        <v>802</v>
-      </c>
-      <c r="K506" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E507" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F507" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G507" t="s">
-        <v>240</v>
-      </c>
-      <c r="H507" t="s">
-        <v>802</v>
-      </c>
-      <c r="I507" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J507" t="s">
-        <v>263</v>
-      </c>
-      <c r="K507" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L507" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E508" t="s">
-        <v>263</v>
-      </c>
-      <c r="F508" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G508" t="s">
-        <v>263</v>
-      </c>
-      <c r="H508" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I508" t="s">
-        <v>804</v>
-      </c>
-      <c r="J508" t="s">
-        <v>157</v>
-      </c>
-      <c r="K508" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E509" t="s">
-        <v>795</v>
-      </c>
-      <c r="F509" t="s">
-        <v>1474</v>
-      </c>
-      <c r="G509" t="s">
-        <v>157</v>
-      </c>
-      <c r="H509" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E510" t="s">
-        <v>795</v>
-      </c>
-      <c r="F510" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G510" t="s">
-        <v>157</v>
-      </c>
-      <c r="H510" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E511" t="s">
-        <v>795</v>
-      </c>
-      <c r="F511" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G511" t="s">
-        <v>157</v>
-      </c>
-      <c r="H511" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E512" t="s">
-        <v>795</v>
-      </c>
-      <c r="F512" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G512" t="s">
-        <v>157</v>
-      </c>
-      <c r="H512" t="s">
-        <v>804</v>
-      </c>
-      <c r="I512" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E513" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>65</v>
-      </c>
-      <c r="B514" t="s">
-        <v>24</v>
-      </c>
-      <c r="C514" t="s">
-        <v>6</v>
-      </c>
-      <c r="D514">
-        <v>7</v>
-      </c>
-      <c r="E514" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E515" t="s">
-        <v>139</v>
-      </c>
-      <c r="F515" t="s">
-        <v>141</v>
-      </c>
-      <c r="G515" t="s">
-        <v>142</v>
-      </c>
-      <c r="H515" t="s">
-        <v>800</v>
-      </c>
-      <c r="I515" t="s">
-        <v>801</v>
-      </c>
-      <c r="J515" t="s">
-        <v>802</v>
-      </c>
-      <c r="K515" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E516" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F516" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G516" t="s">
-        <v>240</v>
-      </c>
-      <c r="H516" t="s">
-        <v>802</v>
-      </c>
-      <c r="I516" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J516" t="s">
-        <v>263</v>
-      </c>
-      <c r="K516" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L516" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E517" t="s">
-        <v>263</v>
-      </c>
-      <c r="F517" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G517" t="s">
-        <v>263</v>
-      </c>
-      <c r="H517" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I517" t="s">
-        <v>263</v>
-      </c>
-      <c r="J517" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K517" t="s">
-        <v>804</v>
-      </c>
-      <c r="L517" t="s">
-        <v>157</v>
-      </c>
-      <c r="M517" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E518" t="s">
-        <v>795</v>
-      </c>
-      <c r="F518" t="s">
-        <v>1474</v>
-      </c>
-      <c r="G518" t="s">
-        <v>157</v>
-      </c>
-      <c r="H518" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E519" t="s">
-        <v>795</v>
-      </c>
-      <c r="F519" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G519" t="s">
-        <v>157</v>
-      </c>
-      <c r="H519" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E520" t="s">
-        <v>795</v>
-      </c>
-      <c r="F520" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G520" t="s">
-        <v>157</v>
-      </c>
-      <c r="H520" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E521" t="s">
-        <v>795</v>
-      </c>
-      <c r="F521" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G521" t="s">
-        <v>157</v>
-      </c>
-      <c r="H521" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E522" t="s">
-        <v>795</v>
-      </c>
-      <c r="F522" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G522" t="s">
-        <v>157</v>
-      </c>
-      <c r="H522" t="s">
-        <v>804</v>
-      </c>
-      <c r="I522" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E523" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A524">
-        <v>66</v>
-      </c>
-      <c r="B524" t="s">
-        <v>24</v>
-      </c>
-      <c r="C524" t="s">
-        <v>7</v>
-      </c>
-      <c r="D524">
-        <v>7</v>
-      </c>
-      <c r="E524" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E525" t="s">
-        <v>139</v>
-      </c>
-      <c r="F525" t="s">
-        <v>141</v>
-      </c>
-      <c r="G525" t="s">
-        <v>142</v>
-      </c>
-      <c r="H525" t="s">
-        <v>800</v>
-      </c>
-      <c r="I525" t="s">
-        <v>801</v>
-      </c>
-      <c r="J525" t="s">
-        <v>802</v>
-      </c>
-      <c r="K525" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E526" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F526" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G526" t="s">
-        <v>240</v>
-      </c>
-      <c r="H526" t="s">
-        <v>802</v>
-      </c>
-      <c r="I526" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J526" t="s">
-        <v>263</v>
-      </c>
-      <c r="K526" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L526" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E527" t="s">
-        <v>263</v>
-      </c>
-      <c r="F527" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G527" t="s">
-        <v>263</v>
-      </c>
-      <c r="H527" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I527" t="s">
-        <v>804</v>
-      </c>
-      <c r="J527" t="s">
-        <v>157</v>
-      </c>
-      <c r="K527" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E528" t="s">
-        <v>286</v>
-      </c>
-      <c r="F528" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G528" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H528" t="s">
-        <v>157</v>
-      </c>
-      <c r="I528" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J528" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K528" t="s">
-        <v>817</v>
-      </c>
-      <c r="L528" t="s">
-        <v>365</v>
-      </c>
-      <c r="M528" t="s">
-        <v>157</v>
-      </c>
-      <c r="N528" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O528" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E529" t="s">
-        <v>802</v>
-      </c>
-      <c r="F529" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E530" t="s">
-        <v>795</v>
-      </c>
-      <c r="F530" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G530" t="s">
-        <v>157</v>
-      </c>
-      <c r="H530" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E531" t="s">
-        <v>804</v>
-      </c>
-      <c r="F531" t="s">
-        <v>804</v>
-      </c>
-      <c r="G531" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E532" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A533">
-        <v>67</v>
-      </c>
-      <c r="B533" t="s">
-        <v>24</v>
-      </c>
-      <c r="C533" t="s">
-        <v>7</v>
-      </c>
-      <c r="D533">
-        <v>7</v>
-      </c>
-      <c r="E533" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E534" t="s">
-        <v>139</v>
-      </c>
-      <c r="F534" t="s">
-        <v>141</v>
-      </c>
-      <c r="G534" t="s">
-        <v>142</v>
-      </c>
-      <c r="H534" t="s">
-        <v>800</v>
-      </c>
-      <c r="I534" t="s">
-        <v>801</v>
-      </c>
-      <c r="J534" t="s">
-        <v>802</v>
-      </c>
-      <c r="K534" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E535" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F535" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G535" t="s">
-        <v>240</v>
-      </c>
-      <c r="H535" t="s">
-        <v>802</v>
-      </c>
-      <c r="I535" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J535" t="s">
-        <v>263</v>
-      </c>
-      <c r="K535" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L535" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E536" t="s">
-        <v>263</v>
-      </c>
-      <c r="F536" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G536" t="s">
-        <v>263</v>
-      </c>
-      <c r="H536" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I536" t="s">
-        <v>263</v>
-      </c>
-      <c r="J536" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K536" t="s">
-        <v>804</v>
-      </c>
-      <c r="L536" t="s">
-        <v>157</v>
-      </c>
-      <c r="M536" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E537" t="s">
-        <v>286</v>
-      </c>
-      <c r="F537" t="s">
-        <v>1248</v>
-      </c>
-      <c r="G537" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H537" t="s">
-        <v>157</v>
-      </c>
-      <c r="I537" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J537" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K537" t="s">
-        <v>817</v>
-      </c>
-      <c r="L537" t="s">
-        <v>365</v>
-      </c>
-      <c r="M537" t="s">
-        <v>157</v>
-      </c>
-      <c r="N537" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O537" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E538" t="s">
-        <v>802</v>
-      </c>
-      <c r="F538" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E539" t="s">
-        <v>795</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G539" t="s">
-        <v>157</v>
-      </c>
-      <c r="H539" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E540" t="s">
-        <v>804</v>
-      </c>
-      <c r="F540" t="s">
-        <v>804</v>
-      </c>
-      <c r="G540" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E541" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A542">
-        <v>68</v>
-      </c>
-      <c r="B542" t="s">
-        <v>24</v>
-      </c>
-      <c r="C542" t="s">
-        <v>8</v>
-      </c>
-      <c r="D542">
-        <v>7</v>
-      </c>
-      <c r="E542" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E543" t="s">
-        <v>139</v>
-      </c>
-      <c r="F543" t="s">
-        <v>141</v>
-      </c>
-      <c r="G543" t="s">
-        <v>142</v>
-      </c>
-      <c r="H543" t="s">
-        <v>800</v>
-      </c>
-      <c r="I543" t="s">
-        <v>801</v>
-      </c>
-      <c r="J543" t="s">
-        <v>802</v>
-      </c>
-      <c r="K543" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E544" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G544" t="s">
-        <v>240</v>
-      </c>
-      <c r="H544" t="s">
-        <v>802</v>
-      </c>
-      <c r="I544" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J544" t="s">
-        <v>263</v>
-      </c>
-      <c r="K544" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L544" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E545" t="s">
-        <v>263</v>
-      </c>
-      <c r="F545" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G545" t="s">
-        <v>263</v>
-      </c>
-      <c r="H545" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I545" t="s">
-        <v>804</v>
-      </c>
-      <c r="J545" t="s">
-        <v>157</v>
-      </c>
-      <c r="K545" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E546" t="s">
-        <v>191</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G546" t="s">
-        <v>240</v>
-      </c>
-      <c r="H546">
-        <v>0</v>
-      </c>
-      <c r="I546" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J546" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E547" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F547" t="s">
-        <v>796</v>
-      </c>
-      <c r="G547" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H547" t="s">
-        <v>820</v>
-      </c>
-      <c r="I547" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J547" t="s">
-        <v>817</v>
-      </c>
-      <c r="K547" t="s">
-        <v>365</v>
-      </c>
-      <c r="L547" t="s">
-        <v>144</v>
-      </c>
-      <c r="M547" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E548" t="s">
-        <v>802</v>
-      </c>
-      <c r="F548" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E549" t="s">
-        <v>795</v>
-      </c>
-      <c r="F549" t="s">
-        <v>796</v>
-      </c>
-      <c r="G549" t="s">
-        <v>1481</v>
-      </c>
-      <c r="H549" t="s">
-        <v>144</v>
-      </c>
-      <c r="I549" t="s">
-        <v>157</v>
-      </c>
-      <c r="J549" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E550" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F550" t="s">
-        <v>157</v>
-      </c>
-      <c r="G550" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E551" t="s">
-        <v>804</v>
-      </c>
-      <c r="F551" t="s">
-        <v>804</v>
-      </c>
-      <c r="G551" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E552" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A553">
-        <v>69</v>
-      </c>
-      <c r="B553" t="s">
-        <v>24</v>
-      </c>
-      <c r="C553" t="s">
-        <v>8</v>
-      </c>
-      <c r="D553">
-        <v>7</v>
-      </c>
-      <c r="E553" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E554" t="s">
-        <v>139</v>
-      </c>
-      <c r="F554" t="s">
-        <v>141</v>
-      </c>
-      <c r="G554" t="s">
-        <v>142</v>
-      </c>
-      <c r="H554" t="s">
-        <v>800</v>
-      </c>
-      <c r="I554" t="s">
-        <v>801</v>
-      </c>
-      <c r="J554" t="s">
-        <v>802</v>
-      </c>
-      <c r="K554" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E555" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F555" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G555" t="s">
-        <v>240</v>
-      </c>
-      <c r="H555" t="s">
-        <v>802</v>
-      </c>
-      <c r="I555" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J555" t="s">
-        <v>263</v>
-      </c>
-      <c r="K555" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L555" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E556" t="s">
-        <v>263</v>
-      </c>
-      <c r="F556" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G556" t="s">
-        <v>263</v>
-      </c>
-      <c r="H556" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I556" t="s">
-        <v>804</v>
-      </c>
-      <c r="J556" t="s">
-        <v>157</v>
-      </c>
-      <c r="K556" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E557" t="s">
-        <v>191</v>
-      </c>
-      <c r="F557" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G557" t="s">
-        <v>240</v>
-      </c>
-      <c r="H557">
-        <v>0</v>
-      </c>
-      <c r="I557" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J557" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E558" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F558" t="s">
-        <v>796</v>
-      </c>
-      <c r="G558" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H558" t="s">
-        <v>820</v>
-      </c>
-      <c r="I558" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J558" t="s">
-        <v>817</v>
-      </c>
-      <c r="K558" t="s">
-        <v>365</v>
-      </c>
-      <c r="L558" t="s">
-        <v>144</v>
-      </c>
-      <c r="M558" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E559" t="s">
-        <v>802</v>
-      </c>
-      <c r="F559" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E560" t="s">
-        <v>795</v>
-      </c>
-      <c r="F560" t="s">
-        <v>796</v>
-      </c>
-      <c r="G560" t="s">
-        <v>1481</v>
-      </c>
-      <c r="H560" t="s">
-        <v>144</v>
-      </c>
-      <c r="I560" t="s">
-        <v>157</v>
-      </c>
-      <c r="J560" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E561" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F561" t="s">
-        <v>157</v>
-      </c>
-      <c r="G561" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E562" t="s">
-        <v>804</v>
-      </c>
-      <c r="F562" t="s">
-        <v>804</v>
-      </c>
-      <c r="G562" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E563" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564">
-        <v>70</v>
-      </c>
-      <c r="B564" t="s">
-        <v>25</v>
-      </c>
-      <c r="C564" t="s">
-        <v>6</v>
-      </c>
-      <c r="D564">
-        <v>8</v>
-      </c>
-      <c r="E564" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E565" t="s">
-        <v>139</v>
-      </c>
-      <c r="F565" t="s">
-        <v>142</v>
-      </c>
-      <c r="G565" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H565" t="s">
-        <v>802</v>
-      </c>
-      <c r="I565" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E566" t="s">
-        <v>795</v>
-      </c>
-      <c r="F566" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G566" t="s">
-        <v>157</v>
-      </c>
-      <c r="H566" t="s">
-        <v>804</v>
-      </c>
-      <c r="I566" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E567" t="s">
-        <v>139</v>
-      </c>
-      <c r="F567" t="s">
-        <v>141</v>
-      </c>
-      <c r="G567" t="s">
-        <v>142</v>
-      </c>
-      <c r="H567" t="s">
-        <v>800</v>
-      </c>
-      <c r="I567" t="s">
-        <v>801</v>
-      </c>
-      <c r="J567" t="s">
-        <v>802</v>
-      </c>
-      <c r="K567" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E568" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F568" t="s">
-        <v>157</v>
-      </c>
-      <c r="G568" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E569" t="s">
-        <v>804</v>
-      </c>
-      <c r="F569" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E570" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571">
-        <v>71</v>
-      </c>
-      <c r="B571" t="s">
-        <v>25</v>
-      </c>
-      <c r="C571" t="s">
-        <v>6</v>
-      </c>
-      <c r="D571">
-        <v>8</v>
-      </c>
-      <c r="E571" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E572" t="s">
-        <v>139</v>
-      </c>
-      <c r="F572" t="s">
-        <v>142</v>
-      </c>
-      <c r="G572" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H572" t="s">
-        <v>802</v>
-      </c>
-      <c r="I572" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E573" t="s">
-        <v>795</v>
-      </c>
-      <c r="F573" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G573" t="s">
-        <v>157</v>
-      </c>
-      <c r="H573" t="s">
-        <v>804</v>
-      </c>
-      <c r="I573" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E574" t="s">
-        <v>139</v>
-      </c>
-      <c r="F574" t="s">
-        <v>141</v>
-      </c>
-      <c r="G574" t="s">
-        <v>142</v>
-      </c>
-      <c r="H574" t="s">
-        <v>800</v>
-      </c>
-      <c r="I574" t="s">
-        <v>801</v>
-      </c>
-      <c r="J574" t="s">
-        <v>802</v>
-      </c>
-      <c r="K574" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E575" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F575" t="s">
-        <v>157</v>
-      </c>
-      <c r="G575" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E576" t="s">
-        <v>804</v>
-      </c>
-      <c r="F576" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E577" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578">
-        <v>72</v>
-      </c>
-      <c r="B578" t="s">
-        <v>25</v>
-      </c>
-      <c r="C578" t="s">
-        <v>7</v>
-      </c>
-      <c r="D578">
-        <v>8</v>
-      </c>
-      <c r="E578" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E579" t="s">
-        <v>139</v>
-      </c>
-      <c r="F579" t="s">
-        <v>143</v>
-      </c>
-      <c r="G579" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H579" t="s">
-        <v>802</v>
-      </c>
-      <c r="I579" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E580" t="s">
-        <v>303</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G580" t="s">
-        <v>157</v>
-      </c>
-      <c r="H580" t="s">
-        <v>804</v>
-      </c>
-      <c r="I580" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E581" t="s">
-        <v>139</v>
-      </c>
-      <c r="F581" t="s">
-        <v>141</v>
-      </c>
-      <c r="G581" t="s">
-        <v>142</v>
-      </c>
-      <c r="H581" t="s">
-        <v>800</v>
-      </c>
-      <c r="I581" t="s">
-        <v>801</v>
-      </c>
-      <c r="J581" t="s">
-        <v>802</v>
-      </c>
-      <c r="K581" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E582" t="s">
-        <v>795</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G582" t="s">
-        <v>264</v>
-      </c>
-      <c r="H582" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I582" t="s">
-        <v>157</v>
-      </c>
-      <c r="J582" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E583" t="s">
-        <v>804</v>
-      </c>
-      <c r="F583" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E584" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585">
-        <v>73</v>
-      </c>
-      <c r="B585" t="s">
-        <v>25</v>
-      </c>
-      <c r="C585" t="s">
-        <v>7</v>
-      </c>
-      <c r="D585">
-        <v>8</v>
-      </c>
-      <c r="E585" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E586" t="s">
-        <v>139</v>
-      </c>
-      <c r="F586" t="s">
-        <v>143</v>
-      </c>
-      <c r="G586" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H586" t="s">
-        <v>802</v>
-      </c>
-      <c r="I586" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E587" t="s">
-        <v>303</v>
-      </c>
-      <c r="F587" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G587" t="s">
-        <v>157</v>
-      </c>
-      <c r="H587" t="s">
-        <v>804</v>
-      </c>
-      <c r="I587" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E588" t="s">
-        <v>139</v>
-      </c>
-      <c r="F588" t="s">
-        <v>141</v>
-      </c>
-      <c r="G588" t="s">
-        <v>142</v>
-      </c>
-      <c r="H588" t="s">
-        <v>800</v>
-      </c>
-      <c r="I588" t="s">
-        <v>801</v>
-      </c>
-      <c r="J588" t="s">
-        <v>802</v>
-      </c>
-      <c r="K588" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E589" t="s">
-        <v>795</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G589" t="s">
-        <v>264</v>
-      </c>
-      <c r="H589" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I589" t="s">
-        <v>157</v>
-      </c>
-      <c r="J589" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E590" t="s">
-        <v>804</v>
-      </c>
-      <c r="F590" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E591" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592">
-        <v>74</v>
-      </c>
-      <c r="B592" t="s">
-        <v>25</v>
-      </c>
-      <c r="C592" t="s">
-        <v>8</v>
-      </c>
-      <c r="D592">
-        <v>8</v>
-      </c>
-      <c r="E592" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E593" t="s">
-        <v>139</v>
-      </c>
-      <c r="F593" t="s">
-        <v>143</v>
-      </c>
-      <c r="G593" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H593" t="s">
-        <v>802</v>
-      </c>
-      <c r="I593" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E594" t="s">
-        <v>303</v>
-      </c>
-      <c r="F594" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G594" t="s">
-        <v>157</v>
-      </c>
-      <c r="H594" t="s">
-        <v>804</v>
-      </c>
-      <c r="I594" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E595" t="s">
-        <v>139</v>
-      </c>
-      <c r="F595" t="s">
-        <v>143</v>
-      </c>
-      <c r="G595" t="s">
-        <v>956</v>
-      </c>
-      <c r="H595" t="s">
-        <v>802</v>
-      </c>
-      <c r="I595" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E596" t="s">
-        <v>303</v>
-      </c>
-      <c r="F596" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G596" t="s">
-        <v>157</v>
-      </c>
-      <c r="H596" t="s">
-        <v>804</v>
-      </c>
-      <c r="I596" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E597" t="s">
-        <v>139</v>
-      </c>
-      <c r="F597" t="s">
-        <v>141</v>
-      </c>
-      <c r="G597" t="s">
-        <v>142</v>
-      </c>
-      <c r="H597" t="s">
-        <v>800</v>
-      </c>
-      <c r="I597" t="s">
-        <v>801</v>
-      </c>
-      <c r="J597" t="s">
-        <v>802</v>
-      </c>
-      <c r="K597" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E598" t="s">
-        <v>795</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G598" t="s">
-        <v>264</v>
-      </c>
-      <c r="H598" t="s">
-        <v>956</v>
-      </c>
-      <c r="I598" t="s">
-        <v>157</v>
-      </c>
-      <c r="J598" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E599" t="s">
-        <v>804</v>
-      </c>
-      <c r="F599" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E600" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601">
-        <v>75</v>
-      </c>
-      <c r="B601" t="s">
-        <v>25</v>
-      </c>
-      <c r="C601" t="s">
-        <v>8</v>
-      </c>
-      <c r="D601">
-        <v>8</v>
-      </c>
-      <c r="E601" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E602" t="s">
-        <v>139</v>
-      </c>
-      <c r="F602" t="s">
-        <v>143</v>
-      </c>
-      <c r="G602" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H602" t="s">
-        <v>802</v>
-      </c>
-      <c r="I602" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E603" t="s">
-        <v>303</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G603" t="s">
-        <v>157</v>
-      </c>
-      <c r="H603" t="s">
-        <v>804</v>
-      </c>
-      <c r="I603" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E604" t="s">
-        <v>139</v>
-      </c>
-      <c r="F604" t="s">
-        <v>143</v>
-      </c>
-      <c r="G604" t="s">
-        <v>956</v>
-      </c>
-      <c r="H604" t="s">
-        <v>802</v>
-      </c>
-      <c r="I604" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E605" t="s">
-        <v>303</v>
-      </c>
-      <c r="F605" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G605" t="s">
-        <v>157</v>
-      </c>
-      <c r="H605" t="s">
-        <v>804</v>
-      </c>
-      <c r="I605" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E606" t="s">
-        <v>139</v>
-      </c>
-      <c r="F606" t="s">
-        <v>141</v>
-      </c>
-      <c r="G606" t="s">
-        <v>142</v>
-      </c>
-      <c r="H606" t="s">
-        <v>800</v>
-      </c>
-      <c r="I606" t="s">
-        <v>801</v>
-      </c>
-      <c r="J606" t="s">
-        <v>802</v>
-      </c>
-      <c r="K606" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E607" t="s">
-        <v>795</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G607" t="s">
-        <v>264</v>
-      </c>
-      <c r="H607" t="s">
-        <v>956</v>
-      </c>
-      <c r="I607" t="s">
-        <v>157</v>
-      </c>
-      <c r="J607" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E608" t="s">
-        <v>804</v>
-      </c>
-      <c r="F608" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E609" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A610">
-        <v>76</v>
-      </c>
-      <c r="B610" t="s">
-        <v>26</v>
-      </c>
-      <c r="C610" t="s">
-        <v>6</v>
-      </c>
-      <c r="D610">
-        <v>8</v>
-      </c>
-      <c r="E610" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E611" t="s">
-        <v>139</v>
-      </c>
-      <c r="F611" t="s">
-        <v>141</v>
-      </c>
-      <c r="G611" t="s">
-        <v>142</v>
-      </c>
-      <c r="H611" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I611" t="s">
-        <v>1491</v>
-      </c>
-      <c r="J611" t="s">
-        <v>1347</v>
-      </c>
-      <c r="K611" t="s">
-        <v>802</v>
-      </c>
-      <c r="L611" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E612" t="s">
-        <v>795</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G612" t="s">
-        <v>264</v>
-      </c>
-      <c r="H612" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I612" t="s">
-        <v>157</v>
-      </c>
-      <c r="J612" t="s">
-        <v>804</v>
-      </c>
-      <c r="K612" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E613" t="s">
-        <v>139</v>
-      </c>
-      <c r="F613" t="s">
-        <v>141</v>
-      </c>
-      <c r="G613" t="s">
-        <v>142</v>
-      </c>
-      <c r="H613" t="s">
-        <v>800</v>
-      </c>
-      <c r="I613" t="s">
-        <v>801</v>
-      </c>
-      <c r="J613" t="s">
-        <v>802</v>
-      </c>
-      <c r="K613" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E614" t="s">
-        <v>795</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G614" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H614" t="s">
-        <v>157</v>
-      </c>
-      <c r="I614" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E615" t="s">
-        <v>804</v>
-      </c>
-      <c r="F615" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E616" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A617">
-        <v>77</v>
-      </c>
-      <c r="B617" t="s">
-        <v>29</v>
-      </c>
-      <c r="C617" t="s">
-        <v>6</v>
-      </c>
-      <c r="D617">
-        <v>8</v>
-      </c>
-      <c r="E617" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E618" t="s">
-        <v>139</v>
-      </c>
-      <c r="F618" t="s">
-        <v>141</v>
-      </c>
-      <c r="G618" t="s">
-        <v>142</v>
-      </c>
-      <c r="H618" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I618" t="s">
-        <v>1491</v>
-      </c>
-      <c r="J618" t="s">
-        <v>1347</v>
-      </c>
-      <c r="K618" t="s">
-        <v>802</v>
-      </c>
-      <c r="L618" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E619" t="s">
-        <v>795</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G619" t="s">
-        <v>264</v>
-      </c>
-      <c r="H619" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I619" t="s">
-        <v>157</v>
-      </c>
-      <c r="J619" t="s">
-        <v>804</v>
-      </c>
-      <c r="K619" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E620" t="s">
-        <v>139</v>
-      </c>
-      <c r="F620" t="s">
-        <v>141</v>
-      </c>
-      <c r="G620" t="s">
-        <v>142</v>
-      </c>
-      <c r="H620" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I620" t="s">
-        <v>1491</v>
-      </c>
-      <c r="J620" t="s">
-        <v>1482</v>
-      </c>
-      <c r="K620" t="s">
-        <v>263</v>
-      </c>
-      <c r="L620" t="s">
-        <v>143</v>
-      </c>
-      <c r="M620" t="s">
-        <v>1347</v>
-      </c>
-      <c r="N620" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E621" t="s">
-        <v>802</v>
-      </c>
-      <c r="F621" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E622" t="s">
-        <v>795</v>
-      </c>
-      <c r="F622" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G622" t="s">
-        <v>264</v>
-      </c>
-      <c r="H622" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I622" t="s">
-        <v>157</v>
-      </c>
-      <c r="J622" t="s">
-        <v>804</v>
-      </c>
-      <c r="K622" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E623" t="s">
-        <v>139</v>
-      </c>
-      <c r="F623" t="s">
-        <v>141</v>
-      </c>
-      <c r="G623" t="s">
-        <v>142</v>
-      </c>
-      <c r="H623" t="s">
-        <v>800</v>
-      </c>
-      <c r="I623" t="s">
-        <v>801</v>
-      </c>
-      <c r="J623" t="s">
-        <v>802</v>
-      </c>
-      <c r="K623" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E624" t="s">
-        <v>795</v>
-      </c>
-      <c r="F624" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G624" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H624" t="s">
-        <v>263</v>
-      </c>
-      <c r="I624" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J624" t="s">
-        <v>157</v>
-      </c>
-      <c r="K624" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E625" t="s">
-        <v>804</v>
-      </c>
-      <c r="F625" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E626" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A627">
-        <v>78</v>
-      </c>
-      <c r="B627" t="s">
-        <v>26</v>
-      </c>
-      <c r="C627" t="s">
-        <v>7</v>
-      </c>
-      <c r="D627">
-        <v>8</v>
-      </c>
-      <c r="E627" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E628" t="s">
-        <v>139</v>
-      </c>
-      <c r="F628" t="s">
-        <v>141</v>
-      </c>
-      <c r="G628" t="s">
-        <v>191</v>
-      </c>
-      <c r="H628" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I628" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J628" t="s">
-        <v>1493</v>
-      </c>
-      <c r="K628" t="s">
-        <v>802</v>
-      </c>
-      <c r="L628" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E629" t="s">
-        <v>303</v>
-      </c>
-      <c r="F629" t="s">
-        <v>880</v>
-      </c>
-      <c r="G629" t="s">
-        <v>264</v>
-      </c>
-      <c r="H629">
-        <v>5</v>
-      </c>
-      <c r="I629" t="s">
-        <v>157</v>
-      </c>
-      <c r="J629" t="s">
-        <v>804</v>
-      </c>
-      <c r="K629" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E630" t="s">
-        <v>139</v>
-      </c>
-      <c r="F630" t="s">
-        <v>141</v>
-      </c>
-      <c r="G630" t="s">
-        <v>142</v>
-      </c>
-      <c r="H630" t="s">
-        <v>800</v>
-      </c>
-      <c r="I630" t="s">
-        <v>801</v>
-      </c>
-      <c r="J630" t="s">
-        <v>802</v>
-      </c>
-      <c r="K630" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E631" t="s">
-        <v>795</v>
-      </c>
-      <c r="F631" t="s">
-        <v>796</v>
-      </c>
-      <c r="G631" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H631" t="s">
-        <v>144</v>
-      </c>
-      <c r="I631" t="s">
-        <v>157</v>
-      </c>
-      <c r="J631" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E632" t="s">
-        <v>804</v>
-      </c>
-      <c r="F632" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E633" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A634">
-        <v>79</v>
-      </c>
-      <c r="B634" t="s">
-        <v>29</v>
-      </c>
-      <c r="C634" t="s">
-        <v>7</v>
-      </c>
-      <c r="D634">
-        <v>8</v>
-      </c>
-      <c r="E634" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E635" t="s">
-        <v>139</v>
-      </c>
-      <c r="F635" t="s">
-        <v>141</v>
-      </c>
-      <c r="G635" t="s">
-        <v>191</v>
-      </c>
-      <c r="H635" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I635" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J635" t="s">
-        <v>1493</v>
-      </c>
-      <c r="K635" t="s">
-        <v>802</v>
-      </c>
-      <c r="L635" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E636" t="s">
-        <v>303</v>
-      </c>
-      <c r="F636" t="s">
-        <v>880</v>
-      </c>
-      <c r="G636" t="s">
-        <v>264</v>
-      </c>
-      <c r="H636">
-        <v>5</v>
-      </c>
-      <c r="I636" t="s">
-        <v>157</v>
-      </c>
-      <c r="J636" t="s">
-        <v>804</v>
-      </c>
-      <c r="K636" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E637" t="s">
-        <v>139</v>
-      </c>
-      <c r="F637" t="s">
-        <v>141</v>
-      </c>
-      <c r="G637" t="s">
-        <v>191</v>
-      </c>
-      <c r="H637" t="s">
-        <v>1494</v>
-      </c>
-      <c r="I637" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J637" t="s">
-        <v>880</v>
-      </c>
-      <c r="K637" t="s">
-        <v>263</v>
-      </c>
-      <c r="L637" t="s">
-        <v>191</v>
-      </c>
-      <c r="M637" t="s">
-        <v>1392</v>
-      </c>
-      <c r="N637" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E638" t="s">
-        <v>802</v>
-      </c>
-      <c r="F638" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E639" t="s">
-        <v>303</v>
-      </c>
-      <c r="F639" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G639" t="s">
-        <v>264</v>
-      </c>
-      <c r="H639" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I639" t="s">
-        <v>157</v>
-      </c>
-      <c r="J639" t="s">
-        <v>804</v>
-      </c>
-      <c r="K639" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E640" t="s">
-        <v>139</v>
-      </c>
-      <c r="F640" t="s">
-        <v>141</v>
-      </c>
-      <c r="G640" t="s">
-        <v>142</v>
-      </c>
-      <c r="H640" t="s">
-        <v>800</v>
-      </c>
-      <c r="I640" t="s">
-        <v>801</v>
-      </c>
-      <c r="J640" t="s">
-        <v>802</v>
-      </c>
-      <c r="K640" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E641" t="s">
-        <v>795</v>
-      </c>
-      <c r="F641" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G641" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H641" t="s">
-        <v>263</v>
-      </c>
-      <c r="I641" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J641" t="s">
-        <v>157</v>
-      </c>
-      <c r="K641" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E642" t="s">
-        <v>804</v>
-      </c>
-      <c r="F642" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E643" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A644">
-        <v>80</v>
-      </c>
-      <c r="B644" t="s">
-        <v>26</v>
-      </c>
-      <c r="C644" t="s">
-        <v>8</v>
-      </c>
-      <c r="D644">
-        <v>8</v>
-      </c>
-      <c r="E644" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E645" t="s">
-        <v>139</v>
-      </c>
-      <c r="F645" t="s">
-        <v>141</v>
-      </c>
-      <c r="G645" t="s">
-        <v>190</v>
-      </c>
-      <c r="H645" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I645" t="s">
-        <v>1497</v>
-      </c>
-      <c r="J645" t="s">
-        <v>1380</v>
-      </c>
-      <c r="K645" t="s">
-        <v>802</v>
-      </c>
-      <c r="L645" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E646" t="s">
-        <v>303</v>
-      </c>
-      <c r="F646" t="s">
-        <v>268</v>
-      </c>
-      <c r="G646" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H646" t="s">
-        <v>157</v>
-      </c>
-      <c r="I646" t="s">
-        <v>804</v>
-      </c>
-      <c r="J646" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E647" t="s">
-        <v>139</v>
-      </c>
-      <c r="F647" t="s">
-        <v>141</v>
-      </c>
-      <c r="G647" t="s">
-        <v>142</v>
-      </c>
-      <c r="H647" t="s">
-        <v>800</v>
-      </c>
-      <c r="I647" t="s">
-        <v>801</v>
-      </c>
-      <c r="J647" t="s">
-        <v>802</v>
-      </c>
-      <c r="K647" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E648" t="s">
-        <v>795</v>
-      </c>
-      <c r="F648" t="s">
-        <v>796</v>
-      </c>
-      <c r="G648" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H648" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I648" t="s">
-        <v>144</v>
-      </c>
-      <c r="J648" t="s">
-        <v>157</v>
-      </c>
-      <c r="K648" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E649" t="s">
-        <v>804</v>
-      </c>
-      <c r="F649" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E650" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A651">
-        <v>81</v>
-      </c>
-      <c r="B651" t="s">
-        <v>29</v>
-      </c>
-      <c r="C651" t="s">
-        <v>8</v>
-      </c>
-      <c r="D651">
-        <v>8</v>
-      </c>
-      <c r="E651" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E652" t="s">
-        <v>139</v>
-      </c>
-      <c r="F652" t="s">
-        <v>141</v>
-      </c>
-      <c r="G652" t="s">
-        <v>190</v>
-      </c>
-      <c r="H652" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I652" t="s">
-        <v>1497</v>
-      </c>
-      <c r="J652" t="s">
-        <v>1380</v>
-      </c>
-      <c r="K652" t="s">
-        <v>802</v>
-      </c>
-      <c r="L652" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E653" t="s">
-        <v>303</v>
-      </c>
-      <c r="F653" t="s">
-        <v>268</v>
-      </c>
-      <c r="G653" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H653" t="s">
-        <v>157</v>
-      </c>
-      <c r="I653" t="s">
-        <v>804</v>
-      </c>
-      <c r="J653" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E654" t="s">
-        <v>139</v>
-      </c>
-      <c r="F654" t="s">
-        <v>141</v>
-      </c>
-      <c r="G654" t="s">
-        <v>191</v>
-      </c>
-      <c r="H654" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I654" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J654" t="s">
-        <v>1493</v>
-      </c>
-      <c r="K654" t="s">
-        <v>802</v>
-      </c>
-      <c r="L654" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E655" t="s">
-        <v>303</v>
-      </c>
-      <c r="F655" t="s">
-        <v>806</v>
-      </c>
-      <c r="G655" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H655" t="s">
-        <v>157</v>
-      </c>
-      <c r="I655" t="s">
-        <v>804</v>
-      </c>
-      <c r="J655" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E656" t="s">
-        <v>139</v>
-      </c>
-      <c r="F656" t="s">
-        <v>141</v>
-      </c>
-      <c r="G656" t="s">
-        <v>142</v>
-      </c>
-      <c r="H656" t="s">
-        <v>800</v>
-      </c>
-      <c r="I656" t="s">
-        <v>801</v>
-      </c>
-      <c r="J656" t="s">
-        <v>802</v>
-      </c>
-      <c r="K656" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="657" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E657" t="s">
-        <v>795</v>
-      </c>
-      <c r="F657" t="s">
-        <v>796</v>
-      </c>
-      <c r="G657" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H657">
-        <v>-1</v>
-      </c>
-      <c r="I657" t="s">
-        <v>144</v>
-      </c>
-      <c r="J657" t="s">
-        <v>157</v>
-      </c>
-      <c r="K657" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="658" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E658" t="s">
-        <v>804</v>
-      </c>
-      <c r="F658" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="659" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E659" t="s">
         <v>138</v>
       </c>
     </row>

--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579FDD5-9079-4621-A01E-C4885597321A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AA42F-6006-4F98-B8CC-E4AAE8A284C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="1110" yWindow="405" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7350" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="1499">
   <si>
     <t>Stage 1</t>
   </si>
@@ -4953,9 +4953,6 @@
     <t>("JediLand"</t>
   </si>
   <si>
-    <t>Conditional Statement</t>
-  </si>
-  <si>
     <t>((1 + 1)</t>
   </si>
   <si>
@@ -5047,6 +5044,204 @@
   </si>
   <si>
     <t>("False")</t>
+  </si>
+  <si>
+    <t>("A is greater")</t>
+  </si>
+  <si>
+    <t>("B is greater")</t>
+  </si>
+  <si>
+    <t>(num1</t>
+  </si>
+  <si>
+    <t>else if</t>
+  </si>
+  <si>
+    <t>("B is lower")</t>
+  </si>
+  <si>
+    <t>(num3</t>
+  </si>
+  <si>
+    <t>num1)</t>
+  </si>
+  <si>
+    <t>("C is lower")</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>(letter)</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>("A Grade")</t>
+  </si>
+  <si>
+    <t>("B Grade")</t>
+  </si>
+  <si>
+    <t>B'</t>
+  </si>
+  <si>
+    <t>("No Grade")</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>"North"</t>
+  </si>
+  <si>
+    <t>("No Direction")</t>
+  </si>
+  <si>
+    <t>"South"</t>
+  </si>
+  <si>
+    <t>("Up")</t>
+  </si>
+  <si>
+    <t>("Down")</t>
+  </si>
+  <si>
+    <t>"A"</t>
+  </si>
+  <si>
+    <t>"B"</t>
+  </si>
+  <si>
+    <t>"C"</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>i&lt;5</t>
+  </si>
+  <si>
+    <t>i++)</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>(i&lt;5)</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>(i)</t>
+  </si>
+  <si>
+    <t>(i==2)</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>"is"</t>
+  </si>
+  <si>
+    <t>"in"</t>
+  </si>
+  <si>
+    <t>"Jediland"</t>
+  </si>
+  <si>
+    <t>i&lt;</t>
+  </si>
+  <si>
+    <t>(array[i])</t>
+  </si>
+  <si>
+    <t>"going"</t>
+  </si>
+  <si>
+    <t>"to"</t>
+  </si>
+  <si>
+    <t>"Jedischool"</t>
+  </si>
+  <si>
+    <t>(array[0])</t>
+  </si>
+  <si>
+    <t>(array[1])</t>
+  </si>
+  <si>
+    <t>(array[2])</t>
+  </si>
+  <si>
+    <t>(array[3])</t>
+  </si>
+  <si>
+    <t>(array[4])</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>counter++</t>
+  </si>
+  <si>
+    <t>array(counter)</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>greet()</t>
+  </si>
+  <si>
+    <t>("Hello!")</t>
+  </si>
+  <si>
+    <t>("Hi!")</t>
+  </si>
+  <si>
+    <t>(greet()</t>
+  </si>
+  <si>
+    <t>"Hello"</t>
+  </si>
+  <si>
+    <t>"Jedisaur")</t>
+  </si>
+  <si>
+    <t>"Hi"</t>
+  </si>
+  <si>
+    <t>("Hi"</t>
+  </si>
+  <si>
+    <t>(String</t>
+  </si>
+  <si>
+    <t>(greet</t>
+  </si>
+  <si>
+    <t>num)</t>
+  </si>
+  <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t>solve(5)</t>
+  </si>
+  <si>
+    <t>(5</t>
+  </si>
+  <si>
+    <t>(boolean</t>
+  </si>
+  <si>
+    <t>opposite</t>
   </si>
 </sst>
 </file>
@@ -26506,10 +26701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O357"/>
+  <dimension ref="A1:O659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="K284" sqref="K284"/>
+    <sheetView tabSelected="1" topLeftCell="A648" workbookViewId="0">
+      <selection activeCell="I659" sqref="I659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27035,7 +27230,7 @@
         <v>1196</v>
       </c>
       <c r="J26" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K26" t="s">
         <v>264</v>
@@ -28282,7 +28477,7 @@
         <v>795</v>
       </c>
       <c r="F87" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G87" t="s">
         <v>264</v>
@@ -28370,7 +28565,7 @@
         <v>795</v>
       </c>
       <c r="F92" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G92" t="s">
         <v>264</v>
@@ -28458,7 +28653,7 @@
         <v>795</v>
       </c>
       <c r="F97" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G97" t="s">
         <v>264</v>
@@ -28572,7 +28767,7 @@
         <v>795</v>
       </c>
       <c r="F103" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G103" t="s">
         <v>264</v>
@@ -28592,7 +28787,7 @@
         <v>795</v>
       </c>
       <c r="F104" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G104" t="s">
         <v>264</v>
@@ -28604,7 +28799,7 @@
         <v>264</v>
       </c>
       <c r="J104" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K104" t="s">
         <v>157</v>
@@ -28706,7 +28901,7 @@
         <v>795</v>
       </c>
       <c r="F110" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G110" t="s">
         <v>264</v>
@@ -28726,7 +28921,7 @@
         <v>795</v>
       </c>
       <c r="F111" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G111" t="s">
         <v>264</v>
@@ -28834,7 +29029,7 @@
         <v>795</v>
       </c>
       <c r="F117" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G117" t="s">
         <v>264</v>
@@ -28860,7 +29055,7 @@
         <v>795</v>
       </c>
       <c r="F118" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G118" t="s">
         <v>264</v>
@@ -28872,7 +29067,7 @@
         <v>264</v>
       </c>
       <c r="J118" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K118" t="s">
         <v>157</v>
@@ -28994,7 +29189,7 @@
         <v>795</v>
       </c>
       <c r="F125" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G125" t="s">
         <v>264</v>
@@ -29014,7 +29209,7 @@
         <v>795</v>
       </c>
       <c r="F126" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G126" t="s">
         <v>264</v>
@@ -29040,7 +29235,7 @@
         <v>795</v>
       </c>
       <c r="F127" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G127" t="s">
         <v>264</v>
@@ -29052,7 +29247,7 @@
         <v>264</v>
       </c>
       <c r="J127" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K127" t="s">
         <v>157</v>
@@ -29154,7 +29349,7 @@
         <v>795</v>
       </c>
       <c r="F133" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G133" t="s">
         <v>264</v>
@@ -29174,7 +29369,7 @@
         <v>795</v>
       </c>
       <c r="F134" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G134" t="s">
         <v>264</v>
@@ -29296,7 +29491,7 @@
         <v>795</v>
       </c>
       <c r="F141" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G141" t="s">
         <v>264</v>
@@ -29319,7 +29514,7 @@
         <v>795</v>
       </c>
       <c r="F142" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G142" t="s">
         <v>264</v>
@@ -29331,7 +29526,7 @@
         <v>264</v>
       </c>
       <c r="J142" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K142" t="s">
         <v>157</v>
@@ -29499,7 +29694,7 @@
         <v>795</v>
       </c>
       <c r="F151" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G151" t="s">
         <v>264</v>
@@ -29633,7 +29828,7 @@
         <v>795</v>
       </c>
       <c r="F158" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G158" t="s">
         <v>264</v>
@@ -29659,7 +29854,7 @@
         <v>795</v>
       </c>
       <c r="F159" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G159" t="s">
         <v>264</v>
@@ -31021,7 +31216,7 @@
         <v>240</v>
       </c>
       <c r="H231" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I231" t="s">
         <v>157</v>
@@ -31058,7 +31253,7 @@
         <v>191</v>
       </c>
       <c r="F233" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G233" t="s">
         <v>240</v>
@@ -31084,7 +31279,7 @@
         <v>264</v>
       </c>
       <c r="H234" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I234" t="s">
         <v>264</v>
@@ -31110,7 +31305,7 @@
         <v>264</v>
       </c>
       <c r="H235" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I235" t="s">
         <v>264</v>
@@ -31136,7 +31331,7 @@
         <v>264</v>
       </c>
       <c r="H236" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I236" t="s">
         <v>264</v>
@@ -31224,7 +31419,7 @@
         <v>190</v>
       </c>
       <c r="F241" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G241" t="s">
         <v>240</v>
@@ -31273,19 +31468,19 @@
         <v>795</v>
       </c>
       <c r="F243" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G243" t="s">
         <v>264</v>
       </c>
       <c r="H243" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I243" t="s">
         <v>264</v>
       </c>
       <c r="J243" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="K243" t="s">
         <v>157</v>
@@ -31299,19 +31494,19 @@
         <v>795</v>
       </c>
       <c r="F244" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G244" t="s">
         <v>264</v>
       </c>
       <c r="H244" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I244" t="s">
         <v>264</v>
       </c>
       <c r="J244" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="K244" t="s">
         <v>157</v>
@@ -31325,13 +31520,13 @@
         <v>795</v>
       </c>
       <c r="F245" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G245" t="s">
         <v>264</v>
       </c>
       <c r="H245" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I245" t="s">
         <v>264</v>
@@ -31399,13 +31594,13 @@
         <v>795</v>
       </c>
       <c r="F249" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G249" t="s">
         <v>264</v>
       </c>
       <c r="H249" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I249" t="s">
         <v>157</v>
@@ -31419,13 +31614,13 @@
         <v>795</v>
       </c>
       <c r="F250" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G250" t="s">
         <v>264</v>
       </c>
       <c r="H250" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I250" t="s">
         <v>157</v>
@@ -31487,13 +31682,13 @@
         <v>795</v>
       </c>
       <c r="F254" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G254" t="s">
         <v>264</v>
       </c>
       <c r="H254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I254" t="s">
         <v>157</v>
@@ -31507,13 +31702,13 @@
         <v>795</v>
       </c>
       <c r="F255" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G255" t="s">
         <v>264</v>
       </c>
       <c r="H255" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I255" t="s">
         <v>157</v>
@@ -31595,7 +31790,7 @@
         <v>795</v>
       </c>
       <c r="F260" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G260" t="s">
         <v>157</v>
@@ -31623,7 +31818,7 @@
         <v>795</v>
       </c>
       <c r="F262" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G262" t="s">
         <v>157</v>
@@ -31705,7 +31900,7 @@
         <v>795</v>
       </c>
       <c r="F267" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G267" t="s">
         <v>157</v>
@@ -31733,7 +31928,7 @@
         <v>795</v>
       </c>
       <c r="F269" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G269" t="s">
         <v>157</v>
@@ -31815,19 +32010,19 @@
         <v>795</v>
       </c>
       <c r="F274" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G274" t="s">
         <v>264</v>
       </c>
       <c r="H274" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I274" t="s">
         <v>806</v>
       </c>
       <c r="J274" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K274" t="s">
         <v>157</v>
@@ -31855,7 +32050,7 @@
         <v>795</v>
       </c>
       <c r="F276" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G276" t="s">
         <v>157</v>
@@ -31980,19 +32175,19 @@
         <v>795</v>
       </c>
       <c r="F283" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G283" t="s">
         <v>259</v>
       </c>
       <c r="H283" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I283" t="s">
         <v>806</v>
       </c>
       <c r="J283" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K283" t="s">
         <v>157</v>
@@ -32006,7 +32201,7 @@
         <v>795</v>
       </c>
       <c r="F284" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G284" t="s">
         <v>157</v>
@@ -32020,7 +32215,7 @@
         <v>795</v>
       </c>
       <c r="F285" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G285" t="s">
         <v>157</v>
@@ -32077,12 +32272,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>43</v>
       </c>
       <c r="B289" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -32094,7 +32289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
         <v>139</v>
       </c>
@@ -32117,7 +32312,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
         <v>190</v>
       </c>
@@ -32137,7 +32332,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
         <v>280</v>
       </c>
@@ -32151,12 +32346,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>795</v>
       </c>
       <c r="F293" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G293" t="s">
         <v>157</v>
@@ -32165,7 +32360,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>804</v>
       </c>
@@ -32179,12 +32374,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
         <v>795</v>
       </c>
       <c r="F295" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G295" t="s">
         <v>157</v>
@@ -32193,7 +32388,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
         <v>804</v>
       </c>
@@ -32204,17 +32399,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>44</v>
       </c>
       <c r="B298" t="s">
-        <v>1402</v>
+        <v>22</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -32226,7 +32421,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
         <v>139</v>
       </c>
@@ -32249,1073 +32444,5763 @@
         <v>797</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>1194</v>
+        <v>190</v>
       </c>
       <c r="F300" t="s">
-        <v>1198</v>
+        <v>1372</v>
       </c>
       <c r="G300" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H300" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>1376</v>
       </c>
       <c r="I300" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J300" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K300" t="s">
-        <v>157</v>
-      </c>
-      <c r="L300" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>280</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G301" t="s">
+        <v>802</v>
+      </c>
+      <c r="H301" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>795</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G302" t="s">
+        <v>157</v>
+      </c>
+      <c r="H302" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
         <v>804</v>
       </c>
-      <c r="M300" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>45</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C302" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302">
-        <v>5</v>
-      </c>
-      <c r="E302" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E303" t="s">
-        <v>139</v>
-      </c>
       <c r="F303" t="s">
-        <v>141</v>
+        <v>825</v>
       </c>
       <c r="G303" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H303" t="s">
-        <v>800</v>
-      </c>
-      <c r="I303" t="s">
-        <v>801</v>
-      </c>
-      <c r="J303" t="s">
-        <v>802</v>
-      </c>
-      <c r="K303" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F304" t="s">
-        <v>1198</v>
+        <v>1432</v>
       </c>
       <c r="G304" t="s">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="H304" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I304" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J304" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K304" t="s">
-        <v>157</v>
-      </c>
-      <c r="L304" t="s">
-        <v>804</v>
-      </c>
-      <c r="M304" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
+        <v>804</v>
+      </c>
+      <c r="F305" t="s">
+        <v>804</v>
+      </c>
+      <c r="G305" t="s">
+        <v>157</v>
+      </c>
+      <c r="K305" t="s">
+        <v>157</v>
+      </c>
+      <c r="L305" t="s">
+        <v>804</v>
+      </c>
+      <c r="M305" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>46</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C306" t="s">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>45</v>
+      </c>
+      <c r="B307" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" t="s">
         <v>7</v>
       </c>
-      <c r="D306">
+      <c r="D307">
         <v>5</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E307" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E307" t="s">
-        <v>139</v>
-      </c>
-      <c r="F307" t="s">
-        <v>141</v>
-      </c>
-      <c r="G307" t="s">
-        <v>142</v>
-      </c>
-      <c r="H307" t="s">
-        <v>800</v>
-      </c>
-      <c r="I307" t="s">
-        <v>801</v>
-      </c>
-      <c r="J307" t="s">
-        <v>802</v>
-      </c>
-      <c r="K307" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>1194</v>
+        <v>139</v>
       </c>
       <c r="F308" t="s">
-        <v>1198</v>
+        <v>141</v>
       </c>
       <c r="G308" t="s">
-        <v>1195</v>
+        <v>142</v>
       </c>
       <c r="H308" t="s">
-        <v>1198</v>
+        <v>800</v>
       </c>
       <c r="I308" t="s">
-        <v>1196</v>
+        <v>801</v>
       </c>
       <c r="J308" t="s">
-        <v>1197</v>
+        <v>802</v>
       </c>
       <c r="K308" t="s">
-        <v>157</v>
-      </c>
-      <c r="L308" t="s">
-        <v>804</v>
-      </c>
-      <c r="M308" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="F309" t="s">
+        <v>821</v>
+      </c>
+      <c r="G309" t="s">
+        <v>240</v>
+      </c>
+      <c r="H309">
+        <v>5</v>
+      </c>
+      <c r="I309" t="s">
+        <v>157</v>
+      </c>
+      <c r="J309" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>47</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C310" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310">
-        <v>5</v>
-      </c>
       <c r="E310" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F310" t="s">
+        <v>823</v>
+      </c>
+      <c r="G310" t="s">
+        <v>240</v>
+      </c>
+      <c r="H310">
+        <v>3</v>
+      </c>
+      <c r="I310" t="s">
+        <v>157</v>
+      </c>
+      <c r="J310" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="F311" t="s">
-        <v>141</v>
+        <v>1435</v>
       </c>
       <c r="G311" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H311" t="s">
-        <v>800</v>
+        <v>1392</v>
       </c>
       <c r="I311" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J311" t="s">
-        <v>802</v>
-      </c>
-      <c r="K311" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>1194</v>
+        <v>795</v>
       </c>
       <c r="F312" t="s">
-        <v>1198</v>
+        <v>1433</v>
       </c>
       <c r="G312" t="s">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="H312" t="s">
-        <v>1198</v>
+        <v>804</v>
       </c>
       <c r="I312" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J312" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K312" t="s">
-        <v>157</v>
-      </c>
-      <c r="L312" t="s">
-        <v>804</v>
-      </c>
-      <c r="M312" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>138</v>
+        <v>825</v>
+      </c>
+      <c r="F313" t="s">
+        <v>802</v>
+      </c>
+      <c r="G313" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>48</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C314" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314">
-        <v>5</v>
-      </c>
       <c r="E314" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G314" t="s">
+        <v>157</v>
+      </c>
+      <c r="H314" t="s">
+        <v>804</v>
+      </c>
+      <c r="I314" t="s">
+        <v>804</v>
+      </c>
+      <c r="J314" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>139</v>
-      </c>
-      <c r="F315" t="s">
-        <v>141</v>
-      </c>
-      <c r="G315" t="s">
-        <v>142</v>
-      </c>
-      <c r="H315" t="s">
-        <v>800</v>
-      </c>
-      <c r="I315" t="s">
-        <v>801</v>
-      </c>
-      <c r="J315" t="s">
-        <v>802</v>
-      </c>
-      <c r="K315" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>46</v>
+      </c>
+      <c r="B316" t="s">
+        <v>22</v>
+      </c>
+      <c r="C316" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316">
+        <v>5</v>
+      </c>
       <c r="E316" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F316" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G316" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I316" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J316" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K316" t="s">
-        <v>157</v>
-      </c>
-      <c r="L316" t="s">
-        <v>804</v>
-      </c>
-      <c r="M316" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F317" t="s">
+        <v>141</v>
+      </c>
+      <c r="G317" t="s">
+        <v>142</v>
+      </c>
+      <c r="H317" t="s">
+        <v>800</v>
+      </c>
+      <c r="I317" t="s">
+        <v>801</v>
+      </c>
+      <c r="J317" t="s">
+        <v>802</v>
+      </c>
+      <c r="K317" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>49</v>
-      </c>
-      <c r="B318" t="s">
-        <v>23</v>
-      </c>
-      <c r="C318" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318">
-        <v>6</v>
-      </c>
       <c r="E318" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F318" t="s">
+        <v>821</v>
+      </c>
+      <c r="G318" t="s">
+        <v>240</v>
+      </c>
+      <c r="H318">
+        <v>5</v>
+      </c>
+      <c r="I318" t="s">
+        <v>157</v>
+      </c>
+      <c r="J318" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F319" t="s">
-        <v>141</v>
+        <v>823</v>
       </c>
       <c r="G319" t="s">
-        <v>142</v>
-      </c>
-      <c r="H319" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H319">
+        <v>3</v>
       </c>
       <c r="I319" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J319" t="s">
-        <v>802</v>
-      </c>
-      <c r="K319" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>1194</v>
+        <v>280</v>
       </c>
       <c r="F320" t="s">
-        <v>1198</v>
+        <v>1435</v>
       </c>
       <c r="G320" t="s">
-        <v>1195</v>
+        <v>820</v>
       </c>
       <c r="H320" t="s">
-        <v>1198</v>
+        <v>1392</v>
       </c>
       <c r="I320" t="s">
-        <v>1196</v>
+        <v>802</v>
       </c>
       <c r="J320" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K320" t="s">
-        <v>157</v>
-      </c>
-      <c r="L320" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>795</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G321" t="s">
+        <v>157</v>
+      </c>
+      <c r="H321" t="s">
         <v>804</v>
       </c>
-      <c r="M320" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E321" t="s">
+      <c r="I321" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>825</v>
+      </c>
+      <c r="F322" t="s">
+        <v>802</v>
+      </c>
+      <c r="G322" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>795</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G323" t="s">
+        <v>157</v>
+      </c>
+      <c r="H323" t="s">
+        <v>804</v>
+      </c>
+      <c r="I323" t="s">
+        <v>804</v>
+      </c>
+      <c r="J323" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>50</v>
-      </c>
-      <c r="B322" t="s">
-        <v>23</v>
-      </c>
-      <c r="C322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D322">
-        <v>6</v>
-      </c>
-      <c r="E322" t="s">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>47</v>
+      </c>
+      <c r="B325" t="s">
+        <v>22</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E323" t="s">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
         <v>139</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F326" t="s">
         <v>141</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G326" t="s">
         <v>142</v>
       </c>
-      <c r="H323" t="s">
+      <c r="H326" t="s">
         <v>800</v>
       </c>
-      <c r="I323" t="s">
+      <c r="I326" t="s">
         <v>801</v>
       </c>
-      <c r="J323" t="s">
+      <c r="J326" t="s">
         <v>802</v>
       </c>
-      <c r="K323" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E324" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F324" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G324" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H324" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J324" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K324" t="s">
-        <v>157</v>
-      </c>
-      <c r="L324" t="s">
+      <c r="K326" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>191</v>
+      </c>
+      <c r="F327" t="s">
+        <v>821</v>
+      </c>
+      <c r="G327" t="s">
+        <v>240</v>
+      </c>
+      <c r="H327">
+        <v>5</v>
+      </c>
+      <c r="I327" t="s">
+        <v>157</v>
+      </c>
+      <c r="J327" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>191</v>
+      </c>
+      <c r="F328" t="s">
+        <v>823</v>
+      </c>
+      <c r="G328" t="s">
+        <v>240</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+      <c r="I328" t="s">
+        <v>157</v>
+      </c>
+      <c r="J328" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>191</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G329" t="s">
+        <v>240</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329" t="s">
+        <v>157</v>
+      </c>
+      <c r="J329" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>280</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G330" t="s">
+        <v>158</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I330" t="s">
+        <v>802</v>
+      </c>
+      <c r="J330" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>795</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G331" t="s">
+        <v>157</v>
+      </c>
+      <c r="H331" t="s">
         <v>804</v>
       </c>
-      <c r="M324" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E325" t="s">
+      <c r="I331" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G332" t="s">
+        <v>158</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I332" t="s">
+        <v>802</v>
+      </c>
+      <c r="J332" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>795</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G333" t="s">
+        <v>157</v>
+      </c>
+      <c r="H333" t="s">
+        <v>804</v>
+      </c>
+      <c r="I333" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>825</v>
+      </c>
+      <c r="F334" t="s">
+        <v>802</v>
+      </c>
+      <c r="G334" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>795</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G335" t="s">
+        <v>157</v>
+      </c>
+      <c r="H335" t="s">
+        <v>804</v>
+      </c>
+      <c r="I335" t="s">
+        <v>804</v>
+      </c>
+      <c r="J335" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>51</v>
-      </c>
-      <c r="B326" t="s">
-        <v>23</v>
-      </c>
-      <c r="C326" t="s">
-        <v>6</v>
-      </c>
-      <c r="D326">
-        <v>6</v>
-      </c>
-      <c r="E326" t="s">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>48</v>
+      </c>
+      <c r="B337" t="s">
+        <v>22</v>
+      </c>
+      <c r="C337" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337">
+        <v>5</v>
+      </c>
+      <c r="E337" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E327" t="s">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
         <v>139</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F338" t="s">
         <v>141</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G338" t="s">
         <v>142</v>
       </c>
-      <c r="H327" t="s">
+      <c r="H338" t="s">
         <v>800</v>
       </c>
-      <c r="I327" t="s">
+      <c r="I338" t="s">
         <v>801</v>
       </c>
-      <c r="J327" t="s">
+      <c r="J338" t="s">
         <v>802</v>
       </c>
-      <c r="K327" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E328" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F328" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G328" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H328" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J328" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K328" t="s">
-        <v>157</v>
-      </c>
-      <c r="L328" t="s">
-        <v>804</v>
-      </c>
-      <c r="M328" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E329" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>52</v>
-      </c>
-      <c r="B330" t="s">
-        <v>23</v>
-      </c>
-      <c r="C330" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330">
-        <v>6</v>
-      </c>
-      <c r="E330" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E331" t="s">
-        <v>139</v>
-      </c>
-      <c r="F331" t="s">
-        <v>141</v>
-      </c>
-      <c r="G331" t="s">
-        <v>142</v>
-      </c>
-      <c r="H331" t="s">
-        <v>800</v>
-      </c>
-      <c r="I331" t="s">
-        <v>801</v>
-      </c>
-      <c r="J331" t="s">
-        <v>802</v>
-      </c>
-      <c r="K331" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E332" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F332" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G332" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I332" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J332" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K332" t="s">
-        <v>157</v>
-      </c>
-      <c r="L332" t="s">
-        <v>804</v>
-      </c>
-      <c r="M332" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E333" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>53</v>
-      </c>
-      <c r="B334" t="s">
-        <v>23</v>
-      </c>
-      <c r="C334" t="s">
-        <v>7</v>
-      </c>
-      <c r="D334">
-        <v>6</v>
-      </c>
-      <c r="E334" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E335" t="s">
-        <v>139</v>
-      </c>
-      <c r="F335" t="s">
-        <v>141</v>
-      </c>
-      <c r="G335" t="s">
-        <v>142</v>
-      </c>
-      <c r="H335" t="s">
-        <v>800</v>
-      </c>
-      <c r="I335" t="s">
-        <v>801</v>
-      </c>
-      <c r="J335" t="s">
-        <v>802</v>
-      </c>
-      <c r="K335" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E336" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F336" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G336" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H336" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J336" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K336" t="s">
-        <v>157</v>
-      </c>
-      <c r="L336" t="s">
-        <v>804</v>
-      </c>
-      <c r="M336" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E337" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>54</v>
-      </c>
-      <c r="B338" t="s">
-        <v>23</v>
-      </c>
-      <c r="C338" t="s">
-        <v>7</v>
-      </c>
-      <c r="D338">
-        <v>6</v>
-      </c>
-      <c r="E338" t="s">
-        <v>137</v>
+      <c r="K338" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F339" t="s">
-        <v>141</v>
+        <v>821</v>
       </c>
       <c r="G339" t="s">
-        <v>142</v>
-      </c>
-      <c r="H339" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H339">
+        <v>5</v>
       </c>
       <c r="I339" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J339" t="s">
-        <v>802</v>
-      </c>
-      <c r="K339" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>1194</v>
+        <v>191</v>
       </c>
       <c r="F340" t="s">
-        <v>1198</v>
+        <v>823</v>
       </c>
       <c r="G340" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H340" t="s">
-        <v>1198</v>
+        <v>240</v>
+      </c>
+      <c r="H340">
+        <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>1196</v>
+        <v>157</v>
       </c>
       <c r="J340" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K340" t="s">
-        <v>157</v>
-      </c>
-      <c r="L340" t="s">
-        <v>804</v>
-      </c>
-      <c r="M340" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>138</v>
+        <v>191</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G341" t="s">
+        <v>240</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
+        <v>157</v>
+      </c>
+      <c r="J341" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>55</v>
-      </c>
-      <c r="B342" t="s">
-        <v>23</v>
-      </c>
-      <c r="C342" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342">
-        <v>6</v>
-      </c>
       <c r="E342" t="s">
-        <v>137</v>
+        <v>280</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G342" t="s">
+        <v>158</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I342" t="s">
+        <v>802</v>
+      </c>
+      <c r="J342" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F343" t="s">
-        <v>141</v>
+        <v>1433</v>
       </c>
       <c r="G343" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H343" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I343" t="s">
-        <v>801</v>
-      </c>
-      <c r="J343" t="s">
-        <v>802</v>
-      </c>
-      <c r="K343" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>1194</v>
+        <v>1436</v>
       </c>
       <c r="F344" t="s">
-        <v>1198</v>
+        <v>1438</v>
       </c>
       <c r="G344" t="s">
-        <v>1195</v>
+        <v>820</v>
       </c>
       <c r="H344" t="s">
-        <v>1198</v>
+        <v>1392</v>
       </c>
       <c r="I344" t="s">
-        <v>1196</v>
+        <v>802</v>
       </c>
       <c r="J344" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K344" t="s">
-        <v>157</v>
-      </c>
-      <c r="L344" t="s">
-        <v>804</v>
-      </c>
-      <c r="M344" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>138</v>
+        <v>795</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G345" t="s">
+        <v>157</v>
+      </c>
+      <c r="H345" t="s">
+        <v>804</v>
+      </c>
+      <c r="I345" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>56</v>
-      </c>
-      <c r="B346" t="s">
-        <v>23</v>
-      </c>
-      <c r="C346" t="s">
-        <v>8</v>
-      </c>
-      <c r="D346">
-        <v>6</v>
-      </c>
       <c r="E346" t="s">
-        <v>137</v>
+        <v>825</v>
+      </c>
+      <c r="F346" t="s">
+        <v>802</v>
+      </c>
+      <c r="G346" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F347" t="s">
-        <v>141</v>
+        <v>1440</v>
       </c>
       <c r="G347" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H347" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I347" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J347" t="s">
-        <v>802</v>
-      </c>
-      <c r="K347" t="s">
+        <v>797</v>
+      </c>
+      <c r="M347" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F348" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G348" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H348" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J348" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K348" t="s">
-        <v>157</v>
-      </c>
-      <c r="L348" t="s">
-        <v>804</v>
-      </c>
-      <c r="M348" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>49</v>
+      </c>
+      <c r="B349" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349">
+        <v>5</v>
+      </c>
       <c r="E349" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>57</v>
-      </c>
-      <c r="B350" t="s">
-        <v>23</v>
-      </c>
-      <c r="C350" t="s">
-        <v>8</v>
-      </c>
-      <c r="D350">
-        <v>6</v>
-      </c>
       <c r="E350" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="F350" t="s">
+        <v>141</v>
+      </c>
+      <c r="G350" t="s">
+        <v>142</v>
+      </c>
+      <c r="H350" t="s">
+        <v>800</v>
+      </c>
+      <c r="I350" t="s">
+        <v>801</v>
+      </c>
+      <c r="J350" t="s">
+        <v>802</v>
+      </c>
+      <c r="K350" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="F351" t="s">
-        <v>141</v>
+        <v>1441</v>
       </c>
       <c r="G351" t="s">
-        <v>142</v>
-      </c>
-      <c r="H351" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>1366</v>
       </c>
       <c r="I351" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J351" t="s">
-        <v>802</v>
-      </c>
-      <c r="K351" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>1194</v>
+        <v>285</v>
       </c>
       <c r="F352" t="s">
-        <v>1198</v>
+        <v>1442</v>
       </c>
       <c r="G352" t="s">
-        <v>1195</v>
+        <v>802</v>
       </c>
       <c r="H352" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I352" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J352" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K352" t="s">
-        <v>157</v>
-      </c>
-      <c r="L352" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H353" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>795</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G354" t="s">
+        <v>157</v>
+      </c>
+      <c r="H354" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>271</v>
+      </c>
+      <c r="F355" t="s">
+        <v>157</v>
+      </c>
+      <c r="G355" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>272</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G356" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>795</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G357" t="s">
+        <v>157</v>
+      </c>
+      <c r="H357" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E358" t="s">
+        <v>271</v>
+      </c>
+      <c r="F358" t="s">
+        <v>157</v>
+      </c>
+      <c r="G358" t="s">
         <v>804</v>
       </c>
-      <c r="M352" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E353" t="s">
+      <c r="H358" t="s">
+        <v>804</v>
+      </c>
+      <c r="I358" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>50</v>
+      </c>
+      <c r="B360" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>139</v>
+      </c>
+      <c r="F361" t="s">
+        <v>141</v>
+      </c>
+      <c r="G361" t="s">
+        <v>142</v>
+      </c>
+      <c r="H361" t="s">
+        <v>800</v>
+      </c>
+      <c r="I361" t="s">
+        <v>801</v>
+      </c>
+      <c r="J361" t="s">
+        <v>802</v>
+      </c>
+      <c r="K361" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>192</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G362" t="s">
+        <v>240</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I362" t="s">
+        <v>157</v>
+      </c>
+      <c r="J362" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>285</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G363" t="s">
+        <v>802</v>
+      </c>
+      <c r="H363" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H364" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>795</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G365" t="s">
+        <v>157</v>
+      </c>
+      <c r="H365" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>271</v>
+      </c>
+      <c r="F366" t="s">
+        <v>157</v>
+      </c>
+      <c r="G366" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>272</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G367" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>795</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G368" t="s">
+        <v>157</v>
+      </c>
+      <c r="H368" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>271</v>
+      </c>
+      <c r="F369" t="s">
+        <v>157</v>
+      </c>
+      <c r="G369" t="s">
+        <v>804</v>
+      </c>
+      <c r="H369" t="s">
+        <v>804</v>
+      </c>
+      <c r="I369" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>51</v>
+      </c>
+      <c r="B371" t="s">
+        <v>22</v>
+      </c>
+      <c r="C371" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371">
+        <v>5</v>
+      </c>
+      <c r="E371" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>139</v>
+      </c>
+      <c r="F372" t="s">
+        <v>141</v>
+      </c>
+      <c r="G372" t="s">
+        <v>142</v>
+      </c>
+      <c r="H372" t="s">
+        <v>800</v>
+      </c>
+      <c r="I372" t="s">
+        <v>801</v>
+      </c>
+      <c r="J372" t="s">
+        <v>802</v>
+      </c>
+      <c r="K372" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>143</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G373" t="s">
+        <v>240</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I373" t="s">
+        <v>157</v>
+      </c>
+      <c r="J373" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>285</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G374" t="s">
+        <v>802</v>
+      </c>
+      <c r="H374" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H375" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>795</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G376" t="s">
+        <v>157</v>
+      </c>
+      <c r="H376" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>271</v>
+      </c>
+      <c r="F377" t="s">
+        <v>157</v>
+      </c>
+      <c r="G377" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E378" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H378" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>795</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G379" t="s">
+        <v>157</v>
+      </c>
+      <c r="H379" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>271</v>
+      </c>
+      <c r="F380" t="s">
+        <v>157</v>
+      </c>
+      <c r="G380" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>272</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G381" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>795</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G382" t="s">
+        <v>157</v>
+      </c>
+      <c r="H382" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>271</v>
+      </c>
+      <c r="F383" t="s">
+        <v>157</v>
+      </c>
+      <c r="G383" t="s">
+        <v>804</v>
+      </c>
+      <c r="H383" t="s">
+        <v>804</v>
+      </c>
+      <c r="I383" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E384" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>52</v>
+      </c>
+      <c r="B385" t="s">
+        <v>22</v>
+      </c>
+      <c r="C385" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385">
+        <v>5</v>
+      </c>
+      <c r="E385" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>139</v>
+      </c>
+      <c r="F386" t="s">
+        <v>141</v>
+      </c>
+      <c r="G386" t="s">
+        <v>142</v>
+      </c>
+      <c r="H386" t="s">
+        <v>800</v>
+      </c>
+      <c r="I386" t="s">
+        <v>801</v>
+      </c>
+      <c r="J386" t="s">
+        <v>802</v>
+      </c>
+      <c r="K386" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>143</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G387" t="s">
+        <v>240</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I387" t="s">
+        <v>157</v>
+      </c>
+      <c r="J387" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E388" t="s">
+        <v>285</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G388" t="s">
+        <v>802</v>
+      </c>
+      <c r="H388" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G389" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H389" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>795</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G390" t="s">
+        <v>157</v>
+      </c>
+      <c r="H390" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>271</v>
+      </c>
+      <c r="F391" t="s">
+        <v>157</v>
+      </c>
+      <c r="G391" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G392" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H392" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>795</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G393" t="s">
+        <v>157</v>
+      </c>
+      <c r="H393" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>271</v>
+      </c>
+      <c r="F394" t="s">
+        <v>157</v>
+      </c>
+      <c r="G394" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>272</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G395" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E396" t="s">
+        <v>795</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G396" t="s">
+        <v>157</v>
+      </c>
+      <c r="H396" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>271</v>
+      </c>
+      <c r="F397" t="s">
+        <v>157</v>
+      </c>
+      <c r="G397" t="s">
+        <v>804</v>
+      </c>
+      <c r="H397" t="s">
+        <v>804</v>
+      </c>
+      <c r="I397" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E398" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>53</v>
+      </c>
+      <c r="B399" t="s">
+        <v>22</v>
+      </c>
+      <c r="C399" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399">
+        <v>5</v>
+      </c>
+      <c r="E399" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>139</v>
+      </c>
+      <c r="F400" t="s">
+        <v>141</v>
+      </c>
+      <c r="G400" t="s">
+        <v>142</v>
+      </c>
+      <c r="H400" t="s">
+        <v>800</v>
+      </c>
+      <c r="I400" t="s">
+        <v>801</v>
+      </c>
+      <c r="J400" t="s">
+        <v>802</v>
+      </c>
+      <c r="K400" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>143</v>
+      </c>
+      <c r="F401" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G401" t="s">
+        <v>240</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I401" t="s">
+        <v>157</v>
+      </c>
+      <c r="J401" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>285</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G402" t="s">
+        <v>802</v>
+      </c>
+      <c r="H402" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G403" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H403" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E404" t="s">
+        <v>795</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G404" t="s">
+        <v>157</v>
+      </c>
+      <c r="H404" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>271</v>
+      </c>
+      <c r="F405" t="s">
+        <v>157</v>
+      </c>
+      <c r="G405" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E406" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G406" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H406" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>795</v>
+      </c>
+      <c r="F407" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G407" t="s">
+        <v>157</v>
+      </c>
+      <c r="H407" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E408" t="s">
+        <v>271</v>
+      </c>
+      <c r="F408" t="s">
+        <v>157</v>
+      </c>
+      <c r="G408" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>272</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G409" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E410" t="s">
+        <v>795</v>
+      </c>
+      <c r="F410" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G410" t="s">
+        <v>157</v>
+      </c>
+      <c r="H410" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>271</v>
+      </c>
+      <c r="F411" t="s">
+        <v>157</v>
+      </c>
+      <c r="G411" t="s">
+        <v>804</v>
+      </c>
+      <c r="H411" t="s">
+        <v>804</v>
+      </c>
+      <c r="I411" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E412" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>54</v>
+      </c>
+      <c r="B413" t="s">
+        <v>22</v>
+      </c>
+      <c r="C413" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413">
+        <v>5</v>
+      </c>
+      <c r="E413" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>139</v>
+      </c>
+      <c r="F414" t="s">
+        <v>141</v>
+      </c>
+      <c r="G414" t="s">
+        <v>142</v>
+      </c>
+      <c r="H414" t="s">
+        <v>800</v>
+      </c>
+      <c r="I414" t="s">
+        <v>801</v>
+      </c>
+      <c r="J414" t="s">
+        <v>802</v>
+      </c>
+      <c r="K414" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>143</v>
+      </c>
+      <c r="F415" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G415" t="s">
+        <v>240</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I415" t="s">
+        <v>157</v>
+      </c>
+      <c r="J415" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E416" t="s">
+        <v>285</v>
+      </c>
+      <c r="F416" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G416" t="s">
+        <v>802</v>
+      </c>
+      <c r="H416" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G417" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H417" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>795</v>
+      </c>
+      <c r="F418" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G418" t="s">
+        <v>157</v>
+      </c>
+      <c r="H418" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>271</v>
+      </c>
+      <c r="F419" t="s">
+        <v>157</v>
+      </c>
+      <c r="G419" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G420" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H420" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>795</v>
+      </c>
+      <c r="F421" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G421" t="s">
+        <v>157</v>
+      </c>
+      <c r="H421" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>271</v>
+      </c>
+      <c r="F422" t="s">
+        <v>157</v>
+      </c>
+      <c r="G422" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>272</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G423" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E424" t="s">
+        <v>795</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G424" t="s">
+        <v>157</v>
+      </c>
+      <c r="H424" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>271</v>
+      </c>
+      <c r="F425" t="s">
+        <v>157</v>
+      </c>
+      <c r="G425" t="s">
+        <v>804</v>
+      </c>
+      <c r="H425" t="s">
+        <v>804</v>
+      </c>
+      <c r="I425" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E426" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>55</v>
+      </c>
+      <c r="B427" t="s">
+        <v>23</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427">
+        <v>6</v>
+      </c>
+      <c r="E427" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E428" t="s">
+        <v>139</v>
+      </c>
+      <c r="F428" t="s">
+        <v>141</v>
+      </c>
+      <c r="G428" t="s">
+        <v>142</v>
+      </c>
+      <c r="H428" t="s">
+        <v>800</v>
+      </c>
+      <c r="I428" t="s">
+        <v>801</v>
+      </c>
+      <c r="J428" t="s">
+        <v>802</v>
+      </c>
+      <c r="K428" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
+        <v>286</v>
+      </c>
+      <c r="F429" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G429" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H429" t="s">
+        <v>157</v>
+      </c>
+      <c r="I429" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J429" t="s">
+        <v>157</v>
+      </c>
+      <c r="K429" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L429" t="s">
+        <v>802</v>
+      </c>
+      <c r="M429" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E430" t="s">
+        <v>795</v>
+      </c>
+      <c r="F430" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G430" t="s">
+        <v>157</v>
+      </c>
+      <c r="H430" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E431" t="s">
+        <v>804</v>
+      </c>
+      <c r="F431" t="s">
+        <v>804</v>
+      </c>
+      <c r="G431" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E432" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>56</v>
+      </c>
+      <c r="B433" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433">
+        <v>6</v>
+      </c>
+      <c r="E433" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E434" t="s">
+        <v>139</v>
+      </c>
+      <c r="F434" t="s">
+        <v>141</v>
+      </c>
+      <c r="G434" t="s">
+        <v>142</v>
+      </c>
+      <c r="H434" t="s">
+        <v>800</v>
+      </c>
+      <c r="I434" t="s">
+        <v>801</v>
+      </c>
+      <c r="J434" t="s">
+        <v>802</v>
+      </c>
+      <c r="K434" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>191</v>
+      </c>
+      <c r="F435" t="s">
+        <v>844</v>
+      </c>
+      <c r="G435" t="s">
+        <v>240</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435" t="s">
+        <v>157</v>
+      </c>
+      <c r="J435" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E436" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G436" t="s">
+        <v>802</v>
+      </c>
+      <c r="H436" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>795</v>
+      </c>
+      <c r="F437" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G437" t="s">
+        <v>157</v>
+      </c>
+      <c r="H437" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>877</v>
+      </c>
+      <c r="F438" t="s">
+        <v>157</v>
+      </c>
+      <c r="G438" t="s">
+        <v>804</v>
+      </c>
+      <c r="H438" t="s">
+        <v>804</v>
+      </c>
+      <c r="I438" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E439" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>57</v>
+      </c>
+      <c r="B440" t="s">
+        <v>23</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440">
+        <v>6</v>
+      </c>
+      <c r="E440" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>139</v>
+      </c>
+      <c r="F441" t="s">
+        <v>141</v>
+      </c>
+      <c r="G441" t="s">
+        <v>142</v>
+      </c>
+      <c r="H441" t="s">
+        <v>800</v>
+      </c>
+      <c r="I441" t="s">
+        <v>801</v>
+      </c>
+      <c r="J441" t="s">
+        <v>802</v>
+      </c>
+      <c r="K441" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>191</v>
+      </c>
+      <c r="F442" t="s">
+        <v>844</v>
+      </c>
+      <c r="G442" t="s">
+        <v>240</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442" t="s">
+        <v>157</v>
+      </c>
+      <c r="J442" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F443" t="s">
+        <v>802</v>
+      </c>
+      <c r="G443" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>795</v>
+      </c>
+      <c r="F444" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G444" t="s">
+        <v>157</v>
+      </c>
+      <c r="H444" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>877</v>
+      </c>
+      <c r="F445" t="s">
+        <v>157</v>
+      </c>
+      <c r="G445" t="s">
+        <v>804</v>
+      </c>
+      <c r="H445" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E446" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F446" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G446" t="s">
+        <v>157</v>
+      </c>
+      <c r="H446" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>804</v>
+      </c>
+      <c r="F447" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E448" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449">
         <v>58</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B449" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449">
+        <v>6</v>
+      </c>
+      <c r="E449" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>139</v>
+      </c>
+      <c r="F450" t="s">
+        <v>141</v>
+      </c>
+      <c r="G450" t="s">
+        <v>142</v>
+      </c>
+      <c r="H450" t="s">
+        <v>800</v>
+      </c>
+      <c r="I450" t="s">
+        <v>801</v>
+      </c>
+      <c r="J450" t="s">
+        <v>802</v>
+      </c>
+      <c r="K450" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>286</v>
+      </c>
+      <c r="F451" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G451" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H451" t="s">
+        <v>157</v>
+      </c>
+      <c r="I451" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J451" t="s">
+        <v>157</v>
+      </c>
+      <c r="K451" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L451" t="s">
+        <v>802</v>
+      </c>
+      <c r="M451" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>795</v>
+      </c>
+      <c r="F452" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G452" t="s">
+        <v>157</v>
+      </c>
+      <c r="H452" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>795</v>
+      </c>
+      <c r="F453" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G453" t="s">
+        <v>157</v>
+      </c>
+      <c r="H453" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E454" t="s">
+        <v>804</v>
+      </c>
+      <c r="F454" t="s">
+        <v>804</v>
+      </c>
+      <c r="G454" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>59</v>
+      </c>
+      <c r="B456" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456">
+        <v>6</v>
+      </c>
+      <c r="E456" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>139</v>
+      </c>
+      <c r="F457" t="s">
+        <v>141</v>
+      </c>
+      <c r="G457" t="s">
+        <v>142</v>
+      </c>
+      <c r="H457" t="s">
+        <v>800</v>
+      </c>
+      <c r="I457" t="s">
+        <v>801</v>
+      </c>
+      <c r="J457" t="s">
+        <v>802</v>
+      </c>
+      <c r="K457" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E458" t="s">
+        <v>191</v>
+      </c>
+      <c r="F458" t="s">
+        <v>844</v>
+      </c>
+      <c r="G458" t="s">
+        <v>240</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+      <c r="I458" t="s">
+        <v>157</v>
+      </c>
+      <c r="J458" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F459" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G459" t="s">
+        <v>802</v>
+      </c>
+      <c r="H459" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>795</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G460" t="s">
+        <v>157</v>
+      </c>
+      <c r="H460" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>795</v>
+      </c>
+      <c r="F461" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G461" t="s">
+        <v>157</v>
+      </c>
+      <c r="H461" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E462" t="s">
+        <v>877</v>
+      </c>
+      <c r="F462" t="s">
+        <v>157</v>
+      </c>
+      <c r="G462" t="s">
+        <v>804</v>
+      </c>
+      <c r="H462" t="s">
+        <v>804</v>
+      </c>
+      <c r="I462" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>60</v>
+      </c>
+      <c r="B464" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>6</v>
+      </c>
+      <c r="E464" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E465" t="s">
+        <v>139</v>
+      </c>
+      <c r="F465" t="s">
+        <v>141</v>
+      </c>
+      <c r="G465" t="s">
+        <v>142</v>
+      </c>
+      <c r="H465" t="s">
+        <v>800</v>
+      </c>
+      <c r="I465" t="s">
+        <v>801</v>
+      </c>
+      <c r="J465" t="s">
+        <v>802</v>
+      </c>
+      <c r="K465" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E466" t="s">
+        <v>191</v>
+      </c>
+      <c r="F466" t="s">
+        <v>844</v>
+      </c>
+      <c r="G466" t="s">
+        <v>240</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466" t="s">
+        <v>157</v>
+      </c>
+      <c r="J466" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E467" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F467" t="s">
+        <v>802</v>
+      </c>
+      <c r="G467" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E468" t="s">
+        <v>795</v>
+      </c>
+      <c r="F468" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G468" t="s">
+        <v>157</v>
+      </c>
+      <c r="H468" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E469" t="s">
+        <v>795</v>
+      </c>
+      <c r="F469" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G469" t="s">
+        <v>157</v>
+      </c>
+      <c r="H469" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E470" t="s">
+        <v>877</v>
+      </c>
+      <c r="F470" t="s">
+        <v>157</v>
+      </c>
+      <c r="G470" t="s">
+        <v>804</v>
+      </c>
+      <c r="H470" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E471" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G471" t="s">
+        <v>157</v>
+      </c>
+      <c r="H471" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E472" t="s">
+        <v>804</v>
+      </c>
+      <c r="F472" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E473" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>61</v>
+      </c>
+      <c r="B474" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" t="s">
+        <v>8</v>
+      </c>
+      <c r="D474">
+        <v>6</v>
+      </c>
+      <c r="E474" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E475" t="s">
+        <v>139</v>
+      </c>
+      <c r="F475" t="s">
+        <v>141</v>
+      </c>
+      <c r="G475" t="s">
+        <v>142</v>
+      </c>
+      <c r="H475" t="s">
+        <v>800</v>
+      </c>
+      <c r="I475" t="s">
+        <v>801</v>
+      </c>
+      <c r="J475" t="s">
+        <v>802</v>
+      </c>
+      <c r="K475" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E476" t="s">
+        <v>286</v>
+      </c>
+      <c r="F476" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G476" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H476" t="s">
+        <v>157</v>
+      </c>
+      <c r="I476" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J476" t="s">
+        <v>157</v>
+      </c>
+      <c r="K476" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L476" t="s">
+        <v>802</v>
+      </c>
+      <c r="M476" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E477" t="s">
+        <v>795</v>
+      </c>
+      <c r="F477" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G477" t="s">
+        <v>157</v>
+      </c>
+      <c r="H477" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E478" t="s">
+        <v>795</v>
+      </c>
+      <c r="F478" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G478" t="s">
+        <v>157</v>
+      </c>
+      <c r="H478" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E479" t="s">
+        <v>280</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G479" t="s">
+        <v>802</v>
+      </c>
+      <c r="H479" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E480" t="s">
+        <v>271</v>
+      </c>
+      <c r="F480" t="s">
+        <v>157</v>
+      </c>
+      <c r="G480" t="s">
+        <v>804</v>
+      </c>
+      <c r="H480" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>804</v>
+      </c>
+      <c r="F481" t="s">
+        <v>804</v>
+      </c>
+      <c r="G481" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E482" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>62</v>
+      </c>
+      <c r="B483" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" t="s">
+        <v>8</v>
+      </c>
+      <c r="D483">
+        <v>6</v>
+      </c>
+      <c r="E483" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E484" t="s">
+        <v>139</v>
+      </c>
+      <c r="F484" t="s">
+        <v>141</v>
+      </c>
+      <c r="G484" t="s">
+        <v>142</v>
+      </c>
+      <c r="H484" t="s">
+        <v>800</v>
+      </c>
+      <c r="I484" t="s">
+        <v>801</v>
+      </c>
+      <c r="J484" t="s">
+        <v>802</v>
+      </c>
+      <c r="K484" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E485" t="s">
+        <v>191</v>
+      </c>
+      <c r="F485" t="s">
+        <v>844</v>
+      </c>
+      <c r="G485" t="s">
+        <v>240</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485" t="s">
+        <v>157</v>
+      </c>
+      <c r="J485" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G486" t="s">
+        <v>802</v>
+      </c>
+      <c r="H486" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E487" t="s">
+        <v>795</v>
+      </c>
+      <c r="F487" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G487" t="s">
+        <v>157</v>
+      </c>
+      <c r="H487" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E488" t="s">
+        <v>795</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G488" t="s">
+        <v>157</v>
+      </c>
+      <c r="H488" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E489" t="s">
+        <v>280</v>
+      </c>
+      <c r="F489" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G489" t="s">
+        <v>802</v>
+      </c>
+      <c r="H489" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E490" t="s">
+        <v>271</v>
+      </c>
+      <c r="F490" t="s">
+        <v>157</v>
+      </c>
+      <c r="G490" t="s">
+        <v>804</v>
+      </c>
+      <c r="H490" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E491" t="s">
+        <v>877</v>
+      </c>
+      <c r="F491" t="s">
+        <v>157</v>
+      </c>
+      <c r="G491" t="s">
+        <v>804</v>
+      </c>
+      <c r="H491" t="s">
+        <v>804</v>
+      </c>
+      <c r="I491" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E492" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>63</v>
+      </c>
+      <c r="B493" t="s">
+        <v>23</v>
+      </c>
+      <c r="C493" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493">
+        <v>6</v>
+      </c>
+      <c r="E493" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E494" t="s">
+        <v>139</v>
+      </c>
+      <c r="F494" t="s">
+        <v>141</v>
+      </c>
+      <c r="G494" t="s">
+        <v>142</v>
+      </c>
+      <c r="H494" t="s">
+        <v>800</v>
+      </c>
+      <c r="I494" t="s">
+        <v>801</v>
+      </c>
+      <c r="J494" t="s">
+        <v>802</v>
+      </c>
+      <c r="K494" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E495" t="s">
+        <v>191</v>
+      </c>
+      <c r="F495" t="s">
+        <v>844</v>
+      </c>
+      <c r="G495" t="s">
+        <v>240</v>
+      </c>
+      <c r="H495">
+        <v>0</v>
+      </c>
+      <c r="I495" t="s">
+        <v>157</v>
+      </c>
+      <c r="J495" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E496" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F496" t="s">
+        <v>802</v>
+      </c>
+      <c r="G496" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E497" t="s">
+        <v>795</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G497" t="s">
+        <v>157</v>
+      </c>
+      <c r="H497" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>795</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G498" t="s">
+        <v>157</v>
+      </c>
+      <c r="H498" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E499" t="s">
+        <v>280</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G499" t="s">
+        <v>802</v>
+      </c>
+      <c r="H499" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E500" t="s">
+        <v>271</v>
+      </c>
+      <c r="F500" t="s">
+        <v>157</v>
+      </c>
+      <c r="G500" t="s">
+        <v>804</v>
+      </c>
+      <c r="H500" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>877</v>
+      </c>
+      <c r="F501" t="s">
+        <v>157</v>
+      </c>
+      <c r="G501" t="s">
+        <v>804</v>
+      </c>
+      <c r="H501" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E502" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F502" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G502" t="s">
+        <v>157</v>
+      </c>
+      <c r="H502" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E503" t="s">
+        <v>804</v>
+      </c>
+      <c r="F503" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E504" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>64</v>
+      </c>
+      <c r="B505" t="s">
         <v>24</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C505" t="s">
         <v>6</v>
       </c>
-      <c r="D354">
+      <c r="D505">
         <v>7</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E505" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E355" t="s">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E506" t="s">
         <v>139</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F506" t="s">
         <v>141</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G506" t="s">
         <v>142</v>
       </c>
-      <c r="H355" t="s">
+      <c r="H506" t="s">
         <v>800</v>
       </c>
-      <c r="I355" t="s">
+      <c r="I506" t="s">
         <v>801</v>
       </c>
-      <c r="J355" t="s">
+      <c r="J506" t="s">
         <v>802</v>
       </c>
-      <c r="K355" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E356" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F356" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G356" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H356" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I356" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J356" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K356" t="s">
-        <v>157</v>
-      </c>
-      <c r="L356" t="s">
+      <c r="K506" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E507" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G507" t="s">
+        <v>240</v>
+      </c>
+      <c r="H507" t="s">
+        <v>802</v>
+      </c>
+      <c r="I507" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J507" t="s">
+        <v>263</v>
+      </c>
+      <c r="K507" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L507" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E508" t="s">
+        <v>263</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G508" t="s">
+        <v>263</v>
+      </c>
+      <c r="H508" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I508" t="s">
         <v>804</v>
       </c>
-      <c r="M356" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E357" t="s">
+      <c r="J508" t="s">
+        <v>157</v>
+      </c>
+      <c r="K508" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E509" t="s">
+        <v>795</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G509" t="s">
+        <v>157</v>
+      </c>
+      <c r="H509" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E510" t="s">
+        <v>795</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G510" t="s">
+        <v>157</v>
+      </c>
+      <c r="H510" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E511" t="s">
+        <v>795</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G511" t="s">
+        <v>157</v>
+      </c>
+      <c r="H511" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E512" t="s">
+        <v>795</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G512" t="s">
+        <v>157</v>
+      </c>
+      <c r="H512" t="s">
+        <v>804</v>
+      </c>
+      <c r="I512" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E513" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>65</v>
+      </c>
+      <c r="B514" t="s">
+        <v>24</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514">
+        <v>7</v>
+      </c>
+      <c r="E514" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E515" t="s">
+        <v>139</v>
+      </c>
+      <c r="F515" t="s">
+        <v>141</v>
+      </c>
+      <c r="G515" t="s">
+        <v>142</v>
+      </c>
+      <c r="H515" t="s">
+        <v>800</v>
+      </c>
+      <c r="I515" t="s">
+        <v>801</v>
+      </c>
+      <c r="J515" t="s">
+        <v>802</v>
+      </c>
+      <c r="K515" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E516" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G516" t="s">
+        <v>240</v>
+      </c>
+      <c r="H516" t="s">
+        <v>802</v>
+      </c>
+      <c r="I516" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J516" t="s">
+        <v>263</v>
+      </c>
+      <c r="K516" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L516" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E517" t="s">
+        <v>263</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G517" t="s">
+        <v>263</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I517" t="s">
+        <v>263</v>
+      </c>
+      <c r="J517" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K517" t="s">
+        <v>804</v>
+      </c>
+      <c r="L517" t="s">
+        <v>157</v>
+      </c>
+      <c r="M517" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E518" t="s">
+        <v>795</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G518" t="s">
+        <v>157</v>
+      </c>
+      <c r="H518" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E519" t="s">
+        <v>795</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G519" t="s">
+        <v>157</v>
+      </c>
+      <c r="H519" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E520" t="s">
+        <v>795</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G520" t="s">
+        <v>157</v>
+      </c>
+      <c r="H520" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E521" t="s">
+        <v>795</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G521" t="s">
+        <v>157</v>
+      </c>
+      <c r="H521" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E522" t="s">
+        <v>795</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G522" t="s">
+        <v>157</v>
+      </c>
+      <c r="H522" t="s">
+        <v>804</v>
+      </c>
+      <c r="I522" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E523" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>66</v>
+      </c>
+      <c r="B524" t="s">
+        <v>24</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524">
+        <v>7</v>
+      </c>
+      <c r="E524" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E525" t="s">
+        <v>139</v>
+      </c>
+      <c r="F525" t="s">
+        <v>141</v>
+      </c>
+      <c r="G525" t="s">
+        <v>142</v>
+      </c>
+      <c r="H525" t="s">
+        <v>800</v>
+      </c>
+      <c r="I525" t="s">
+        <v>801</v>
+      </c>
+      <c r="J525" t="s">
+        <v>802</v>
+      </c>
+      <c r="K525" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E526" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G526" t="s">
+        <v>240</v>
+      </c>
+      <c r="H526" t="s">
+        <v>802</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J526" t="s">
+        <v>263</v>
+      </c>
+      <c r="K526" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L526" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E527" t="s">
+        <v>263</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G527" t="s">
+        <v>263</v>
+      </c>
+      <c r="H527" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I527" t="s">
+        <v>804</v>
+      </c>
+      <c r="J527" t="s">
+        <v>157</v>
+      </c>
+      <c r="K527" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E528" t="s">
+        <v>286</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H528" t="s">
+        <v>157</v>
+      </c>
+      <c r="I528" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K528" t="s">
+        <v>817</v>
+      </c>
+      <c r="L528" t="s">
+        <v>365</v>
+      </c>
+      <c r="M528" t="s">
+        <v>157</v>
+      </c>
+      <c r="N528" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O528" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E529" t="s">
+        <v>802</v>
+      </c>
+      <c r="F529" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E530" t="s">
+        <v>795</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G530" t="s">
+        <v>157</v>
+      </c>
+      <c r="H530" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E531" t="s">
+        <v>804</v>
+      </c>
+      <c r="F531" t="s">
+        <v>804</v>
+      </c>
+      <c r="G531" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E532" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>67</v>
+      </c>
+      <c r="B533" t="s">
+        <v>24</v>
+      </c>
+      <c r="C533" t="s">
+        <v>7</v>
+      </c>
+      <c r="D533">
+        <v>7</v>
+      </c>
+      <c r="E533" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E534" t="s">
+        <v>139</v>
+      </c>
+      <c r="F534" t="s">
+        <v>141</v>
+      </c>
+      <c r="G534" t="s">
+        <v>142</v>
+      </c>
+      <c r="H534" t="s">
+        <v>800</v>
+      </c>
+      <c r="I534" t="s">
+        <v>801</v>
+      </c>
+      <c r="J534" t="s">
+        <v>802</v>
+      </c>
+      <c r="K534" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E535" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G535" t="s">
+        <v>240</v>
+      </c>
+      <c r="H535" t="s">
+        <v>802</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J535" t="s">
+        <v>263</v>
+      </c>
+      <c r="K535" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L535" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E536" t="s">
+        <v>263</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G536" t="s">
+        <v>263</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I536" t="s">
+        <v>263</v>
+      </c>
+      <c r="J536" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K536" t="s">
+        <v>804</v>
+      </c>
+      <c r="L536" t="s">
+        <v>157</v>
+      </c>
+      <c r="M536" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E537" t="s">
+        <v>286</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H537" t="s">
+        <v>157</v>
+      </c>
+      <c r="I537" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J537" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K537" t="s">
+        <v>817</v>
+      </c>
+      <c r="L537" t="s">
+        <v>365</v>
+      </c>
+      <c r="M537" t="s">
+        <v>157</v>
+      </c>
+      <c r="N537" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O537" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E538" t="s">
+        <v>802</v>
+      </c>
+      <c r="F538" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E539" t="s">
+        <v>795</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G539" t="s">
+        <v>157</v>
+      </c>
+      <c r="H539" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E540" t="s">
+        <v>804</v>
+      </c>
+      <c r="F540" t="s">
+        <v>804</v>
+      </c>
+      <c r="G540" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E541" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>68</v>
+      </c>
+      <c r="B542" t="s">
+        <v>24</v>
+      </c>
+      <c r="C542" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542">
+        <v>7</v>
+      </c>
+      <c r="E542" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E543" t="s">
+        <v>139</v>
+      </c>
+      <c r="F543" t="s">
+        <v>141</v>
+      </c>
+      <c r="G543" t="s">
+        <v>142</v>
+      </c>
+      <c r="H543" t="s">
+        <v>800</v>
+      </c>
+      <c r="I543" t="s">
+        <v>801</v>
+      </c>
+      <c r="J543" t="s">
+        <v>802</v>
+      </c>
+      <c r="K543" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E544" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G544" t="s">
+        <v>240</v>
+      </c>
+      <c r="H544" t="s">
+        <v>802</v>
+      </c>
+      <c r="I544" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J544" t="s">
+        <v>263</v>
+      </c>
+      <c r="K544" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L544" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E545" t="s">
+        <v>263</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G545" t="s">
+        <v>263</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I545" t="s">
+        <v>804</v>
+      </c>
+      <c r="J545" t="s">
+        <v>157</v>
+      </c>
+      <c r="K545" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E546" t="s">
+        <v>191</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G546" t="s">
+        <v>240</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J546" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E547" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F547" t="s">
+        <v>796</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H547" t="s">
+        <v>820</v>
+      </c>
+      <c r="I547" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J547" t="s">
+        <v>817</v>
+      </c>
+      <c r="K547" t="s">
+        <v>365</v>
+      </c>
+      <c r="L547" t="s">
+        <v>144</v>
+      </c>
+      <c r="M547" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E548" t="s">
+        <v>802</v>
+      </c>
+      <c r="F548" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E549" t="s">
+        <v>795</v>
+      </c>
+      <c r="F549" t="s">
+        <v>796</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H549" t="s">
+        <v>144</v>
+      </c>
+      <c r="I549" t="s">
+        <v>157</v>
+      </c>
+      <c r="J549" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E550" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F550" t="s">
+        <v>157</v>
+      </c>
+      <c r="G550" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E551" t="s">
+        <v>804</v>
+      </c>
+      <c r="F551" t="s">
+        <v>804</v>
+      </c>
+      <c r="G551" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E552" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>69</v>
+      </c>
+      <c r="B553" t="s">
+        <v>24</v>
+      </c>
+      <c r="C553" t="s">
+        <v>8</v>
+      </c>
+      <c r="D553">
+        <v>7</v>
+      </c>
+      <c r="E553" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E554" t="s">
+        <v>139</v>
+      </c>
+      <c r="F554" t="s">
+        <v>141</v>
+      </c>
+      <c r="G554" t="s">
+        <v>142</v>
+      </c>
+      <c r="H554" t="s">
+        <v>800</v>
+      </c>
+      <c r="I554" t="s">
+        <v>801</v>
+      </c>
+      <c r="J554" t="s">
+        <v>802</v>
+      </c>
+      <c r="K554" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E555" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G555" t="s">
+        <v>240</v>
+      </c>
+      <c r="H555" t="s">
+        <v>802</v>
+      </c>
+      <c r="I555" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J555" t="s">
+        <v>263</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L555" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E556" t="s">
+        <v>263</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G556" t="s">
+        <v>263</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I556" t="s">
+        <v>804</v>
+      </c>
+      <c r="J556" t="s">
+        <v>157</v>
+      </c>
+      <c r="K556" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E557" t="s">
+        <v>191</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G557" t="s">
+        <v>240</v>
+      </c>
+      <c r="H557">
+        <v>0</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J557" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E558" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F558" t="s">
+        <v>796</v>
+      </c>
+      <c r="G558" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H558" t="s">
+        <v>820</v>
+      </c>
+      <c r="I558" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J558" t="s">
+        <v>817</v>
+      </c>
+      <c r="K558" t="s">
+        <v>365</v>
+      </c>
+      <c r="L558" t="s">
+        <v>144</v>
+      </c>
+      <c r="M558" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E559" t="s">
+        <v>802</v>
+      </c>
+      <c r="F559" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E560" t="s">
+        <v>795</v>
+      </c>
+      <c r="F560" t="s">
+        <v>796</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H560" t="s">
+        <v>144</v>
+      </c>
+      <c r="I560" t="s">
+        <v>157</v>
+      </c>
+      <c r="J560" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E561" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F561" t="s">
+        <v>157</v>
+      </c>
+      <c r="G561" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E562" t="s">
+        <v>804</v>
+      </c>
+      <c r="F562" t="s">
+        <v>804</v>
+      </c>
+      <c r="G562" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E563" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>70</v>
+      </c>
+      <c r="B564" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564">
+        <v>8</v>
+      </c>
+      <c r="E564" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E565" t="s">
+        <v>139</v>
+      </c>
+      <c r="F565" t="s">
+        <v>142</v>
+      </c>
+      <c r="G565" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H565" t="s">
+        <v>802</v>
+      </c>
+      <c r="I565" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E566" t="s">
+        <v>795</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G566" t="s">
+        <v>157</v>
+      </c>
+      <c r="H566" t="s">
+        <v>804</v>
+      </c>
+      <c r="I566" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E567" t="s">
+        <v>139</v>
+      </c>
+      <c r="F567" t="s">
+        <v>141</v>
+      </c>
+      <c r="G567" t="s">
+        <v>142</v>
+      </c>
+      <c r="H567" t="s">
+        <v>800</v>
+      </c>
+      <c r="I567" t="s">
+        <v>801</v>
+      </c>
+      <c r="J567" t="s">
+        <v>802</v>
+      </c>
+      <c r="K567" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E568" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F568" t="s">
+        <v>157</v>
+      </c>
+      <c r="G568" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E569" t="s">
+        <v>804</v>
+      </c>
+      <c r="F569" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E570" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>71</v>
+      </c>
+      <c r="B571" t="s">
+        <v>25</v>
+      </c>
+      <c r="C571" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571">
+        <v>8</v>
+      </c>
+      <c r="E571" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E572" t="s">
+        <v>139</v>
+      </c>
+      <c r="F572" t="s">
+        <v>142</v>
+      </c>
+      <c r="G572" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H572" t="s">
+        <v>802</v>
+      </c>
+      <c r="I572" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E573" t="s">
+        <v>795</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G573" t="s">
+        <v>157</v>
+      </c>
+      <c r="H573" t="s">
+        <v>804</v>
+      </c>
+      <c r="I573" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E574" t="s">
+        <v>139</v>
+      </c>
+      <c r="F574" t="s">
+        <v>141</v>
+      </c>
+      <c r="G574" t="s">
+        <v>142</v>
+      </c>
+      <c r="H574" t="s">
+        <v>800</v>
+      </c>
+      <c r="I574" t="s">
+        <v>801</v>
+      </c>
+      <c r="J574" t="s">
+        <v>802</v>
+      </c>
+      <c r="K574" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E575" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F575" t="s">
+        <v>157</v>
+      </c>
+      <c r="G575" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E576" t="s">
+        <v>804</v>
+      </c>
+      <c r="F576" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E577" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>72</v>
+      </c>
+      <c r="B578" t="s">
+        <v>25</v>
+      </c>
+      <c r="C578" t="s">
+        <v>7</v>
+      </c>
+      <c r="D578">
+        <v>8</v>
+      </c>
+      <c r="E578" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E579" t="s">
+        <v>139</v>
+      </c>
+      <c r="F579" t="s">
+        <v>143</v>
+      </c>
+      <c r="G579" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H579" t="s">
+        <v>802</v>
+      </c>
+      <c r="I579" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E580" t="s">
+        <v>303</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G580" t="s">
+        <v>157</v>
+      </c>
+      <c r="H580" t="s">
+        <v>804</v>
+      </c>
+      <c r="I580" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E581" t="s">
+        <v>139</v>
+      </c>
+      <c r="F581" t="s">
+        <v>141</v>
+      </c>
+      <c r="G581" t="s">
+        <v>142</v>
+      </c>
+      <c r="H581" t="s">
+        <v>800</v>
+      </c>
+      <c r="I581" t="s">
+        <v>801</v>
+      </c>
+      <c r="J581" t="s">
+        <v>802</v>
+      </c>
+      <c r="K581" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E582" t="s">
+        <v>795</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G582" t="s">
+        <v>264</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I582" t="s">
+        <v>157</v>
+      </c>
+      <c r="J582" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>804</v>
+      </c>
+      <c r="F583" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E584" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>73</v>
+      </c>
+      <c r="B585" t="s">
+        <v>25</v>
+      </c>
+      <c r="C585" t="s">
+        <v>7</v>
+      </c>
+      <c r="D585">
+        <v>8</v>
+      </c>
+      <c r="E585" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E586" t="s">
+        <v>139</v>
+      </c>
+      <c r="F586" t="s">
+        <v>143</v>
+      </c>
+      <c r="G586" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H586" t="s">
+        <v>802</v>
+      </c>
+      <c r="I586" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E587" t="s">
+        <v>303</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G587" t="s">
+        <v>157</v>
+      </c>
+      <c r="H587" t="s">
+        <v>804</v>
+      </c>
+      <c r="I587" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E588" t="s">
+        <v>139</v>
+      </c>
+      <c r="F588" t="s">
+        <v>141</v>
+      </c>
+      <c r="G588" t="s">
+        <v>142</v>
+      </c>
+      <c r="H588" t="s">
+        <v>800</v>
+      </c>
+      <c r="I588" t="s">
+        <v>801</v>
+      </c>
+      <c r="J588" t="s">
+        <v>802</v>
+      </c>
+      <c r="K588" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E589" t="s">
+        <v>795</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G589" t="s">
+        <v>264</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I589" t="s">
+        <v>157</v>
+      </c>
+      <c r="J589" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E590" t="s">
+        <v>804</v>
+      </c>
+      <c r="F590" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E591" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>74</v>
+      </c>
+      <c r="B592" t="s">
+        <v>25</v>
+      </c>
+      <c r="C592" t="s">
+        <v>8</v>
+      </c>
+      <c r="D592">
+        <v>8</v>
+      </c>
+      <c r="E592" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E593" t="s">
+        <v>139</v>
+      </c>
+      <c r="F593" t="s">
+        <v>143</v>
+      </c>
+      <c r="G593" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H593" t="s">
+        <v>802</v>
+      </c>
+      <c r="I593" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E594" t="s">
+        <v>303</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G594" t="s">
+        <v>157</v>
+      </c>
+      <c r="H594" t="s">
+        <v>804</v>
+      </c>
+      <c r="I594" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E595" t="s">
+        <v>139</v>
+      </c>
+      <c r="F595" t="s">
+        <v>143</v>
+      </c>
+      <c r="G595" t="s">
+        <v>956</v>
+      </c>
+      <c r="H595" t="s">
+        <v>802</v>
+      </c>
+      <c r="I595" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E596" t="s">
+        <v>303</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G596" t="s">
+        <v>157</v>
+      </c>
+      <c r="H596" t="s">
+        <v>804</v>
+      </c>
+      <c r="I596" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E597" t="s">
+        <v>139</v>
+      </c>
+      <c r="F597" t="s">
+        <v>141</v>
+      </c>
+      <c r="G597" t="s">
+        <v>142</v>
+      </c>
+      <c r="H597" t="s">
+        <v>800</v>
+      </c>
+      <c r="I597" t="s">
+        <v>801</v>
+      </c>
+      <c r="J597" t="s">
+        <v>802</v>
+      </c>
+      <c r="K597" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E598" t="s">
+        <v>795</v>
+      </c>
+      <c r="F598" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G598" t="s">
+        <v>264</v>
+      </c>
+      <c r="H598" t="s">
+        <v>956</v>
+      </c>
+      <c r="I598" t="s">
+        <v>157</v>
+      </c>
+      <c r="J598" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E599" t="s">
+        <v>804</v>
+      </c>
+      <c r="F599" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E600" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>75</v>
+      </c>
+      <c r="B601" t="s">
+        <v>25</v>
+      </c>
+      <c r="C601" t="s">
+        <v>8</v>
+      </c>
+      <c r="D601">
+        <v>8</v>
+      </c>
+      <c r="E601" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E602" t="s">
+        <v>139</v>
+      </c>
+      <c r="F602" t="s">
+        <v>143</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H602" t="s">
+        <v>802</v>
+      </c>
+      <c r="I602" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E603" t="s">
+        <v>303</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G603" t="s">
+        <v>157</v>
+      </c>
+      <c r="H603" t="s">
+        <v>804</v>
+      </c>
+      <c r="I603" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E604" t="s">
+        <v>139</v>
+      </c>
+      <c r="F604" t="s">
+        <v>143</v>
+      </c>
+      <c r="G604" t="s">
+        <v>956</v>
+      </c>
+      <c r="H604" t="s">
+        <v>802</v>
+      </c>
+      <c r="I604" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E605" t="s">
+        <v>303</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G605" t="s">
+        <v>157</v>
+      </c>
+      <c r="H605" t="s">
+        <v>804</v>
+      </c>
+      <c r="I605" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E606" t="s">
+        <v>139</v>
+      </c>
+      <c r="F606" t="s">
+        <v>141</v>
+      </c>
+      <c r="G606" t="s">
+        <v>142</v>
+      </c>
+      <c r="H606" t="s">
+        <v>800</v>
+      </c>
+      <c r="I606" t="s">
+        <v>801</v>
+      </c>
+      <c r="J606" t="s">
+        <v>802</v>
+      </c>
+      <c r="K606" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E607" t="s">
+        <v>795</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G607" t="s">
+        <v>264</v>
+      </c>
+      <c r="H607" t="s">
+        <v>956</v>
+      </c>
+      <c r="I607" t="s">
+        <v>157</v>
+      </c>
+      <c r="J607" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E608" t="s">
+        <v>804</v>
+      </c>
+      <c r="F608" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E609" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>76</v>
+      </c>
+      <c r="B610" t="s">
+        <v>26</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610">
+        <v>8</v>
+      </c>
+      <c r="E610" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E611" t="s">
+        <v>139</v>
+      </c>
+      <c r="F611" t="s">
+        <v>141</v>
+      </c>
+      <c r="G611" t="s">
+        <v>142</v>
+      </c>
+      <c r="H611" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I611" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J611" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K611" t="s">
+        <v>802</v>
+      </c>
+      <c r="L611" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E612" t="s">
+        <v>795</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G612" t="s">
+        <v>264</v>
+      </c>
+      <c r="H612" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I612" t="s">
+        <v>157</v>
+      </c>
+      <c r="J612" t="s">
+        <v>804</v>
+      </c>
+      <c r="K612" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E613" t="s">
+        <v>139</v>
+      </c>
+      <c r="F613" t="s">
+        <v>141</v>
+      </c>
+      <c r="G613" t="s">
+        <v>142</v>
+      </c>
+      <c r="H613" t="s">
+        <v>800</v>
+      </c>
+      <c r="I613" t="s">
+        <v>801</v>
+      </c>
+      <c r="J613" t="s">
+        <v>802</v>
+      </c>
+      <c r="K613" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E614" t="s">
+        <v>795</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G614" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H614" t="s">
+        <v>157</v>
+      </c>
+      <c r="I614" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E615" t="s">
+        <v>804</v>
+      </c>
+      <c r="F615" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E616" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>77</v>
+      </c>
+      <c r="B617" t="s">
+        <v>29</v>
+      </c>
+      <c r="C617" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617">
+        <v>8</v>
+      </c>
+      <c r="E617" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E618" t="s">
+        <v>139</v>
+      </c>
+      <c r="F618" t="s">
+        <v>141</v>
+      </c>
+      <c r="G618" t="s">
+        <v>142</v>
+      </c>
+      <c r="H618" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I618" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K618" t="s">
+        <v>802</v>
+      </c>
+      <c r="L618" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E619" t="s">
+        <v>795</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G619" t="s">
+        <v>264</v>
+      </c>
+      <c r="H619" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I619" t="s">
+        <v>157</v>
+      </c>
+      <c r="J619" t="s">
+        <v>804</v>
+      </c>
+      <c r="K619" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E620" t="s">
+        <v>139</v>
+      </c>
+      <c r="F620" t="s">
+        <v>141</v>
+      </c>
+      <c r="G620" t="s">
+        <v>142</v>
+      </c>
+      <c r="H620" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I620" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J620" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K620" t="s">
+        <v>263</v>
+      </c>
+      <c r="L620" t="s">
+        <v>143</v>
+      </c>
+      <c r="M620" t="s">
+        <v>1347</v>
+      </c>
+      <c r="N620" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E621" t="s">
+        <v>802</v>
+      </c>
+      <c r="F621" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E622" t="s">
+        <v>795</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G622" t="s">
+        <v>264</v>
+      </c>
+      <c r="H622" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I622" t="s">
+        <v>157</v>
+      </c>
+      <c r="J622" t="s">
+        <v>804</v>
+      </c>
+      <c r="K622" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E623" t="s">
+        <v>139</v>
+      </c>
+      <c r="F623" t="s">
+        <v>141</v>
+      </c>
+      <c r="G623" t="s">
+        <v>142</v>
+      </c>
+      <c r="H623" t="s">
+        <v>800</v>
+      </c>
+      <c r="I623" t="s">
+        <v>801</v>
+      </c>
+      <c r="J623" t="s">
+        <v>802</v>
+      </c>
+      <c r="K623" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E624" t="s">
+        <v>795</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G624" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H624" t="s">
+        <v>263</v>
+      </c>
+      <c r="I624" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J624" t="s">
+        <v>157</v>
+      </c>
+      <c r="K624" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E625" t="s">
+        <v>804</v>
+      </c>
+      <c r="F625" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E626" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>78</v>
+      </c>
+      <c r="B627" t="s">
+        <v>26</v>
+      </c>
+      <c r="C627" t="s">
+        <v>7</v>
+      </c>
+      <c r="D627">
+        <v>8</v>
+      </c>
+      <c r="E627" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E628" t="s">
+        <v>139</v>
+      </c>
+      <c r="F628" t="s">
+        <v>141</v>
+      </c>
+      <c r="G628" t="s">
+        <v>191</v>
+      </c>
+      <c r="H628" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I628" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J628" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K628" t="s">
+        <v>802</v>
+      </c>
+      <c r="L628" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E629" t="s">
+        <v>303</v>
+      </c>
+      <c r="F629" t="s">
+        <v>880</v>
+      </c>
+      <c r="G629" t="s">
+        <v>264</v>
+      </c>
+      <c r="H629">
+        <v>5</v>
+      </c>
+      <c r="I629" t="s">
+        <v>157</v>
+      </c>
+      <c r="J629" t="s">
+        <v>804</v>
+      </c>
+      <c r="K629" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E630" t="s">
+        <v>139</v>
+      </c>
+      <c r="F630" t="s">
+        <v>141</v>
+      </c>
+      <c r="G630" t="s">
+        <v>142</v>
+      </c>
+      <c r="H630" t="s">
+        <v>800</v>
+      </c>
+      <c r="I630" t="s">
+        <v>801</v>
+      </c>
+      <c r="J630" t="s">
+        <v>802</v>
+      </c>
+      <c r="K630" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E631" t="s">
+        <v>795</v>
+      </c>
+      <c r="F631" t="s">
+        <v>796</v>
+      </c>
+      <c r="G631" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H631" t="s">
+        <v>144</v>
+      </c>
+      <c r="I631" t="s">
+        <v>157</v>
+      </c>
+      <c r="J631" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E632" t="s">
+        <v>804</v>
+      </c>
+      <c r="F632" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E633" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>79</v>
+      </c>
+      <c r="B634" t="s">
+        <v>29</v>
+      </c>
+      <c r="C634" t="s">
+        <v>7</v>
+      </c>
+      <c r="D634">
+        <v>8</v>
+      </c>
+      <c r="E634" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E635" t="s">
+        <v>139</v>
+      </c>
+      <c r="F635" t="s">
+        <v>141</v>
+      </c>
+      <c r="G635" t="s">
+        <v>191</v>
+      </c>
+      <c r="H635" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I635" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K635" t="s">
+        <v>802</v>
+      </c>
+      <c r="L635" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E636" t="s">
+        <v>303</v>
+      </c>
+      <c r="F636" t="s">
+        <v>880</v>
+      </c>
+      <c r="G636" t="s">
+        <v>264</v>
+      </c>
+      <c r="H636">
+        <v>5</v>
+      </c>
+      <c r="I636" t="s">
+        <v>157</v>
+      </c>
+      <c r="J636" t="s">
+        <v>804</v>
+      </c>
+      <c r="K636" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E637" t="s">
+        <v>139</v>
+      </c>
+      <c r="F637" t="s">
+        <v>141</v>
+      </c>
+      <c r="G637" t="s">
+        <v>191</v>
+      </c>
+      <c r="H637" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I637" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J637" t="s">
+        <v>880</v>
+      </c>
+      <c r="K637" t="s">
+        <v>263</v>
+      </c>
+      <c r="L637" t="s">
+        <v>191</v>
+      </c>
+      <c r="M637" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N637" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E638" t="s">
+        <v>802</v>
+      </c>
+      <c r="F638" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E639" t="s">
+        <v>303</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G639" t="s">
+        <v>264</v>
+      </c>
+      <c r="H639" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I639" t="s">
+        <v>157</v>
+      </c>
+      <c r="J639" t="s">
+        <v>804</v>
+      </c>
+      <c r="K639" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E640" t="s">
+        <v>139</v>
+      </c>
+      <c r="F640" t="s">
+        <v>141</v>
+      </c>
+      <c r="G640" t="s">
+        <v>142</v>
+      </c>
+      <c r="H640" t="s">
+        <v>800</v>
+      </c>
+      <c r="I640" t="s">
+        <v>801</v>
+      </c>
+      <c r="J640" t="s">
+        <v>802</v>
+      </c>
+      <c r="K640" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E641" t="s">
+        <v>795</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G641" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H641" t="s">
+        <v>263</v>
+      </c>
+      <c r="I641" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J641" t="s">
+        <v>157</v>
+      </c>
+      <c r="K641" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E642" t="s">
+        <v>804</v>
+      </c>
+      <c r="F642" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E643" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>80</v>
+      </c>
+      <c r="B644" t="s">
+        <v>26</v>
+      </c>
+      <c r="C644" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644">
+        <v>8</v>
+      </c>
+      <c r="E644" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E645" t="s">
+        <v>139</v>
+      </c>
+      <c r="F645" t="s">
+        <v>141</v>
+      </c>
+      <c r="G645" t="s">
+        <v>190</v>
+      </c>
+      <c r="H645" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I645" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J645" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K645" t="s">
+        <v>802</v>
+      </c>
+      <c r="L645" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E646" t="s">
+        <v>303</v>
+      </c>
+      <c r="F646" t="s">
+        <v>268</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H646" t="s">
+        <v>157</v>
+      </c>
+      <c r="I646" t="s">
+        <v>804</v>
+      </c>
+      <c r="J646" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E647" t="s">
+        <v>139</v>
+      </c>
+      <c r="F647" t="s">
+        <v>141</v>
+      </c>
+      <c r="G647" t="s">
+        <v>142</v>
+      </c>
+      <c r="H647" t="s">
+        <v>800</v>
+      </c>
+      <c r="I647" t="s">
+        <v>801</v>
+      </c>
+      <c r="J647" t="s">
+        <v>802</v>
+      </c>
+      <c r="K647" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E648" t="s">
+        <v>795</v>
+      </c>
+      <c r="F648" t="s">
+        <v>796</v>
+      </c>
+      <c r="G648" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H648" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I648" t="s">
+        <v>144</v>
+      </c>
+      <c r="J648" t="s">
+        <v>157</v>
+      </c>
+      <c r="K648" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E649" t="s">
+        <v>804</v>
+      </c>
+      <c r="F649" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E650" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>81</v>
+      </c>
+      <c r="B651" t="s">
+        <v>29</v>
+      </c>
+      <c r="C651" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651">
+        <v>8</v>
+      </c>
+      <c r="E651" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E652" t="s">
+        <v>139</v>
+      </c>
+      <c r="F652" t="s">
+        <v>141</v>
+      </c>
+      <c r="G652" t="s">
+        <v>190</v>
+      </c>
+      <c r="H652" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I652" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J652" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K652" t="s">
+        <v>802</v>
+      </c>
+      <c r="L652" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E653" t="s">
+        <v>303</v>
+      </c>
+      <c r="F653" t="s">
+        <v>268</v>
+      </c>
+      <c r="G653" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H653" t="s">
+        <v>157</v>
+      </c>
+      <c r="I653" t="s">
+        <v>804</v>
+      </c>
+      <c r="J653" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E654" t="s">
+        <v>139</v>
+      </c>
+      <c r="F654" t="s">
+        <v>141</v>
+      </c>
+      <c r="G654" t="s">
+        <v>191</v>
+      </c>
+      <c r="H654" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I654" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J654" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K654" t="s">
+        <v>802</v>
+      </c>
+      <c r="L654" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E655" t="s">
+        <v>303</v>
+      </c>
+      <c r="F655" t="s">
+        <v>806</v>
+      </c>
+      <c r="G655" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H655" t="s">
+        <v>157</v>
+      </c>
+      <c r="I655" t="s">
+        <v>804</v>
+      </c>
+      <c r="J655" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E656" t="s">
+        <v>139</v>
+      </c>
+      <c r="F656" t="s">
+        <v>141</v>
+      </c>
+      <c r="G656" t="s">
+        <v>142</v>
+      </c>
+      <c r="H656" t="s">
+        <v>800</v>
+      </c>
+      <c r="I656" t="s">
+        <v>801</v>
+      </c>
+      <c r="J656" t="s">
+        <v>802</v>
+      </c>
+      <c r="K656" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="657" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E657" t="s">
+        <v>795</v>
+      </c>
+      <c r="F657" t="s">
+        <v>796</v>
+      </c>
+      <c r="G657" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H657">
+        <v>-1</v>
+      </c>
+      <c r="I657" t="s">
+        <v>144</v>
+      </c>
+      <c r="J657" t="s">
+        <v>157</v>
+      </c>
+      <c r="K657" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="658" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E658" t="s">
+        <v>804</v>
+      </c>
+      <c r="F658" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="659" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E659" t="s">
         <v>138</v>
       </c>
     </row>

--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F2C5E8-6311-40B8-8C65-623CB83A7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A69F156-69EB-4645-A07E-A190876DB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="720" windowWidth="15825" windowHeight="9855" firstSheet="1" activeTab="4" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeRiddle" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8629" uniqueCount="1502">
   <si>
     <t>Stage 1</t>
   </si>
@@ -5242,6 +5242,15 @@
   </si>
   <si>
     <t>opposite</t>
+  </si>
+  <si>
+    <t>(convert</t>
+  </si>
+  <si>
+    <t>num3)</t>
+  </si>
+  <si>
+    <t>("Hello"</t>
   </si>
 </sst>
 </file>
@@ -26701,10 +26710,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O659"/>
+  <dimension ref="A1:O657"/>
   <sheetViews>
-    <sheetView topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="E528" sqref="E528"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="H655" sqref="H655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28026,7 +28035,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -29514,19 +29523,19 @@
         <v>795</v>
       </c>
       <c r="F142" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G142" t="s">
         <v>264</v>
       </c>
       <c r="H142" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="I142" t="s">
         <v>264</v>
       </c>
       <c r="J142" t="s">
-        <v>1417</v>
+        <v>1350</v>
       </c>
       <c r="K142" t="s">
         <v>157</v>
@@ -31325,7 +31334,7 @@
         <v>795</v>
       </c>
       <c r="F236" t="s">
-        <v>1390</v>
+        <v>1499</v>
       </c>
       <c r="G236" t="s">
         <v>264</v>
@@ -31337,7 +31346,7 @@
         <v>264</v>
       </c>
       <c r="J236" t="s">
-        <v>1394</v>
+        <v>1500</v>
       </c>
       <c r="K236" t="s">
         <v>157</v>
@@ -31985,7 +31994,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
         <v>191</v>
       </c>
@@ -32005,7 +32014,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
         <v>795</v>
       </c>
@@ -32031,7 +32040,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
         <v>795</v>
       </c>
@@ -32045,7 +32054,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
         <v>795</v>
       </c>
@@ -32059,7 +32068,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
         <v>795</v>
       </c>
@@ -32076,132 +32085,117 @@
         <v>797</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G278" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I278" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J278" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K278" t="s">
-        <v>157</v>
-      </c>
-      <c r="L278" t="s">
-        <v>804</v>
-      </c>
-      <c r="M278" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>42</v>
+      </c>
+      <c r="B279" t="s">
+        <v>21</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
       <c r="E279" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>42</v>
-      </c>
-      <c r="B280" t="s">
-        <v>21</v>
-      </c>
-      <c r="C280" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>139</v>
+      </c>
+      <c r="F280" t="s">
+        <v>141</v>
+      </c>
+      <c r="G280" t="s">
+        <v>142</v>
+      </c>
+      <c r="H280" t="s">
+        <v>800</v>
+      </c>
+      <c r="I280" t="s">
+        <v>801</v>
+      </c>
+      <c r="J280" t="s">
+        <v>802</v>
+      </c>
+      <c r="K280" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>191</v>
+      </c>
+      <c r="F281" t="s">
+        <v>880</v>
+      </c>
+      <c r="G281" t="s">
+        <v>240</v>
+      </c>
+      <c r="H281">
         <v>3</v>
       </c>
-      <c r="E280" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E281" t="s">
-        <v>139</v>
-      </c>
-      <c r="F281" t="s">
-        <v>141</v>
-      </c>
-      <c r="G281" t="s">
-        <v>142</v>
-      </c>
-      <c r="H281" t="s">
-        <v>800</v>
-      </c>
       <c r="I281" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J281" t="s">
-        <v>802</v>
-      </c>
-      <c r="K281" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F282" t="s">
-        <v>880</v>
+        <v>1429</v>
       </c>
       <c r="G282" t="s">
-        <v>240</v>
-      </c>
-      <c r="H282">
-        <v>3</v>
+        <v>259</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1428</v>
       </c>
       <c r="I282" t="s">
-        <v>157</v>
+        <v>806</v>
       </c>
       <c r="J282" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+      <c r="K282" t="s">
+        <v>157</v>
+      </c>
+      <c r="L282" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
         <v>795</v>
       </c>
       <c r="F283" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="G283" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="H283" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I283" t="s">
-        <v>806</v>
-      </c>
-      <c r="J283" t="s">
-        <v>1430</v>
-      </c>
-      <c r="K283" t="s">
-        <v>157</v>
-      </c>
-      <c r="L283" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
         <v>795</v>
       </c>
       <c r="F284" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="G284" t="s">
         <v>157</v>
@@ -32210,12 +32204,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
         <v>795</v>
       </c>
       <c r="F285" t="s">
-        <v>1426</v>
+        <v>1384</v>
       </c>
       <c r="G285" t="s">
         <v>157</v>
@@ -32224,120 +32218,105 @@
         <v>797</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>43</v>
+      </c>
+      <c r="B287" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <v>5</v>
+      </c>
+      <c r="E287" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>139</v>
+      </c>
+      <c r="F288" t="s">
+        <v>141</v>
+      </c>
+      <c r="G288" t="s">
+        <v>142</v>
+      </c>
+      <c r="H288" t="s">
+        <v>800</v>
+      </c>
+      <c r="I288" t="s">
+        <v>801</v>
+      </c>
+      <c r="J288" t="s">
+        <v>802</v>
+      </c>
+      <c r="K288" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>190</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G289" t="s">
+        <v>240</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I289" t="s">
+        <v>157</v>
+      </c>
+      <c r="J289" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>280</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G290" t="s">
+        <v>802</v>
+      </c>
+      <c r="H290" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
         <v>795</v>
       </c>
-      <c r="F286" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G286" t="s">
-        <v>157</v>
-      </c>
-      <c r="H286" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E287" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F287" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G287" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H287" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I287" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J287" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K287" t="s">
-        <v>157</v>
-      </c>
-      <c r="L287" t="s">
+      <c r="F291" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G291" t="s">
+        <v>157</v>
+      </c>
+      <c r="H291" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
         <v>804</v>
       </c>
-      <c r="M287" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E288" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>43</v>
-      </c>
-      <c r="B289" t="s">
-        <v>22</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289">
-        <v>5</v>
-      </c>
-      <c r="E289" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E290" t="s">
-        <v>139</v>
-      </c>
-      <c r="F290" t="s">
-        <v>141</v>
-      </c>
-      <c r="G290" t="s">
-        <v>142</v>
-      </c>
-      <c r="H290" t="s">
-        <v>800</v>
-      </c>
-      <c r="I290" t="s">
-        <v>801</v>
-      </c>
-      <c r="J290" t="s">
-        <v>802</v>
-      </c>
-      <c r="K290" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E291" t="s">
-        <v>190</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G291" t="s">
-        <v>240</v>
-      </c>
-      <c r="H291" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="I291" t="s">
-        <v>157</v>
-      </c>
-      <c r="J291" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E292" t="s">
-        <v>280</v>
-      </c>
       <c r="F292" t="s">
-        <v>1254</v>
+        <v>825</v>
       </c>
       <c r="G292" t="s">
         <v>802</v>
@@ -32346,12 +32325,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
         <v>795</v>
       </c>
       <c r="F293" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G293" t="s">
         <v>157</v>
@@ -32360,116 +32339,116 @@
         <v>797</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
         <v>804</v>
       </c>
       <c r="F294" t="s">
+        <v>804</v>
+      </c>
+      <c r="G294" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>44</v>
+      </c>
+      <c r="B296" t="s">
+        <v>22</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>139</v>
+      </c>
+      <c r="F297" t="s">
+        <v>141</v>
+      </c>
+      <c r="G297" t="s">
+        <v>142</v>
+      </c>
+      <c r="H297" t="s">
+        <v>800</v>
+      </c>
+      <c r="I297" t="s">
+        <v>801</v>
+      </c>
+      <c r="J297" t="s">
+        <v>802</v>
+      </c>
+      <c r="K297" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>190</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G298" t="s">
+        <v>240</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I298" t="s">
+        <v>157</v>
+      </c>
+      <c r="J298" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>280</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G299" t="s">
+        <v>802</v>
+      </c>
+      <c r="H299" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>795</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G300" t="s">
+        <v>157</v>
+      </c>
+      <c r="H300" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>804</v>
+      </c>
+      <c r="F301" t="s">
         <v>825</v>
-      </c>
-      <c r="G294" t="s">
-        <v>802</v>
-      </c>
-      <c r="H294" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E295" t="s">
-        <v>795</v>
-      </c>
-      <c r="F295" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G295" t="s">
-        <v>157</v>
-      </c>
-      <c r="H295" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E296" t="s">
-        <v>804</v>
-      </c>
-      <c r="F296" t="s">
-        <v>804</v>
-      </c>
-      <c r="G296" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E297" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>44</v>
-      </c>
-      <c r="B298" t="s">
-        <v>22</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298">
-        <v>5</v>
-      </c>
-      <c r="E298" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E299" t="s">
-        <v>139</v>
-      </c>
-      <c r="F299" t="s">
-        <v>141</v>
-      </c>
-      <c r="G299" t="s">
-        <v>142</v>
-      </c>
-      <c r="H299" t="s">
-        <v>800</v>
-      </c>
-      <c r="I299" t="s">
-        <v>801</v>
-      </c>
-      <c r="J299" t="s">
-        <v>802</v>
-      </c>
-      <c r="K299" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E300" t="s">
-        <v>190</v>
-      </c>
-      <c r="F300" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G300" t="s">
-        <v>240</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="I300" t="s">
-        <v>157</v>
-      </c>
-      <c r="J300" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E301" t="s">
-        <v>280</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1254</v>
       </c>
       <c r="G301" t="s">
         <v>802</v>
@@ -32478,12 +32457,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
         <v>795</v>
       </c>
       <c r="F302" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="G302" t="s">
         <v>157</v>
@@ -32492,165 +32471,165 @@
         <v>797</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
         <v>804</v>
       </c>
       <c r="F303" t="s">
+        <v>804</v>
+      </c>
+      <c r="G303" t="s">
+        <v>157</v>
+      </c>
+      <c r="K303" t="s">
+        <v>157</v>
+      </c>
+      <c r="L303" t="s">
+        <v>804</v>
+      </c>
+      <c r="M303" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>45</v>
+      </c>
+      <c r="B305" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>139</v>
+      </c>
+      <c r="F306" t="s">
+        <v>141</v>
+      </c>
+      <c r="G306" t="s">
+        <v>142</v>
+      </c>
+      <c r="H306" t="s">
+        <v>800</v>
+      </c>
+      <c r="I306" t="s">
+        <v>801</v>
+      </c>
+      <c r="J306" t="s">
+        <v>802</v>
+      </c>
+      <c r="K306" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>191</v>
+      </c>
+      <c r="F307" t="s">
+        <v>821</v>
+      </c>
+      <c r="G307" t="s">
+        <v>240</v>
+      </c>
+      <c r="H307">
+        <v>5</v>
+      </c>
+      <c r="I307" t="s">
+        <v>157</v>
+      </c>
+      <c r="J307" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>191</v>
+      </c>
+      <c r="F308" t="s">
+        <v>823</v>
+      </c>
+      <c r="G308" t="s">
+        <v>240</v>
+      </c>
+      <c r="H308">
+        <v>3</v>
+      </c>
+      <c r="I308" t="s">
+        <v>157</v>
+      </c>
+      <c r="J308" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>280</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G309" t="s">
+        <v>158</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I309" t="s">
+        <v>802</v>
+      </c>
+      <c r="J309" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>795</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G310" t="s">
+        <v>157</v>
+      </c>
+      <c r="H310" t="s">
+        <v>804</v>
+      </c>
+      <c r="I310" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
         <v>825</v>
       </c>
-      <c r="G303" t="s">
+      <c r="F311" t="s">
         <v>802</v>
       </c>
-      <c r="H303" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E304" t="s">
-        <v>795</v>
-      </c>
-      <c r="F304" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G304" t="s">
-        <v>157</v>
-      </c>
-      <c r="H304" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E305" t="s">
-        <v>804</v>
-      </c>
-      <c r="F305" t="s">
-        <v>804</v>
-      </c>
-      <c r="G305" t="s">
-        <v>157</v>
-      </c>
-      <c r="K305" t="s">
-        <v>157</v>
-      </c>
-      <c r="L305" t="s">
-        <v>804</v>
-      </c>
-      <c r="M305" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E306" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>45</v>
-      </c>
-      <c r="B307" t="s">
-        <v>22</v>
-      </c>
-      <c r="C307" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307">
-        <v>5</v>
-      </c>
-      <c r="E307" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E308" t="s">
-        <v>139</v>
-      </c>
-      <c r="F308" t="s">
-        <v>141</v>
-      </c>
-      <c r="G308" t="s">
-        <v>142</v>
-      </c>
-      <c r="H308" t="s">
-        <v>800</v>
-      </c>
-      <c r="I308" t="s">
-        <v>801</v>
-      </c>
-      <c r="J308" t="s">
-        <v>802</v>
-      </c>
-      <c r="K308" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E309" t="s">
-        <v>191</v>
-      </c>
-      <c r="F309" t="s">
-        <v>821</v>
-      </c>
-      <c r="G309" t="s">
-        <v>240</v>
-      </c>
-      <c r="H309">
-        <v>5</v>
-      </c>
-      <c r="I309" t="s">
-        <v>157</v>
-      </c>
-      <c r="J309" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E310" t="s">
-        <v>191</v>
-      </c>
-      <c r="F310" t="s">
-        <v>823</v>
-      </c>
-      <c r="G310" t="s">
-        <v>240</v>
-      </c>
-      <c r="H310">
-        <v>3</v>
-      </c>
-      <c r="I310" t="s">
-        <v>157</v>
-      </c>
-      <c r="J310" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E311" t="s">
-        <v>280</v>
-      </c>
-      <c r="F311" t="s">
-        <v>1435</v>
-      </c>
       <c r="G311" t="s">
-        <v>158</v>
-      </c>
-      <c r="H311" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I311" t="s">
-        <v>802</v>
-      </c>
-      <c r="J311" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
         <v>795</v>
       </c>
       <c r="F312" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="G312" t="s">
         <v>157</v>
@@ -32659,142 +32638,142 @@
         <v>804</v>
       </c>
       <c r="I312" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+      <c r="J312" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>46</v>
+      </c>
+      <c r="B314" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>139</v>
+      </c>
+      <c r="F315" t="s">
+        <v>141</v>
+      </c>
+      <c r="G315" t="s">
+        <v>142</v>
+      </c>
+      <c r="H315" t="s">
+        <v>800</v>
+      </c>
+      <c r="I315" t="s">
+        <v>801</v>
+      </c>
+      <c r="J315" t="s">
+        <v>802</v>
+      </c>
+      <c r="K315" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>191</v>
+      </c>
+      <c r="F316" t="s">
+        <v>821</v>
+      </c>
+      <c r="G316" t="s">
+        <v>240</v>
+      </c>
+      <c r="H316">
+        <v>5</v>
+      </c>
+      <c r="I316" t="s">
+        <v>157</v>
+      </c>
+      <c r="J316" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>191</v>
+      </c>
+      <c r="F317" t="s">
+        <v>823</v>
+      </c>
+      <c r="G317" t="s">
+        <v>240</v>
+      </c>
+      <c r="H317">
+        <v>3</v>
+      </c>
+      <c r="I317" t="s">
+        <v>157</v>
+      </c>
+      <c r="J317" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>280</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G318" t="s">
+        <v>820</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I318" t="s">
+        <v>802</v>
+      </c>
+      <c r="J318" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>795</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G319" t="s">
+        <v>157</v>
+      </c>
+      <c r="H319" t="s">
+        <v>804</v>
+      </c>
+      <c r="I319" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
         <v>825</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F320" t="s">
         <v>802</v>
       </c>
-      <c r="G313" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E314" t="s">
-        <v>795</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G314" t="s">
-        <v>157</v>
-      </c>
-      <c r="H314" t="s">
-        <v>804</v>
-      </c>
-      <c r="I314" t="s">
-        <v>804</v>
-      </c>
-      <c r="J314" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E315" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>46</v>
-      </c>
-      <c r="B316" t="s">
-        <v>22</v>
-      </c>
-      <c r="C316" t="s">
-        <v>7</v>
-      </c>
-      <c r="D316">
-        <v>5</v>
-      </c>
-      <c r="E316" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E317" t="s">
-        <v>139</v>
-      </c>
-      <c r="F317" t="s">
-        <v>141</v>
-      </c>
-      <c r="G317" t="s">
-        <v>142</v>
-      </c>
-      <c r="H317" t="s">
-        <v>800</v>
-      </c>
-      <c r="I317" t="s">
-        <v>801</v>
-      </c>
-      <c r="J317" t="s">
-        <v>802</v>
-      </c>
-      <c r="K317" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E318" t="s">
-        <v>191</v>
-      </c>
-      <c r="F318" t="s">
-        <v>821</v>
-      </c>
-      <c r="G318" t="s">
-        <v>240</v>
-      </c>
-      <c r="H318">
-        <v>5</v>
-      </c>
-      <c r="I318" t="s">
-        <v>157</v>
-      </c>
-      <c r="J318" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E319" t="s">
-        <v>191</v>
-      </c>
-      <c r="F319" t="s">
-        <v>823</v>
-      </c>
-      <c r="G319" t="s">
-        <v>240</v>
-      </c>
-      <c r="H319">
-        <v>3</v>
-      </c>
-      <c r="I319" t="s">
-        <v>157</v>
-      </c>
-      <c r="J319" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E320" t="s">
-        <v>280</v>
-      </c>
-      <c r="F320" t="s">
-        <v>1435</v>
-      </c>
       <c r="G320" t="s">
-        <v>820</v>
-      </c>
-      <c r="H320" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I320" t="s">
-        <v>802</v>
-      </c>
-      <c r="J320" t="s">
         <v>797</v>
       </c>
     </row>
@@ -32803,7 +32782,7 @@
         <v>795</v>
       </c>
       <c r="F321" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="G321" t="s">
         <v>157</v>
@@ -32812,82 +32791,94 @@
         <v>804</v>
       </c>
       <c r="I321" t="s">
+        <v>804</v>
+      </c>
+      <c r="J321" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>825</v>
-      </c>
-      <c r="F322" t="s">
-        <v>802</v>
-      </c>
-      <c r="G322" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>47</v>
+      </c>
+      <c r="B323" t="s">
+        <v>22</v>
+      </c>
+      <c r="C323" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
       <c r="E323" t="s">
-        <v>795</v>
-      </c>
-      <c r="F323" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G323" t="s">
-        <v>157</v>
-      </c>
-      <c r="H323" t="s">
-        <v>804</v>
-      </c>
-      <c r="I323" t="s">
-        <v>804</v>
-      </c>
-      <c r="J323" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F324" t="s">
+        <v>141</v>
+      </c>
+      <c r="G324" t="s">
+        <v>142</v>
+      </c>
+      <c r="H324" t="s">
+        <v>800</v>
+      </c>
+      <c r="I324" t="s">
+        <v>801</v>
+      </c>
+      <c r="J324" t="s">
+        <v>802</v>
+      </c>
+      <c r="K324" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>47</v>
-      </c>
-      <c r="B325" t="s">
-        <v>22</v>
-      </c>
-      <c r="C325" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325">
+      <c r="E325" t="s">
+        <v>191</v>
+      </c>
+      <c r="F325" t="s">
+        <v>821</v>
+      </c>
+      <c r="G325" t="s">
+        <v>240</v>
+      </c>
+      <c r="H325">
         <v>5</v>
       </c>
-      <c r="E325" t="s">
-        <v>137</v>
+      <c r="I325" t="s">
+        <v>157</v>
+      </c>
+      <c r="J325" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F326" t="s">
-        <v>141</v>
+        <v>823</v>
       </c>
       <c r="G326" t="s">
-        <v>142</v>
-      </c>
-      <c r="H326" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H326">
+        <v>3</v>
       </c>
       <c r="I326" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J326" t="s">
-        <v>802</v>
-      </c>
-      <c r="K326" t="s">
         <v>797</v>
       </c>
     </row>
@@ -32896,13 +32887,13 @@
         <v>191</v>
       </c>
       <c r="F327" t="s">
-        <v>821</v>
+        <v>1409</v>
       </c>
       <c r="G327" t="s">
         <v>240</v>
       </c>
       <c r="H327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I327" t="s">
         <v>157</v>
@@ -32913,19 +32904,19 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F328" t="s">
-        <v>823</v>
+        <v>1438</v>
       </c>
       <c r="G328" t="s">
-        <v>240</v>
-      </c>
-      <c r="H328">
-        <v>3</v>
+        <v>158</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1439</v>
       </c>
       <c r="I328" t="s">
-        <v>157</v>
+        <v>802</v>
       </c>
       <c r="J328" t="s">
         <v>797</v>
@@ -32933,27 +32924,24 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F329" t="s">
-        <v>1409</v>
+        <v>1433</v>
       </c>
       <c r="G329" t="s">
-        <v>240</v>
-      </c>
-      <c r="H329">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="H329" t="s">
+        <v>804</v>
       </c>
       <c r="I329" t="s">
-        <v>157</v>
-      </c>
-      <c r="J329" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>280</v>
+        <v>1436</v>
       </c>
       <c r="F330" t="s">
         <v>1438</v>
@@ -32962,7 +32950,7 @@
         <v>158</v>
       </c>
       <c r="H330" t="s">
-        <v>1439</v>
+        <v>1392</v>
       </c>
       <c r="I330" t="s">
         <v>802</v>
@@ -32976,7 +32964,7 @@
         <v>795</v>
       </c>
       <c r="F331" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G331" t="s">
         <v>157</v>
@@ -32990,21 +32978,12 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>1436</v>
+        <v>825</v>
       </c>
       <c r="F332" t="s">
-        <v>1438</v>
+        <v>802</v>
       </c>
       <c r="G332" t="s">
-        <v>158</v>
-      </c>
-      <c r="H332" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I332" t="s">
-        <v>802</v>
-      </c>
-      <c r="J332" t="s">
         <v>797</v>
       </c>
     </row>
@@ -33013,7 +32992,7 @@
         <v>795</v>
       </c>
       <c r="F333" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="G333" t="s">
         <v>157</v>
@@ -33022,82 +33001,94 @@
         <v>804</v>
       </c>
       <c r="I333" t="s">
+        <v>804</v>
+      </c>
+      <c r="J333" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>825</v>
-      </c>
-      <c r="F334" t="s">
-        <v>802</v>
-      </c>
-      <c r="G334" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>48</v>
+      </c>
+      <c r="B335" t="s">
+        <v>22</v>
+      </c>
+      <c r="C335" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335">
+        <v>5</v>
+      </c>
       <c r="E335" t="s">
-        <v>795</v>
-      </c>
-      <c r="F335" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G335" t="s">
-        <v>157</v>
-      </c>
-      <c r="H335" t="s">
-        <v>804</v>
-      </c>
-      <c r="I335" t="s">
-        <v>804</v>
-      </c>
-      <c r="J335" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F336" t="s">
+        <v>141</v>
+      </c>
+      <c r="G336" t="s">
+        <v>142</v>
+      </c>
+      <c r="H336" t="s">
+        <v>800</v>
+      </c>
+      <c r="I336" t="s">
+        <v>801</v>
+      </c>
+      <c r="J336" t="s">
+        <v>802</v>
+      </c>
+      <c r="K336" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>48</v>
-      </c>
-      <c r="B337" t="s">
-        <v>22</v>
-      </c>
-      <c r="C337" t="s">
-        <v>8</v>
-      </c>
-      <c r="D337">
+      <c r="E337" t="s">
+        <v>191</v>
+      </c>
+      <c r="F337" t="s">
+        <v>821</v>
+      </c>
+      <c r="G337" t="s">
+        <v>240</v>
+      </c>
+      <c r="H337">
         <v>5</v>
       </c>
-      <c r="E337" t="s">
-        <v>137</v>
+      <c r="I337" t="s">
+        <v>157</v>
+      </c>
+      <c r="J337" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="F338" t="s">
-        <v>141</v>
+        <v>823</v>
       </c>
       <c r="G338" t="s">
-        <v>142</v>
-      </c>
-      <c r="H338" t="s">
-        <v>800</v>
+        <v>240</v>
+      </c>
+      <c r="H338">
+        <v>3</v>
       </c>
       <c r="I338" t="s">
-        <v>801</v>
+        <v>157</v>
       </c>
       <c r="J338" t="s">
-        <v>802</v>
-      </c>
-      <c r="K338" t="s">
         <v>797</v>
       </c>
     </row>
@@ -33106,13 +33097,13 @@
         <v>191</v>
       </c>
       <c r="F339" t="s">
-        <v>821</v>
+        <v>1409</v>
       </c>
       <c r="G339" t="s">
         <v>240</v>
       </c>
       <c r="H339">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I339" t="s">
         <v>157</v>
@@ -33123,19 +33114,19 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F340" t="s">
-        <v>823</v>
+        <v>1438</v>
       </c>
       <c r="G340" t="s">
-        <v>240</v>
-      </c>
-      <c r="H340">
-        <v>3</v>
+        <v>158</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1439</v>
       </c>
       <c r="I340" t="s">
-        <v>157</v>
+        <v>802</v>
       </c>
       <c r="J340" t="s">
         <v>797</v>
@@ -33143,36 +33134,33 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F341" t="s">
-        <v>1409</v>
+        <v>1433</v>
       </c>
       <c r="G341" t="s">
-        <v>240</v>
-      </c>
-      <c r="H341">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="H341" t="s">
+        <v>804</v>
       </c>
       <c r="I341" t="s">
-        <v>157</v>
-      </c>
-      <c r="J341" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>280</v>
+        <v>1436</v>
       </c>
       <c r="F342" t="s">
         <v>1438</v>
       </c>
       <c r="G342" t="s">
-        <v>158</v>
+        <v>820</v>
       </c>
       <c r="H342" t="s">
-        <v>1439</v>
+        <v>1392</v>
       </c>
       <c r="I342" t="s">
         <v>802</v>
@@ -33186,7 +33174,7 @@
         <v>795</v>
       </c>
       <c r="F343" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G343" t="s">
         <v>157</v>
@@ -33200,21 +33188,12 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>1436</v>
+        <v>825</v>
       </c>
       <c r="F344" t="s">
-        <v>1438</v>
+        <v>802</v>
       </c>
       <c r="G344" t="s">
-        <v>820</v>
-      </c>
-      <c r="H344" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I344" t="s">
-        <v>802</v>
-      </c>
-      <c r="J344" t="s">
         <v>797</v>
       </c>
     </row>
@@ -33223,7 +33202,7 @@
         <v>795</v>
       </c>
       <c r="F345" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="G345" t="s">
         <v>157</v>
@@ -33232,117 +33211,117 @@
         <v>804</v>
       </c>
       <c r="I345" t="s">
+        <v>804</v>
+      </c>
+      <c r="J345" t="s">
+        <v>797</v>
+      </c>
+      <c r="M345" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>825</v>
-      </c>
-      <c r="F346" t="s">
-        <v>802</v>
-      </c>
-      <c r="G346" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>49</v>
+      </c>
+      <c r="B347" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>5</v>
+      </c>
       <c r="E347" t="s">
-        <v>795</v>
-      </c>
-      <c r="F347" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G347" t="s">
-        <v>157</v>
-      </c>
-      <c r="H347" t="s">
-        <v>804</v>
-      </c>
-      <c r="I347" t="s">
-        <v>804</v>
-      </c>
-      <c r="J347" t="s">
-        <v>797</v>
-      </c>
-      <c r="M347" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F348" t="s">
+        <v>141</v>
+      </c>
+      <c r="G348" t="s">
+        <v>142</v>
+      </c>
+      <c r="H348" t="s">
+        <v>800</v>
+      </c>
+      <c r="I348" t="s">
+        <v>801</v>
+      </c>
+      <c r="J348" t="s">
+        <v>802</v>
+      </c>
+      <c r="K348" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>49</v>
-      </c>
-      <c r="B349" t="s">
-        <v>22</v>
-      </c>
-      <c r="C349" t="s">
-        <v>6</v>
-      </c>
-      <c r="D349">
-        <v>5</v>
-      </c>
       <c r="E349" t="s">
-        <v>137</v>
+        <v>192</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G349" t="s">
+        <v>240</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I349" t="s">
+        <v>157</v>
+      </c>
+      <c r="J349" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F350" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G350" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H350" t="s">
-        <v>800</v>
-      </c>
-      <c r="I350" t="s">
-        <v>801</v>
-      </c>
-      <c r="J350" t="s">
-        <v>802</v>
-      </c>
-      <c r="K350" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>192</v>
-      </c>
-      <c r="F351" t="s">
-        <v>1441</v>
+        <v>1443</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>1366</v>
       </c>
       <c r="G351" t="s">
-        <v>240</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="I351" t="s">
-        <v>157</v>
-      </c>
-      <c r="J351" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H351" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="F352" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G352" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H352" t="s">
         <v>797</v>
@@ -33350,159 +33329,159 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>1366</v>
+        <v>271</v>
+      </c>
+      <c r="F353" t="s">
+        <v>157</v>
       </c>
       <c r="G353" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H353" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>795</v>
+        <v>272</v>
       </c>
       <c r="F354" t="s">
-        <v>1444</v>
+        <v>1067</v>
       </c>
       <c r="G354" t="s">
-        <v>157</v>
-      </c>
-      <c r="H354" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F355" t="s">
-        <v>157</v>
+        <v>1447</v>
       </c>
       <c r="G355" t="s">
+        <v>157</v>
+      </c>
+      <c r="H355" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F356" t="s">
-        <v>1067</v>
+        <v>157</v>
       </c>
       <c r="G356" t="s">
+        <v>804</v>
+      </c>
+      <c r="H356" t="s">
+        <v>804</v>
+      </c>
+      <c r="I356" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>795</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G357" t="s">
-        <v>157</v>
-      </c>
-      <c r="H357" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>50</v>
+      </c>
+      <c r="B358" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358">
+        <v>5</v>
+      </c>
       <c r="E358" t="s">
-        <v>271</v>
-      </c>
-      <c r="F358" t="s">
-        <v>157</v>
-      </c>
-      <c r="G358" t="s">
-        <v>804</v>
-      </c>
-      <c r="H358" t="s">
-        <v>804</v>
-      </c>
-      <c r="I358" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F359" t="s">
+        <v>141</v>
+      </c>
+      <c r="G359" t="s">
+        <v>142</v>
+      </c>
+      <c r="H359" t="s">
+        <v>800</v>
+      </c>
+      <c r="I359" t="s">
+        <v>801</v>
+      </c>
+      <c r="J359" t="s">
+        <v>802</v>
+      </c>
+      <c r="K359" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>50</v>
-      </c>
-      <c r="B360" t="s">
-        <v>22</v>
-      </c>
-      <c r="C360" t="s">
-        <v>6</v>
-      </c>
-      <c r="D360">
-        <v>5</v>
-      </c>
       <c r="E360" t="s">
-        <v>137</v>
+        <v>192</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G360" t="s">
+        <v>240</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I360" t="s">
+        <v>157</v>
+      </c>
+      <c r="J360" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F361" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G361" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H361" t="s">
-        <v>800</v>
-      </c>
-      <c r="I361" t="s">
-        <v>801</v>
-      </c>
-      <c r="J361" t="s">
-        <v>802</v>
-      </c>
-      <c r="K361" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>192</v>
-      </c>
-      <c r="F362" t="s">
-        <v>1441</v>
+        <v>1443</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>1366</v>
       </c>
       <c r="G362" t="s">
-        <v>240</v>
-      </c>
-      <c r="H362" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="I362" t="s">
-        <v>157</v>
-      </c>
-      <c r="J362" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H362" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="F363" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G363" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H363" t="s">
         <v>797</v>
@@ -33510,159 +33489,159 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>1366</v>
+        <v>271</v>
+      </c>
+      <c r="F364" t="s">
+        <v>157</v>
       </c>
       <c r="G364" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H364" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>795</v>
+        <v>272</v>
       </c>
       <c r="F365" t="s">
-        <v>1444</v>
+        <v>1067</v>
       </c>
       <c r="G365" t="s">
-        <v>157</v>
-      </c>
-      <c r="H365" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F366" t="s">
-        <v>157</v>
+        <v>1447</v>
       </c>
       <c r="G366" t="s">
+        <v>157</v>
+      </c>
+      <c r="H366" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F367" t="s">
-        <v>1067</v>
+        <v>157</v>
       </c>
       <c r="G367" t="s">
+        <v>804</v>
+      </c>
+      <c r="H367" t="s">
+        <v>804</v>
+      </c>
+      <c r="I367" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>795</v>
-      </c>
-      <c r="F368" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G368" t="s">
-        <v>157</v>
-      </c>
-      <c r="H368" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>51</v>
+      </c>
+      <c r="B369" t="s">
+        <v>22</v>
+      </c>
+      <c r="C369" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369">
+        <v>5</v>
+      </c>
       <c r="E369" t="s">
-        <v>271</v>
-      </c>
-      <c r="F369" t="s">
-        <v>157</v>
-      </c>
-      <c r="G369" t="s">
-        <v>804</v>
-      </c>
-      <c r="H369" t="s">
-        <v>804</v>
-      </c>
-      <c r="I369" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F370" t="s">
+        <v>141</v>
+      </c>
+      <c r="G370" t="s">
+        <v>142</v>
+      </c>
+      <c r="H370" t="s">
+        <v>800</v>
+      </c>
+      <c r="I370" t="s">
+        <v>801</v>
+      </c>
+      <c r="J370" t="s">
+        <v>802</v>
+      </c>
+      <c r="K370" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>51</v>
-      </c>
-      <c r="B371" t="s">
-        <v>22</v>
-      </c>
-      <c r="C371" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371">
-        <v>5</v>
-      </c>
       <c r="E371" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G371" t="s">
+        <v>240</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I371" t="s">
+        <v>157</v>
+      </c>
+      <c r="J371" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F372" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G372" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H372" t="s">
-        <v>800</v>
-      </c>
-      <c r="I372" t="s">
-        <v>801</v>
-      </c>
-      <c r="J372" t="s">
-        <v>802</v>
-      </c>
-      <c r="K372" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>143</v>
-      </c>
-      <c r="F373" t="s">
-        <v>1448</v>
+        <v>1443</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>1449</v>
       </c>
       <c r="G373" t="s">
-        <v>240</v>
-      </c>
-      <c r="H373" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I373" t="s">
-        <v>157</v>
-      </c>
-      <c r="J373" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H373" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="F374" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="G374" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H374" t="s">
         <v>797</v>
@@ -33670,27 +33649,24 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>1449</v>
+        <v>271</v>
+      </c>
+      <c r="F375" t="s">
+        <v>157</v>
       </c>
       <c r="G375" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H375" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>795</v>
-      </c>
-      <c r="F376" t="s">
-        <v>1452</v>
+        <v>1443</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>1451</v>
       </c>
       <c r="G376" t="s">
-        <v>157</v>
+        <v>1067</v>
       </c>
       <c r="H376" t="s">
         <v>797</v>
@@ -33698,170 +33674,173 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F377" t="s">
-        <v>157</v>
+        <v>1453</v>
       </c>
       <c r="G377" t="s">
+        <v>157</v>
+      </c>
+      <c r="H377" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>1451</v>
+        <v>271</v>
+      </c>
+      <c r="F378" t="s">
+        <v>157</v>
       </c>
       <c r="G378" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H378" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>795</v>
+        <v>272</v>
       </c>
       <c r="F379" t="s">
-        <v>1453</v>
+        <v>1067</v>
       </c>
       <c r="G379" t="s">
-        <v>157</v>
-      </c>
-      <c r="H379" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F380" t="s">
-        <v>157</v>
+        <v>1450</v>
       </c>
       <c r="G380" t="s">
+        <v>157</v>
+      </c>
+      <c r="H380" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F381" t="s">
-        <v>1067</v>
+        <v>157</v>
       </c>
       <c r="G381" t="s">
+        <v>804</v>
+      </c>
+      <c r="H381" t="s">
+        <v>804</v>
+      </c>
+      <c r="I381" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>795</v>
-      </c>
-      <c r="F382" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G382" t="s">
-        <v>157</v>
-      </c>
-      <c r="H382" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>52</v>
+      </c>
+      <c r="B383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383">
+        <v>5</v>
+      </c>
       <c r="E383" t="s">
-        <v>271</v>
-      </c>
-      <c r="F383" t="s">
-        <v>157</v>
-      </c>
-      <c r="G383" t="s">
-        <v>804</v>
-      </c>
-      <c r="H383" t="s">
-        <v>804</v>
-      </c>
-      <c r="I383" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F384" t="s">
+        <v>141</v>
+      </c>
+      <c r="G384" t="s">
+        <v>142</v>
+      </c>
+      <c r="H384" t="s">
+        <v>800</v>
+      </c>
+      <c r="I384" t="s">
+        <v>801</v>
+      </c>
+      <c r="J384" t="s">
+        <v>802</v>
+      </c>
+      <c r="K384" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>52</v>
-      </c>
-      <c r="B385" t="s">
-        <v>22</v>
-      </c>
-      <c r="C385" t="s">
-        <v>7</v>
-      </c>
-      <c r="D385">
-        <v>5</v>
-      </c>
       <c r="E385" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G385" t="s">
+        <v>240</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I385" t="s">
+        <v>157</v>
+      </c>
+      <c r="J385" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F386" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G386" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H386" t="s">
-        <v>800</v>
-      </c>
-      <c r="I386" t="s">
-        <v>801</v>
-      </c>
-      <c r="J386" t="s">
-        <v>802</v>
-      </c>
-      <c r="K386" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>143</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1448</v>
+        <v>1443</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>1449</v>
       </c>
       <c r="G387" t="s">
-        <v>240</v>
-      </c>
-      <c r="H387" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="I387" t="s">
-        <v>157</v>
-      </c>
-      <c r="J387" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H387" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="F388" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="G388" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H388" t="s">
         <v>797</v>
@@ -33869,27 +33848,24 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F389" s="2" t="s">
-        <v>1449</v>
+        <v>271</v>
+      </c>
+      <c r="F389" t="s">
+        <v>157</v>
       </c>
       <c r="G389" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H389" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>795</v>
-      </c>
-      <c r="F390" t="s">
-        <v>1452</v>
+        <v>1443</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>1451</v>
       </c>
       <c r="G390" t="s">
-        <v>157</v>
+        <v>1067</v>
       </c>
       <c r="H390" t="s">
         <v>797</v>
@@ -33897,170 +33873,173 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F391" t="s">
-        <v>157</v>
+        <v>1453</v>
       </c>
       <c r="G391" t="s">
+        <v>157</v>
+      </c>
+      <c r="H391" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>1451</v>
+        <v>271</v>
+      </c>
+      <c r="F392" t="s">
+        <v>157</v>
       </c>
       <c r="G392" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H392" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>795</v>
+        <v>272</v>
       </c>
       <c r="F393" t="s">
-        <v>1453</v>
+        <v>1067</v>
       </c>
       <c r="G393" t="s">
-        <v>157</v>
-      </c>
-      <c r="H393" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F394" t="s">
-        <v>157</v>
+        <v>1450</v>
       </c>
       <c r="G394" t="s">
+        <v>157</v>
+      </c>
+      <c r="H394" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F395" t="s">
-        <v>1067</v>
+        <v>157</v>
       </c>
       <c r="G395" t="s">
+        <v>804</v>
+      </c>
+      <c r="H395" t="s">
+        <v>804</v>
+      </c>
+      <c r="I395" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>795</v>
-      </c>
-      <c r="F396" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G396" t="s">
-        <v>157</v>
-      </c>
-      <c r="H396" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>53</v>
+      </c>
+      <c r="B397" t="s">
+        <v>22</v>
+      </c>
+      <c r="C397" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397">
+        <v>5</v>
+      </c>
       <c r="E397" t="s">
-        <v>271</v>
-      </c>
-      <c r="F397" t="s">
-        <v>157</v>
-      </c>
-      <c r="G397" t="s">
-        <v>804</v>
-      </c>
-      <c r="H397" t="s">
-        <v>804</v>
-      </c>
-      <c r="I397" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F398" t="s">
+        <v>141</v>
+      </c>
+      <c r="G398" t="s">
+        <v>142</v>
+      </c>
+      <c r="H398" t="s">
+        <v>800</v>
+      </c>
+      <c r="I398" t="s">
+        <v>801</v>
+      </c>
+      <c r="J398" t="s">
+        <v>802</v>
+      </c>
+      <c r="K398" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>53</v>
-      </c>
-      <c r="B399" t="s">
-        <v>22</v>
-      </c>
-      <c r="C399" t="s">
-        <v>8</v>
-      </c>
-      <c r="D399">
-        <v>5</v>
-      </c>
       <c r="E399" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G399" t="s">
+        <v>240</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I399" t="s">
+        <v>157</v>
+      </c>
+      <c r="J399" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F400" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G400" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H400" t="s">
-        <v>800</v>
-      </c>
-      <c r="I400" t="s">
-        <v>801</v>
-      </c>
-      <c r="J400" t="s">
-        <v>802</v>
-      </c>
-      <c r="K400" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>143</v>
-      </c>
-      <c r="F401" t="s">
-        <v>1441</v>
+        <v>1443</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>1454</v>
       </c>
       <c r="G401" t="s">
-        <v>240</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I401" t="s">
-        <v>157</v>
-      </c>
-      <c r="J401" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H401" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="F402" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G402" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H402" t="s">
         <v>797</v>
@@ -34068,27 +34047,24 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>1454</v>
+        <v>271</v>
+      </c>
+      <c r="F403" t="s">
+        <v>157</v>
       </c>
       <c r="G403" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H403" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>795</v>
-      </c>
-      <c r="F404" t="s">
-        <v>1444</v>
+        <v>1443</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>1455</v>
       </c>
       <c r="G404" t="s">
-        <v>157</v>
+        <v>1067</v>
       </c>
       <c r="H404" t="s">
         <v>797</v>
@@ -34096,170 +34072,173 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F405" t="s">
-        <v>157</v>
+        <v>1445</v>
       </c>
       <c r="G405" t="s">
+        <v>157</v>
+      </c>
+      <c r="H405" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>1455</v>
+        <v>271</v>
+      </c>
+      <c r="F406" t="s">
+        <v>157</v>
       </c>
       <c r="G406" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H406" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>795</v>
+        <v>272</v>
       </c>
       <c r="F407" t="s">
-        <v>1445</v>
+        <v>1067</v>
       </c>
       <c r="G407" t="s">
-        <v>157</v>
-      </c>
-      <c r="H407" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F408" t="s">
-        <v>157</v>
+        <v>1447</v>
       </c>
       <c r="G408" t="s">
+        <v>157</v>
+      </c>
+      <c r="H408" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F409" t="s">
-        <v>1067</v>
+        <v>157</v>
       </c>
       <c r="G409" t="s">
+        <v>804</v>
+      </c>
+      <c r="H409" t="s">
+        <v>804</v>
+      </c>
+      <c r="I409" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>795</v>
-      </c>
-      <c r="F410" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G410" t="s">
-        <v>157</v>
-      </c>
-      <c r="H410" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>54</v>
+      </c>
+      <c r="B411" t="s">
+        <v>22</v>
+      </c>
+      <c r="C411" t="s">
+        <v>8</v>
+      </c>
+      <c r="D411">
+        <v>5</v>
+      </c>
       <c r="E411" t="s">
-        <v>271</v>
-      </c>
-      <c r="F411" t="s">
-        <v>157</v>
-      </c>
-      <c r="G411" t="s">
-        <v>804</v>
-      </c>
-      <c r="H411" t="s">
-        <v>804</v>
-      </c>
-      <c r="I411" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F412" t="s">
+        <v>141</v>
+      </c>
+      <c r="G412" t="s">
+        <v>142</v>
+      </c>
+      <c r="H412" t="s">
+        <v>800</v>
+      </c>
+      <c r="I412" t="s">
+        <v>801</v>
+      </c>
+      <c r="J412" t="s">
+        <v>802</v>
+      </c>
+      <c r="K412" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>54</v>
-      </c>
-      <c r="B413" t="s">
-        <v>22</v>
-      </c>
-      <c r="C413" t="s">
-        <v>8</v>
-      </c>
-      <c r="D413">
-        <v>5</v>
-      </c>
       <c r="E413" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G413" t="s">
+        <v>240</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I413" t="s">
+        <v>157</v>
+      </c>
+      <c r="J413" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F414" t="s">
-        <v>141</v>
+        <v>1442</v>
       </c>
       <c r="G414" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H414" t="s">
-        <v>800</v>
-      </c>
-      <c r="I414" t="s">
-        <v>801</v>
-      </c>
-      <c r="J414" t="s">
-        <v>802</v>
-      </c>
-      <c r="K414" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>143</v>
-      </c>
-      <c r="F415" t="s">
-        <v>1441</v>
+        <v>1443</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>1454</v>
       </c>
       <c r="G415" t="s">
-        <v>240</v>
-      </c>
-      <c r="H415" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="I415" t="s">
-        <v>157</v>
-      </c>
-      <c r="J415" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H415" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="F416" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G416" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H416" t="s">
         <v>797</v>
@@ -34267,27 +34246,24 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F417" s="2" t="s">
-        <v>1454</v>
+        <v>271</v>
+      </c>
+      <c r="F417" t="s">
+        <v>157</v>
       </c>
       <c r="G417" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H417" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>795</v>
-      </c>
-      <c r="F418" t="s">
-        <v>1444</v>
+        <v>1443</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>1455</v>
       </c>
       <c r="G418" t="s">
-        <v>157</v>
+        <v>1067</v>
       </c>
       <c r="H418" t="s">
         <v>797</v>
@@ -34295,387 +34271,390 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F419" t="s">
-        <v>157</v>
+        <v>1445</v>
       </c>
       <c r="G419" t="s">
+        <v>157</v>
+      </c>
+      <c r="H419" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F420" s="2" t="s">
-        <v>1455</v>
+        <v>271</v>
+      </c>
+      <c r="F420" t="s">
+        <v>157</v>
       </c>
       <c r="G420" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H420" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>795</v>
+        <v>272</v>
       </c>
       <c r="F421" t="s">
-        <v>1445</v>
+        <v>1067</v>
       </c>
       <c r="G421" t="s">
-        <v>157</v>
-      </c>
-      <c r="H421" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>271</v>
+        <v>795</v>
       </c>
       <c r="F422" t="s">
-        <v>157</v>
+        <v>1447</v>
       </c>
       <c r="G422" t="s">
+        <v>157</v>
+      </c>
+      <c r="H422" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F423" t="s">
-        <v>1067</v>
+        <v>157</v>
       </c>
       <c r="G423" t="s">
+        <v>804</v>
+      </c>
+      <c r="H423" t="s">
+        <v>804</v>
+      </c>
+      <c r="I423" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>795</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G424" t="s">
-        <v>157</v>
-      </c>
-      <c r="H424" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>55</v>
+      </c>
+      <c r="B425" t="s">
+        <v>23</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425">
+        <v>6</v>
+      </c>
       <c r="E425" t="s">
-        <v>271</v>
-      </c>
-      <c r="F425" t="s">
-        <v>157</v>
-      </c>
-      <c r="G425" t="s">
-        <v>804</v>
-      </c>
-      <c r="H425" t="s">
-        <v>804</v>
-      </c>
-      <c r="I425" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F426" t="s">
+        <v>141</v>
+      </c>
+      <c r="G426" t="s">
+        <v>142</v>
+      </c>
+      <c r="H426" t="s">
+        <v>800</v>
+      </c>
+      <c r="I426" t="s">
+        <v>801</v>
+      </c>
+      <c r="J426" t="s">
+        <v>802</v>
+      </c>
+      <c r="K426" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>55</v>
-      </c>
-      <c r="B427" t="s">
-        <v>23</v>
-      </c>
-      <c r="C427" t="s">
-        <v>6</v>
-      </c>
-      <c r="D427">
-        <v>6</v>
-      </c>
       <c r="E427" t="s">
-        <v>137</v>
+        <v>286</v>
+      </c>
+      <c r="F427" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G427" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H427" t="s">
+        <v>157</v>
+      </c>
+      <c r="I427" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J427" t="s">
+        <v>157</v>
+      </c>
+      <c r="K427" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L427" t="s">
+        <v>802</v>
+      </c>
+      <c r="M427" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F428" t="s">
-        <v>141</v>
+        <v>1395</v>
       </c>
       <c r="G428" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H428" t="s">
-        <v>800</v>
-      </c>
-      <c r="I428" t="s">
-        <v>801</v>
-      </c>
-      <c r="J428" t="s">
-        <v>802</v>
-      </c>
-      <c r="K428" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>286</v>
+        <v>804</v>
       </c>
       <c r="F429" t="s">
-        <v>1248</v>
+        <v>804</v>
       </c>
       <c r="G429" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H429" t="s">
-        <v>157</v>
-      </c>
-      <c r="I429" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J429" t="s">
-        <v>157</v>
-      </c>
-      <c r="K429" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L429" t="s">
-        <v>802</v>
-      </c>
-      <c r="M429" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>795</v>
-      </c>
-      <c r="F430" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G430" t="s">
-        <v>157</v>
-      </c>
-      <c r="H430" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>56</v>
+      </c>
+      <c r="B431" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431">
+        <v>6</v>
+      </c>
       <c r="E431" t="s">
-        <v>804</v>
-      </c>
-      <c r="F431" t="s">
-        <v>804</v>
-      </c>
-      <c r="G431" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F432" t="s">
+        <v>141</v>
+      </c>
+      <c r="G432" t="s">
+        <v>142</v>
+      </c>
+      <c r="H432" t="s">
+        <v>800</v>
+      </c>
+      <c r="I432" t="s">
+        <v>801</v>
+      </c>
+      <c r="J432" t="s">
+        <v>802</v>
+      </c>
+      <c r="K432" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>56</v>
-      </c>
-      <c r="B433" t="s">
-        <v>23</v>
-      </c>
-      <c r="C433" t="s">
-        <v>6</v>
-      </c>
-      <c r="D433">
-        <v>6</v>
-      </c>
       <c r="E433" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F433" t="s">
+        <v>844</v>
+      </c>
+      <c r="G433" t="s">
+        <v>240</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433" t="s">
+        <v>157</v>
+      </c>
+      <c r="J433" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>139</v>
+        <v>1460</v>
       </c>
       <c r="F434" t="s">
-        <v>141</v>
+        <v>1461</v>
       </c>
       <c r="G434" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H434" t="s">
-        <v>800</v>
-      </c>
-      <c r="I434" t="s">
-        <v>801</v>
-      </c>
-      <c r="J434" t="s">
-        <v>802</v>
-      </c>
-      <c r="K434" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F435" t="s">
-        <v>844</v>
+        <v>1395</v>
       </c>
       <c r="G435" t="s">
-        <v>240</v>
-      </c>
-      <c r="H435">
-        <v>0</v>
-      </c>
-      <c r="I435" t="s">
-        <v>157</v>
-      </c>
-      <c r="J435" t="s">
+        <v>157</v>
+      </c>
+      <c r="H435" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>1460</v>
+        <v>877</v>
       </c>
       <c r="F436" t="s">
-        <v>1461</v>
+        <v>157</v>
       </c>
       <c r="G436" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H436" t="s">
+        <v>804</v>
+      </c>
+      <c r="I436" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>795</v>
-      </c>
-      <c r="F437" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G437" t="s">
-        <v>157</v>
-      </c>
-      <c r="H437" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>57</v>
+      </c>
+      <c r="B438" t="s">
+        <v>23</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438">
+        <v>6</v>
+      </c>
       <c r="E438" t="s">
-        <v>877</v>
-      </c>
-      <c r="F438" t="s">
-        <v>157</v>
-      </c>
-      <c r="G438" t="s">
-        <v>804</v>
-      </c>
-      <c r="H438" t="s">
-        <v>804</v>
-      </c>
-      <c r="I438" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F439" t="s">
+        <v>141</v>
+      </c>
+      <c r="G439" t="s">
+        <v>142</v>
+      </c>
+      <c r="H439" t="s">
+        <v>800</v>
+      </c>
+      <c r="I439" t="s">
+        <v>801</v>
+      </c>
+      <c r="J439" t="s">
+        <v>802</v>
+      </c>
+      <c r="K439" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>57</v>
-      </c>
-      <c r="B440" t="s">
-        <v>23</v>
-      </c>
-      <c r="C440" t="s">
-        <v>6</v>
-      </c>
-      <c r="D440">
-        <v>6</v>
-      </c>
       <c r="E440" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F440" t="s">
+        <v>844</v>
+      </c>
+      <c r="G440" t="s">
+        <v>240</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440" t="s">
+        <v>157</v>
+      </c>
+      <c r="J440" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>139</v>
+        <v>1462</v>
       </c>
       <c r="F441" t="s">
-        <v>141</v>
+        <v>802</v>
       </c>
       <c r="G441" t="s">
-        <v>142</v>
-      </c>
-      <c r="H441" t="s">
-        <v>800</v>
-      </c>
-      <c r="I441" t="s">
-        <v>801</v>
-      </c>
-      <c r="J441" t="s">
-        <v>802</v>
-      </c>
-      <c r="K441" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F442" t="s">
-        <v>844</v>
+        <v>1395</v>
       </c>
       <c r="G442" t="s">
-        <v>240</v>
-      </c>
-      <c r="H442">
-        <v>0</v>
-      </c>
-      <c r="I442" t="s">
-        <v>157</v>
-      </c>
-      <c r="J442" t="s">
+        <v>157</v>
+      </c>
+      <c r="H442" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>1462</v>
+        <v>877</v>
       </c>
       <c r="F443" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="G443" t="s">
+        <v>804</v>
+      </c>
+      <c r="H443" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>795</v>
+        <v>1460</v>
       </c>
       <c r="F444" t="s">
-        <v>1395</v>
+        <v>1461</v>
       </c>
       <c r="G444" t="s">
         <v>157</v>
@@ -34686,227 +34665,227 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>877</v>
+        <v>804</v>
       </c>
       <c r="F445" t="s">
-        <v>157</v>
-      </c>
-      <c r="G445" t="s">
-        <v>804</v>
-      </c>
-      <c r="H445" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F446" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G446" t="s">
-        <v>157</v>
-      </c>
-      <c r="H446" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>58</v>
+      </c>
+      <c r="B447" t="s">
+        <v>23</v>
+      </c>
+      <c r="C447" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447">
+        <v>6</v>
+      </c>
       <c r="E447" t="s">
-        <v>804</v>
-      </c>
-      <c r="F447" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F448" t="s">
+        <v>141</v>
+      </c>
+      <c r="G448" t="s">
+        <v>142</v>
+      </c>
+      <c r="H448" t="s">
+        <v>800</v>
+      </c>
+      <c r="I448" t="s">
+        <v>801</v>
+      </c>
+      <c r="J448" t="s">
+        <v>802</v>
+      </c>
+      <c r="K448" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>58</v>
-      </c>
-      <c r="B449" t="s">
-        <v>23</v>
-      </c>
-      <c r="C449" t="s">
-        <v>7</v>
-      </c>
-      <c r="D449">
-        <v>6</v>
-      </c>
       <c r="E449" t="s">
-        <v>137</v>
+        <v>286</v>
+      </c>
+      <c r="F449" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G449" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H449" t="s">
+        <v>157</v>
+      </c>
+      <c r="I449" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J449" t="s">
+        <v>157</v>
+      </c>
+      <c r="K449" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L449" t="s">
+        <v>802</v>
+      </c>
+      <c r="M449" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F450" t="s">
-        <v>141</v>
+        <v>1463</v>
       </c>
       <c r="G450" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H450" t="s">
-        <v>800</v>
-      </c>
-      <c r="I450" t="s">
-        <v>801</v>
-      </c>
-      <c r="J450" t="s">
-        <v>802</v>
-      </c>
-      <c r="K450" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="F451" t="s">
-        <v>1248</v>
+        <v>1395</v>
       </c>
       <c r="G451" t="s">
-        <v>1457</v>
+        <v>157</v>
       </c>
       <c r="H451" t="s">
-        <v>157</v>
-      </c>
-      <c r="I451" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J451" t="s">
-        <v>157</v>
-      </c>
-      <c r="K451" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L451" t="s">
-        <v>802</v>
-      </c>
-      <c r="M451" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="F452" t="s">
-        <v>1463</v>
+        <v>804</v>
       </c>
       <c r="G452" t="s">
-        <v>157</v>
-      </c>
-      <c r="H452" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>795</v>
-      </c>
-      <c r="F453" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G453" t="s">
-        <v>157</v>
-      </c>
-      <c r="H453" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>59</v>
+      </c>
+      <c r="B454" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454">
+        <v>6</v>
+      </c>
       <c r="E454" t="s">
-        <v>804</v>
-      </c>
-      <c r="F454" t="s">
-        <v>804</v>
-      </c>
-      <c r="G454" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F455" t="s">
+        <v>141</v>
+      </c>
+      <c r="G455" t="s">
+        <v>142</v>
+      </c>
+      <c r="H455" t="s">
+        <v>800</v>
+      </c>
+      <c r="I455" t="s">
+        <v>801</v>
+      </c>
+      <c r="J455" t="s">
+        <v>802</v>
+      </c>
+      <c r="K455" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>59</v>
-      </c>
-      <c r="B456" t="s">
-        <v>23</v>
-      </c>
-      <c r="C456" t="s">
-        <v>7</v>
-      </c>
-      <c r="D456">
-        <v>6</v>
-      </c>
       <c r="E456" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F456" t="s">
+        <v>844</v>
+      </c>
+      <c r="G456" t="s">
+        <v>240</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456" t="s">
+        <v>157</v>
+      </c>
+      <c r="J456" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>139</v>
+        <v>1460</v>
       </c>
       <c r="F457" t="s">
-        <v>141</v>
+        <v>1461</v>
       </c>
       <c r="G457" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H457" t="s">
-        <v>800</v>
-      </c>
-      <c r="I457" t="s">
-        <v>801</v>
-      </c>
-      <c r="J457" t="s">
-        <v>802</v>
-      </c>
-      <c r="K457" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F458" t="s">
-        <v>844</v>
+        <v>1463</v>
       </c>
       <c r="G458" t="s">
-        <v>240</v>
-      </c>
-      <c r="H458">
-        <v>0</v>
-      </c>
-      <c r="I458" t="s">
-        <v>157</v>
-      </c>
-      <c r="J458" t="s">
+        <v>157</v>
+      </c>
+      <c r="H458" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>1460</v>
+        <v>795</v>
       </c>
       <c r="F459" t="s">
-        <v>1461</v>
+        <v>1395</v>
       </c>
       <c r="G459" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H459" t="s">
         <v>797</v>
@@ -34914,134 +34893,134 @@
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>795</v>
+        <v>877</v>
       </c>
       <c r="F460" t="s">
-        <v>1463</v>
+        <v>157</v>
       </c>
       <c r="G460" t="s">
-        <v>157</v>
+        <v>804</v>
       </c>
       <c r="H460" t="s">
+        <v>804</v>
+      </c>
+      <c r="I460" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>795</v>
-      </c>
-      <c r="F461" t="s">
-        <v>1395</v>
-      </c>
-      <c r="G461" t="s">
-        <v>157</v>
-      </c>
-      <c r="H461" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>60</v>
+      </c>
+      <c r="B462" t="s">
+        <v>23</v>
+      </c>
+      <c r="C462" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462">
+        <v>6</v>
+      </c>
       <c r="E462" t="s">
-        <v>877</v>
-      </c>
-      <c r="F462" t="s">
-        <v>157</v>
-      </c>
-      <c r="G462" t="s">
-        <v>804</v>
-      </c>
-      <c r="H462" t="s">
-        <v>804</v>
-      </c>
-      <c r="I462" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F463" t="s">
+        <v>141</v>
+      </c>
+      <c r="G463" t="s">
+        <v>142</v>
+      </c>
+      <c r="H463" t="s">
+        <v>800</v>
+      </c>
+      <c r="I463" t="s">
+        <v>801</v>
+      </c>
+      <c r="J463" t="s">
+        <v>802</v>
+      </c>
+      <c r="K463" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>60</v>
-      </c>
-      <c r="B464" t="s">
-        <v>23</v>
-      </c>
-      <c r="C464" t="s">
-        <v>7</v>
-      </c>
-      <c r="D464">
-        <v>6</v>
-      </c>
       <c r="E464" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F464" t="s">
+        <v>844</v>
+      </c>
+      <c r="G464" t="s">
+        <v>240</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464" t="s">
+        <v>157</v>
+      </c>
+      <c r="J464" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E465" t="s">
-        <v>139</v>
+        <v>1462</v>
       </c>
       <c r="F465" t="s">
-        <v>141</v>
+        <v>802</v>
       </c>
       <c r="G465" t="s">
-        <v>142</v>
-      </c>
-      <c r="H465" t="s">
-        <v>800</v>
-      </c>
-      <c r="I465" t="s">
-        <v>801</v>
-      </c>
-      <c r="J465" t="s">
-        <v>802</v>
-      </c>
-      <c r="K465" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E466" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F466" t="s">
-        <v>844</v>
+        <v>1463</v>
       </c>
       <c r="G466" t="s">
-        <v>240</v>
-      </c>
-      <c r="H466">
-        <v>0</v>
-      </c>
-      <c r="I466" t="s">
-        <v>157</v>
-      </c>
-      <c r="J466" t="s">
+        <v>157</v>
+      </c>
+      <c r="H466" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E467" t="s">
-        <v>1462</v>
+        <v>795</v>
       </c>
       <c r="F467" t="s">
-        <v>802</v>
+        <v>1395</v>
       </c>
       <c r="G467" t="s">
+        <v>157</v>
+      </c>
+      <c r="H467" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E468" t="s">
-        <v>795</v>
+        <v>877</v>
       </c>
       <c r="F468" t="s">
-        <v>1463</v>
+        <v>157</v>
       </c>
       <c r="G468" t="s">
-        <v>157</v>
+        <v>804</v>
       </c>
       <c r="H468" t="s">
         <v>797</v>
@@ -35049,10 +35028,10 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E469" t="s">
-        <v>795</v>
+        <v>1460</v>
       </c>
       <c r="F469" t="s">
-        <v>1395</v>
+        <v>1461</v>
       </c>
       <c r="G469" t="s">
         <v>157</v>
@@ -35063,123 +35042,123 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E470" t="s">
-        <v>877</v>
+        <v>804</v>
       </c>
       <c r="F470" t="s">
-        <v>157</v>
-      </c>
-      <c r="G470" t="s">
-        <v>804</v>
-      </c>
-      <c r="H470" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E471" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F471" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G471" t="s">
-        <v>157</v>
-      </c>
-      <c r="H471" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>61</v>
+      </c>
+      <c r="B472" t="s">
+        <v>23</v>
+      </c>
+      <c r="C472" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472">
+        <v>6</v>
+      </c>
       <c r="E472" t="s">
-        <v>804</v>
-      </c>
-      <c r="F472" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E473" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F473" t="s">
+        <v>141</v>
+      </c>
+      <c r="G473" t="s">
+        <v>142</v>
+      </c>
+      <c r="H473" t="s">
+        <v>800</v>
+      </c>
+      <c r="I473" t="s">
+        <v>801</v>
+      </c>
+      <c r="J473" t="s">
+        <v>802</v>
+      </c>
+      <c r="K473" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>61</v>
-      </c>
-      <c r="B474" t="s">
-        <v>23</v>
-      </c>
-      <c r="C474" t="s">
-        <v>8</v>
-      </c>
-      <c r="D474">
-        <v>6</v>
-      </c>
       <c r="E474" t="s">
-        <v>137</v>
+        <v>286</v>
+      </c>
+      <c r="F474" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G474" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H474" t="s">
+        <v>157</v>
+      </c>
+      <c r="I474" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J474" t="s">
+        <v>157</v>
+      </c>
+      <c r="K474" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L474" t="s">
+        <v>802</v>
+      </c>
+      <c r="M474" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E475" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F475" t="s">
-        <v>141</v>
+        <v>1463</v>
       </c>
       <c r="G475" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H475" t="s">
-        <v>800</v>
-      </c>
-      <c r="I475" t="s">
-        <v>801</v>
-      </c>
-      <c r="J475" t="s">
-        <v>802</v>
-      </c>
-      <c r="K475" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E476" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="F476" t="s">
-        <v>1248</v>
+        <v>1395</v>
       </c>
       <c r="G476" t="s">
-        <v>1457</v>
+        <v>157</v>
       </c>
       <c r="H476" t="s">
-        <v>157</v>
-      </c>
-      <c r="I476" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J476" t="s">
-        <v>157</v>
-      </c>
-      <c r="K476" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L476" t="s">
-        <v>802</v>
-      </c>
-      <c r="M476" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E477" t="s">
-        <v>795</v>
+        <v>280</v>
       </c>
       <c r="F477" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G477" t="s">
-        <v>157</v>
+        <v>802</v>
       </c>
       <c r="H477" t="s">
         <v>797</v>
@@ -35187,13 +35166,13 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E478" t="s">
-        <v>795</v>
+        <v>271</v>
       </c>
       <c r="F478" t="s">
-        <v>1395</v>
+        <v>157</v>
       </c>
       <c r="G478" t="s">
-        <v>157</v>
+        <v>804</v>
       </c>
       <c r="H478" t="s">
         <v>797</v>
@@ -35201,117 +35180,117 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E479" t="s">
-        <v>280</v>
+        <v>804</v>
       </c>
       <c r="F479" t="s">
-        <v>1464</v>
+        <v>804</v>
       </c>
       <c r="G479" t="s">
-        <v>802</v>
-      </c>
-      <c r="H479" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E480" t="s">
-        <v>271</v>
-      </c>
-      <c r="F480" t="s">
-        <v>157</v>
-      </c>
-      <c r="G480" t="s">
-        <v>804</v>
-      </c>
-      <c r="H480" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>62</v>
+      </c>
+      <c r="B481" t="s">
+        <v>23</v>
+      </c>
+      <c r="C481" t="s">
+        <v>8</v>
+      </c>
+      <c r="D481">
+        <v>6</v>
+      </c>
       <c r="E481" t="s">
-        <v>804</v>
-      </c>
-      <c r="F481" t="s">
-        <v>804</v>
-      </c>
-      <c r="G481" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E482" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F482" t="s">
+        <v>141</v>
+      </c>
+      <c r="G482" t="s">
+        <v>142</v>
+      </c>
+      <c r="H482" t="s">
+        <v>800</v>
+      </c>
+      <c r="I482" t="s">
+        <v>801</v>
+      </c>
+      <c r="J482" t="s">
+        <v>802</v>
+      </c>
+      <c r="K482" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>62</v>
-      </c>
-      <c r="B483" t="s">
-        <v>23</v>
-      </c>
-      <c r="C483" t="s">
-        <v>8</v>
-      </c>
-      <c r="D483">
-        <v>6</v>
-      </c>
       <c r="E483" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F483" t="s">
+        <v>844</v>
+      </c>
+      <c r="G483" t="s">
+        <v>240</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483" t="s">
+        <v>157</v>
+      </c>
+      <c r="J483" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E484" t="s">
-        <v>139</v>
+        <v>1460</v>
       </c>
       <c r="F484" t="s">
-        <v>141</v>
+        <v>1461</v>
       </c>
       <c r="G484" t="s">
-        <v>142</v>
+        <v>802</v>
       </c>
       <c r="H484" t="s">
-        <v>800</v>
-      </c>
-      <c r="I484" t="s">
-        <v>801</v>
-      </c>
-      <c r="J484" t="s">
-        <v>802</v>
-      </c>
-      <c r="K484" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E485" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F485" t="s">
-        <v>844</v>
+        <v>1463</v>
       </c>
       <c r="G485" t="s">
-        <v>240</v>
-      </c>
-      <c r="H485">
-        <v>0</v>
-      </c>
-      <c r="I485" t="s">
-        <v>157</v>
-      </c>
-      <c r="J485" t="s">
+        <v>157</v>
+      </c>
+      <c r="H485" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E486" t="s">
-        <v>1460</v>
+        <v>795</v>
       </c>
       <c r="F486" t="s">
-        <v>1461</v>
+        <v>1395</v>
       </c>
       <c r="G486" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="H486" t="s">
         <v>797</v>
@@ -35319,13 +35298,13 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E487" t="s">
-        <v>795</v>
+        <v>280</v>
       </c>
       <c r="F487" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G487" t="s">
-        <v>157</v>
+        <v>802</v>
       </c>
       <c r="H487" t="s">
         <v>797</v>
@@ -35333,13 +35312,13 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E488" t="s">
-        <v>795</v>
+        <v>271</v>
       </c>
       <c r="F488" t="s">
-        <v>1395</v>
+        <v>157</v>
       </c>
       <c r="G488" t="s">
-        <v>157</v>
+        <v>804</v>
       </c>
       <c r="H488" t="s">
         <v>797</v>
@@ -35347,134 +35326,134 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E489" t="s">
-        <v>280</v>
+        <v>877</v>
       </c>
       <c r="F489" t="s">
-        <v>1464</v>
+        <v>157</v>
       </c>
       <c r="G489" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H489" t="s">
+        <v>804</v>
+      </c>
+      <c r="I489" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E490" t="s">
-        <v>271</v>
-      </c>
-      <c r="F490" t="s">
-        <v>157</v>
-      </c>
-      <c r="G490" t="s">
-        <v>804</v>
-      </c>
-      <c r="H490" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>63</v>
+      </c>
+      <c r="B491" t="s">
+        <v>23</v>
+      </c>
+      <c r="C491" t="s">
+        <v>8</v>
+      </c>
+      <c r="D491">
+        <v>6</v>
+      </c>
       <c r="E491" t="s">
-        <v>877</v>
-      </c>
-      <c r="F491" t="s">
-        <v>157</v>
-      </c>
-      <c r="G491" t="s">
-        <v>804</v>
-      </c>
-      <c r="H491" t="s">
-        <v>804</v>
-      </c>
-      <c r="I491" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E492" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F492" t="s">
+        <v>141</v>
+      </c>
+      <c r="G492" t="s">
+        <v>142</v>
+      </c>
+      <c r="H492" t="s">
+        <v>800</v>
+      </c>
+      <c r="I492" t="s">
+        <v>801</v>
+      </c>
+      <c r="J492" t="s">
+        <v>802</v>
+      </c>
+      <c r="K492" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>63</v>
-      </c>
-      <c r="B493" t="s">
-        <v>23</v>
-      </c>
-      <c r="C493" t="s">
-        <v>8</v>
-      </c>
-      <c r="D493">
-        <v>6</v>
-      </c>
       <c r="E493" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="F493" t="s">
+        <v>844</v>
+      </c>
+      <c r="G493" t="s">
+        <v>240</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493" t="s">
+        <v>157</v>
+      </c>
+      <c r="J493" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E494" t="s">
-        <v>139</v>
+        <v>1462</v>
       </c>
       <c r="F494" t="s">
-        <v>141</v>
+        <v>802</v>
       </c>
       <c r="G494" t="s">
-        <v>142</v>
-      </c>
-      <c r="H494" t="s">
-        <v>800</v>
-      </c>
-      <c r="I494" t="s">
-        <v>801</v>
-      </c>
-      <c r="J494" t="s">
-        <v>802</v>
-      </c>
-      <c r="K494" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E495" t="s">
-        <v>191</v>
+        <v>795</v>
       </c>
       <c r="F495" t="s">
-        <v>844</v>
+        <v>1463</v>
       </c>
       <c r="G495" t="s">
-        <v>240</v>
-      </c>
-      <c r="H495">
-        <v>0</v>
-      </c>
-      <c r="I495" t="s">
-        <v>157</v>
-      </c>
-      <c r="J495" t="s">
+        <v>157</v>
+      </c>
+      <c r="H495" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E496" t="s">
-        <v>1462</v>
+        <v>795</v>
       </c>
       <c r="F496" t="s">
-        <v>802</v>
+        <v>1395</v>
       </c>
       <c r="G496" t="s">
+        <v>157</v>
+      </c>
+      <c r="H496" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E497" t="s">
-        <v>795</v>
+        <v>280</v>
       </c>
       <c r="F497" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G497" t="s">
-        <v>157</v>
+        <v>802</v>
       </c>
       <c r="H497" t="s">
         <v>797</v>
@@ -35482,13 +35461,13 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E498" t="s">
-        <v>795</v>
+        <v>271</v>
       </c>
       <c r="F498" t="s">
-        <v>1395</v>
+        <v>157</v>
       </c>
       <c r="G498" t="s">
-        <v>157</v>
+        <v>804</v>
       </c>
       <c r="H498" t="s">
         <v>797</v>
@@ -35496,13 +35475,13 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E499" t="s">
-        <v>280</v>
+        <v>877</v>
       </c>
       <c r="F499" t="s">
-        <v>1464</v>
+        <v>157</v>
       </c>
       <c r="G499" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H499" t="s">
         <v>797</v>
@@ -35510,13 +35489,13 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E500" t="s">
-        <v>271</v>
+        <v>1460</v>
       </c>
       <c r="F500" t="s">
-        <v>157</v>
+        <v>1461</v>
       </c>
       <c r="G500" t="s">
-        <v>804</v>
+        <v>157</v>
       </c>
       <c r="H500" t="s">
         <v>797</v>
@@ -35524,80 +35503,101 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E501" t="s">
-        <v>877</v>
+        <v>804</v>
       </c>
       <c r="F501" t="s">
-        <v>157</v>
-      </c>
-      <c r="G501" t="s">
-        <v>804</v>
-      </c>
-      <c r="H501" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E502" t="s">
-        <v>1460</v>
-      </c>
-      <c r="F502" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G502" t="s">
-        <v>157</v>
-      </c>
-      <c r="H502" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>64</v>
+      </c>
+      <c r="B503" t="s">
+        <v>24</v>
+      </c>
+      <c r="C503" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503">
+        <v>7</v>
+      </c>
       <c r="E503" t="s">
-        <v>804</v>
-      </c>
-      <c r="F503" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E504" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F504" t="s">
+        <v>141</v>
+      </c>
+      <c r="G504" t="s">
+        <v>142</v>
+      </c>
+      <c r="H504" t="s">
+        <v>800</v>
+      </c>
+      <c r="I504" t="s">
+        <v>801</v>
+      </c>
+      <c r="J504" t="s">
+        <v>802</v>
+      </c>
+      <c r="K504" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>64</v>
-      </c>
-      <c r="B505" t="s">
-        <v>24</v>
-      </c>
-      <c r="C505" t="s">
-        <v>6</v>
-      </c>
-      <c r="D505">
-        <v>7</v>
-      </c>
       <c r="E505" t="s">
-        <v>137</v>
+        <v>1068</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G505" t="s">
+        <v>240</v>
+      </c>
+      <c r="H505" t="s">
+        <v>802</v>
+      </c>
+      <c r="I505" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J505" t="s">
+        <v>263</v>
+      </c>
+      <c r="K505" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L505" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="F506" t="s">
-        <v>141</v>
+        <v>1467</v>
       </c>
       <c r="G506" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="H506" t="s">
-        <v>800</v>
+        <v>1468</v>
       </c>
       <c r="I506" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J506" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="K506" t="s">
         <v>797</v>
@@ -35605,50 +35605,29 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E507" t="s">
-        <v>1068</v>
+        <v>795</v>
       </c>
       <c r="F507" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="G507" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="H507" t="s">
-        <v>802</v>
-      </c>
-      <c r="I507" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J507" t="s">
-        <v>263</v>
-      </c>
-      <c r="K507" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L507" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E508" t="s">
-        <v>263</v>
+        <v>795</v>
       </c>
       <c r="F508" t="s">
-        <v>1467</v>
+        <v>1475</v>
       </c>
       <c r="G508" t="s">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="H508" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I508" t="s">
-        <v>804</v>
-      </c>
-      <c r="J508" t="s">
-        <v>157</v>
-      </c>
-      <c r="K508" t="s">
         <v>797</v>
       </c>
     </row>
@@ -35657,7 +35636,7 @@
         <v>795</v>
       </c>
       <c r="F509" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="G509" t="s">
         <v>157</v>
@@ -35671,143 +35650,143 @@
         <v>795</v>
       </c>
       <c r="F510" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="G510" t="s">
         <v>157</v>
       </c>
       <c r="H510" t="s">
+        <v>804</v>
+      </c>
+      <c r="I510" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E511" t="s">
-        <v>795</v>
-      </c>
-      <c r="F511" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G511" t="s">
-        <v>157</v>
-      </c>
-      <c r="H511" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>65</v>
+      </c>
+      <c r="B512" t="s">
+        <v>24</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512">
+        <v>7</v>
+      </c>
       <c r="E512" t="s">
-        <v>795</v>
-      </c>
-      <c r="F512" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G512" t="s">
-        <v>157</v>
-      </c>
-      <c r="H512" t="s">
-        <v>804</v>
-      </c>
-      <c r="I512" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E513" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F513" t="s">
+        <v>141</v>
+      </c>
+      <c r="G513" t="s">
+        <v>142</v>
+      </c>
+      <c r="H513" t="s">
+        <v>800</v>
+      </c>
+      <c r="I513" t="s">
+        <v>801</v>
+      </c>
+      <c r="J513" t="s">
+        <v>802</v>
+      </c>
+      <c r="K513" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>65</v>
-      </c>
-      <c r="B514" t="s">
-        <v>24</v>
-      </c>
-      <c r="C514" t="s">
-        <v>6</v>
-      </c>
-      <c r="D514">
-        <v>7</v>
-      </c>
       <c r="E514" t="s">
-        <v>137</v>
+        <v>1068</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G514" t="s">
+        <v>240</v>
+      </c>
+      <c r="H514" t="s">
+        <v>802</v>
+      </c>
+      <c r="I514" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J514" t="s">
+        <v>263</v>
+      </c>
+      <c r="K514" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L514" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E515" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="F515" t="s">
-        <v>141</v>
+        <v>1471</v>
       </c>
       <c r="G515" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="H515" t="s">
-        <v>800</v>
+        <v>1472</v>
       </c>
       <c r="I515" t="s">
-        <v>801</v>
+        <v>263</v>
       </c>
       <c r="J515" t="s">
-        <v>802</v>
+        <v>1473</v>
       </c>
       <c r="K515" t="s">
+        <v>804</v>
+      </c>
+      <c r="L515" t="s">
+        <v>157</v>
+      </c>
+      <c r="M515" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E516" t="s">
-        <v>1068</v>
+        <v>795</v>
       </c>
       <c r="F516" t="s">
-        <v>1465</v>
+        <v>1474</v>
       </c>
       <c r="G516" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="H516" t="s">
-        <v>802</v>
-      </c>
-      <c r="I516" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J516" t="s">
-        <v>263</v>
-      </c>
-      <c r="K516" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L516" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E517" t="s">
-        <v>263</v>
+        <v>795</v>
       </c>
       <c r="F517" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="G517" t="s">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="H517" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I517" t="s">
-        <v>263</v>
-      </c>
-      <c r="J517" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K517" t="s">
-        <v>804</v>
-      </c>
-      <c r="L517" t="s">
-        <v>157</v>
-      </c>
-      <c r="M517" t="s">
         <v>797</v>
       </c>
     </row>
@@ -35816,7 +35795,7 @@
         <v>795</v>
       </c>
       <c r="F518" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="G518" t="s">
         <v>157</v>
@@ -35830,7 +35809,7 @@
         <v>795</v>
       </c>
       <c r="F519" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="G519" t="s">
         <v>157</v>
@@ -35844,86 +35823,107 @@
         <v>795</v>
       </c>
       <c r="F520" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="G520" t="s">
         <v>157</v>
       </c>
       <c r="H520" t="s">
+        <v>804</v>
+      </c>
+      <c r="I520" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E521" t="s">
-        <v>795</v>
-      </c>
-      <c r="F521" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G521" t="s">
-        <v>157</v>
-      </c>
-      <c r="H521" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>66</v>
+      </c>
+      <c r="B522" t="s">
+        <v>24</v>
+      </c>
+      <c r="C522" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522">
+        <v>7</v>
+      </c>
       <c r="E522" t="s">
-        <v>795</v>
-      </c>
-      <c r="F522" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G522" t="s">
-        <v>157</v>
-      </c>
-      <c r="H522" t="s">
-        <v>804</v>
-      </c>
-      <c r="I522" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E523" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F523" t="s">
+        <v>141</v>
+      </c>
+      <c r="G523" t="s">
+        <v>142</v>
+      </c>
+      <c r="H523" t="s">
+        <v>800</v>
+      </c>
+      <c r="I523" t="s">
+        <v>801</v>
+      </c>
+      <c r="J523" t="s">
+        <v>802</v>
+      </c>
+      <c r="K523" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A524">
-        <v>66</v>
-      </c>
-      <c r="B524" t="s">
-        <v>24</v>
-      </c>
-      <c r="C524" t="s">
-        <v>7</v>
-      </c>
-      <c r="D524">
-        <v>7</v>
-      </c>
       <c r="E524" t="s">
-        <v>137</v>
+        <v>1068</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G524" t="s">
+        <v>240</v>
+      </c>
+      <c r="H524" t="s">
+        <v>802</v>
+      </c>
+      <c r="I524" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J524" t="s">
+        <v>263</v>
+      </c>
+      <c r="K524" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L524" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E525" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="F525" t="s">
-        <v>141</v>
+        <v>1467</v>
       </c>
       <c r="G525" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="H525" t="s">
-        <v>800</v>
+        <v>1468</v>
       </c>
       <c r="I525" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J525" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="K525" t="s">
         <v>797</v>
@@ -35931,329 +35931,329 @@
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E526" t="s">
-        <v>1068</v>
+        <v>286</v>
       </c>
       <c r="F526" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H526" t="s">
+        <v>157</v>
+      </c>
+      <c r="I526" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J526" t="s">
         <v>1465</v>
       </c>
-      <c r="G526" t="s">
-        <v>240</v>
-      </c>
-      <c r="H526" t="s">
-        <v>802</v>
-      </c>
-      <c r="I526" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J526" t="s">
-        <v>263</v>
-      </c>
       <c r="K526" t="s">
-        <v>1466</v>
+        <v>817</v>
       </c>
       <c r="L526" t="s">
+        <v>365</v>
+      </c>
+      <c r="M526" t="s">
+        <v>157</v>
+      </c>
+      <c r="N526" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O526" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E527" t="s">
-        <v>263</v>
+        <v>802</v>
       </c>
       <c r="F527" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G527" t="s">
-        <v>263</v>
-      </c>
-      <c r="H527" t="s">
-        <v>1468</v>
-      </c>
-      <c r="I527" t="s">
-        <v>804</v>
-      </c>
-      <c r="J527" t="s">
-        <v>157</v>
-      </c>
-      <c r="K527" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E528" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="F528" t="s">
-        <v>1248</v>
+        <v>1470</v>
       </c>
       <c r="G528" t="s">
-        <v>1457</v>
+        <v>157</v>
       </c>
       <c r="H528" t="s">
-        <v>157</v>
-      </c>
-      <c r="I528" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J528" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K528" t="s">
-        <v>817</v>
-      </c>
-      <c r="L528" t="s">
-        <v>365</v>
-      </c>
-      <c r="M528" t="s">
-        <v>157</v>
-      </c>
-      <c r="N528" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O528" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E529" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F529" t="s">
+        <v>804</v>
+      </c>
+      <c r="G529" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E530" t="s">
-        <v>795</v>
-      </c>
-      <c r="F530" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G530" t="s">
-        <v>157</v>
-      </c>
-      <c r="H530" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>67</v>
+      </c>
+      <c r="B531" t="s">
+        <v>24</v>
+      </c>
+      <c r="C531" t="s">
+        <v>7</v>
+      </c>
+      <c r="D531">
+        <v>7</v>
+      </c>
       <c r="E531" t="s">
-        <v>804</v>
-      </c>
-      <c r="F531" t="s">
-        <v>804</v>
-      </c>
-      <c r="G531" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E532" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F532" t="s">
+        <v>141</v>
+      </c>
+      <c r="G532" t="s">
+        <v>142</v>
+      </c>
+      <c r="H532" t="s">
+        <v>800</v>
+      </c>
+      <c r="I532" t="s">
+        <v>801</v>
+      </c>
+      <c r="J532" t="s">
+        <v>802</v>
+      </c>
+      <c r="K532" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="533" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A533">
-        <v>67</v>
-      </c>
-      <c r="B533" t="s">
-        <v>24</v>
-      </c>
-      <c r="C533" t="s">
-        <v>7</v>
-      </c>
-      <c r="D533">
-        <v>7</v>
-      </c>
       <c r="E533" t="s">
-        <v>137</v>
+        <v>1068</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G533" t="s">
+        <v>240</v>
+      </c>
+      <c r="H533" t="s">
+        <v>802</v>
+      </c>
+      <c r="I533" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J533" t="s">
+        <v>263</v>
+      </c>
+      <c r="K533" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L533" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E534" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="F534" t="s">
-        <v>141</v>
+        <v>1471</v>
       </c>
       <c r="G534" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="H534" t="s">
-        <v>800</v>
+        <v>1472</v>
       </c>
       <c r="I534" t="s">
-        <v>801</v>
+        <v>263</v>
       </c>
       <c r="J534" t="s">
-        <v>802</v>
+        <v>1473</v>
       </c>
       <c r="K534" t="s">
+        <v>804</v>
+      </c>
+      <c r="L534" t="s">
+        <v>157</v>
+      </c>
+      <c r="M534" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E535" t="s">
-        <v>1068</v>
+        <v>286</v>
       </c>
       <c r="F535" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H535" t="s">
+        <v>157</v>
+      </c>
+      <c r="I535" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J535" t="s">
         <v>1465</v>
       </c>
-      <c r="G535" t="s">
-        <v>240</v>
-      </c>
-      <c r="H535" t="s">
-        <v>802</v>
-      </c>
-      <c r="I535" t="s">
-        <v>1346</v>
-      </c>
-      <c r="J535" t="s">
-        <v>263</v>
-      </c>
       <c r="K535" t="s">
-        <v>1466</v>
+        <v>817</v>
       </c>
       <c r="L535" t="s">
+        <v>365</v>
+      </c>
+      <c r="M535" t="s">
+        <v>157</v>
+      </c>
+      <c r="N535" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O535" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E536" t="s">
-        <v>263</v>
+        <v>802</v>
       </c>
       <c r="F536" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G536" t="s">
-        <v>263</v>
-      </c>
-      <c r="H536" t="s">
-        <v>1472</v>
-      </c>
-      <c r="I536" t="s">
-        <v>263</v>
-      </c>
-      <c r="J536" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K536" t="s">
-        <v>804</v>
-      </c>
-      <c r="L536" t="s">
-        <v>157</v>
-      </c>
-      <c r="M536" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E537" t="s">
-        <v>286</v>
+        <v>795</v>
       </c>
       <c r="F537" t="s">
-        <v>1248</v>
+        <v>1470</v>
       </c>
       <c r="G537" t="s">
-        <v>1457</v>
+        <v>157</v>
       </c>
       <c r="H537" t="s">
-        <v>157</v>
-      </c>
-      <c r="I537" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J537" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K537" t="s">
-        <v>817</v>
-      </c>
-      <c r="L537" t="s">
-        <v>365</v>
-      </c>
-      <c r="M537" t="s">
-        <v>157</v>
-      </c>
-      <c r="N537" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O537" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E538" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F538" t="s">
+        <v>804</v>
+      </c>
+      <c r="G538" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E539" t="s">
-        <v>795</v>
-      </c>
-      <c r="F539" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G539" t="s">
-        <v>157</v>
-      </c>
-      <c r="H539" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>68</v>
+      </c>
+      <c r="B540" t="s">
+        <v>24</v>
+      </c>
+      <c r="C540" t="s">
+        <v>8</v>
+      </c>
+      <c r="D540">
+        <v>7</v>
+      </c>
       <c r="E540" t="s">
-        <v>804</v>
-      </c>
-      <c r="F540" t="s">
-        <v>804</v>
-      </c>
-      <c r="G540" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E541" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F541" t="s">
+        <v>141</v>
+      </c>
+      <c r="G541" t="s">
+        <v>142</v>
+      </c>
+      <c r="H541" t="s">
+        <v>800</v>
+      </c>
+      <c r="I541" t="s">
+        <v>801</v>
+      </c>
+      <c r="J541" t="s">
+        <v>802</v>
+      </c>
+      <c r="K541" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A542">
-        <v>68</v>
-      </c>
-      <c r="B542" t="s">
-        <v>24</v>
-      </c>
-      <c r="C542" t="s">
-        <v>8</v>
-      </c>
-      <c r="D542">
-        <v>7</v>
-      </c>
       <c r="E542" t="s">
-        <v>137</v>
+        <v>1068</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G542" t="s">
+        <v>240</v>
+      </c>
+      <c r="H542" t="s">
+        <v>802</v>
+      </c>
+      <c r="I542" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J542" t="s">
+        <v>263</v>
+      </c>
+      <c r="K542" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L542" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E543" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="F543" t="s">
-        <v>141</v>
+        <v>1467</v>
       </c>
       <c r="G543" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="H543" t="s">
-        <v>800</v>
+        <v>1468</v>
       </c>
       <c r="I543" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="J543" t="s">
-        <v>802</v>
+        <v>157</v>
       </c>
       <c r="K543" t="s">
         <v>797</v>
@@ -36261,365 +36261,356 @@
     </row>
     <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E544" t="s">
-        <v>1068</v>
+        <v>191</v>
       </c>
       <c r="F544" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="G544" t="s">
         <v>240</v>
       </c>
-      <c r="H544" t="s">
-        <v>802</v>
-      </c>
-      <c r="I544" t="s">
-        <v>1346</v>
+      <c r="H544">
+        <v>0</v>
+      </c>
+      <c r="I544" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J544" t="s">
-        <v>263</v>
-      </c>
-      <c r="K544" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L544" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E545" t="s">
-        <v>263</v>
+        <v>1460</v>
       </c>
       <c r="F545" t="s">
-        <v>1467</v>
+        <v>796</v>
       </c>
       <c r="G545" t="s">
-        <v>263</v>
+        <v>1479</v>
       </c>
       <c r="H545" t="s">
-        <v>1468</v>
+        <v>820</v>
       </c>
       <c r="I545" t="s">
-        <v>804</v>
+        <v>1465</v>
       </c>
       <c r="J545" t="s">
-        <v>157</v>
+        <v>817</v>
       </c>
       <c r="K545" t="s">
+        <v>365</v>
+      </c>
+      <c r="L545" t="s">
+        <v>144</v>
+      </c>
+      <c r="M545" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E546" t="s">
-        <v>191</v>
+        <v>802</v>
       </c>
       <c r="F546" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G546" t="s">
-        <v>240</v>
-      </c>
-      <c r="H546">
-        <v>0</v>
-      </c>
-      <c r="I546" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J546" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E547" t="s">
-        <v>1460</v>
+        <v>795</v>
       </c>
       <c r="F547" t="s">
         <v>796</v>
       </c>
       <c r="G547" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="H547" t="s">
-        <v>820</v>
+        <v>144</v>
       </c>
       <c r="I547" t="s">
-        <v>1465</v>
+        <v>157</v>
       </c>
       <c r="J547" t="s">
-        <v>817</v>
-      </c>
-      <c r="K547" t="s">
-        <v>365</v>
-      </c>
-      <c r="L547" t="s">
-        <v>144</v>
-      </c>
-      <c r="M547" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E548" t="s">
-        <v>802</v>
+        <v>1480</v>
       </c>
       <c r="F548" t="s">
+        <v>157</v>
+      </c>
+      <c r="G548" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E549" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="F549" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="G549" t="s">
-        <v>1481</v>
-      </c>
-      <c r="H549" t="s">
-        <v>144</v>
-      </c>
-      <c r="I549" t="s">
-        <v>157</v>
-      </c>
-      <c r="J549" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E550" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F550" t="s">
-        <v>157</v>
-      </c>
-      <c r="G550" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>69</v>
+      </c>
+      <c r="B551" t="s">
+        <v>24</v>
+      </c>
+      <c r="C551" t="s">
+        <v>8</v>
+      </c>
+      <c r="D551">
+        <v>7</v>
+      </c>
       <c r="E551" t="s">
-        <v>804</v>
-      </c>
-      <c r="F551" t="s">
-        <v>804</v>
-      </c>
-      <c r="G551" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E552" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F552" t="s">
+        <v>141</v>
+      </c>
+      <c r="G552" t="s">
+        <v>142</v>
+      </c>
+      <c r="H552" t="s">
+        <v>800</v>
+      </c>
+      <c r="I552" t="s">
+        <v>801</v>
+      </c>
+      <c r="J552" t="s">
+        <v>802</v>
+      </c>
+      <c r="K552" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A553">
-        <v>69</v>
-      </c>
-      <c r="B553" t="s">
-        <v>24</v>
-      </c>
-      <c r="C553" t="s">
-        <v>8</v>
-      </c>
-      <c r="D553">
-        <v>7</v>
-      </c>
       <c r="E553" t="s">
-        <v>137</v>
+        <v>1068</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G553" t="s">
+        <v>240</v>
+      </c>
+      <c r="H553" t="s">
+        <v>802</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J553" t="s">
+        <v>263</v>
+      </c>
+      <c r="K553" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L553" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E554" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="F554" t="s">
-        <v>141</v>
+        <v>1471</v>
       </c>
       <c r="G554" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="H554" t="s">
-        <v>800</v>
+        <v>1472</v>
       </c>
       <c r="I554" t="s">
-        <v>801</v>
+        <v>263</v>
       </c>
       <c r="J554" t="s">
-        <v>802</v>
+        <v>1468</v>
       </c>
       <c r="K554" t="s">
+        <v>804</v>
+      </c>
+      <c r="L554" t="s">
+        <v>157</v>
+      </c>
+      <c r="M554" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E555" t="s">
-        <v>1068</v>
+        <v>191</v>
       </c>
       <c r="F555" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="G555" t="s">
         <v>240</v>
       </c>
-      <c r="H555" t="s">
-        <v>802</v>
-      </c>
-      <c r="I555" t="s">
-        <v>1346</v>
+      <c r="H555">
+        <v>0</v>
+      </c>
+      <c r="I555" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J555" t="s">
-        <v>263</v>
-      </c>
-      <c r="K555" t="s">
-        <v>1466</v>
-      </c>
-      <c r="L555" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E556" t="s">
-        <v>263</v>
+        <v>1460</v>
       </c>
       <c r="F556" t="s">
-        <v>1467</v>
+        <v>796</v>
       </c>
       <c r="G556" t="s">
-        <v>263</v>
+        <v>1479</v>
       </c>
       <c r="H556" t="s">
-        <v>1468</v>
+        <v>820</v>
       </c>
       <c r="I556" t="s">
-        <v>804</v>
+        <v>1465</v>
       </c>
       <c r="J556" t="s">
-        <v>157</v>
+        <v>817</v>
       </c>
       <c r="K556" t="s">
+        <v>365</v>
+      </c>
+      <c r="L556" t="s">
+        <v>144</v>
+      </c>
+      <c r="M556" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E557" t="s">
-        <v>191</v>
+        <v>802</v>
       </c>
       <c r="F557" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G557" t="s">
-        <v>240</v>
-      </c>
-      <c r="H557">
-        <v>0</v>
-      </c>
-      <c r="I557" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J557" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E558" t="s">
-        <v>1460</v>
+        <v>795</v>
       </c>
       <c r="F558" t="s">
         <v>796</v>
       </c>
       <c r="G558" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="H558" t="s">
-        <v>820</v>
+        <v>144</v>
       </c>
       <c r="I558" t="s">
-        <v>1465</v>
+        <v>157</v>
       </c>
       <c r="J558" t="s">
-        <v>817</v>
-      </c>
-      <c r="K558" t="s">
-        <v>365</v>
-      </c>
-      <c r="L558" t="s">
-        <v>144</v>
-      </c>
-      <c r="M558" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E559" t="s">
-        <v>802</v>
+        <v>1480</v>
       </c>
       <c r="F559" t="s">
+        <v>157</v>
+      </c>
+      <c r="G559" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E560" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="F560" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="G560" t="s">
-        <v>1481</v>
-      </c>
-      <c r="H560" t="s">
-        <v>144</v>
-      </c>
-      <c r="I560" t="s">
-        <v>157</v>
-      </c>
-      <c r="J560" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E561" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F561" t="s">
-        <v>157</v>
-      </c>
-      <c r="G561" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>70</v>
+      </c>
+      <c r="B562" t="s">
+        <v>25</v>
+      </c>
+      <c r="C562" t="s">
+        <v>6</v>
+      </c>
+      <c r="D562">
+        <v>8</v>
+      </c>
       <c r="E562" t="s">
-        <v>804</v>
-      </c>
-      <c r="F562" t="s">
-        <v>804</v>
-      </c>
-      <c r="G562" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E563" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F563" t="s">
+        <v>142</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H563" t="s">
+        <v>802</v>
+      </c>
+      <c r="I563" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564">
-        <v>70</v>
-      </c>
-      <c r="B564" t="s">
-        <v>25</v>
-      </c>
-      <c r="C564" t="s">
-        <v>6</v>
-      </c>
-      <c r="D564">
-        <v>8</v>
-      </c>
       <c r="E564" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G564" t="s">
+        <v>157</v>
+      </c>
+      <c r="H564" t="s">
+        <v>804</v>
+      </c>
+      <c r="I564" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
@@ -36627,97 +36618,97 @@
         <v>139</v>
       </c>
       <c r="F565" t="s">
+        <v>141</v>
+      </c>
+      <c r="G565" t="s">
         <v>142</v>
       </c>
-      <c r="G565" t="s">
-        <v>1483</v>
-      </c>
       <c r="H565" t="s">
+        <v>800</v>
+      </c>
+      <c r="I565" t="s">
+        <v>801</v>
+      </c>
+      <c r="J565" t="s">
         <v>802</v>
       </c>
-      <c r="I565" t="s">
+      <c r="K565" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E566" t="s">
-        <v>795</v>
+        <v>1483</v>
       </c>
       <c r="F566" t="s">
-        <v>1484</v>
+        <v>157</v>
       </c>
       <c r="G566" t="s">
-        <v>157</v>
-      </c>
-      <c r="H566" t="s">
-        <v>804</v>
-      </c>
-      <c r="I566" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E567" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F567" t="s">
-        <v>141</v>
-      </c>
-      <c r="G567" t="s">
-        <v>142</v>
-      </c>
-      <c r="H567" t="s">
-        <v>800</v>
-      </c>
-      <c r="I567" t="s">
-        <v>801</v>
-      </c>
-      <c r="J567" t="s">
-        <v>802</v>
-      </c>
-      <c r="K567" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E568" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F568" t="s">
-        <v>157</v>
-      </c>
-      <c r="G568" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>71</v>
+      </c>
+      <c r="B569" t="s">
+        <v>25</v>
+      </c>
+      <c r="C569" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569">
+        <v>8</v>
+      </c>
       <c r="E569" t="s">
-        <v>804</v>
-      </c>
-      <c r="F569" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E570" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F570" t="s">
+        <v>142</v>
+      </c>
+      <c r="G570" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H570" t="s">
+        <v>802</v>
+      </c>
+      <c r="I570" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571">
-        <v>71</v>
-      </c>
-      <c r="B571" t="s">
-        <v>25</v>
-      </c>
-      <c r="C571" t="s">
-        <v>6</v>
-      </c>
-      <c r="D571">
-        <v>8</v>
-      </c>
       <c r="E571" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G571" t="s">
+        <v>157</v>
+      </c>
+      <c r="H571" t="s">
+        <v>804</v>
+      </c>
+      <c r="I571" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
@@ -36725,97 +36716,97 @@
         <v>139</v>
       </c>
       <c r="F572" t="s">
+        <v>141</v>
+      </c>
+      <c r="G572" t="s">
         <v>142</v>
       </c>
-      <c r="G572" t="s">
-        <v>1483</v>
-      </c>
       <c r="H572" t="s">
+        <v>800</v>
+      </c>
+      <c r="I572" t="s">
+        <v>801</v>
+      </c>
+      <c r="J572" t="s">
         <v>802</v>
       </c>
-      <c r="I572" t="s">
+      <c r="K572" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E573" t="s">
-        <v>795</v>
+        <v>1483</v>
       </c>
       <c r="F573" t="s">
-        <v>1485</v>
+        <v>157</v>
       </c>
       <c r="G573" t="s">
-        <v>157</v>
-      </c>
-      <c r="H573" t="s">
-        <v>804</v>
-      </c>
-      <c r="I573" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E574" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F574" t="s">
-        <v>141</v>
-      </c>
-      <c r="G574" t="s">
-        <v>142</v>
-      </c>
-      <c r="H574" t="s">
-        <v>800</v>
-      </c>
-      <c r="I574" t="s">
-        <v>801</v>
-      </c>
-      <c r="J574" t="s">
-        <v>802</v>
-      </c>
-      <c r="K574" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E575" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F575" t="s">
-        <v>157</v>
-      </c>
-      <c r="G575" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>72</v>
+      </c>
+      <c r="B576" t="s">
+        <v>25</v>
+      </c>
+      <c r="C576" t="s">
+        <v>7</v>
+      </c>
+      <c r="D576">
+        <v>8</v>
+      </c>
       <c r="E576" t="s">
-        <v>804</v>
-      </c>
-      <c r="F576" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E577" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F577" t="s">
+        <v>143</v>
+      </c>
+      <c r="G577" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H577" t="s">
+        <v>802</v>
+      </c>
+      <c r="I577" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578">
-        <v>72</v>
-      </c>
-      <c r="B578" t="s">
-        <v>25</v>
-      </c>
-      <c r="C578" t="s">
-        <v>7</v>
-      </c>
-      <c r="D578">
-        <v>8</v>
-      </c>
       <c r="E578" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G578" t="s">
+        <v>157</v>
+      </c>
+      <c r="H578" t="s">
+        <v>804</v>
+      </c>
+      <c r="I578" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
@@ -36823,106 +36814,106 @@
         <v>139</v>
       </c>
       <c r="F579" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G579" t="s">
-        <v>1483</v>
+        <v>142</v>
       </c>
       <c r="H579" t="s">
+        <v>800</v>
+      </c>
+      <c r="I579" t="s">
+        <v>801</v>
+      </c>
+      <c r="J579" t="s">
         <v>802</v>
       </c>
-      <c r="I579" t="s">
+      <c r="K579" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E580" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F580" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G580" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="H580" t="s">
-        <v>804</v>
+        <v>1488</v>
       </c>
       <c r="I580" t="s">
+        <v>157</v>
+      </c>
+      <c r="J580" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E581" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F581" t="s">
-        <v>141</v>
-      </c>
-      <c r="G581" t="s">
-        <v>142</v>
-      </c>
-      <c r="H581" t="s">
-        <v>800</v>
-      </c>
-      <c r="I581" t="s">
-        <v>801</v>
-      </c>
-      <c r="J581" t="s">
-        <v>802</v>
-      </c>
-      <c r="K581" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E582" t="s">
-        <v>795</v>
-      </c>
-      <c r="F582" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G582" t="s">
-        <v>264</v>
-      </c>
-      <c r="H582" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I582" t="s">
-        <v>157</v>
-      </c>
-      <c r="J582" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>73</v>
+      </c>
+      <c r="B583" t="s">
+        <v>25</v>
+      </c>
+      <c r="C583" t="s">
+        <v>7</v>
+      </c>
+      <c r="D583">
+        <v>8</v>
+      </c>
       <c r="E583" t="s">
-        <v>804</v>
-      </c>
-      <c r="F583" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E584" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F584" t="s">
+        <v>143</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H584" t="s">
+        <v>802</v>
+      </c>
+      <c r="I584" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585">
-        <v>73</v>
-      </c>
-      <c r="B585" t="s">
-        <v>25</v>
-      </c>
-      <c r="C585" t="s">
-        <v>7</v>
-      </c>
-      <c r="D585">
-        <v>8</v>
-      </c>
       <c r="E585" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G585" t="s">
+        <v>157</v>
+      </c>
+      <c r="H585" t="s">
+        <v>804</v>
+      </c>
+      <c r="I585" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
@@ -36930,106 +36921,106 @@
         <v>139</v>
       </c>
       <c r="F586" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G586" t="s">
-        <v>1483</v>
+        <v>142</v>
       </c>
       <c r="H586" t="s">
+        <v>800</v>
+      </c>
+      <c r="I586" t="s">
+        <v>801</v>
+      </c>
+      <c r="J586" t="s">
         <v>802</v>
       </c>
-      <c r="I586" t="s">
+      <c r="K586" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E587" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F587" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="G587" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="H587" t="s">
-        <v>804</v>
+        <v>1488</v>
       </c>
       <c r="I587" t="s">
+        <v>157</v>
+      </c>
+      <c r="J587" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E588" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F588" t="s">
-        <v>141</v>
-      </c>
-      <c r="G588" t="s">
-        <v>142</v>
-      </c>
-      <c r="H588" t="s">
-        <v>800</v>
-      </c>
-      <c r="I588" t="s">
-        <v>801</v>
-      </c>
-      <c r="J588" t="s">
-        <v>802</v>
-      </c>
-      <c r="K588" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E589" t="s">
-        <v>795</v>
-      </c>
-      <c r="F589" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G589" t="s">
-        <v>264</v>
-      </c>
-      <c r="H589" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I589" t="s">
-        <v>157</v>
-      </c>
-      <c r="J589" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>74</v>
+      </c>
+      <c r="B590" t="s">
+        <v>25</v>
+      </c>
+      <c r="C590" t="s">
+        <v>8</v>
+      </c>
+      <c r="D590">
+        <v>8</v>
+      </c>
       <c r="E590" t="s">
-        <v>804</v>
-      </c>
-      <c r="F590" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E591" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F591" t="s">
+        <v>143</v>
+      </c>
+      <c r="G591" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H591" t="s">
+        <v>802</v>
+      </c>
+      <c r="I591" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A592">
-        <v>74</v>
-      </c>
-      <c r="B592" t="s">
-        <v>25</v>
-      </c>
-      <c r="C592" t="s">
-        <v>8</v>
-      </c>
-      <c r="D592">
-        <v>8</v>
-      </c>
       <c r="E592" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G592" t="s">
+        <v>157</v>
+      </c>
+      <c r="H592" t="s">
+        <v>804</v>
+      </c>
+      <c r="I592" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
@@ -37040,7 +37031,7 @@
         <v>143</v>
       </c>
       <c r="G593" t="s">
-        <v>1483</v>
+        <v>956</v>
       </c>
       <c r="H593" t="s">
         <v>802</v>
@@ -37054,7 +37045,7 @@
         <v>303</v>
       </c>
       <c r="F594" t="s">
-        <v>1487</v>
+        <v>1346</v>
       </c>
       <c r="G594" t="s">
         <v>157</v>
@@ -37071,106 +37062,106 @@
         <v>139</v>
       </c>
       <c r="F595" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G595" t="s">
-        <v>956</v>
+        <v>142</v>
       </c>
       <c r="H595" t="s">
+        <v>800</v>
+      </c>
+      <c r="I595" t="s">
+        <v>801</v>
+      </c>
+      <c r="J595" t="s">
         <v>802</v>
       </c>
-      <c r="I595" t="s">
+      <c r="K595" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E596" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F596" t="s">
-        <v>1346</v>
+        <v>1486</v>
       </c>
       <c r="G596" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="H596" t="s">
-        <v>804</v>
+        <v>956</v>
       </c>
       <c r="I596" t="s">
+        <v>157</v>
+      </c>
+      <c r="J596" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E597" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F597" t="s">
-        <v>141</v>
-      </c>
-      <c r="G597" t="s">
-        <v>142</v>
-      </c>
-      <c r="H597" t="s">
-        <v>800</v>
-      </c>
-      <c r="I597" t="s">
-        <v>801</v>
-      </c>
-      <c r="J597" t="s">
-        <v>802</v>
-      </c>
-      <c r="K597" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E598" t="s">
-        <v>795</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G598" t="s">
-        <v>264</v>
-      </c>
-      <c r="H598" t="s">
-        <v>956</v>
-      </c>
-      <c r="I598" t="s">
-        <v>157</v>
-      </c>
-      <c r="J598" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>75</v>
+      </c>
+      <c r="B599" t="s">
+        <v>25</v>
+      </c>
+      <c r="C599" t="s">
+        <v>8</v>
+      </c>
+      <c r="D599">
+        <v>8</v>
+      </c>
       <c r="E599" t="s">
-        <v>804</v>
-      </c>
-      <c r="F599" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E600" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F600" t="s">
+        <v>143</v>
+      </c>
+      <c r="G600" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H600" t="s">
+        <v>802</v>
+      </c>
+      <c r="I600" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601">
-        <v>75</v>
-      </c>
-      <c r="B601" t="s">
-        <v>25</v>
-      </c>
-      <c r="C601" t="s">
-        <v>8</v>
-      </c>
-      <c r="D601">
-        <v>8</v>
-      </c>
       <c r="E601" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G601" t="s">
+        <v>157</v>
+      </c>
+      <c r="H601" t="s">
+        <v>804</v>
+      </c>
+      <c r="I601" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
@@ -37181,7 +37172,7 @@
         <v>143</v>
       </c>
       <c r="G602" t="s">
-        <v>1483</v>
+        <v>956</v>
       </c>
       <c r="H602" t="s">
         <v>802</v>
@@ -37195,7 +37186,7 @@
         <v>303</v>
       </c>
       <c r="F603" t="s">
-        <v>1489</v>
+        <v>1346</v>
       </c>
       <c r="G603" t="s">
         <v>157</v>
@@ -37212,106 +37203,121 @@
         <v>139</v>
       </c>
       <c r="F604" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G604" t="s">
-        <v>956</v>
+        <v>142</v>
       </c>
       <c r="H604" t="s">
+        <v>800</v>
+      </c>
+      <c r="I604" t="s">
+        <v>801</v>
+      </c>
+      <c r="J604" t="s">
         <v>802</v>
       </c>
-      <c r="I604" t="s">
+      <c r="K604" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E605" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F605" t="s">
-        <v>1346</v>
+        <v>1486</v>
       </c>
       <c r="G605" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="H605" t="s">
-        <v>804</v>
+        <v>956</v>
       </c>
       <c r="I605" t="s">
+        <v>157</v>
+      </c>
+      <c r="J605" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E606" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F606" t="s">
-        <v>141</v>
-      </c>
-      <c r="G606" t="s">
-        <v>142</v>
-      </c>
-      <c r="H606" t="s">
-        <v>800</v>
-      </c>
-      <c r="I606" t="s">
-        <v>801</v>
-      </c>
-      <c r="J606" t="s">
-        <v>802</v>
-      </c>
-      <c r="K606" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E607" t="s">
-        <v>795</v>
-      </c>
-      <c r="F607" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G607" t="s">
-        <v>264</v>
-      </c>
-      <c r="H607" t="s">
-        <v>956</v>
-      </c>
-      <c r="I607" t="s">
-        <v>157</v>
-      </c>
-      <c r="J607" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>76</v>
+      </c>
+      <c r="B608" t="s">
+        <v>26</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608">
+        <v>8</v>
+      </c>
       <c r="E608" t="s">
-        <v>804</v>
-      </c>
-      <c r="F608" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E609" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F609" t="s">
+        <v>141</v>
+      </c>
+      <c r="G609" t="s">
+        <v>142</v>
+      </c>
+      <c r="H609" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I609" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J609" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K609" t="s">
+        <v>802</v>
+      </c>
+      <c r="L609" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A610">
-        <v>76</v>
-      </c>
-      <c r="B610" t="s">
-        <v>26</v>
-      </c>
-      <c r="C610" t="s">
-        <v>6</v>
-      </c>
-      <c r="D610">
-        <v>8</v>
-      </c>
       <c r="E610" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G610" t="s">
+        <v>264</v>
+      </c>
+      <c r="H610" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I610" t="s">
+        <v>157</v>
+      </c>
+      <c r="J610" t="s">
+        <v>804</v>
+      </c>
+      <c r="K610" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.25">
@@ -37325,18 +37331,15 @@
         <v>142</v>
       </c>
       <c r="H611" t="s">
-        <v>1482</v>
+        <v>800</v>
       </c>
       <c r="I611" t="s">
-        <v>1491</v>
+        <v>801</v>
       </c>
       <c r="J611" t="s">
-        <v>1347</v>
+        <v>802</v>
       </c>
       <c r="K611" t="s">
-        <v>802</v>
-      </c>
-      <c r="L611" t="s">
         <v>797</v>
       </c>
     </row>
@@ -37345,92 +37348,95 @@
         <v>795</v>
       </c>
       <c r="F612" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="G612" t="s">
-        <v>264</v>
+        <v>1399</v>
       </c>
       <c r="H612" t="s">
-        <v>1347</v>
+        <v>157</v>
       </c>
       <c r="I612" t="s">
-        <v>157</v>
-      </c>
-      <c r="J612" t="s">
-        <v>804</v>
-      </c>
-      <c r="K612" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E613" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F613" t="s">
-        <v>141</v>
-      </c>
-      <c r="G613" t="s">
-        <v>142</v>
-      </c>
-      <c r="H613" t="s">
-        <v>800</v>
-      </c>
-      <c r="I613" t="s">
-        <v>801</v>
-      </c>
-      <c r="J613" t="s">
-        <v>802</v>
-      </c>
-      <c r="K613" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E614" t="s">
-        <v>795</v>
-      </c>
-      <c r="F614" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G614" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H614" t="s">
-        <v>157</v>
-      </c>
-      <c r="I614" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>77</v>
+      </c>
+      <c r="B615" t="s">
+        <v>29</v>
+      </c>
+      <c r="C615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615">
+        <v>8</v>
+      </c>
       <c r="E615" t="s">
-        <v>804</v>
-      </c>
-      <c r="F615" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E616" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F616" t="s">
+        <v>141</v>
+      </c>
+      <c r="G616" t="s">
+        <v>142</v>
+      </c>
+      <c r="H616" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I616" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J616" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K616" t="s">
+        <v>802</v>
+      </c>
+      <c r="L616" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A617">
-        <v>77</v>
-      </c>
-      <c r="B617" t="s">
-        <v>29</v>
-      </c>
-      <c r="C617" t="s">
-        <v>6</v>
-      </c>
-      <c r="D617">
-        <v>8</v>
-      </c>
       <c r="E617" t="s">
-        <v>137</v>
+        <v>795</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G617" t="s">
+        <v>264</v>
+      </c>
+      <c r="H617" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I617" t="s">
+        <v>157</v>
+      </c>
+      <c r="J617" t="s">
+        <v>804</v>
+      </c>
+      <c r="K617" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.25">
@@ -37450,75 +37456,72 @@
         <v>1491</v>
       </c>
       <c r="J618" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K618" t="s">
+        <v>263</v>
+      </c>
+      <c r="L618" t="s">
+        <v>143</v>
+      </c>
+      <c r="M618" t="s">
         <v>1347</v>
       </c>
-      <c r="K618" t="s">
-        <v>802</v>
-      </c>
-      <c r="L618" t="s">
+      <c r="N618" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E619" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="F619" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G619" t="s">
-        <v>264</v>
-      </c>
-      <c r="H619" t="s">
-        <v>1347</v>
-      </c>
-      <c r="I619" t="s">
-        <v>157</v>
-      </c>
-      <c r="J619" t="s">
-        <v>804</v>
-      </c>
-      <c r="K619" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E620" t="s">
-        <v>139</v>
+        <v>795</v>
       </c>
       <c r="F620" t="s">
-        <v>141</v>
+        <v>1492</v>
       </c>
       <c r="G620" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="H620" t="s">
-        <v>1482</v>
+        <v>1347</v>
       </c>
       <c r="I620" t="s">
-        <v>1491</v>
+        <v>157</v>
       </c>
       <c r="J620" t="s">
-        <v>1482</v>
+        <v>804</v>
       </c>
       <c r="K620" t="s">
-        <v>263</v>
-      </c>
-      <c r="L620" t="s">
-        <v>143</v>
-      </c>
-      <c r="M620" t="s">
-        <v>1347</v>
-      </c>
-      <c r="N620" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E621" t="s">
+        <v>139</v>
+      </c>
+      <c r="F621" t="s">
+        <v>141</v>
+      </c>
+      <c r="G621" t="s">
+        <v>142</v>
+      </c>
+      <c r="H621" t="s">
+        <v>800</v>
+      </c>
+      <c r="I621" t="s">
+        <v>801</v>
+      </c>
+      <c r="J621" t="s">
         <v>802</v>
       </c>
-      <c r="F621" t="s">
+      <c r="K621" t="s">
         <v>797</v>
       </c>
     </row>
@@ -37530,16 +37533,16 @@
         <v>1492</v>
       </c>
       <c r="G622" t="s">
-        <v>264</v>
+        <v>1490</v>
       </c>
       <c r="H622" t="s">
-        <v>1347</v>
+        <v>263</v>
       </c>
       <c r="I622" t="s">
-        <v>157</v>
+        <v>1488</v>
       </c>
       <c r="J622" t="s">
-        <v>804</v>
+        <v>157</v>
       </c>
       <c r="K622" t="s">
         <v>797</v>
@@ -37547,78 +37550,81 @@
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E623" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F623" t="s">
-        <v>141</v>
-      </c>
-      <c r="G623" t="s">
-        <v>142</v>
-      </c>
-      <c r="H623" t="s">
-        <v>800</v>
-      </c>
-      <c r="I623" t="s">
-        <v>801</v>
-      </c>
-      <c r="J623" t="s">
-        <v>802</v>
-      </c>
-      <c r="K623" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E624" t="s">
-        <v>795</v>
-      </c>
-      <c r="F624" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G624" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H624" t="s">
-        <v>263</v>
-      </c>
-      <c r="I624" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J624" t="s">
-        <v>157</v>
-      </c>
-      <c r="K624" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>78</v>
+      </c>
+      <c r="B625" t="s">
+        <v>26</v>
+      </c>
+      <c r="C625" t="s">
+        <v>7</v>
+      </c>
+      <c r="D625">
+        <v>8</v>
+      </c>
       <c r="E625" t="s">
-        <v>804</v>
-      </c>
-      <c r="F625" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E626" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F626" t="s">
+        <v>141</v>
+      </c>
+      <c r="G626" t="s">
+        <v>191</v>
+      </c>
+      <c r="H626" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I626" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J626" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K626" t="s">
+        <v>802</v>
+      </c>
+      <c r="L626" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A627">
-        <v>78</v>
-      </c>
-      <c r="B627" t="s">
-        <v>26</v>
-      </c>
-      <c r="C627" t="s">
-        <v>7</v>
-      </c>
-      <c r="D627">
-        <v>8</v>
-      </c>
       <c r="E627" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F627" t="s">
+        <v>880</v>
+      </c>
+      <c r="G627" t="s">
+        <v>264</v>
+      </c>
+      <c r="H627">
+        <v>5</v>
+      </c>
+      <c r="I627" t="s">
+        <v>157</v>
+      </c>
+      <c r="J627" t="s">
+        <v>804</v>
+      </c>
+      <c r="K627" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.25">
@@ -37629,118 +37635,118 @@
         <v>141</v>
       </c>
       <c r="G628" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="H628" t="s">
-        <v>1494</v>
+        <v>800</v>
       </c>
       <c r="I628" t="s">
-        <v>1248</v>
+        <v>801</v>
       </c>
       <c r="J628" t="s">
-        <v>1493</v>
+        <v>802</v>
       </c>
       <c r="K628" t="s">
-        <v>802</v>
-      </c>
-      <c r="L628" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E629" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F629" t="s">
-        <v>880</v>
+        <v>796</v>
       </c>
       <c r="G629" t="s">
-        <v>264</v>
-      </c>
-      <c r="H629">
-        <v>5</v>
+        <v>1495</v>
+      </c>
+      <c r="H629" t="s">
+        <v>144</v>
       </c>
       <c r="I629" t="s">
         <v>157</v>
       </c>
       <c r="J629" t="s">
-        <v>804</v>
-      </c>
-      <c r="K629" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E630" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F630" t="s">
-        <v>141</v>
-      </c>
-      <c r="G630" t="s">
-        <v>142</v>
-      </c>
-      <c r="H630" t="s">
-        <v>800</v>
-      </c>
-      <c r="I630" t="s">
-        <v>801</v>
-      </c>
-      <c r="J630" t="s">
-        <v>802</v>
-      </c>
-      <c r="K630" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E631" t="s">
-        <v>795</v>
-      </c>
-      <c r="F631" t="s">
-        <v>796</v>
-      </c>
-      <c r="G631" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H631" t="s">
-        <v>144</v>
-      </c>
-      <c r="I631" t="s">
-        <v>157</v>
-      </c>
-      <c r="J631" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>79</v>
+      </c>
+      <c r="B632" t="s">
+        <v>29</v>
+      </c>
+      <c r="C632" t="s">
+        <v>7</v>
+      </c>
+      <c r="D632">
+        <v>8</v>
+      </c>
       <c r="E632" t="s">
-        <v>804</v>
-      </c>
-      <c r="F632" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E633" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F633" t="s">
+        <v>141</v>
+      </c>
+      <c r="G633" t="s">
+        <v>191</v>
+      </c>
+      <c r="H633" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I633" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J633" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K633" t="s">
+        <v>802</v>
+      </c>
+      <c r="L633" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A634">
-        <v>79</v>
-      </c>
-      <c r="B634" t="s">
-        <v>29</v>
-      </c>
-      <c r="C634" t="s">
-        <v>7</v>
-      </c>
-      <c r="D634">
-        <v>8</v>
-      </c>
       <c r="E634" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F634" t="s">
+        <v>880</v>
+      </c>
+      <c r="G634" t="s">
+        <v>264</v>
+      </c>
+      <c r="H634">
+        <v>10</v>
+      </c>
+      <c r="I634" t="s">
+        <v>157</v>
+      </c>
+      <c r="J634" t="s">
+        <v>804</v>
+      </c>
+      <c r="K634" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
@@ -37760,96 +37766,93 @@
         <v>1248</v>
       </c>
       <c r="J635" t="s">
-        <v>1493</v>
+        <v>880</v>
       </c>
       <c r="K635" t="s">
-        <v>802</v>
+        <v>263</v>
       </c>
       <c r="L635" t="s">
+        <v>191</v>
+      </c>
+      <c r="M635" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N635" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E636" t="s">
-        <v>303</v>
+        <v>802</v>
       </c>
       <c r="F636" t="s">
-        <v>880</v>
-      </c>
-      <c r="G636" t="s">
-        <v>264</v>
-      </c>
-      <c r="H636">
-        <v>5</v>
-      </c>
-      <c r="I636" t="s">
-        <v>157</v>
-      </c>
-      <c r="J636" t="s">
-        <v>804</v>
-      </c>
-      <c r="K636" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E637" t="s">
-        <v>139</v>
+        <v>303</v>
       </c>
       <c r="F637" t="s">
-        <v>141</v>
+        <v>1390</v>
       </c>
       <c r="G637" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="H637" t="s">
-        <v>1494</v>
+        <v>1392</v>
       </c>
       <c r="I637" t="s">
-        <v>1248</v>
+        <v>157</v>
       </c>
       <c r="J637" t="s">
-        <v>880</v>
+        <v>804</v>
       </c>
       <c r="K637" t="s">
-        <v>263</v>
-      </c>
-      <c r="L637" t="s">
-        <v>191</v>
-      </c>
-      <c r="M637" t="s">
-        <v>1392</v>
-      </c>
-      <c r="N637" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E638" t="s">
+        <v>139</v>
+      </c>
+      <c r="F638" t="s">
+        <v>141</v>
+      </c>
+      <c r="G638" t="s">
+        <v>142</v>
+      </c>
+      <c r="H638" t="s">
+        <v>800</v>
+      </c>
+      <c r="I638" t="s">
+        <v>801</v>
+      </c>
+      <c r="J638" t="s">
         <v>802</v>
       </c>
-      <c r="F638" t="s">
+      <c r="K638" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E639" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F639" t="s">
-        <v>1390</v>
+        <v>1492</v>
       </c>
       <c r="G639" t="s">
-        <v>264</v>
+        <v>1496</v>
       </c>
       <c r="H639" t="s">
-        <v>1392</v>
+        <v>263</v>
       </c>
       <c r="I639" t="s">
-        <v>157</v>
+        <v>1430</v>
       </c>
       <c r="J639" t="s">
-        <v>804</v>
+        <v>157</v>
       </c>
       <c r="K639" t="s">
         <v>797</v>
@@ -37857,78 +37860,78 @@
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E640" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F640" t="s">
-        <v>141</v>
-      </c>
-      <c r="G640" t="s">
-        <v>142</v>
-      </c>
-      <c r="H640" t="s">
-        <v>800</v>
-      </c>
-      <c r="I640" t="s">
-        <v>801</v>
-      </c>
-      <c r="J640" t="s">
-        <v>802</v>
-      </c>
-      <c r="K640" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E641" t="s">
-        <v>795</v>
-      </c>
-      <c r="F641" t="s">
-        <v>1492</v>
-      </c>
-      <c r="G641" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H641" t="s">
-        <v>263</v>
-      </c>
-      <c r="I641" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J641" t="s">
-        <v>157</v>
-      </c>
-      <c r="K641" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>80</v>
+      </c>
+      <c r="B642" t="s">
+        <v>26</v>
+      </c>
+      <c r="C642" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642">
+        <v>8</v>
+      </c>
       <c r="E642" t="s">
-        <v>804</v>
-      </c>
-      <c r="F642" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E643" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F643" t="s">
+        <v>141</v>
+      </c>
+      <c r="G643" t="s">
+        <v>190</v>
+      </c>
+      <c r="H643" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I643" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J643" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K643" t="s">
+        <v>802</v>
+      </c>
+      <c r="L643" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A644">
-        <v>80</v>
-      </c>
-      <c r="B644" t="s">
-        <v>26</v>
-      </c>
-      <c r="C644" t="s">
-        <v>8</v>
-      </c>
-      <c r="D644">
-        <v>8</v>
-      </c>
       <c r="E644" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F644" t="s">
+        <v>268</v>
+      </c>
+      <c r="G644" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H644" t="s">
+        <v>157</v>
+      </c>
+      <c r="I644" t="s">
+        <v>804</v>
+      </c>
+      <c r="J644" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
@@ -37939,118 +37942,118 @@
         <v>141</v>
       </c>
       <c r="G645" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="H645" t="s">
-        <v>1498</v>
+        <v>800</v>
       </c>
       <c r="I645" t="s">
-        <v>1497</v>
+        <v>801</v>
       </c>
       <c r="J645" t="s">
-        <v>1380</v>
+        <v>802</v>
       </c>
       <c r="K645" t="s">
-        <v>802</v>
-      </c>
-      <c r="L645" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E646" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F646" t="s">
-        <v>268</v>
+        <v>796</v>
       </c>
       <c r="G646" t="s">
-        <v>1372</v>
+        <v>1498</v>
       </c>
       <c r="H646" t="s">
-        <v>157</v>
+        <v>1256</v>
       </c>
       <c r="I646" t="s">
-        <v>804</v>
+        <v>144</v>
       </c>
       <c r="J646" t="s">
+        <v>157</v>
+      </c>
+      <c r="K646" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E647" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F647" t="s">
-        <v>141</v>
-      </c>
-      <c r="G647" t="s">
-        <v>142</v>
-      </c>
-      <c r="H647" t="s">
-        <v>800</v>
-      </c>
-      <c r="I647" t="s">
-        <v>801</v>
-      </c>
-      <c r="J647" t="s">
-        <v>802</v>
-      </c>
-      <c r="K647" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E648" t="s">
-        <v>795</v>
-      </c>
-      <c r="F648" t="s">
-        <v>796</v>
-      </c>
-      <c r="G648" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H648" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I648" t="s">
-        <v>144</v>
-      </c>
-      <c r="J648" t="s">
-        <v>157</v>
-      </c>
-      <c r="K648" t="s">
-        <v>797</v>
+        <v>138</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>81</v>
+      </c>
+      <c r="B649" t="s">
+        <v>29</v>
+      </c>
+      <c r="C649" t="s">
+        <v>8</v>
+      </c>
+      <c r="D649">
+        <v>8</v>
+      </c>
       <c r="E649" t="s">
-        <v>804</v>
-      </c>
-      <c r="F649" t="s">
-        <v>797</v>
+        <v>137</v>
       </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E650" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F650" t="s">
+        <v>141</v>
+      </c>
+      <c r="G650" t="s">
+        <v>190</v>
+      </c>
+      <c r="H650" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I650" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J650" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K650" t="s">
+        <v>802</v>
+      </c>
+      <c r="L650" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A651">
-        <v>81</v>
-      </c>
-      <c r="B651" t="s">
-        <v>29</v>
-      </c>
-      <c r="C651" t="s">
-        <v>8</v>
-      </c>
-      <c r="D651">
-        <v>8</v>
-      </c>
       <c r="E651" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="F651" t="s">
+        <v>268</v>
+      </c>
+      <c r="G651" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H651" t="s">
+        <v>157</v>
+      </c>
+      <c r="I651" t="s">
+        <v>804</v>
+      </c>
+      <c r="J651" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.25">
@@ -38061,16 +38064,16 @@
         <v>141</v>
       </c>
       <c r="G652" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H652" t="s">
         <v>1498</v>
       </c>
       <c r="I652" t="s">
-        <v>1497</v>
+        <v>1248</v>
       </c>
       <c r="J652" t="s">
-        <v>1380</v>
+        <v>1493</v>
       </c>
       <c r="K652" t="s">
         <v>802</v>
@@ -38084,10 +38087,10 @@
         <v>303</v>
       </c>
       <c r="F653" t="s">
-        <v>268</v>
+        <v>806</v>
       </c>
       <c r="G653" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="H653" t="s">
         <v>157</v>
@@ -38107,100 +38110,54 @@
         <v>141</v>
       </c>
       <c r="G654" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="H654" t="s">
-        <v>1498</v>
+        <v>800</v>
       </c>
       <c r="I654" t="s">
-        <v>1248</v>
+        <v>801</v>
       </c>
       <c r="J654" t="s">
-        <v>1493</v>
+        <v>802</v>
       </c>
       <c r="K654" t="s">
-        <v>802</v>
-      </c>
-      <c r="L654" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E655" t="s">
-        <v>303</v>
+        <v>795</v>
       </c>
       <c r="F655" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G655" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H655" t="s">
-        <v>157</v>
+        <v>1498</v>
+      </c>
+      <c r="H655">
+        <v>-1</v>
       </c>
       <c r="I655" t="s">
-        <v>804</v>
+        <v>144</v>
       </c>
       <c r="J655" t="s">
+        <v>157</v>
+      </c>
+      <c r="K655" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E656" t="s">
-        <v>139</v>
+        <v>804</v>
       </c>
       <c r="F656" t="s">
-        <v>141</v>
-      </c>
-      <c r="G656" t="s">
-        <v>142</v>
-      </c>
-      <c r="H656" t="s">
-        <v>800</v>
-      </c>
-      <c r="I656" t="s">
-        <v>801</v>
-      </c>
-      <c r="J656" t="s">
-        <v>802</v>
-      </c>
-      <c r="K656" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="657" spans="5:11" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E657" t="s">
-        <v>795</v>
-      </c>
-      <c r="F657" t="s">
-        <v>796</v>
-      </c>
-      <c r="G657" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H657">
-        <v>-1</v>
-      </c>
-      <c r="I657" t="s">
-        <v>144</v>
-      </c>
-      <c r="J657" t="s">
-        <v>157</v>
-      </c>
-      <c r="K657" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="658" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E658" t="s">
-        <v>804</v>
-      </c>
-      <c r="F658" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="659" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E659" t="s">
         <v>138</v>
       </c>
     </row>
@@ -38213,7 +38170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE613F-AC52-4191-8FFF-F82C85345F2F}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -40508,12 +40465,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40663,15 +40617,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -40695,17 +40660,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC388A3-3E8E-468D-B938-40CD1FB812C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4344FF14-EBFA-4C51-8BB6-D67423FD69A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="915c154c-1470-46a8-b038-1496da6ff25f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/assets/excel/Minigames.xlsx
+++ b/assets/excel/Minigames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\CodexLearning\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A69F156-69EB-4645-A07E-A190876DB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C629976C-424F-48B6-8D76-6F2D3FD34F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{2F4D6A40-7D2F-4386-B1F7-728101A5D7AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8629" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9200" uniqueCount="1512">
   <si>
     <t>Stage 1</t>
   </si>
@@ -5251,6 +5251,36 @@
   </si>
   <si>
     <t>("Hello"</t>
+  </si>
+  <si>
+    <t>number()</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>"I am now"</t>
+  </si>
+  <si>
+    <t>"years old"</t>
+  </si>
+  <si>
+    <t>"My name is"</t>
+  </si>
+  <si>
+    <t>greet(</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>show(</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>\m</t>
   </si>
 </sst>
 </file>
@@ -26710,10 +26740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F261A1-0426-462C-979C-1324696FD2FB}">
-  <dimension ref="A1:O657"/>
+  <dimension ref="A1:O766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="H655" sqref="H655"/>
+    <sheetView tabSelected="1" topLeftCell="A743" workbookViewId="0">
+      <selection activeCell="G661" sqref="G661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37265,7 +37295,7 @@
         <v>6</v>
       </c>
       <c r="D608">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E608" t="s">
         <v>137</v>
@@ -37384,7 +37414,7 @@
         <v>6</v>
       </c>
       <c r="D615">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E615" t="s">
         <v>137</v>
@@ -37572,7 +37602,7 @@
         <v>7</v>
       </c>
       <c r="D625">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E625" t="s">
         <v>137</v>
@@ -37694,7 +37724,7 @@
         <v>7</v>
       </c>
       <c r="D632">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E632" t="s">
         <v>137</v>
@@ -37882,7 +37912,7 @@
         <v>8</v>
       </c>
       <c r="D642">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E642" t="s">
         <v>137</v>
@@ -38004,7 +38034,7 @@
         <v>8</v>
       </c>
       <c r="D649">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E649" t="s">
         <v>137</v>
@@ -38156,13 +38186,2035 @@
         <v>797</v>
       </c>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E657" t="s">
         <v>138</v>
       </c>
     </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>82</v>
+      </c>
+      <c r="B658" t="s">
+        <v>27</v>
+      </c>
+      <c r="C658" t="s">
+        <v>6</v>
+      </c>
+      <c r="D658">
+        <v>10</v>
+      </c>
+      <c r="E658" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E659" t="s">
+        <v>139</v>
+      </c>
+      <c r="F659" t="s">
+        <v>140</v>
+      </c>
+      <c r="G659" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H659" t="s">
+        <v>802</v>
+      </c>
+      <c r="I659" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E660" t="s">
+        <v>191</v>
+      </c>
+      <c r="F660" t="s">
+        <v>880</v>
+      </c>
+      <c r="G660" t="s">
+        <v>240</v>
+      </c>
+      <c r="H660">
+        <v>8</v>
+      </c>
+      <c r="I660" t="s">
+        <v>157</v>
+      </c>
+      <c r="J660" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E661" t="s">
+        <v>139</v>
+      </c>
+      <c r="F661" t="s">
+        <v>141</v>
+      </c>
+      <c r="G661" t="s">
+        <v>142</v>
+      </c>
+      <c r="H661" t="s">
+        <v>800</v>
+      </c>
+      <c r="I661" t="s">
+        <v>801</v>
+      </c>
+      <c r="J661" t="s">
+        <v>802</v>
+      </c>
+      <c r="K661" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E662" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F662" t="s">
+        <v>821</v>
+      </c>
+      <c r="G662" t="s">
+        <v>240</v>
+      </c>
+      <c r="H662" t="s">
+        <v>712</v>
+      </c>
+      <c r="I662" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J662" t="s">
+        <v>157</v>
+      </c>
+      <c r="K662" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E663" t="s">
+        <v>795</v>
+      </c>
+      <c r="F663" t="s">
+        <v>796</v>
+      </c>
+      <c r="G663" t="s">
+        <v>821</v>
+      </c>
+      <c r="H663" t="s">
+        <v>817</v>
+      </c>
+      <c r="I663" t="s">
+        <v>880</v>
+      </c>
+      <c r="J663" t="s">
+        <v>144</v>
+      </c>
+      <c r="K663" t="s">
+        <v>157</v>
+      </c>
+      <c r="L663" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E664" t="s">
+        <v>804</v>
+      </c>
+      <c r="F664" t="s">
+        <v>804</v>
+      </c>
+      <c r="G664" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E665" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>83</v>
+      </c>
+      <c r="B666" t="s">
+        <v>27</v>
+      </c>
+      <c r="C666" t="s">
+        <v>6</v>
+      </c>
+      <c r="D666">
+        <v>10</v>
+      </c>
+      <c r="E666" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E667" t="s">
+        <v>139</v>
+      </c>
+      <c r="F667" t="s">
+        <v>140</v>
+      </c>
+      <c r="G667" t="s">
+        <v>940</v>
+      </c>
+      <c r="H667" t="s">
+        <v>802</v>
+      </c>
+      <c r="I667" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E668" t="s">
+        <v>143</v>
+      </c>
+      <c r="F668" t="s">
+        <v>940</v>
+      </c>
+      <c r="G668" t="s">
+        <v>240</v>
+      </c>
+      <c r="H668" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I668" t="s">
+        <v>157</v>
+      </c>
+      <c r="J668" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E669" t="s">
+        <v>139</v>
+      </c>
+      <c r="F669" t="s">
+        <v>141</v>
+      </c>
+      <c r="G669" t="s">
+        <v>142</v>
+      </c>
+      <c r="H669" t="s">
+        <v>800</v>
+      </c>
+      <c r="I669" t="s">
+        <v>801</v>
+      </c>
+      <c r="J669" t="s">
+        <v>802</v>
+      </c>
+      <c r="K669" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E670" t="s">
+        <v>940</v>
+      </c>
+      <c r="F670" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G670" t="s">
+        <v>240</v>
+      </c>
+      <c r="H670" t="s">
+        <v>712</v>
+      </c>
+      <c r="I670" t="s">
+        <v>956</v>
+      </c>
+      <c r="J670" t="s">
+        <v>157</v>
+      </c>
+      <c r="K670" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E671" t="s">
+        <v>795</v>
+      </c>
+      <c r="F671" t="s">
+        <v>796</v>
+      </c>
+      <c r="G671" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H671" t="s">
+        <v>817</v>
+      </c>
+      <c r="I671" t="s">
+        <v>940</v>
+      </c>
+      <c r="J671" t="s">
+        <v>144</v>
+      </c>
+      <c r="K671" t="s">
+        <v>157</v>
+      </c>
+      <c r="L671" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E672" t="s">
+        <v>804</v>
+      </c>
+      <c r="F672" t="s">
+        <v>804</v>
+      </c>
+      <c r="G672" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E673" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>84</v>
+      </c>
+      <c r="B674" t="s">
+        <v>27</v>
+      </c>
+      <c r="C674" t="s">
+        <v>7</v>
+      </c>
+      <c r="D674">
+        <v>10</v>
+      </c>
+      <c r="E674" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E675" t="s">
+        <v>139</v>
+      </c>
+      <c r="F675" t="s">
+        <v>140</v>
+      </c>
+      <c r="G675" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H675" t="s">
+        <v>802</v>
+      </c>
+      <c r="I675" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E676" t="s">
+        <v>191</v>
+      </c>
+      <c r="F676" t="s">
+        <v>880</v>
+      </c>
+      <c r="G676" t="s">
+        <v>240</v>
+      </c>
+      <c r="H676">
+        <v>8</v>
+      </c>
+      <c r="I676" t="s">
+        <v>157</v>
+      </c>
+      <c r="J676" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E677" t="s">
+        <v>139</v>
+      </c>
+      <c r="F677" t="s">
+        <v>141</v>
+      </c>
+      <c r="G677" t="s">
+        <v>142</v>
+      </c>
+      <c r="H677" t="s">
+        <v>800</v>
+      </c>
+      <c r="I677" t="s">
+        <v>801</v>
+      </c>
+      <c r="J677" t="s">
+        <v>802</v>
+      </c>
+      <c r="K677" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E678" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F678" t="s">
+        <v>821</v>
+      </c>
+      <c r="G678" t="s">
+        <v>240</v>
+      </c>
+      <c r="H678" t="s">
+        <v>712</v>
+      </c>
+      <c r="I678" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J678" t="s">
+        <v>157</v>
+      </c>
+      <c r="K678" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E679" t="s">
+        <v>795</v>
+      </c>
+      <c r="F679" t="s">
+        <v>796</v>
+      </c>
+      <c r="G679" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H679" t="s">
+        <v>264</v>
+      </c>
+      <c r="I679" t="s">
+        <v>821</v>
+      </c>
+      <c r="J679" t="s">
+        <v>817</v>
+      </c>
+      <c r="K679" t="s">
+        <v>880</v>
+      </c>
+      <c r="L679" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E680" t="s">
+        <v>264</v>
+      </c>
+      <c r="F680" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G680" t="s">
+        <v>144</v>
+      </c>
+      <c r="H680" t="s">
+        <v>157</v>
+      </c>
+      <c r="I680" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E681" t="s">
+        <v>804</v>
+      </c>
+      <c r="F681" t="s">
+        <v>804</v>
+      </c>
+      <c r="G681" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E682" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>85</v>
+      </c>
+      <c r="B683" t="s">
+        <v>27</v>
+      </c>
+      <c r="C683" t="s">
+        <v>7</v>
+      </c>
+      <c r="D683">
+        <v>10</v>
+      </c>
+      <c r="E683" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E684" t="s">
+        <v>139</v>
+      </c>
+      <c r="F684" t="s">
+        <v>140</v>
+      </c>
+      <c r="G684" t="s">
+        <v>940</v>
+      </c>
+      <c r="H684" t="s">
+        <v>802</v>
+      </c>
+      <c r="I684" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E685" t="s">
+        <v>143</v>
+      </c>
+      <c r="F685" t="s">
+        <v>940</v>
+      </c>
+      <c r="G685" t="s">
+        <v>240</v>
+      </c>
+      <c r="H685" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I685" t="s">
+        <v>157</v>
+      </c>
+      <c r="J685" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E686" t="s">
+        <v>139</v>
+      </c>
+      <c r="F686" t="s">
+        <v>141</v>
+      </c>
+      <c r="G686" t="s">
+        <v>142</v>
+      </c>
+      <c r="H686" t="s">
+        <v>800</v>
+      </c>
+      <c r="I686" t="s">
+        <v>801</v>
+      </c>
+      <c r="J686" t="s">
+        <v>802</v>
+      </c>
+      <c r="K686" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E687" t="s">
+        <v>940</v>
+      </c>
+      <c r="F687" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G687" t="s">
+        <v>240</v>
+      </c>
+      <c r="H687" t="s">
+        <v>712</v>
+      </c>
+      <c r="I687" t="s">
+        <v>956</v>
+      </c>
+      <c r="J687" t="s">
+        <v>157</v>
+      </c>
+      <c r="K687" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E688" t="s">
+        <v>795</v>
+      </c>
+      <c r="F688" t="s">
+        <v>796</v>
+      </c>
+      <c r="G688" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H688" t="s">
+        <v>264</v>
+      </c>
+      <c r="I688" t="s">
+        <v>1503</v>
+      </c>
+      <c r="J688" t="s">
+        <v>817</v>
+      </c>
+      <c r="K688" t="s">
+        <v>940</v>
+      </c>
+      <c r="L688" t="s">
+        <v>144</v>
+      </c>
+      <c r="M688" t="s">
+        <v>157</v>
+      </c>
+      <c r="N688" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E689" t="s">
+        <v>804</v>
+      </c>
+      <c r="F689" t="s">
+        <v>804</v>
+      </c>
+      <c r="G689" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E690" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>86</v>
+      </c>
+      <c r="B691" t="s">
+        <v>27</v>
+      </c>
+      <c r="C691" t="s">
+        <v>8</v>
+      </c>
+      <c r="D691">
+        <v>10</v>
+      </c>
+      <c r="E691" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E692" t="s">
+        <v>139</v>
+      </c>
+      <c r="F692" t="s">
+        <v>140</v>
+      </c>
+      <c r="G692" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H692" t="s">
+        <v>802</v>
+      </c>
+      <c r="I692" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E693" t="s">
+        <v>139</v>
+      </c>
+      <c r="F693" t="s">
+        <v>141</v>
+      </c>
+      <c r="G693" t="s">
+        <v>142</v>
+      </c>
+      <c r="H693" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I693" t="s">
+        <v>191</v>
+      </c>
+      <c r="J693" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K693" t="s">
+        <v>144</v>
+      </c>
+      <c r="L693" t="s">
+        <v>802</v>
+      </c>
+      <c r="M693" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E694" t="s">
+        <v>795</v>
+      </c>
+      <c r="F694" t="s">
+        <v>796</v>
+      </c>
+      <c r="G694" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H694" t="s">
+        <v>264</v>
+      </c>
+      <c r="I694" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J694" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E695" t="s">
+        <v>264</v>
+      </c>
+      <c r="F695" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G695" t="s">
+        <v>144</v>
+      </c>
+      <c r="H695" t="s">
+        <v>157</v>
+      </c>
+      <c r="I695" t="s">
+        <v>804</v>
+      </c>
+      <c r="J695" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E696" t="s">
+        <v>139</v>
+      </c>
+      <c r="F696" t="s">
+        <v>141</v>
+      </c>
+      <c r="G696" t="s">
+        <v>142</v>
+      </c>
+      <c r="H696" t="s">
+        <v>800</v>
+      </c>
+      <c r="I696" t="s">
+        <v>801</v>
+      </c>
+      <c r="J696" t="s">
+        <v>802</v>
+      </c>
+      <c r="K696" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E697" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F697" t="s">
+        <v>821</v>
+      </c>
+      <c r="G697" t="s">
+        <v>240</v>
+      </c>
+      <c r="H697" t="s">
+        <v>712</v>
+      </c>
+      <c r="I697" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J697" t="s">
+        <v>157</v>
+      </c>
+      <c r="K697" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E698" t="s">
+        <v>795</v>
+      </c>
+      <c r="F698" t="s">
+        <v>796</v>
+      </c>
+      <c r="G698" t="s">
+        <v>821</v>
+      </c>
+      <c r="H698" t="s">
+        <v>817</v>
+      </c>
+      <c r="I698" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J698" t="s">
+        <v>796</v>
+      </c>
+      <c r="K698">
+        <v>8</v>
+      </c>
+      <c r="L698" t="s">
+        <v>144</v>
+      </c>
+      <c r="M698" t="s">
+        <v>157</v>
+      </c>
+      <c r="N698" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E699" t="s">
+        <v>804</v>
+      </c>
+      <c r="F699" t="s">
+        <v>804</v>
+      </c>
+      <c r="G699" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E700" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>87</v>
+      </c>
+      <c r="B701" t="s">
+        <v>27</v>
+      </c>
+      <c r="C701" t="s">
+        <v>8</v>
+      </c>
+      <c r="D701">
+        <v>10</v>
+      </c>
+      <c r="E701" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E702" t="s">
+        <v>139</v>
+      </c>
+      <c r="F702" t="s">
+        <v>140</v>
+      </c>
+      <c r="G702" t="s">
+        <v>940</v>
+      </c>
+      <c r="H702" t="s">
+        <v>802</v>
+      </c>
+      <c r="I702" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E703" t="s">
+        <v>139</v>
+      </c>
+      <c r="F703" t="s">
+        <v>141</v>
+      </c>
+      <c r="G703" t="s">
+        <v>142</v>
+      </c>
+      <c r="H703" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I703" t="s">
+        <v>143</v>
+      </c>
+      <c r="J703" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K703" t="s">
+        <v>144</v>
+      </c>
+      <c r="L703" t="s">
+        <v>802</v>
+      </c>
+      <c r="M703" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E704" t="s">
+        <v>795</v>
+      </c>
+      <c r="F704" t="s">
+        <v>796</v>
+      </c>
+      <c r="G704" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H704" t="s">
+        <v>264</v>
+      </c>
+      <c r="I704" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J704" t="s">
+        <v>144</v>
+      </c>
+      <c r="K704" t="s">
+        <v>157</v>
+      </c>
+      <c r="L704" t="s">
+        <v>804</v>
+      </c>
+      <c r="M704" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E705" t="s">
+        <v>139</v>
+      </c>
+      <c r="F705" t="s">
+        <v>141</v>
+      </c>
+      <c r="G705" t="s">
+        <v>142</v>
+      </c>
+      <c r="H705" t="s">
+        <v>800</v>
+      </c>
+      <c r="I705" t="s">
+        <v>801</v>
+      </c>
+      <c r="J705" t="s">
+        <v>802</v>
+      </c>
+      <c r="K705" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E706" t="s">
+        <v>940</v>
+      </c>
+      <c r="F706" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G706" t="s">
+        <v>240</v>
+      </c>
+      <c r="H706" t="s">
+        <v>712</v>
+      </c>
+      <c r="I706" t="s">
+        <v>956</v>
+      </c>
+      <c r="J706" t="s">
+        <v>157</v>
+      </c>
+      <c r="K706" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E707" t="s">
+        <v>795</v>
+      </c>
+      <c r="F707" t="s">
+        <v>796</v>
+      </c>
+      <c r="G707" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H707" t="s">
+        <v>817</v>
+      </c>
+      <c r="I707" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J707" t="s">
+        <v>796</v>
+      </c>
+      <c r="K707" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L707" t="s">
+        <v>144</v>
+      </c>
+      <c r="M707" t="s">
+        <v>157</v>
+      </c>
+      <c r="N707" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E708" t="s">
+        <v>804</v>
+      </c>
+      <c r="F708" t="s">
+        <v>804</v>
+      </c>
+      <c r="G708" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E709" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>88</v>
+      </c>
+      <c r="B710" t="s">
+        <v>28</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710">
+        <v>11</v>
+      </c>
+      <c r="E710" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E711" t="s">
+        <v>140</v>
+      </c>
+      <c r="F711" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G711" t="s">
+        <v>802</v>
+      </c>
+      <c r="H711" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E712" t="s">
+        <v>191</v>
+      </c>
+      <c r="F712" t="s">
+        <v>880</v>
+      </c>
+      <c r="G712" t="s">
+        <v>240</v>
+      </c>
+      <c r="H712">
+        <v>8</v>
+      </c>
+      <c r="I712" t="s">
+        <v>157</v>
+      </c>
+      <c r="J712" t="s">
+        <v>804</v>
+      </c>
+      <c r="K712" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E713" t="s">
+        <v>139</v>
+      </c>
+      <c r="F713" t="s">
+        <v>140</v>
+      </c>
+      <c r="G713" t="s">
+        <v>800</v>
+      </c>
+      <c r="H713" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E714" t="s">
+        <v>139</v>
+      </c>
+      <c r="F714" t="s">
+        <v>141</v>
+      </c>
+      <c r="G714" t="s">
+        <v>142</v>
+      </c>
+      <c r="H714" t="s">
+        <v>800</v>
+      </c>
+      <c r="I714" t="s">
+        <v>801</v>
+      </c>
+      <c r="J714" t="s">
+        <v>802</v>
+      </c>
+      <c r="K714" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E715" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F715" t="s">
+        <v>821</v>
+      </c>
+      <c r="G715" t="s">
+        <v>240</v>
+      </c>
+      <c r="H715" t="s">
+        <v>712</v>
+      </c>
+      <c r="I715" t="s">
+        <v>1502</v>
+      </c>
+      <c r="J715" t="s">
+        <v>157</v>
+      </c>
+      <c r="K715" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E716" t="s">
+        <v>795</v>
+      </c>
+      <c r="F716" t="s">
+        <v>796</v>
+      </c>
+      <c r="G716" t="s">
+        <v>821</v>
+      </c>
+      <c r="H716" t="s">
+        <v>817</v>
+      </c>
+      <c r="I716" t="s">
+        <v>880</v>
+      </c>
+      <c r="J716" t="s">
+        <v>144</v>
+      </c>
+      <c r="K716" t="s">
+        <v>157</v>
+      </c>
+      <c r="L716" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E717" t="s">
+        <v>804</v>
+      </c>
+      <c r="F717" t="s">
+        <v>804</v>
+      </c>
+      <c r="G717" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E718" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>89</v>
+      </c>
+      <c r="B719" t="s">
+        <v>28</v>
+      </c>
+      <c r="C719" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719">
+        <v>11</v>
+      </c>
+      <c r="E719" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E720" t="s">
+        <v>140</v>
+      </c>
+      <c r="F720" t="s">
+        <v>940</v>
+      </c>
+      <c r="G720" t="s">
+        <v>802</v>
+      </c>
+      <c r="H720" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E721" t="s">
+        <v>143</v>
+      </c>
+      <c r="F721" t="s">
+        <v>940</v>
+      </c>
+      <c r="G721" t="s">
+        <v>240</v>
+      </c>
+      <c r="H721" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I721" t="s">
+        <v>157</v>
+      </c>
+      <c r="J721" t="s">
+        <v>804</v>
+      </c>
+      <c r="K721" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E722" t="s">
+        <v>139</v>
+      </c>
+      <c r="F722" t="s">
+        <v>140</v>
+      </c>
+      <c r="G722" t="s">
+        <v>800</v>
+      </c>
+      <c r="H722" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E723" t="s">
+        <v>139</v>
+      </c>
+      <c r="F723" t="s">
+        <v>141</v>
+      </c>
+      <c r="G723" t="s">
+        <v>142</v>
+      </c>
+      <c r="H723" t="s">
+        <v>800</v>
+      </c>
+      <c r="I723" t="s">
+        <v>801</v>
+      </c>
+      <c r="J723" t="s">
+        <v>802</v>
+      </c>
+      <c r="K723" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E724" t="s">
+        <v>940</v>
+      </c>
+      <c r="F724" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G724" t="s">
+        <v>240</v>
+      </c>
+      <c r="H724" t="s">
+        <v>712</v>
+      </c>
+      <c r="I724" t="s">
+        <v>956</v>
+      </c>
+      <c r="J724" t="s">
+        <v>157</v>
+      </c>
+      <c r="K724" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E725" t="s">
+        <v>795</v>
+      </c>
+      <c r="F725" t="s">
+        <v>796</v>
+      </c>
+      <c r="G725" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H725" t="s">
+        <v>817</v>
+      </c>
+      <c r="I725" t="s">
+        <v>940</v>
+      </c>
+      <c r="J725" t="s">
+        <v>144</v>
+      </c>
+      <c r="K725" t="s">
+        <v>157</v>
+      </c>
+      <c r="L725" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E726" t="s">
+        <v>804</v>
+      </c>
+      <c r="F726" t="s">
+        <v>804</v>
+      </c>
+      <c r="G726" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E727" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>90</v>
+      </c>
+      <c r="B728" t="s">
+        <v>28</v>
+      </c>
+      <c r="C728" t="s">
+        <v>7</v>
+      </c>
+      <c r="D728">
+        <v>11</v>
+      </c>
+      <c r="E728" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E729" t="s">
+        <v>140</v>
+      </c>
+      <c r="F729" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G729" t="s">
+        <v>802</v>
+      </c>
+      <c r="H729" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E730" t="s">
+        <v>191</v>
+      </c>
+      <c r="F730" t="s">
+        <v>880</v>
+      </c>
+      <c r="G730" t="s">
+        <v>240</v>
+      </c>
+      <c r="H730">
+        <v>8</v>
+      </c>
+      <c r="I730" t="s">
+        <v>157</v>
+      </c>
+      <c r="J730" t="s">
+        <v>804</v>
+      </c>
+      <c r="K730" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E731" t="s">
+        <v>139</v>
+      </c>
+      <c r="F731" t="s">
+        <v>140</v>
+      </c>
+      <c r="G731" t="s">
+        <v>800</v>
+      </c>
+      <c r="H731" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E732" t="s">
+        <v>139</v>
+      </c>
+      <c r="F732" t="s">
+        <v>141</v>
+      </c>
+      <c r="G732" t="s">
+        <v>142</v>
+      </c>
+      <c r="H732" t="s">
+        <v>800</v>
+      </c>
+      <c r="I732" t="s">
+